--- a/Brainstorm.xlsx
+++ b/Brainstorm.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Personal@HDD\Game\DL\dragalia-data-track\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{981683F0-9C74-4ACB-B56F-6076C03BCCCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3F49B5C-D507-4854-BD3E-F5723EB0642E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5175" yWindow="2850" windowWidth="21600" windowHeight="11385" xr2:uid="{4CFB4A6A-60C6-4091-BCA5-480044B61D33}"/>
+    <workbookView xWindow="32445" yWindow="3630" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{4CFB4A6A-60C6-4091-BCA5-480044B61D33}"/>
   </bookViews>
   <sheets>
     <sheet name="Affliction" sheetId="1" r:id="rId1"/>
     <sheet name="Equips" sheetId="6" r:id="rId2"/>
     <sheet name="Steps" sheetId="4" r:id="rId3"/>
+    <sheet name="Damage" sheetId="7" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,8 +36,39 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={CB8FB53A-6734-48F6-BA34-94AD79DA4E09}</author>
+    <author>tc={53B2D701-BABF-4409-A1F2-841A52005360}</author>
+  </authors>
+  <commentList>
+    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{CB8FB53A-6734-48F6-BA34-94AD79DA4E09}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    【護符被動、龍被動】
+裝備時，遊戲內顯示出的改變後的 ATK，例如: 滿血
+Reply:
+    備註: 遊戲內的參數以 滿血、0 Combo 為條件</t>
+      </text>
+    </comment>
+    <comment ref="B6" authorId="1" shapeId="0" xr:uid="{53B2D701-BABF-4409-A1F2-841A52005360}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    【護符被動、龍被動】
+HP 70%、疾風怒濤...等</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="103">
   <si>
     <t>睡抗</t>
   </si>
@@ -104,9 +136,6 @@
     <t>護符 2</t>
   </si>
   <si>
-    <t>FQ</t>
-  </si>
-  <si>
     <t>護符 3</t>
   </si>
   <si>
@@ -134,30 +163,12 @@
     <t>CEX 3</t>
   </si>
   <si>
-    <t>短專</t>
-  </si>
-  <si>
-    <t>守護 +ATK</t>
-  </si>
-  <si>
-    <t>守護 +CDMG</t>
-  </si>
-  <si>
-    <t>BK 特</t>
-  </si>
-  <si>
-    <t>凍特</t>
-  </si>
-  <si>
     <t>法</t>
   </si>
   <si>
     <t>刀</t>
   </si>
   <si>
-    <t>洛克</t>
-  </si>
-  <si>
     <t>共享 1</t>
   </si>
   <si>
@@ -167,68 +178,212 @@
     <t>三葉</t>
   </si>
   <si>
-    <t>巧克力</t>
+    <t>0U</t>
+  </si>
+  <si>
+    <t>DEF</t>
+  </si>
+  <si>
+    <t>S3</t>
+  </si>
+  <si>
+    <t>S4</t>
+  </si>
+  <si>
+    <t>降防</t>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>FS</t>
+  </si>
+  <si>
+    <t>+SP</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>ULT</t>
+  </si>
+  <si>
+    <t>OD</t>
+  </si>
+  <si>
+    <t>BK</t>
+  </si>
+  <si>
+    <t>2睡眠全成功</t>
+  </si>
+  <si>
+    <t>毒</t>
+  </si>
+  <si>
+    <t>斧蘭</t>
+  </si>
+  <si>
+    <t>艾露</t>
+  </si>
+  <si>
+    <t>弓克</t>
+  </si>
+  <si>
+    <t>凍傷</t>
+  </si>
+  <si>
+    <t>庫豹</t>
+  </si>
+  <si>
+    <t>短符</t>
+  </si>
+  <si>
+    <t>CDMG</t>
+  </si>
+  <si>
+    <t>伊利亞</t>
   </si>
   <si>
     <t>聖城</t>
   </si>
   <si>
-    <t>0U</t>
-  </si>
-  <si>
-    <t>DEF</t>
-  </si>
-  <si>
-    <t>蓬萊</t>
-  </si>
-  <si>
-    <t>斧專</t>
-  </si>
-  <si>
-    <t>S3</t>
-  </si>
-  <si>
-    <t>S4</t>
-  </si>
-  <si>
-    <t>降防</t>
-  </si>
-  <si>
-    <t>S2</t>
-  </si>
-  <si>
-    <t>FS</t>
-  </si>
-  <si>
-    <t>+SP</t>
-  </si>
-  <si>
-    <t>S1</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>ULT</t>
-  </si>
-  <si>
-    <t>守護 +活力</t>
-  </si>
-  <si>
-    <t>OD</t>
-  </si>
-  <si>
-    <t>BK</t>
-  </si>
-  <si>
-    <t>2睡眠全成功</t>
+    <t>歌聲</t>
+  </si>
+  <si>
+    <t>巧 5</t>
+  </si>
+  <si>
+    <t>巧 4</t>
+  </si>
+  <si>
+    <t>光秀</t>
+  </si>
+  <si>
+    <t>守 +ATK +10</t>
+  </si>
+  <si>
+    <t>麻特</t>
+  </si>
+  <si>
+    <t>馬</t>
+  </si>
+  <si>
+    <t>蘭劍 S1 夢0</t>
+  </si>
+  <si>
+    <t>蘭劍 S1 FQ</t>
+  </si>
+  <si>
+    <t>常數</t>
+  </si>
+  <si>
+    <t>面板內被動攻擊</t>
+  </si>
+  <si>
+    <t>面板外被動攻擊</t>
+  </si>
+  <si>
+    <t>攻擊倍率</t>
+  </si>
+  <si>
+    <t>被動技傷</t>
+  </si>
+  <si>
+    <t>超活力</t>
+  </si>
+  <si>
+    <t>其他特攻和</t>
+  </si>
+  <si>
+    <t>龍化建築增傷</t>
+  </si>
+  <si>
+    <t>龍化被動增傷</t>
+  </si>
+  <si>
+    <t>基礎防禦</t>
+  </si>
+  <si>
+    <t>防禦變動</t>
+  </si>
+  <si>
+    <t>傷害計算</t>
+  </si>
+  <si>
+    <t>項目(技傷簡化版)</t>
+  </si>
+  <si>
+    <t>攻擊BUFF</t>
+  </si>
+  <si>
+    <t>刀EX</t>
+  </si>
+  <si>
+    <t>BK特攻</t>
+  </si>
+  <si>
+    <t>屬性增傷EX</t>
+  </si>
+  <si>
+    <t>ATK</t>
+  </si>
+  <si>
+    <t>傷害減免</t>
+  </si>
+  <si>
+    <t>CRT</t>
+  </si>
+  <si>
+    <t>面板</t>
+  </si>
+  <si>
+    <t>SDMG</t>
+  </si>
+  <si>
+    <t>特攻</t>
+  </si>
+  <si>
+    <t>屬性</t>
+  </si>
+  <si>
+    <t>倍率 (1.5 / 1 / 0.5)</t>
+  </si>
+  <si>
+    <t>CRT ? (0 / 1)</t>
+  </si>
+  <si>
+    <t>法 EX</t>
+  </si>
+  <si>
+    <t>技傷 BUFF</t>
+  </si>
+  <si>
+    <t>龍化？ (0 / 1)</t>
+  </si>
+  <si>
+    <t>龍化</t>
+  </si>
+  <si>
+    <t>亂數調整 (0.95~1.05)</t>
+  </si>
+  <si>
+    <t>BK 係數</t>
+  </si>
+  <si>
+    <t>BK 判定 (0 / 1)</t>
+  </si>
+  <si>
+    <t>濕身判定 (0 / 1)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -266,8 +421,30 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -328,8 +505,176 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.749992370372631"/>
+        <bgColor rgb="FFD9D9D9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.749992370372631"/>
+        <bgColor rgb="FFEFEFEF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.14999847407452621"/>
+        <bgColor rgb="FFD9D9D9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.14999847407452621"/>
+        <bgColor rgb="FFEAD1DC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF320000"/>
+        <bgColor rgb="FFEAD1DC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0E2234"/>
+        <bgColor rgb="FFEAD1DC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF323100"/>
+        <bgColor rgb="FFEAD1DC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF003217"/>
+        <bgColor rgb="FFEAD1DC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF1B0C26"/>
+        <bgColor rgb="FFEAD1DC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF001132"/>
+        <bgColor rgb="FFEAD1DC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF320000"/>
+        <bgColor rgb="FFD9D9D9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF320000"/>
+        <bgColor rgb="FFEFEFEF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF001132"/>
+        <bgColor rgb="FFD9D9D9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF001132"/>
+        <bgColor rgb="FFEFEFEF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF001132"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF323100"/>
+        <bgColor rgb="FFD9D9D9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF323100"/>
+        <bgColor rgb="FFEFEFEF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF003217"/>
+        <bgColor rgb="FFD9D9D9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF003217"/>
+        <bgColor rgb="FFEFEFEF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF1B0C26"/>
+        <bgColor rgb="FFD9D9D9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF1B0C26"/>
+        <bgColor rgb="FFEFEFEF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF1B0C26"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0E2234"/>
+        <bgColor rgb="FFD9D9D9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0E2234"/>
+        <bgColor rgb="FFEFEFEF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.89999084444715716"/>
+        <bgColor rgb="FFEAD1DC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.89999084444715716"/>
+        <bgColor rgb="FFD9D9D9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.89999084444715716"/>
+        <bgColor rgb="FFEFEFEF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -352,12 +697,194 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="2"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="2"/>
+      </right>
+      <top style="medium">
+        <color theme="2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="2"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="2"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="2"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
+      </left>
+      <right style="medium">
+        <color theme="2"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="2"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="2"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="2"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -428,7 +955,6 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -436,6 +962,291 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="22" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="22" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="24" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="25" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="27" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="29" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="31" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="34" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="38" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="22" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="22" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="24" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="27" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="29" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="31" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="34" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="35" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="35" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="38" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="38" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="38" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="30" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="30" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="30" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="32" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="32" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="23" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="23" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="23" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="21" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="21" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="28" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="28" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -447,16 +1258,16 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="FF003217"/>
-      <color rgb="FF2F2E00"/>
+      <color rgb="FF242300"/>
+      <color rgb="FF000C24"/>
+      <color rgb="FF240000"/>
+      <color rgb="FF140000"/>
       <color rgb="FF0E2234"/>
       <color rgb="FF320000"/>
-      <color rgb="FF00220F"/>
+      <color rgb="FF1B0C26"/>
+      <color rgb="FF003217"/>
       <color rgb="FF323100"/>
-      <color rgb="FF141400"/>
-      <color rgb="FF585600"/>
-      <color rgb="FF333200"/>
-      <color rgb="FF4C0E00"/>
+      <color rgb="FF001132"/>
     </mruColors>
   </colors>
   <extLst>
@@ -468,6 +1279,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="RaenonX" id="{ABEC8F12-B0D3-44BC-AF35-B8DCE860105B}" userId="aff98139d4bac41f" providerId="Windows Live"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -765,11 +1582,27 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="B5" dT="2020-10-09T14:25:11.51" personId="{ABEC8F12-B0D3-44BC-AF35-B8DCE860105B}" id="{CB8FB53A-6734-48F6-BA34-94AD79DA4E09}">
+    <text>【護符被動、龍被動】
+裝備時，遊戲內顯示出的改變後的 ATK，例如: 滿血</text>
+  </threadedComment>
+  <threadedComment ref="B5" dT="2020-10-10T03:59:54.28" personId="{ABEC8F12-B0D3-44BC-AF35-B8DCE860105B}" id="{7E528C82-A66B-4AF2-A123-3A681BC63FC1}" parentId="{CB8FB53A-6734-48F6-BA34-94AD79DA4E09}">
+    <text>備註: 遊戲內的參數以 滿血、0 Combo 為條件</text>
+  </threadedComment>
+  <threadedComment ref="B6" dT="2020-10-10T04:01:10.20" personId="{ABEC8F12-B0D3-44BC-AF35-B8DCE860105B}" id="{53B2D701-BABF-4409-A1F2-841A52005360}">
+    <text>【護符被動、龍被動】
+HP 70%、疾風怒濤...等</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98358B4D-3860-4186-AD24-D3864A865E87}">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -891,7 +1724,7 @@
         <v>3.6099999999999979E-2</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>13</v>
@@ -942,7 +1775,7 @@
     </row>
     <row r="10" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D10" s="1" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="E10" s="4">
         <f>E6*E6</f>
@@ -959,40 +1792,36 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="A1:E16"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="5"/>
     <col min="2" max="5" width="16.5703125" style="6" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="24"/>
+    <col min="6" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="5" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="10">
-        <v>624</v>
-      </c>
-      <c r="C2" s="10">
-        <v>624</v>
-      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
       <c r="D2" s="10"/>
       <c r="E2" s="10"/>
     </row>
@@ -1000,15 +1829,9 @@
       <c r="A3" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>47</v>
-      </c>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
       <c r="E3" s="12"/>
     </row>
     <row r="4" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1016,16 +1839,14 @@
         <v>20</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>43</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="D4" s="15"/>
       <c r="E4" s="15" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1033,101 +1854,97 @@
         <v>21</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>44</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="D5" s="15"/>
       <c r="E5" s="15" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>34</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="C6" s="15"/>
       <c r="D6" s="15"/>
-      <c r="E6" s="15" t="s">
-        <v>48</v>
-      </c>
+      <c r="E6" s="15"/>
     </row>
     <row r="7" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
+      <c r="E7" s="17" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="8" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D8" s="17"/>
       <c r="E8" s="17"/>
     </row>
     <row r="9" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
     </row>
     <row r="10" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
     </row>
     <row r="11" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="D11" s="21"/>
       <c r="E11" s="21"/>
     </row>
     <row r="12" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B12" s="19"/>
       <c r="C12" s="19"/>
@@ -1136,7 +1953,7 @@
     </row>
     <row r="13" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B13" s="19"/>
       <c r="C13" s="19"/>
@@ -1145,7 +1962,7 @@
     </row>
     <row r="14" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B14" s="19"/>
       <c r="C14" s="19"/>
@@ -1154,36 +1971,36 @@
     </row>
     <row r="15" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B16" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="8" t="s">
         <v>51</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1218,24 +2035,24 @@
       </c>
       <c r="B2" s="8"/>
       <c r="C2" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="H2" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="M2" s="27" t="s">
-        <v>52</v>
+        <v>38</v>
+      </c>
+      <c r="H2" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="M2" s="26" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="10" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="8"/>
       <c r="M3" s="10" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:13" s="10" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="10">
@@ -1257,24 +2074,24 @@
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="H5" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="L5" s="26" t="s">
-        <v>52</v>
+        <v>38</v>
+      </c>
+      <c r="H5" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="L5" s="25" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:13" s="12" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="8"/>
       <c r="L6" s="12" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:13" s="12" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="12">
@@ -1292,48 +2109,48 @@
     </row>
     <row r="8" spans="1:13" s="13" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J8" s="13" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="K8" s="13" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:13" s="13" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="8"/>
       <c r="F9" s="23" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:13" s="13" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="B10" s="8"/>
       <c r="D10" s="13">
@@ -1349,22 +2166,22 @@
     </row>
     <row r="11" spans="1:13" s="19" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="I11" s="25" t="s">
-        <v>55</v>
+        <v>41</v>
+      </c>
+      <c r="I11" s="24" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:13" s="19" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1372,7 +2189,7 @@
     </row>
     <row r="13" spans="1:13" s="19" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="B13" s="8"/>
       <c r="C13" s="19">
@@ -1391,4 +2208,568 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEFF6CA3-18A6-4987-88AD-5768B35D8A0C}">
+  <dimension ref="A1:F29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="71"/>
+    <col min="2" max="2" width="19" style="72" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="64" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" style="27" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="27"/>
+    <col min="6" max="6" width="11.28515625" style="27" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="118" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="119"/>
+      <c r="C1" s="120" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="121"/>
+      <c r="E1" s="120" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1" s="121"/>
+    </row>
+    <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="77" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" s="78"/>
+      <c r="C2" s="52">
+        <f>5/3</f>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="D2" s="29">
+        <f>C2</f>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="E2" s="28">
+        <f>5/3</f>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="F2" s="29">
+        <f>E2</f>
+        <v>1.6666666666666667</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="77" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="78"/>
+      <c r="C3" s="52">
+        <v>0</v>
+      </c>
+      <c r="D3" s="29">
+        <f>1-C3</f>
+        <v>1</v>
+      </c>
+      <c r="E3" s="28">
+        <v>0</v>
+      </c>
+      <c r="F3" s="29">
+        <f>1-E3</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="32" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="81" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" s="65" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" s="53">
+        <v>6016</v>
+      </c>
+      <c r="D4" s="109">
+        <f>(C4/(1+C5)*(1+C5+C6)*(1+C7)*(1+C8))</f>
+        <v>16279.295999999998</v>
+      </c>
+      <c r="E4" s="31">
+        <v>5348</v>
+      </c>
+      <c r="F4" s="109">
+        <f>(E4/(1+E5)*(1+E5+E6)*(1+E7)*(1+E8))</f>
+        <v>14471.688000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="32" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="82"/>
+      <c r="B5" s="65" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="54">
+        <v>0.35</v>
+      </c>
+      <c r="D5" s="110"/>
+      <c r="E5" s="33">
+        <v>0.2</v>
+      </c>
+      <c r="F5" s="110"/>
+    </row>
+    <row r="6" spans="1:6" s="32" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="82"/>
+      <c r="B6" s="65" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="55">
+        <v>0</v>
+      </c>
+      <c r="D6" s="110"/>
+      <c r="E6" s="34">
+        <v>0</v>
+      </c>
+      <c r="F6" s="110"/>
+    </row>
+    <row r="7" spans="1:6" s="32" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="82"/>
+      <c r="B7" s="65" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" s="55">
+        <v>1.46</v>
+      </c>
+      <c r="D7" s="110"/>
+      <c r="E7" s="34">
+        <v>1.46</v>
+      </c>
+      <c r="F7" s="110"/>
+    </row>
+    <row r="8" spans="1:6" s="32" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="83"/>
+      <c r="B8" s="65" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" s="55">
+        <v>0.1</v>
+      </c>
+      <c r="D8" s="111"/>
+      <c r="E8" s="34">
+        <v>0.1</v>
+      </c>
+      <c r="F8" s="111"/>
+    </row>
+    <row r="9" spans="1:6" s="37" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="112" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" s="113"/>
+      <c r="C9" s="56">
+        <v>36</v>
+      </c>
+      <c r="D9" s="36">
+        <f>C9</f>
+        <v>36</v>
+      </c>
+      <c r="E9" s="35">
+        <v>36</v>
+      </c>
+      <c r="F9" s="36">
+        <f>E9</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="39" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="114" t="s">
+        <v>88</v>
+      </c>
+      <c r="B10" s="66" t="s">
+        <v>94</v>
+      </c>
+      <c r="C10" s="57">
+        <v>1</v>
+      </c>
+      <c r="D10" s="116">
+        <f>1+((0.7+C11)*C10)</f>
+        <v>2.15</v>
+      </c>
+      <c r="E10" s="38">
+        <v>1</v>
+      </c>
+      <c r="F10" s="116">
+        <f>1+((0.7+E11)*E10)</f>
+        <v>2.15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="39" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="115"/>
+      <c r="B11" s="66" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="58">
+        <v>0.45</v>
+      </c>
+      <c r="D11" s="117"/>
+      <c r="E11" s="40">
+        <v>0.45</v>
+      </c>
+      <c r="F11" s="117"/>
+    </row>
+    <row r="12" spans="1:6" s="42" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="99" t="s">
+        <v>90</v>
+      </c>
+      <c r="B12" s="67" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" s="59">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D12" s="102">
+        <f>(1+C12+C13)*(1+C14)*(1+C15)</f>
+        <v>2.415</v>
+      </c>
+      <c r="E12" s="41">
+        <v>1.3</v>
+      </c>
+      <c r="F12" s="102">
+        <f>(1+E12+E13)*(1+E14)*(1+E15)</f>
+        <v>2.6449999999999996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="42" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="100"/>
+      <c r="B13" s="67" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" s="59">
+        <v>0</v>
+      </c>
+      <c r="D13" s="103"/>
+      <c r="E13" s="41">
+        <v>0</v>
+      </c>
+      <c r="F13" s="103"/>
+    </row>
+    <row r="14" spans="1:6" s="42" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="100"/>
+      <c r="B14" s="67" t="s">
+        <v>95</v>
+      </c>
+      <c r="C14" s="59">
+        <v>0.15</v>
+      </c>
+      <c r="D14" s="103"/>
+      <c r="E14" s="41">
+        <v>0.15</v>
+      </c>
+      <c r="F14" s="103"/>
+    </row>
+    <row r="15" spans="1:6" s="42" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="101"/>
+      <c r="B15" s="67" t="s">
+        <v>96</v>
+      </c>
+      <c r="C15" s="59">
+        <v>0</v>
+      </c>
+      <c r="D15" s="104"/>
+      <c r="E15" s="41">
+        <v>0</v>
+      </c>
+      <c r="F15" s="104"/>
+    </row>
+    <row r="16" spans="1:6" s="44" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="105" t="s">
+        <v>91</v>
+      </c>
+      <c r="B16" s="68" t="s">
+        <v>84</v>
+      </c>
+      <c r="C16" s="60">
+        <v>0</v>
+      </c>
+      <c r="D16" s="107">
+        <f>(1+C16)*(1+C17)</f>
+        <v>1.2</v>
+      </c>
+      <c r="E16" s="43">
+        <v>0</v>
+      </c>
+      <c r="F16" s="107">
+        <f>(1+E16)*(1+E17)</f>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="44" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="106"/>
+      <c r="B17" s="68" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="60">
+        <v>0.2</v>
+      </c>
+      <c r="D17" s="108"/>
+      <c r="E17" s="43">
+        <v>0.2</v>
+      </c>
+      <c r="F17" s="108"/>
+    </row>
+    <row r="18" spans="1:6" s="46" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="89" t="s">
+        <v>92</v>
+      </c>
+      <c r="B18" s="69" t="s">
+        <v>93</v>
+      </c>
+      <c r="C18" s="61">
+        <v>1.5</v>
+      </c>
+      <c r="D18" s="91">
+        <f>C18+C19</f>
+        <v>1.5</v>
+      </c>
+      <c r="E18" s="45">
+        <v>1.5</v>
+      </c>
+      <c r="F18" s="91">
+        <f>E18+E19</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="46" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="90"/>
+      <c r="B19" s="69" t="s">
+        <v>85</v>
+      </c>
+      <c r="C19" s="62">
+        <v>0</v>
+      </c>
+      <c r="D19" s="92"/>
+      <c r="E19" s="47">
+        <v>0</v>
+      </c>
+      <c r="F19" s="92"/>
+    </row>
+    <row r="20" spans="1:6" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="93" t="s">
+        <v>98</v>
+      </c>
+      <c r="B20" s="70" t="s">
+        <v>97</v>
+      </c>
+      <c r="C20" s="63">
+        <v>0</v>
+      </c>
+      <c r="D20" s="96">
+        <f>1+C20*(0.2+C21+C22)</f>
+        <v>1</v>
+      </c>
+      <c r="E20" s="48">
+        <v>0</v>
+      </c>
+      <c r="F20" s="96">
+        <f>1+E20*(0.2+E21+E22)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="94"/>
+      <c r="B21" s="70" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" s="63">
+        <v>0.5</v>
+      </c>
+      <c r="D21" s="97"/>
+      <c r="E21" s="48">
+        <v>0.5</v>
+      </c>
+      <c r="F21" s="97"/>
+    </row>
+    <row r="22" spans="1:6" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="95"/>
+      <c r="B22" s="70" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22" s="63">
+        <v>0</v>
+      </c>
+      <c r="D22" s="98"/>
+      <c r="E22" s="48">
+        <v>0</v>
+      </c>
+      <c r="F22" s="98"/>
+    </row>
+    <row r="23" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="77" t="s">
+        <v>99</v>
+      </c>
+      <c r="B23" s="78"/>
+      <c r="C23" s="52">
+        <v>1</v>
+      </c>
+      <c r="D23" s="30">
+        <f>C23</f>
+        <v>1</v>
+      </c>
+      <c r="E23" s="28">
+        <v>1</v>
+      </c>
+      <c r="F23" s="30">
+        <f>E23</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="79" t="s">
+        <v>78</v>
+      </c>
+      <c r="B24" s="80"/>
+      <c r="C24" s="63">
+        <v>10</v>
+      </c>
+      <c r="D24" s="50">
+        <f>C24</f>
+        <v>10</v>
+      </c>
+      <c r="E24" s="48">
+        <v>10</v>
+      </c>
+      <c r="F24" s="50">
+        <f>E24</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" s="32" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="81" t="s">
+        <v>79</v>
+      </c>
+      <c r="B25" s="65" t="s">
+        <v>101</v>
+      </c>
+      <c r="C25" s="53">
+        <v>0</v>
+      </c>
+      <c r="D25" s="84">
+        <f>(1-(1-C26)*C25)*(1-C27)</f>
+        <v>1</v>
+      </c>
+      <c r="E25" s="31">
+        <v>0</v>
+      </c>
+      <c r="F25" s="84">
+        <f>(1-(1-E26)*E25)*(1-E27)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" s="32" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="82"/>
+      <c r="B26" s="65" t="s">
+        <v>100</v>
+      </c>
+      <c r="C26" s="53">
+        <v>0.6</v>
+      </c>
+      <c r="D26" s="85"/>
+      <c r="E26" s="31">
+        <v>0.6</v>
+      </c>
+      <c r="F26" s="85"/>
+    </row>
+    <row r="27" spans="1:6" s="32" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="83"/>
+      <c r="B27" s="65" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="55">
+        <v>0</v>
+      </c>
+      <c r="D27" s="86"/>
+      <c r="E27" s="34">
+        <v>0</v>
+      </c>
+      <c r="F27" s="86"/>
+    </row>
+    <row r="28" spans="1:6" s="46" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="87" t="s">
+        <v>102</v>
+      </c>
+      <c r="B28" s="88"/>
+      <c r="C28" s="61">
+        <v>0</v>
+      </c>
+      <c r="D28" s="51">
+        <f>C28*0.5+1</f>
+        <v>1</v>
+      </c>
+      <c r="E28" s="45">
+        <v>0</v>
+      </c>
+      <c r="F28" s="51">
+        <f>E28*0.5+1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="73" t="s">
+        <v>80</v>
+      </c>
+      <c r="B29" s="74"/>
+      <c r="C29" s="75">
+        <f>D2*D3*D4*D9*D10*D12*D16*D18*D20*D23/D24/D25*D28</f>
+        <v>912882.68628480006</v>
+      </c>
+      <c r="D29" s="76"/>
+      <c r="E29" s="75">
+        <f>F2*F3*F4*F9*F10*F12*F16*F18*F20*F23/F24/F25*F28</f>
+        <v>888806.21472719987</v>
+      </c>
+      <c r="F29" s="76"/>
+    </row>
+  </sheetData>
+  <mergeCells count="33">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="D4:D8"/>
+    <mergeCell ref="F4:F8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="D12:D15"/>
+    <mergeCell ref="F12:F15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="F20:F22"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="F25:F27"/>
+    <mergeCell ref="A28:B28"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/Brainstorm.xlsx
+++ b/Brainstorm.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Personal@HDD\Game\DL\dragalia-data-track\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3F49B5C-D507-4854-BD3E-F5723EB0642E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E29210D-6F37-4B39-B2CA-BE207F72EFBE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32445" yWindow="3630" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{4CFB4A6A-60C6-4091-BCA5-480044B61D33}"/>
+    <workbookView xWindow="7575" yWindow="765" windowWidth="21135" windowHeight="12615" activeTab="1" xr2:uid="{4CFB4A6A-60C6-4091-BCA5-480044B61D33}"/>
   </bookViews>
   <sheets>
     <sheet name="Affliction" sheetId="1" r:id="rId1"/>
-    <sheet name="Equips" sheetId="6" r:id="rId2"/>
-    <sheet name="Steps" sheetId="4" r:id="rId3"/>
-    <sheet name="Damage" sheetId="7" r:id="rId4"/>
+    <sheet name="Rotation" sheetId="8" r:id="rId2"/>
+    <sheet name="Equips" sheetId="6" r:id="rId3"/>
+    <sheet name="Steps" sheetId="4" r:id="rId4"/>
+    <sheet name="Damage" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -67,8 +68,30 @@
 </comments>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="136">
   <si>
     <t>睡抗</t>
   </si>
@@ -377,13 +400,112 @@
   </si>
   <si>
     <t>濕身判定 (0 / 1)</t>
+  </si>
+  <si>
+    <t>武器種類</t>
+  </si>
+  <si>
+    <t>劍</t>
+  </si>
+  <si>
+    <t>短</t>
+  </si>
+  <si>
+    <t>斧</t>
+  </si>
+  <si>
+    <t>槍</t>
+  </si>
+  <si>
+    <t>弓</t>
+  </si>
+  <si>
+    <t>補</t>
+  </si>
+  <si>
+    <t>長銃</t>
+  </si>
+  <si>
+    <t>短銃</t>
+  </si>
+  <si>
+    <t>散銃</t>
+  </si>
+  <si>
+    <t>EX</t>
+  </si>
+  <si>
+    <t>護符</t>
+  </si>
+  <si>
+    <t>連組</t>
+  </si>
+  <si>
+    <t>技能資訊</t>
+  </si>
+  <si>
+    <t>計算結果</t>
+  </si>
+  <si>
+    <t>一套 SP</t>
+  </si>
+  <si>
+    <t>SP 表 (Combo 為累加)</t>
+  </si>
+  <si>
+    <t>原始 SP 表 (Combo 為累加)</t>
+  </si>
+  <si>
+    <t>SP +%</t>
+  </si>
+  <si>
+    <t>SP 回流%</t>
+  </si>
+  <si>
+    <t>S1 SP</t>
+  </si>
+  <si>
+    <t>S1 實際 SP</t>
+  </si>
+  <si>
+    <t>S2 SP</t>
+  </si>
+  <si>
+    <t>S1 輪轉</t>
+  </si>
+  <si>
+    <t>S2 輪轉</t>
+  </si>
+  <si>
+    <t>S1 補刀 SP</t>
+  </si>
+  <si>
+    <t>S2 補刀 SP</t>
+  </si>
+  <si>
+    <t>S2 實際 SP</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>C5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -443,8 +565,40 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="39">
+  <fills count="44">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -673,8 +827,38 @@
         <bgColor rgb="FFEFEFEF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF240000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000C24"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF030024"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -879,25 +1063,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="154">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1102,6 +1285,120 @@
     <xf numFmtId="0" fontId="6" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="23" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="23" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="23" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="21" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="21" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="28" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="28" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="30" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="30" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="30" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="32" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="32" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="35" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="35" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="38" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="38" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="38" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1114,27 +1411,12 @@
     <xf numFmtId="3" fontId="8" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="36" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="36" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="23" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1150,103 +1432,112 @@
     <xf numFmtId="0" fontId="6" fillId="17" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="35" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="35" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="30" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="30" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="30" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="32" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="32" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="23" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="23" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="23" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="21" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="21" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="28" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="28" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="39" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="39" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="39" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="39" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="39" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="40" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="41" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="42" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="42" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="40" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="41" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="41" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="39" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="39" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="39" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="41" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="41" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="43" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="43" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="43" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="43" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="43" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1258,16 +1549,16 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF030024"/>
+      <color rgb="FF003217"/>
+      <color rgb="FF240000"/>
+      <color rgb="FF323100"/>
+      <color rgb="FF000C24"/>
       <color rgb="FF242300"/>
-      <color rgb="FF000C24"/>
-      <color rgb="FF240000"/>
       <color rgb="FF140000"/>
       <color rgb="FF0E2234"/>
       <color rgb="FF320000"/>
       <color rgb="FF1B0C26"/>
-      <color rgb="FF003217"/>
-      <color rgb="FF323100"/>
-      <color rgb="FF001132"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1603,191 +1894,936 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="10.85546875" style="1"/>
-    <col min="4" max="4" width="13.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" style="4"/>
-    <col min="6" max="6" width="18.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" style="1"/>
-    <col min="8" max="9" width="13.28515625" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="10.85546875" style="1"/>
+    <col min="1" max="3" width="10.85546875" style="118"/>
+    <col min="4" max="4" width="13.28515625" style="118" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" style="120"/>
+    <col min="6" max="6" width="18.42578125" style="118" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" style="118"/>
+    <col min="8" max="9" width="13.28515625" style="118" customWidth="1"/>
+    <col min="10" max="16384" width="10.85546875" style="118"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="118" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
+      <c r="B1" s="119">
         <v>0.99</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="118" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="120" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="118" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="118" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="119">
         <v>0.99</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="118" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="120">
         <f>B4-B2</f>
         <v>0.81</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="118" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="118" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="3">
+      <c r="J2" s="121">
         <f>VLOOKUP(H2,$D:$E,2,FALSE)*VLOOKUP(I2,$D:$E,2,FALSE)</f>
         <v>8.9100000000000082E-2</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="118" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="119">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="118" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="120">
         <f>1-E2</f>
         <v>0.18999999999999995</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="118" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="118" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3" s="121">
         <f>VLOOKUP(H3,$D:$E,2,FALSE)*VLOOKUP(I3,$D:$E,2,FALSE)</f>
         <v>0.16839900000000016</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="119">
         <v>1.8</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="118" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="120">
         <f>1-E5</f>
         <v>0.96389999999999998</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="118" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="118" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" s="118" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4" s="121">
         <f>VLOOKUP(H4,$D:$E,2,FALSE)*VLOOKUP(I4,$D:$E,2,FALSE)</f>
         <v>0.20039481000000017</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="118" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="120">
         <f>E3*E3</f>
         <v>3.6099999999999979E-2</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="118" t="s">
         <v>49</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I5" s="118" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5" s="121">
         <f>VLOOKUP(H5,$D:$E,2,FALSE)*VLOOKUP(I5,$D:$E,2,FALSE)</f>
         <v>9.801000000000018E-3</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="118" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="120">
         <f>B3-B1</f>
         <v>0.1100000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="118" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="120">
         <f>1-E6</f>
         <v>0.8899999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="118" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="120">
         <f>1-E9</f>
         <v>0.2079000000000002</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="118" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="118" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="120">
         <f>E7*E7</f>
         <v>0.7920999999999998</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="118" t="s">
         <v>49</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="120">
         <f>E6*E6</f>
         <v>1.2100000000000022E-2</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B260D6A6-975E-4594-902D-33C279C7CA35}">
+  <dimension ref="A1:V13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R5" sqref="R5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="14" width="5.85546875" style="118" customWidth="1"/>
+    <col min="15" max="15" width="5.85546875" style="148" customWidth="1"/>
+    <col min="16" max="16" width="5.85546875" style="150" customWidth="1"/>
+    <col min="17" max="17" width="5.85546875" style="124" customWidth="1"/>
+    <col min="18" max="18" width="5.85546875" style="132" customWidth="1"/>
+    <col min="19" max="19" width="11" style="125" customWidth="1"/>
+    <col min="20" max="20" width="9.140625" style="13" customWidth="1"/>
+    <col min="21" max="21" width="11" style="130" customWidth="1"/>
+    <col min="22" max="22" width="10.5703125" style="15" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="118"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="136" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" s="137"/>
+      <c r="C1" s="137"/>
+      <c r="D1" s="137"/>
+      <c r="E1" s="137"/>
+      <c r="F1" s="137"/>
+      <c r="G1" s="138"/>
+      <c r="H1" s="136" t="s">
+        <v>119</v>
+      </c>
+      <c r="I1" s="137"/>
+      <c r="J1" s="137"/>
+      <c r="K1" s="137"/>
+      <c r="L1" s="137"/>
+      <c r="M1" s="137"/>
+      <c r="N1" s="138"/>
+      <c r="O1" s="146" t="s">
+        <v>122</v>
+      </c>
+      <c r="P1" s="147"/>
+      <c r="Q1" s="139" t="s">
+        <v>121</v>
+      </c>
+      <c r="R1" s="140"/>
+      <c r="S1" s="141" t="s">
+        <v>116</v>
+      </c>
+      <c r="T1" s="142"/>
+      <c r="U1" s="143" t="s">
+        <v>117</v>
+      </c>
+      <c r="V1" s="144"/>
+    </row>
+    <row r="2" spans="1:22" s="122" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="129" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="127" t="s">
+        <v>131</v>
+      </c>
+      <c r="C2" s="127" t="s">
+        <v>132</v>
+      </c>
+      <c r="D2" s="127" t="s">
+        <v>133</v>
+      </c>
+      <c r="E2" s="127" t="s">
+        <v>134</v>
+      </c>
+      <c r="F2" s="127" t="s">
+        <v>135</v>
+      </c>
+      <c r="G2" s="128" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" s="129" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="127" t="s">
+        <v>131</v>
+      </c>
+      <c r="J2" s="127" t="s">
+        <v>132</v>
+      </c>
+      <c r="K2" s="127" t="s">
+        <v>133</v>
+      </c>
+      <c r="L2" s="127" t="s">
+        <v>134</v>
+      </c>
+      <c r="M2" s="127" t="s">
+        <v>135</v>
+      </c>
+      <c r="N2" s="128" t="s">
+        <v>42</v>
+      </c>
+      <c r="O2" s="148" t="s">
+        <v>113</v>
+      </c>
+      <c r="P2" s="149">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="124" t="s">
+        <v>113</v>
+      </c>
+      <c r="R2" s="131">
+        <v>0.15</v>
+      </c>
+      <c r="S2" s="125" t="s">
+        <v>10</v>
+      </c>
+      <c r="T2" s="12"/>
+      <c r="U2" s="133" t="s">
+        <v>118</v>
+      </c>
+      <c r="V2" s="134">
+        <f>VLOOKUP(T3,$H$3:$M$13,6,FALSE)</f>
+        <v>2464.8000000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B3" s="126">
+        <v>150</v>
+      </c>
+      <c r="C3" s="126">
+        <v>300</v>
+      </c>
+      <c r="D3" s="126">
+        <v>496</v>
+      </c>
+      <c r="E3" s="126">
+        <v>761</v>
+      </c>
+      <c r="F3" s="126">
+        <v>1152</v>
+      </c>
+      <c r="G3" s="123">
+        <v>345</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="I3" s="126">
+        <f>B3 * (1+SUM($R:$R))</f>
+        <v>237</v>
+      </c>
+      <c r="J3" s="126">
+        <f t="shared" ref="J3:J13" si="0">C3 * (1+SUM($R:$R))</f>
+        <v>474</v>
+      </c>
+      <c r="K3" s="126">
+        <f>D3 * (1+SUM($R:$R))</f>
+        <v>783.68000000000006</v>
+      </c>
+      <c r="L3" s="126">
+        <f>E3 * (1+SUM($R:$R))</f>
+        <v>1202.3800000000001</v>
+      </c>
+      <c r="M3" s="126">
+        <f>F3 * (1+SUM($R:$R))</f>
+        <v>1820.16</v>
+      </c>
+      <c r="N3" s="123">
+        <f t="shared" ref="N3:N13" si="1">G3 * (1+SUM($R:$R))</f>
+        <v>545.1</v>
+      </c>
+      <c r="O3" s="148" t="s">
+        <v>19</v>
+      </c>
+      <c r="P3" s="149">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="124" t="s">
+        <v>19</v>
+      </c>
+      <c r="R3" s="131">
+        <v>0.35</v>
+      </c>
+      <c r="S3" s="125" t="s">
+        <v>103</v>
+      </c>
+      <c r="T3" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="U3" s="133" t="s">
+        <v>128</v>
+      </c>
+      <c r="V3" s="134">
+        <f>MOD(T6, V2)</f>
+        <v>2305.1999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="126">
+        <v>130</v>
+      </c>
+      <c r="C4" s="126">
+        <v>260</v>
+      </c>
+      <c r="D4" s="126">
+        <v>480</v>
+      </c>
+      <c r="E4" s="126">
+        <v>840</v>
+      </c>
+      <c r="F4" s="126">
+        <v>1740</v>
+      </c>
+      <c r="G4" s="123">
+        <v>200</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" s="126">
+        <f t="shared" ref="I4:I13" si="2">B4 * (1+SUM($R:$R))</f>
+        <v>205.4</v>
+      </c>
+      <c r="J4" s="126">
+        <f t="shared" si="0"/>
+        <v>410.8</v>
+      </c>
+      <c r="K4" s="126">
+        <f>D4 * (1+SUM($R:$R))</f>
+        <v>758.40000000000009</v>
+      </c>
+      <c r="L4" s="126">
+        <f>E4 * (1+SUM($R:$R))</f>
+        <v>1327.2</v>
+      </c>
+      <c r="M4" s="126">
+        <f>F4 * (1+SUM($R:$R))</f>
+        <v>2749.2000000000003</v>
+      </c>
+      <c r="N4" s="123">
+        <f t="shared" si="1"/>
+        <v>316</v>
+      </c>
+      <c r="O4" s="148" t="s">
+        <v>114</v>
+      </c>
+      <c r="P4" s="149">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="124" t="s">
+        <v>114</v>
+      </c>
+      <c r="R4" s="131">
+        <v>0.08</v>
+      </c>
+      <c r="S4" s="125" t="s">
+        <v>123</v>
+      </c>
+      <c r="T4" s="13">
+        <v>4770</v>
+      </c>
+      <c r="U4" s="133" t="s">
+        <v>129</v>
+      </c>
+      <c r="V4" s="134">
+        <f>MOD(T7, V2)</f>
+        <v>1870.3999999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B5" s="126">
+        <v>144</v>
+      </c>
+      <c r="C5" s="126">
+        <v>288</v>
+      </c>
+      <c r="D5" s="126">
+        <v>552</v>
+      </c>
+      <c r="E5" s="126">
+        <v>840</v>
+      </c>
+      <c r="F5" s="126">
+        <v>1320</v>
+      </c>
+      <c r="G5" s="123">
+        <v>288</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="I5" s="126">
+        <f t="shared" si="2"/>
+        <v>227.52</v>
+      </c>
+      <c r="J5" s="126">
+        <f t="shared" si="0"/>
+        <v>455.04</v>
+      </c>
+      <c r="K5" s="126">
+        <f>D5 * (1+SUM($R:$R))</f>
+        <v>872.16000000000008</v>
+      </c>
+      <c r="L5" s="126">
+        <f>E5 * (1+SUM($R:$R))</f>
+        <v>1327.2</v>
+      </c>
+      <c r="M5" s="126">
+        <f>F5 * (1+SUM($R:$R))</f>
+        <v>2085.6</v>
+      </c>
+      <c r="N5" s="123">
+        <f t="shared" si="1"/>
+        <v>455.04</v>
+      </c>
+      <c r="O5" s="148" t="s">
+        <v>115</v>
+      </c>
+      <c r="P5" s="149">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="124" t="s">
+        <v>115</v>
+      </c>
+      <c r="R5" s="131">
+        <v>0</v>
+      </c>
+      <c r="S5" s="125" t="s">
+        <v>125</v>
+      </c>
+      <c r="T5" s="13">
+        <v>6800</v>
+      </c>
+      <c r="U5" s="135" t="s">
+        <v>126</v>
+      </c>
+      <c r="V5" s="145" t="str" cm="1">
+        <f t="array" ref="V5">ROUNDDOWN(T6/V2, 0) + IF(AND(V3 &gt; VLOOKUP(T3,H3:N13,5,0), V3 &lt; VLOOKUP(T3,H3:N13,6,0)), 1, 0) &amp; _xlfn.IFS(V3 &lt; VLOOKUP(T3,$H3:N13,7,FALSE), " + FS", VLOOKUP($T$3,H3:N13,2,0) &gt; V3, " + C1", VLOOKUP(T3,H3:N13,3,0) &gt; V3, " + C2", VLOOKUP(T3,H3:N13,4,0) &gt; V3, " + C3", VLOOKUP(T3,H3:N13,5,0) &gt; V3, " + C4",TRUE,"")</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B6" s="126">
+        <v>200</v>
+      </c>
+      <c r="C6" s="126">
+        <v>440</v>
+      </c>
+      <c r="D6" s="126">
+        <v>800</v>
+      </c>
+      <c r="E6" s="126">
+        <v>1180</v>
+      </c>
+      <c r="F6" s="126">
+        <v>1600</v>
+      </c>
+      <c r="G6" s="123">
+        <v>300</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="I6" s="126">
+        <f t="shared" si="2"/>
+        <v>316</v>
+      </c>
+      <c r="J6" s="126">
+        <f t="shared" si="0"/>
+        <v>695.2</v>
+      </c>
+      <c r="K6" s="126">
+        <f>D6 * (1+SUM($R:$R))</f>
+        <v>1264</v>
+      </c>
+      <c r="L6" s="126">
+        <f>E6 * (1+SUM($R:$R))</f>
+        <v>1864.4</v>
+      </c>
+      <c r="M6" s="126">
+        <f>F6 * (1+SUM($R:$R))</f>
+        <v>2528</v>
+      </c>
+      <c r="N6" s="123">
+        <f t="shared" si="1"/>
+        <v>474</v>
+      </c>
+      <c r="S6" s="151" t="s">
+        <v>124</v>
+      </c>
+      <c r="T6" s="152">
+        <f>T4 * (1 - SUM(P:P))</f>
+        <v>4770</v>
+      </c>
+      <c r="U6" s="153" t="s">
+        <v>127</v>
+      </c>
+      <c r="V6" s="145" t="str" cm="1">
+        <f t="array" ref="V6">ROUNDDOWN(T7/V2, 0) + IF(AND(V4 &gt; VLOOKUP(T3,H3:N13,5,0), V4 &lt; VLOOKUP(T3,H3:N13,6,0)), 1, 0) &amp; _xlfn.IFS(V4 &lt; VLOOKUP(T3,$H3:N13,7,FALSE), " + FS", VLOOKUP($T$3,H3:N13,2,0) &gt; V4, " + C1", VLOOKUP(T3,H3:N13,3,0) &gt; V4, " + C2", VLOOKUP(T3,H3:N13,4,0) &gt; V4, " + C3", VLOOKUP(T3,H3:N13,5,0) &gt; V4, " + C4",TRUE,"")</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B7" s="126">
+        <v>120</v>
+      </c>
+      <c r="C7" s="126">
+        <v>360</v>
+      </c>
+      <c r="D7" s="126">
+        <v>480</v>
+      </c>
+      <c r="E7" s="126">
+        <v>960</v>
+      </c>
+      <c r="F7" s="126">
+        <v>1560</v>
+      </c>
+      <c r="G7" s="123">
+        <v>400</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="I7" s="126">
+        <f t="shared" si="2"/>
+        <v>189.60000000000002</v>
+      </c>
+      <c r="J7" s="126">
+        <f t="shared" si="0"/>
+        <v>568.80000000000007</v>
+      </c>
+      <c r="K7" s="126">
+        <f>D7 * (1+SUM($R:$R))</f>
+        <v>758.40000000000009</v>
+      </c>
+      <c r="L7" s="126">
+        <f>E7 * (1+SUM($R:$R))</f>
+        <v>1516.8000000000002</v>
+      </c>
+      <c r="M7" s="126">
+        <f>F7 * (1+SUM($R:$R))</f>
+        <v>2464.8000000000002</v>
+      </c>
+      <c r="N7" s="123">
+        <f t="shared" si="1"/>
+        <v>632</v>
+      </c>
+      <c r="S7" s="151" t="s">
+        <v>130</v>
+      </c>
+      <c r="T7" s="152">
+        <f>T5 * (1 - SUM(P:P))</f>
+        <v>6800</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B8" s="126">
+        <v>184</v>
+      </c>
+      <c r="C8" s="126">
+        <v>276</v>
+      </c>
+      <c r="D8" s="126">
+        <v>552</v>
+      </c>
+      <c r="E8" s="126">
+        <v>966</v>
+      </c>
+      <c r="F8" s="126">
+        <v>1495</v>
+      </c>
+      <c r="G8" s="123">
+        <v>460</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="I8" s="126">
+        <f t="shared" si="2"/>
+        <v>290.72000000000003</v>
+      </c>
+      <c r="J8" s="126">
+        <f t="shared" si="0"/>
+        <v>436.08000000000004</v>
+      </c>
+      <c r="K8" s="126">
+        <f>D8 * (1+SUM($R:$R))</f>
+        <v>872.16000000000008</v>
+      </c>
+      <c r="L8" s="126">
+        <f>E8 * (1+SUM($R:$R))</f>
+        <v>1526.28</v>
+      </c>
+      <c r="M8" s="126">
+        <f>F8 * (1+SUM($R:$R))</f>
+        <v>2362.1</v>
+      </c>
+      <c r="N8" s="123">
+        <f t="shared" si="1"/>
+        <v>726.80000000000007</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="126">
+        <v>130</v>
+      </c>
+      <c r="C9" s="126">
+        <v>330</v>
+      </c>
+      <c r="D9" s="126">
+        <v>570</v>
+      </c>
+      <c r="E9" s="126">
+        <v>1000</v>
+      </c>
+      <c r="F9" s="126">
+        <v>1600</v>
+      </c>
+      <c r="G9" s="123">
+        <v>400</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I9" s="126">
+        <f t="shared" si="2"/>
+        <v>205.4</v>
+      </c>
+      <c r="J9" s="126">
+        <f t="shared" si="0"/>
+        <v>521.4</v>
+      </c>
+      <c r="K9" s="126">
+        <f>D9 * (1+SUM($R:$R))</f>
+        <v>900.6</v>
+      </c>
+      <c r="L9" s="126">
+        <f>E9 * (1+SUM($R:$R))</f>
+        <v>1580</v>
+      </c>
+      <c r="M9" s="126">
+        <f>F9 * (1+SUM($R:$R))</f>
+        <v>2528</v>
+      </c>
+      <c r="N9" s="123">
+        <f t="shared" si="1"/>
+        <v>632</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B10" s="126">
+        <v>232</v>
+      </c>
+      <c r="C10" s="126">
+        <v>464</v>
+      </c>
+      <c r="D10" s="126">
+        <v>812</v>
+      </c>
+      <c r="E10" s="126">
+        <v>1276</v>
+      </c>
+      <c r="F10" s="126">
+        <v>1972</v>
+      </c>
+      <c r="G10" s="123">
+        <v>580</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="I10" s="126">
+        <f t="shared" si="2"/>
+        <v>366.56</v>
+      </c>
+      <c r="J10" s="126">
+        <f t="shared" si="0"/>
+        <v>733.12</v>
+      </c>
+      <c r="K10" s="126">
+        <f>D10 * (1+SUM($R:$R))</f>
+        <v>1282.96</v>
+      </c>
+      <c r="L10" s="126">
+        <f>E10 * (1+SUM($R:$R))</f>
+        <v>2016.0800000000002</v>
+      </c>
+      <c r="M10" s="126">
+        <f>F10 * (1+SUM($R:$R))</f>
+        <v>3115.76</v>
+      </c>
+      <c r="N10" s="123">
+        <f t="shared" si="1"/>
+        <v>916.40000000000009</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B11" s="126">
+        <v>545</v>
+      </c>
+      <c r="C11" s="126">
+        <v>1090</v>
+      </c>
+      <c r="D11" s="126"/>
+      <c r="E11" s="126"/>
+      <c r="F11" s="126"/>
+      <c r="G11" s="123">
+        <v>400</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="I11" s="126">
+        <f t="shared" si="2"/>
+        <v>861.1</v>
+      </c>
+      <c r="J11" s="126">
+        <f t="shared" si="0"/>
+        <v>1722.2</v>
+      </c>
+      <c r="K11" s="126"/>
+      <c r="L11" s="126"/>
+      <c r="M11" s="126"/>
+      <c r="N11" s="123">
+        <f t="shared" si="1"/>
+        <v>632</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B12" s="126">
+        <v>464</v>
+      </c>
+      <c r="C12" s="126">
+        <v>928</v>
+      </c>
+      <c r="D12" s="126"/>
+      <c r="E12" s="126"/>
+      <c r="F12" s="126"/>
+      <c r="G12" s="123">
+        <v>400</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="I12" s="126">
+        <f t="shared" si="2"/>
+        <v>733.12</v>
+      </c>
+      <c r="J12" s="126">
+        <f t="shared" si="0"/>
+        <v>1466.24</v>
+      </c>
+      <c r="K12" s="126"/>
+      <c r="L12" s="126"/>
+      <c r="M12" s="126"/>
+      <c r="N12" s="123">
+        <f t="shared" si="1"/>
+        <v>632</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B13" s="126">
+        <v>300</v>
+      </c>
+      <c r="C13" s="126">
+        <v>764</v>
+      </c>
+      <c r="D13" s="126">
+        <v>1228</v>
+      </c>
+      <c r="E13" s="126"/>
+      <c r="F13" s="126"/>
+      <c r="G13" s="123">
+        <v>400</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="I13" s="126">
+        <f t="shared" si="2"/>
+        <v>474</v>
+      </c>
+      <c r="J13" s="126">
+        <f t="shared" si="0"/>
+        <v>1207.1200000000001</v>
+      </c>
+      <c r="K13" s="126">
+        <f>D13 * (1+SUM($R:$R))</f>
+        <v>1940.24</v>
+      </c>
+      <c r="L13" s="126"/>
+      <c r="M13" s="126"/>
+      <c r="N13" s="123">
+        <f t="shared" si="1"/>
+        <v>632</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="H1:N1"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="O1:P1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC6E1F14-9A03-4157-97E0-B9040F803B9F}">
   <dimension ref="A1:E16"/>
   <sheetViews>
@@ -1797,209 +2833,209 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="5"/>
-    <col min="2" max="5" width="16.5703125" style="6" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="5" width="16.5703125" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
     </row>
     <row r="4" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15" t="s">
+      <c r="D4" s="11"/>
+      <c r="E4" s="11" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15" t="s">
+      <c r="D5" s="11"/>
+      <c r="E5" s="11" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
     </row>
     <row r="7" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17" t="s">
+      <c r="D7" s="13"/>
+      <c r="E7" s="13" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
     </row>
     <row r="9" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
     </row>
     <row r="10" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
     </row>
     <row r="11" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
     </row>
     <row r="12" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
     </row>
     <row r="13" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
     </row>
     <row r="14" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
     </row>
     <row r="15" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="4" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="E16" s="4" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2008,7 +3044,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93F18558-26E5-406D-8DCA-7A8488B0D961}">
   <dimension ref="A1:M13"/>
   <sheetViews>
@@ -2018,190 +3054,190 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.42578125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="5" style="8" customWidth="1"/>
-    <col min="3" max="66" width="4.5703125" style="6" customWidth="1"/>
-    <col min="67" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="1" width="7.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="5" style="4" customWidth="1"/>
+    <col min="3" max="66" width="4.5703125" style="2" customWidth="1"/>
+    <col min="67" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="5" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="22">
+    <row r="1" spans="1:13" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="10" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:13" s="6" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="10" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="H2" s="26" t="s">
+      <c r="H2" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="M2" s="26" t="s">
+      <c r="M2" s="22" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="10" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="8"/>
-      <c r="M3" s="10" t="s">
+    <row r="3" spans="1:13" s="6" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="4"/>
+      <c r="M3" s="6" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="10" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+    <row r="4" spans="1:13" s="6" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="10">
+      <c r="B4" s="4"/>
+      <c r="C4" s="6">
         <v>1</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="6">
         <v>3</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="6">
         <v>4</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H4" s="6">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="12" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+    <row r="5" spans="1:13" s="8" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="12" t="s">
+      <c r="B5" s="4"/>
+      <c r="C5" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="H5" s="25" t="s">
+      <c r="H5" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="L5" s="25" t="s">
+      <c r="L5" s="21" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="12" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="8"/>
-      <c r="L6" s="12" t="s">
+    <row r="6" spans="1:13" s="8" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="4"/>
+      <c r="L6" s="8" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="12" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+    <row r="7" spans="1:13" s="8" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="12">
+      <c r="B7" s="4"/>
+      <c r="C7" s="8">
         <v>1</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="8">
         <v>3</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="8">
         <v>4</v>
       </c>
-      <c r="H7" s="12">
+      <c r="H7" s="8">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="13" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
+    <row r="8" spans="1:13" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="G8" s="13" t="s">
+      <c r="G8" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="H8" s="13" t="s">
+      <c r="H8" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="I8" s="13" t="s">
+      <c r="I8" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="J8" s="13" t="s">
+      <c r="J8" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="K8" s="13" t="s">
+      <c r="K8" s="9" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="13" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="8"/>
-      <c r="F9" s="23" t="s">
+    <row r="9" spans="1:13" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="4"/>
+      <c r="F9" s="19" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="13" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
+    <row r="10" spans="1:13" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="D10" s="13">
+      <c r="B10" s="4"/>
+      <c r="D10" s="9">
         <v>3</v>
       </c>
-      <c r="F10" s="23"/>
-      <c r="G10" s="13">
+      <c r="F10" s="19"/>
+      <c r="G10" s="9">
         <v>4</v>
       </c>
-      <c r="H10" s="13">
+      <c r="H10" s="9">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="19" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="19" t="s">
+    <row r="11" spans="1:13" s="15" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="19" t="s">
+      <c r="E11" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="I11" s="24" t="s">
+      <c r="I11" s="20" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="19" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="8"/>
-    </row>
-    <row r="13" spans="1:13" s="19" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="19" t="s">
+    <row r="12" spans="1:13" s="15" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="4"/>
+    </row>
+    <row r="13" spans="1:13" s="15" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="19">
+      <c r="B13" s="4"/>
+      <c r="C13" s="15">
         <v>1</v>
       </c>
-      <c r="D13" s="19">
+      <c r="D13" s="15">
         <v>3</v>
       </c>
-      <c r="G13" s="19">
+      <c r="G13" s="15">
         <v>4</v>
       </c>
-      <c r="H13" s="19">
+      <c r="H13" s="15">
         <v>5</v>
       </c>
     </row>
@@ -2210,554 +3246,530 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEFF6CA3-18A6-4987-88AD-5768B35D8A0C}">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E11" sqref="E11"/>
+      <selection pane="topRight" activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="71"/>
-    <col min="2" max="2" width="19" style="72" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="64" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" style="27" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="27"/>
-    <col min="6" max="6" width="11.28515625" style="27" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="27"/>
+    <col min="1" max="1" width="9.140625" style="67"/>
+    <col min="2" max="2" width="19" style="68" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="60" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" style="23" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="23"/>
+    <col min="6" max="6" width="11.28515625" style="23" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="23"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="118" t="s">
+      <c r="A1" s="69" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="120" t="s">
+      <c r="B1" s="70"/>
+      <c r="C1" s="71" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="121"/>
-      <c r="E1" s="120" t="s">
+      <c r="D1" s="72"/>
+      <c r="E1" s="71" t="s">
         <v>68</v>
       </c>
-      <c r="F1" s="121"/>
+      <c r="F1" s="72"/>
     </row>
     <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="73" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="52">
+      <c r="B2" s="74"/>
+      <c r="C2" s="48">
         <f>5/3</f>
         <v>1.6666666666666667</v>
       </c>
-      <c r="D2" s="29">
+      <c r="D2" s="25">
         <f>C2</f>
         <v>1.6666666666666667</v>
       </c>
-      <c r="E2" s="28">
+      <c r="E2" s="24">
         <f>5/3</f>
         <v>1.6666666666666667</v>
       </c>
-      <c r="F2" s="29">
+      <c r="F2" s="25">
         <f>E2</f>
         <v>1.6666666666666667</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="77" t="s">
+      <c r="A3" s="73" t="s">
         <v>87</v>
       </c>
-      <c r="B3" s="78"/>
-      <c r="C3" s="52">
+      <c r="B3" s="74"/>
+      <c r="C3" s="48">
         <v>0</v>
       </c>
-      <c r="D3" s="29">
+      <c r="D3" s="25">
         <f>1-C3</f>
         <v>1</v>
       </c>
-      <c r="E3" s="28">
+      <c r="E3" s="24">
         <v>0</v>
       </c>
-      <c r="F3" s="29">
+      <c r="F3" s="25">
         <f>1-E3</f>
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="32" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="81" t="s">
+    <row r="4" spans="1:6" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="75" t="s">
         <v>86</v>
       </c>
-      <c r="B4" s="65" t="s">
+      <c r="B4" s="61" t="s">
         <v>89</v>
       </c>
-      <c r="C4" s="53">
+      <c r="C4" s="49">
         <v>6016</v>
       </c>
-      <c r="D4" s="109">
+      <c r="D4" s="78">
         <f>(C4/(1+C5)*(1+C5+C6)*(1+C7)*(1+C8))</f>
         <v>16279.295999999998</v>
       </c>
-      <c r="E4" s="31">
+      <c r="E4" s="27">
         <v>5348</v>
       </c>
-      <c r="F4" s="109">
+      <c r="F4" s="78">
         <f>(E4/(1+E5)*(1+E5+E6)*(1+E7)*(1+E8))</f>
         <v>14471.688000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="32" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="82"/>
-      <c r="B5" s="65" t="s">
+    <row r="5" spans="1:6" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="76"/>
+      <c r="B5" s="61" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="54">
+      <c r="C5" s="50">
         <v>0.35</v>
       </c>
-      <c r="D5" s="110"/>
-      <c r="E5" s="33">
+      <c r="D5" s="79"/>
+      <c r="E5" s="29">
         <v>0.2</v>
       </c>
-      <c r="F5" s="110"/>
-    </row>
-    <row r="6" spans="1:6" s="32" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="82"/>
-      <c r="B6" s="65" t="s">
+      <c r="F5" s="79"/>
+    </row>
+    <row r="6" spans="1:6" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="76"/>
+      <c r="B6" s="61" t="s">
         <v>71</v>
       </c>
-      <c r="C6" s="55">
+      <c r="C6" s="51">
         <v>0</v>
       </c>
-      <c r="D6" s="110"/>
-      <c r="E6" s="34">
+      <c r="D6" s="79"/>
+      <c r="E6" s="30">
         <v>0</v>
       </c>
-      <c r="F6" s="110"/>
-    </row>
-    <row r="7" spans="1:6" s="32" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="82"/>
-      <c r="B7" s="65" t="s">
+      <c r="F6" s="79"/>
+    </row>
+    <row r="7" spans="1:6" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="76"/>
+      <c r="B7" s="61" t="s">
         <v>82</v>
       </c>
-      <c r="C7" s="55">
+      <c r="C7" s="51">
         <v>1.46</v>
       </c>
-      <c r="D7" s="110"/>
-      <c r="E7" s="34">
+      <c r="D7" s="79"/>
+      <c r="E7" s="30">
         <v>1.46</v>
       </c>
-      <c r="F7" s="110"/>
-    </row>
-    <row r="8" spans="1:6" s="32" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="83"/>
-      <c r="B8" s="65" t="s">
+      <c r="F7" s="79"/>
+    </row>
+    <row r="8" spans="1:6" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="77"/>
+      <c r="B8" s="61" t="s">
         <v>83</v>
       </c>
-      <c r="C8" s="55">
+      <c r="C8" s="51">
         <v>0.1</v>
       </c>
-      <c r="D8" s="111"/>
-      <c r="E8" s="34">
+      <c r="D8" s="80"/>
+      <c r="E8" s="30">
         <v>0.1</v>
       </c>
-      <c r="F8" s="111"/>
-    </row>
-    <row r="9" spans="1:6" s="37" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="112" t="s">
+      <c r="F8" s="80"/>
+    </row>
+    <row r="9" spans="1:6" s="33" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="81" t="s">
         <v>72</v>
       </c>
-      <c r="B9" s="113"/>
-      <c r="C9" s="56">
+      <c r="B9" s="82"/>
+      <c r="C9" s="52">
         <v>36</v>
       </c>
-      <c r="D9" s="36">
+      <c r="D9" s="32">
         <f>C9</f>
         <v>36</v>
       </c>
-      <c r="E9" s="35">
+      <c r="E9" s="31">
         <v>36</v>
       </c>
-      <c r="F9" s="36">
+      <c r="F9" s="32">
         <f>E9</f>
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="39" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="114" t="s">
+    <row r="10" spans="1:6" s="35" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="83" t="s">
         <v>88</v>
       </c>
-      <c r="B10" s="66" t="s">
+      <c r="B10" s="62" t="s">
         <v>94</v>
       </c>
-      <c r="C10" s="57">
+      <c r="C10" s="53">
         <v>1</v>
       </c>
-      <c r="D10" s="116">
+      <c r="D10" s="85">
         <f>1+((0.7+C11)*C10)</f>
         <v>2.15</v>
       </c>
-      <c r="E10" s="38">
+      <c r="E10" s="34">
         <v>1</v>
       </c>
-      <c r="F10" s="116">
+      <c r="F10" s="85">
         <f>1+((0.7+E11)*E10)</f>
         <v>2.15</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="39" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="115"/>
-      <c r="B11" s="66" t="s">
+    <row r="11" spans="1:6" s="35" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="84"/>
+      <c r="B11" s="62" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="58">
+      <c r="C11" s="54">
         <v>0.45</v>
       </c>
-      <c r="D11" s="117"/>
-      <c r="E11" s="40">
+      <c r="D11" s="86"/>
+      <c r="E11" s="36">
         <v>0.45</v>
       </c>
-      <c r="F11" s="117"/>
-    </row>
-    <row r="12" spans="1:6" s="42" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="99" t="s">
+      <c r="F11" s="86"/>
+    </row>
+    <row r="12" spans="1:6" s="38" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="87" t="s">
         <v>90</v>
       </c>
-      <c r="B12" s="67" t="s">
+      <c r="B12" s="63" t="s">
         <v>73</v>
       </c>
-      <c r="C12" s="59">
+      <c r="C12" s="55">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D12" s="102">
+      <c r="D12" s="90">
         <f>(1+C12+C13)*(1+C14)*(1+C15)</f>
         <v>2.415</v>
       </c>
-      <c r="E12" s="41">
+      <c r="E12" s="37">
         <v>1.3</v>
       </c>
-      <c r="F12" s="102">
+      <c r="F12" s="90">
         <f>(1+E12+E13)*(1+E14)*(1+E15)</f>
         <v>2.6449999999999996</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="42" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="100"/>
-      <c r="B13" s="67" t="s">
+    <row r="13" spans="1:6" s="38" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="88"/>
+      <c r="B13" s="63" t="s">
         <v>74</v>
       </c>
-      <c r="C13" s="59">
+      <c r="C13" s="55">
         <v>0</v>
       </c>
-      <c r="D13" s="103"/>
-      <c r="E13" s="41">
+      <c r="D13" s="91"/>
+      <c r="E13" s="37">
         <v>0</v>
       </c>
-      <c r="F13" s="103"/>
-    </row>
-    <row r="14" spans="1:6" s="42" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="100"/>
-      <c r="B14" s="67" t="s">
+      <c r="F13" s="91"/>
+    </row>
+    <row r="14" spans="1:6" s="38" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="88"/>
+      <c r="B14" s="63" t="s">
         <v>95</v>
       </c>
-      <c r="C14" s="59">
+      <c r="C14" s="55">
         <v>0.15</v>
       </c>
-      <c r="D14" s="103"/>
-      <c r="E14" s="41">
+      <c r="D14" s="91"/>
+      <c r="E14" s="37">
         <v>0.15</v>
       </c>
-      <c r="F14" s="103"/>
-    </row>
-    <row r="15" spans="1:6" s="42" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="101"/>
-      <c r="B15" s="67" t="s">
+      <c r="F14" s="91"/>
+    </row>
+    <row r="15" spans="1:6" s="38" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="89"/>
+      <c r="B15" s="63" t="s">
         <v>96</v>
       </c>
-      <c r="C15" s="59">
+      <c r="C15" s="55">
         <v>0</v>
       </c>
-      <c r="D15" s="104"/>
-      <c r="E15" s="41">
+      <c r="D15" s="92"/>
+      <c r="E15" s="37">
         <v>0</v>
       </c>
-      <c r="F15" s="104"/>
-    </row>
-    <row r="16" spans="1:6" s="44" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="105" t="s">
+      <c r="F15" s="92"/>
+    </row>
+    <row r="16" spans="1:6" s="40" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="93" t="s">
         <v>91</v>
       </c>
-      <c r="B16" s="68" t="s">
+      <c r="B16" s="64" t="s">
         <v>84</v>
       </c>
-      <c r="C16" s="60">
+      <c r="C16" s="56">
         <v>0</v>
       </c>
-      <c r="D16" s="107">
+      <c r="D16" s="95">
         <f>(1+C16)*(1+C17)</f>
         <v>1.2</v>
       </c>
-      <c r="E16" s="43">
+      <c r="E16" s="39">
         <v>0</v>
       </c>
-      <c r="F16" s="107">
+      <c r="F16" s="95">
         <f>(1+E16)*(1+E17)</f>
         <v>1.2</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="44" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="106"/>
-      <c r="B17" s="68" t="s">
+    <row r="17" spans="1:6" s="40" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="94"/>
+      <c r="B17" s="64" t="s">
         <v>75</v>
       </c>
-      <c r="C17" s="60">
+      <c r="C17" s="56">
         <v>0.2</v>
       </c>
-      <c r="D17" s="108"/>
-      <c r="E17" s="43">
+      <c r="D17" s="96"/>
+      <c r="E17" s="39">
         <v>0.2</v>
       </c>
-      <c r="F17" s="108"/>
-    </row>
-    <row r="18" spans="1:6" s="46" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="89" t="s">
+      <c r="F17" s="96"/>
+    </row>
+    <row r="18" spans="1:6" s="42" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="97" t="s">
         <v>92</v>
       </c>
-      <c r="B18" s="69" t="s">
+      <c r="B18" s="65" t="s">
         <v>93</v>
       </c>
-      <c r="C18" s="61">
+      <c r="C18" s="57">
         <v>1.5</v>
       </c>
-      <c r="D18" s="91">
+      <c r="D18" s="99">
         <f>C18+C19</f>
         <v>1.5</v>
       </c>
-      <c r="E18" s="45">
+      <c r="E18" s="41">
         <v>1.5</v>
       </c>
-      <c r="F18" s="91">
+      <c r="F18" s="99">
         <f>E18+E19</f>
         <v>1.5</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="46" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="90"/>
-      <c r="B19" s="69" t="s">
+    <row r="19" spans="1:6" s="42" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="98"/>
+      <c r="B19" s="65" t="s">
         <v>85</v>
       </c>
-      <c r="C19" s="62">
+      <c r="C19" s="58">
         <v>0</v>
       </c>
-      <c r="D19" s="92"/>
-      <c r="E19" s="47">
+      <c r="D19" s="100"/>
+      <c r="E19" s="43">
         <v>0</v>
       </c>
-      <c r="F19" s="92"/>
-    </row>
-    <row r="20" spans="1:6" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="93" t="s">
+      <c r="F19" s="100"/>
+    </row>
+    <row r="20" spans="1:6" s="45" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="101" t="s">
         <v>98</v>
       </c>
-      <c r="B20" s="70" t="s">
+      <c r="B20" s="66" t="s">
         <v>97</v>
       </c>
-      <c r="C20" s="63">
+      <c r="C20" s="59">
         <v>0</v>
       </c>
-      <c r="D20" s="96">
+      <c r="D20" s="104">
         <f>1+C20*(0.2+C21+C22)</f>
         <v>1</v>
       </c>
-      <c r="E20" s="48">
+      <c r="E20" s="44">
         <v>0</v>
       </c>
-      <c r="F20" s="96">
+      <c r="F20" s="104">
         <f>1+E20*(0.2+E21+E22)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="94"/>
-      <c r="B21" s="70" t="s">
+    <row r="21" spans="1:6" s="45" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="102"/>
+      <c r="B21" s="66" t="s">
         <v>76</v>
       </c>
-      <c r="C21" s="63">
+      <c r="C21" s="59">
         <v>0.5</v>
       </c>
-      <c r="D21" s="97"/>
-      <c r="E21" s="48">
+      <c r="D21" s="105"/>
+      <c r="E21" s="44">
         <v>0.5</v>
       </c>
-      <c r="F21" s="97"/>
-    </row>
-    <row r="22" spans="1:6" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="95"/>
-      <c r="B22" s="70" t="s">
+      <c r="F21" s="105"/>
+    </row>
+    <row r="22" spans="1:6" s="45" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="103"/>
+      <c r="B22" s="66" t="s">
         <v>77</v>
       </c>
-      <c r="C22" s="63">
+      <c r="C22" s="59">
         <v>0</v>
       </c>
-      <c r="D22" s="98"/>
-      <c r="E22" s="48">
+      <c r="D22" s="106"/>
+      <c r="E22" s="44">
         <v>0</v>
       </c>
-      <c r="F22" s="98"/>
+      <c r="F22" s="106"/>
     </row>
     <row r="23" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="77" t="s">
+      <c r="A23" s="73" t="s">
         <v>99</v>
       </c>
-      <c r="B23" s="78"/>
-      <c r="C23" s="52">
+      <c r="B23" s="74"/>
+      <c r="C23" s="48">
         <v>1</v>
       </c>
-      <c r="D23" s="30">
+      <c r="D23" s="26">
         <f>C23</f>
         <v>1</v>
       </c>
-      <c r="E23" s="28">
+      <c r="E23" s="24">
         <v>1</v>
       </c>
-      <c r="F23" s="30">
+      <c r="F23" s="26">
         <f>E23</f>
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="79" t="s">
+    <row r="24" spans="1:6" s="45" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="111" t="s">
         <v>78</v>
       </c>
-      <c r="B24" s="80"/>
-      <c r="C24" s="63">
+      <c r="B24" s="112"/>
+      <c r="C24" s="59">
         <v>10</v>
       </c>
-      <c r="D24" s="50">
+      <c r="D24" s="46">
         <f>C24</f>
         <v>10</v>
       </c>
-      <c r="E24" s="48">
+      <c r="E24" s="44">
         <v>10</v>
       </c>
-      <c r="F24" s="50">
+      <c r="F24" s="46">
         <f>E24</f>
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="32" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="81" t="s">
+    <row r="25" spans="1:6" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="75" t="s">
         <v>79</v>
       </c>
-      <c r="B25" s="65" t="s">
+      <c r="B25" s="61" t="s">
         <v>101</v>
       </c>
-      <c r="C25" s="53">
+      <c r="C25" s="49">
         <v>0</v>
       </c>
-      <c r="D25" s="84">
+      <c r="D25" s="113">
         <f>(1-(1-C26)*C25)*(1-C27)</f>
         <v>1</v>
       </c>
-      <c r="E25" s="31">
+      <c r="E25" s="27">
         <v>0</v>
       </c>
-      <c r="F25" s="84">
+      <c r="F25" s="113">
         <f>(1-(1-E26)*E25)*(1-E27)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="32" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="82"/>
-      <c r="B26" s="65" t="s">
+    <row r="26" spans="1:6" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="76"/>
+      <c r="B26" s="61" t="s">
         <v>100</v>
       </c>
-      <c r="C26" s="53">
+      <c r="C26" s="49">
         <v>0.6</v>
       </c>
-      <c r="D26" s="85"/>
-      <c r="E26" s="31">
+      <c r="D26" s="114"/>
+      <c r="E26" s="27">
         <v>0.6</v>
       </c>
-      <c r="F26" s="85"/>
-    </row>
-    <row r="27" spans="1:6" s="32" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="83"/>
-      <c r="B27" s="65" t="s">
+      <c r="F26" s="114"/>
+    </row>
+    <row r="27" spans="1:6" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="77"/>
+      <c r="B27" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="C27" s="55">
+      <c r="C27" s="51">
         <v>0</v>
       </c>
-      <c r="D27" s="86"/>
-      <c r="E27" s="34">
+      <c r="D27" s="115"/>
+      <c r="E27" s="30">
         <v>0</v>
       </c>
-      <c r="F27" s="86"/>
-    </row>
-    <row r="28" spans="1:6" s="46" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="87" t="s">
+      <c r="F27" s="115"/>
+    </row>
+    <row r="28" spans="1:6" s="42" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="116" t="s">
         <v>102</v>
       </c>
-      <c r="B28" s="88"/>
-      <c r="C28" s="61">
+      <c r="B28" s="117"/>
+      <c r="C28" s="57">
         <v>0</v>
       </c>
-      <c r="D28" s="51">
+      <c r="D28" s="47">
         <f>C28*0.5+1</f>
         <v>1</v>
       </c>
-      <c r="E28" s="45">
+      <c r="E28" s="41">
         <v>0</v>
       </c>
-      <c r="F28" s="51">
+      <c r="F28" s="47">
         <f>E28*0.5+1</f>
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="73" t="s">
+      <c r="A29" s="107" t="s">
         <v>80</v>
       </c>
-      <c r="B29" s="74"/>
-      <c r="C29" s="75">
+      <c r="B29" s="108"/>
+      <c r="C29" s="109">
         <f>D2*D3*D4*D9*D10*D12*D16*D18*D20*D23/D24/D25*D28</f>
         <v>912882.68628480006</v>
       </c>
-      <c r="D29" s="76"/>
-      <c r="E29" s="75">
+      <c r="D29" s="110"/>
+      <c r="E29" s="109">
         <f>F2*F3*F4*F9*F10*F12*F16*F18*F20*F23/F24/F25*F28</f>
         <v>888806.21472719987</v>
       </c>
-      <c r="F29" s="76"/>
+      <c r="F29" s="110"/>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="D4:D8"/>
-    <mergeCell ref="F4:F8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="D12:D15"/>
-    <mergeCell ref="F12:F15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="F20:F22"/>
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="E29:F29"/>
@@ -2767,6 +3779,30 @@
     <mergeCell ref="D25:D27"/>
     <mergeCell ref="F25:F27"/>
     <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="F20:F22"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="D12:D15"/>
+    <mergeCell ref="F12:F15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="D4:D8"/>
+    <mergeCell ref="F4:F8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Brainstorm.xlsx
+++ b/Brainstorm.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Personal@HDD\Game\DL\dragalia-data-track\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E29210D-6F37-4B39-B2CA-BE207F72EFBE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BBE855B-FC06-427E-A1DB-2FA500CEBFBA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7575" yWindow="765" windowWidth="21135" windowHeight="12615" activeTab="1" xr2:uid="{4CFB4A6A-60C6-4091-BCA5-480044B61D33}"/>
+    <workbookView xWindow="6435" yWindow="255" windowWidth="18315" windowHeight="14880" xr2:uid="{4CFB4A6A-60C6-4091-BCA5-480044B61D33}"/>
   </bookViews>
   <sheets>
-    <sheet name="Affliction" sheetId="1" r:id="rId1"/>
-    <sheet name="Rotation" sheetId="8" r:id="rId2"/>
+    <sheet name="Rotation" sheetId="8" r:id="rId1"/>
+    <sheet name="Affliction" sheetId="1" r:id="rId2"/>
     <sheet name="Equips" sheetId="6" r:id="rId3"/>
     <sheet name="Steps" sheetId="4" r:id="rId4"/>
     <sheet name="Damage" sheetId="7" r:id="rId5"/>
@@ -51,8 +51,8 @@
 Comment:
     【護符被動、龍被動】
 裝備時，遊戲內顯示出的改變後的 ATK，例如: 滿血
-Reply:
-    備註: 遊戲內的參數以 滿血、0 Combo 為條件</t>
+【主條件】
+滿血、0 Combo</t>
       </text>
     </comment>
     <comment ref="B6" authorId="1" shapeId="0" xr:uid="{53B2D701-BABF-4409-A1F2-841A52005360}">
@@ -91,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="143">
   <si>
     <t>睡抗</t>
   </si>
@@ -144,9 +144,6 @@
     <t>1睡眠失敗</t>
   </si>
   <si>
-    <t>葵</t>
-  </si>
-  <si>
     <t>武器</t>
   </si>
   <si>
@@ -201,9 +198,6 @@
     <t>三葉</t>
   </si>
   <si>
-    <t>0U</t>
-  </si>
-  <si>
     <t>DEF</t>
   </si>
   <si>
@@ -222,84 +216,15 @@
     <t>FS</t>
   </si>
   <si>
-    <t>+SP</t>
-  </si>
-  <si>
     <t>S1</t>
   </si>
   <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>ULT</t>
-  </si>
-  <si>
-    <t>OD</t>
-  </si>
-  <si>
-    <t>BK</t>
-  </si>
-  <si>
     <t>2睡眠全成功</t>
   </si>
   <si>
-    <t>毒</t>
-  </si>
-  <si>
-    <t>斧蘭</t>
-  </si>
-  <si>
-    <t>艾露</t>
-  </si>
-  <si>
-    <t>弓克</t>
-  </si>
-  <si>
-    <t>凍傷</t>
-  </si>
-  <si>
-    <t>庫豹</t>
-  </si>
-  <si>
-    <t>短符</t>
-  </si>
-  <si>
     <t>CDMG</t>
   </si>
   <si>
-    <t>伊利亞</t>
-  </si>
-  <si>
-    <t>聖城</t>
-  </si>
-  <si>
-    <t>歌聲</t>
-  </si>
-  <si>
-    <t>巧 5</t>
-  </si>
-  <si>
-    <t>巧 4</t>
-  </si>
-  <si>
-    <t>光秀</t>
-  </si>
-  <si>
-    <t>守 +ATK +10</t>
-  </si>
-  <si>
-    <t>麻特</t>
-  </si>
-  <si>
-    <t>馬</t>
-  </si>
-  <si>
-    <t>蘭劍 S1 夢0</t>
-  </si>
-  <si>
-    <t>蘭劍 S1 FQ</t>
-  </si>
-  <si>
     <t>常數</t>
   </si>
   <si>
@@ -499,6 +424,102 @@
   </si>
   <si>
     <t>C5</t>
+  </si>
+  <si>
+    <t>NPC</t>
+  </si>
+  <si>
+    <t>馬爾斯</t>
+  </si>
+  <si>
+    <t>守 自身</t>
+  </si>
+  <si>
+    <t>守護 +ATK</t>
+  </si>
+  <si>
+    <t>巧克力</t>
+  </si>
+  <si>
+    <t>應援團</t>
+  </si>
+  <si>
+    <t>$</t>
+  </si>
+  <si>
+    <t>二姊</t>
+  </si>
+  <si>
+    <t>守護 +CDMG</t>
+  </si>
+  <si>
+    <t>兔龍</t>
+  </si>
+  <si>
+    <t>馬爾斯 (4)</t>
+  </si>
+  <si>
+    <t>斧符</t>
+  </si>
+  <si>
+    <t>慕斧</t>
+  </si>
+  <si>
+    <t>特萊Z</t>
+  </si>
+  <si>
+    <t>守 全隊</t>
+  </si>
+  <si>
+    <t>守 單層%</t>
+  </si>
+  <si>
+    <t>額外 ATK%</t>
+  </si>
+  <si>
+    <t>(NPC)</t>
+  </si>
+  <si>
+    <t>NMSL</t>
+  </si>
+  <si>
+    <t>二姊 NMSL</t>
+  </si>
+  <si>
+    <t>二姊 菊花</t>
+  </si>
+  <si>
+    <t>二姊 NMSL BK</t>
+  </si>
+  <si>
+    <t>二姊 菊花 BK</t>
+  </si>
+  <si>
+    <t>水異常盾</t>
+  </si>
+  <si>
+    <t>背水 防禦</t>
+  </si>
+  <si>
+    <t>背水 治癒</t>
+  </si>
+  <si>
+    <t>1鏢</t>
+  </si>
+  <si>
+    <t>BOSS</t>
+  </si>
+  <si>
+    <t>???</t>
+  </si>
+  <si>
+    <t>龍藥</t>
+  </si>
+  <si>
+    <t>凍特</t>
+  </si>
+  <si>
+    <t>二姊 馬C</t>
   </si>
 </sst>
 </file>
@@ -532,13 +553,6 @@
     </font>
     <font>
       <sz val="9"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -593,6 +607,12 @@
     <font>
       <b/>
       <sz val="16"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1079,7 +1099,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="154">
+  <cellXfs count="145">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1138,298 +1158,103 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="22" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="22" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="24" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="25" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="27" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="29" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="5" fillId="31" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="22" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="22" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="24" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="25" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="27" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="29" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="31" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="34" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="22" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="22" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="24" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="27" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="29" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="31" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="34" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="23" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="23" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="23" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="21" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="21" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="28" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="28" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="30" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="30" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="30" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="32" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="32" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="35" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="35" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="5" fillId="34" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="39" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1444,46 +1269,106 @@
     <xf numFmtId="10" fontId="2" fillId="39" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="39" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="39" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="40" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="41" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="41" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="42" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="42" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="40" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="41" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="41" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="43" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="43" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="43" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="42" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="42" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="40" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="41" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="41" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="41" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="41" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="39" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1495,49 +1380,157 @@
     <xf numFmtId="0" fontId="3" fillId="39" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="41" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="41" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="43" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="43" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="43" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="43" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="43" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="35" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="35" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="30" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="30" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="30" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="32" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="32" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="23" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="23" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="23" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="21" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="21" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="28" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="28" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1877,10 +1870,9 @@
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <threadedComment ref="B5" dT="2020-10-09T14:25:11.51" personId="{ABEC8F12-B0D3-44BC-AF35-B8DCE860105B}" id="{CB8FB53A-6734-48F6-BA34-94AD79DA4E09}">
     <text>【護符被動、龍被動】
-裝備時，遊戲內顯示出的改變後的 ATK，例如: 滿血</text>
-  </threadedComment>
-  <threadedComment ref="B5" dT="2020-10-10T03:59:54.28" personId="{ABEC8F12-B0D3-44BC-AF35-B8DCE860105B}" id="{7E528C82-A66B-4AF2-A123-3A681BC63FC1}" parentId="{CB8FB53A-6734-48F6-BA34-94AD79DA4E09}">
-    <text>備註: 遊戲內的參數以 滿血、0 Combo 為條件</text>
+裝備時，遊戲內顯示出的改變後的 ATK，例如: 滿血
+【主條件】
+滿血、0 Combo</text>
   </threadedComment>
   <threadedComment ref="B6" dT="2020-10-10T04:01:10.20" personId="{ABEC8F12-B0D3-44BC-AF35-B8DCE860105B}" id="{53B2D701-BABF-4409-A1F2-841A52005360}">
     <text>【護符被動、龍被動】
@@ -1890,924 +1882,734 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98358B4D-3860-4186-AD24-D3864A865E87}">
-  <dimension ref="A1:J10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="3" width="10.85546875" style="118"/>
-    <col min="4" max="4" width="13.28515625" style="118" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" style="120"/>
-    <col min="6" max="6" width="18.42578125" style="118" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" style="118"/>
-    <col min="8" max="9" width="13.28515625" style="118" customWidth="1"/>
-    <col min="10" max="16384" width="10.85546875" style="118"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="118" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="119">
-        <v>0.99</v>
-      </c>
-      <c r="D1" s="118" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="120" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="118" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" s="118" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="118" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="119">
-        <v>0.99</v>
-      </c>
-      <c r="D2" s="118" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="120">
-        <f>B4-B2</f>
-        <v>0.81</v>
-      </c>
-      <c r="H2" s="118" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="118" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" s="121">
-        <f>VLOOKUP(H2,$D:$E,2,FALSE)*VLOOKUP(I2,$D:$E,2,FALSE)</f>
-        <v>8.9100000000000082E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="118" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="119">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="D3" s="118" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="120">
-        <f>1-E2</f>
-        <v>0.18999999999999995</v>
-      </c>
-      <c r="H3" s="118" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="118" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" s="121">
-        <f>VLOOKUP(H3,$D:$E,2,FALSE)*VLOOKUP(I3,$D:$E,2,FALSE)</f>
-        <v>0.16839900000000016</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="118" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="119">
-        <v>1.8</v>
-      </c>
-      <c r="D4" s="118" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="120">
-        <f>1-E5</f>
-        <v>0.96389999999999998</v>
-      </c>
-      <c r="F4" s="118" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="118" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" s="118" t="s">
-        <v>12</v>
-      </c>
-      <c r="J4" s="121">
-        <f>VLOOKUP(H4,$D:$E,2,FALSE)*VLOOKUP(I4,$D:$E,2,FALSE)</f>
-        <v>0.20039481000000017</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D5" s="118" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="120">
-        <f>E3*E3</f>
-        <v>3.6099999999999979E-2</v>
-      </c>
-      <c r="H5" s="118" t="s">
-        <v>49</v>
-      </c>
-      <c r="I5" s="118" t="s">
-        <v>13</v>
-      </c>
-      <c r="J5" s="121">
-        <f>VLOOKUP(H5,$D:$E,2,FALSE)*VLOOKUP(I5,$D:$E,2,FALSE)</f>
-        <v>9.801000000000018E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D6" s="118" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="120">
-        <f>B3-B1</f>
-        <v>0.1100000000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D7" s="118" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="120">
-        <f>1-E6</f>
-        <v>0.8899999999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D8" s="118" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="120">
-        <f>1-E9</f>
-        <v>0.2079000000000002</v>
-      </c>
-      <c r="F8" s="118" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D9" s="118" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="120">
-        <f>E7*E7</f>
-        <v>0.7920999999999998</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D10" s="118" t="s">
-        <v>49</v>
-      </c>
-      <c r="E10" s="120">
-        <f>E6*E6</f>
-        <v>1.2100000000000022E-2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B260D6A6-975E-4594-902D-33C279C7CA35}">
   <dimension ref="A1:V13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R5" sqref="R5"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="14" width="5.85546875" style="118" customWidth="1"/>
-    <col min="15" max="15" width="5.85546875" style="148" customWidth="1"/>
-    <col min="16" max="16" width="5.85546875" style="150" customWidth="1"/>
-    <col min="17" max="17" width="5.85546875" style="124" customWidth="1"/>
-    <col min="18" max="18" width="5.85546875" style="132" customWidth="1"/>
-    <col min="19" max="19" width="11" style="125" customWidth="1"/>
+    <col min="1" max="14" width="5.85546875" style="53" customWidth="1"/>
+    <col min="15" max="15" width="5.85546875" style="72" customWidth="1"/>
+    <col min="16" max="16" width="5.85546875" style="74" customWidth="1"/>
+    <col min="17" max="17" width="5.85546875" style="59" customWidth="1"/>
+    <col min="18" max="18" width="5.85546875" style="67" customWidth="1"/>
+    <col min="19" max="19" width="11" style="60" customWidth="1"/>
     <col min="20" max="20" width="9.140625" style="13" customWidth="1"/>
-    <col min="21" max="21" width="11" style="130" customWidth="1"/>
+    <col min="21" max="21" width="11" style="65" customWidth="1"/>
     <col min="22" max="22" width="10.5703125" style="15" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="118"/>
+    <col min="23" max="16384" width="9.140625" style="53"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="136" t="s">
-        <v>120</v>
-      </c>
-      <c r="B1" s="137"/>
-      <c r="C1" s="137"/>
-      <c r="D1" s="137"/>
-      <c r="E1" s="137"/>
-      <c r="F1" s="137"/>
-      <c r="G1" s="138"/>
-      <c r="H1" s="136" t="s">
-        <v>119</v>
-      </c>
-      <c r="I1" s="137"/>
-      <c r="J1" s="137"/>
-      <c r="K1" s="137"/>
-      <c r="L1" s="137"/>
-      <c r="M1" s="137"/>
-      <c r="N1" s="138"/>
-      <c r="O1" s="146" t="s">
-        <v>122</v>
-      </c>
-      <c r="P1" s="147"/>
-      <c r="Q1" s="139" t="s">
-        <v>121</v>
-      </c>
-      <c r="R1" s="140"/>
-      <c r="S1" s="141" t="s">
-        <v>116</v>
-      </c>
-      <c r="T1" s="142"/>
-      <c r="U1" s="143" t="s">
-        <v>117</v>
-      </c>
-      <c r="V1" s="144"/>
-    </row>
-    <row r="2" spans="1:22" s="122" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="129" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="127" t="s">
-        <v>131</v>
-      </c>
-      <c r="C2" s="127" t="s">
-        <v>132</v>
-      </c>
-      <c r="D2" s="127" t="s">
-        <v>133</v>
-      </c>
-      <c r="E2" s="127" t="s">
-        <v>134</v>
-      </c>
-      <c r="F2" s="127" t="s">
-        <v>135</v>
-      </c>
-      <c r="G2" s="128" t="s">
-        <v>42</v>
-      </c>
-      <c r="H2" s="129" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" s="127" t="s">
-        <v>131</v>
-      </c>
-      <c r="J2" s="127" t="s">
-        <v>132</v>
-      </c>
-      <c r="K2" s="127" t="s">
-        <v>133</v>
-      </c>
-      <c r="L2" s="127" t="s">
-        <v>134</v>
-      </c>
-      <c r="M2" s="127" t="s">
-        <v>135</v>
-      </c>
-      <c r="N2" s="128" t="s">
-        <v>42</v>
-      </c>
-      <c r="O2" s="148" t="s">
-        <v>113</v>
-      </c>
-      <c r="P2" s="149">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="124" t="s">
-        <v>113</v>
-      </c>
-      <c r="R2" s="131">
+      <c r="A1" s="91" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="91" t="s">
+        <v>94</v>
+      </c>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
+      <c r="M1" s="92"/>
+      <c r="N1" s="93"/>
+      <c r="O1" s="94" t="s">
+        <v>97</v>
+      </c>
+      <c r="P1" s="95"/>
+      <c r="Q1" s="85" t="s">
+        <v>96</v>
+      </c>
+      <c r="R1" s="86"/>
+      <c r="S1" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="T1" s="88"/>
+      <c r="U1" s="89" t="s">
+        <v>92</v>
+      </c>
+      <c r="V1" s="90"/>
+    </row>
+    <row r="2" spans="1:22" s="57" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="64" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="62" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" s="62" t="s">
+        <v>107</v>
+      </c>
+      <c r="D2" s="62" t="s">
+        <v>108</v>
+      </c>
+      <c r="E2" s="62" t="s">
+        <v>109</v>
+      </c>
+      <c r="F2" s="62" t="s">
+        <v>110</v>
+      </c>
+      <c r="G2" s="63" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" s="64" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="62" t="s">
+        <v>106</v>
+      </c>
+      <c r="J2" s="62" t="s">
+        <v>107</v>
+      </c>
+      <c r="K2" s="62" t="s">
+        <v>108</v>
+      </c>
+      <c r="L2" s="62" t="s">
+        <v>109</v>
+      </c>
+      <c r="M2" s="62" t="s">
+        <v>110</v>
+      </c>
+      <c r="N2" s="63" t="s">
+        <v>40</v>
+      </c>
+      <c r="O2" s="72" t="s">
+        <v>88</v>
+      </c>
+      <c r="P2" s="73">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="59" t="s">
+        <v>88</v>
+      </c>
+      <c r="R2" s="66">
         <v>0.15</v>
       </c>
-      <c r="S2" s="125" t="s">
+      <c r="S2" s="60" t="s">
         <v>10</v>
       </c>
       <c r="T2" s="12"/>
-      <c r="U2" s="133" t="s">
-        <v>118</v>
-      </c>
-      <c r="V2" s="134">
+      <c r="U2" s="68" t="s">
+        <v>93</v>
+      </c>
+      <c r="V2" s="69">
         <f>VLOOKUP(T3,$H$3:$M$13,6,FALSE)</f>
-        <v>2464.8000000000002</v>
+        <v>2760.7999999999997</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B3" s="126">
+        <v>79</v>
+      </c>
+      <c r="B3" s="61">
         <v>150</v>
       </c>
-      <c r="C3" s="126">
+      <c r="C3" s="61">
         <v>300</v>
       </c>
-      <c r="D3" s="126">
+      <c r="D3" s="61">
         <v>496</v>
       </c>
-      <c r="E3" s="126">
+      <c r="E3" s="61">
         <v>761</v>
       </c>
-      <c r="F3" s="126">
+      <c r="F3" s="61">
         <v>1152</v>
       </c>
-      <c r="G3" s="123">
+      <c r="G3" s="58">
         <v>345</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="I3" s="126">
+        <v>79</v>
+      </c>
+      <c r="I3" s="61">
         <f>B3 * (1+SUM($R:$R))</f>
-        <v>237</v>
-      </c>
-      <c r="J3" s="126">
+        <v>210</v>
+      </c>
+      <c r="J3" s="61">
         <f t="shared" ref="J3:J13" si="0">C3 * (1+SUM($R:$R))</f>
-        <v>474</v>
-      </c>
-      <c r="K3" s="126">
-        <f>D3 * (1+SUM($R:$R))</f>
-        <v>783.68000000000006</v>
-      </c>
-      <c r="L3" s="126">
-        <f>E3 * (1+SUM($R:$R))</f>
-        <v>1202.3800000000001</v>
-      </c>
-      <c r="M3" s="126">
-        <f>F3 * (1+SUM($R:$R))</f>
-        <v>1820.16</v>
-      </c>
-      <c r="N3" s="123">
-        <f t="shared" ref="N3:N13" si="1">G3 * (1+SUM($R:$R))</f>
-        <v>545.1</v>
-      </c>
-      <c r="O3" s="148" t="s">
-        <v>19</v>
-      </c>
-      <c r="P3" s="149">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="124" t="s">
-        <v>19</v>
-      </c>
-      <c r="R3" s="131">
+        <v>420</v>
+      </c>
+      <c r="K3" s="61">
+        <f t="shared" ref="K3:M10" si="1">D3 * (1+SUM($R:$R))</f>
+        <v>694.4</v>
+      </c>
+      <c r="L3" s="61">
+        <f t="shared" si="1"/>
+        <v>1065.3999999999999</v>
+      </c>
+      <c r="M3" s="61">
+        <f t="shared" si="1"/>
+        <v>1612.8</v>
+      </c>
+      <c r="N3" s="58">
+        <f t="shared" ref="N3:N13" si="2">G3 * (1+SUM($R:$R))</f>
+        <v>482.99999999999994</v>
+      </c>
+      <c r="O3" s="72" t="s">
+        <v>18</v>
+      </c>
+      <c r="P3" s="73">
         <v>0.35</v>
       </c>
-      <c r="S3" s="125" t="s">
+      <c r="Q3" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="R3" s="66">
+        <v>0</v>
+      </c>
+      <c r="S3" s="60" t="s">
+        <v>78</v>
+      </c>
+      <c r="T3" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="U3" s="68" t="s">
         <v>103</v>
       </c>
-      <c r="T3" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="U3" s="133" t="s">
-        <v>128</v>
-      </c>
-      <c r="V3" s="134">
+      <c r="V3" s="69">
         <f>MOD(T6, V2)</f>
-        <v>2305.1999999999998</v>
+        <v>999.60000000000082</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="126">
+        <v>31</v>
+      </c>
+      <c r="B4" s="61">
         <v>130</v>
       </c>
-      <c r="C4" s="126">
+      <c r="C4" s="61">
         <v>260</v>
       </c>
-      <c r="D4" s="126">
+      <c r="D4" s="61">
         <v>480</v>
       </c>
-      <c r="E4" s="126">
+      <c r="E4" s="61">
         <v>840</v>
       </c>
-      <c r="F4" s="126">
+      <c r="F4" s="61">
         <v>1740</v>
       </c>
-      <c r="G4" s="123">
+      <c r="G4" s="58">
         <v>200</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I4" s="126">
-        <f t="shared" ref="I4:I13" si="2">B4 * (1+SUM($R:$R))</f>
-        <v>205.4</v>
-      </c>
-      <c r="J4" s="126">
+        <v>31</v>
+      </c>
+      <c r="I4" s="61">
+        <f t="shared" ref="I4:I13" si="3">B4 * (1+SUM($R:$R))</f>
+        <v>182</v>
+      </c>
+      <c r="J4" s="61">
         <f t="shared" si="0"/>
-        <v>410.8</v>
-      </c>
-      <c r="K4" s="126">
-        <f>D4 * (1+SUM($R:$R))</f>
-        <v>758.40000000000009</v>
-      </c>
-      <c r="L4" s="126">
-        <f>E4 * (1+SUM($R:$R))</f>
-        <v>1327.2</v>
-      </c>
-      <c r="M4" s="126">
-        <f>F4 * (1+SUM($R:$R))</f>
-        <v>2749.2000000000003</v>
-      </c>
-      <c r="N4" s="123">
+        <v>364</v>
+      </c>
+      <c r="K4" s="61">
         <f t="shared" si="1"/>
-        <v>316</v>
-      </c>
-      <c r="O4" s="148" t="s">
-        <v>114</v>
-      </c>
-      <c r="P4" s="149">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="124" t="s">
-        <v>114</v>
-      </c>
-      <c r="R4" s="131">
-        <v>0.08</v>
-      </c>
-      <c r="S4" s="125" t="s">
-        <v>123</v>
+        <v>672</v>
+      </c>
+      <c r="L4" s="61">
+        <f t="shared" si="1"/>
+        <v>1176</v>
+      </c>
+      <c r="M4" s="61">
+        <f t="shared" si="1"/>
+        <v>2436</v>
+      </c>
+      <c r="N4" s="58">
+        <f t="shared" si="2"/>
+        <v>280</v>
+      </c>
+      <c r="O4" s="72" t="s">
+        <v>89</v>
+      </c>
+      <c r="P4" s="73">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="59" t="s">
+        <v>89</v>
+      </c>
+      <c r="R4" s="66">
+        <v>0.15</v>
+      </c>
+      <c r="S4" s="60" t="s">
+        <v>98</v>
       </c>
       <c r="T4" s="13">
-        <v>4770</v>
-      </c>
-      <c r="U4" s="133" t="s">
-        <v>129</v>
-      </c>
-      <c r="V4" s="134">
+        <v>14280</v>
+      </c>
+      <c r="U4" s="68" t="s">
+        <v>104</v>
+      </c>
+      <c r="V4" s="69">
         <f>MOD(T7, V2)</f>
-        <v>1870.3999999999996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B5" s="126">
+        <v>80</v>
+      </c>
+      <c r="B5" s="61">
         <v>144</v>
       </c>
-      <c r="C5" s="126">
+      <c r="C5" s="61">
         <v>288</v>
       </c>
-      <c r="D5" s="126">
+      <c r="D5" s="61">
         <v>552</v>
       </c>
-      <c r="E5" s="126">
+      <c r="E5" s="61">
         <v>840</v>
       </c>
-      <c r="F5" s="126">
+      <c r="F5" s="61">
         <v>1320</v>
       </c>
-      <c r="G5" s="123">
+      <c r="G5" s="58">
         <v>288</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="I5" s="126">
+        <v>80</v>
+      </c>
+      <c r="I5" s="61">
+        <f t="shared" si="3"/>
+        <v>201.6</v>
+      </c>
+      <c r="J5" s="61">
+        <f t="shared" si="0"/>
+        <v>403.2</v>
+      </c>
+      <c r="K5" s="61">
+        <f t="shared" si="1"/>
+        <v>772.8</v>
+      </c>
+      <c r="L5" s="61">
+        <f t="shared" si="1"/>
+        <v>1176</v>
+      </c>
+      <c r="M5" s="61">
+        <f t="shared" si="1"/>
+        <v>1847.9999999999998</v>
+      </c>
+      <c r="N5" s="58">
         <f t="shared" si="2"/>
-        <v>227.52</v>
-      </c>
-      <c r="J5" s="126">
-        <f t="shared" si="0"/>
-        <v>455.04</v>
-      </c>
-      <c r="K5" s="126">
-        <f>D5 * (1+SUM($R:$R))</f>
-        <v>872.16000000000008</v>
-      </c>
-      <c r="L5" s="126">
-        <f>E5 * (1+SUM($R:$R))</f>
-        <v>1327.2</v>
-      </c>
-      <c r="M5" s="126">
-        <f>F5 * (1+SUM($R:$R))</f>
-        <v>2085.6</v>
-      </c>
-      <c r="N5" s="123">
-        <f t="shared" si="1"/>
-        <v>455.04</v>
-      </c>
-      <c r="O5" s="148" t="s">
-        <v>115</v>
-      </c>
-      <c r="P5" s="149">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="124" t="s">
-        <v>115</v>
-      </c>
-      <c r="R5" s="131">
-        <v>0</v>
-      </c>
-      <c r="S5" s="125" t="s">
-        <v>125</v>
+        <v>403.2</v>
+      </c>
+      <c r="O5" s="72" t="s">
+        <v>90</v>
+      </c>
+      <c r="P5" s="73">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="59" t="s">
+        <v>90</v>
+      </c>
+      <c r="R5" s="66">
+        <v>0.1</v>
+      </c>
+      <c r="S5" s="60" t="s">
+        <v>100</v>
       </c>
       <c r="T5" s="13">
-        <v>6800</v>
-      </c>
-      <c r="U5" s="135" t="s">
-        <v>126</v>
-      </c>
-      <c r="V5" s="145" t="str" cm="1">
+        <v>0</v>
+      </c>
+      <c r="U5" s="70" t="s">
+        <v>101</v>
+      </c>
+      <c r="V5" s="71" t="str" cm="1">
         <f t="array" ref="V5">ROUNDDOWN(T6/V2, 0) + IF(AND(V3 &gt; VLOOKUP(T3,H3:N13,5,0), V3 &lt; VLOOKUP(T3,H3:N13,6,0)), 1, 0) &amp; _xlfn.IFS(V3 &lt; VLOOKUP(T3,$H3:N13,7,FALSE), " + FS", VLOOKUP($T$3,H3:N13,2,0) &gt; V3, " + C1", VLOOKUP(T3,H3:N13,3,0) &gt; V3, " + C2", VLOOKUP(T3,H3:N13,4,0) &gt; V3, " + C3", VLOOKUP(T3,H3:N13,5,0) &gt; V3, " + C4",TRUE,"")</f>
-        <v>2</v>
+        <v>3 + C3</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B6" s="126">
+        <v>81</v>
+      </c>
+      <c r="B6" s="61">
         <v>200</v>
       </c>
-      <c r="C6" s="126">
+      <c r="C6" s="61">
         <v>440</v>
       </c>
-      <c r="D6" s="126">
+      <c r="D6" s="61">
         <v>800</v>
       </c>
-      <c r="E6" s="126">
+      <c r="E6" s="61">
         <v>1180</v>
       </c>
-      <c r="F6" s="126">
+      <c r="F6" s="61">
         <v>1600</v>
       </c>
-      <c r="G6" s="123">
+      <c r="G6" s="58">
         <v>300</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="I6" s="126">
+        <v>81</v>
+      </c>
+      <c r="I6" s="61">
+        <f t="shared" si="3"/>
+        <v>280</v>
+      </c>
+      <c r="J6" s="61">
+        <f t="shared" si="0"/>
+        <v>616</v>
+      </c>
+      <c r="K6" s="61">
+        <f t="shared" si="1"/>
+        <v>1120</v>
+      </c>
+      <c r="L6" s="61">
+        <f t="shared" si="1"/>
+        <v>1652</v>
+      </c>
+      <c r="M6" s="61">
+        <f t="shared" si="1"/>
+        <v>2240</v>
+      </c>
+      <c r="N6" s="58">
         <f t="shared" si="2"/>
-        <v>316</v>
-      </c>
-      <c r="J6" s="126">
-        <f t="shared" si="0"/>
-        <v>695.2</v>
-      </c>
-      <c r="K6" s="126">
-        <f>D6 * (1+SUM($R:$R))</f>
-        <v>1264</v>
-      </c>
-      <c r="L6" s="126">
-        <f>E6 * (1+SUM($R:$R))</f>
-        <v>1864.4</v>
-      </c>
-      <c r="M6" s="126">
-        <f>F6 * (1+SUM($R:$R))</f>
-        <v>2528</v>
-      </c>
-      <c r="N6" s="123">
-        <f t="shared" si="1"/>
-        <v>474</v>
-      </c>
-      <c r="S6" s="151" t="s">
-        <v>124</v>
-      </c>
-      <c r="T6" s="152">
+        <v>420</v>
+      </c>
+      <c r="S6" s="75" t="s">
+        <v>99</v>
+      </c>
+      <c r="T6" s="76">
         <f>T4 * (1 - SUM(P:P))</f>
-        <v>4770</v>
-      </c>
-      <c r="U6" s="153" t="s">
-        <v>127</v>
-      </c>
-      <c r="V6" s="145" t="str" cm="1">
+        <v>9282</v>
+      </c>
+      <c r="U6" s="77" t="s">
+        <v>102</v>
+      </c>
+      <c r="V6" s="71" t="str" cm="1">
         <f t="array" ref="V6">ROUNDDOWN(T7/V2, 0) + IF(AND(V4 &gt; VLOOKUP(T3,H3:N13,5,0), V4 &lt; VLOOKUP(T3,H3:N13,6,0)), 1, 0) &amp; _xlfn.IFS(V4 &lt; VLOOKUP(T3,$H3:N13,7,FALSE), " + FS", VLOOKUP($T$3,H3:N13,2,0) &gt; V4, " + C1", VLOOKUP(T3,H3:N13,3,0) &gt; V4, " + C2", VLOOKUP(T3,H3:N13,4,0) &gt; V4, " + C3", VLOOKUP(T3,H3:N13,5,0) &gt; V4, " + C4",TRUE,"")</f>
-        <v>3</v>
+        <v>0 + FS</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B7" s="126">
+        <v>82</v>
+      </c>
+      <c r="B7" s="61">
         <v>120</v>
       </c>
-      <c r="C7" s="126">
+      <c r="C7" s="61">
         <v>360</v>
       </c>
-      <c r="D7" s="126">
+      <c r="D7" s="61">
         <v>480</v>
       </c>
-      <c r="E7" s="126">
+      <c r="E7" s="61">
         <v>960</v>
       </c>
-      <c r="F7" s="126">
+      <c r="F7" s="61">
         <v>1560</v>
       </c>
-      <c r="G7" s="123">
+      <c r="G7" s="58">
         <v>400</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="I7" s="126">
+        <v>82</v>
+      </c>
+      <c r="I7" s="61">
+        <f t="shared" si="3"/>
+        <v>168</v>
+      </c>
+      <c r="J7" s="61">
+        <f t="shared" si="0"/>
+        <v>503.99999999999994</v>
+      </c>
+      <c r="K7" s="61">
+        <f t="shared" si="1"/>
+        <v>672</v>
+      </c>
+      <c r="L7" s="61">
+        <f t="shared" si="1"/>
+        <v>1344</v>
+      </c>
+      <c r="M7" s="61">
+        <f t="shared" si="1"/>
+        <v>2184</v>
+      </c>
+      <c r="N7" s="58">
         <f t="shared" si="2"/>
-        <v>189.60000000000002</v>
-      </c>
-      <c r="J7" s="126">
-        <f t="shared" si="0"/>
-        <v>568.80000000000007</v>
-      </c>
-      <c r="K7" s="126">
-        <f>D7 * (1+SUM($R:$R))</f>
-        <v>758.40000000000009</v>
-      </c>
-      <c r="L7" s="126">
-        <f>E7 * (1+SUM($R:$R))</f>
-        <v>1516.8000000000002</v>
-      </c>
-      <c r="M7" s="126">
-        <f>F7 * (1+SUM($R:$R))</f>
-        <v>2464.8000000000002</v>
-      </c>
-      <c r="N7" s="123">
-        <f t="shared" si="1"/>
-        <v>632</v>
-      </c>
-      <c r="S7" s="151" t="s">
-        <v>130</v>
-      </c>
-      <c r="T7" s="152">
+        <v>560</v>
+      </c>
+      <c r="S7" s="75" t="s">
+        <v>105</v>
+      </c>
+      <c r="T7" s="76">
         <f>T5 * (1 - SUM(P:P))</f>
-        <v>6800</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="B8" s="126">
+        <v>83</v>
+      </c>
+      <c r="B8" s="61">
         <v>184</v>
       </c>
-      <c r="C8" s="126">
+      <c r="C8" s="61">
         <v>276</v>
       </c>
-      <c r="D8" s="126">
+      <c r="D8" s="61">
         <v>552</v>
       </c>
-      <c r="E8" s="126">
+      <c r="E8" s="61">
         <v>966</v>
       </c>
-      <c r="F8" s="126">
+      <c r="F8" s="61">
         <v>1495</v>
       </c>
-      <c r="G8" s="123">
+      <c r="G8" s="58">
         <v>460</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="I8" s="126">
+        <v>83</v>
+      </c>
+      <c r="I8" s="61">
+        <f t="shared" si="3"/>
+        <v>257.59999999999997</v>
+      </c>
+      <c r="J8" s="61">
+        <f t="shared" si="0"/>
+        <v>386.4</v>
+      </c>
+      <c r="K8" s="61">
+        <f t="shared" si="1"/>
+        <v>772.8</v>
+      </c>
+      <c r="L8" s="61">
+        <f t="shared" si="1"/>
+        <v>1352.3999999999999</v>
+      </c>
+      <c r="M8" s="61">
+        <f t="shared" si="1"/>
+        <v>2093</v>
+      </c>
+      <c r="N8" s="58">
         <f t="shared" si="2"/>
-        <v>290.72000000000003</v>
-      </c>
-      <c r="J8" s="126">
-        <f t="shared" si="0"/>
-        <v>436.08000000000004</v>
-      </c>
-      <c r="K8" s="126">
-        <f>D8 * (1+SUM($R:$R))</f>
-        <v>872.16000000000008</v>
-      </c>
-      <c r="L8" s="126">
-        <f>E8 * (1+SUM($R:$R))</f>
-        <v>1526.28</v>
-      </c>
-      <c r="M8" s="126">
-        <f>F8 * (1+SUM($R:$R))</f>
-        <v>2362.1</v>
-      </c>
-      <c r="N8" s="123">
-        <f t="shared" si="1"/>
-        <v>726.80000000000007</v>
+        <v>644</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="126">
+        <v>30</v>
+      </c>
+      <c r="B9" s="61">
         <v>130</v>
       </c>
-      <c r="C9" s="126">
+      <c r="C9" s="61">
         <v>330</v>
       </c>
-      <c r="D9" s="126">
+      <c r="D9" s="61">
         <v>570</v>
       </c>
-      <c r="E9" s="126">
+      <c r="E9" s="61">
         <v>1000</v>
       </c>
-      <c r="F9" s="126">
+      <c r="F9" s="61">
         <v>1600</v>
       </c>
-      <c r="G9" s="123">
+      <c r="G9" s="58">
         <v>400</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I9" s="126">
+        <v>30</v>
+      </c>
+      <c r="I9" s="61">
+        <f t="shared" si="3"/>
+        <v>182</v>
+      </c>
+      <c r="J9" s="61">
+        <f t="shared" si="0"/>
+        <v>461.99999999999994</v>
+      </c>
+      <c r="K9" s="61">
+        <f t="shared" si="1"/>
+        <v>798</v>
+      </c>
+      <c r="L9" s="61">
+        <f t="shared" si="1"/>
+        <v>1400</v>
+      </c>
+      <c r="M9" s="61">
+        <f t="shared" si="1"/>
+        <v>2240</v>
+      </c>
+      <c r="N9" s="58">
         <f t="shared" si="2"/>
-        <v>205.4</v>
-      </c>
-      <c r="J9" s="126">
-        <f t="shared" si="0"/>
-        <v>521.4</v>
-      </c>
-      <c r="K9" s="126">
-        <f>D9 * (1+SUM($R:$R))</f>
-        <v>900.6</v>
-      </c>
-      <c r="L9" s="126">
-        <f>E9 * (1+SUM($R:$R))</f>
-        <v>1580</v>
-      </c>
-      <c r="M9" s="126">
-        <f>F9 * (1+SUM($R:$R))</f>
-        <v>2528</v>
-      </c>
-      <c r="N9" s="123">
-        <f t="shared" si="1"/>
-        <v>632</v>
+        <v>560</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B10" s="126">
+        <v>84</v>
+      </c>
+      <c r="B10" s="61">
         <v>232</v>
       </c>
-      <c r="C10" s="126">
+      <c r="C10" s="61">
         <v>464</v>
       </c>
-      <c r="D10" s="126">
+      <c r="D10" s="61">
         <v>812</v>
       </c>
-      <c r="E10" s="126">
+      <c r="E10" s="61">
         <v>1276</v>
       </c>
-      <c r="F10" s="126">
+      <c r="F10" s="61">
         <v>1972</v>
       </c>
-      <c r="G10" s="123">
+      <c r="G10" s="58">
         <v>580</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="I10" s="126">
+        <v>84</v>
+      </c>
+      <c r="I10" s="61">
+        <f t="shared" si="3"/>
+        <v>324.79999999999995</v>
+      </c>
+      <c r="J10" s="61">
+        <f t="shared" si="0"/>
+        <v>649.59999999999991</v>
+      </c>
+      <c r="K10" s="61">
+        <f t="shared" si="1"/>
+        <v>1136.8</v>
+      </c>
+      <c r="L10" s="61">
+        <f t="shared" si="1"/>
+        <v>1786.3999999999999</v>
+      </c>
+      <c r="M10" s="61">
+        <f t="shared" si="1"/>
+        <v>2760.7999999999997</v>
+      </c>
+      <c r="N10" s="58">
         <f t="shared" si="2"/>
-        <v>366.56</v>
-      </c>
-      <c r="J10" s="126">
-        <f t="shared" si="0"/>
-        <v>733.12</v>
-      </c>
-      <c r="K10" s="126">
-        <f>D10 * (1+SUM($R:$R))</f>
-        <v>1282.96</v>
-      </c>
-      <c r="L10" s="126">
-        <f>E10 * (1+SUM($R:$R))</f>
-        <v>2016.0800000000002</v>
-      </c>
-      <c r="M10" s="126">
-        <f>F10 * (1+SUM($R:$R))</f>
-        <v>3115.76</v>
-      </c>
-      <c r="N10" s="123">
-        <f t="shared" si="1"/>
-        <v>916.40000000000009</v>
+        <v>812</v>
       </c>
     </row>
     <row r="11" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B11" s="126">
+        <v>85</v>
+      </c>
+      <c r="B11" s="61">
         <v>545</v>
       </c>
-      <c r="C11" s="126">
+      <c r="C11" s="61">
         <v>1090</v>
       </c>
-      <c r="D11" s="126"/>
-      <c r="E11" s="126"/>
-      <c r="F11" s="126"/>
-      <c r="G11" s="123">
+      <c r="D11" s="61"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="61"/>
+      <c r="G11" s="58">
         <v>400</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="I11" s="126">
+        <v>85</v>
+      </c>
+      <c r="I11" s="61">
+        <f t="shared" si="3"/>
+        <v>763</v>
+      </c>
+      <c r="J11" s="61">
+        <f t="shared" si="0"/>
+        <v>1526</v>
+      </c>
+      <c r="K11" s="61"/>
+      <c r="L11" s="61"/>
+      <c r="M11" s="61"/>
+      <c r="N11" s="58">
         <f t="shared" si="2"/>
-        <v>861.1</v>
-      </c>
-      <c r="J11" s="126">
-        <f t="shared" si="0"/>
-        <v>1722.2</v>
-      </c>
-      <c r="K11" s="126"/>
-      <c r="L11" s="126"/>
-      <c r="M11" s="126"/>
-      <c r="N11" s="123">
-        <f t="shared" si="1"/>
-        <v>632</v>
+        <v>560</v>
       </c>
     </row>
     <row r="12" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B12" s="126">
+        <v>86</v>
+      </c>
+      <c r="B12" s="61">
         <v>464</v>
       </c>
-      <c r="C12" s="126">
+      <c r="C12" s="61">
         <v>928</v>
       </c>
-      <c r="D12" s="126"/>
-      <c r="E12" s="126"/>
-      <c r="F12" s="126"/>
-      <c r="G12" s="123">
+      <c r="D12" s="61"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="61"/>
+      <c r="G12" s="58">
         <v>400</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="I12" s="126">
+        <v>86</v>
+      </c>
+      <c r="I12" s="61">
+        <f t="shared" si="3"/>
+        <v>649.59999999999991</v>
+      </c>
+      <c r="J12" s="61">
+        <f t="shared" si="0"/>
+        <v>1299.1999999999998</v>
+      </c>
+      <c r="K12" s="61"/>
+      <c r="L12" s="61"/>
+      <c r="M12" s="61"/>
+      <c r="N12" s="58">
         <f t="shared" si="2"/>
-        <v>733.12</v>
-      </c>
-      <c r="J12" s="126">
-        <f t="shared" si="0"/>
-        <v>1466.24</v>
-      </c>
-      <c r="K12" s="126"/>
-      <c r="L12" s="126"/>
-      <c r="M12" s="126"/>
-      <c r="N12" s="123">
-        <f t="shared" si="1"/>
-        <v>632</v>
+        <v>560</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B13" s="126">
+        <v>87</v>
+      </c>
+      <c r="B13" s="61">
         <v>300</v>
       </c>
-      <c r="C13" s="126">
+      <c r="C13" s="61">
         <v>764</v>
       </c>
-      <c r="D13" s="126">
+      <c r="D13" s="61">
         <v>1228</v>
       </c>
-      <c r="E13" s="126"/>
-      <c r="F13" s="126"/>
-      <c r="G13" s="123">
+      <c r="E13" s="61"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="58">
         <v>400</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="I13" s="126">
+        <v>87</v>
+      </c>
+      <c r="I13" s="61">
+        <f t="shared" si="3"/>
+        <v>420</v>
+      </c>
+      <c r="J13" s="61">
+        <f t="shared" si="0"/>
+        <v>1069.5999999999999</v>
+      </c>
+      <c r="K13" s="61">
+        <f>D13 * (1+SUM($R:$R))</f>
+        <v>1719.1999999999998</v>
+      </c>
+      <c r="L13" s="61"/>
+      <c r="M13" s="61"/>
+      <c r="N13" s="58">
         <f t="shared" si="2"/>
-        <v>474</v>
-      </c>
-      <c r="J13" s="126">
-        <f t="shared" si="0"/>
-        <v>1207.1200000000001</v>
-      </c>
-      <c r="K13" s="126">
-        <f>D13 * (1+SUM($R:$R))</f>
-        <v>1940.24</v>
-      </c>
-      <c r="L13" s="126"/>
-      <c r="M13" s="126"/>
-      <c r="N13" s="123">
-        <f t="shared" si="1"/>
-        <v>632</v>
+        <v>560</v>
       </c>
     </row>
   </sheetData>
@@ -2823,12 +2625,202 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98358B4D-3860-4186-AD24-D3864A865E87}">
+  <dimension ref="A1:J10"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30:D31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="3" width="10.85546875" style="53"/>
+    <col min="4" max="4" width="13.28515625" style="53" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" style="55"/>
+    <col min="6" max="6" width="18.42578125" style="53" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" style="53"/>
+    <col min="8" max="9" width="13.28515625" style="53" customWidth="1"/>
+    <col min="10" max="16384" width="10.85546875" style="53"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="54">
+        <v>0.99</v>
+      </c>
+      <c r="D1" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="53" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="54">
+        <v>0.99</v>
+      </c>
+      <c r="D2" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="55">
+        <f>B4-B2</f>
+        <v>0.81</v>
+      </c>
+      <c r="H2" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="56">
+        <f>VLOOKUP(H2,$D:$E,2,FALSE)*VLOOKUP(I2,$D:$E,2,FALSE)</f>
+        <v>8.9100000000000082E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="54">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D3" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="55">
+        <f>1-E2</f>
+        <v>0.18999999999999995</v>
+      </c>
+      <c r="H3" s="53" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="56">
+        <f>VLOOKUP(H3,$D:$E,2,FALSE)*VLOOKUP(I3,$D:$E,2,FALSE)</f>
+        <v>0.16839900000000016</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="54">
+        <v>1.8</v>
+      </c>
+      <c r="D4" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="55">
+        <f>1-E5</f>
+        <v>0.96389999999999998</v>
+      </c>
+      <c r="F4" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="53" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="56">
+        <f>VLOOKUP(H4,$D:$E,2,FALSE)*VLOOKUP(I4,$D:$E,2,FALSE)</f>
+        <v>0.20039481000000017</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D5" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="55">
+        <f>E3*E3</f>
+        <v>3.6099999999999979E-2</v>
+      </c>
+      <c r="H5" s="53" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="56">
+        <f>VLOOKUP(H5,$D:$E,2,FALSE)*VLOOKUP(I5,$D:$E,2,FALSE)</f>
+        <v>9.801000000000018E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D6" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="55">
+        <f>B3-B1</f>
+        <v>0.1100000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D7" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="55">
+        <f>1-E6</f>
+        <v>0.8899999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D8" s="53" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="55">
+        <f>1-E9</f>
+        <v>0.2079000000000002</v>
+      </c>
+      <c r="F8" s="53" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D9" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="55">
+        <f>E7*E7</f>
+        <v>0.7920999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D10" s="53" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="55">
+        <f>E6*E6</f>
+        <v>1.2100000000000022E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC6E1F14-9A03-4157-97E0-B9040F803B9F}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D7" sqref="D6:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2840,121 +2832,141 @@
   <sheetData>
     <row r="1" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
-        <v>55</v>
+        <v>118</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>58</v>
+        <v>118</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>35</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
+        <v>17</v>
+      </c>
+      <c r="B2" s="6">
+        <v>624</v>
+      </c>
+      <c r="C2" s="6">
+        <v>624</v>
+      </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
+        <v>18</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="4" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>56</v>
+        <v>122</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="D4" s="11"/>
+        <v>122</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>115</v>
+      </c>
       <c r="E4" s="11" t="s">
-        <v>59</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>52</v>
+        <v>114</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="D5" s="11"/>
+        <v>114</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>116</v>
+      </c>
       <c r="E5" s="11" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
+        <v>119</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>134</v>
+      </c>
       <c r="E6" s="11"/>
     </row>
     <row r="7" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>64</v>
+        <v>140</v>
       </c>
       <c r="D7" s="13"/>
-      <c r="E7" s="13" t="s">
-        <v>62</v>
-      </c>
+      <c r="E7" s="13"/>
     </row>
     <row r="8" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>54</v>
+        <v>141</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>54</v>
+        <v>141</v>
       </c>
       <c r="D8" s="13"/>
       <c r="E8" s="13"/>
     </row>
     <row r="9" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>32</v>
+        <v>123</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="17"/>
+        <v>123</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>121</v>
+      </c>
       <c r="E9" s="17"/>
     </row>
     <row r="10" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B10" s="17" t="s">
         <v>31</v>
@@ -2962,25 +2974,27 @@
       <c r="C10" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="17"/>
+      <c r="D10" s="17" t="s">
+        <v>124</v>
+      </c>
       <c r="E10" s="17"/>
     </row>
     <row r="11" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="D11" s="17"/>
       <c r="E11" s="17"/>
     </row>
     <row r="12" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
@@ -2989,7 +3003,7 @@
     </row>
     <row r="13" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B13" s="15"/>
       <c r="C13" s="15"/>
@@ -2998,7 +3012,7 @@
     </row>
     <row r="14" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
@@ -3007,49 +3021,118 @@
     </row>
     <row r="15" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>37</v>
+        <v>111</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>51</v>
+        <v>35</v>
+      </c>
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="79" t="s">
+        <v>126</v>
+      </c>
+      <c r="B17" s="78">
+        <v>0.23</v>
+      </c>
+      <c r="C17" s="78">
+        <v>0.23</v>
+      </c>
+      <c r="D17" s="78">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="79" t="s">
+        <v>125</v>
+      </c>
+      <c r="B18" s="2">
+        <v>2</v>
+      </c>
+      <c r="C18" s="2">
+        <v>2</v>
+      </c>
+      <c r="D18" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="79" t="s">
+        <v>113</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="80" t="s">
+        <v>127</v>
+      </c>
+      <c r="B20" s="78">
+        <v>0.15</v>
+      </c>
+      <c r="C20" s="78">
+        <v>0.15</v>
+      </c>
+      <c r="D20" s="78">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="81">
+        <f>SUM($B$18:$E$18) * B17 + SUM($B$20:$E$20)</f>
+        <v>1.98</v>
+      </c>
+      <c r="C21" s="81">
+        <f>SUM($B$18:$E$18) * C17 + SUM($B$20:$E$20)</f>
+        <v>1.98</v>
+      </c>
+      <c r="D21" s="81">
+        <f>SUM($B$18:$E$18) * D17 + SUM($B$20:$E$20)</f>
+        <v>1.98</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93F18558-26E5-406D-8DCA-7A8488B0D961}">
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T10" sqref="T10"/>
+      <selection activeCell="K14" sqref="A1:K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3066,179 +3149,130 @@
       </c>
     </row>
     <row r="2" spans="1:13" s="6" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>17</v>
+      <c r="A2" s="6" t="str">
+        <f>Equips!B1</f>
+        <v>二姊</v>
       </c>
       <c r="B2" s="4"/>
-      <c r="C2" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H2" s="22" t="s">
+      <c r="G2" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="M2" s="22" t="s">
+      <c r="J2" s="6" t="s">
         <v>41</v>
       </c>
+      <c r="M2" s="82"/>
     </row>
     <row r="3" spans="1:13" s="6" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="4"/>
-      <c r="M3" s="6" t="s">
-        <v>48</v>
-      </c>
     </row>
     <row r="4" spans="1:13" s="6" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="4"/>
+    </row>
+    <row r="5" spans="1:13" s="8" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="str">
+        <f>Equips!C1</f>
+        <v>二姊</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="G5" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="6">
-        <v>1</v>
-      </c>
-      <c r="D4" s="6">
-        <v>3</v>
-      </c>
-      <c r="G4" s="6">
-        <v>4</v>
-      </c>
-      <c r="H4" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" s="8" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" s="21" t="s">
+      <c r="I5" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="L5" s="21" t="s">
+      <c r="J5" s="8" t="s">
         <v>41</v>
       </c>
+      <c r="L5" s="83"/>
     </row>
     <row r="6" spans="1:13" s="8" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="4"/>
-      <c r="L6" s="8" t="s">
-        <v>47</v>
-      </c>
     </row>
     <row r="7" spans="1:13" s="8" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B7" s="4"/>
-      <c r="C7" s="8">
-        <v>1</v>
-      </c>
-      <c r="D7" s="8">
-        <v>3</v>
-      </c>
-      <c r="G7" s="8">
-        <v>4</v>
-      </c>
-      <c r="H7" s="8">
-        <v>5</v>
-      </c>
     </row>
     <row r="8" spans="1:13" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
-        <v>35</v>
+      <c r="A8" s="9" t="str">
+        <f>Equips!D1</f>
+        <v>三葉</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D8" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>42</v>
-      </c>
       <c r="G8" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H8" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="I8" s="9" t="s">
         <v>39</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="J8" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="K8" s="9" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:13" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="4"/>
-      <c r="F9" s="19" t="s">
-        <v>43</v>
-      </c>
+      <c r="F9" s="19"/>
     </row>
     <row r="10" spans="1:13" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B10" s="4"/>
-      <c r="D10" s="9">
-        <v>3</v>
-      </c>
       <c r="F10" s="19"/>
-      <c r="G10" s="9">
-        <v>4</v>
-      </c>
-      <c r="H10" s="9">
-        <v>5</v>
-      </c>
     </row>
     <row r="11" spans="1:13" s="15" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="I11" s="20" t="s">
-        <v>44</v>
-      </c>
+      <c r="A11" s="15" t="str">
+        <f>Equips!E1</f>
+        <v>馬爾斯</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="I11" s="84"/>
     </row>
     <row r="12" spans="1:13" s="15" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
+        <v>128</v>
+      </c>
       <c r="B12" s="4"/>
     </row>
     <row r="13" spans="1:13" s="15" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B13" s="4"/>
-      <c r="C13" s="15">
-        <v>1</v>
-      </c>
-      <c r="D13" s="15">
-        <v>3</v>
-      </c>
-      <c r="G13" s="15">
-        <v>4</v>
-      </c>
-      <c r="H13" s="15">
-        <v>5</v>
+    </row>
+    <row r="14" spans="1:13" s="4" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -3248,528 +3282,1056 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEFF6CA3-18A6-4987-88AD-5768B35D8A0C}">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I19" sqref="I19"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="67"/>
-    <col min="2" max="2" width="19" style="68" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="60" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" style="23" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="23"/>
-    <col min="6" max="6" width="11.28515625" style="23" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="23"/>
+    <col min="1" max="1" width="9.140625" style="51"/>
+    <col min="2" max="2" width="19" style="52" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="20"/>
+    <col min="4" max="4" width="11.28515625" style="20" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="20"/>
+    <col min="6" max="6" width="11.28515625" style="20" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="20"/>
+    <col min="8" max="8" width="11.28515625" style="20" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="20"/>
+    <col min="10" max="10" width="11.28515625" style="20" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="20"/>
+    <col min="12" max="12" width="11.28515625" style="20" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
-        <v>81</v>
-      </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="71" t="s">
-        <v>67</v>
-      </c>
-      <c r="D1" s="72"/>
-      <c r="E1" s="71" t="s">
-        <v>68</v>
-      </c>
-      <c r="F1" s="72"/>
-    </row>
-    <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
-        <v>69</v>
-      </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="48">
+    <row r="1" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="141" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="142"/>
+      <c r="C1" s="143" t="s">
+        <v>130</v>
+      </c>
+      <c r="D1" s="144"/>
+      <c r="E1" s="143" t="s">
+        <v>132</v>
+      </c>
+      <c r="F1" s="144"/>
+      <c r="G1" s="143" t="s">
+        <v>131</v>
+      </c>
+      <c r="H1" s="144"/>
+      <c r="I1" s="143" t="s">
+        <v>133</v>
+      </c>
+      <c r="J1" s="144"/>
+      <c r="K1" s="143" t="s">
+        <v>142</v>
+      </c>
+      <c r="L1" s="144"/>
+    </row>
+    <row r="2" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="100" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="101"/>
+      <c r="C2" s="21">
         <f>5/3</f>
         <v>1.6666666666666667</v>
       </c>
-      <c r="D2" s="25">
+      <c r="D2" s="22">
         <f>C2</f>
         <v>1.6666666666666667</v>
       </c>
-      <c r="E2" s="24">
+      <c r="E2" s="21">
         <f>5/3</f>
         <v>1.6666666666666667</v>
       </c>
-      <c r="F2" s="25">
+      <c r="F2" s="22">
         <f>E2</f>
         <v>1.6666666666666667</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="73" t="s">
-        <v>87</v>
-      </c>
-      <c r="B3" s="74"/>
-      <c r="C3" s="48">
-        <v>0</v>
-      </c>
-      <c r="D3" s="25">
+      <c r="G2" s="21">
+        <f>5/3</f>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="H2" s="22">
+        <f>G2</f>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="I2" s="21">
+        <f>5/3</f>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="J2" s="22">
+        <f>I2</f>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="K2" s="21">
+        <f>5/3</f>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="L2" s="22">
+        <f>K2</f>
+        <v>1.6666666666666667</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="100" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="101"/>
+      <c r="C3" s="21">
+        <v>0</v>
+      </c>
+      <c r="D3" s="22">
         <f>1-C3</f>
         <v>1</v>
       </c>
-      <c r="E3" s="24">
-        <v>0</v>
-      </c>
-      <c r="F3" s="25">
+      <c r="E3" s="21">
+        <v>0</v>
+      </c>
+      <c r="F3" s="22">
         <f>1-E3</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="75" t="s">
-        <v>86</v>
-      </c>
-      <c r="B4" s="61" t="s">
-        <v>89</v>
-      </c>
-      <c r="C4" s="49">
-        <v>6016</v>
-      </c>
-      <c r="D4" s="78">
+      <c r="G3" s="21">
+        <v>0</v>
+      </c>
+      <c r="H3" s="22">
+        <f>1-G3</f>
+        <v>1</v>
+      </c>
+      <c r="I3" s="21">
+        <v>0</v>
+      </c>
+      <c r="J3" s="22">
+        <f>1-I3</f>
+        <v>1</v>
+      </c>
+      <c r="K3" s="21">
+        <v>0</v>
+      </c>
+      <c r="L3" s="22">
+        <f>1-K3</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="104" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="45" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="24">
+        <v>8769</v>
+      </c>
+      <c r="D4" s="132">
         <f>(C4/(1+C5)*(1+C5+C6)*(1+C7)*(1+C8))</f>
-        <v>16279.295999999998</v>
-      </c>
-      <c r="E4" s="27">
-        <v>5348</v>
-      </c>
-      <c r="F4" s="78">
+        <v>28937.7</v>
+      </c>
+      <c r="E4" s="24">
+        <v>8769</v>
+      </c>
+      <c r="F4" s="132">
         <f>(E4/(1+E5)*(1+E5+E6)*(1+E7)*(1+E8))</f>
-        <v>14471.688000000002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="76"/>
-      <c r="B5" s="61" t="s">
+        <v>28937.7</v>
+      </c>
+      <c r="G4" s="24">
+        <v>5526</v>
+      </c>
+      <c r="H4" s="132">
+        <f>(G4/(1+G5)*(1+G5+G6)*(1+G7)*(1+G8))</f>
+        <v>18235.800000000003</v>
+      </c>
+      <c r="I4" s="24">
+        <v>5526</v>
+      </c>
+      <c r="J4" s="132">
+        <f>(I4/(1+I5)*(1+I5+I6)*(1+I7)*(1+I8))</f>
+        <v>18235.800000000003</v>
+      </c>
+      <c r="K4" s="24">
+        <v>8769</v>
+      </c>
+      <c r="L4" s="132">
+        <f>(K4/(1+K5)*(1+K5+K6)*(1+K7)*(1+K8))</f>
+        <v>28937.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="105"/>
+      <c r="B5" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="26">
+        <v>0.9</v>
+      </c>
+      <c r="D5" s="133"/>
+      <c r="E5" s="26">
+        <v>0.9</v>
+      </c>
+      <c r="F5" s="133"/>
+      <c r="G5" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="H5" s="133"/>
+      <c r="I5" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="J5" s="133"/>
+      <c r="K5" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="L5" s="133"/>
+    </row>
+    <row r="6" spans="1:12" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="105"/>
+      <c r="B6" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="27">
+        <v>0</v>
+      </c>
+      <c r="D6" s="133"/>
+      <c r="E6" s="27">
+        <v>0</v>
+      </c>
+      <c r="F6" s="133"/>
+      <c r="G6" s="27">
+        <v>0</v>
+      </c>
+      <c r="H6" s="133"/>
+      <c r="I6" s="27">
+        <v>0</v>
+      </c>
+      <c r="J6" s="133"/>
+      <c r="K6" s="27">
+        <v>0</v>
+      </c>
+      <c r="L6" s="133"/>
+    </row>
+    <row r="7" spans="1:12" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="105"/>
+      <c r="B7" s="45" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="27">
+        <v>2</v>
+      </c>
+      <c r="D7" s="133"/>
+      <c r="E7" s="27">
+        <v>2</v>
+      </c>
+      <c r="F7" s="133"/>
+      <c r="G7" s="27">
+        <v>2</v>
+      </c>
+      <c r="H7" s="133"/>
+      <c r="I7" s="27">
+        <v>2</v>
+      </c>
+      <c r="J7" s="133"/>
+      <c r="K7" s="27">
+        <v>2</v>
+      </c>
+      <c r="L7" s="133"/>
+    </row>
+    <row r="8" spans="1:12" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="106"/>
+      <c r="B8" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="27">
+        <v>0.1</v>
+      </c>
+      <c r="D8" s="134"/>
+      <c r="E8" s="27">
+        <v>0.1</v>
+      </c>
+      <c r="F8" s="134"/>
+      <c r="G8" s="27">
+        <v>0.1</v>
+      </c>
+      <c r="H8" s="134"/>
+      <c r="I8" s="27">
+        <v>0.1</v>
+      </c>
+      <c r="J8" s="134"/>
+      <c r="K8" s="27">
+        <v>0.1</v>
+      </c>
+      <c r="L8" s="134"/>
+    </row>
+    <row r="9" spans="1:12" s="30" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="135" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="136"/>
+      <c r="C9" s="28">
+        <v>39.159999999999997</v>
+      </c>
+      <c r="D9" s="29">
+        <f>C9</f>
+        <v>39.159999999999997</v>
+      </c>
+      <c r="E9" s="28">
+        <v>39.159999999999997</v>
+      </c>
+      <c r="F9" s="29">
+        <f>E9</f>
+        <v>39.159999999999997</v>
+      </c>
+      <c r="G9" s="28">
+        <v>39.159999999999997</v>
+      </c>
+      <c r="H9" s="29">
+        <f>G9</f>
+        <v>39.159999999999997</v>
+      </c>
+      <c r="I9" s="28">
+        <v>39.159999999999997</v>
+      </c>
+      <c r="J9" s="29">
+        <f>I9</f>
+        <v>39.159999999999997</v>
+      </c>
+      <c r="K9" s="28">
+        <v>39.159999999999997</v>
+      </c>
+      <c r="L9" s="29">
+        <f>K9</f>
+        <v>39.159999999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" s="32" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="137" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="31">
+        <v>1</v>
+      </c>
+      <c r="D10" s="139">
+        <f>1+((0.7+C11)*C10)</f>
+        <v>3.9000000000000004</v>
+      </c>
+      <c r="E10" s="31">
+        <v>1</v>
+      </c>
+      <c r="F10" s="139">
+        <f>1+((0.7+E11)*E10)</f>
+        <v>3.9000000000000004</v>
+      </c>
+      <c r="G10" s="31">
+        <v>1</v>
+      </c>
+      <c r="H10" s="139">
+        <f>1+((0.7+G11)*G10)</f>
+        <v>3.9000000000000004</v>
+      </c>
+      <c r="I10" s="31">
+        <v>1</v>
+      </c>
+      <c r="J10" s="139">
+        <f>1+((0.7+I11)*I10)</f>
+        <v>3.9000000000000004</v>
+      </c>
+      <c r="K10" s="31">
+        <v>1</v>
+      </c>
+      <c r="L10" s="139">
+        <f>1+((0.7+K11)*K10)</f>
+        <v>3.9000000000000004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="32" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="138"/>
+      <c r="B11" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="33">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D11" s="140"/>
+      <c r="E11" s="33">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F11" s="140"/>
+      <c r="G11" s="33">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H11" s="140"/>
+      <c r="I11" s="33">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="J11" s="140"/>
+      <c r="K11" s="33">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="L11" s="140"/>
+    </row>
+    <row r="12" spans="1:12" s="35" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="122" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" s="47" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="34">
+        <v>0.4</v>
+      </c>
+      <c r="D12" s="125">
+        <f>(1+C12+C13)*(1+C14)*(1+C15)</f>
+        <v>2.1849999999999996</v>
+      </c>
+      <c r="E12" s="34">
+        <v>0.4</v>
+      </c>
+      <c r="F12" s="125">
+        <f>(1+E12+E13)*(1+E14)*(1+E15)</f>
+        <v>2.1849999999999996</v>
+      </c>
+      <c r="G12" s="34">
+        <v>1.3</v>
+      </c>
+      <c r="H12" s="125">
+        <f>(1+G12+G13)*(1+G14)*(1+G15)</f>
+        <v>2.6449999999999996</v>
+      </c>
+      <c r="I12" s="34">
+        <v>1.3</v>
+      </c>
+      <c r="J12" s="125">
+        <f>(1+I12+I13)*(1+I14)*(1+I15)</f>
+        <v>2.6449999999999996</v>
+      </c>
+      <c r="K12" s="34">
+        <v>1.3</v>
+      </c>
+      <c r="L12" s="125">
+        <f>(1+K12+K13)*(1+K14)*(1+K15)</f>
+        <v>2.6449999999999996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" s="35" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="123"/>
+      <c r="B13" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="34">
+        <v>0.5</v>
+      </c>
+      <c r="D13" s="126"/>
+      <c r="E13" s="34">
+        <v>0.5</v>
+      </c>
+      <c r="F13" s="126"/>
+      <c r="G13" s="34">
+        <v>0</v>
+      </c>
+      <c r="H13" s="126"/>
+      <c r="I13" s="34">
+        <v>0</v>
+      </c>
+      <c r="J13" s="126"/>
+      <c r="K13" s="34">
+        <v>0</v>
+      </c>
+      <c r="L13" s="126"/>
+    </row>
+    <row r="14" spans="1:12" s="35" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="123"/>
+      <c r="B14" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="50">
-        <v>0.35</v>
-      </c>
-      <c r="D5" s="79"/>
-      <c r="E5" s="29">
-        <v>0.2</v>
-      </c>
-      <c r="F5" s="79"/>
-    </row>
-    <row r="6" spans="1:6" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="76"/>
-      <c r="B6" s="61" t="s">
+      <c r="C14" s="34">
+        <v>0.15</v>
+      </c>
+      <c r="D14" s="126"/>
+      <c r="E14" s="34">
+        <v>0.15</v>
+      </c>
+      <c r="F14" s="126"/>
+      <c r="G14" s="34">
+        <v>0.15</v>
+      </c>
+      <c r="H14" s="126"/>
+      <c r="I14" s="34">
+        <v>0.15</v>
+      </c>
+      <c r="J14" s="126"/>
+      <c r="K14" s="34">
+        <v>0.15</v>
+      </c>
+      <c r="L14" s="126"/>
+    </row>
+    <row r="15" spans="1:12" s="35" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="124"/>
+      <c r="B15" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="C6" s="51">
-        <v>0</v>
-      </c>
-      <c r="D6" s="79"/>
-      <c r="E6" s="30">
-        <v>0</v>
-      </c>
-      <c r="F6" s="79"/>
-    </row>
-    <row r="7" spans="1:6" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="76"/>
-      <c r="B7" s="61" t="s">
-        <v>82</v>
-      </c>
-      <c r="C7" s="51">
-        <v>1.46</v>
-      </c>
-      <c r="D7" s="79"/>
-      <c r="E7" s="30">
-        <v>1.46</v>
-      </c>
-      <c r="F7" s="79"/>
-    </row>
-    <row r="8" spans="1:6" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="77"/>
-      <c r="B8" s="61" t="s">
-        <v>83</v>
-      </c>
-      <c r="C8" s="51">
-        <v>0.1</v>
-      </c>
-      <c r="D8" s="80"/>
-      <c r="E8" s="30">
-        <v>0.1</v>
-      </c>
-      <c r="F8" s="80"/>
-    </row>
-    <row r="9" spans="1:6" s="33" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="81" t="s">
-        <v>72</v>
-      </c>
-      <c r="B9" s="82"/>
-      <c r="C9" s="52">
-        <v>36</v>
-      </c>
-      <c r="D9" s="32">
-        <f>C9</f>
-        <v>36</v>
-      </c>
-      <c r="E9" s="31">
-        <v>36</v>
-      </c>
-      <c r="F9" s="32">
-        <f>E9</f>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" s="35" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="83" t="s">
-        <v>88</v>
-      </c>
-      <c r="B10" s="62" t="s">
-        <v>94</v>
-      </c>
-      <c r="C10" s="53">
-        <v>1</v>
-      </c>
-      <c r="D10" s="85">
-        <f>1+((0.7+C11)*C10)</f>
-        <v>2.15</v>
-      </c>
-      <c r="E10" s="34">
-        <v>1</v>
-      </c>
-      <c r="F10" s="85">
-        <f>1+((0.7+E11)*E10)</f>
-        <v>2.15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" s="35" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="84"/>
-      <c r="B11" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="C11" s="54">
-        <v>0.45</v>
-      </c>
-      <c r="D11" s="86"/>
-      <c r="E11" s="36">
-        <v>0.45</v>
-      </c>
-      <c r="F11" s="86"/>
-    </row>
-    <row r="12" spans="1:6" s="38" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="87" t="s">
-        <v>90</v>
-      </c>
-      <c r="B12" s="63" t="s">
-        <v>73</v>
-      </c>
-      <c r="C12" s="55">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="D12" s="90">
-        <f>(1+C12+C13)*(1+C14)*(1+C15)</f>
-        <v>2.415</v>
-      </c>
-      <c r="E12" s="37">
+      <c r="C15" s="34">
+        <v>0</v>
+      </c>
+      <c r="D15" s="127"/>
+      <c r="E15" s="34">
+        <v>0</v>
+      </c>
+      <c r="F15" s="127"/>
+      <c r="G15" s="34">
+        <v>0</v>
+      </c>
+      <c r="H15" s="127"/>
+      <c r="I15" s="34">
+        <v>0</v>
+      </c>
+      <c r="J15" s="127"/>
+      <c r="K15" s="34">
+        <v>0</v>
+      </c>
+      <c r="L15" s="127"/>
+    </row>
+    <row r="16" spans="1:12" s="37" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="128" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="36">
+        <v>0</v>
+      </c>
+      <c r="D16" s="130">
+        <f>(1+C16)*(1+C17)</f>
         <v>1.3</v>
       </c>
-      <c r="F12" s="90">
-        <f>(1+E12+E13)*(1+E14)*(1+E15)</f>
-        <v>2.6449999999999996</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" s="38" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="88"/>
-      <c r="B13" s="63" t="s">
-        <v>74</v>
-      </c>
-      <c r="C13" s="55">
-        <v>0</v>
-      </c>
-      <c r="D13" s="91"/>
-      <c r="E13" s="37">
-        <v>0</v>
-      </c>
-      <c r="F13" s="91"/>
-    </row>
-    <row r="14" spans="1:6" s="38" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="88"/>
-      <c r="B14" s="63" t="s">
-        <v>95</v>
-      </c>
-      <c r="C14" s="55">
-        <v>0.15</v>
-      </c>
-      <c r="D14" s="91"/>
-      <c r="E14" s="37">
-        <v>0.15</v>
-      </c>
-      <c r="F14" s="91"/>
-    </row>
-    <row r="15" spans="1:6" s="38" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="89"/>
-      <c r="B15" s="63" t="s">
-        <v>96</v>
-      </c>
-      <c r="C15" s="55">
-        <v>0</v>
-      </c>
-      <c r="D15" s="92"/>
-      <c r="E15" s="37">
-        <v>0</v>
-      </c>
-      <c r="F15" s="92"/>
-    </row>
-    <row r="16" spans="1:6" s="40" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="93" t="s">
-        <v>91</v>
-      </c>
-      <c r="B16" s="64" t="s">
-        <v>84</v>
-      </c>
-      <c r="C16" s="56">
-        <v>0</v>
-      </c>
-      <c r="D16" s="95">
-        <f>(1+C16)*(1+C17)</f>
-        <v>1.2</v>
-      </c>
-      <c r="E16" s="39">
-        <v>0</v>
-      </c>
-      <c r="F16" s="95">
+      <c r="E16" s="36">
+        <v>0</v>
+      </c>
+      <c r="F16" s="130">
         <f>(1+E16)*(1+E17)</f>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" s="40" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="94"/>
-      <c r="B17" s="64" t="s">
-        <v>75</v>
-      </c>
-      <c r="C17" s="56">
-        <v>0.2</v>
-      </c>
-      <c r="D17" s="96"/>
-      <c r="E17" s="39">
-        <v>0.2</v>
-      </c>
-      <c r="F17" s="96"/>
-    </row>
-    <row r="18" spans="1:6" s="42" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="97" t="s">
-        <v>92</v>
-      </c>
-      <c r="B18" s="65" t="s">
-        <v>93</v>
-      </c>
-      <c r="C18" s="57">
+        <v>1.3</v>
+      </c>
+      <c r="G16" s="36">
+        <v>0</v>
+      </c>
+      <c r="H16" s="130">
+        <f>(1+G16)*(1+G17)</f>
+        <v>1.3</v>
+      </c>
+      <c r="I16" s="36">
+        <v>0</v>
+      </c>
+      <c r="J16" s="130">
+        <f>(1+I16)*(1+I17)</f>
+        <v>1.3</v>
+      </c>
+      <c r="K16" s="36">
+        <v>0</v>
+      </c>
+      <c r="L16" s="130">
+        <f>(1+K16)*(1+K17)</f>
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" s="37" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="129"/>
+      <c r="B17" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="36">
+        <v>0.3</v>
+      </c>
+      <c r="D17" s="131"/>
+      <c r="E17" s="36">
+        <v>0.3</v>
+      </c>
+      <c r="F17" s="131"/>
+      <c r="G17" s="36">
+        <v>0.3</v>
+      </c>
+      <c r="H17" s="131"/>
+      <c r="I17" s="36">
+        <v>0.3</v>
+      </c>
+      <c r="J17" s="131"/>
+      <c r="K17" s="36">
+        <v>0.3</v>
+      </c>
+      <c r="L17" s="131"/>
+    </row>
+    <row r="18" spans="1:12" s="39" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="112" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="38">
         <v>1.5</v>
       </c>
-      <c r="D18" s="99">
+      <c r="D18" s="114">
         <f>C18+C19</f>
         <v>1.5</v>
       </c>
-      <c r="E18" s="41">
+      <c r="E18" s="38">
         <v>1.5</v>
       </c>
-      <c r="F18" s="99">
+      <c r="F18" s="114">
         <f>E18+E19</f>
         <v>1.5</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" s="42" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="98"/>
-      <c r="B19" s="65" t="s">
-        <v>85</v>
-      </c>
-      <c r="C19" s="58">
-        <v>0</v>
-      </c>
-      <c r="D19" s="100"/>
-      <c r="E19" s="43">
-        <v>0</v>
-      </c>
-      <c r="F19" s="100"/>
-    </row>
-    <row r="20" spans="1:6" s="45" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="101" t="s">
-        <v>98</v>
-      </c>
-      <c r="B20" s="66" t="s">
-        <v>97</v>
-      </c>
-      <c r="C20" s="59">
-        <v>0</v>
-      </c>
-      <c r="D20" s="104">
+      <c r="G18" s="38">
+        <v>1.5</v>
+      </c>
+      <c r="H18" s="114">
+        <f>G18+G19</f>
+        <v>1.5</v>
+      </c>
+      <c r="I18" s="38">
+        <v>1.5</v>
+      </c>
+      <c r="J18" s="114">
+        <f>I18+I19</f>
+        <v>1.5</v>
+      </c>
+      <c r="K18" s="38">
+        <v>1.5</v>
+      </c>
+      <c r="L18" s="114">
+        <f>K18+K19</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" s="39" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="113"/>
+      <c r="B19" s="49" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="40">
+        <v>0</v>
+      </c>
+      <c r="D19" s="115"/>
+      <c r="E19" s="40">
+        <v>0</v>
+      </c>
+      <c r="F19" s="115"/>
+      <c r="G19" s="40">
+        <v>0</v>
+      </c>
+      <c r="H19" s="115"/>
+      <c r="I19" s="40">
+        <v>0</v>
+      </c>
+      <c r="J19" s="115"/>
+      <c r="K19" s="40">
+        <v>0</v>
+      </c>
+      <c r="L19" s="115"/>
+    </row>
+    <row r="20" spans="1:12" s="42" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="116" t="s">
+        <v>73</v>
+      </c>
+      <c r="B20" s="50" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" s="41">
+        <v>0</v>
+      </c>
+      <c r="D20" s="119">
         <f>1+C20*(0.2+C21+C22)</f>
         <v>1</v>
       </c>
-      <c r="E20" s="44">
-        <v>0</v>
-      </c>
-      <c r="F20" s="104">
+      <c r="E20" s="41">
+        <v>0</v>
+      </c>
+      <c r="F20" s="119">
         <f>1+E20*(0.2+E21+E22)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" s="45" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="102"/>
-      <c r="B21" s="66" t="s">
-        <v>76</v>
-      </c>
-      <c r="C21" s="59">
+      <c r="G20" s="41">
+        <v>0</v>
+      </c>
+      <c r="H20" s="119">
+        <f>1+G20*(0.2+G21+G22)</f>
+        <v>1</v>
+      </c>
+      <c r="I20" s="41">
+        <v>0</v>
+      </c>
+      <c r="J20" s="119">
+        <f>1+I20*(0.2+I21+I22)</f>
+        <v>1</v>
+      </c>
+      <c r="K20" s="41">
+        <v>0</v>
+      </c>
+      <c r="L20" s="119">
+        <f>1+K20*(0.2+K21+K22)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" s="42" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="117"/>
+      <c r="B21" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="41">
         <v>0.5</v>
       </c>
-      <c r="D21" s="105"/>
-      <c r="E21" s="44">
+      <c r="D21" s="120"/>
+      <c r="E21" s="41">
         <v>0.5</v>
       </c>
-      <c r="F21" s="105"/>
-    </row>
-    <row r="22" spans="1:6" s="45" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="103"/>
-      <c r="B22" s="66" t="s">
-        <v>77</v>
-      </c>
-      <c r="C22" s="59">
-        <v>0</v>
-      </c>
-      <c r="D22" s="106"/>
-      <c r="E22" s="44">
-        <v>0</v>
-      </c>
-      <c r="F22" s="106"/>
-    </row>
-    <row r="23" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="73" t="s">
-        <v>99</v>
-      </c>
-      <c r="B23" s="74"/>
-      <c r="C23" s="48">
+      <c r="F21" s="120"/>
+      <c r="G21" s="41">
+        <v>0.5</v>
+      </c>
+      <c r="H21" s="120"/>
+      <c r="I21" s="41">
+        <v>0.5</v>
+      </c>
+      <c r="J21" s="120"/>
+      <c r="K21" s="41">
+        <v>0.5</v>
+      </c>
+      <c r="L21" s="120"/>
+    </row>
+    <row r="22" spans="1:12" s="42" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="118"/>
+      <c r="B22" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="41">
+        <v>0</v>
+      </c>
+      <c r="D22" s="121"/>
+      <c r="E22" s="41">
+        <v>0</v>
+      </c>
+      <c r="F22" s="121"/>
+      <c r="G22" s="41">
+        <v>0</v>
+      </c>
+      <c r="H22" s="121"/>
+      <c r="I22" s="41">
+        <v>0</v>
+      </c>
+      <c r="J22" s="121"/>
+      <c r="K22" s="41">
+        <v>0</v>
+      </c>
+      <c r="L22" s="121"/>
+    </row>
+    <row r="23" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="100" t="s">
+        <v>74</v>
+      </c>
+      <c r="B23" s="101"/>
+      <c r="C23" s="21">
         <v>1</v>
       </c>
-      <c r="D23" s="26">
+      <c r="D23" s="23">
         <f>C23</f>
         <v>1</v>
       </c>
-      <c r="E23" s="24">
+      <c r="E23" s="21">
         <v>1</v>
       </c>
-      <c r="F23" s="26">
+      <c r="F23" s="23">
         <f>E23</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" s="45" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="111" t="s">
-        <v>78</v>
-      </c>
-      <c r="B24" s="112"/>
-      <c r="C24" s="59">
+      <c r="G23" s="21">
+        <v>1</v>
+      </c>
+      <c r="H23" s="23">
+        <f>G23</f>
+        <v>1</v>
+      </c>
+      <c r="I23" s="21">
+        <v>1</v>
+      </c>
+      <c r="J23" s="23">
+        <f>I23</f>
+        <v>1</v>
+      </c>
+      <c r="K23" s="21">
+        <v>1</v>
+      </c>
+      <c r="L23" s="23">
+        <f>K23</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" s="42" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="102" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="103"/>
+      <c r="C24" s="41">
         <v>10</v>
       </c>
-      <c r="D24" s="46">
+      <c r="D24" s="43">
         <f>C24</f>
         <v>10</v>
       </c>
-      <c r="E24" s="44">
+      <c r="E24" s="41">
         <v>10</v>
       </c>
-      <c r="F24" s="46">
+      <c r="F24" s="43">
         <f>E24</f>
         <v>10</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="75" t="s">
-        <v>79</v>
-      </c>
-      <c r="B25" s="61" t="s">
-        <v>101</v>
-      </c>
-      <c r="C25" s="49">
-        <v>0</v>
-      </c>
-      <c r="D25" s="113">
+      <c r="G24" s="41">
+        <v>10</v>
+      </c>
+      <c r="H24" s="43">
+        <f>G24</f>
+        <v>10</v>
+      </c>
+      <c r="I24" s="41">
+        <v>10</v>
+      </c>
+      <c r="J24" s="43">
+        <f>I24</f>
+        <v>10</v>
+      </c>
+      <c r="K24" s="41">
+        <v>10</v>
+      </c>
+      <c r="L24" s="43">
+        <f>K24</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="104" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" s="45" t="s">
+        <v>76</v>
+      </c>
+      <c r="C25" s="24">
+        <v>0</v>
+      </c>
+      <c r="D25" s="107">
         <f>(1-(1-C26)*C25)*(1-C27)</f>
+        <v>0.7</v>
+      </c>
+      <c r="E25" s="24">
         <v>1</v>
       </c>
-      <c r="E25" s="27">
-        <v>0</v>
-      </c>
-      <c r="F25" s="113">
+      <c r="F25" s="107">
         <f>(1-(1-E26)*E25)*(1-E27)</f>
+        <v>0.42</v>
+      </c>
+      <c r="G25" s="24">
+        <v>0</v>
+      </c>
+      <c r="H25" s="107">
+        <f>(1-(1-G26)*G25)*(1-G27)</f>
+        <v>0.7</v>
+      </c>
+      <c r="I25" s="24">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="76"/>
-      <c r="B26" s="61" t="s">
-        <v>100</v>
-      </c>
-      <c r="C26" s="49">
+      <c r="J25" s="107">
+        <f>(1-(1-I26)*I25)*(1-I27)</f>
+        <v>0.42</v>
+      </c>
+      <c r="K25" s="24">
+        <v>1</v>
+      </c>
+      <c r="L25" s="107">
+        <f>(1-(1-K26)*K25)*(1-K27)</f>
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="105"/>
+      <c r="B26" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" s="24">
         <v>0.6</v>
       </c>
-      <c r="D26" s="114"/>
-      <c r="E26" s="27">
+      <c r="D26" s="108"/>
+      <c r="E26" s="24">
         <v>0.6</v>
       </c>
-      <c r="F26" s="114"/>
-    </row>
-    <row r="27" spans="1:6" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="77"/>
-      <c r="B27" s="61" t="s">
-        <v>40</v>
-      </c>
-      <c r="C27" s="51">
-        <v>0</v>
-      </c>
-      <c r="D27" s="115"/>
-      <c r="E27" s="30">
-        <v>0</v>
-      </c>
-      <c r="F27" s="115"/>
-    </row>
-    <row r="28" spans="1:6" s="42" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="116" t="s">
-        <v>102</v>
-      </c>
-      <c r="B28" s="117"/>
-      <c r="C28" s="57">
-        <v>0</v>
-      </c>
-      <c r="D28" s="47">
+      <c r="F26" s="108"/>
+      <c r="G26" s="24">
+        <v>0.6</v>
+      </c>
+      <c r="H26" s="108"/>
+      <c r="I26" s="24">
+        <v>0.6</v>
+      </c>
+      <c r="J26" s="108"/>
+      <c r="K26" s="24">
+        <v>0.6</v>
+      </c>
+      <c r="L26" s="108"/>
+    </row>
+    <row r="27" spans="1:12" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="106"/>
+      <c r="B27" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="27">
+        <v>0.3</v>
+      </c>
+      <c r="D27" s="109"/>
+      <c r="E27" s="27">
+        <v>0.3</v>
+      </c>
+      <c r="F27" s="109"/>
+      <c r="G27" s="27">
+        <v>0.3</v>
+      </c>
+      <c r="H27" s="109"/>
+      <c r="I27" s="27">
+        <v>0.3</v>
+      </c>
+      <c r="J27" s="109"/>
+      <c r="K27" s="27">
+        <v>0.3</v>
+      </c>
+      <c r="L27" s="109"/>
+    </row>
+    <row r="28" spans="1:12" s="39" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="110" t="s">
+        <v>77</v>
+      </c>
+      <c r="B28" s="111"/>
+      <c r="C28" s="38">
+        <v>0</v>
+      </c>
+      <c r="D28" s="44">
         <f>C28*0.5+1</f>
         <v>1</v>
       </c>
-      <c r="E28" s="41">
-        <v>0</v>
-      </c>
-      <c r="F28" s="47">
+      <c r="E28" s="38">
+        <v>0</v>
+      </c>
+      <c r="F28" s="44">
         <f>E28*0.5+1</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="107" t="s">
-        <v>80</v>
-      </c>
-      <c r="B29" s="108"/>
-      <c r="C29" s="109">
+      <c r="G28" s="38">
+        <v>0</v>
+      </c>
+      <c r="H28" s="44">
+        <f>G28*0.5+1</f>
+        <v>1</v>
+      </c>
+      <c r="I28" s="38">
+        <v>0</v>
+      </c>
+      <c r="J28" s="44">
+        <f>I28*0.5+1</f>
+        <v>1</v>
+      </c>
+      <c r="K28" s="38">
+        <v>0</v>
+      </c>
+      <c r="L28" s="44">
+        <f>K28*0.5+1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="96" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" s="97"/>
+      <c r="C29" s="98">
         <f>D2*D3*D4*D9*D10*D12*D16*D18*D20*D23/D24/D25*D28</f>
-        <v>912882.68628480006</v>
-      </c>
-      <c r="D29" s="110"/>
-      <c r="E29" s="109">
+        <v>4483405.9349569278</v>
+      </c>
+      <c r="D29" s="99"/>
+      <c r="E29" s="98">
         <f>F2*F3*F4*F9*F10*F12*F16*F18*F20*F23/F24/F25*F28</f>
-        <v>888806.21472719987</v>
-      </c>
-      <c r="F29" s="110"/>
+        <v>7472343.2249282124</v>
+      </c>
+      <c r="F29" s="99"/>
+      <c r="G29" s="98">
+        <f>H2*H3*H4*H9*H10*H12*H16*H18*H20*H23/H24/H25*H28</f>
+        <v>3420133.8898461433</v>
+      </c>
+      <c r="H29" s="99"/>
+      <c r="I29" s="98">
+        <f>J2*J3*J4*J9*J10*J12*J16*J18*J20*J23/J24/J25*J28</f>
+        <v>5700223.1497435719</v>
+      </c>
+      <c r="J29" s="99"/>
+      <c r="K29" s="98">
+        <f>L2*L3*L4*L9*L10*L12*L16*L18*L20*L23/L24/L25*L28</f>
+        <v>9045468.1143867858</v>
+      </c>
+      <c r="L29" s="99"/>
     </row>
   </sheetData>
-  <mergeCells count="33">
+  <mergeCells count="60">
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="J12:J15"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="J20:J22"/>
+    <mergeCell ref="J25:J27"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="L20:L22"/>
+    <mergeCell ref="L25:L27"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="H4:H8"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="H12:H15"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="H20:H22"/>
+    <mergeCell ref="H25:H27"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="J4:J8"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="L4:L8"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="L12:L15"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="D4:D8"/>
+    <mergeCell ref="F4:F8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="D12:D15"/>
+    <mergeCell ref="F12:F15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="F20:F22"/>
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="E29:F29"/>
@@ -3779,30 +4341,6 @@
     <mergeCell ref="D25:D27"/>
     <mergeCell ref="F25:F27"/>
     <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="F20:F22"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="D12:D15"/>
-    <mergeCell ref="F12:F15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="D4:D8"/>
-    <mergeCell ref="F4:F8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Brainstorm.xlsx
+++ b/Brainstorm.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Personal@HDD\Game\DL\dragalia-data-track\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Personal@SSD\Game\DL\dragalia-data-track\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BBE855B-FC06-427E-A1DB-2FA500CEBFBA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F51FCD06-345B-4330-9845-CF20BC739982}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6435" yWindow="255" windowWidth="18315" windowHeight="14880" xr2:uid="{4CFB4A6A-60C6-4091-BCA5-480044B61D33}"/>
+    <workbookView xWindow="2730" yWindow="1665" windowWidth="20385" windowHeight="14535" xr2:uid="{4CFB4A6A-60C6-4091-BCA5-480044B61D33}"/>
   </bookViews>
   <sheets>
     <sheet name="Rotation" sheetId="8" r:id="rId1"/>
@@ -91,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="146">
   <si>
     <t>睡抗</t>
   </si>
@@ -105,9 +105,6 @@
     <t>濕身Base</t>
   </si>
   <si>
-    <t>O</t>
-  </si>
-  <si>
     <t>機率</t>
   </si>
   <si>
@@ -426,107 +423,121 @@
     <t>C5</t>
   </si>
   <si>
-    <t>NPC</t>
-  </si>
-  <si>
-    <t>馬爾斯</t>
-  </si>
-  <si>
-    <t>守 自身</t>
-  </si>
-  <si>
     <t>守護 +ATK</t>
   </si>
   <si>
-    <t>巧克力</t>
-  </si>
-  <si>
-    <t>應援團</t>
-  </si>
-  <si>
-    <t>$</t>
-  </si>
-  <si>
-    <t>二姊</t>
-  </si>
-  <si>
     <t>守護 +CDMG</t>
   </si>
   <si>
     <t>兔龍</t>
   </si>
   <si>
-    <t>馬爾斯 (4)</t>
-  </si>
-  <si>
     <t>斧符</t>
   </si>
   <si>
-    <t>慕斧</t>
-  </si>
-  <si>
-    <t>特萊Z</t>
-  </si>
-  <si>
-    <t>守 全隊</t>
-  </si>
-  <si>
-    <t>守 單層%</t>
-  </si>
-  <si>
-    <t>額外 ATK%</t>
-  </si>
-  <si>
-    <t>(NPC)</t>
-  </si>
-  <si>
-    <t>NMSL</t>
-  </si>
-  <si>
-    <t>二姊 NMSL</t>
-  </si>
-  <si>
-    <t>二姊 菊花</t>
-  </si>
-  <si>
-    <t>二姊 NMSL BK</t>
-  </si>
-  <si>
-    <t>二姊 菊花 BK</t>
-  </si>
-  <si>
-    <t>水異常盾</t>
-  </si>
-  <si>
-    <t>背水 防禦</t>
-  </si>
-  <si>
-    <t>背水 治癒</t>
-  </si>
-  <si>
-    <t>1鏢</t>
-  </si>
-  <si>
     <t>BOSS</t>
   </si>
   <si>
-    <t>???</t>
-  </si>
-  <si>
-    <t>龍藥</t>
-  </si>
-  <si>
     <t>凍特</t>
   </si>
   <si>
-    <t>二姊 馬C</t>
+    <t>海盜</t>
+  </si>
+  <si>
+    <t>三葉 A</t>
+  </si>
+  <si>
+    <t>三葉 B</t>
+  </si>
+  <si>
+    <t>賽蓮</t>
+  </si>
+  <si>
+    <t>守護 +活力</t>
+  </si>
+  <si>
+    <t>爆傷</t>
+  </si>
+  <si>
+    <t>DEF+</t>
+  </si>
+  <si>
+    <t>弓克</t>
+  </si>
+  <si>
+    <t>短符</t>
+  </si>
+  <si>
+    <t>開場 +50%</t>
+  </si>
+  <si>
+    <t>啦啦隊</t>
+  </si>
+  <si>
+    <t>特萊茲</t>
+  </si>
+  <si>
+    <t>濕身</t>
+  </si>
+  <si>
+    <t>S3
+DEF</t>
+  </si>
+  <si>
+    <t>S4
+DEF</t>
+  </si>
+  <si>
+    <t>∑ DEF</t>
+  </si>
+  <si>
+    <t>洛克人</t>
+  </si>
+  <si>
+    <t>無形</t>
+  </si>
+  <si>
+    <t>BK 特</t>
+  </si>
+  <si>
+    <t>S3 &gt; S2 &gt; S1 &gt; S4 &gt; S1</t>
+  </si>
+  <si>
+    <t>切 &gt; S2 &gt; S3 &gt; S4 &gt; FS &gt; S3 &gt; S4 &gt; (等海盜弓克) &gt; S2</t>
+  </si>
+  <si>
+    <t>切 &gt; S2 &gt; S3 &gt; S4 &gt; FS &gt; S4 &gt; S2 &gt; S3</t>
+  </si>
+  <si>
+    <t>Actual</t>
+  </si>
+  <si>
+    <t>三葉 C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>轉P</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>Catherine</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -613,6 +624,12 @@
     </font>
     <font>
       <sz val="14"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1099,7 +1116,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="145">
+  <cellXfs count="144">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1332,26 +1349,14 @@
     <xf numFmtId="0" fontId="11" fillId="9" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="9" fontId="14" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="41" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1386,93 +1391,147 @@
     <xf numFmtId="0" fontId="3" fillId="43" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="23" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="23" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="23" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="28" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="28" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="21" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="21" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="35" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="35" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="3" fontId="7" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="7" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="35" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="35" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="4" fontId="5" fillId="30" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1482,55 +1541,10 @@
     <xf numFmtId="4" fontId="5" fillId="30" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="4" fontId="5" fillId="32" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="5" fillId="32" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="23" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="23" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="23" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="21" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="21" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="28" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="28" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1883,10 +1897,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B260D6A6-975E-4594-902D-33C279C7CA35}">
-  <dimension ref="A1:V13"/>
+  <dimension ref="A1:Y13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1903,112 +1917,118 @@
     <col min="23" max="16384" width="9.140625" style="53"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="91" t="s">
+    <row r="1" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="87" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="87" t="s">
+        <v>93</v>
+      </c>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="88"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="90" t="s">
+        <v>96</v>
+      </c>
+      <c r="P1" s="91"/>
+      <c r="Q1" s="81" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="91" t="s">
-        <v>94</v>
-      </c>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="92"/>
-      <c r="L1" s="92"/>
-      <c r="M1" s="92"/>
-      <c r="N1" s="93"/>
-      <c r="O1" s="94" t="s">
-        <v>97</v>
-      </c>
-      <c r="P1" s="95"/>
-      <c r="Q1" s="85" t="s">
-        <v>96</v>
-      </c>
-      <c r="R1" s="86"/>
-      <c r="S1" s="87" t="s">
+      <c r="R1" s="82"/>
+      <c r="S1" s="83" t="s">
+        <v>90</v>
+      </c>
+      <c r="T1" s="84"/>
+      <c r="U1" s="85" t="s">
         <v>91</v>
       </c>
-      <c r="T1" s="88"/>
-      <c r="U1" s="89" t="s">
-        <v>92</v>
-      </c>
-      <c r="V1" s="90"/>
-    </row>
-    <row r="2" spans="1:22" s="57" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V1" s="86"/>
+    </row>
+    <row r="2" spans="1:25" s="57" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="64" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" s="62" t="s">
+        <v>105</v>
+      </c>
+      <c r="C2" s="62" t="s">
         <v>106</v>
       </c>
-      <c r="C2" s="62" t="s">
+      <c r="D2" s="62" t="s">
         <v>107</v>
       </c>
-      <c r="D2" s="62" t="s">
+      <c r="E2" s="62" t="s">
         <v>108</v>
       </c>
-      <c r="E2" s="62" t="s">
+      <c r="F2" s="62" t="s">
         <v>109</v>
       </c>
-      <c r="F2" s="62" t="s">
-        <v>110</v>
-      </c>
       <c r="G2" s="63" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H2" s="64" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I2" s="62" t="s">
+        <v>105</v>
+      </c>
+      <c r="J2" s="62" t="s">
         <v>106</v>
       </c>
-      <c r="J2" s="62" t="s">
+      <c r="K2" s="62" t="s">
         <v>107</v>
       </c>
-      <c r="K2" s="62" t="s">
+      <c r="L2" s="62" t="s">
         <v>108</v>
       </c>
-      <c r="L2" s="62" t="s">
+      <c r="M2" s="62" t="s">
         <v>109</v>
       </c>
-      <c r="M2" s="62" t="s">
-        <v>110</v>
-      </c>
       <c r="N2" s="63" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O2" s="72" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P2" s="73">
         <v>0</v>
       </c>
       <c r="Q2" s="59" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="R2" s="66">
         <v>0.15</v>
       </c>
       <c r="S2" s="60" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="T2" s="12"/>
       <c r="U2" s="68" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="V2" s="69">
         <f>VLOOKUP(T3,$H$3:$M$13,6,FALSE)</f>
-        <v>2760.7999999999997</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2028</v>
+      </c>
+      <c r="X2" s="57" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y2" s="57" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B3" s="61">
         <v>150</v>
@@ -2029,61 +2049,72 @@
         <v>345</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I3" s="61">
         <f>B3 * (1+SUM($R:$R))</f>
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="J3" s="61">
         <f t="shared" ref="J3:J13" si="0">C3 * (1+SUM($R:$R))</f>
-        <v>420</v>
+        <v>390</v>
       </c>
       <c r="K3" s="61">
         <f t="shared" ref="K3:M10" si="1">D3 * (1+SUM($R:$R))</f>
-        <v>694.4</v>
+        <v>644.80000000000007</v>
       </c>
       <c r="L3" s="61">
         <f t="shared" si="1"/>
-        <v>1065.3999999999999</v>
+        <v>989.30000000000007</v>
       </c>
       <c r="M3" s="61">
         <f t="shared" si="1"/>
-        <v>1612.8</v>
+        <v>1497.6000000000001</v>
       </c>
       <c r="N3" s="58">
         <f t="shared" ref="N3:N13" si="2">G3 * (1+SUM($R:$R))</f>
-        <v>482.99999999999994</v>
+        <v>448.5</v>
       </c>
       <c r="O3" s="72" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P3" s="73">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="59" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R3" s="66">
         <v>0</v>
       </c>
       <c r="S3" s="60" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="T3" s="13" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="U3" s="68" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="V3" s="69">
         <f>MOD(T6, V2)</f>
-        <v>999.60000000000082</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1789</v>
+      </c>
+      <c r="W3" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="X3" s="57" t="b">
+        <f>AND(V3 &gt; 0, V3 &lt;= VLOOKUP($T$3,$H$3:$N$13,7,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="Y3" s="57" t="b">
+        <f>AND(V4 &gt; 0, V4 &lt;= VLOOKUP($T$3,$H$3:$N$13,7,FALSE))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B4" s="61">
         <v>130</v>
@@ -2104,61 +2135,72 @@
         <v>200</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I4" s="61">
         <f t="shared" ref="I4:I13" si="3">B4 * (1+SUM($R:$R))</f>
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="J4" s="61">
         <f t="shared" si="0"/>
-        <v>364</v>
+        <v>338</v>
       </c>
       <c r="K4" s="61">
         <f t="shared" si="1"/>
-        <v>672</v>
+        <v>624</v>
       </c>
       <c r="L4" s="61">
         <f t="shared" si="1"/>
-        <v>1176</v>
+        <v>1092</v>
       </c>
       <c r="M4" s="61">
         <f t="shared" si="1"/>
-        <v>2436</v>
+        <v>2262</v>
       </c>
       <c r="N4" s="58">
         <f t="shared" si="2"/>
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="O4" s="72" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P4" s="73">
         <v>0</v>
       </c>
       <c r="Q4" s="59" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="R4" s="66">
         <v>0.15</v>
       </c>
       <c r="S4" s="60" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="T4" s="13">
-        <v>14280</v>
+        <v>3817</v>
       </c>
       <c r="U4" s="68" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="V4" s="69">
         <f>MOD(T7, V2)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1680</v>
+      </c>
+      <c r="W4" s="57" t="s">
+        <v>105</v>
+      </c>
+      <c r="X4" s="57" t="b">
+        <f>AND(V3 &gt; VLOOKUP($T$3,$H$3:$M$13,1,FALSE),V3 &lt;= VLOOKUP($T$3,$H$3:$M$13,2,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="Y4" s="57" t="b">
+        <f>AND(V4 &gt; VLOOKUP($T$3,$H$3:$M$13,1,FALSE),V4 &lt;= VLOOKUP($T$3,$H$3:$M$13,2,FALSE))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B5" s="61">
         <v>144</v>
@@ -2179,61 +2221,72 @@
         <v>288</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I5" s="61">
         <f t="shared" si="3"/>
-        <v>201.6</v>
+        <v>187.20000000000002</v>
       </c>
       <c r="J5" s="61">
         <f t="shared" si="0"/>
-        <v>403.2</v>
+        <v>374.40000000000003</v>
       </c>
       <c r="K5" s="61">
         <f t="shared" si="1"/>
-        <v>772.8</v>
+        <v>717.6</v>
       </c>
       <c r="L5" s="61">
         <f t="shared" si="1"/>
-        <v>1176</v>
+        <v>1092</v>
       </c>
       <c r="M5" s="61">
         <f t="shared" si="1"/>
-        <v>1847.9999999999998</v>
+        <v>1716</v>
       </c>
       <c r="N5" s="58">
         <f t="shared" si="2"/>
-        <v>403.2</v>
+        <v>374.40000000000003</v>
       </c>
       <c r="O5" s="72" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="P5" s="73">
         <v>0</v>
       </c>
       <c r="Q5" s="59" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="R5" s="66">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="S5" s="60" t="s">
+        <v>99</v>
+      </c>
+      <c r="T5" s="13">
+        <v>5736</v>
+      </c>
+      <c r="U5" s="70" t="s">
         <v>100</v>
       </c>
-      <c r="T5" s="13">
-        <v>0</v>
-      </c>
-      <c r="U5" s="70" t="s">
-        <v>101</v>
-      </c>
       <c r="V5" s="71" t="str" cm="1">
-        <f t="array" ref="V5">ROUNDDOWN(T6/V2, 0) + IF(AND(V3 &gt; VLOOKUP(T3,H3:N13,5,0), V3 &lt; VLOOKUP(T3,H3:N13,6,0)), 1, 0) &amp; _xlfn.IFS(V3 &lt; VLOOKUP(T3,$H3:N13,7,FALSE), " + FS", VLOOKUP($T$3,H3:N13,2,0) &gt; V3, " + C1", VLOOKUP(T3,H3:N13,3,0) &gt; V3, " + C2", VLOOKUP(T3,H3:N13,4,0) &gt; V3, " + C3", VLOOKUP(T3,H3:N13,5,0) &gt; V3, " + C4",TRUE,"")</f>
-        <v>3 + C3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="array" ref="V5">(ROUNDDOWN(T6/V2, 0) + IF(X8,1,0)) &amp; _xlfn.IFS(X3, " + FS", X4, " + C1", X5, " + C2", X6, " + C3", X7, " + C4", TRUE, "")</f>
+        <v>2</v>
+      </c>
+      <c r="W5" s="57" t="s">
+        <v>106</v>
+      </c>
+      <c r="X5" s="57" t="b">
+        <f>AND(V3&gt;VLOOKUP($T$3,$H$3:$M$13,2,FALSE),V3&lt;=VLOOKUP($T$3,$H$3:$M$13,3,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="Y5" s="57" t="b">
+        <f>AND(V4&gt;=VLOOKUP($T$3,$H$3:$M$13,2,FALSE),V4&lt;VLOOKUP($T$3,$H$3:$M$13,3,FALSE))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B6" s="61">
         <v>200</v>
@@ -2254,50 +2307,61 @@
         <v>300</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I6" s="61">
         <f t="shared" si="3"/>
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="J6" s="61">
         <f t="shared" si="0"/>
-        <v>616</v>
+        <v>572</v>
       </c>
       <c r="K6" s="61">
         <f t="shared" si="1"/>
-        <v>1120</v>
+        <v>1040</v>
       </c>
       <c r="L6" s="61">
         <f t="shared" si="1"/>
-        <v>1652</v>
+        <v>1534</v>
       </c>
       <c r="M6" s="61">
         <f t="shared" si="1"/>
-        <v>2240</v>
+        <v>2080</v>
       </c>
       <c r="N6" s="58">
         <f t="shared" si="2"/>
-        <v>420</v>
+        <v>390</v>
       </c>
       <c r="S6" s="75" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="T6" s="76">
         <f>T4 * (1 - SUM(P:P))</f>
-        <v>9282</v>
+        <v>3817</v>
       </c>
       <c r="U6" s="77" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="V6" s="71" t="str" cm="1">
-        <f t="array" ref="V6">ROUNDDOWN(T7/V2, 0) + IF(AND(V4 &gt; VLOOKUP(T3,H3:N13,5,0), V4 &lt; VLOOKUP(T3,H3:N13,6,0)), 1, 0) &amp; _xlfn.IFS(V4 &lt; VLOOKUP(T3,$H3:N13,7,FALSE), " + FS", VLOOKUP($T$3,H3:N13,2,0) &gt; V4, " + C1", VLOOKUP(T3,H3:N13,3,0) &gt; V4, " + C2", VLOOKUP(T3,H3:N13,4,0) &gt; V4, " + C3", VLOOKUP(T3,H3:N13,5,0) &gt; V4, " + C4",TRUE,"")</f>
-        <v>0 + FS</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="array" ref="V6">(ROUNDDOWN(T7/V2, 0) + IF(Y8,1,0)) &amp; _xlfn.IFS(Y3, " + FS", Y4, " + C1", Y5, " + C2", Y6, " + C3", Y7, " + C4", TRUE, "")</f>
+        <v>3</v>
+      </c>
+      <c r="W6" s="57" t="s">
+        <v>107</v>
+      </c>
+      <c r="X6" s="57" t="b">
+        <f>AND(V3 &gt; VLOOKUP($T$3,$H$3:$M$13,3,FALSE),V3 &lt;= VLOOKUP($T$3,$H$3:$M$13,4,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="Y6" s="57" t="b">
+        <f>AND(V4 &gt; VLOOKUP($T$3,$H$3:$M$13,3,FALSE),V4 &lt;= VLOOKUP($T$3,$H$3:$M$13,4,FALSE))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B7" s="61">
         <v>120</v>
@@ -2318,43 +2382,54 @@
         <v>400</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I7" s="61">
         <f t="shared" si="3"/>
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="J7" s="61">
         <f t="shared" si="0"/>
-        <v>503.99999999999994</v>
+        <v>468</v>
       </c>
       <c r="K7" s="61">
         <f t="shared" si="1"/>
-        <v>672</v>
+        <v>624</v>
       </c>
       <c r="L7" s="61">
         <f t="shared" si="1"/>
-        <v>1344</v>
+        <v>1248</v>
       </c>
       <c r="M7" s="61">
         <f t="shared" si="1"/>
-        <v>2184</v>
+        <v>2028</v>
       </c>
       <c r="N7" s="58">
         <f t="shared" si="2"/>
-        <v>560</v>
+        <v>520</v>
       </c>
       <c r="S7" s="75" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="T7" s="76">
         <f>T5 * (1 - SUM(P:P))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>5736</v>
+      </c>
+      <c r="W7" s="57" t="s">
+        <v>108</v>
+      </c>
+      <c r="X7" s="57" t="b">
+        <f>AND(V3 &gt; VLOOKUP($T$3,$H$3:$M$13,4,FALSE),V3 &lt;= VLOOKUP($T$3,$H$3:$M$13,5,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="Y7" s="57" t="b">
+        <f>AND(V4 &gt; VLOOKUP($T$3,$H$3:$M$13,4,FALSE),V4 &lt;= VLOOKUP($T$3,$H$3:$M$13,5,FALSE))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B8" s="61">
         <v>184</v>
@@ -2375,36 +2450,47 @@
         <v>460</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I8" s="61">
         <f t="shared" si="3"/>
-        <v>257.59999999999997</v>
+        <v>239.20000000000002</v>
       </c>
       <c r="J8" s="61">
         <f t="shared" si="0"/>
-        <v>386.4</v>
+        <v>358.8</v>
       </c>
       <c r="K8" s="61">
         <f t="shared" si="1"/>
-        <v>772.8</v>
+        <v>717.6</v>
       </c>
       <c r="L8" s="61">
         <f t="shared" si="1"/>
-        <v>1352.3999999999999</v>
+        <v>1255.8</v>
       </c>
       <c r="M8" s="61">
         <f t="shared" si="1"/>
-        <v>2093</v>
+        <v>1943.5</v>
       </c>
       <c r="N8" s="58">
         <f t="shared" si="2"/>
-        <v>644</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>598</v>
+      </c>
+      <c r="W8" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="X8" s="57" t="b">
+        <f>V3&gt;VLOOKUP($T$3,$H$3:$M$13,5,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="Y8" s="57" t="b">
+        <f>V4&gt;VLOOKUP($T$3,$H$3:$M$13,5,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B9" s="61">
         <v>130</v>
@@ -2425,36 +2511,39 @@
         <v>400</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I9" s="61">
         <f t="shared" si="3"/>
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="J9" s="61">
         <f t="shared" si="0"/>
-        <v>461.99999999999994</v>
+        <v>429</v>
       </c>
       <c r="K9" s="61">
         <f t="shared" si="1"/>
-        <v>798</v>
+        <v>741</v>
       </c>
       <c r="L9" s="61">
         <f t="shared" si="1"/>
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="M9" s="61">
         <f t="shared" si="1"/>
-        <v>2240</v>
+        <v>2080</v>
       </c>
       <c r="N9" s="58">
         <f t="shared" si="2"/>
-        <v>560</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>520</v>
+      </c>
+      <c r="W9" s="57"/>
+      <c r="X9" s="57"/>
+      <c r="Y9" s="57"/>
+    </row>
+    <row r="10" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B10" s="61">
         <v>232</v>
@@ -2475,36 +2564,36 @@
         <v>580</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I10" s="61">
         <f t="shared" si="3"/>
-        <v>324.79999999999995</v>
+        <v>301.60000000000002</v>
       </c>
       <c r="J10" s="61">
         <f t="shared" si="0"/>
-        <v>649.59999999999991</v>
+        <v>603.20000000000005</v>
       </c>
       <c r="K10" s="61">
         <f t="shared" si="1"/>
-        <v>1136.8</v>
+        <v>1055.6000000000001</v>
       </c>
       <c r="L10" s="61">
         <f t="shared" si="1"/>
-        <v>1786.3999999999999</v>
+        <v>1658.8</v>
       </c>
       <c r="M10" s="61">
         <f t="shared" si="1"/>
-        <v>2760.7999999999997</v>
+        <v>2563.6</v>
       </c>
       <c r="N10" s="58">
         <f t="shared" si="2"/>
-        <v>812</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B11" s="61">
         <v>545</v>
@@ -2519,27 +2608,27 @@
         <v>400</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I11" s="61">
         <f t="shared" si="3"/>
-        <v>763</v>
+        <v>708.5</v>
       </c>
       <c r="J11" s="61">
         <f t="shared" si="0"/>
-        <v>1526</v>
+        <v>1417</v>
       </c>
       <c r="K11" s="61"/>
       <c r="L11" s="61"/>
       <c r="M11" s="61"/>
       <c r="N11" s="58">
         <f t="shared" si="2"/>
-        <v>560</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B12" s="61">
         <v>464</v>
@@ -2554,27 +2643,27 @@
         <v>400</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I12" s="61">
         <f t="shared" si="3"/>
-        <v>649.59999999999991</v>
+        <v>603.20000000000005</v>
       </c>
       <c r="J12" s="61">
         <f t="shared" si="0"/>
-        <v>1299.1999999999998</v>
+        <v>1206.4000000000001</v>
       </c>
       <c r="K12" s="61"/>
       <c r="L12" s="61"/>
       <c r="M12" s="61"/>
       <c r="N12" s="58">
         <f t="shared" si="2"/>
-        <v>560</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B13" s="61">
         <v>300</v>
@@ -2591,25 +2680,25 @@
         <v>400</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I13" s="61">
         <f t="shared" si="3"/>
-        <v>420</v>
+        <v>390</v>
       </c>
       <c r="J13" s="61">
         <f t="shared" si="0"/>
-        <v>1069.5999999999999</v>
+        <v>993.2</v>
       </c>
       <c r="K13" s="61">
         <f>D13 * (1+SUM($R:$R))</f>
-        <v>1719.1999999999998</v>
+        <v>1596.4</v>
       </c>
       <c r="L13" s="61"/>
       <c r="M13" s="61"/>
       <c r="N13" s="58">
         <f t="shared" si="2"/>
-        <v>560</v>
+        <v>520</v>
       </c>
     </row>
   </sheetData>
@@ -2622,6 +2711,7 @@
     <mergeCell ref="O1:P1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2629,8 +2719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98358B4D-3860-4186-AD24-D3864A865E87}">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30:D31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2652,16 +2742,16 @@
         <v>0.99</v>
       </c>
       <c r="D1" s="53" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E1" s="55" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F1" s="53" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J1" s="53" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2672,17 +2762,17 @@
         <v>0.99</v>
       </c>
       <c r="D2" s="53" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E2" s="55">
         <f>B4-B2</f>
         <v>0.81</v>
       </c>
       <c r="H2" s="53" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I2" s="53" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J2" s="56">
         <f>VLOOKUP(H2,$D:$E,2,FALSE)*VLOOKUP(I2,$D:$E,2,FALSE)</f>
@@ -2697,17 +2787,17 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="D3" s="53" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E3" s="55">
         <f>1-E2</f>
         <v>0.18999999999999995</v>
       </c>
       <c r="H3" s="53" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I3" s="53" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J3" s="56">
         <f>VLOOKUP(H3,$D:$E,2,FALSE)*VLOOKUP(I3,$D:$E,2,FALSE)</f>
@@ -2722,20 +2812,20 @@
         <v>1.8</v>
       </c>
       <c r="D4" s="53" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E4" s="55">
         <f>1-E5</f>
         <v>0.96389999999999998</v>
       </c>
       <c r="F4" s="53" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H4" s="53" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I4" s="53" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J4" s="56">
         <f>VLOOKUP(H4,$D:$E,2,FALSE)*VLOOKUP(I4,$D:$E,2,FALSE)</f>
@@ -2744,17 +2834,17 @@
     </row>
     <row r="5" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D5" s="53" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E5" s="55">
         <f>E3*E3</f>
         <v>3.6099999999999979E-2</v>
       </c>
       <c r="H5" s="53" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I5" s="53" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J5" s="56">
         <f>VLOOKUP(H5,$D:$E,2,FALSE)*VLOOKUP(I5,$D:$E,2,FALSE)</f>
@@ -2763,7 +2853,7 @@
     </row>
     <row r="6" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D6" s="53" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E6" s="55">
         <f>B3-B1</f>
@@ -2772,7 +2862,7 @@
     </row>
     <row r="7" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D7" s="53" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E7" s="55">
         <f>1-E6</f>
@@ -2781,19 +2871,19 @@
     </row>
     <row r="8" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D8" s="53" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E8" s="55">
         <f>1-E9</f>
         <v>0.2079000000000002</v>
       </c>
       <c r="F8" s="53" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D9" s="53" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E9" s="55">
         <f>E7*E7</f>
@@ -2802,7 +2892,7 @@
     </row>
     <row r="10" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D10" s="53" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E10" s="55">
         <f>E6*E6</f>
@@ -2817,36 +2907,44 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC6E1F14-9A03-4157-97E0-B9040F803B9F}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D6:E7"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="5" width="16.5703125" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="7" width="9.140625" style="1"/>
+    <col min="8" max="9" width="16.5703125" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" s="6">
         <v>624</v>
@@ -2854,274 +2952,398 @@
       <c r="C2" s="6">
         <v>624</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-    </row>
-    <row r="3" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D2" s="6">
+        <v>624</v>
+      </c>
+      <c r="E2" s="6">
+        <v>624</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="6">
+        <v>624</v>
+      </c>
+      <c r="I2" s="6">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="D3" s="8" t="s">
+      <c r="B4" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="D7" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="E3" s="8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="D4" s="11" t="s">
+      <c r="E7" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="E4" s="11" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="E6" s="11"/>
-    </row>
-    <row r="7" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-    </row>
-    <row r="8" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
+      <c r="I8" s="13" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-    </row>
-    <row r="9" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
+      <c r="B9" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" s="17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="D9" s="17" t="s">
+      <c r="B10" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" s="17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="E9" s="17"/>
-    </row>
-    <row r="10" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="E10" s="17"/>
-    </row>
-    <row r="11" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="16" t="s">
+      <c r="I11" s="17" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
         <v>26</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-    </row>
-    <row r="12" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
-        <v>27</v>
       </c>
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
       <c r="D12" s="15"/>
       <c r="E12" s="15"/>
-    </row>
-    <row r="13" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G12" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+    </row>
+    <row r="13" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B13" s="15"/>
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
       <c r="E13" s="15"/>
-    </row>
-    <row r="14" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G13" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+    </row>
+    <row r="14" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
       <c r="D14" s="15"/>
       <c r="E14" s="15"/>
-    </row>
-    <row r="15" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G14" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+    </row>
+    <row r="15" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>33</v>
-      </c>
       <c r="B16" s="4" t="s">
-        <v>38</v>
+        <v>123</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>38</v>
+        <v>123</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E16" s="4"/>
-    </row>
-    <row r="17" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="79" t="s">
-        <v>126</v>
-      </c>
-      <c r="B17" s="78">
-        <v>0.23</v>
-      </c>
-      <c r="C17" s="78">
-        <v>0.23</v>
-      </c>
-      <c r="D17" s="78">
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="79" t="s">
-        <v>125</v>
-      </c>
-      <c r="B18" s="2">
-        <v>2</v>
-      </c>
-      <c r="C18" s="2">
-        <v>2</v>
-      </c>
-      <c r="D18" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="79" t="s">
-        <v>113</v>
-      </c>
-      <c r="B19" s="2">
-        <v>0</v>
-      </c>
-      <c r="C19" s="2">
-        <v>0</v>
-      </c>
-      <c r="D19" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="80" t="s">
-        <v>127</v>
-      </c>
-      <c r="B20" s="78">
-        <v>0.15</v>
-      </c>
-      <c r="C20" s="78">
-        <v>0.15</v>
-      </c>
-      <c r="D20" s="78">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="81">
-        <f>SUM($B$18:$E$18) * B17 + SUM($B$20:$E$20)</f>
-        <v>1.98</v>
-      </c>
-      <c r="C21" s="81">
-        <f>SUM($B$18:$E$18) * C17 + SUM($B$20:$E$20)</f>
-        <v>1.98</v>
-      </c>
-      <c r="D21" s="81">
-        <f>SUM($B$18:$E$18) * D17 + SUM($B$20:$E$20)</f>
-        <v>1.98</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B18" s="93" t="s">
+        <v>135</v>
+      </c>
+      <c r="C18" s="93"/>
+      <c r="D18" s="93"/>
+      <c r="E18" s="94"/>
+    </row>
+    <row r="19" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B19" s="92" t="s">
+        <v>137</v>
+      </c>
+      <c r="C19" s="93"/>
+      <c r="D19" s="93"/>
+      <c r="E19" s="94"/>
+    </row>
+    <row r="20" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B20" s="92" t="s">
+        <v>136</v>
+      </c>
+      <c r="C20" s="93"/>
+      <c r="D20" s="93"/>
+      <c r="E20" s="94"/>
+    </row>
+    <row r="21" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E21" s="80"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B19:E19"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -3129,164 +3351,311 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93F18558-26E5-406D-8DCA-7A8488B0D961}">
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:X14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K14" sqref="A1:K14"/>
+      <selection activeCell="R16" sqref="R16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.42578125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="5" style="4" customWidth="1"/>
-    <col min="3" max="66" width="4.5703125" style="2" customWidth="1"/>
-    <col min="67" max="16384" width="9.140625" style="2"/>
+    <col min="2" max="4" width="5" style="4" customWidth="1"/>
+    <col min="5" max="68" width="4.5703125" style="2" customWidth="1"/>
+    <col min="69" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="18">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" s="6" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C1" s="79" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1" s="79" t="s">
+        <v>130</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" s="6" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="str">
         <f>Equips!B1</f>
-        <v>二姊</v>
+        <v>海盜</v>
       </c>
       <c r="B2" s="4"/>
-      <c r="G2" s="6" t="s">
+      <c r="C2" s="4" t="str">
+        <f>IF(Equips!B15="DEF+","O","X")</f>
+        <v>O</v>
+      </c>
+      <c r="D2" s="4" t="str">
+        <f>IF(Equips!B16="DEF+","O","X")</f>
+        <v>X</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="O2" s="78"/>
+      <c r="Q2" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="U2" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="W2" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="M2" s="82"/>
-    </row>
-    <row r="3" spans="1:13" s="6" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X2" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" s="6" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>34</v>
+      </c>
       <c r="B3" s="4"/>
-    </row>
-    <row r="4" spans="1:13" s="6" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+    </row>
+    <row r="4" spans="1:24" s="6" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>35</v>
+        <v>131</v>
       </c>
       <c r="B4" s="4"/>
-    </row>
-    <row r="5" spans="1:13" s="8" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+    </row>
+    <row r="5" spans="1:24" s="8" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="str">
         <f>Equips!C1</f>
-        <v>二姊</v>
+        <v>海盜</v>
       </c>
       <c r="B5" s="4"/>
+      <c r="C5" s="4" t="str">
+        <f>IF(Equips!C15="DEF+","O","X")</f>
+        <v>O</v>
+      </c>
+      <c r="D5" s="4" t="str">
+        <f>IF(Equips!C16="DEF+","O","X")</f>
+        <v>X</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>36</v>
+      </c>
       <c r="G5" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="K5" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="H5" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="I5" s="8" t="s">
+      <c r="L5" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="P5" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q5" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="J5" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="L5" s="83"/>
-    </row>
-    <row r="6" spans="1:13" s="8" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R5" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="S5" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="T5" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" s="8" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>34</v>
+      </c>
       <c r="B6" s="4"/>
-    </row>
-    <row r="7" spans="1:13" s="8" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+    </row>
+    <row r="7" spans="1:24" s="8" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>35</v>
+        <v>131</v>
       </c>
       <c r="B7" s="4"/>
-    </row>
-    <row r="8" spans="1:13" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+    </row>
+    <row r="8" spans="1:24" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="str">
         <f>Equips!D1</f>
-        <v>三葉</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="9" t="s">
+        <v>三葉 B</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4" t="str">
+        <f>IF(Equips!D15="DEF+","O","X")</f>
+        <v>X</v>
+      </c>
+      <c r="D8" s="4" t="str">
+        <f>IF(Equips!D16="DEF+","O","X")</f>
+        <v>X</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" s="9" t="s">
+      <c r="G8" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="N8" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="O8" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="P8" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q8" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="R8" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="S8" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="H8" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W8" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>34</v>
+      </c>
       <c r="B9" s="4"/>
-      <c r="F9" s="19"/>
-    </row>
-    <row r="10" spans="1:13" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="H9" s="19"/>
+    </row>
+    <row r="10" spans="1:24" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>35</v>
+        <v>131</v>
       </c>
       <c r="B10" s="4"/>
-      <c r="F10" s="19"/>
-    </row>
-    <row r="11" spans="1:13" s="15" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="H10" s="19"/>
+    </row>
+    <row r="11" spans="1:24" s="15" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="str">
         <f>Equips!E1</f>
-        <v>馬爾斯</v>
+        <v>三葉 C</v>
       </c>
       <c r="B11" s="4"/>
-      <c r="I11" s="84"/>
-    </row>
-    <row r="12" spans="1:13" s="15" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="4" t="str">
+        <f>IF(Equips!E15="DEF+","O","X")</f>
+        <v>O</v>
+      </c>
+      <c r="D11" s="4" t="str">
+        <f>IF(Equips!E16="DEF+","O","X")</f>
+        <v>O</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="I11" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="J11" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="N11" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="O11" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="S11" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="T11" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="U11" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="V11" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="W11" s="15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" s="15" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
-        <v>128</v>
+        <v>34</v>
       </c>
       <c r="B12" s="4"/>
-    </row>
-    <row r="13" spans="1:13" s="15" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+    </row>
+    <row r="13" spans="1:24" s="15" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
-        <v>35</v>
+        <v>131</v>
       </c>
       <c r="B13" s="4"/>
-    </row>
-    <row r="14" spans="1:13" s="4" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" spans="1:24" s="4" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="K14" s="4" t="s">
-        <v>139</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEFF6CA3-18A6-4987-88AD-5768B35D8A0C}">
-  <dimension ref="A1:L29"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K5" sqref="K5"/>
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3301,42 +3670,36 @@
     <col min="8" max="8" width="11.28515625" style="20" customWidth="1"/>
     <col min="9" max="9" width="9.140625" style="20"/>
     <col min="10" max="10" width="11.28515625" style="20" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="20"/>
-    <col min="12" max="12" width="11.28515625" style="20" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="20"/>
+    <col min="11" max="16384" width="9.140625" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="141" t="s">
-        <v>56</v>
-      </c>
-      <c r="B1" s="142"/>
-      <c r="C1" s="143" t="s">
-        <v>130</v>
-      </c>
-      <c r="D1" s="144"/>
-      <c r="E1" s="143" t="s">
-        <v>132</v>
-      </c>
-      <c r="F1" s="144"/>
-      <c r="G1" s="143" t="s">
-        <v>131</v>
-      </c>
-      <c r="H1" s="144"/>
-      <c r="I1" s="143" t="s">
-        <v>133</v>
-      </c>
-      <c r="J1" s="144"/>
-      <c r="K1" s="143" t="s">
-        <v>142</v>
-      </c>
-      <c r="L1" s="144"/>
-    </row>
-    <row r="2" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="100" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2" s="101"/>
+    <row r="1" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="100" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="101"/>
+      <c r="C1" s="104" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1" s="105"/>
+      <c r="E1" s="104" t="s">
+        <v>145</v>
+      </c>
+      <c r="F1" s="105"/>
+      <c r="G1" s="104" t="s">
+        <v>145</v>
+      </c>
+      <c r="H1" s="105"/>
+      <c r="I1" s="104" t="s">
+        <v>145</v>
+      </c>
+      <c r="J1" s="105"/>
+    </row>
+    <row r="2" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="102" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="103"/>
       <c r="C2" s="21">
         <f>5/3</f>
         <v>1.6666666666666667</v>
@@ -3369,20 +3732,12 @@
         <f>I2</f>
         <v>1.6666666666666667</v>
       </c>
-      <c r="K2" s="21">
-        <f>5/3</f>
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="L2" s="22">
-        <f>K2</f>
-        <v>1.6666666666666667</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="100" t="s">
-        <v>62</v>
-      </c>
-      <c r="B3" s="101"/>
+    </row>
+    <row r="3" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="102" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="103"/>
       <c r="C3" s="21">
         <v>0</v>
       </c>
@@ -3411,630 +3766,527 @@
         <f>1-I3</f>
         <v>1</v>
       </c>
-      <c r="K3" s="21">
-        <v>0</v>
-      </c>
-      <c r="L3" s="22">
-        <f>1-K3</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="104" t="s">
-        <v>61</v>
+    </row>
+    <row r="4" spans="1:10" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="116" t="s">
+        <v>60</v>
       </c>
       <c r="B4" s="45" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C4" s="24">
-        <v>8769</v>
-      </c>
-      <c r="D4" s="132">
+        <v>1003</v>
+      </c>
+      <c r="D4" s="95">
         <f>(C4/(1+C5)*(1+C5+C6)*(1+C7)*(1+C8))</f>
-        <v>28937.7</v>
+        <v>1003</v>
       </c>
       <c r="E4" s="24">
-        <v>8769</v>
-      </c>
-      <c r="F4" s="132">
+        <v>1003</v>
+      </c>
+      <c r="F4" s="95">
         <f>(E4/(1+E5)*(1+E5+E6)*(1+E7)*(1+E8))</f>
-        <v>28937.7</v>
+        <v>1133.3899999999999</v>
       </c>
       <c r="G4" s="24">
-        <v>5526</v>
-      </c>
-      <c r="H4" s="132">
+        <v>1003</v>
+      </c>
+      <c r="H4" s="95">
         <f>(G4/(1+G5)*(1+G5+G6)*(1+G7)*(1+G8))</f>
-        <v>18235.800000000003</v>
+        <v>1003</v>
       </c>
       <c r="I4" s="24">
-        <v>5526</v>
-      </c>
-      <c r="J4" s="132">
+        <v>1003</v>
+      </c>
+      <c r="J4" s="95">
         <f>(I4/(1+I5)*(1+I5+I6)*(1+I7)*(1+I8))</f>
-        <v>18235.800000000003</v>
-      </c>
-      <c r="K4" s="24">
-        <v>8769</v>
-      </c>
-      <c r="L4" s="132">
-        <f>(K4/(1+K5)*(1+K5+K6)*(1+K7)*(1+K8))</f>
-        <v>28937.7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="105"/>
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="117"/>
       <c r="B5" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="26">
+        <v>0</v>
+      </c>
+      <c r="D5" s="96"/>
+      <c r="E5" s="26">
+        <v>0</v>
+      </c>
+      <c r="F5" s="96"/>
+      <c r="G5" s="26">
+        <v>0</v>
+      </c>
+      <c r="H5" s="96"/>
+      <c r="I5" s="26">
+        <v>0</v>
+      </c>
+      <c r="J5" s="96"/>
+    </row>
+    <row r="6" spans="1:10" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="117"/>
+      <c r="B6" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="26">
-        <v>0.9</v>
-      </c>
-      <c r="D5" s="133"/>
-      <c r="E5" s="26">
-        <v>0.9</v>
-      </c>
-      <c r="F5" s="133"/>
-      <c r="G5" s="26">
-        <v>0.2</v>
-      </c>
-      <c r="H5" s="133"/>
-      <c r="I5" s="26">
-        <v>0.2</v>
-      </c>
-      <c r="J5" s="133"/>
-      <c r="K5" s="26">
-        <v>0.2</v>
-      </c>
-      <c r="L5" s="133"/>
-    </row>
-    <row r="6" spans="1:12" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="105"/>
-      <c r="B6" s="45" t="s">
+      <c r="C6" s="27">
+        <v>0</v>
+      </c>
+      <c r="D6" s="96"/>
+      <c r="E6" s="27">
+        <v>0.13</v>
+      </c>
+      <c r="F6" s="96"/>
+      <c r="G6" s="27">
+        <v>0</v>
+      </c>
+      <c r="H6" s="96"/>
+      <c r="I6" s="27">
+        <v>0</v>
+      </c>
+      <c r="J6" s="96"/>
+    </row>
+    <row r="7" spans="1:10" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="117"/>
+      <c r="B7" s="45" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="27">
+        <v>0</v>
+      </c>
+      <c r="D7" s="96"/>
+      <c r="E7" s="27">
+        <v>0</v>
+      </c>
+      <c r="F7" s="96"/>
+      <c r="G7" s="27">
+        <v>0</v>
+      </c>
+      <c r="H7" s="96"/>
+      <c r="I7" s="27">
+        <v>0</v>
+      </c>
+      <c r="J7" s="96"/>
+    </row>
+    <row r="8" spans="1:10" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="118"/>
+      <c r="B8" s="45" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="27">
+        <v>0</v>
+      </c>
+      <c r="D8" s="97"/>
+      <c r="E8" s="27">
+        <v>0</v>
+      </c>
+      <c r="F8" s="97"/>
+      <c r="G8" s="27">
+        <v>0</v>
+      </c>
+      <c r="H8" s="97"/>
+      <c r="I8" s="27">
+        <v>0</v>
+      </c>
+      <c r="J8" s="97"/>
+    </row>
+    <row r="9" spans="1:10" s="30" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="119" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="27">
-        <v>0</v>
-      </c>
-      <c r="D6" s="133"/>
-      <c r="E6" s="27">
-        <v>0</v>
-      </c>
-      <c r="F6" s="133"/>
-      <c r="G6" s="27">
-        <v>0</v>
-      </c>
-      <c r="H6" s="133"/>
-      <c r="I6" s="27">
-        <v>0</v>
-      </c>
-      <c r="J6" s="133"/>
-      <c r="K6" s="27">
-        <v>0</v>
-      </c>
-      <c r="L6" s="133"/>
-    </row>
-    <row r="7" spans="1:12" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="105"/>
-      <c r="B7" s="45" t="s">
-        <v>57</v>
-      </c>
-      <c r="C7" s="27">
-        <v>2</v>
-      </c>
-      <c r="D7" s="133"/>
-      <c r="E7" s="27">
-        <v>2</v>
-      </c>
-      <c r="F7" s="133"/>
-      <c r="G7" s="27">
-        <v>2</v>
-      </c>
-      <c r="H7" s="133"/>
-      <c r="I7" s="27">
-        <v>2</v>
-      </c>
-      <c r="J7" s="133"/>
-      <c r="K7" s="27">
-        <v>2</v>
-      </c>
-      <c r="L7" s="133"/>
-    </row>
-    <row r="8" spans="1:12" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="106"/>
-      <c r="B8" s="45" t="s">
-        <v>58</v>
-      </c>
-      <c r="C8" s="27">
-        <v>0.1</v>
-      </c>
-      <c r="D8" s="134"/>
-      <c r="E8" s="27">
-        <v>0.1</v>
-      </c>
-      <c r="F8" s="134"/>
-      <c r="G8" s="27">
-        <v>0.1</v>
-      </c>
-      <c r="H8" s="134"/>
-      <c r="I8" s="27">
-        <v>0.1</v>
-      </c>
-      <c r="J8" s="134"/>
-      <c r="K8" s="27">
-        <v>0.1</v>
-      </c>
-      <c r="L8" s="134"/>
-    </row>
-    <row r="9" spans="1:12" s="30" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="135" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" s="136"/>
+      <c r="B9" s="120"/>
       <c r="C9" s="28">
-        <v>39.159999999999997</v>
+        <v>40.479999999999997</v>
       </c>
       <c r="D9" s="29">
         <f>C9</f>
-        <v>39.159999999999997</v>
+        <v>40.479999999999997</v>
       </c>
       <c r="E9" s="28">
-        <v>39.159999999999997</v>
+        <v>0.54</v>
       </c>
       <c r="F9" s="29">
         <f>E9</f>
-        <v>39.159999999999997</v>
+        <v>0.54</v>
       </c>
       <c r="G9" s="28">
-        <v>39.159999999999997</v>
+        <v>0.54</v>
       </c>
       <c r="H9" s="29">
         <f>G9</f>
-        <v>39.159999999999997</v>
+        <v>0.54</v>
       </c>
       <c r="I9" s="28">
-        <v>39.159999999999997</v>
+        <f>0.54*46</f>
+        <v>24.840000000000003</v>
       </c>
       <c r="J9" s="29">
         <f>I9</f>
-        <v>39.159999999999997</v>
-      </c>
-      <c r="K9" s="28">
-        <v>39.159999999999997</v>
-      </c>
-      <c r="L9" s="29">
-        <f>K9</f>
-        <v>39.159999999999997</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" s="32" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="137" t="s">
-        <v>63</v>
+        <v>24.840000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" s="32" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="121" t="s">
+        <v>62</v>
       </c>
       <c r="B10" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="31">
+        <v>0</v>
+      </c>
+      <c r="D10" s="98">
+        <f>1+((0.7+C11)*C10)</f>
+        <v>1</v>
+      </c>
+      <c r="E10" s="31">
+        <v>0</v>
+      </c>
+      <c r="F10" s="98">
+        <f>1+((0.7+E11)*E10)</f>
+        <v>1</v>
+      </c>
+      <c r="G10" s="31">
+        <v>0</v>
+      </c>
+      <c r="H10" s="98">
+        <f>1+((0.7+G11)*G10)</f>
+        <v>1</v>
+      </c>
+      <c r="I10" s="31">
+        <v>0</v>
+      </c>
+      <c r="J10" s="98">
+        <f>1+((0.7+I11)*I10)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="32" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="122"/>
+      <c r="B11" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="33">
+        <v>0</v>
+      </c>
+      <c r="D11" s="99"/>
+      <c r="E11" s="33">
+        <v>0</v>
+      </c>
+      <c r="F11" s="99"/>
+      <c r="G11" s="33">
+        <v>0</v>
+      </c>
+      <c r="H11" s="99"/>
+      <c r="I11" s="33">
+        <v>0</v>
+      </c>
+      <c r="J11" s="99"/>
+    </row>
+    <row r="12" spans="1:10" s="35" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="111" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" s="47" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="34">
+        <v>0.3</v>
+      </c>
+      <c r="D12" s="139">
+        <f>(1+C12+C13)*(1+C14)*(1+C15)</f>
+        <v>1.3</v>
+      </c>
+      <c r="E12" s="34">
+        <v>0.3</v>
+      </c>
+      <c r="F12" s="139">
+        <f>(1+E12+E13)*(1+E14)*(1+E15)</f>
+        <v>1.3</v>
+      </c>
+      <c r="G12" s="34">
+        <v>0.3</v>
+      </c>
+      <c r="H12" s="139">
+        <f>(1+G12+G13)*(1+G14)*(1+G15)</f>
+        <v>1.3</v>
+      </c>
+      <c r="I12" s="34">
+        <v>0.3</v>
+      </c>
+      <c r="J12" s="139">
+        <f>(1+I12+I13)*(1+I14)*(1+I15)</f>
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="35" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="112"/>
+      <c r="B13" s="47" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="34">
+        <v>0</v>
+      </c>
+      <c r="D13" s="140"/>
+      <c r="E13" s="34">
+        <v>0</v>
+      </c>
+      <c r="F13" s="140"/>
+      <c r="G13" s="34">
+        <v>0</v>
+      </c>
+      <c r="H13" s="140"/>
+      <c r="I13" s="34">
+        <v>0</v>
+      </c>
+      <c r="J13" s="140"/>
+    </row>
+    <row r="14" spans="1:10" s="35" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="112"/>
+      <c r="B14" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="C10" s="31">
+      <c r="C14" s="34">
+        <v>0</v>
+      </c>
+      <c r="D14" s="140"/>
+      <c r="E14" s="34">
+        <v>0</v>
+      </c>
+      <c r="F14" s="140"/>
+      <c r="G14" s="34">
+        <v>0</v>
+      </c>
+      <c r="H14" s="140"/>
+      <c r="I14" s="34">
+        <v>0</v>
+      </c>
+      <c r="J14" s="140"/>
+    </row>
+    <row r="15" spans="1:10" s="35" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="113"/>
+      <c r="B15" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" s="34">
+        <v>0</v>
+      </c>
+      <c r="D15" s="141"/>
+      <c r="E15" s="34">
+        <v>0</v>
+      </c>
+      <c r="F15" s="141"/>
+      <c r="G15" s="34">
+        <v>0</v>
+      </c>
+      <c r="H15" s="141"/>
+      <c r="I15" s="34">
+        <v>0</v>
+      </c>
+      <c r="J15" s="141"/>
+    </row>
+    <row r="16" spans="1:10" s="37" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="114" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" s="48" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="36">
+        <v>0</v>
+      </c>
+      <c r="D16" s="142">
+        <f>(1+C16)*(1+C17)</f>
         <v>1</v>
       </c>
-      <c r="D10" s="139">
-        <f>1+((0.7+C11)*C10)</f>
-        <v>3.9000000000000004</v>
-      </c>
-      <c r="E10" s="31">
+      <c r="E16" s="36">
+        <v>0</v>
+      </c>
+      <c r="F16" s="142">
+        <f>(1+E16)*(1+E17)</f>
         <v>1</v>
       </c>
-      <c r="F10" s="139">
-        <f>1+((0.7+E11)*E10)</f>
-        <v>3.9000000000000004</v>
-      </c>
-      <c r="G10" s="31">
+      <c r="G16" s="36">
+        <v>0</v>
+      </c>
+      <c r="H16" s="142">
+        <f>(1+G16)*(1+G17)</f>
         <v>1</v>
       </c>
-      <c r="H10" s="139">
-        <f>1+((0.7+G11)*G10)</f>
-        <v>3.9000000000000004</v>
-      </c>
-      <c r="I10" s="31">
+      <c r="I16" s="36">
+        <v>0</v>
+      </c>
+      <c r="J16" s="142">
+        <f>(1+I16)*(1+I17)</f>
         <v>1</v>
       </c>
-      <c r="J10" s="139">
-        <f>1+((0.7+I11)*I10)</f>
-        <v>3.9000000000000004</v>
-      </c>
-      <c r="K10" s="31">
-        <v>1</v>
-      </c>
-      <c r="L10" s="139">
-        <f>1+((0.7+K11)*K10)</f>
-        <v>3.9000000000000004</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" s="32" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="138"/>
-      <c r="B11" s="46" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="33">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="D11" s="140"/>
-      <c r="E11" s="33">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="F11" s="140"/>
-      <c r="G11" s="33">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="H11" s="140"/>
-      <c r="I11" s="33">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="J11" s="140"/>
-      <c r="K11" s="33">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="L11" s="140"/>
-    </row>
-    <row r="12" spans="1:12" s="35" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="122" t="s">
-        <v>65</v>
-      </c>
-      <c r="B12" s="47" t="s">
-        <v>48</v>
-      </c>
-      <c r="C12" s="34">
-        <v>0.4</v>
-      </c>
-      <c r="D12" s="125">
-        <f>(1+C12+C13)*(1+C14)*(1+C15)</f>
-        <v>2.1849999999999996</v>
-      </c>
-      <c r="E12" s="34">
-        <v>0.4</v>
-      </c>
-      <c r="F12" s="125">
-        <f>(1+E12+E13)*(1+E14)*(1+E15)</f>
-        <v>2.1849999999999996</v>
-      </c>
-      <c r="G12" s="34">
-        <v>1.3</v>
-      </c>
-      <c r="H12" s="125">
-        <f>(1+G12+G13)*(1+G14)*(1+G15)</f>
-        <v>2.6449999999999996</v>
-      </c>
-      <c r="I12" s="34">
-        <v>1.3</v>
-      </c>
-      <c r="J12" s="125">
-        <f>(1+I12+I13)*(1+I14)*(1+I15)</f>
-        <v>2.6449999999999996</v>
-      </c>
-      <c r="K12" s="34">
-        <v>1.3</v>
-      </c>
-      <c r="L12" s="125">
-        <f>(1+K12+K13)*(1+K14)*(1+K15)</f>
-        <v>2.6449999999999996</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" s="35" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="123"/>
-      <c r="B13" s="47" t="s">
+    </row>
+    <row r="17" spans="1:10" s="37" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="115"/>
+      <c r="B17" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="34">
-        <v>0.5</v>
-      </c>
-      <c r="D13" s="126"/>
-      <c r="E13" s="34">
-        <v>0.5</v>
-      </c>
-      <c r="F13" s="126"/>
-      <c r="G13" s="34">
-        <v>0</v>
-      </c>
-      <c r="H13" s="126"/>
-      <c r="I13" s="34">
-        <v>0</v>
-      </c>
-      <c r="J13" s="126"/>
-      <c r="K13" s="34">
-        <v>0</v>
-      </c>
-      <c r="L13" s="126"/>
-    </row>
-    <row r="14" spans="1:12" s="35" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="123"/>
-      <c r="B14" s="47" t="s">
-        <v>70</v>
-      </c>
-      <c r="C14" s="34">
-        <v>0.15</v>
-      </c>
-      <c r="D14" s="126"/>
-      <c r="E14" s="34">
-        <v>0.15</v>
-      </c>
-      <c r="F14" s="126"/>
-      <c r="G14" s="34">
-        <v>0.15</v>
-      </c>
-      <c r="H14" s="126"/>
-      <c r="I14" s="34">
-        <v>0.15</v>
-      </c>
-      <c r="J14" s="126"/>
-      <c r="K14" s="34">
-        <v>0.15</v>
-      </c>
-      <c r="L14" s="126"/>
-    </row>
-    <row r="15" spans="1:12" s="35" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="124"/>
-      <c r="B15" s="47" t="s">
-        <v>71</v>
-      </c>
-      <c r="C15" s="34">
-        <v>0</v>
-      </c>
-      <c r="D15" s="127"/>
-      <c r="E15" s="34">
-        <v>0</v>
-      </c>
-      <c r="F15" s="127"/>
-      <c r="G15" s="34">
-        <v>0</v>
-      </c>
-      <c r="H15" s="127"/>
-      <c r="I15" s="34">
-        <v>0</v>
-      </c>
-      <c r="J15" s="127"/>
-      <c r="K15" s="34">
-        <v>0</v>
-      </c>
-      <c r="L15" s="127"/>
-    </row>
-    <row r="16" spans="1:12" s="37" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="128" t="s">
+      <c r="C17" s="36">
+        <v>0</v>
+      </c>
+      <c r="D17" s="143"/>
+      <c r="E17" s="36">
+        <v>0</v>
+      </c>
+      <c r="F17" s="143"/>
+      <c r="G17" s="36">
+        <v>0</v>
+      </c>
+      <c r="H17" s="143"/>
+      <c r="I17" s="36">
+        <v>0</v>
+      </c>
+      <c r="J17" s="143"/>
+    </row>
+    <row r="18" spans="1:10" s="39" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="106" t="s">
         <v>66</v>
       </c>
-      <c r="B16" s="48" t="s">
-        <v>59</v>
-      </c>
-      <c r="C16" s="36">
-        <v>0</v>
-      </c>
-      <c r="D16" s="130">
-        <f>(1+C16)*(1+C17)</f>
-        <v>1.3</v>
-      </c>
-      <c r="E16" s="36">
-        <v>0</v>
-      </c>
-      <c r="F16" s="130">
-        <f>(1+E16)*(1+E17)</f>
-        <v>1.3</v>
-      </c>
-      <c r="G16" s="36">
-        <v>0</v>
-      </c>
-      <c r="H16" s="130">
-        <f>(1+G16)*(1+G17)</f>
-        <v>1.3</v>
-      </c>
-      <c r="I16" s="36">
-        <v>0</v>
-      </c>
-      <c r="J16" s="130">
-        <f>(1+I16)*(1+I17)</f>
-        <v>1.3</v>
-      </c>
-      <c r="K16" s="36">
-        <v>0</v>
-      </c>
-      <c r="L16" s="130">
-        <f>(1+K16)*(1+K17)</f>
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" s="37" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="129"/>
-      <c r="B17" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="C17" s="36">
-        <v>0.3</v>
-      </c>
-      <c r="D17" s="131"/>
-      <c r="E17" s="36">
-        <v>0.3</v>
-      </c>
-      <c r="F17" s="131"/>
-      <c r="G17" s="36">
-        <v>0.3</v>
-      </c>
-      <c r="H17" s="131"/>
-      <c r="I17" s="36">
-        <v>0.3</v>
-      </c>
-      <c r="J17" s="131"/>
-      <c r="K17" s="36">
-        <v>0.3</v>
-      </c>
-      <c r="L17" s="131"/>
-    </row>
-    <row r="18" spans="1:12" s="39" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="112" t="s">
+      <c r="B18" s="49" t="s">
         <v>67</v>
-      </c>
-      <c r="B18" s="49" t="s">
-        <v>68</v>
       </c>
       <c r="C18" s="38">
         <v>1.5</v>
       </c>
-      <c r="D18" s="114">
+      <c r="D18" s="129">
         <f>C18+C19</f>
         <v>1.5</v>
       </c>
       <c r="E18" s="38">
         <v>1.5</v>
       </c>
-      <c r="F18" s="114">
+      <c r="F18" s="129">
         <f>E18+E19</f>
         <v>1.5</v>
       </c>
       <c r="G18" s="38">
         <v>1.5</v>
       </c>
-      <c r="H18" s="114">
+      <c r="H18" s="129">
         <f>G18+G19</f>
         <v>1.5</v>
       </c>
       <c r="I18" s="38">
         <v>1.5</v>
       </c>
-      <c r="J18" s="114">
+      <c r="J18" s="129">
         <f>I18+I19</f>
         <v>1.5</v>
       </c>
-      <c r="K18" s="38">
-        <v>1.5</v>
-      </c>
-      <c r="L18" s="114">
-        <f>K18+K19</f>
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" s="39" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="113"/>
+    </row>
+    <row r="19" spans="1:10" s="39" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="107"/>
       <c r="B19" s="49" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C19" s="40">
         <v>0</v>
       </c>
-      <c r="D19" s="115"/>
+      <c r="D19" s="130"/>
       <c r="E19" s="40">
         <v>0</v>
       </c>
-      <c r="F19" s="115"/>
+      <c r="F19" s="130"/>
       <c r="G19" s="40">
         <v>0</v>
       </c>
-      <c r="H19" s="115"/>
+      <c r="H19" s="130"/>
       <c r="I19" s="40">
         <v>0</v>
       </c>
-      <c r="J19" s="115"/>
-      <c r="K19" s="40">
-        <v>0</v>
-      </c>
-      <c r="L19" s="115"/>
-    </row>
-    <row r="20" spans="1:12" s="42" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="116" t="s">
-        <v>73</v>
+      <c r="J19" s="130"/>
+    </row>
+    <row r="20" spans="1:10" s="42" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="108" t="s">
+        <v>72</v>
       </c>
       <c r="B20" s="50" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C20" s="41">
         <v>0</v>
       </c>
-      <c r="D20" s="119">
+      <c r="D20" s="131">
         <f>1+C20*(0.2+C21+C22)</f>
         <v>1</v>
       </c>
       <c r="E20" s="41">
         <v>0</v>
       </c>
-      <c r="F20" s="119">
+      <c r="F20" s="131">
         <f>1+E20*(0.2+E21+E22)</f>
         <v>1</v>
       </c>
       <c r="G20" s="41">
         <v>0</v>
       </c>
-      <c r="H20" s="119">
+      <c r="H20" s="131">
         <f>1+G20*(0.2+G21+G22)</f>
         <v>1</v>
       </c>
       <c r="I20" s="41">
         <v>0</v>
       </c>
-      <c r="J20" s="119">
+      <c r="J20" s="131">
         <f>1+I20*(0.2+I21+I22)</f>
         <v>1</v>
       </c>
-      <c r="K20" s="41">
-        <v>0</v>
-      </c>
-      <c r="L20" s="119">
-        <f>1+K20*(0.2+K21+K22)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" s="42" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="117"/>
+    </row>
+    <row r="21" spans="1:10" s="42" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="109"/>
       <c r="B21" s="50" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C21" s="41">
         <v>0.5</v>
       </c>
-      <c r="D21" s="120"/>
+      <c r="D21" s="132"/>
       <c r="E21" s="41">
         <v>0.5</v>
       </c>
-      <c r="F21" s="120"/>
+      <c r="F21" s="132"/>
       <c r="G21" s="41">
         <v>0.5</v>
       </c>
-      <c r="H21" s="120"/>
+      <c r="H21" s="132"/>
       <c r="I21" s="41">
         <v>0.5</v>
       </c>
-      <c r="J21" s="120"/>
-      <c r="K21" s="41">
-        <v>0.5</v>
-      </c>
-      <c r="L21" s="120"/>
-    </row>
-    <row r="22" spans="1:12" s="42" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="118"/>
+      <c r="J21" s="132"/>
+    </row>
+    <row r="22" spans="1:10" s="42" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="110"/>
       <c r="B22" s="50" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C22" s="41">
         <v>0</v>
       </c>
-      <c r="D22" s="121"/>
+      <c r="D22" s="133"/>
       <c r="E22" s="41">
         <v>0</v>
       </c>
-      <c r="F22" s="121"/>
+      <c r="F22" s="133"/>
       <c r="G22" s="41">
         <v>0</v>
       </c>
-      <c r="H22" s="121"/>
+      <c r="H22" s="133"/>
       <c r="I22" s="41">
         <v>0</v>
       </c>
-      <c r="J22" s="121"/>
-      <c r="K22" s="41">
-        <v>0</v>
-      </c>
-      <c r="L22" s="121"/>
-    </row>
-    <row r="23" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="100" t="s">
-        <v>74</v>
-      </c>
-      <c r="B23" s="101"/>
+      <c r="J22" s="133"/>
+    </row>
+    <row r="23" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="102" t="s">
+        <v>73</v>
+      </c>
+      <c r="B23" s="103"/>
       <c r="C23" s="21">
         <v>1</v>
       </c>
@@ -4063,19 +4315,12 @@
         <f>I23</f>
         <v>1</v>
       </c>
-      <c r="K23" s="21">
-        <v>1</v>
-      </c>
-      <c r="L23" s="23">
-        <f>K23</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" s="42" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="102" t="s">
-        <v>53</v>
-      </c>
-      <c r="B24" s="103"/>
+    </row>
+    <row r="24" spans="1:10" s="42" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="125" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" s="126"/>
       <c r="C24" s="41">
         <v>10</v>
       </c>
@@ -4104,114 +4349,92 @@
         <f>I24</f>
         <v>10</v>
       </c>
-      <c r="K24" s="41">
-        <v>10</v>
-      </c>
-      <c r="L24" s="43">
-        <f>K24</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="104" t="s">
-        <v>54</v>
+    </row>
+    <row r="25" spans="1:10" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="116" t="s">
+        <v>53</v>
       </c>
       <c r="B25" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C25" s="24">
         <v>0</v>
       </c>
-      <c r="D25" s="107">
+      <c r="D25" s="134">
         <f>(1-(1-C26)*C25)*(1-C27)</f>
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="E25" s="24">
+        <v>0</v>
+      </c>
+      <c r="F25" s="134">
+        <f>(1-(1-E26)*E25)*(1-E27)</f>
         <v>1</v>
       </c>
-      <c r="F25" s="107">
-        <f>(1-(1-E26)*E25)*(1-E27)</f>
-        <v>0.42</v>
-      </c>
       <c r="G25" s="24">
         <v>0</v>
       </c>
-      <c r="H25" s="107">
+      <c r="H25" s="134">
         <f>(1-(1-G26)*G25)*(1-G27)</f>
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="I25" s="24">
+        <v>0</v>
+      </c>
+      <c r="J25" s="134">
+        <f>(1-(1-I26)*I25)*(1-I27)</f>
         <v>1</v>
       </c>
-      <c r="J25" s="107">
-        <f>(1-(1-I26)*I25)*(1-I27)</f>
-        <v>0.42</v>
-      </c>
-      <c r="K25" s="24">
-        <v>1</v>
-      </c>
-      <c r="L25" s="107">
-        <f>(1-(1-K26)*K25)*(1-K27)</f>
-        <v>0.42</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="105"/>
+    </row>
+    <row r="26" spans="1:10" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="117"/>
       <c r="B26" s="45" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C26" s="24">
         <v>0.6</v>
       </c>
-      <c r="D26" s="108"/>
+      <c r="D26" s="135"/>
       <c r="E26" s="24">
         <v>0.6</v>
       </c>
-      <c r="F26" s="108"/>
+      <c r="F26" s="135"/>
       <c r="G26" s="24">
         <v>0.6</v>
       </c>
-      <c r="H26" s="108"/>
+      <c r="H26" s="135"/>
       <c r="I26" s="24">
         <v>0.6</v>
       </c>
-      <c r="J26" s="108"/>
-      <c r="K26" s="24">
-        <v>0.6</v>
-      </c>
-      <c r="L26" s="108"/>
-    </row>
-    <row r="27" spans="1:12" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="106"/>
+      <c r="J26" s="135"/>
+    </row>
+    <row r="27" spans="1:10" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="118"/>
       <c r="B27" s="45" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C27" s="27">
-        <v>0.3</v>
-      </c>
-      <c r="D27" s="109"/>
+        <v>0</v>
+      </c>
+      <c r="D27" s="136"/>
       <c r="E27" s="27">
-        <v>0.3</v>
-      </c>
-      <c r="F27" s="109"/>
+        <v>0</v>
+      </c>
+      <c r="F27" s="136"/>
       <c r="G27" s="27">
-        <v>0.3</v>
-      </c>
-      <c r="H27" s="109"/>
+        <v>0</v>
+      </c>
+      <c r="H27" s="136"/>
       <c r="I27" s="27">
-        <v>0.3</v>
-      </c>
-      <c r="J27" s="109"/>
-      <c r="K27" s="27">
-        <v>0.3</v>
-      </c>
-      <c r="L27" s="109"/>
-    </row>
-    <row r="28" spans="1:12" s="39" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="110" t="s">
-        <v>77</v>
-      </c>
-      <c r="B28" s="111"/>
+        <v>0</v>
+      </c>
+      <c r="J27" s="136"/>
+    </row>
+    <row r="28" spans="1:10" s="39" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="127" t="s">
+        <v>76</v>
+      </c>
+      <c r="B28" s="128"/>
       <c r="C28" s="38">
         <v>0</v>
       </c>
@@ -4240,107 +4463,112 @@
         <f>I28*0.5+1</f>
         <v>1</v>
       </c>
-      <c r="K28" s="38">
-        <v>0</v>
-      </c>
-      <c r="L28" s="44">
-        <f>K28*0.5+1</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="96" t="s">
-        <v>55</v>
-      </c>
-      <c r="B29" s="97"/>
-      <c r="C29" s="98">
+    </row>
+    <row r="29" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="123" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" s="124"/>
+      <c r="C29" s="137">
         <f>D2*D3*D4*D9*D10*D12*D16*D18*D20*D23/D24/D25*D28</f>
-        <v>4483405.9349569278</v>
-      </c>
-      <c r="D29" s="99"/>
-      <c r="E29" s="98">
+        <v>13195.467999999999</v>
+      </c>
+      <c r="D29" s="138"/>
+      <c r="E29" s="137">
         <f>F2*F3*F4*F9*F10*F12*F16*F18*F20*F23/F24/F25*F28</f>
-        <v>7472343.2249282124</v>
-      </c>
-      <c r="F29" s="99"/>
-      <c r="G29" s="98">
+        <v>198.90994499999999</v>
+      </c>
+      <c r="F29" s="138"/>
+      <c r="G29" s="137">
         <f>H2*H3*H4*H9*H10*H12*H16*H18*H20*H23/H24/H25*H28</f>
-        <v>3420133.8898461433</v>
-      </c>
-      <c r="H29" s="99"/>
-      <c r="I29" s="98">
+        <v>176.0265</v>
+      </c>
+      <c r="H29" s="138"/>
+      <c r="I29" s="137">
         <f>J2*J3*J4*J9*J10*J12*J16*J18*J20*J23/J24/J25*J28</f>
-        <v>5700223.1497435719</v>
-      </c>
-      <c r="J29" s="99"/>
-      <c r="K29" s="98">
-        <f>L2*L3*L4*L9*L10*L12*L16*L18*L20*L23/L24/L25*L28</f>
-        <v>9045468.1143867858</v>
-      </c>
-      <c r="L29" s="99"/>
+        <v>8097.2190000000001</v>
+      </c>
+      <c r="J29" s="138"/>
+    </row>
+    <row r="30" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C30" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="D30" s="20">
+        <v>124889</v>
+      </c>
+      <c r="E30" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="F30" s="20">
+        <v>124889</v>
+      </c>
+      <c r="G30" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="H30" s="20">
+        <v>124889</v>
+      </c>
+      <c r="I30" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="J30" s="20">
+        <v>124889</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="60">
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="J12:J15"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="J20:J22"/>
-    <mergeCell ref="J25:J27"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="L20:L22"/>
-    <mergeCell ref="L25:L27"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="H4:H8"/>
+  <mergeCells count="51">
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="F20:F22"/>
+    <mergeCell ref="F25:F27"/>
+    <mergeCell ref="E29:F29"/>
     <mergeCell ref="H10:H11"/>
     <mergeCell ref="H12:H15"/>
     <mergeCell ref="H16:H17"/>
     <mergeCell ref="H18:H19"/>
     <mergeCell ref="H20:H22"/>
-    <mergeCell ref="H25:H27"/>
-    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F4:F8"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="F12:F15"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="D12:D15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="J20:J22"/>
+    <mergeCell ref="J25:J27"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="H4:H8"/>
     <mergeCell ref="I1:J1"/>
     <mergeCell ref="J4:J8"/>
     <mergeCell ref="J10:J11"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="L4:L8"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="L12:L15"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="D4:D8"/>
-    <mergeCell ref="F4:F8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="D12:D15"/>
-    <mergeCell ref="F12:F15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="F20:F22"/>
+    <mergeCell ref="J12:J15"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="H25:H27"/>
+    <mergeCell ref="G29:H29"/>
     <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:F29"/>
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="A25:A27"/>
-    <mergeCell ref="D25:D27"/>
-    <mergeCell ref="F25:F27"/>
     <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="D4:D8"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Brainstorm.xlsx
+++ b/Brainstorm.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Personal@SSD\Game\DL\dragalia-data-track\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F51FCD06-345B-4330-9845-CF20BC739982}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D54DC90-750E-4024-9DA6-9983A9C5CE7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="1665" windowWidth="20385" windowHeight="14535" xr2:uid="{4CFB4A6A-60C6-4091-BCA5-480044B61D33}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{4CFB4A6A-60C6-4091-BCA5-480044B61D33}"/>
   </bookViews>
   <sheets>
     <sheet name="Rotation" sheetId="8" r:id="rId1"/>
@@ -91,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="148">
   <si>
     <t>睡抗</t>
   </si>
@@ -530,7 +530,13 @@
     <t>P2</t>
   </si>
   <si>
-    <t>Catherine</t>
+    <t>Cassandra</t>
+  </si>
+  <si>
+    <t>Yuya</t>
+  </si>
+  <si>
+    <t>Serena</t>
   </si>
 </sst>
 </file>
@@ -1400,6 +1406,42 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="4" fontId="5" fillId="35" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="35" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="4" fontId="5" fillId="23" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1415,136 +1457,100 @@
     <xf numFmtId="4" fontId="5" fillId="28" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="4" fontId="5" fillId="30" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="30" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="30" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="32" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="32" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="21" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="21" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="21" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="21" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="35" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="35" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="30" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="30" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="30" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="32" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="32" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1899,8 +1905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B260D6A6-975E-4594-902D-33C279C7CA35}">
   <dimension ref="A1:Y13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R5" sqref="R5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2006,7 +2012,7 @@
         <v>87</v>
       </c>
       <c r="R2" s="66">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="S2" s="60" t="s">
         <v>9</v>
@@ -2017,7 +2023,7 @@
       </c>
       <c r="V2" s="69">
         <f>VLOOKUP(T3,$H$3:$M$13,6,FALSE)</f>
-        <v>2028</v>
+        <v>1600</v>
       </c>
       <c r="X2" s="57" t="s">
         <v>40</v>
@@ -2053,27 +2059,27 @@
       </c>
       <c r="I3" s="61">
         <f>B3 * (1+SUM($R:$R))</f>
-        <v>195</v>
+        <v>150</v>
       </c>
       <c r="J3" s="61">
         <f t="shared" ref="J3:J13" si="0">C3 * (1+SUM($R:$R))</f>
-        <v>390</v>
+        <v>300</v>
       </c>
       <c r="K3" s="61">
         <f t="shared" ref="K3:M10" si="1">D3 * (1+SUM($R:$R))</f>
-        <v>644.80000000000007</v>
+        <v>496</v>
       </c>
       <c r="L3" s="61">
         <f t="shared" si="1"/>
-        <v>989.30000000000007</v>
+        <v>761</v>
       </c>
       <c r="M3" s="61">
         <f t="shared" si="1"/>
-        <v>1497.6000000000001</v>
+        <v>1152</v>
       </c>
       <c r="N3" s="58">
         <f t="shared" ref="N3:N13" si="2">G3 * (1+SUM($R:$R))</f>
-        <v>448.5</v>
+        <v>345</v>
       </c>
       <c r="O3" s="72" t="s">
         <v>17</v>
@@ -2091,14 +2097,14 @@
         <v>77</v>
       </c>
       <c r="T3" s="13" t="s">
-        <v>81</v>
+        <v>29</v>
       </c>
       <c r="U3" s="68" t="s">
         <v>102</v>
       </c>
       <c r="V3" s="69">
         <f>MOD(T6, V2)</f>
-        <v>1789</v>
+        <v>890</v>
       </c>
       <c r="W3" s="57" t="s">
         <v>39</v>
@@ -2139,27 +2145,27 @@
       </c>
       <c r="I4" s="61">
         <f t="shared" ref="I4:I13" si="3">B4 * (1+SUM($R:$R))</f>
-        <v>169</v>
+        <v>130</v>
       </c>
       <c r="J4" s="61">
         <f t="shared" si="0"/>
-        <v>338</v>
+        <v>260</v>
       </c>
       <c r="K4" s="61">
         <f t="shared" si="1"/>
-        <v>624</v>
+        <v>480</v>
       </c>
       <c r="L4" s="61">
         <f t="shared" si="1"/>
-        <v>1092</v>
+        <v>840</v>
       </c>
       <c r="M4" s="61">
         <f t="shared" si="1"/>
-        <v>2262</v>
+        <v>1740</v>
       </c>
       <c r="N4" s="58">
         <f t="shared" si="2"/>
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="O4" s="72" t="s">
         <v>88</v>
@@ -2171,20 +2177,20 @@
         <v>88</v>
       </c>
       <c r="R4" s="66">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="S4" s="60" t="s">
         <v>97</v>
       </c>
       <c r="T4" s="13">
-        <v>3817</v>
+        <v>2490</v>
       </c>
       <c r="U4" s="68" t="s">
         <v>103</v>
       </c>
       <c r="V4" s="69">
         <f>MOD(T7, V2)</f>
-        <v>1680</v>
+        <v>1109</v>
       </c>
       <c r="W4" s="57" t="s">
         <v>105</v>
@@ -2225,27 +2231,27 @@
       </c>
       <c r="I5" s="61">
         <f t="shared" si="3"/>
-        <v>187.20000000000002</v>
+        <v>144</v>
       </c>
       <c r="J5" s="61">
         <f t="shared" si="0"/>
-        <v>374.40000000000003</v>
+        <v>288</v>
       </c>
       <c r="K5" s="61">
         <f t="shared" si="1"/>
-        <v>717.6</v>
+        <v>552</v>
       </c>
       <c r="L5" s="61">
         <f t="shared" si="1"/>
-        <v>1092</v>
+        <v>840</v>
       </c>
       <c r="M5" s="61">
         <f t="shared" si="1"/>
-        <v>1716</v>
+        <v>1320</v>
       </c>
       <c r="N5" s="58">
         <f t="shared" si="2"/>
-        <v>374.40000000000003</v>
+        <v>288</v>
       </c>
       <c r="O5" s="72" t="s">
         <v>89</v>
@@ -2263,14 +2269,14 @@
         <v>99</v>
       </c>
       <c r="T5" s="13">
-        <v>5736</v>
+        <v>5909</v>
       </c>
       <c r="U5" s="70" t="s">
         <v>100</v>
       </c>
       <c r="V5" s="71" t="str" cm="1">
         <f t="array" ref="V5">(ROUNDDOWN(T6/V2, 0) + IF(X8,1,0)) &amp; _xlfn.IFS(X3, " + FS", X4, " + C1", X5, " + C2", X6, " + C3", X7, " + C4", TRUE, "")</f>
-        <v>2</v>
+        <v>1 + C4</v>
       </c>
       <c r="W5" s="57" t="s">
         <v>106</v>
@@ -2311,41 +2317,41 @@
       </c>
       <c r="I6" s="61">
         <f t="shared" si="3"/>
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="J6" s="61">
         <f t="shared" si="0"/>
-        <v>572</v>
+        <v>440</v>
       </c>
       <c r="K6" s="61">
         <f t="shared" si="1"/>
-        <v>1040</v>
+        <v>800</v>
       </c>
       <c r="L6" s="61">
         <f t="shared" si="1"/>
-        <v>1534</v>
+        <v>1180</v>
       </c>
       <c r="M6" s="61">
         <f t="shared" si="1"/>
-        <v>2080</v>
+        <v>1600</v>
       </c>
       <c r="N6" s="58">
         <f t="shared" si="2"/>
-        <v>390</v>
+        <v>300</v>
       </c>
       <c r="S6" s="75" t="s">
         <v>98</v>
       </c>
       <c r="T6" s="76">
         <f>T4 * (1 - SUM(P:P))</f>
-        <v>3817</v>
+        <v>2490</v>
       </c>
       <c r="U6" s="77" t="s">
         <v>101</v>
       </c>
       <c r="V6" s="71" t="str" cm="1">
         <f t="array" ref="V6">(ROUNDDOWN(T7/V2, 0) + IF(Y8,1,0)) &amp; _xlfn.IFS(Y3, " + FS", Y4, " + C1", Y5, " + C2", Y6, " + C3", Y7, " + C4", TRUE, "")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W6" s="57" t="s">
         <v>107</v>
@@ -2386,41 +2392,41 @@
       </c>
       <c r="I7" s="61">
         <f t="shared" si="3"/>
-        <v>156</v>
+        <v>120</v>
       </c>
       <c r="J7" s="61">
         <f t="shared" si="0"/>
-        <v>468</v>
+        <v>360</v>
       </c>
       <c r="K7" s="61">
         <f t="shared" si="1"/>
-        <v>624</v>
+        <v>480</v>
       </c>
       <c r="L7" s="61">
         <f t="shared" si="1"/>
-        <v>1248</v>
+        <v>960</v>
       </c>
       <c r="M7" s="61">
         <f t="shared" si="1"/>
-        <v>2028</v>
+        <v>1560</v>
       </c>
       <c r="N7" s="58">
         <f t="shared" si="2"/>
-        <v>520</v>
+        <v>400</v>
       </c>
       <c r="S7" s="75" t="s">
         <v>104</v>
       </c>
       <c r="T7" s="76">
         <f>T5 * (1 - SUM(P:P))</f>
-        <v>5736</v>
+        <v>5909</v>
       </c>
       <c r="W7" s="57" t="s">
         <v>108</v>
       </c>
       <c r="X7" s="57" t="b">
         <f>AND(V3 &gt; VLOOKUP($T$3,$H$3:$M$13,4,FALSE),V3 &lt;= VLOOKUP($T$3,$H$3:$M$13,5,FALSE))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y7" s="57" t="b">
         <f>AND(V4 &gt; VLOOKUP($T$3,$H$3:$M$13,4,FALSE),V4 &lt;= VLOOKUP($T$3,$H$3:$M$13,5,FALSE))</f>
@@ -2454,34 +2460,34 @@
       </c>
       <c r="I8" s="61">
         <f t="shared" si="3"/>
-        <v>239.20000000000002</v>
+        <v>184</v>
       </c>
       <c r="J8" s="61">
         <f t="shared" si="0"/>
-        <v>358.8</v>
+        <v>276</v>
       </c>
       <c r="K8" s="61">
         <f t="shared" si="1"/>
-        <v>717.6</v>
+        <v>552</v>
       </c>
       <c r="L8" s="61">
         <f t="shared" si="1"/>
-        <v>1255.8</v>
+        <v>966</v>
       </c>
       <c r="M8" s="61">
         <f t="shared" si="1"/>
-        <v>1943.5</v>
+        <v>1495</v>
       </c>
       <c r="N8" s="58">
         <f t="shared" si="2"/>
-        <v>598</v>
+        <v>460</v>
       </c>
       <c r="W8" s="57" t="s">
         <v>109</v>
       </c>
       <c r="X8" s="57" t="b">
         <f>V3&gt;VLOOKUP($T$3,$H$3:$M$13,5,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y8" s="57" t="b">
         <f>V4&gt;VLOOKUP($T$3,$H$3:$M$13,5,FALSE)</f>
@@ -2515,27 +2521,27 @@
       </c>
       <c r="I9" s="61">
         <f t="shared" si="3"/>
-        <v>169</v>
+        <v>130</v>
       </c>
       <c r="J9" s="61">
         <f t="shared" si="0"/>
-        <v>429</v>
+        <v>330</v>
       </c>
       <c r="K9" s="61">
         <f t="shared" si="1"/>
-        <v>741</v>
+        <v>570</v>
       </c>
       <c r="L9" s="61">
         <f t="shared" si="1"/>
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="M9" s="61">
         <f t="shared" si="1"/>
-        <v>2080</v>
+        <v>1600</v>
       </c>
       <c r="N9" s="58">
         <f t="shared" si="2"/>
-        <v>520</v>
+        <v>400</v>
       </c>
       <c r="W9" s="57"/>
       <c r="X9" s="57"/>
@@ -2568,27 +2574,27 @@
       </c>
       <c r="I10" s="61">
         <f t="shared" si="3"/>
-        <v>301.60000000000002</v>
+        <v>232</v>
       </c>
       <c r="J10" s="61">
         <f t="shared" si="0"/>
-        <v>603.20000000000005</v>
+        <v>464</v>
       </c>
       <c r="K10" s="61">
         <f t="shared" si="1"/>
-        <v>1055.6000000000001</v>
+        <v>812</v>
       </c>
       <c r="L10" s="61">
         <f t="shared" si="1"/>
-        <v>1658.8</v>
+        <v>1276</v>
       </c>
       <c r="M10" s="61">
         <f t="shared" si="1"/>
-        <v>2563.6</v>
+        <v>1972</v>
       </c>
       <c r="N10" s="58">
         <f t="shared" si="2"/>
-        <v>754</v>
+        <v>580</v>
       </c>
     </row>
     <row r="11" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2612,18 +2618,18 @@
       </c>
       <c r="I11" s="61">
         <f t="shared" si="3"/>
-        <v>708.5</v>
+        <v>545</v>
       </c>
       <c r="J11" s="61">
         <f t="shared" si="0"/>
-        <v>1417</v>
+        <v>1090</v>
       </c>
       <c r="K11" s="61"/>
       <c r="L11" s="61"/>
       <c r="M11" s="61"/>
       <c r="N11" s="58">
         <f t="shared" si="2"/>
-        <v>520</v>
+        <v>400</v>
       </c>
     </row>
     <row r="12" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2647,18 +2653,18 @@
       </c>
       <c r="I12" s="61">
         <f t="shared" si="3"/>
-        <v>603.20000000000005</v>
+        <v>464</v>
       </c>
       <c r="J12" s="61">
         <f t="shared" si="0"/>
-        <v>1206.4000000000001</v>
+        <v>928</v>
       </c>
       <c r="K12" s="61"/>
       <c r="L12" s="61"/>
       <c r="M12" s="61"/>
       <c r="N12" s="58">
         <f t="shared" si="2"/>
-        <v>520</v>
+        <v>400</v>
       </c>
     </row>
     <row r="13" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2684,21 +2690,21 @@
       </c>
       <c r="I13" s="61">
         <f t="shared" si="3"/>
-        <v>390</v>
+        <v>300</v>
       </c>
       <c r="J13" s="61">
         <f t="shared" si="0"/>
-        <v>993.2</v>
+        <v>764</v>
       </c>
       <c r="K13" s="61">
         <f>D13 * (1+SUM($R:$R))</f>
-        <v>1596.4</v>
+        <v>1228</v>
       </c>
       <c r="L13" s="61"/>
       <c r="M13" s="61"/>
       <c r="N13" s="58">
         <f t="shared" si="2"/>
-        <v>520</v>
+        <v>400</v>
       </c>
     </row>
   </sheetData>
@@ -3651,11 +3657,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEFF6CA3-18A6-4987-88AD-5768B35D8A0C}">
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I9" sqref="I9"/>
+      <selection pane="topRight" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3668,38 +3674,32 @@
     <col min="6" max="6" width="11.28515625" style="20" customWidth="1"/>
     <col min="7" max="7" width="9.140625" style="20"/>
     <col min="8" max="8" width="11.28515625" style="20" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="20"/>
-    <col min="10" max="10" width="11.28515625" style="20" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="20"/>
+    <col min="9" max="16384" width="9.140625" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="100" t="s">
+    <row r="1" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="142" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="104" t="s">
+      <c r="B1" s="143"/>
+      <c r="C1" s="105" t="s">
+        <v>146</v>
+      </c>
+      <c r="D1" s="106"/>
+      <c r="E1" s="105" t="s">
+        <v>147</v>
+      </c>
+      <c r="F1" s="106"/>
+      <c r="G1" s="105" t="s">
         <v>145</v>
       </c>
-      <c r="D1" s="105"/>
-      <c r="E1" s="104" t="s">
-        <v>145</v>
-      </c>
-      <c r="F1" s="105"/>
-      <c r="G1" s="104" t="s">
-        <v>145</v>
-      </c>
-      <c r="H1" s="105"/>
-      <c r="I1" s="104" t="s">
-        <v>145</v>
-      </c>
-      <c r="J1" s="105"/>
-    </row>
-    <row r="2" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="102" t="s">
+      <c r="H1" s="106"/>
+    </row>
+    <row r="2" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="119" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="103"/>
+      <c r="B2" s="120"/>
       <c r="C2" s="21">
         <f>5/3</f>
         <v>1.6666666666666667</v>
@@ -3724,20 +3724,12 @@
         <f>G2</f>
         <v>1.6666666666666667</v>
       </c>
-      <c r="I2" s="21">
-        <f>5/3</f>
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="J2" s="22">
-        <f>I2</f>
-        <v>1.6666666666666667</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="102" t="s">
+    </row>
+    <row r="3" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="119" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="103"/>
+      <c r="B3" s="120"/>
       <c r="C3" s="21">
         <v>0</v>
       </c>
@@ -3759,175 +3751,137 @@
         <f>1-G3</f>
         <v>1</v>
       </c>
-      <c r="I3" s="21">
-        <v>0</v>
-      </c>
-      <c r="J3" s="22">
-        <f>1-I3</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="116" t="s">
+    </row>
+    <row r="4" spans="1:8" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="123" t="s">
         <v>60</v>
       </c>
       <c r="B4" s="45" t="s">
         <v>63</v>
       </c>
       <c r="C4" s="24">
-        <v>1003</v>
-      </c>
-      <c r="D4" s="95">
+        <v>5092</v>
+      </c>
+      <c r="D4" s="107">
         <f>(C4/(1+C5)*(1+C5+C6)*(1+C7)*(1+C8))</f>
-        <v>1003</v>
+        <v>5092</v>
       </c>
       <c r="E4" s="24">
-        <v>1003</v>
-      </c>
-      <c r="F4" s="95">
+        <v>4353</v>
+      </c>
+      <c r="F4" s="107">
         <f>(E4/(1+E5)*(1+E5+E6)*(1+E7)*(1+E8))</f>
-        <v>1133.3899999999999</v>
+        <v>5005.95</v>
       </c>
       <c r="G4" s="24">
-        <v>1003</v>
-      </c>
-      <c r="H4" s="95">
+        <v>4353</v>
+      </c>
+      <c r="H4" s="107">
         <f>(G4/(1+G5)*(1+G5+G6)*(1+G7)*(1+G8))</f>
-        <v>1003</v>
-      </c>
-      <c r="I4" s="24">
-        <v>1003</v>
-      </c>
-      <c r="J4" s="95">
-        <f>(I4/(1+I5)*(1+I5+I6)*(1+I7)*(1+I8))</f>
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="117"/>
+        <v>5005.95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="124"/>
       <c r="B5" s="45" t="s">
         <v>44</v>
       </c>
       <c r="C5" s="26">
         <v>0</v>
       </c>
-      <c r="D5" s="96"/>
+      <c r="D5" s="108"/>
       <c r="E5" s="26">
         <v>0</v>
       </c>
-      <c r="F5" s="96"/>
+      <c r="F5" s="108"/>
       <c r="G5" s="26">
         <v>0</v>
       </c>
-      <c r="H5" s="96"/>
-      <c r="I5" s="26">
-        <v>0</v>
-      </c>
-      <c r="J5" s="96"/>
-    </row>
-    <row r="6" spans="1:10" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="117"/>
+      <c r="H5" s="108"/>
+    </row>
+    <row r="6" spans="1:8" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="124"/>
       <c r="B6" s="45" t="s">
         <v>45</v>
       </c>
       <c r="C6" s="27">
         <v>0</v>
       </c>
-      <c r="D6" s="96"/>
+      <c r="D6" s="108"/>
       <c r="E6" s="27">
-        <v>0.13</v>
-      </c>
-      <c r="F6" s="96"/>
+        <v>0</v>
+      </c>
+      <c r="F6" s="108"/>
       <c r="G6" s="27">
         <v>0</v>
       </c>
-      <c r="H6" s="96"/>
-      <c r="I6" s="27">
-        <v>0</v>
-      </c>
-      <c r="J6" s="96"/>
-    </row>
-    <row r="7" spans="1:10" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="117"/>
+      <c r="H6" s="108"/>
+    </row>
+    <row r="7" spans="1:8" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="124"/>
       <c r="B7" s="45" t="s">
         <v>56</v>
       </c>
       <c r="C7" s="27">
         <v>0</v>
       </c>
-      <c r="D7" s="96"/>
+      <c r="D7" s="108"/>
       <c r="E7" s="27">
-        <v>0</v>
-      </c>
-      <c r="F7" s="96"/>
+        <v>0.15</v>
+      </c>
+      <c r="F7" s="108"/>
       <c r="G7" s="27">
-        <v>0</v>
-      </c>
-      <c r="H7" s="96"/>
-      <c r="I7" s="27">
-        <v>0</v>
-      </c>
-      <c r="J7" s="96"/>
-    </row>
-    <row r="8" spans="1:10" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="118"/>
+        <v>0.15</v>
+      </c>
+      <c r="H7" s="108"/>
+    </row>
+    <row r="8" spans="1:8" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="125"/>
       <c r="B8" s="45" t="s">
         <v>57</v>
       </c>
       <c r="C8" s="27">
         <v>0</v>
       </c>
-      <c r="D8" s="97"/>
+      <c r="D8" s="109"/>
       <c r="E8" s="27">
         <v>0</v>
       </c>
-      <c r="F8" s="97"/>
+      <c r="F8" s="109"/>
       <c r="G8" s="27">
         <v>0</v>
       </c>
-      <c r="H8" s="97"/>
-      <c r="I8" s="27">
-        <v>0</v>
-      </c>
-      <c r="J8" s="97"/>
-    </row>
-    <row r="9" spans="1:10" s="30" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="119" t="s">
+      <c r="H8" s="109"/>
+    </row>
+    <row r="9" spans="1:8" s="30" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="138" t="s">
         <v>46</v>
       </c>
-      <c r="B9" s="120"/>
+      <c r="B9" s="139"/>
       <c r="C9" s="28">
-        <v>40.479999999999997</v>
+        <v>22.4</v>
       </c>
       <c r="D9" s="29">
         <f>C9</f>
-        <v>40.479999999999997</v>
+        <v>22.4</v>
       </c>
       <c r="E9" s="28">
-        <v>0.54</v>
+        <v>29.16</v>
       </c>
       <c r="F9" s="29">
         <f>E9</f>
-        <v>0.54</v>
+        <v>29.16</v>
       </c>
       <c r="G9" s="28">
-        <v>0.54</v>
+        <v>31.71</v>
       </c>
       <c r="H9" s="29">
         <f>G9</f>
-        <v>0.54</v>
-      </c>
-      <c r="I9" s="28">
-        <f>0.54*46</f>
-        <v>24.840000000000003</v>
-      </c>
-      <c r="J9" s="29">
-        <f>I9</f>
-        <v>24.840000000000003</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" s="32" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="121" t="s">
+        <v>31.71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="32" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="140" t="s">
         <v>62</v>
       </c>
       <c r="B10" s="46" t="s">
@@ -3936,158 +3890,128 @@
       <c r="C10" s="31">
         <v>0</v>
       </c>
-      <c r="D10" s="98">
+      <c r="D10" s="110">
         <f>1+((0.7+C11)*C10)</f>
         <v>1</v>
       </c>
       <c r="E10" s="31">
         <v>0</v>
       </c>
-      <c r="F10" s="98">
+      <c r="F10" s="110">
         <f>1+((0.7+E11)*E10)</f>
         <v>1</v>
       </c>
       <c r="G10" s="31">
         <v>0</v>
       </c>
-      <c r="H10" s="98">
+      <c r="H10" s="110">
         <f>1+((0.7+G11)*G10)</f>
         <v>1</v>
       </c>
-      <c r="I10" s="31">
-        <v>0</v>
-      </c>
-      <c r="J10" s="98">
-        <f>1+((0.7+I11)*I10)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" s="32" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="122"/>
+    </row>
+    <row r="11" spans="1:8" s="32" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="141"/>
       <c r="B11" s="46" t="s">
         <v>42</v>
       </c>
       <c r="C11" s="33">
         <v>0</v>
       </c>
-      <c r="D11" s="99"/>
+      <c r="D11" s="111"/>
       <c r="E11" s="33">
         <v>0</v>
       </c>
-      <c r="F11" s="99"/>
+      <c r="F11" s="111"/>
       <c r="G11" s="33">
         <v>0</v>
       </c>
-      <c r="H11" s="99"/>
-      <c r="I11" s="33">
-        <v>0</v>
-      </c>
-      <c r="J11" s="99"/>
-    </row>
-    <row r="12" spans="1:10" s="35" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="111" t="s">
+      <c r="H11" s="111"/>
+    </row>
+    <row r="12" spans="1:8" s="35" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="133" t="s">
         <v>64</v>
       </c>
       <c r="B12" s="47" t="s">
         <v>47</v>
       </c>
       <c r="C12" s="34">
-        <v>0.3</v>
-      </c>
-      <c r="D12" s="139">
+        <v>0.2</v>
+      </c>
+      <c r="D12" s="112">
         <f>(1+C12+C13)*(1+C14)*(1+C15)</f>
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="E12" s="34">
-        <v>0.3</v>
-      </c>
-      <c r="F12" s="139">
+        <v>0</v>
+      </c>
+      <c r="F12" s="112">
         <f>(1+E12+E13)*(1+E14)*(1+E15)</f>
-        <v>1.3</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="G12" s="34">
-        <v>0.3</v>
-      </c>
-      <c r="H12" s="139">
+        <v>0</v>
+      </c>
+      <c r="H12" s="112">
         <f>(1+G12+G13)*(1+G14)*(1+G15)</f>
-        <v>1.3</v>
-      </c>
-      <c r="I12" s="34">
-        <v>0.3</v>
-      </c>
-      <c r="J12" s="139">
-        <f>(1+I12+I13)*(1+I14)*(1+I15)</f>
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" s="35" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="112"/>
+        <v>1.1499999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="35" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="134"/>
       <c r="B13" s="47" t="s">
         <v>48</v>
       </c>
       <c r="C13" s="34">
         <v>0</v>
       </c>
-      <c r="D13" s="140"/>
+      <c r="D13" s="113"/>
       <c r="E13" s="34">
         <v>0</v>
       </c>
-      <c r="F13" s="140"/>
+      <c r="F13" s="113"/>
       <c r="G13" s="34">
         <v>0</v>
       </c>
-      <c r="H13" s="140"/>
-      <c r="I13" s="34">
-        <v>0</v>
-      </c>
-      <c r="J13" s="140"/>
-    </row>
-    <row r="14" spans="1:10" s="35" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="112"/>
+      <c r="H13" s="113"/>
+    </row>
+    <row r="14" spans="1:8" s="35" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="134"/>
       <c r="B14" s="47" t="s">
         <v>69</v>
       </c>
       <c r="C14" s="34">
         <v>0</v>
       </c>
-      <c r="D14" s="140"/>
+      <c r="D14" s="113"/>
       <c r="E14" s="34">
-        <v>0</v>
-      </c>
-      <c r="F14" s="140"/>
+        <v>0.15</v>
+      </c>
+      <c r="F14" s="113"/>
       <c r="G14" s="34">
-        <v>0</v>
-      </c>
-      <c r="H14" s="140"/>
-      <c r="I14" s="34">
-        <v>0</v>
-      </c>
-      <c r="J14" s="140"/>
-    </row>
-    <row r="15" spans="1:10" s="35" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="113"/>
+        <v>0.15</v>
+      </c>
+      <c r="H14" s="113"/>
+    </row>
+    <row r="15" spans="1:8" s="35" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="135"/>
       <c r="B15" s="47" t="s">
         <v>70</v>
       </c>
       <c r="C15" s="34">
         <v>0</v>
       </c>
-      <c r="D15" s="141"/>
+      <c r="D15" s="114"/>
       <c r="E15" s="34">
         <v>0</v>
       </c>
-      <c r="F15" s="141"/>
+      <c r="F15" s="114"/>
       <c r="G15" s="34">
         <v>0</v>
       </c>
-      <c r="H15" s="141"/>
-      <c r="I15" s="34">
-        <v>0</v>
-      </c>
-      <c r="J15" s="141"/>
-    </row>
-    <row r="16" spans="1:10" s="37" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="114" t="s">
+      <c r="H15" s="114"/>
+    </row>
+    <row r="16" spans="1:8" s="37" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="136" t="s">
         <v>65</v>
       </c>
       <c r="B16" s="48" t="s">
@@ -4096,56 +4020,45 @@
       <c r="C16" s="36">
         <v>0</v>
       </c>
-      <c r="D16" s="142">
+      <c r="D16" s="115">
         <f>(1+C16)*(1+C17)</f>
         <v>1</v>
       </c>
       <c r="E16" s="36">
         <v>0</v>
       </c>
-      <c r="F16" s="142">
+      <c r="F16" s="115">
         <f>(1+E16)*(1+E17)</f>
         <v>1</v>
       </c>
       <c r="G16" s="36">
         <v>0</v>
       </c>
-      <c r="H16" s="142">
+      <c r="H16" s="115">
         <f>(1+G16)*(1+G17)</f>
         <v>1</v>
       </c>
-      <c r="I16" s="36">
-        <v>0</v>
-      </c>
-      <c r="J16" s="142">
-        <f>(1+I16)*(1+I17)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" s="37" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="115"/>
+    </row>
+    <row r="17" spans="1:8" s="37" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="137"/>
       <c r="B17" s="48" t="s">
         <v>49</v>
       </c>
       <c r="C17" s="36">
         <v>0</v>
       </c>
-      <c r="D17" s="143"/>
+      <c r="D17" s="116"/>
       <c r="E17" s="36">
         <v>0</v>
       </c>
-      <c r="F17" s="143"/>
+      <c r="F17" s="116"/>
       <c r="G17" s="36">
         <v>0</v>
       </c>
-      <c r="H17" s="143"/>
-      <c r="I17" s="36">
-        <v>0</v>
-      </c>
-      <c r="J17" s="143"/>
-    </row>
-    <row r="18" spans="1:10" s="39" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="106" t="s">
+      <c r="H17" s="116"/>
+    </row>
+    <row r="18" spans="1:8" s="39" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="128" t="s">
         <v>66</v>
       </c>
       <c r="B18" s="49" t="s">
@@ -4154,56 +4067,45 @@
       <c r="C18" s="38">
         <v>1.5</v>
       </c>
-      <c r="D18" s="129">
+      <c r="D18" s="95">
         <f>C18+C19</f>
         <v>1.5</v>
       </c>
       <c r="E18" s="38">
         <v>1.5</v>
       </c>
-      <c r="F18" s="129">
+      <c r="F18" s="95">
         <f>E18+E19</f>
         <v>1.5</v>
       </c>
       <c r="G18" s="38">
         <v>1.5</v>
       </c>
-      <c r="H18" s="129">
+      <c r="H18" s="95">
         <f>G18+G19</f>
         <v>1.5</v>
       </c>
-      <c r="I18" s="38">
-        <v>1.5</v>
-      </c>
-      <c r="J18" s="129">
-        <f>I18+I19</f>
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" s="39" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="107"/>
+    </row>
+    <row r="19" spans="1:8" s="39" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="129"/>
       <c r="B19" s="49" t="s">
         <v>59</v>
       </c>
       <c r="C19" s="40">
         <v>0</v>
       </c>
-      <c r="D19" s="130"/>
+      <c r="D19" s="96"/>
       <c r="E19" s="40">
         <v>0</v>
       </c>
-      <c r="F19" s="130"/>
+      <c r="F19" s="96"/>
       <c r="G19" s="40">
         <v>0</v>
       </c>
-      <c r="H19" s="130"/>
-      <c r="I19" s="40">
-        <v>0</v>
-      </c>
-      <c r="J19" s="130"/>
-    </row>
-    <row r="20" spans="1:10" s="42" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="108" t="s">
+      <c r="H19" s="96"/>
+    </row>
+    <row r="20" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="130" t="s">
         <v>72</v>
       </c>
       <c r="B20" s="50" t="s">
@@ -4212,81 +4114,66 @@
       <c r="C20" s="41">
         <v>0</v>
       </c>
-      <c r="D20" s="131">
+      <c r="D20" s="97">
         <f>1+C20*(0.2+C21+C22)</f>
         <v>1</v>
       </c>
       <c r="E20" s="41">
         <v>0</v>
       </c>
-      <c r="F20" s="131">
+      <c r="F20" s="97">
         <f>1+E20*(0.2+E21+E22)</f>
         <v>1</v>
       </c>
       <c r="G20" s="41">
         <v>0</v>
       </c>
-      <c r="H20" s="131">
+      <c r="H20" s="97">
         <f>1+G20*(0.2+G21+G22)</f>
         <v>1</v>
       </c>
-      <c r="I20" s="41">
-        <v>0</v>
-      </c>
-      <c r="J20" s="131">
-        <f>1+I20*(0.2+I21+I22)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" s="42" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="109"/>
+    </row>
+    <row r="21" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="131"/>
       <c r="B21" s="50" t="s">
         <v>50</v>
       </c>
       <c r="C21" s="41">
         <v>0.5</v>
       </c>
-      <c r="D21" s="132"/>
+      <c r="D21" s="98"/>
       <c r="E21" s="41">
         <v>0.5</v>
       </c>
-      <c r="F21" s="132"/>
+      <c r="F21" s="98"/>
       <c r="G21" s="41">
         <v>0.5</v>
       </c>
-      <c r="H21" s="132"/>
-      <c r="I21" s="41">
-        <v>0.5</v>
-      </c>
-      <c r="J21" s="132"/>
-    </row>
-    <row r="22" spans="1:10" s="42" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="110"/>
+      <c r="H21" s="98"/>
+    </row>
+    <row r="22" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="132"/>
       <c r="B22" s="50" t="s">
         <v>51</v>
       </c>
       <c r="C22" s="41">
         <v>0</v>
       </c>
-      <c r="D22" s="133"/>
+      <c r="D22" s="99"/>
       <c r="E22" s="41">
         <v>0</v>
       </c>
-      <c r="F22" s="133"/>
+      <c r="F22" s="99"/>
       <c r="G22" s="41">
         <v>0</v>
       </c>
-      <c r="H22" s="133"/>
-      <c r="I22" s="41">
-        <v>0</v>
-      </c>
-      <c r="J22" s="133"/>
-    </row>
-    <row r="23" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="102" t="s">
+      <c r="H22" s="99"/>
+    </row>
+    <row r="23" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="119" t="s">
         <v>73</v>
       </c>
-      <c r="B23" s="103"/>
+      <c r="B23" s="120"/>
       <c r="C23" s="21">
         <v>1</v>
       </c>
@@ -4308,19 +4195,12 @@
         <f>G23</f>
         <v>1</v>
       </c>
-      <c r="I23" s="21">
-        <v>1</v>
-      </c>
-      <c r="J23" s="23">
-        <f>I23</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" s="42" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="125" t="s">
+    </row>
+    <row r="24" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="121" t="s">
         <v>52</v>
       </c>
-      <c r="B24" s="126"/>
+      <c r="B24" s="122"/>
       <c r="C24" s="41">
         <v>10</v>
       </c>
@@ -4342,16 +4222,9 @@
         <f>G24</f>
         <v>10</v>
       </c>
-      <c r="I24" s="41">
-        <v>10</v>
-      </c>
-      <c r="J24" s="43">
-        <f>I24</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="116" t="s">
+    </row>
+    <row r="25" spans="1:8" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="123" t="s">
         <v>53</v>
       </c>
       <c r="B25" s="45" t="s">
@@ -4360,81 +4233,66 @@
       <c r="C25" s="24">
         <v>0</v>
       </c>
-      <c r="D25" s="134">
+      <c r="D25" s="100">
         <f>(1-(1-C26)*C25)*(1-C27)</f>
         <v>1</v>
       </c>
       <c r="E25" s="24">
         <v>0</v>
       </c>
-      <c r="F25" s="134">
+      <c r="F25" s="100">
         <f>(1-(1-E26)*E25)*(1-E27)</f>
         <v>1</v>
       </c>
       <c r="G25" s="24">
         <v>0</v>
       </c>
-      <c r="H25" s="134">
+      <c r="H25" s="100">
         <f>(1-(1-G26)*G25)*(1-G27)</f>
         <v>1</v>
       </c>
-      <c r="I25" s="24">
-        <v>0</v>
-      </c>
-      <c r="J25" s="134">
-        <f>(1-(1-I26)*I25)*(1-I27)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="117"/>
+    </row>
+    <row r="26" spans="1:8" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="124"/>
       <c r="B26" s="45" t="s">
         <v>74</v>
       </c>
       <c r="C26" s="24">
         <v>0.6</v>
       </c>
-      <c r="D26" s="135"/>
+      <c r="D26" s="101"/>
       <c r="E26" s="24">
         <v>0.6</v>
       </c>
-      <c r="F26" s="135"/>
+      <c r="F26" s="101"/>
       <c r="G26" s="24">
         <v>0.6</v>
       </c>
-      <c r="H26" s="135"/>
-      <c r="I26" s="24">
-        <v>0.6</v>
-      </c>
-      <c r="J26" s="135"/>
-    </row>
-    <row r="27" spans="1:10" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="118"/>
+      <c r="H26" s="101"/>
+    </row>
+    <row r="27" spans="1:8" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="125"/>
       <c r="B27" s="45" t="s">
         <v>37</v>
       </c>
       <c r="C27" s="27">
         <v>0</v>
       </c>
-      <c r="D27" s="136"/>
+      <c r="D27" s="102"/>
       <c r="E27" s="27">
         <v>0</v>
       </c>
-      <c r="F27" s="136"/>
+      <c r="F27" s="102"/>
       <c r="G27" s="27">
         <v>0</v>
       </c>
-      <c r="H27" s="136"/>
-      <c r="I27" s="27">
-        <v>0</v>
-      </c>
-      <c r="J27" s="136"/>
-    </row>
-    <row r="28" spans="1:10" s="39" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="127" t="s">
+      <c r="H27" s="102"/>
+    </row>
+    <row r="28" spans="1:8" s="39" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="126" t="s">
         <v>76</v>
       </c>
-      <c r="B28" s="128"/>
+      <c r="B28" s="127"/>
       <c r="C28" s="38">
         <v>0</v>
       </c>
@@ -4456,106 +4314,56 @@
         <f>G28*0.5+1</f>
         <v>1</v>
       </c>
-      <c r="I28" s="38">
-        <v>0</v>
-      </c>
-      <c r="J28" s="44">
-        <f>I28*0.5+1</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="123" t="s">
+    </row>
+    <row r="29" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="117" t="s">
         <v>54</v>
       </c>
-      <c r="B29" s="124"/>
-      <c r="C29" s="137">
+      <c r="B29" s="118"/>
+      <c r="C29" s="103">
         <f>D2*D3*D4*D9*D10*D12*D16*D18*D20*D23/D24/D25*D28</f>
-        <v>13195.467999999999</v>
-      </c>
-      <c r="D29" s="138"/>
-      <c r="E29" s="137">
+        <v>34218.240000000005</v>
+      </c>
+      <c r="D29" s="104"/>
+      <c r="E29" s="103">
         <f>F2*F3*F4*F9*F10*F12*F16*F18*F20*F23/F24/F25*F28</f>
-        <v>198.90994499999999</v>
-      </c>
-      <c r="F29" s="138"/>
-      <c r="G29" s="137">
+        <v>41967.381825000004</v>
+      </c>
+      <c r="F29" s="104"/>
+      <c r="G29" s="103">
         <f>H2*H3*H4*H9*H10*H12*H16*H18*H20*H23/H24/H25*H28</f>
-        <v>176.0265</v>
-      </c>
-      <c r="H29" s="138"/>
-      <c r="I29" s="137">
-        <f>J2*J3*J4*J9*J10*J12*J16*J18*J20*J23/J24/J25*J28</f>
-        <v>8097.2190000000001</v>
-      </c>
-      <c r="J29" s="138"/>
-    </row>
-    <row r="30" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>45637.368918750006</v>
+      </c>
+      <c r="H29" s="104"/>
+    </row>
+    <row r="30" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C30" s="20" t="s">
         <v>138</v>
       </c>
       <c r="D30" s="20">
-        <v>124889</v>
+        <v>36488</v>
       </c>
       <c r="E30" s="20" t="s">
         <v>138</v>
       </c>
       <c r="F30" s="20">
-        <v>124889</v>
+        <v>38700</v>
       </c>
       <c r="G30" s="20" t="s">
         <v>138</v>
       </c>
       <c r="H30" s="20">
-        <v>124889</v>
-      </c>
-      <c r="I30" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="J30" s="20">
-        <v>124889</v>
+        <v>38700</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="51">
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="F20:F22"/>
-    <mergeCell ref="F25:F27"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="H12:H15"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="H20:H22"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="F4:F8"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="F12:F15"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="D12:D15"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="D25:D27"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="J20:J22"/>
-    <mergeCell ref="J25:J27"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="H4:H8"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="J4:J8"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="J12:J15"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="H25:H27"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="A28:B28"/>
+  <mergeCells count="42">
+    <mergeCell ref="D4:D8"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C1:D1"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="A12:A15"/>
@@ -4563,12 +4371,35 @@
     <mergeCell ref="A4:A8"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="D4:D8"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="D12:D15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="H20:H22"/>
+    <mergeCell ref="H25:H27"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="H4:H8"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="H12:H15"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="F20:F22"/>
+    <mergeCell ref="F25:F27"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F4:F8"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="F12:F15"/>
+    <mergeCell ref="F16:F17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Brainstorm.xlsx
+++ b/Brainstorm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Personal@SSD\Game\DL\dragalia-data-track\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D54DC90-750E-4024-9DA6-9983A9C5CE7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9E96CDD-C4A6-4304-899F-478B3BB569F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{4CFB4A6A-60C6-4091-BCA5-480044B61D33}"/>
+    <workbookView xWindow="4560" yWindow="4125" windowWidth="21600" windowHeight="11385" xr2:uid="{4CFB4A6A-60C6-4091-BCA5-480044B61D33}"/>
   </bookViews>
   <sheets>
     <sheet name="Rotation" sheetId="8" r:id="rId1"/>
@@ -1406,6 +1406,129 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="4" fontId="5" fillId="23" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="23" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="23" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="28" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="28" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="21" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="21" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="30" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="30" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="30" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="32" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="32" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="4" fontId="5" fillId="35" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1428,129 +1551,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="23" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="23" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="23" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="23" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="28" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="28" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="30" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="30" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="30" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="32" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="32" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="21" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="21" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1905,8 +1905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B260D6A6-975E-4594-902D-33C279C7CA35}">
   <dimension ref="A1:Y13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T3" sqref="T3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2097,14 +2097,14 @@
         <v>77</v>
       </c>
       <c r="T3" s="13" t="s">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="U3" s="68" t="s">
         <v>102</v>
       </c>
       <c r="V3" s="69">
         <f>MOD(T6, V2)</f>
-        <v>890</v>
+        <v>340</v>
       </c>
       <c r="W3" s="57" t="s">
         <v>39</v>
@@ -2183,14 +2183,14 @@
         <v>97</v>
       </c>
       <c r="T4" s="13">
-        <v>2490</v>
+        <v>3540</v>
       </c>
       <c r="U4" s="68" t="s">
         <v>103</v>
       </c>
       <c r="V4" s="69">
         <f>MOD(T7, V2)</f>
-        <v>1109</v>
+        <v>1217</v>
       </c>
       <c r="W4" s="57" t="s">
         <v>105</v>
@@ -2269,21 +2269,21 @@
         <v>99</v>
       </c>
       <c r="T5" s="13">
-        <v>5909</v>
+        <v>6017</v>
       </c>
       <c r="U5" s="70" t="s">
         <v>100</v>
       </c>
       <c r="V5" s="71" t="str" cm="1">
         <f t="array" ref="V5">(ROUNDDOWN(T6/V2, 0) + IF(X8,1,0)) &amp; _xlfn.IFS(X3, " + FS", X4, " + C1", X5, " + C2", X6, " + C3", X7, " + C4", TRUE, "")</f>
-        <v>1 + C4</v>
+        <v>2 + C2</v>
       </c>
       <c r="W5" s="57" t="s">
         <v>106</v>
       </c>
       <c r="X5" s="57" t="b">
         <f>AND(V3&gt;VLOOKUP($T$3,$H$3:$M$13,2,FALSE),V3&lt;=VLOOKUP($T$3,$H$3:$M$13,3,FALSE))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y5" s="57" t="b">
         <f>AND(V4&gt;=VLOOKUP($T$3,$H$3:$M$13,2,FALSE),V4&lt;VLOOKUP($T$3,$H$3:$M$13,3,FALSE))</f>
@@ -2344,7 +2344,7 @@
       </c>
       <c r="T6" s="76">
         <f>T4 * (1 - SUM(P:P))</f>
-        <v>2490</v>
+        <v>3540</v>
       </c>
       <c r="U6" s="77" t="s">
         <v>101</v>
@@ -2419,14 +2419,14 @@
       </c>
       <c r="T7" s="76">
         <f>T5 * (1 - SUM(P:P))</f>
-        <v>5909</v>
+        <v>6017</v>
       </c>
       <c r="W7" s="57" t="s">
         <v>108</v>
       </c>
       <c r="X7" s="57" t="b">
         <f>AND(V3 &gt; VLOOKUP($T$3,$H$3:$M$13,4,FALSE),V3 &lt;= VLOOKUP($T$3,$H$3:$M$13,5,FALSE))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y7" s="57" t="b">
         <f>AND(V4 &gt; VLOOKUP($T$3,$H$3:$M$13,4,FALSE),V4 &lt;= VLOOKUP($T$3,$H$3:$M$13,5,FALSE))</f>
@@ -3659,7 +3659,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEFF6CA3-18A6-4987-88AD-5768B35D8A0C}">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="G7" sqref="G7"/>
     </sheetView>
@@ -3678,28 +3678,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="142" t="s">
+      <c r="A1" s="100" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="143"/>
-      <c r="C1" s="105" t="s">
+      <c r="B1" s="101"/>
+      <c r="C1" s="104" t="s">
         <v>146</v>
       </c>
-      <c r="D1" s="106"/>
-      <c r="E1" s="105" t="s">
+      <c r="D1" s="105"/>
+      <c r="E1" s="104" t="s">
         <v>147</v>
       </c>
-      <c r="F1" s="106"/>
-      <c r="G1" s="105" t="s">
+      <c r="F1" s="105"/>
+      <c r="G1" s="104" t="s">
         <v>145</v>
       </c>
-      <c r="H1" s="106"/>
+      <c r="H1" s="105"/>
     </row>
     <row r="2" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="119" t="s">
+      <c r="A2" s="102" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="120"/>
+      <c r="B2" s="103"/>
       <c r="C2" s="21">
         <f>5/3</f>
         <v>1.6666666666666667</v>
@@ -3726,10 +3726,10 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="119" t="s">
+      <c r="A3" s="102" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="120"/>
+      <c r="B3" s="103"/>
       <c r="C3" s="21">
         <v>0</v>
       </c>
@@ -3753,7 +3753,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="123" t="s">
+      <c r="A4" s="116" t="s">
         <v>60</v>
       </c>
       <c r="B4" s="45" t="s">
@@ -3762,102 +3762,102 @@
       <c r="C4" s="24">
         <v>5092</v>
       </c>
-      <c r="D4" s="107">
+      <c r="D4" s="95">
         <f>(C4/(1+C5)*(1+C5+C6)*(1+C7)*(1+C8))</f>
         <v>5092</v>
       </c>
       <c r="E4" s="24">
         <v>4353</v>
       </c>
-      <c r="F4" s="107">
+      <c r="F4" s="95">
         <f>(E4/(1+E5)*(1+E5+E6)*(1+E7)*(1+E8))</f>
         <v>5005.95</v>
       </c>
       <c r="G4" s="24">
         <v>4353</v>
       </c>
-      <c r="H4" s="107">
+      <c r="H4" s="95">
         <f>(G4/(1+G5)*(1+G5+G6)*(1+G7)*(1+G8))</f>
         <v>5005.95</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="124"/>
+      <c r="A5" s="117"/>
       <c r="B5" s="45" t="s">
         <v>44</v>
       </c>
       <c r="C5" s="26">
         <v>0</v>
       </c>
-      <c r="D5" s="108"/>
+      <c r="D5" s="96"/>
       <c r="E5" s="26">
         <v>0</v>
       </c>
-      <c r="F5" s="108"/>
+      <c r="F5" s="96"/>
       <c r="G5" s="26">
         <v>0</v>
       </c>
-      <c r="H5" s="108"/>
+      <c r="H5" s="96"/>
     </row>
     <row r="6" spans="1:8" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="124"/>
+      <c r="A6" s="117"/>
       <c r="B6" s="45" t="s">
         <v>45</v>
       </c>
       <c r="C6" s="27">
         <v>0</v>
       </c>
-      <c r="D6" s="108"/>
+      <c r="D6" s="96"/>
       <c r="E6" s="27">
         <v>0</v>
       </c>
-      <c r="F6" s="108"/>
+      <c r="F6" s="96"/>
       <c r="G6" s="27">
         <v>0</v>
       </c>
-      <c r="H6" s="108"/>
+      <c r="H6" s="96"/>
     </row>
     <row r="7" spans="1:8" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="124"/>
+      <c r="A7" s="117"/>
       <c r="B7" s="45" t="s">
         <v>56</v>
       </c>
       <c r="C7" s="27">
         <v>0</v>
       </c>
-      <c r="D7" s="108"/>
+      <c r="D7" s="96"/>
       <c r="E7" s="27">
         <v>0.15</v>
       </c>
-      <c r="F7" s="108"/>
+      <c r="F7" s="96"/>
       <c r="G7" s="27">
         <v>0.15</v>
       </c>
-      <c r="H7" s="108"/>
+      <c r="H7" s="96"/>
     </row>
     <row r="8" spans="1:8" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="125"/>
+      <c r="A8" s="118"/>
       <c r="B8" s="45" t="s">
         <v>57</v>
       </c>
       <c r="C8" s="27">
         <v>0</v>
       </c>
-      <c r="D8" s="109"/>
+      <c r="D8" s="97"/>
       <c r="E8" s="27">
         <v>0</v>
       </c>
-      <c r="F8" s="109"/>
+      <c r="F8" s="97"/>
       <c r="G8" s="27">
         <v>0</v>
       </c>
-      <c r="H8" s="109"/>
+      <c r="H8" s="97"/>
     </row>
     <row r="9" spans="1:8" s="30" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="138" t="s">
+      <c r="A9" s="119" t="s">
         <v>46</v>
       </c>
-      <c r="B9" s="139"/>
+      <c r="B9" s="120"/>
       <c r="C9" s="28">
         <v>22.4</v>
       </c>
@@ -3881,7 +3881,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" s="32" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="140" t="s">
+      <c r="A10" s="121" t="s">
         <v>62</v>
       </c>
       <c r="B10" s="46" t="s">
@@ -3890,45 +3890,45 @@
       <c r="C10" s="31">
         <v>0</v>
       </c>
-      <c r="D10" s="110">
+      <c r="D10" s="98">
         <f>1+((0.7+C11)*C10)</f>
         <v>1</v>
       </c>
       <c r="E10" s="31">
         <v>0</v>
       </c>
-      <c r="F10" s="110">
+      <c r="F10" s="98">
         <f>1+((0.7+E11)*E10)</f>
         <v>1</v>
       </c>
       <c r="G10" s="31">
         <v>0</v>
       </c>
-      <c r="H10" s="110">
+      <c r="H10" s="98">
         <f>1+((0.7+G11)*G10)</f>
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="32" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="141"/>
+      <c r="A11" s="122"/>
       <c r="B11" s="46" t="s">
         <v>42</v>
       </c>
       <c r="C11" s="33">
         <v>0</v>
       </c>
-      <c r="D11" s="111"/>
+      <c r="D11" s="99"/>
       <c r="E11" s="33">
         <v>0</v>
       </c>
-      <c r="F11" s="111"/>
+      <c r="F11" s="99"/>
       <c r="G11" s="33">
         <v>0</v>
       </c>
-      <c r="H11" s="111"/>
+      <c r="H11" s="99"/>
     </row>
     <row r="12" spans="1:8" s="35" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="133" t="s">
+      <c r="A12" s="111" t="s">
         <v>64</v>
       </c>
       <c r="B12" s="47" t="s">
@@ -3937,81 +3937,81 @@
       <c r="C12" s="34">
         <v>0.2</v>
       </c>
-      <c r="D12" s="112">
+      <c r="D12" s="131">
         <f>(1+C12+C13)*(1+C14)*(1+C15)</f>
         <v>1.2</v>
       </c>
       <c r="E12" s="34">
         <v>0</v>
       </c>
-      <c r="F12" s="112">
+      <c r="F12" s="131">
         <f>(1+E12+E13)*(1+E14)*(1+E15)</f>
         <v>1.1499999999999999</v>
       </c>
       <c r="G12" s="34">
         <v>0</v>
       </c>
-      <c r="H12" s="112">
+      <c r="H12" s="131">
         <f>(1+G12+G13)*(1+G14)*(1+G15)</f>
         <v>1.1499999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="35" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="134"/>
+      <c r="A13" s="112"/>
       <c r="B13" s="47" t="s">
         <v>48</v>
       </c>
       <c r="C13" s="34">
         <v>0</v>
       </c>
-      <c r="D13" s="113"/>
+      <c r="D13" s="132"/>
       <c r="E13" s="34">
         <v>0</v>
       </c>
-      <c r="F13" s="113"/>
+      <c r="F13" s="132"/>
       <c r="G13" s="34">
         <v>0</v>
       </c>
-      <c r="H13" s="113"/>
+      <c r="H13" s="132"/>
     </row>
     <row r="14" spans="1:8" s="35" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="134"/>
+      <c r="A14" s="112"/>
       <c r="B14" s="47" t="s">
         <v>69</v>
       </c>
       <c r="C14" s="34">
         <v>0</v>
       </c>
-      <c r="D14" s="113"/>
+      <c r="D14" s="132"/>
       <c r="E14" s="34">
         <v>0.15</v>
       </c>
-      <c r="F14" s="113"/>
+      <c r="F14" s="132"/>
       <c r="G14" s="34">
         <v>0.15</v>
       </c>
-      <c r="H14" s="113"/>
+      <c r="H14" s="132"/>
     </row>
     <row r="15" spans="1:8" s="35" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="135"/>
+      <c r="A15" s="113"/>
       <c r="B15" s="47" t="s">
         <v>70</v>
       </c>
       <c r="C15" s="34">
         <v>0</v>
       </c>
-      <c r="D15" s="114"/>
+      <c r="D15" s="133"/>
       <c r="E15" s="34">
         <v>0</v>
       </c>
-      <c r="F15" s="114"/>
+      <c r="F15" s="133"/>
       <c r="G15" s="34">
         <v>0</v>
       </c>
-      <c r="H15" s="114"/>
+      <c r="H15" s="133"/>
     </row>
     <row r="16" spans="1:8" s="37" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="136" t="s">
+      <c r="A16" s="114" t="s">
         <v>65</v>
       </c>
       <c r="B16" s="48" t="s">
@@ -4020,45 +4020,45 @@
       <c r="C16" s="36">
         <v>0</v>
       </c>
-      <c r="D16" s="115">
+      <c r="D16" s="134">
         <f>(1+C16)*(1+C17)</f>
         <v>1</v>
       </c>
       <c r="E16" s="36">
         <v>0</v>
       </c>
-      <c r="F16" s="115">
+      <c r="F16" s="134">
         <f>(1+E16)*(1+E17)</f>
         <v>1</v>
       </c>
       <c r="G16" s="36">
         <v>0</v>
       </c>
-      <c r="H16" s="115">
+      <c r="H16" s="134">
         <f>(1+G16)*(1+G17)</f>
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="37" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="137"/>
+      <c r="A17" s="115"/>
       <c r="B17" s="48" t="s">
         <v>49</v>
       </c>
       <c r="C17" s="36">
         <v>0</v>
       </c>
-      <c r="D17" s="116"/>
+      <c r="D17" s="135"/>
       <c r="E17" s="36">
         <v>0</v>
       </c>
-      <c r="F17" s="116"/>
+      <c r="F17" s="135"/>
       <c r="G17" s="36">
         <v>0</v>
       </c>
-      <c r="H17" s="116"/>
+      <c r="H17" s="135"/>
     </row>
     <row r="18" spans="1:8" s="39" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="128" t="s">
+      <c r="A18" s="106" t="s">
         <v>66</v>
       </c>
       <c r="B18" s="49" t="s">
@@ -4067,45 +4067,45 @@
       <c r="C18" s="38">
         <v>1.5</v>
       </c>
-      <c r="D18" s="95">
+      <c r="D18" s="136">
         <f>C18+C19</f>
         <v>1.5</v>
       </c>
       <c r="E18" s="38">
         <v>1.5</v>
       </c>
-      <c r="F18" s="95">
+      <c r="F18" s="136">
         <f>E18+E19</f>
         <v>1.5</v>
       </c>
       <c r="G18" s="38">
         <v>1.5</v>
       </c>
-      <c r="H18" s="95">
+      <c r="H18" s="136">
         <f>G18+G19</f>
         <v>1.5</v>
       </c>
     </row>
     <row r="19" spans="1:8" s="39" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="129"/>
+      <c r="A19" s="107"/>
       <c r="B19" s="49" t="s">
         <v>59</v>
       </c>
       <c r="C19" s="40">
         <v>0</v>
       </c>
-      <c r="D19" s="96"/>
+      <c r="D19" s="137"/>
       <c r="E19" s="40">
         <v>0</v>
       </c>
-      <c r="F19" s="96"/>
+      <c r="F19" s="137"/>
       <c r="G19" s="40">
         <v>0</v>
       </c>
-      <c r="H19" s="96"/>
+      <c r="H19" s="137"/>
     </row>
     <row r="20" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="130" t="s">
+      <c r="A20" s="108" t="s">
         <v>72</v>
       </c>
       <c r="B20" s="50" t="s">
@@ -4114,66 +4114,66 @@
       <c r="C20" s="41">
         <v>0</v>
       </c>
-      <c r="D20" s="97">
+      <c r="D20" s="138">
         <f>1+C20*(0.2+C21+C22)</f>
         <v>1</v>
       </c>
       <c r="E20" s="41">
         <v>0</v>
       </c>
-      <c r="F20" s="97">
+      <c r="F20" s="138">
         <f>1+E20*(0.2+E21+E22)</f>
         <v>1</v>
       </c>
       <c r="G20" s="41">
         <v>0</v>
       </c>
-      <c r="H20" s="97">
+      <c r="H20" s="138">
         <f>1+G20*(0.2+G21+G22)</f>
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="131"/>
+      <c r="A21" s="109"/>
       <c r="B21" s="50" t="s">
         <v>50</v>
       </c>
       <c r="C21" s="41">
         <v>0.5</v>
       </c>
-      <c r="D21" s="98"/>
+      <c r="D21" s="139"/>
       <c r="E21" s="41">
         <v>0.5</v>
       </c>
-      <c r="F21" s="98"/>
+      <c r="F21" s="139"/>
       <c r="G21" s="41">
         <v>0.5</v>
       </c>
-      <c r="H21" s="98"/>
+      <c r="H21" s="139"/>
     </row>
     <row r="22" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="132"/>
+      <c r="A22" s="110"/>
       <c r="B22" s="50" t="s">
         <v>51</v>
       </c>
       <c r="C22" s="41">
         <v>0</v>
       </c>
-      <c r="D22" s="99"/>
+      <c r="D22" s="140"/>
       <c r="E22" s="41">
         <v>0</v>
       </c>
-      <c r="F22" s="99"/>
+      <c r="F22" s="140"/>
       <c r="G22" s="41">
         <v>0</v>
       </c>
-      <c r="H22" s="99"/>
+      <c r="H22" s="140"/>
     </row>
     <row r="23" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="119" t="s">
+      <c r="A23" s="102" t="s">
         <v>73</v>
       </c>
-      <c r="B23" s="120"/>
+      <c r="B23" s="103"/>
       <c r="C23" s="21">
         <v>1</v>
       </c>
@@ -4197,10 +4197,10 @@
       </c>
     </row>
     <row r="24" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="121" t="s">
+      <c r="A24" s="125" t="s">
         <v>52</v>
       </c>
-      <c r="B24" s="122"/>
+      <c r="B24" s="126"/>
       <c r="C24" s="41">
         <v>10</v>
       </c>
@@ -4224,7 +4224,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="123" t="s">
+      <c r="A25" s="116" t="s">
         <v>53</v>
       </c>
       <c r="B25" s="45" t="s">
@@ -4233,66 +4233,66 @@
       <c r="C25" s="24">
         <v>0</v>
       </c>
-      <c r="D25" s="100">
+      <c r="D25" s="141">
         <f>(1-(1-C26)*C25)*(1-C27)</f>
         <v>1</v>
       </c>
       <c r="E25" s="24">
         <v>0</v>
       </c>
-      <c r="F25" s="100">
+      <c r="F25" s="141">
         <f>(1-(1-E26)*E25)*(1-E27)</f>
         <v>1</v>
       </c>
       <c r="G25" s="24">
         <v>0</v>
       </c>
-      <c r="H25" s="100">
+      <c r="H25" s="141">
         <f>(1-(1-G26)*G25)*(1-G27)</f>
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:8" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="124"/>
+      <c r="A26" s="117"/>
       <c r="B26" s="45" t="s">
         <v>74</v>
       </c>
       <c r="C26" s="24">
         <v>0.6</v>
       </c>
-      <c r="D26" s="101"/>
+      <c r="D26" s="142"/>
       <c r="E26" s="24">
         <v>0.6</v>
       </c>
-      <c r="F26" s="101"/>
+      <c r="F26" s="142"/>
       <c r="G26" s="24">
         <v>0.6</v>
       </c>
-      <c r="H26" s="101"/>
+      <c r="H26" s="142"/>
     </row>
     <row r="27" spans="1:8" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="125"/>
+      <c r="A27" s="118"/>
       <c r="B27" s="45" t="s">
         <v>37</v>
       </c>
       <c r="C27" s="27">
         <v>0</v>
       </c>
-      <c r="D27" s="102"/>
+      <c r="D27" s="143"/>
       <c r="E27" s="27">
         <v>0</v>
       </c>
-      <c r="F27" s="102"/>
+      <c r="F27" s="143"/>
       <c r="G27" s="27">
         <v>0</v>
       </c>
-      <c r="H27" s="102"/>
+      <c r="H27" s="143"/>
     </row>
     <row r="28" spans="1:8" s="39" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="126" t="s">
+      <c r="A28" s="127" t="s">
         <v>76</v>
       </c>
-      <c r="B28" s="127"/>
+      <c r="B28" s="128"/>
       <c r="C28" s="38">
         <v>0</v>
       </c>
@@ -4316,25 +4316,25 @@
       </c>
     </row>
     <row r="29" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="117" t="s">
+      <c r="A29" s="123" t="s">
         <v>54</v>
       </c>
-      <c r="B29" s="118"/>
-      <c r="C29" s="103">
+      <c r="B29" s="124"/>
+      <c r="C29" s="129">
         <f>D2*D3*D4*D9*D10*D12*D16*D18*D20*D23/D24/D25*D28</f>
         <v>34218.240000000005</v>
       </c>
-      <c r="D29" s="104"/>
-      <c r="E29" s="103">
+      <c r="D29" s="130"/>
+      <c r="E29" s="129">
         <f>F2*F3*F4*F9*F10*F12*F16*F18*F20*F23/F24/F25*F28</f>
         <v>41967.381825000004</v>
       </c>
-      <c r="F29" s="104"/>
-      <c r="G29" s="103">
+      <c r="F29" s="130"/>
+      <c r="G29" s="129">
         <f>H2*H3*H4*H9*H10*H12*H16*H18*H20*H23/H24/H25*H28</f>
         <v>45637.368918750006</v>
       </c>
-      <c r="H29" s="104"/>
+      <c r="H29" s="130"/>
     </row>
     <row r="30" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C30" s="20" t="s">
@@ -4358,30 +4358,15 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="D4:D8"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="D12:D15"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="F20:F22"/>
+    <mergeCell ref="F25:F27"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F4:F8"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="F12:F15"/>
+    <mergeCell ref="F16:F17"/>
     <mergeCell ref="H18:H19"/>
     <mergeCell ref="H20:H22"/>
     <mergeCell ref="H25:H27"/>
@@ -4391,15 +4376,30 @@
     <mergeCell ref="H10:H11"/>
     <mergeCell ref="H12:H15"/>
     <mergeCell ref="H16:H17"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="F20:F22"/>
-    <mergeCell ref="F25:F27"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="F4:F8"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="F12:F15"/>
-    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="D12:D15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="D4:D8"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Brainstorm.xlsx
+++ b/Brainstorm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Personal@SSD\Game\DL\dragalia-data-track\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9E96CDD-C4A6-4304-899F-478B3BB569F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C314814-4CE2-4D58-9A46-48B312E5A902}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4560" yWindow="4125" windowWidth="21600" windowHeight="11385" xr2:uid="{4CFB4A6A-60C6-4091-BCA5-480044B61D33}"/>
+    <workbookView xWindow="3045" yWindow="1710" windowWidth="21600" windowHeight="14115" xr2:uid="{4CFB4A6A-60C6-4091-BCA5-480044B61D33}"/>
   </bookViews>
   <sheets>
     <sheet name="Rotation" sheetId="8" r:id="rId1"/>
@@ -1905,8 +1905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B260D6A6-975E-4594-902D-33C279C7CA35}">
   <dimension ref="A1:Y13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T3" sqref="T3"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="U15" sqref="U15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2097,14 +2097,14 @@
         <v>77</v>
       </c>
       <c r="T3" s="13" t="s">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="U3" s="68" t="s">
         <v>102</v>
       </c>
       <c r="V3" s="69">
         <f>MOD(T6, V2)</f>
-        <v>340</v>
+        <v>600</v>
       </c>
       <c r="W3" s="57" t="s">
         <v>39</v>
@@ -2183,7 +2183,7 @@
         <v>97</v>
       </c>
       <c r="T4" s="13">
-        <v>3540</v>
+        <v>7000</v>
       </c>
       <c r="U4" s="68" t="s">
         <v>103</v>
@@ -2276,14 +2276,14 @@
       </c>
       <c r="V5" s="71" t="str" cm="1">
         <f t="array" ref="V5">(ROUNDDOWN(T6/V2, 0) + IF(X8,1,0)) &amp; _xlfn.IFS(X3, " + FS", X4, " + C1", X5, " + C2", X6, " + C3", X7, " + C4", TRUE, "")</f>
-        <v>2 + C2</v>
+        <v>4 + C4</v>
       </c>
       <c r="W5" s="57" t="s">
         <v>106</v>
       </c>
       <c r="X5" s="57" t="b">
         <f>AND(V3&gt;VLOOKUP($T$3,$H$3:$M$13,2,FALSE),V3&lt;=VLOOKUP($T$3,$H$3:$M$13,3,FALSE))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y5" s="57" t="b">
         <f>AND(V4&gt;=VLOOKUP($T$3,$H$3:$M$13,2,FALSE),V4&lt;VLOOKUP($T$3,$H$3:$M$13,3,FALSE))</f>
@@ -2344,7 +2344,7 @@
       </c>
       <c r="T6" s="76">
         <f>T4 * (1 - SUM(P:P))</f>
-        <v>3540</v>
+        <v>7000</v>
       </c>
       <c r="U6" s="77" t="s">
         <v>101</v>
@@ -2426,7 +2426,7 @@
       </c>
       <c r="X7" s="57" t="b">
         <f>AND(V3 &gt; VLOOKUP($T$3,$H$3:$M$13,4,FALSE),V3 &lt;= VLOOKUP($T$3,$H$3:$M$13,5,FALSE))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y7" s="57" t="b">
         <f>AND(V4 &gt; VLOOKUP($T$3,$H$3:$M$13,4,FALSE),V4 &lt;= VLOOKUP($T$3,$H$3:$M$13,5,FALSE))</f>
@@ -3659,9 +3659,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEFF6CA3-18A6-4987-88AD-5768B35D8A0C}">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G7" sqref="G7"/>
+      <selection pane="topRight" activeCell="H28" sqref="G28:H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3669,7 +3669,7 @@
     <col min="1" max="1" width="9.140625" style="51"/>
     <col min="2" max="2" width="19" style="52" customWidth="1"/>
     <col min="3" max="3" width="9.140625" style="20"/>
-    <col min="4" max="4" width="11.28515625" style="20" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" style="20" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="20"/>
     <col min="6" max="6" width="11.28515625" style="20" customWidth="1"/>
     <col min="7" max="7" width="9.140625" style="20"/>
@@ -3760,11 +3760,11 @@
         <v>63</v>
       </c>
       <c r="C4" s="24">
-        <v>5092</v>
+        <v>6438</v>
       </c>
       <c r="D4" s="95">
         <f>(C4/(1+C5)*(1+C5+C6)*(1+C7)*(1+C8))</f>
-        <v>5092</v>
+        <v>25239.535199999998</v>
       </c>
       <c r="E4" s="24">
         <v>4353</v>
@@ -3805,7 +3805,7 @@
         <v>45</v>
       </c>
       <c r="C6" s="27">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="D6" s="96"/>
       <c r="E6" s="27">
@@ -3823,7 +3823,7 @@
         <v>56</v>
       </c>
       <c r="C7" s="27">
-        <v>0</v>
+        <v>1.97</v>
       </c>
       <c r="D7" s="96"/>
       <c r="E7" s="27">
@@ -3841,7 +3841,7 @@
         <v>57</v>
       </c>
       <c r="C8" s="27">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="D8" s="97"/>
       <c r="E8" s="27">
@@ -3859,11 +3859,11 @@
       </c>
       <c r="B9" s="120"/>
       <c r="C9" s="28">
-        <v>22.4</v>
+        <v>45.45</v>
       </c>
       <c r="D9" s="29">
         <f>C9</f>
-        <v>22.4</v>
+        <v>45.45</v>
       </c>
       <c r="E9" s="28">
         <v>29.16</v>
@@ -3888,11 +3888,11 @@
         <v>68</v>
       </c>
       <c r="C10" s="31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" s="98">
         <f>1+((0.7+C11)*C10)</f>
-        <v>1</v>
+        <v>3.4</v>
       </c>
       <c r="E10" s="31">
         <v>0</v>
@@ -3915,7 +3915,7 @@
         <v>42</v>
       </c>
       <c r="C11" s="33">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="D11" s="99"/>
       <c r="E11" s="33">
@@ -3935,11 +3935,11 @@
         <v>47</v>
       </c>
       <c r="C12" s="34">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="D12" s="131">
         <f>(1+C12+C13)*(1+C14)*(1+C15)</f>
-        <v>1.2</v>
+        <v>6.5549999999999988</v>
       </c>
       <c r="E12" s="34">
         <v>0</v>
@@ -3962,7 +3962,7 @@
         <v>48</v>
       </c>
       <c r="C13" s="34">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D13" s="132"/>
       <c r="E13" s="34">
@@ -3980,7 +3980,7 @@
         <v>69</v>
       </c>
       <c r="C14" s="34">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="D14" s="132"/>
       <c r="E14" s="34">
@@ -3998,7 +3998,7 @@
         <v>70</v>
       </c>
       <c r="C15" s="34">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D15" s="133"/>
       <c r="E15" s="34">
@@ -4018,11 +4018,11 @@
         <v>58</v>
       </c>
       <c r="C16" s="36">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="D16" s="134">
         <f>(1+C16)*(1+C17)</f>
-        <v>1</v>
+        <v>1.7999999999999998</v>
       </c>
       <c r="E16" s="36">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>49</v>
       </c>
       <c r="C17" s="36">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D17" s="135"/>
       <c r="E17" s="36">
@@ -4065,11 +4065,11 @@
         <v>67</v>
       </c>
       <c r="C18" s="38">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="D18" s="136">
         <f>C18+C19</f>
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="E18" s="38">
         <v>1.5</v>
@@ -4175,11 +4175,11 @@
       </c>
       <c r="B23" s="103"/>
       <c r="C23" s="21">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="D23" s="23">
         <f>C23</f>
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="E23" s="21">
         <v>1</v>
@@ -4231,11 +4231,11 @@
         <v>75</v>
       </c>
       <c r="C25" s="24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" s="141">
         <f>(1-(1-C26)*C25)*(1-C27)</f>
-        <v>1</v>
+        <v>0.55999999999999994</v>
       </c>
       <c r="E25" s="24">
         <v>0</v>
@@ -4258,7 +4258,7 @@
         <v>74</v>
       </c>
       <c r="C26" s="24">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="D26" s="142"/>
       <c r="E26" s="24">
@@ -4276,7 +4276,7 @@
         <v>37</v>
       </c>
       <c r="C27" s="27">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="D27" s="143"/>
       <c r="E27" s="27">
@@ -4294,11 +4294,11 @@
       </c>
       <c r="B28" s="128"/>
       <c r="C28" s="38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28" s="44">
         <f>C28*0.5+1</f>
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="E28" s="38">
         <v>0</v>
@@ -4322,7 +4322,7 @@
       <c r="B29" s="124"/>
       <c r="C29" s="129">
         <f>D2*D3*D4*D9*D10*D12*D16*D18*D20*D23/D24/D25*D28</f>
-        <v>34218.240000000005</v>
+        <v>36671574.825211301</v>
       </c>
       <c r="D29" s="130"/>
       <c r="E29" s="129">

--- a/Brainstorm.xlsx
+++ b/Brainstorm.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Personal@SSD\Game\DL\dragalia-data-track\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C314814-4CE2-4D58-9A46-48B312E5A902}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBD9FA85-D298-480E-89DA-82436C6F6803}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3045" yWindow="1710" windowWidth="21600" windowHeight="14115" xr2:uid="{4CFB4A6A-60C6-4091-BCA5-480044B61D33}"/>
+    <workbookView xWindow="6390" yWindow="1410" windowWidth="21600" windowHeight="13950" xr2:uid="{4CFB4A6A-60C6-4091-BCA5-480044B61D33}"/>
   </bookViews>
   <sheets>
     <sheet name="Rotation" sheetId="8" r:id="rId1"/>
@@ -1406,6 +1406,42 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="4" fontId="5" fillId="35" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="35" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="4" fontId="5" fillId="23" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1421,136 +1457,100 @@
     <xf numFmtId="4" fontId="5" fillId="28" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="4" fontId="5" fillId="30" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="30" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="30" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="32" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="32" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="21" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="21" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="21" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="21" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="30" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="30" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="30" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="32" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="32" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="35" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="35" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1905,8 +1905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B260D6A6-975E-4594-902D-33C279C7CA35}">
   <dimension ref="A1:Y13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="U15" sqref="U15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2023,7 +2023,7 @@
       </c>
       <c r="V2" s="69">
         <f>VLOOKUP(T3,$H$3:$M$13,6,FALSE)</f>
-        <v>1600</v>
+        <v>1560</v>
       </c>
       <c r="X2" s="57" t="s">
         <v>40</v>
@@ -2097,14 +2097,14 @@
         <v>77</v>
       </c>
       <c r="T3" s="13" t="s">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="U3" s="68" t="s">
         <v>102</v>
       </c>
       <c r="V3" s="69">
         <f>MOD(T6, V2)</f>
-        <v>600</v>
+        <v>914</v>
       </c>
       <c r="W3" s="57" t="s">
         <v>39</v>
@@ -2183,14 +2183,14 @@
         <v>97</v>
       </c>
       <c r="T4" s="13">
-        <v>7000</v>
+        <v>8714</v>
       </c>
       <c r="U4" s="68" t="s">
         <v>103</v>
       </c>
       <c r="V4" s="69">
         <f>MOD(T7, V2)</f>
-        <v>1217</v>
+        <v>1394</v>
       </c>
       <c r="W4" s="57" t="s">
         <v>105</v>
@@ -2269,14 +2269,14 @@
         <v>99</v>
       </c>
       <c r="T5" s="13">
-        <v>6017</v>
+        <v>9194</v>
       </c>
       <c r="U5" s="70" t="s">
         <v>100</v>
       </c>
       <c r="V5" s="71" t="str" cm="1">
         <f t="array" ref="V5">(ROUNDDOWN(T6/V2, 0) + IF(X8,1,0)) &amp; _xlfn.IFS(X3, " + FS", X4, " + C1", X5, " + C2", X6, " + C3", X7, " + C4", TRUE, "")</f>
-        <v>4 + C4</v>
+        <v>5 + C4</v>
       </c>
       <c r="W5" s="57" t="s">
         <v>106</v>
@@ -2344,14 +2344,14 @@
       </c>
       <c r="T6" s="76">
         <f>T4 * (1 - SUM(P:P))</f>
-        <v>7000</v>
+        <v>8714</v>
       </c>
       <c r="U6" s="77" t="s">
         <v>101</v>
       </c>
       <c r="V6" s="71" t="str" cm="1">
         <f t="array" ref="V6">(ROUNDDOWN(T7/V2, 0) + IF(Y8,1,0)) &amp; _xlfn.IFS(Y3, " + FS", Y4, " + C1", Y5, " + C2", Y6, " + C3", Y7, " + C4", TRUE, "")</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="W6" s="57" t="s">
         <v>107</v>
@@ -2419,7 +2419,7 @@
       </c>
       <c r="T7" s="76">
         <f>T5 * (1 - SUM(P:P))</f>
-        <v>6017</v>
+        <v>9194</v>
       </c>
       <c r="W7" s="57" t="s">
         <v>108</v>
@@ -3360,7 +3360,7 @@
   <dimension ref="A1:X14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R16" sqref="R16"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3659,9 +3659,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEFF6CA3-18A6-4987-88AD-5768B35D8A0C}">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H28" sqref="G28:H28"/>
+      <selection pane="topRight" activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3678,28 +3678,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="142" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="104" t="s">
+      <c r="B1" s="143"/>
+      <c r="C1" s="105" t="s">
         <v>146</v>
       </c>
-      <c r="D1" s="105"/>
-      <c r="E1" s="104" t="s">
+      <c r="D1" s="106"/>
+      <c r="E1" s="105" t="s">
         <v>147</v>
       </c>
-      <c r="F1" s="105"/>
-      <c r="G1" s="104" t="s">
+      <c r="F1" s="106"/>
+      <c r="G1" s="105" t="s">
         <v>145</v>
       </c>
-      <c r="H1" s="105"/>
+      <c r="H1" s="106"/>
     </row>
     <row r="2" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="102" t="s">
+      <c r="A2" s="119" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="103"/>
+      <c r="B2" s="120"/>
       <c r="C2" s="21">
         <f>5/3</f>
         <v>1.6666666666666667</v>
@@ -3726,10 +3726,10 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="102" t="s">
+      <c r="A3" s="119" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="103"/>
+      <c r="B3" s="120"/>
       <c r="C3" s="21">
         <v>0</v>
       </c>
@@ -3753,117 +3753,117 @@
       </c>
     </row>
     <row r="4" spans="1:8" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="116" t="s">
+      <c r="A4" s="123" t="s">
         <v>60</v>
       </c>
       <c r="B4" s="45" t="s">
         <v>63</v>
       </c>
       <c r="C4" s="24">
-        <v>6438</v>
-      </c>
-      <c r="D4" s="95">
+        <v>4078</v>
+      </c>
+      <c r="D4" s="107">
         <f>(C4/(1+C5)*(1+C5+C6)*(1+C7)*(1+C8))</f>
-        <v>25239.535199999998</v>
+        <v>4078</v>
       </c>
       <c r="E4" s="24">
         <v>4353</v>
       </c>
-      <c r="F4" s="95">
+      <c r="F4" s="107">
         <f>(E4/(1+E5)*(1+E5+E6)*(1+E7)*(1+E8))</f>
         <v>5005.95</v>
       </c>
       <c r="G4" s="24">
         <v>4353</v>
       </c>
-      <c r="H4" s="95">
+      <c r="H4" s="107">
         <f>(G4/(1+G5)*(1+G5+G6)*(1+G7)*(1+G8))</f>
         <v>5005.95</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="117"/>
+      <c r="A5" s="124"/>
       <c r="B5" s="45" t="s">
         <v>44</v>
       </c>
       <c r="C5" s="26">
         <v>0</v>
       </c>
-      <c r="D5" s="96"/>
+      <c r="D5" s="108"/>
       <c r="E5" s="26">
         <v>0</v>
       </c>
-      <c r="F5" s="96"/>
+      <c r="F5" s="108"/>
       <c r="G5" s="26">
         <v>0</v>
       </c>
-      <c r="H5" s="96"/>
+      <c r="H5" s="108"/>
     </row>
     <row r="6" spans="1:8" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="117"/>
+      <c r="A6" s="124"/>
       <c r="B6" s="45" t="s">
         <v>45</v>
       </c>
       <c r="C6" s="27">
-        <v>0.2</v>
-      </c>
-      <c r="D6" s="96"/>
+        <v>0</v>
+      </c>
+      <c r="D6" s="108"/>
       <c r="E6" s="27">
         <v>0</v>
       </c>
-      <c r="F6" s="96"/>
+      <c r="F6" s="108"/>
       <c r="G6" s="27">
         <v>0</v>
       </c>
-      <c r="H6" s="96"/>
+      <c r="H6" s="108"/>
     </row>
     <row r="7" spans="1:8" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="117"/>
+      <c r="A7" s="124"/>
       <c r="B7" s="45" t="s">
         <v>56</v>
       </c>
       <c r="C7" s="27">
-        <v>1.97</v>
-      </c>
-      <c r="D7" s="96"/>
+        <v>0</v>
+      </c>
+      <c r="D7" s="108"/>
       <c r="E7" s="27">
         <v>0.15</v>
       </c>
-      <c r="F7" s="96"/>
+      <c r="F7" s="108"/>
       <c r="G7" s="27">
         <v>0.15</v>
       </c>
-      <c r="H7" s="96"/>
+      <c r="H7" s="108"/>
     </row>
     <row r="8" spans="1:8" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="118"/>
+      <c r="A8" s="125"/>
       <c r="B8" s="45" t="s">
         <v>57</v>
       </c>
       <c r="C8" s="27">
-        <v>0.1</v>
-      </c>
-      <c r="D8" s="97"/>
+        <v>0</v>
+      </c>
+      <c r="D8" s="109"/>
       <c r="E8" s="27">
         <v>0</v>
       </c>
-      <c r="F8" s="97"/>
+      <c r="F8" s="109"/>
       <c r="G8" s="27">
         <v>0</v>
       </c>
-      <c r="H8" s="97"/>
+      <c r="H8" s="109"/>
     </row>
     <row r="9" spans="1:8" s="30" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="119" t="s">
+      <c r="A9" s="138" t="s">
         <v>46</v>
       </c>
-      <c r="B9" s="120"/>
+      <c r="B9" s="139"/>
       <c r="C9" s="28">
-        <v>45.45</v>
+        <v>16.64</v>
       </c>
       <c r="D9" s="29">
         <f>C9</f>
-        <v>45.45</v>
+        <v>16.64</v>
       </c>
       <c r="E9" s="28">
         <v>29.16</v>
@@ -3881,231 +3881,231 @@
       </c>
     </row>
     <row r="10" spans="1:8" s="32" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="121" t="s">
+      <c r="A10" s="140" t="s">
         <v>62</v>
       </c>
       <c r="B10" s="46" t="s">
         <v>68</v>
       </c>
       <c r="C10" s="31">
+        <v>0</v>
+      </c>
+      <c r="D10" s="110">
+        <f>1+((0.7+C11)*C10)</f>
         <v>1</v>
       </c>
-      <c r="D10" s="98">
-        <f>1+((0.7+C11)*C10)</f>
-        <v>3.4</v>
-      </c>
       <c r="E10" s="31">
         <v>0</v>
       </c>
-      <c r="F10" s="98">
+      <c r="F10" s="110">
         <f>1+((0.7+E11)*E10)</f>
         <v>1</v>
       </c>
       <c r="G10" s="31">
         <v>0</v>
       </c>
-      <c r="H10" s="98">
+      <c r="H10" s="110">
         <f>1+((0.7+G11)*G10)</f>
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="32" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="122"/>
+      <c r="A11" s="141"/>
       <c r="B11" s="46" t="s">
         <v>42</v>
       </c>
       <c r="C11" s="33">
         <v>1.7</v>
       </c>
-      <c r="D11" s="99"/>
+      <c r="D11" s="111"/>
       <c r="E11" s="33">
         <v>0</v>
       </c>
-      <c r="F11" s="99"/>
+      <c r="F11" s="111"/>
       <c r="G11" s="33">
         <v>0</v>
       </c>
-      <c r="H11" s="99"/>
+      <c r="H11" s="111"/>
     </row>
     <row r="12" spans="1:8" s="35" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="111" t="s">
+      <c r="A12" s="133" t="s">
         <v>64</v>
       </c>
       <c r="B12" s="47" t="s">
         <v>47</v>
       </c>
       <c r="C12" s="34">
-        <v>0.4</v>
-      </c>
-      <c r="D12" s="131">
+        <v>0</v>
+      </c>
+      <c r="D12" s="112">
         <f>(1+C12+C13)*(1+C14)*(1+C15)</f>
-        <v>6.5549999999999988</v>
+        <v>1</v>
       </c>
       <c r="E12" s="34">
         <v>0</v>
       </c>
-      <c r="F12" s="131">
+      <c r="F12" s="112">
         <f>(1+E12+E13)*(1+E14)*(1+E15)</f>
         <v>1.1499999999999999</v>
       </c>
       <c r="G12" s="34">
         <v>0</v>
       </c>
-      <c r="H12" s="131">
+      <c r="H12" s="112">
         <f>(1+G12+G13)*(1+G14)*(1+G15)</f>
         <v>1.1499999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="35" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="112"/>
+      <c r="A13" s="134"/>
       <c r="B13" s="47" t="s">
         <v>48</v>
       </c>
       <c r="C13" s="34">
-        <v>0.5</v>
-      </c>
-      <c r="D13" s="132"/>
+        <v>0</v>
+      </c>
+      <c r="D13" s="113"/>
       <c r="E13" s="34">
         <v>0</v>
       </c>
-      <c r="F13" s="132"/>
+      <c r="F13" s="113"/>
       <c r="G13" s="34">
         <v>0</v>
       </c>
-      <c r="H13" s="132"/>
+      <c r="H13" s="113"/>
     </row>
     <row r="14" spans="1:8" s="35" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="112"/>
+      <c r="A14" s="134"/>
       <c r="B14" s="47" t="s">
         <v>69</v>
       </c>
       <c r="C14" s="34">
-        <v>0.15</v>
-      </c>
-      <c r="D14" s="132"/>
+        <v>0</v>
+      </c>
+      <c r="D14" s="113"/>
       <c r="E14" s="34">
         <v>0.15</v>
       </c>
-      <c r="F14" s="132"/>
+      <c r="F14" s="113"/>
       <c r="G14" s="34">
         <v>0.15</v>
       </c>
-      <c r="H14" s="132"/>
+      <c r="H14" s="113"/>
     </row>
     <row r="15" spans="1:8" s="35" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="113"/>
+      <c r="A15" s="135"/>
       <c r="B15" s="47" t="s">
         <v>70</v>
       </c>
       <c r="C15" s="34">
-        <v>2</v>
-      </c>
-      <c r="D15" s="133"/>
+        <v>0</v>
+      </c>
+      <c r="D15" s="114"/>
       <c r="E15" s="34">
         <v>0</v>
       </c>
-      <c r="F15" s="133"/>
+      <c r="F15" s="114"/>
       <c r="G15" s="34">
         <v>0</v>
       </c>
-      <c r="H15" s="133"/>
+      <c r="H15" s="114"/>
     </row>
     <row r="16" spans="1:8" s="37" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="114" t="s">
+      <c r="A16" s="136" t="s">
         <v>65</v>
       </c>
       <c r="B16" s="48" t="s">
         <v>58</v>
       </c>
       <c r="C16" s="36">
-        <v>0.2</v>
-      </c>
-      <c r="D16" s="134">
+        <v>0</v>
+      </c>
+      <c r="D16" s="115">
         <f>(1+C16)*(1+C17)</f>
-        <v>1.7999999999999998</v>
+        <v>1</v>
       </c>
       <c r="E16" s="36">
         <v>0</v>
       </c>
-      <c r="F16" s="134">
+      <c r="F16" s="115">
         <f>(1+E16)*(1+E17)</f>
         <v>1</v>
       </c>
       <c r="G16" s="36">
         <v>0</v>
       </c>
-      <c r="H16" s="134">
+      <c r="H16" s="115">
         <f>(1+G16)*(1+G17)</f>
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="37" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="115"/>
+      <c r="A17" s="137"/>
       <c r="B17" s="48" t="s">
         <v>49</v>
       </c>
       <c r="C17" s="36">
-        <v>0.5</v>
-      </c>
-      <c r="D17" s="135"/>
+        <v>0</v>
+      </c>
+      <c r="D17" s="116"/>
       <c r="E17" s="36">
         <v>0</v>
       </c>
-      <c r="F17" s="135"/>
+      <c r="F17" s="116"/>
       <c r="G17" s="36">
         <v>0</v>
       </c>
-      <c r="H17" s="135"/>
+      <c r="H17" s="116"/>
     </row>
     <row r="18" spans="1:8" s="39" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="106" t="s">
+      <c r="A18" s="128" t="s">
         <v>66</v>
       </c>
       <c r="B18" s="49" t="s">
         <v>67</v>
       </c>
       <c r="C18" s="38">
-        <v>1.7</v>
-      </c>
-      <c r="D18" s="136">
+        <v>1.5</v>
+      </c>
+      <c r="D18" s="95">
         <f>C18+C19</f>
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="E18" s="38">
         <v>1.5</v>
       </c>
-      <c r="F18" s="136">
+      <c r="F18" s="95">
         <f>E18+E19</f>
         <v>1.5</v>
       </c>
       <c r="G18" s="38">
         <v>1.5</v>
       </c>
-      <c r="H18" s="136">
+      <c r="H18" s="95">
         <f>G18+G19</f>
         <v>1.5</v>
       </c>
     </row>
     <row r="19" spans="1:8" s="39" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="107"/>
+      <c r="A19" s="129"/>
       <c r="B19" s="49" t="s">
         <v>59</v>
       </c>
       <c r="C19" s="40">
         <v>0</v>
       </c>
-      <c r="D19" s="137"/>
+      <c r="D19" s="96"/>
       <c r="E19" s="40">
         <v>0</v>
       </c>
-      <c r="F19" s="137"/>
+      <c r="F19" s="96"/>
       <c r="G19" s="40">
         <v>0</v>
       </c>
-      <c r="H19" s="137"/>
+      <c r="H19" s="96"/>
     </row>
     <row r="20" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="108" t="s">
+      <c r="A20" s="130" t="s">
         <v>72</v>
       </c>
       <c r="B20" s="50" t="s">
@@ -4114,72 +4114,72 @@
       <c r="C20" s="41">
         <v>0</v>
       </c>
-      <c r="D20" s="138">
+      <c r="D20" s="97">
         <f>1+C20*(0.2+C21+C22)</f>
         <v>1</v>
       </c>
       <c r="E20" s="41">
         <v>0</v>
       </c>
-      <c r="F20" s="138">
+      <c r="F20" s="97">
         <f>1+E20*(0.2+E21+E22)</f>
         <v>1</v>
       </c>
       <c r="G20" s="41">
         <v>0</v>
       </c>
-      <c r="H20" s="138">
+      <c r="H20" s="97">
         <f>1+G20*(0.2+G21+G22)</f>
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="109"/>
+      <c r="A21" s="131"/>
       <c r="B21" s="50" t="s">
         <v>50</v>
       </c>
       <c r="C21" s="41">
         <v>0.5</v>
       </c>
-      <c r="D21" s="139"/>
+      <c r="D21" s="98"/>
       <c r="E21" s="41">
         <v>0.5</v>
       </c>
-      <c r="F21" s="139"/>
+      <c r="F21" s="98"/>
       <c r="G21" s="41">
         <v>0.5</v>
       </c>
-      <c r="H21" s="139"/>
+      <c r="H21" s="98"/>
     </row>
     <row r="22" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="110"/>
+      <c r="A22" s="132"/>
       <c r="B22" s="50" t="s">
         <v>51</v>
       </c>
       <c r="C22" s="41">
         <v>0</v>
       </c>
-      <c r="D22" s="140"/>
+      <c r="D22" s="99"/>
       <c r="E22" s="41">
         <v>0</v>
       </c>
-      <c r="F22" s="140"/>
+      <c r="F22" s="99"/>
       <c r="G22" s="41">
         <v>0</v>
       </c>
-      <c r="H22" s="140"/>
+      <c r="H22" s="99"/>
     </row>
     <row r="23" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="102" t="s">
+      <c r="A23" s="119" t="s">
         <v>73</v>
       </c>
-      <c r="B23" s="103"/>
+      <c r="B23" s="120"/>
       <c r="C23" s="21">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="D23" s="23">
         <f>C23</f>
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="E23" s="21">
         <v>1</v>
@@ -4197,10 +4197,10 @@
       </c>
     </row>
     <row r="24" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="125" t="s">
+      <c r="A24" s="121" t="s">
         <v>52</v>
       </c>
-      <c r="B24" s="126"/>
+      <c r="B24" s="122"/>
       <c r="C24" s="41">
         <v>10</v>
       </c>
@@ -4224,81 +4224,81 @@
       </c>
     </row>
     <row r="25" spans="1:8" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="116" t="s">
+      <c r="A25" s="123" t="s">
         <v>53</v>
       </c>
       <c r="B25" s="45" t="s">
         <v>75</v>
       </c>
       <c r="C25" s="24">
+        <v>0</v>
+      </c>
+      <c r="D25" s="100">
+        <f>(1-(1-C26)*C25)*(1-C27)</f>
         <v>1</v>
       </c>
-      <c r="D25" s="141">
-        <f>(1-(1-C26)*C25)*(1-C27)</f>
-        <v>0.55999999999999994</v>
-      </c>
       <c r="E25" s="24">
         <v>0</v>
       </c>
-      <c r="F25" s="141">
+      <c r="F25" s="100">
         <f>(1-(1-E26)*E25)*(1-E27)</f>
         <v>1</v>
       </c>
       <c r="G25" s="24">
         <v>0</v>
       </c>
-      <c r="H25" s="141">
+      <c r="H25" s="100">
         <f>(1-(1-G26)*G25)*(1-G27)</f>
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:8" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="117"/>
+      <c r="A26" s="124"/>
       <c r="B26" s="45" t="s">
         <v>74</v>
       </c>
       <c r="C26" s="24">
         <v>0.8</v>
       </c>
-      <c r="D26" s="142"/>
+      <c r="D26" s="101"/>
       <c r="E26" s="24">
         <v>0.6</v>
       </c>
-      <c r="F26" s="142"/>
+      <c r="F26" s="101"/>
       <c r="G26" s="24">
         <v>0.6</v>
       </c>
-      <c r="H26" s="142"/>
+      <c r="H26" s="101"/>
     </row>
     <row r="27" spans="1:8" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="118"/>
+      <c r="A27" s="125"/>
       <c r="B27" s="45" t="s">
         <v>37</v>
       </c>
       <c r="C27" s="27">
-        <v>0.3</v>
-      </c>
-      <c r="D27" s="143"/>
+        <v>0</v>
+      </c>
+      <c r="D27" s="102"/>
       <c r="E27" s="27">
         <v>0</v>
       </c>
-      <c r="F27" s="143"/>
+      <c r="F27" s="102"/>
       <c r="G27" s="27">
         <v>0</v>
       </c>
-      <c r="H27" s="143"/>
+      <c r="H27" s="102"/>
     </row>
     <row r="28" spans="1:8" s="39" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="127" t="s">
+      <c r="A28" s="126" t="s">
         <v>76</v>
       </c>
-      <c r="B28" s="128"/>
+      <c r="B28" s="127"/>
       <c r="C28" s="38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28" s="44">
         <f>C28*0.5+1</f>
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="E28" s="38">
         <v>0</v>
@@ -4316,32 +4316,32 @@
       </c>
     </row>
     <row r="29" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="123" t="s">
+      <c r="A29" s="117" t="s">
         <v>54</v>
       </c>
-      <c r="B29" s="124"/>
-      <c r="C29" s="129">
+      <c r="B29" s="118"/>
+      <c r="C29" s="103">
         <f>D2*D3*D4*D9*D10*D12*D16*D18*D20*D23/D24/D25*D28</f>
-        <v>36671574.825211301</v>
-      </c>
-      <c r="D29" s="130"/>
-      <c r="E29" s="129">
+        <v>16964.480000000003</v>
+      </c>
+      <c r="D29" s="104"/>
+      <c r="E29" s="103">
         <f>F2*F3*F4*F9*F10*F12*F16*F18*F20*F23/F24/F25*F28</f>
         <v>41967.381825000004</v>
       </c>
-      <c r="F29" s="130"/>
-      <c r="G29" s="129">
+      <c r="F29" s="104"/>
+      <c r="G29" s="103">
         <f>H2*H3*H4*H9*H10*H12*H16*H18*H20*H23/H24/H25*H28</f>
         <v>45637.368918750006</v>
       </c>
-      <c r="H29" s="130"/>
+      <c r="H29" s="104"/>
     </row>
     <row r="30" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C30" s="20" t="s">
         <v>138</v>
       </c>
       <c r="D30" s="20">
-        <v>36488</v>
+        <v>11704</v>
       </c>
       <c r="E30" s="20" t="s">
         <v>138</v>
@@ -4358,6 +4358,39 @@
     </row>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="D4:D8"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="D12:D15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="H20:H22"/>
+    <mergeCell ref="H25:H27"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="H4:H8"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="H12:H15"/>
+    <mergeCell ref="H16:H17"/>
     <mergeCell ref="F18:F19"/>
     <mergeCell ref="F20:F22"/>
     <mergeCell ref="F25:F27"/>
@@ -4367,39 +4400,6 @@
     <mergeCell ref="F10:F11"/>
     <mergeCell ref="F12:F15"/>
     <mergeCell ref="F16:F17"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="H20:H22"/>
-    <mergeCell ref="H25:H27"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="H4:H8"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="H12:H15"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="D12:D15"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="D25:D27"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="D4:D8"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Brainstorm.xlsx
+++ b/Brainstorm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Personal@SSD\Game\DL\dragalia-data-track\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBD9FA85-D298-480E-89DA-82436C6F6803}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39E47662-B107-4241-8759-D58B45E022DB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6390" yWindow="1410" windowWidth="21600" windowHeight="13950" xr2:uid="{4CFB4A6A-60C6-4091-BCA5-480044B61D33}"/>
+    <workbookView xWindow="2115" yWindow="1140" windowWidth="21600" windowHeight="14325" activeTab="4" xr2:uid="{4CFB4A6A-60C6-4091-BCA5-480044B61D33}"/>
   </bookViews>
   <sheets>
     <sheet name="Rotation" sheetId="8" r:id="rId1"/>
@@ -1406,6 +1406,129 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="4" fontId="5" fillId="23" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="23" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="23" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="28" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="28" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="21" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="21" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="30" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="30" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="30" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="32" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="32" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="4" fontId="5" fillId="35" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1428,129 +1551,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="23" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="23" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="23" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="23" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="28" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="28" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="30" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="30" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="30" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="32" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="32" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="21" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="21" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1905,8 +1905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B260D6A6-975E-4594-902D-33C279C7CA35}">
   <dimension ref="A1:Y13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2012,7 +2012,7 @@
         <v>87</v>
       </c>
       <c r="R2" s="66">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="S2" s="60" t="s">
         <v>9</v>
@@ -2023,7 +2023,7 @@
       </c>
       <c r="V2" s="69">
         <f>VLOOKUP(T3,$H$3:$M$13,6,FALSE)</f>
-        <v>1560</v>
+        <v>2064</v>
       </c>
       <c r="X2" s="57" t="s">
         <v>40</v>
@@ -2059,27 +2059,27 @@
       </c>
       <c r="I3" s="61">
         <f>B3 * (1+SUM($R:$R))</f>
-        <v>150</v>
+        <v>193.5</v>
       </c>
       <c r="J3" s="61">
         <f t="shared" ref="J3:J13" si="0">C3 * (1+SUM($R:$R))</f>
-        <v>300</v>
+        <v>387</v>
       </c>
       <c r="K3" s="61">
         <f t="shared" ref="K3:M10" si="1">D3 * (1+SUM($R:$R))</f>
-        <v>496</v>
+        <v>639.84</v>
       </c>
       <c r="L3" s="61">
         <f t="shared" si="1"/>
-        <v>761</v>
+        <v>981.69</v>
       </c>
       <c r="M3" s="61">
         <f t="shared" si="1"/>
-        <v>1152</v>
+        <v>1486.08</v>
       </c>
       <c r="N3" s="58">
         <f t="shared" ref="N3:N13" si="2">G3 * (1+SUM($R:$R))</f>
-        <v>345</v>
+        <v>445.05</v>
       </c>
       <c r="O3" s="72" t="s">
         <v>17</v>
@@ -2097,21 +2097,21 @@
         <v>77</v>
       </c>
       <c r="T3" s="13" t="s">
-        <v>81</v>
+        <v>29</v>
       </c>
       <c r="U3" s="68" t="s">
         <v>102</v>
       </c>
       <c r="V3" s="69">
         <f>MOD(T6, V2)</f>
-        <v>914</v>
+        <v>458</v>
       </c>
       <c r="W3" s="57" t="s">
         <v>39</v>
       </c>
       <c r="X3" s="57" t="b">
         <f>AND(V3 &gt; 0, V3 &lt;= VLOOKUP($T$3,$H$3:$N$13,7,FALSE))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y3" s="57" t="b">
         <f>AND(V4 &gt; 0, V4 &lt;= VLOOKUP($T$3,$H$3:$N$13,7,FALSE))</f>
@@ -2145,27 +2145,27 @@
       </c>
       <c r="I4" s="61">
         <f t="shared" ref="I4:I13" si="3">B4 * (1+SUM($R:$R))</f>
-        <v>130</v>
+        <v>167.70000000000002</v>
       </c>
       <c r="J4" s="61">
         <f t="shared" si="0"/>
-        <v>260</v>
+        <v>335.40000000000003</v>
       </c>
       <c r="K4" s="61">
         <f t="shared" si="1"/>
-        <v>480</v>
+        <v>619.20000000000005</v>
       </c>
       <c r="L4" s="61">
         <f t="shared" si="1"/>
-        <v>840</v>
+        <v>1083.6000000000001</v>
       </c>
       <c r="M4" s="61">
         <f t="shared" si="1"/>
-        <v>1740</v>
+        <v>2244.6</v>
       </c>
       <c r="N4" s="58">
         <f t="shared" si="2"/>
-        <v>200</v>
+        <v>258</v>
       </c>
       <c r="O4" s="72" t="s">
         <v>88</v>
@@ -2177,7 +2177,7 @@
         <v>88</v>
       </c>
       <c r="R4" s="66">
-        <v>0</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="S4" s="60" t="s">
         <v>97</v>
@@ -2190,7 +2190,7 @@
       </c>
       <c r="V4" s="69">
         <f>MOD(T7, V2)</f>
-        <v>1394</v>
+        <v>1872</v>
       </c>
       <c r="W4" s="57" t="s">
         <v>105</v>
@@ -2231,27 +2231,27 @@
       </c>
       <c r="I5" s="61">
         <f t="shared" si="3"/>
-        <v>144</v>
+        <v>185.76</v>
       </c>
       <c r="J5" s="61">
         <f t="shared" si="0"/>
-        <v>288</v>
+        <v>371.52</v>
       </c>
       <c r="K5" s="61">
         <f t="shared" si="1"/>
-        <v>552</v>
+        <v>712.08</v>
       </c>
       <c r="L5" s="61">
         <f t="shared" si="1"/>
-        <v>840</v>
+        <v>1083.6000000000001</v>
       </c>
       <c r="M5" s="61">
         <f t="shared" si="1"/>
-        <v>1320</v>
+        <v>1702.8</v>
       </c>
       <c r="N5" s="58">
         <f t="shared" si="2"/>
-        <v>288</v>
+        <v>371.52</v>
       </c>
       <c r="O5" s="72" t="s">
         <v>89</v>
@@ -2269,14 +2269,14 @@
         <v>99</v>
       </c>
       <c r="T5" s="13">
-        <v>9194</v>
+        <v>6000</v>
       </c>
       <c r="U5" s="70" t="s">
         <v>100</v>
       </c>
       <c r="V5" s="71" t="str" cm="1">
         <f t="array" ref="V5">(ROUNDDOWN(T6/V2, 0) + IF(X8,1,0)) &amp; _xlfn.IFS(X3, " + FS", X4, " + C1", X5, " + C2", X6, " + C3", X7, " + C4", TRUE, "")</f>
-        <v>5 + C4</v>
+        <v>4 + FS</v>
       </c>
       <c r="W5" s="57" t="s">
         <v>106</v>
@@ -2317,27 +2317,27 @@
       </c>
       <c r="I6" s="61">
         <f t="shared" si="3"/>
-        <v>200</v>
+        <v>258</v>
       </c>
       <c r="J6" s="61">
         <f t="shared" si="0"/>
-        <v>440</v>
+        <v>567.6</v>
       </c>
       <c r="K6" s="61">
         <f t="shared" si="1"/>
-        <v>800</v>
+        <v>1032</v>
       </c>
       <c r="L6" s="61">
         <f t="shared" si="1"/>
-        <v>1180</v>
+        <v>1522.2</v>
       </c>
       <c r="M6" s="61">
         <f t="shared" si="1"/>
-        <v>1600</v>
+        <v>2064</v>
       </c>
       <c r="N6" s="58">
         <f t="shared" si="2"/>
-        <v>300</v>
+        <v>387</v>
       </c>
       <c r="S6" s="75" t="s">
         <v>98</v>
@@ -2351,14 +2351,14 @@
       </c>
       <c r="V6" s="71" t="str" cm="1">
         <f t="array" ref="V6">(ROUNDDOWN(T7/V2, 0) + IF(Y8,1,0)) &amp; _xlfn.IFS(Y3, " + FS", Y4, " + C1", Y5, " + C2", Y6, " + C3", Y7, " + C4", TRUE, "")</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="W6" s="57" t="s">
         <v>107</v>
       </c>
       <c r="X6" s="57" t="b">
         <f>AND(V3 &gt; VLOOKUP($T$3,$H$3:$M$13,3,FALSE),V3 &lt;= VLOOKUP($T$3,$H$3:$M$13,4,FALSE))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y6" s="57" t="b">
         <f>AND(V4 &gt; VLOOKUP($T$3,$H$3:$M$13,3,FALSE),V4 &lt;= VLOOKUP($T$3,$H$3:$M$13,4,FALSE))</f>
@@ -2392,41 +2392,41 @@
       </c>
       <c r="I7" s="61">
         <f t="shared" si="3"/>
-        <v>120</v>
+        <v>154.80000000000001</v>
       </c>
       <c r="J7" s="61">
         <f t="shared" si="0"/>
-        <v>360</v>
+        <v>464.40000000000003</v>
       </c>
       <c r="K7" s="61">
         <f t="shared" si="1"/>
-        <v>480</v>
+        <v>619.20000000000005</v>
       </c>
       <c r="L7" s="61">
         <f t="shared" si="1"/>
-        <v>960</v>
+        <v>1238.4000000000001</v>
       </c>
       <c r="M7" s="61">
         <f t="shared" si="1"/>
-        <v>1560</v>
+        <v>2012.4</v>
       </c>
       <c r="N7" s="58">
         <f t="shared" si="2"/>
-        <v>400</v>
+        <v>516</v>
       </c>
       <c r="S7" s="75" t="s">
         <v>104</v>
       </c>
       <c r="T7" s="76">
         <f>T5 * (1 - SUM(P:P))</f>
-        <v>9194</v>
+        <v>6000</v>
       </c>
       <c r="W7" s="57" t="s">
         <v>108</v>
       </c>
       <c r="X7" s="57" t="b">
         <f>AND(V3 &gt; VLOOKUP($T$3,$H$3:$M$13,4,FALSE),V3 &lt;= VLOOKUP($T$3,$H$3:$M$13,5,FALSE))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y7" s="57" t="b">
         <f>AND(V4 &gt; VLOOKUP($T$3,$H$3:$M$13,4,FALSE),V4 &lt;= VLOOKUP($T$3,$H$3:$M$13,5,FALSE))</f>
@@ -2460,27 +2460,27 @@
       </c>
       <c r="I8" s="61">
         <f t="shared" si="3"/>
-        <v>184</v>
+        <v>237.36</v>
       </c>
       <c r="J8" s="61">
         <f t="shared" si="0"/>
-        <v>276</v>
+        <v>356.04</v>
       </c>
       <c r="K8" s="61">
         <f t="shared" si="1"/>
-        <v>552</v>
+        <v>712.08</v>
       </c>
       <c r="L8" s="61">
         <f t="shared" si="1"/>
-        <v>966</v>
+        <v>1246.1400000000001</v>
       </c>
       <c r="M8" s="61">
         <f t="shared" si="1"/>
-        <v>1495</v>
+        <v>1928.55</v>
       </c>
       <c r="N8" s="58">
         <f t="shared" si="2"/>
-        <v>460</v>
+        <v>593.4</v>
       </c>
       <c r="W8" s="57" t="s">
         <v>109</v>
@@ -2521,27 +2521,27 @@
       </c>
       <c r="I9" s="61">
         <f t="shared" si="3"/>
-        <v>130</v>
+        <v>167.70000000000002</v>
       </c>
       <c r="J9" s="61">
         <f t="shared" si="0"/>
-        <v>330</v>
+        <v>425.7</v>
       </c>
       <c r="K9" s="61">
         <f t="shared" si="1"/>
-        <v>570</v>
+        <v>735.30000000000007</v>
       </c>
       <c r="L9" s="61">
         <f t="shared" si="1"/>
-        <v>1000</v>
+        <v>1290</v>
       </c>
       <c r="M9" s="61">
         <f t="shared" si="1"/>
-        <v>1600</v>
+        <v>2064</v>
       </c>
       <c r="N9" s="58">
         <f t="shared" si="2"/>
-        <v>400</v>
+        <v>516</v>
       </c>
       <c r="W9" s="57"/>
       <c r="X9" s="57"/>
@@ -2574,27 +2574,27 @@
       </c>
       <c r="I10" s="61">
         <f t="shared" si="3"/>
-        <v>232</v>
+        <v>299.28000000000003</v>
       </c>
       <c r="J10" s="61">
         <f t="shared" si="0"/>
-        <v>464</v>
+        <v>598.56000000000006</v>
       </c>
       <c r="K10" s="61">
         <f t="shared" si="1"/>
-        <v>812</v>
+        <v>1047.48</v>
       </c>
       <c r="L10" s="61">
         <f t="shared" si="1"/>
-        <v>1276</v>
+        <v>1646.04</v>
       </c>
       <c r="M10" s="61">
         <f t="shared" si="1"/>
-        <v>1972</v>
+        <v>2543.88</v>
       </c>
       <c r="N10" s="58">
         <f t="shared" si="2"/>
-        <v>580</v>
+        <v>748.2</v>
       </c>
     </row>
     <row r="11" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2618,18 +2618,18 @@
       </c>
       <c r="I11" s="61">
         <f t="shared" si="3"/>
-        <v>545</v>
+        <v>703.05000000000007</v>
       </c>
       <c r="J11" s="61">
         <f t="shared" si="0"/>
-        <v>1090</v>
+        <v>1406.1000000000001</v>
       </c>
       <c r="K11" s="61"/>
       <c r="L11" s="61"/>
       <c r="M11" s="61"/>
       <c r="N11" s="58">
         <f t="shared" si="2"/>
-        <v>400</v>
+        <v>516</v>
       </c>
     </row>
     <row r="12" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2653,18 +2653,18 @@
       </c>
       <c r="I12" s="61">
         <f t="shared" si="3"/>
-        <v>464</v>
+        <v>598.56000000000006</v>
       </c>
       <c r="J12" s="61">
         <f t="shared" si="0"/>
-        <v>928</v>
+        <v>1197.1200000000001</v>
       </c>
       <c r="K12" s="61"/>
       <c r="L12" s="61"/>
       <c r="M12" s="61"/>
       <c r="N12" s="58">
         <f t="shared" si="2"/>
-        <v>400</v>
+        <v>516</v>
       </c>
     </row>
     <row r="13" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2690,21 +2690,21 @@
       </c>
       <c r="I13" s="61">
         <f t="shared" si="3"/>
-        <v>300</v>
+        <v>387</v>
       </c>
       <c r="J13" s="61">
         <f t="shared" si="0"/>
-        <v>764</v>
+        <v>985.56000000000006</v>
       </c>
       <c r="K13" s="61">
         <f>D13 * (1+SUM($R:$R))</f>
-        <v>1228</v>
+        <v>1584.1200000000001</v>
       </c>
       <c r="L13" s="61"/>
       <c r="M13" s="61"/>
       <c r="N13" s="58">
         <f t="shared" si="2"/>
-        <v>400</v>
+        <v>516</v>
       </c>
     </row>
   </sheetData>
@@ -2726,7 +2726,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3659,9 +3659,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEFF6CA3-18A6-4987-88AD-5768B35D8A0C}">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J15" sqref="J15"/>
+      <selection pane="topRight" activeCell="D4" sqref="D4:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3678,28 +3678,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="142" t="s">
+      <c r="A1" s="100" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="143"/>
-      <c r="C1" s="105" t="s">
+      <c r="B1" s="101"/>
+      <c r="C1" s="104" t="s">
         <v>146</v>
       </c>
-      <c r="D1" s="106"/>
-      <c r="E1" s="105" t="s">
+      <c r="D1" s="105"/>
+      <c r="E1" s="104" t="s">
         <v>147</v>
       </c>
-      <c r="F1" s="106"/>
-      <c r="G1" s="105" t="s">
+      <c r="F1" s="105"/>
+      <c r="G1" s="104" t="s">
         <v>145</v>
       </c>
-      <c r="H1" s="106"/>
+      <c r="H1" s="105"/>
     </row>
     <row r="2" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="119" t="s">
+      <c r="A2" s="102" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="120"/>
+      <c r="B2" s="103"/>
       <c r="C2" s="21">
         <f>5/3</f>
         <v>1.6666666666666667</v>
@@ -3726,10 +3726,10 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="119" t="s">
+      <c r="A3" s="102" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="120"/>
+      <c r="B3" s="103"/>
       <c r="C3" s="21">
         <v>0</v>
       </c>
@@ -3753,7 +3753,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="123" t="s">
+      <c r="A4" s="116" t="s">
         <v>60</v>
       </c>
       <c r="B4" s="45" t="s">
@@ -3762,102 +3762,102 @@
       <c r="C4" s="24">
         <v>4078</v>
       </c>
-      <c r="D4" s="107">
+      <c r="D4" s="95">
         <f>(C4/(1+C5)*(1+C5+C6)*(1+C7)*(1+C8))</f>
         <v>4078</v>
       </c>
       <c r="E4" s="24">
         <v>4353</v>
       </c>
-      <c r="F4" s="107">
+      <c r="F4" s="95">
         <f>(E4/(1+E5)*(1+E5+E6)*(1+E7)*(1+E8))</f>
         <v>5005.95</v>
       </c>
       <c r="G4" s="24">
         <v>4353</v>
       </c>
-      <c r="H4" s="107">
+      <c r="H4" s="95">
         <f>(G4/(1+G5)*(1+G5+G6)*(1+G7)*(1+G8))</f>
         <v>5005.95</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="124"/>
+      <c r="A5" s="117"/>
       <c r="B5" s="45" t="s">
         <v>44</v>
       </c>
       <c r="C5" s="26">
         <v>0</v>
       </c>
-      <c r="D5" s="108"/>
+      <c r="D5" s="96"/>
       <c r="E5" s="26">
         <v>0</v>
       </c>
-      <c r="F5" s="108"/>
+      <c r="F5" s="96"/>
       <c r="G5" s="26">
         <v>0</v>
       </c>
-      <c r="H5" s="108"/>
+      <c r="H5" s="96"/>
     </row>
     <row r="6" spans="1:8" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="124"/>
+      <c r="A6" s="117"/>
       <c r="B6" s="45" t="s">
         <v>45</v>
       </c>
       <c r="C6" s="27">
         <v>0</v>
       </c>
-      <c r="D6" s="108"/>
+      <c r="D6" s="96"/>
       <c r="E6" s="27">
         <v>0</v>
       </c>
-      <c r="F6" s="108"/>
+      <c r="F6" s="96"/>
       <c r="G6" s="27">
         <v>0</v>
       </c>
-      <c r="H6" s="108"/>
+      <c r="H6" s="96"/>
     </row>
     <row r="7" spans="1:8" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="124"/>
+      <c r="A7" s="117"/>
       <c r="B7" s="45" t="s">
         <v>56</v>
       </c>
       <c r="C7" s="27">
         <v>0</v>
       </c>
-      <c r="D7" s="108"/>
+      <c r="D7" s="96"/>
       <c r="E7" s="27">
         <v>0.15</v>
       </c>
-      <c r="F7" s="108"/>
+      <c r="F7" s="96"/>
       <c r="G7" s="27">
         <v>0.15</v>
       </c>
-      <c r="H7" s="108"/>
+      <c r="H7" s="96"/>
     </row>
     <row r="8" spans="1:8" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="125"/>
+      <c r="A8" s="118"/>
       <c r="B8" s="45" t="s">
         <v>57</v>
       </c>
       <c r="C8" s="27">
         <v>0</v>
       </c>
-      <c r="D8" s="109"/>
+      <c r="D8" s="97"/>
       <c r="E8" s="27">
         <v>0</v>
       </c>
-      <c r="F8" s="109"/>
+      <c r="F8" s="97"/>
       <c r="G8" s="27">
         <v>0</v>
       </c>
-      <c r="H8" s="109"/>
+      <c r="H8" s="97"/>
     </row>
     <row r="9" spans="1:8" s="30" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="138" t="s">
+      <c r="A9" s="119" t="s">
         <v>46</v>
       </c>
-      <c r="B9" s="139"/>
+      <c r="B9" s="120"/>
       <c r="C9" s="28">
         <v>16.64</v>
       </c>
@@ -3881,7 +3881,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" s="32" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="140" t="s">
+      <c r="A10" s="121" t="s">
         <v>62</v>
       </c>
       <c r="B10" s="46" t="s">
@@ -3890,45 +3890,45 @@
       <c r="C10" s="31">
         <v>0</v>
       </c>
-      <c r="D10" s="110">
+      <c r="D10" s="98">
         <f>1+((0.7+C11)*C10)</f>
         <v>1</v>
       </c>
       <c r="E10" s="31">
         <v>0</v>
       </c>
-      <c r="F10" s="110">
+      <c r="F10" s="98">
         <f>1+((0.7+E11)*E10)</f>
         <v>1</v>
       </c>
       <c r="G10" s="31">
         <v>0</v>
       </c>
-      <c r="H10" s="110">
+      <c r="H10" s="98">
         <f>1+((0.7+G11)*G10)</f>
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="32" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="141"/>
+      <c r="A11" s="122"/>
       <c r="B11" s="46" t="s">
         <v>42</v>
       </c>
       <c r="C11" s="33">
         <v>1.7</v>
       </c>
-      <c r="D11" s="111"/>
+      <c r="D11" s="99"/>
       <c r="E11" s="33">
         <v>0</v>
       </c>
-      <c r="F11" s="111"/>
+      <c r="F11" s="99"/>
       <c r="G11" s="33">
         <v>0</v>
       </c>
-      <c r="H11" s="111"/>
+      <c r="H11" s="99"/>
     </row>
     <row r="12" spans="1:8" s="35" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="133" t="s">
+      <c r="A12" s="111" t="s">
         <v>64</v>
       </c>
       <c r="B12" s="47" t="s">
@@ -3937,81 +3937,81 @@
       <c r="C12" s="34">
         <v>0</v>
       </c>
-      <c r="D12" s="112">
+      <c r="D12" s="131">
         <f>(1+C12+C13)*(1+C14)*(1+C15)</f>
         <v>1</v>
       </c>
       <c r="E12" s="34">
         <v>0</v>
       </c>
-      <c r="F12" s="112">
+      <c r="F12" s="131">
         <f>(1+E12+E13)*(1+E14)*(1+E15)</f>
         <v>1.1499999999999999</v>
       </c>
       <c r="G12" s="34">
         <v>0</v>
       </c>
-      <c r="H12" s="112">
+      <c r="H12" s="131">
         <f>(1+G12+G13)*(1+G14)*(1+G15)</f>
         <v>1.1499999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="35" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="134"/>
+      <c r="A13" s="112"/>
       <c r="B13" s="47" t="s">
         <v>48</v>
       </c>
       <c r="C13" s="34">
         <v>0</v>
       </c>
-      <c r="D13" s="113"/>
+      <c r="D13" s="132"/>
       <c r="E13" s="34">
         <v>0</v>
       </c>
-      <c r="F13" s="113"/>
+      <c r="F13" s="132"/>
       <c r="G13" s="34">
         <v>0</v>
       </c>
-      <c r="H13" s="113"/>
+      <c r="H13" s="132"/>
     </row>
     <row r="14" spans="1:8" s="35" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="134"/>
+      <c r="A14" s="112"/>
       <c r="B14" s="47" t="s">
         <v>69</v>
       </c>
       <c r="C14" s="34">
         <v>0</v>
       </c>
-      <c r="D14" s="113"/>
+      <c r="D14" s="132"/>
       <c r="E14" s="34">
         <v>0.15</v>
       </c>
-      <c r="F14" s="113"/>
+      <c r="F14" s="132"/>
       <c r="G14" s="34">
         <v>0.15</v>
       </c>
-      <c r="H14" s="113"/>
+      <c r="H14" s="132"/>
     </row>
     <row r="15" spans="1:8" s="35" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="135"/>
+      <c r="A15" s="113"/>
       <c r="B15" s="47" t="s">
         <v>70</v>
       </c>
       <c r="C15" s="34">
         <v>0</v>
       </c>
-      <c r="D15" s="114"/>
+      <c r="D15" s="133"/>
       <c r="E15" s="34">
         <v>0</v>
       </c>
-      <c r="F15" s="114"/>
+      <c r="F15" s="133"/>
       <c r="G15" s="34">
         <v>0</v>
       </c>
-      <c r="H15" s="114"/>
+      <c r="H15" s="133"/>
     </row>
     <row r="16" spans="1:8" s="37" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="136" t="s">
+      <c r="A16" s="114" t="s">
         <v>65</v>
       </c>
       <c r="B16" s="48" t="s">
@@ -4020,45 +4020,45 @@
       <c r="C16" s="36">
         <v>0</v>
       </c>
-      <c r="D16" s="115">
+      <c r="D16" s="134">
         <f>(1+C16)*(1+C17)</f>
         <v>1</v>
       </c>
       <c r="E16" s="36">
         <v>0</v>
       </c>
-      <c r="F16" s="115">
+      <c r="F16" s="134">
         <f>(1+E16)*(1+E17)</f>
         <v>1</v>
       </c>
       <c r="G16" s="36">
         <v>0</v>
       </c>
-      <c r="H16" s="115">
+      <c r="H16" s="134">
         <f>(1+G16)*(1+G17)</f>
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="37" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="137"/>
+      <c r="A17" s="115"/>
       <c r="B17" s="48" t="s">
         <v>49</v>
       </c>
       <c r="C17" s="36">
         <v>0</v>
       </c>
-      <c r="D17" s="116"/>
+      <c r="D17" s="135"/>
       <c r="E17" s="36">
         <v>0</v>
       </c>
-      <c r="F17" s="116"/>
+      <c r="F17" s="135"/>
       <c r="G17" s="36">
         <v>0</v>
       </c>
-      <c r="H17" s="116"/>
+      <c r="H17" s="135"/>
     </row>
     <row r="18" spans="1:8" s="39" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="128" t="s">
+      <c r="A18" s="106" t="s">
         <v>66</v>
       </c>
       <c r="B18" s="49" t="s">
@@ -4067,45 +4067,45 @@
       <c r="C18" s="38">
         <v>1.5</v>
       </c>
-      <c r="D18" s="95">
+      <c r="D18" s="136">
         <f>C18+C19</f>
         <v>1.5</v>
       </c>
       <c r="E18" s="38">
         <v>1.5</v>
       </c>
-      <c r="F18" s="95">
+      <c r="F18" s="136">
         <f>E18+E19</f>
         <v>1.5</v>
       </c>
       <c r="G18" s="38">
         <v>1.5</v>
       </c>
-      <c r="H18" s="95">
+      <c r="H18" s="136">
         <f>G18+G19</f>
         <v>1.5</v>
       </c>
     </row>
     <row r="19" spans="1:8" s="39" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="129"/>
+      <c r="A19" s="107"/>
       <c r="B19" s="49" t="s">
         <v>59</v>
       </c>
       <c r="C19" s="40">
         <v>0</v>
       </c>
-      <c r="D19" s="96"/>
+      <c r="D19" s="137"/>
       <c r="E19" s="40">
         <v>0</v>
       </c>
-      <c r="F19" s="96"/>
+      <c r="F19" s="137"/>
       <c r="G19" s="40">
         <v>0</v>
       </c>
-      <c r="H19" s="96"/>
+      <c r="H19" s="137"/>
     </row>
     <row r="20" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="130" t="s">
+      <c r="A20" s="108" t="s">
         <v>72</v>
       </c>
       <c r="B20" s="50" t="s">
@@ -4114,66 +4114,66 @@
       <c r="C20" s="41">
         <v>0</v>
       </c>
-      <c r="D20" s="97">
+      <c r="D20" s="138">
         <f>1+C20*(0.2+C21+C22)</f>
         <v>1</v>
       </c>
       <c r="E20" s="41">
         <v>0</v>
       </c>
-      <c r="F20" s="97">
+      <c r="F20" s="138">
         <f>1+E20*(0.2+E21+E22)</f>
         <v>1</v>
       </c>
       <c r="G20" s="41">
         <v>0</v>
       </c>
-      <c r="H20" s="97">
+      <c r="H20" s="138">
         <f>1+G20*(0.2+G21+G22)</f>
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="131"/>
+      <c r="A21" s="109"/>
       <c r="B21" s="50" t="s">
         <v>50</v>
       </c>
       <c r="C21" s="41">
         <v>0.5</v>
       </c>
-      <c r="D21" s="98"/>
+      <c r="D21" s="139"/>
       <c r="E21" s="41">
         <v>0.5</v>
       </c>
-      <c r="F21" s="98"/>
+      <c r="F21" s="139"/>
       <c r="G21" s="41">
         <v>0.5</v>
       </c>
-      <c r="H21" s="98"/>
+      <c r="H21" s="139"/>
     </row>
     <row r="22" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="132"/>
+      <c r="A22" s="110"/>
       <c r="B22" s="50" t="s">
         <v>51</v>
       </c>
       <c r="C22" s="41">
         <v>0</v>
       </c>
-      <c r="D22" s="99"/>
+      <c r="D22" s="140"/>
       <c r="E22" s="41">
         <v>0</v>
       </c>
-      <c r="F22" s="99"/>
+      <c r="F22" s="140"/>
       <c r="G22" s="41">
         <v>0</v>
       </c>
-      <c r="H22" s="99"/>
+      <c r="H22" s="140"/>
     </row>
     <row r="23" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="119" t="s">
+      <c r="A23" s="102" t="s">
         <v>73</v>
       </c>
-      <c r="B23" s="120"/>
+      <c r="B23" s="103"/>
       <c r="C23" s="21">
         <v>1</v>
       </c>
@@ -4197,10 +4197,10 @@
       </c>
     </row>
     <row r="24" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="121" t="s">
+      <c r="A24" s="125" t="s">
         <v>52</v>
       </c>
-      <c r="B24" s="122"/>
+      <c r="B24" s="126"/>
       <c r="C24" s="41">
         <v>10</v>
       </c>
@@ -4224,7 +4224,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="123" t="s">
+      <c r="A25" s="116" t="s">
         <v>53</v>
       </c>
       <c r="B25" s="45" t="s">
@@ -4233,66 +4233,66 @@
       <c r="C25" s="24">
         <v>0</v>
       </c>
-      <c r="D25" s="100">
+      <c r="D25" s="141">
         <f>(1-(1-C26)*C25)*(1-C27)</f>
         <v>1</v>
       </c>
       <c r="E25" s="24">
         <v>0</v>
       </c>
-      <c r="F25" s="100">
+      <c r="F25" s="141">
         <f>(1-(1-E26)*E25)*(1-E27)</f>
         <v>1</v>
       </c>
       <c r="G25" s="24">
         <v>0</v>
       </c>
-      <c r="H25" s="100">
+      <c r="H25" s="141">
         <f>(1-(1-G26)*G25)*(1-G27)</f>
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:8" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="124"/>
+      <c r="A26" s="117"/>
       <c r="B26" s="45" t="s">
         <v>74</v>
       </c>
       <c r="C26" s="24">
         <v>0.8</v>
       </c>
-      <c r="D26" s="101"/>
+      <c r="D26" s="142"/>
       <c r="E26" s="24">
         <v>0.6</v>
       </c>
-      <c r="F26" s="101"/>
+      <c r="F26" s="142"/>
       <c r="G26" s="24">
         <v>0.6</v>
       </c>
-      <c r="H26" s="101"/>
+      <c r="H26" s="142"/>
     </row>
     <row r="27" spans="1:8" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="125"/>
+      <c r="A27" s="118"/>
       <c r="B27" s="45" t="s">
         <v>37</v>
       </c>
       <c r="C27" s="27">
         <v>0</v>
       </c>
-      <c r="D27" s="102"/>
+      <c r="D27" s="143"/>
       <c r="E27" s="27">
         <v>0</v>
       </c>
-      <c r="F27" s="102"/>
+      <c r="F27" s="143"/>
       <c r="G27" s="27">
         <v>0</v>
       </c>
-      <c r="H27" s="102"/>
+      <c r="H27" s="143"/>
     </row>
     <row r="28" spans="1:8" s="39" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="126" t="s">
+      <c r="A28" s="127" t="s">
         <v>76</v>
       </c>
-      <c r="B28" s="127"/>
+      <c r="B28" s="128"/>
       <c r="C28" s="38">
         <v>0</v>
       </c>
@@ -4316,25 +4316,25 @@
       </c>
     </row>
     <row r="29" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="117" t="s">
+      <c r="A29" s="123" t="s">
         <v>54</v>
       </c>
-      <c r="B29" s="118"/>
-      <c r="C29" s="103">
+      <c r="B29" s="124"/>
+      <c r="C29" s="129">
         <f>D2*D3*D4*D9*D10*D12*D16*D18*D20*D23/D24/D25*D28</f>
         <v>16964.480000000003</v>
       </c>
-      <c r="D29" s="104"/>
-      <c r="E29" s="103">
+      <c r="D29" s="130"/>
+      <c r="E29" s="129">
         <f>F2*F3*F4*F9*F10*F12*F16*F18*F20*F23/F24/F25*F28</f>
         <v>41967.381825000004</v>
       </c>
-      <c r="F29" s="104"/>
-      <c r="G29" s="103">
+      <c r="F29" s="130"/>
+      <c r="G29" s="129">
         <f>H2*H3*H4*H9*H10*H12*H16*H18*H20*H23/H24/H25*H28</f>
         <v>45637.368918750006</v>
       </c>
-      <c r="H29" s="104"/>
+      <c r="H29" s="130"/>
     </row>
     <row r="30" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C30" s="20" t="s">
@@ -4358,30 +4358,15 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="D4:D8"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="D12:D15"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="F20:F22"/>
+    <mergeCell ref="F25:F27"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F4:F8"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="F12:F15"/>
+    <mergeCell ref="F16:F17"/>
     <mergeCell ref="H18:H19"/>
     <mergeCell ref="H20:H22"/>
     <mergeCell ref="H25:H27"/>
@@ -4391,15 +4376,30 @@
     <mergeCell ref="H10:H11"/>
     <mergeCell ref="H12:H15"/>
     <mergeCell ref="H16:H17"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="F20:F22"/>
-    <mergeCell ref="F25:F27"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="F4:F8"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="F12:F15"/>
-    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="D12:D15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="D4:D8"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Brainstorm.xlsx
+++ b/Brainstorm.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Personal@SSD\Game\DL\dragalia-data-track\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39E47662-B107-4241-8759-D58B45E022DB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F16B7BC5-9C7B-430A-AE40-033BA33D0EC5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2115" yWindow="1140" windowWidth="21600" windowHeight="14325" activeTab="4" xr2:uid="{4CFB4A6A-60C6-4091-BCA5-480044B61D33}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" xr2:uid="{4CFB4A6A-60C6-4091-BCA5-480044B61D33}"/>
   </bookViews>
   <sheets>
     <sheet name="Rotation" sheetId="8" r:id="rId1"/>
@@ -1406,6 +1406,42 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="4" fontId="5" fillId="35" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="35" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="4" fontId="5" fillId="23" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1421,136 +1457,100 @@
     <xf numFmtId="4" fontId="5" fillId="28" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="4" fontId="5" fillId="30" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="30" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="30" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="32" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="32" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="21" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="21" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="21" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="21" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="30" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="30" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="30" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="32" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="32" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="35" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="35" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1905,8 +1905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B260D6A6-975E-4594-902D-33C279C7CA35}">
   <dimension ref="A1:Y13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2023,7 +2023,7 @@
       </c>
       <c r="V2" s="69">
         <f>VLOOKUP(T3,$H$3:$M$13,6,FALSE)</f>
-        <v>2064</v>
+        <v>2371.1999999999998</v>
       </c>
       <c r="X2" s="57" t="s">
         <v>40</v>
@@ -2059,27 +2059,27 @@
       </c>
       <c r="I3" s="61">
         <f>B3 * (1+SUM($R:$R))</f>
-        <v>193.5</v>
+        <v>228</v>
       </c>
       <c r="J3" s="61">
         <f t="shared" ref="J3:J13" si="0">C3 * (1+SUM($R:$R))</f>
-        <v>387</v>
+        <v>456</v>
       </c>
       <c r="K3" s="61">
         <f t="shared" ref="K3:M10" si="1">D3 * (1+SUM($R:$R))</f>
-        <v>639.84</v>
+        <v>753.92</v>
       </c>
       <c r="L3" s="61">
         <f t="shared" si="1"/>
-        <v>981.69</v>
+        <v>1156.72</v>
       </c>
       <c r="M3" s="61">
         <f t="shared" si="1"/>
-        <v>1486.08</v>
+        <v>1751.04</v>
       </c>
       <c r="N3" s="58">
         <f t="shared" ref="N3:N13" si="2">G3 * (1+SUM($R:$R))</f>
-        <v>445.05</v>
+        <v>524.4</v>
       </c>
       <c r="O3" s="72" t="s">
         <v>17</v>
@@ -2091,27 +2091,27 @@
         <v>17</v>
       </c>
       <c r="R3" s="66">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="S3" s="60" t="s">
         <v>77</v>
       </c>
       <c r="T3" s="13" t="s">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="U3" s="68" t="s">
         <v>102</v>
       </c>
       <c r="V3" s="69">
         <f>MOD(T6, V2)</f>
-        <v>458</v>
+        <v>1995.8000000000002</v>
       </c>
       <c r="W3" s="57" t="s">
         <v>39</v>
       </c>
       <c r="X3" s="57" t="b">
         <f>AND(V3 &gt; 0, V3 &lt;= VLOOKUP($T$3,$H$3:$N$13,7,FALSE))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y3" s="57" t="b">
         <f>AND(V4 &gt; 0, V4 &lt;= VLOOKUP($T$3,$H$3:$N$13,7,FALSE))</f>
@@ -2145,27 +2145,27 @@
       </c>
       <c r="I4" s="61">
         <f t="shared" ref="I4:I13" si="3">B4 * (1+SUM($R:$R))</f>
-        <v>167.70000000000002</v>
+        <v>197.6</v>
       </c>
       <c r="J4" s="61">
         <f t="shared" si="0"/>
-        <v>335.40000000000003</v>
+        <v>395.2</v>
       </c>
       <c r="K4" s="61">
         <f t="shared" si="1"/>
-        <v>619.20000000000005</v>
+        <v>729.6</v>
       </c>
       <c r="L4" s="61">
         <f t="shared" si="1"/>
-        <v>1083.6000000000001</v>
+        <v>1276.8</v>
       </c>
       <c r="M4" s="61">
         <f t="shared" si="1"/>
-        <v>2244.6</v>
+        <v>2644.8</v>
       </c>
       <c r="N4" s="58">
         <f t="shared" si="2"/>
-        <v>258</v>
+        <v>304</v>
       </c>
       <c r="O4" s="72" t="s">
         <v>88</v>
@@ -2177,20 +2177,20 @@
         <v>88</v>
       </c>
       <c r="R4" s="66">
-        <v>0.14000000000000001</v>
+        <v>0.02</v>
       </c>
       <c r="S4" s="60" t="s">
         <v>97</v>
       </c>
       <c r="T4" s="13">
-        <v>8714</v>
+        <v>4367</v>
       </c>
       <c r="U4" s="68" t="s">
         <v>103</v>
       </c>
       <c r="V4" s="69">
         <f>MOD(T7, V2)</f>
-        <v>1872</v>
+        <v>2291.0000000000009</v>
       </c>
       <c r="W4" s="57" t="s">
         <v>105</v>
@@ -2231,27 +2231,27 @@
       </c>
       <c r="I5" s="61">
         <f t="shared" si="3"/>
-        <v>185.76</v>
+        <v>218.88</v>
       </c>
       <c r="J5" s="61">
         <f t="shared" si="0"/>
-        <v>371.52</v>
+        <v>437.76</v>
       </c>
       <c r="K5" s="61">
         <f t="shared" si="1"/>
-        <v>712.08</v>
+        <v>839.04</v>
       </c>
       <c r="L5" s="61">
         <f t="shared" si="1"/>
-        <v>1083.6000000000001</v>
+        <v>1276.8</v>
       </c>
       <c r="M5" s="61">
         <f t="shared" si="1"/>
-        <v>1702.8</v>
+        <v>2006.4</v>
       </c>
       <c r="N5" s="58">
         <f t="shared" si="2"/>
-        <v>371.52</v>
+        <v>437.76</v>
       </c>
       <c r="O5" s="72" t="s">
         <v>89</v>
@@ -2269,14 +2269,14 @@
         <v>99</v>
       </c>
       <c r="T5" s="13">
-        <v>6000</v>
+        <v>14147</v>
       </c>
       <c r="U5" s="70" t="s">
         <v>100</v>
       </c>
       <c r="V5" s="71" t="str" cm="1">
         <f t="array" ref="V5">(ROUNDDOWN(T6/V2, 0) + IF(X8,1,0)) &amp; _xlfn.IFS(X3, " + FS", X4, " + C1", X5, " + C2", X6, " + C3", X7, " + C4", TRUE, "")</f>
-        <v>4 + FS</v>
+        <v>2</v>
       </c>
       <c r="W5" s="57" t="s">
         <v>106</v>
@@ -2317,48 +2317,48 @@
       </c>
       <c r="I6" s="61">
         <f t="shared" si="3"/>
-        <v>258</v>
+        <v>304</v>
       </c>
       <c r="J6" s="61">
         <f t="shared" si="0"/>
-        <v>567.6</v>
+        <v>668.8</v>
       </c>
       <c r="K6" s="61">
         <f t="shared" si="1"/>
-        <v>1032</v>
+        <v>1216</v>
       </c>
       <c r="L6" s="61">
         <f t="shared" si="1"/>
-        <v>1522.2</v>
+        <v>1793.6</v>
       </c>
       <c r="M6" s="61">
         <f t="shared" si="1"/>
-        <v>2064</v>
+        <v>2432</v>
       </c>
       <c r="N6" s="58">
         <f t="shared" si="2"/>
-        <v>387</v>
+        <v>456</v>
       </c>
       <c r="S6" s="75" t="s">
         <v>98</v>
       </c>
       <c r="T6" s="76">
         <f>T4 * (1 - SUM(P:P))</f>
-        <v>8714</v>
+        <v>4367</v>
       </c>
       <c r="U6" s="77" t="s">
         <v>101</v>
       </c>
       <c r="V6" s="71" t="str" cm="1">
         <f t="array" ref="V6">(ROUNDDOWN(T7/V2, 0) + IF(Y8,1,0)) &amp; _xlfn.IFS(Y3, " + FS", Y4, " + C1", Y5, " + C2", Y6, " + C3", Y7, " + C4", TRUE, "")</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="W6" s="57" t="s">
         <v>107</v>
       </c>
       <c r="X6" s="57" t="b">
         <f>AND(V3 &gt; VLOOKUP($T$3,$H$3:$M$13,3,FALSE),V3 &lt;= VLOOKUP($T$3,$H$3:$M$13,4,FALSE))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y6" s="57" t="b">
         <f>AND(V4 &gt; VLOOKUP($T$3,$H$3:$M$13,3,FALSE),V4 &lt;= VLOOKUP($T$3,$H$3:$M$13,4,FALSE))</f>
@@ -2392,34 +2392,34 @@
       </c>
       <c r="I7" s="61">
         <f t="shared" si="3"/>
-        <v>154.80000000000001</v>
+        <v>182.4</v>
       </c>
       <c r="J7" s="61">
         <f t="shared" si="0"/>
-        <v>464.40000000000003</v>
+        <v>547.20000000000005</v>
       </c>
       <c r="K7" s="61">
         <f t="shared" si="1"/>
-        <v>619.20000000000005</v>
+        <v>729.6</v>
       </c>
       <c r="L7" s="61">
         <f t="shared" si="1"/>
-        <v>1238.4000000000001</v>
+        <v>1459.2</v>
       </c>
       <c r="M7" s="61">
         <f t="shared" si="1"/>
-        <v>2012.4</v>
+        <v>2371.1999999999998</v>
       </c>
       <c r="N7" s="58">
         <f t="shared" si="2"/>
-        <v>516</v>
+        <v>608</v>
       </c>
       <c r="S7" s="75" t="s">
         <v>104</v>
       </c>
       <c r="T7" s="76">
         <f>T5 * (1 - SUM(P:P))</f>
-        <v>6000</v>
+        <v>14147</v>
       </c>
       <c r="W7" s="57" t="s">
         <v>108</v>
@@ -2460,34 +2460,34 @@
       </c>
       <c r="I8" s="61">
         <f t="shared" si="3"/>
-        <v>237.36</v>
+        <v>279.68</v>
       </c>
       <c r="J8" s="61">
         <f t="shared" si="0"/>
-        <v>356.04</v>
+        <v>419.52</v>
       </c>
       <c r="K8" s="61">
         <f t="shared" si="1"/>
-        <v>712.08</v>
+        <v>839.04</v>
       </c>
       <c r="L8" s="61">
         <f t="shared" si="1"/>
-        <v>1246.1400000000001</v>
+        <v>1468.32</v>
       </c>
       <c r="M8" s="61">
         <f t="shared" si="1"/>
-        <v>1928.55</v>
+        <v>2272.4</v>
       </c>
       <c r="N8" s="58">
         <f t="shared" si="2"/>
-        <v>593.4</v>
+        <v>699.2</v>
       </c>
       <c r="W8" s="57" t="s">
         <v>109</v>
       </c>
       <c r="X8" s="57" t="b">
         <f>V3&gt;VLOOKUP($T$3,$H$3:$M$13,5,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y8" s="57" t="b">
         <f>V4&gt;VLOOKUP($T$3,$H$3:$M$13,5,FALSE)</f>
@@ -2521,27 +2521,27 @@
       </c>
       <c r="I9" s="61">
         <f t="shared" si="3"/>
-        <v>167.70000000000002</v>
+        <v>197.6</v>
       </c>
       <c r="J9" s="61">
         <f t="shared" si="0"/>
-        <v>425.7</v>
+        <v>501.6</v>
       </c>
       <c r="K9" s="61">
         <f t="shared" si="1"/>
-        <v>735.30000000000007</v>
+        <v>866.4</v>
       </c>
       <c r="L9" s="61">
         <f t="shared" si="1"/>
-        <v>1290</v>
+        <v>1520</v>
       </c>
       <c r="M9" s="61">
         <f t="shared" si="1"/>
-        <v>2064</v>
+        <v>2432</v>
       </c>
       <c r="N9" s="58">
         <f t="shared" si="2"/>
-        <v>516</v>
+        <v>608</v>
       </c>
       <c r="W9" s="57"/>
       <c r="X9" s="57"/>
@@ -2574,27 +2574,27 @@
       </c>
       <c r="I10" s="61">
         <f t="shared" si="3"/>
-        <v>299.28000000000003</v>
+        <v>352.64</v>
       </c>
       <c r="J10" s="61">
         <f t="shared" si="0"/>
-        <v>598.56000000000006</v>
+        <v>705.28</v>
       </c>
       <c r="K10" s="61">
         <f t="shared" si="1"/>
-        <v>1047.48</v>
+        <v>1234.24</v>
       </c>
       <c r="L10" s="61">
         <f t="shared" si="1"/>
-        <v>1646.04</v>
+        <v>1939.52</v>
       </c>
       <c r="M10" s="61">
         <f t="shared" si="1"/>
-        <v>2543.88</v>
+        <v>2997.44</v>
       </c>
       <c r="N10" s="58">
         <f t="shared" si="2"/>
-        <v>748.2</v>
+        <v>881.6</v>
       </c>
     </row>
     <row r="11" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2618,18 +2618,18 @@
       </c>
       <c r="I11" s="61">
         <f t="shared" si="3"/>
-        <v>703.05000000000007</v>
+        <v>828.4</v>
       </c>
       <c r="J11" s="61">
         <f t="shared" si="0"/>
-        <v>1406.1000000000001</v>
+        <v>1656.8</v>
       </c>
       <c r="K11" s="61"/>
       <c r="L11" s="61"/>
       <c r="M11" s="61"/>
       <c r="N11" s="58">
         <f t="shared" si="2"/>
-        <v>516</v>
+        <v>608</v>
       </c>
     </row>
     <row r="12" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2653,18 +2653,18 @@
       </c>
       <c r="I12" s="61">
         <f t="shared" si="3"/>
-        <v>598.56000000000006</v>
+        <v>705.28</v>
       </c>
       <c r="J12" s="61">
         <f t="shared" si="0"/>
-        <v>1197.1200000000001</v>
+        <v>1410.56</v>
       </c>
       <c r="K12" s="61"/>
       <c r="L12" s="61"/>
       <c r="M12" s="61"/>
       <c r="N12" s="58">
         <f t="shared" si="2"/>
-        <v>516</v>
+        <v>608</v>
       </c>
     </row>
     <row r="13" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2690,21 +2690,21 @@
       </c>
       <c r="I13" s="61">
         <f t="shared" si="3"/>
-        <v>387</v>
+        <v>456</v>
       </c>
       <c r="J13" s="61">
         <f t="shared" si="0"/>
-        <v>985.56000000000006</v>
+        <v>1161.28</v>
       </c>
       <c r="K13" s="61">
         <f>D13 * (1+SUM($R:$R))</f>
-        <v>1584.1200000000001</v>
+        <v>1866.56</v>
       </c>
       <c r="L13" s="61"/>
       <c r="M13" s="61"/>
       <c r="N13" s="58">
         <f t="shared" si="2"/>
-        <v>516</v>
+        <v>608</v>
       </c>
     </row>
   </sheetData>
@@ -2726,7 +2726,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3659,9 +3659,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEFF6CA3-18A6-4987-88AD-5768B35D8A0C}">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D4" sqref="D4:D8"/>
+      <selection pane="topRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3678,28 +3678,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="142" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="104" t="s">
+      <c r="B1" s="143"/>
+      <c r="C1" s="105" t="s">
         <v>146</v>
       </c>
-      <c r="D1" s="105"/>
-      <c r="E1" s="104" t="s">
+      <c r="D1" s="106"/>
+      <c r="E1" s="105" t="s">
         <v>147</v>
       </c>
-      <c r="F1" s="105"/>
-      <c r="G1" s="104" t="s">
+      <c r="F1" s="106"/>
+      <c r="G1" s="105" t="s">
         <v>145</v>
       </c>
-      <c r="H1" s="105"/>
+      <c r="H1" s="106"/>
     </row>
     <row r="2" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="102" t="s">
+      <c r="A2" s="119" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="103"/>
+      <c r="B2" s="120"/>
       <c r="C2" s="21">
         <f>5/3</f>
         <v>1.6666666666666667</v>
@@ -3726,16 +3726,16 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="102" t="s">
+      <c r="A3" s="119" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="103"/>
+      <c r="B3" s="120"/>
       <c r="C3" s="21">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="D3" s="22">
         <f>1-C3</f>
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E3" s="21">
         <v>0</v>
@@ -3753,7 +3753,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="116" t="s">
+      <c r="A4" s="123" t="s">
         <v>60</v>
       </c>
       <c r="B4" s="45" t="s">
@@ -3762,102 +3762,102 @@
       <c r="C4" s="24">
         <v>4078</v>
       </c>
-      <c r="D4" s="95">
+      <c r="D4" s="107">
         <f>(C4/(1+C5)*(1+C5+C6)*(1+C7)*(1+C8))</f>
         <v>4078</v>
       </c>
       <c r="E4" s="24">
         <v>4353</v>
       </c>
-      <c r="F4" s="95">
+      <c r="F4" s="107">
         <f>(E4/(1+E5)*(1+E5+E6)*(1+E7)*(1+E8))</f>
         <v>5005.95</v>
       </c>
       <c r="G4" s="24">
         <v>4353</v>
       </c>
-      <c r="H4" s="95">
+      <c r="H4" s="107">
         <f>(G4/(1+G5)*(1+G5+G6)*(1+G7)*(1+G8))</f>
         <v>5005.95</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="117"/>
+      <c r="A5" s="124"/>
       <c r="B5" s="45" t="s">
         <v>44</v>
       </c>
       <c r="C5" s="26">
         <v>0</v>
       </c>
-      <c r="D5" s="96"/>
+      <c r="D5" s="108"/>
       <c r="E5" s="26">
         <v>0</v>
       </c>
-      <c r="F5" s="96"/>
+      <c r="F5" s="108"/>
       <c r="G5" s="26">
         <v>0</v>
       </c>
-      <c r="H5" s="96"/>
+      <c r="H5" s="108"/>
     </row>
     <row r="6" spans="1:8" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="117"/>
+      <c r="A6" s="124"/>
       <c r="B6" s="45" t="s">
         <v>45</v>
       </c>
       <c r="C6" s="27">
         <v>0</v>
       </c>
-      <c r="D6" s="96"/>
+      <c r="D6" s="108"/>
       <c r="E6" s="27">
         <v>0</v>
       </c>
-      <c r="F6" s="96"/>
+      <c r="F6" s="108"/>
       <c r="G6" s="27">
         <v>0</v>
       </c>
-      <c r="H6" s="96"/>
+      <c r="H6" s="108"/>
     </row>
     <row r="7" spans="1:8" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="117"/>
+      <c r="A7" s="124"/>
       <c r="B7" s="45" t="s">
         <v>56</v>
       </c>
       <c r="C7" s="27">
         <v>0</v>
       </c>
-      <c r="D7" s="96"/>
+      <c r="D7" s="108"/>
       <c r="E7" s="27">
         <v>0.15</v>
       </c>
-      <c r="F7" s="96"/>
+      <c r="F7" s="108"/>
       <c r="G7" s="27">
         <v>0.15</v>
       </c>
-      <c r="H7" s="96"/>
+      <c r="H7" s="108"/>
     </row>
     <row r="8" spans="1:8" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="118"/>
+      <c r="A8" s="125"/>
       <c r="B8" s="45" t="s">
         <v>57</v>
       </c>
       <c r="C8" s="27">
         <v>0</v>
       </c>
-      <c r="D8" s="97"/>
+      <c r="D8" s="109"/>
       <c r="E8" s="27">
         <v>0</v>
       </c>
-      <c r="F8" s="97"/>
+      <c r="F8" s="109"/>
       <c r="G8" s="27">
         <v>0</v>
       </c>
-      <c r="H8" s="97"/>
+      <c r="H8" s="109"/>
     </row>
     <row r="9" spans="1:8" s="30" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="119" t="s">
+      <c r="A9" s="138" t="s">
         <v>46</v>
       </c>
-      <c r="B9" s="120"/>
+      <c r="B9" s="139"/>
       <c r="C9" s="28">
         <v>16.64</v>
       </c>
@@ -3881,7 +3881,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" s="32" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="121" t="s">
+      <c r="A10" s="140" t="s">
         <v>62</v>
       </c>
       <c r="B10" s="46" t="s">
@@ -3890,45 +3890,45 @@
       <c r="C10" s="31">
         <v>0</v>
       </c>
-      <c r="D10" s="98">
+      <c r="D10" s="110">
         <f>1+((0.7+C11)*C10)</f>
         <v>1</v>
       </c>
       <c r="E10" s="31">
         <v>0</v>
       </c>
-      <c r="F10" s="98">
+      <c r="F10" s="110">
         <f>1+((0.7+E11)*E10)</f>
         <v>1</v>
       </c>
       <c r="G10" s="31">
         <v>0</v>
       </c>
-      <c r="H10" s="98">
+      <c r="H10" s="110">
         <f>1+((0.7+G11)*G10)</f>
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="32" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="122"/>
+      <c r="A11" s="141"/>
       <c r="B11" s="46" t="s">
         <v>42</v>
       </c>
       <c r="C11" s="33">
         <v>1.7</v>
       </c>
-      <c r="D11" s="99"/>
+      <c r="D11" s="111"/>
       <c r="E11" s="33">
         <v>0</v>
       </c>
-      <c r="F11" s="99"/>
+      <c r="F11" s="111"/>
       <c r="G11" s="33">
         <v>0</v>
       </c>
-      <c r="H11" s="99"/>
+      <c r="H11" s="111"/>
     </row>
     <row r="12" spans="1:8" s="35" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="111" t="s">
+      <c r="A12" s="133" t="s">
         <v>64</v>
       </c>
       <c r="B12" s="47" t="s">
@@ -3937,81 +3937,81 @@
       <c r="C12" s="34">
         <v>0</v>
       </c>
-      <c r="D12" s="131">
+      <c r="D12" s="112">
         <f>(1+C12+C13)*(1+C14)*(1+C15)</f>
         <v>1</v>
       </c>
       <c r="E12" s="34">
         <v>0</v>
       </c>
-      <c r="F12" s="131">
+      <c r="F12" s="112">
         <f>(1+E12+E13)*(1+E14)*(1+E15)</f>
         <v>1.1499999999999999</v>
       </c>
       <c r="G12" s="34">
         <v>0</v>
       </c>
-      <c r="H12" s="131">
+      <c r="H12" s="112">
         <f>(1+G12+G13)*(1+G14)*(1+G15)</f>
         <v>1.1499999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="35" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="112"/>
+      <c r="A13" s="134"/>
       <c r="B13" s="47" t="s">
         <v>48</v>
       </c>
       <c r="C13" s="34">
         <v>0</v>
       </c>
-      <c r="D13" s="132"/>
+      <c r="D13" s="113"/>
       <c r="E13" s="34">
         <v>0</v>
       </c>
-      <c r="F13" s="132"/>
+      <c r="F13" s="113"/>
       <c r="G13" s="34">
         <v>0</v>
       </c>
-      <c r="H13" s="132"/>
+      <c r="H13" s="113"/>
     </row>
     <row r="14" spans="1:8" s="35" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="112"/>
+      <c r="A14" s="134"/>
       <c r="B14" s="47" t="s">
         <v>69</v>
       </c>
       <c r="C14" s="34">
         <v>0</v>
       </c>
-      <c r="D14" s="132"/>
+      <c r="D14" s="113"/>
       <c r="E14" s="34">
         <v>0.15</v>
       </c>
-      <c r="F14" s="132"/>
+      <c r="F14" s="113"/>
       <c r="G14" s="34">
         <v>0.15</v>
       </c>
-      <c r="H14" s="132"/>
+      <c r="H14" s="113"/>
     </row>
     <row r="15" spans="1:8" s="35" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="113"/>
+      <c r="A15" s="135"/>
       <c r="B15" s="47" t="s">
         <v>70</v>
       </c>
       <c r="C15" s="34">
         <v>0</v>
       </c>
-      <c r="D15" s="133"/>
+      <c r="D15" s="114"/>
       <c r="E15" s="34">
         <v>0</v>
       </c>
-      <c r="F15" s="133"/>
+      <c r="F15" s="114"/>
       <c r="G15" s="34">
         <v>0</v>
       </c>
-      <c r="H15" s="133"/>
+      <c r="H15" s="114"/>
     </row>
     <row r="16" spans="1:8" s="37" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="114" t="s">
+      <c r="A16" s="136" t="s">
         <v>65</v>
       </c>
       <c r="B16" s="48" t="s">
@@ -4020,45 +4020,45 @@
       <c r="C16" s="36">
         <v>0</v>
       </c>
-      <c r="D16" s="134">
+      <c r="D16" s="115">
         <f>(1+C16)*(1+C17)</f>
         <v>1</v>
       </c>
       <c r="E16" s="36">
         <v>0</v>
       </c>
-      <c r="F16" s="134">
+      <c r="F16" s="115">
         <f>(1+E16)*(1+E17)</f>
         <v>1</v>
       </c>
       <c r="G16" s="36">
         <v>0</v>
       </c>
-      <c r="H16" s="134">
+      <c r="H16" s="115">
         <f>(1+G16)*(1+G17)</f>
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="37" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="115"/>
+      <c r="A17" s="137"/>
       <c r="B17" s="48" t="s">
         <v>49</v>
       </c>
       <c r="C17" s="36">
         <v>0</v>
       </c>
-      <c r="D17" s="135"/>
+      <c r="D17" s="116"/>
       <c r="E17" s="36">
         <v>0</v>
       </c>
-      <c r="F17" s="135"/>
+      <c r="F17" s="116"/>
       <c r="G17" s="36">
         <v>0</v>
       </c>
-      <c r="H17" s="135"/>
+      <c r="H17" s="116"/>
     </row>
     <row r="18" spans="1:8" s="39" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="106" t="s">
+      <c r="A18" s="128" t="s">
         <v>66</v>
       </c>
       <c r="B18" s="49" t="s">
@@ -4067,45 +4067,45 @@
       <c r="C18" s="38">
         <v>1.5</v>
       </c>
-      <c r="D18" s="136">
+      <c r="D18" s="95">
         <f>C18+C19</f>
         <v>1.5</v>
       </c>
       <c r="E18" s="38">
         <v>1.5</v>
       </c>
-      <c r="F18" s="136">
+      <c r="F18" s="95">
         <f>E18+E19</f>
         <v>1.5</v>
       </c>
       <c r="G18" s="38">
         <v>1.5</v>
       </c>
-      <c r="H18" s="136">
+      <c r="H18" s="95">
         <f>G18+G19</f>
         <v>1.5</v>
       </c>
     </row>
     <row r="19" spans="1:8" s="39" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="107"/>
+      <c r="A19" s="129"/>
       <c r="B19" s="49" t="s">
         <v>59</v>
       </c>
       <c r="C19" s="40">
         <v>0</v>
       </c>
-      <c r="D19" s="137"/>
+      <c r="D19" s="96"/>
       <c r="E19" s="40">
         <v>0</v>
       </c>
-      <c r="F19" s="137"/>
+      <c r="F19" s="96"/>
       <c r="G19" s="40">
         <v>0</v>
       </c>
-      <c r="H19" s="137"/>
+      <c r="H19" s="96"/>
     </row>
     <row r="20" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="108" t="s">
+      <c r="A20" s="130" t="s">
         <v>72</v>
       </c>
       <c r="B20" s="50" t="s">
@@ -4114,66 +4114,66 @@
       <c r="C20" s="41">
         <v>0</v>
       </c>
-      <c r="D20" s="138">
+      <c r="D20" s="97">
         <f>1+C20*(0.2+C21+C22)</f>
         <v>1</v>
       </c>
       <c r="E20" s="41">
         <v>0</v>
       </c>
-      <c r="F20" s="138">
+      <c r="F20" s="97">
         <f>1+E20*(0.2+E21+E22)</f>
         <v>1</v>
       </c>
       <c r="G20" s="41">
         <v>0</v>
       </c>
-      <c r="H20" s="138">
+      <c r="H20" s="97">
         <f>1+G20*(0.2+G21+G22)</f>
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="109"/>
+      <c r="A21" s="131"/>
       <c r="B21" s="50" t="s">
         <v>50</v>
       </c>
       <c r="C21" s="41">
         <v>0.5</v>
       </c>
-      <c r="D21" s="139"/>
+      <c r="D21" s="98"/>
       <c r="E21" s="41">
         <v>0.5</v>
       </c>
-      <c r="F21" s="139"/>
+      <c r="F21" s="98"/>
       <c r="G21" s="41">
         <v>0.5</v>
       </c>
-      <c r="H21" s="139"/>
+      <c r="H21" s="98"/>
     </row>
     <row r="22" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="110"/>
+      <c r="A22" s="132"/>
       <c r="B22" s="50" t="s">
         <v>51</v>
       </c>
       <c r="C22" s="41">
         <v>0</v>
       </c>
-      <c r="D22" s="140"/>
+      <c r="D22" s="99"/>
       <c r="E22" s="41">
         <v>0</v>
       </c>
-      <c r="F22" s="140"/>
+      <c r="F22" s="99"/>
       <c r="G22" s="41">
         <v>0</v>
       </c>
-      <c r="H22" s="140"/>
+      <c r="H22" s="99"/>
     </row>
     <row r="23" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="102" t="s">
+      <c r="A23" s="119" t="s">
         <v>73</v>
       </c>
-      <c r="B23" s="103"/>
+      <c r="B23" s="120"/>
       <c r="C23" s="21">
         <v>1</v>
       </c>
@@ -4197,10 +4197,10 @@
       </c>
     </row>
     <row r="24" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="125" t="s">
+      <c r="A24" s="121" t="s">
         <v>52</v>
       </c>
-      <c r="B24" s="126"/>
+      <c r="B24" s="122"/>
       <c r="C24" s="41">
         <v>10</v>
       </c>
@@ -4224,7 +4224,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="116" t="s">
+      <c r="A25" s="123" t="s">
         <v>53</v>
       </c>
       <c r="B25" s="45" t="s">
@@ -4233,66 +4233,66 @@
       <c r="C25" s="24">
         <v>0</v>
       </c>
-      <c r="D25" s="141">
+      <c r="D25" s="100">
         <f>(1-(1-C26)*C25)*(1-C27)</f>
         <v>1</v>
       </c>
       <c r="E25" s="24">
         <v>0</v>
       </c>
-      <c r="F25" s="141">
+      <c r="F25" s="100">
         <f>(1-(1-E26)*E25)*(1-E27)</f>
         <v>1</v>
       </c>
       <c r="G25" s="24">
         <v>0</v>
       </c>
-      <c r="H25" s="141">
+      <c r="H25" s="100">
         <f>(1-(1-G26)*G25)*(1-G27)</f>
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:8" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="117"/>
+      <c r="A26" s="124"/>
       <c r="B26" s="45" t="s">
         <v>74</v>
       </c>
       <c r="C26" s="24">
         <v>0.8</v>
       </c>
-      <c r="D26" s="142"/>
+      <c r="D26" s="101"/>
       <c r="E26" s="24">
         <v>0.6</v>
       </c>
-      <c r="F26" s="142"/>
+      <c r="F26" s="101"/>
       <c r="G26" s="24">
         <v>0.6</v>
       </c>
-      <c r="H26" s="142"/>
+      <c r="H26" s="101"/>
     </row>
     <row r="27" spans="1:8" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="118"/>
+      <c r="A27" s="125"/>
       <c r="B27" s="45" t="s">
         <v>37</v>
       </c>
       <c r="C27" s="27">
         <v>0</v>
       </c>
-      <c r="D27" s="143"/>
+      <c r="D27" s="102"/>
       <c r="E27" s="27">
         <v>0</v>
       </c>
-      <c r="F27" s="143"/>
+      <c r="F27" s="102"/>
       <c r="G27" s="27">
         <v>0</v>
       </c>
-      <c r="H27" s="143"/>
+      <c r="H27" s="102"/>
     </row>
     <row r="28" spans="1:8" s="39" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="127" t="s">
+      <c r="A28" s="126" t="s">
         <v>76</v>
       </c>
-      <c r="B28" s="128"/>
+      <c r="B28" s="127"/>
       <c r="C28" s="38">
         <v>0</v>
       </c>
@@ -4316,25 +4316,25 @@
       </c>
     </row>
     <row r="29" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="123" t="s">
+      <c r="A29" s="117" t="s">
         <v>54</v>
       </c>
-      <c r="B29" s="124"/>
-      <c r="C29" s="129">
+      <c r="B29" s="118"/>
+      <c r="C29" s="103">
         <f>D2*D3*D4*D9*D10*D12*D16*D18*D20*D23/D24/D25*D28</f>
-        <v>16964.480000000003</v>
-      </c>
-      <c r="D29" s="130"/>
-      <c r="E29" s="129">
+        <v>15268.032000000001</v>
+      </c>
+      <c r="D29" s="104"/>
+      <c r="E29" s="103">
         <f>F2*F3*F4*F9*F10*F12*F16*F18*F20*F23/F24/F25*F28</f>
         <v>41967.381825000004</v>
       </c>
-      <c r="F29" s="130"/>
-      <c r="G29" s="129">
+      <c r="F29" s="104"/>
+      <c r="G29" s="103">
         <f>H2*H3*H4*H9*H10*H12*H16*H18*H20*H23/H24/H25*H28</f>
         <v>45637.368918750006</v>
       </c>
-      <c r="H29" s="130"/>
+      <c r="H29" s="104"/>
     </row>
     <row r="30" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C30" s="20" t="s">
@@ -4358,6 +4358,39 @@
     </row>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="D4:D8"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="D12:D15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="H20:H22"/>
+    <mergeCell ref="H25:H27"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="H4:H8"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="H12:H15"/>
+    <mergeCell ref="H16:H17"/>
     <mergeCell ref="F18:F19"/>
     <mergeCell ref="F20:F22"/>
     <mergeCell ref="F25:F27"/>
@@ -4367,39 +4400,6 @@
     <mergeCell ref="F10:F11"/>
     <mergeCell ref="F12:F15"/>
     <mergeCell ref="F16:F17"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="H20:H22"/>
-    <mergeCell ref="H25:H27"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="H4:H8"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="H12:H15"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="D12:D15"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="D25:D27"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="D4:D8"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Brainstorm.xlsx
+++ b/Brainstorm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Personal@SSD\Game\DL\dragalia-data-track\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F16B7BC5-9C7B-430A-AE40-033BA33D0EC5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D185E776-74AA-4794-A881-F4CD8E6C6CA7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" xr2:uid="{4CFB4A6A-60C6-4091-BCA5-480044B61D33}"/>
+    <workbookView xWindow="2145" yWindow="1920" windowWidth="21600" windowHeight="11385" activeTab="7" xr2:uid="{4CFB4A6A-60C6-4091-BCA5-480044B61D33}"/>
   </bookViews>
   <sheets>
     <sheet name="Rotation" sheetId="8" r:id="rId1"/>
@@ -18,6 +18,9 @@
     <sheet name="Equips" sheetId="6" r:id="rId3"/>
     <sheet name="Steps" sheetId="4" r:id="rId4"/>
     <sheet name="Damage" sheetId="7" r:id="rId5"/>
+    <sheet name="Dragon" sheetId="9" r:id="rId6"/>
+    <sheet name="CRT effect" sheetId="10" r:id="rId7"/>
+    <sheet name="Corrosion" sheetId="11" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -91,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="185">
   <si>
     <t>睡抗</t>
   </si>
@@ -537,12 +540,129 @@
   </si>
   <si>
     <t>Serena</t>
+  </si>
+  <si>
+    <t>龍 被動</t>
+  </si>
+  <si>
+    <t>屬性傷害</t>
+  </si>
+  <si>
+    <t>角色 被動</t>
+  </si>
+  <si>
+    <t>普攻</t>
+  </si>
+  <si>
+    <t>DPS</t>
+  </si>
+  <si>
+    <t>最終 DPS</t>
+  </si>
+  <si>
+    <t>基礎</t>
+  </si>
+  <si>
+    <t>額外</t>
+  </si>
+  <si>
+    <t>基礎+額外</t>
+  </si>
+  <si>
+    <t>+額外</t>
+  </si>
+  <si>
+    <t>倍率</t>
+  </si>
+  <si>
+    <t>傷害</t>
+  </si>
+  <si>
+    <t>原始</t>
+  </si>
+  <si>
+    <t>傷害 x</t>
+  </si>
+  <si>
+    <t>普攻 x</t>
+  </si>
+  <si>
+    <t>Buff +</t>
+  </si>
+  <si>
+    <t>Buff x</t>
+  </si>
+  <si>
+    <t>波勇</t>
+  </si>
+  <si>
+    <t>加百列</t>
+  </si>
+  <si>
+    <t>疊加周期</t>
+  </si>
+  <si>
+    <t>疊加量</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>損血點</t>
+  </si>
+  <si>
+    <t>損血量</t>
+  </si>
+  <si>
+    <t>累進損血量</t>
+  </si>
+  <si>
+    <t>基礎量</t>
+  </si>
+  <si>
+    <t>基礎周期</t>
+  </si>
+  <si>
+    <t>實際疊加量</t>
+  </si>
+  <si>
+    <t>累進秒損血</t>
+  </si>
+  <si>
+    <t>重設點</t>
+  </si>
+  <si>
+    <t>回血周期</t>
+  </si>
+  <si>
+    <t>回血量</t>
+  </si>
+  <si>
+    <t>回血減少量</t>
+  </si>
+  <si>
+    <t>實際回血量</t>
+  </si>
+  <si>
+    <t>每秒回血量</t>
+  </si>
+  <si>
+    <t>秒損血</t>
+  </si>
+  <si>
+    <t>實際秒損血</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="4">
+    <numFmt numFmtId="164" formatCode="[Color50]\+0.00%;[Red]\-0.00%;0.00%"/>
+    <numFmt numFmtId="165" formatCode="0.000%"/>
+    <numFmt numFmtId="166" formatCode="0.0000%"/>
+    <numFmt numFmtId="167" formatCode="\+0.00%;\-0.00%"/>
+  </numFmts>
   <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -641,7 +761,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="44">
+  <fills count="46">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -900,8 +1020,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF323232"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF3C0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="17">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -1117,12 +1249,51 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="144">
+  <cellXfs count="202">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1364,6 +1535,123 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="39" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="33" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="43" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="43" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="42" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="42" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="42" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="44" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="43" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="40" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="44" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="39" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="33" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="42" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="44" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="45" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="45" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="45" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="45" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="44" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="44" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="45" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="45" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="45" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="8" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="41" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1551,6 +1839,63 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="43" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="43" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="33" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="43" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="43" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="40" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="43" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1562,16 +1907,16 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF003217"/>
+      <color rgb="FF320000"/>
+      <color rgb="FF323232"/>
+      <color rgb="FF240000"/>
       <color rgb="FF030024"/>
-      <color rgb="FF003217"/>
-      <color rgb="FF240000"/>
       <color rgb="FF323100"/>
+      <color rgb="FF1B0C26"/>
       <color rgb="FF000C24"/>
       <color rgb="FF242300"/>
       <color rgb="FF140000"/>
-      <color rgb="FF0E2234"/>
-      <color rgb="FF320000"/>
-      <color rgb="FF1B0C26"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1905,8 +2250,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B260D6A6-975E-4594-902D-33C279C7CA35}">
   <dimension ref="A1:Y13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R4" sqref="R4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1924,40 +2269,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="126" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="87" t="s">
+      <c r="B1" s="127"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
+      <c r="E1" s="127"/>
+      <c r="F1" s="127"/>
+      <c r="G1" s="128"/>
+      <c r="H1" s="126" t="s">
         <v>93</v>
       </c>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="90" t="s">
+      <c r="I1" s="127"/>
+      <c r="J1" s="127"/>
+      <c r="K1" s="127"/>
+      <c r="L1" s="127"/>
+      <c r="M1" s="127"/>
+      <c r="N1" s="128"/>
+      <c r="O1" s="129" t="s">
         <v>96</v>
       </c>
-      <c r="P1" s="91"/>
-      <c r="Q1" s="81" t="s">
+      <c r="P1" s="130"/>
+      <c r="Q1" s="120" t="s">
         <v>95</v>
       </c>
-      <c r="R1" s="82"/>
-      <c r="S1" s="83" t="s">
+      <c r="R1" s="121"/>
+      <c r="S1" s="122" t="s">
         <v>90</v>
       </c>
-      <c r="T1" s="84"/>
-      <c r="U1" s="85" t="s">
+      <c r="T1" s="123"/>
+      <c r="U1" s="124" t="s">
         <v>91</v>
       </c>
-      <c r="V1" s="86"/>
+      <c r="V1" s="125"/>
     </row>
     <row r="2" spans="1:25" s="57" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="64" t="s">
@@ -2012,7 +2357,7 @@
         <v>87</v>
       </c>
       <c r="R2" s="66">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="S2" s="60" t="s">
         <v>9</v>
@@ -2023,7 +2368,7 @@
       </c>
       <c r="V2" s="69">
         <f>VLOOKUP(T3,$H$3:$M$13,6,FALSE)</f>
-        <v>2371.1999999999998</v>
+        <v>1560</v>
       </c>
       <c r="X2" s="57" t="s">
         <v>40</v>
@@ -2059,27 +2404,27 @@
       </c>
       <c r="I3" s="61">
         <f>B3 * (1+SUM($R:$R))</f>
-        <v>228</v>
+        <v>150</v>
       </c>
       <c r="J3" s="61">
         <f t="shared" ref="J3:J13" si="0">C3 * (1+SUM($R:$R))</f>
-        <v>456</v>
+        <v>300</v>
       </c>
       <c r="K3" s="61">
         <f t="shared" ref="K3:M10" si="1">D3 * (1+SUM($R:$R))</f>
-        <v>753.92</v>
+        <v>496</v>
       </c>
       <c r="L3" s="61">
         <f t="shared" si="1"/>
-        <v>1156.72</v>
+        <v>761</v>
       </c>
       <c r="M3" s="61">
         <f t="shared" si="1"/>
-        <v>1751.04</v>
+        <v>1152</v>
       </c>
       <c r="N3" s="58">
         <f t="shared" ref="N3:N13" si="2">G3 * (1+SUM($R:$R))</f>
-        <v>524.4</v>
+        <v>345</v>
       </c>
       <c r="O3" s="72" t="s">
         <v>17</v>
@@ -2091,7 +2436,7 @@
         <v>17</v>
       </c>
       <c r="R3" s="66">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="S3" s="60" t="s">
         <v>77</v>
@@ -2104,7 +2449,7 @@
       </c>
       <c r="V3" s="69">
         <f>MOD(T6, V2)</f>
-        <v>1995.8000000000002</v>
+        <v>690</v>
       </c>
       <c r="W3" s="57" t="s">
         <v>39</v>
@@ -2145,27 +2490,27 @@
       </c>
       <c r="I4" s="61">
         <f t="shared" ref="I4:I13" si="3">B4 * (1+SUM($R:$R))</f>
-        <v>197.6</v>
+        <v>130</v>
       </c>
       <c r="J4" s="61">
         <f t="shared" si="0"/>
-        <v>395.2</v>
+        <v>260</v>
       </c>
       <c r="K4" s="61">
         <f t="shared" si="1"/>
-        <v>729.6</v>
+        <v>480</v>
       </c>
       <c r="L4" s="61">
         <f t="shared" si="1"/>
-        <v>1276.8</v>
+        <v>840</v>
       </c>
       <c r="M4" s="61">
         <f t="shared" si="1"/>
-        <v>2644.8</v>
+        <v>1740</v>
       </c>
       <c r="N4" s="58">
         <f t="shared" si="2"/>
-        <v>304</v>
+        <v>200</v>
       </c>
       <c r="O4" s="72" t="s">
         <v>88</v>
@@ -2177,20 +2522,20 @@
         <v>88</v>
       </c>
       <c r="R4" s="66">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="S4" s="60" t="s">
         <v>97</v>
       </c>
       <c r="T4" s="13">
-        <v>4367</v>
+        <v>3810</v>
       </c>
       <c r="U4" s="68" t="s">
         <v>103</v>
       </c>
       <c r="V4" s="69">
         <f>MOD(T7, V2)</f>
-        <v>2291.0000000000009</v>
+        <v>0</v>
       </c>
       <c r="W4" s="57" t="s">
         <v>105</v>
@@ -2231,27 +2576,27 @@
       </c>
       <c r="I5" s="61">
         <f t="shared" si="3"/>
-        <v>218.88</v>
+        <v>144</v>
       </c>
       <c r="J5" s="61">
         <f t="shared" si="0"/>
-        <v>437.76</v>
+        <v>288</v>
       </c>
       <c r="K5" s="61">
         <f t="shared" si="1"/>
-        <v>839.04</v>
+        <v>552</v>
       </c>
       <c r="L5" s="61">
         <f t="shared" si="1"/>
-        <v>1276.8</v>
+        <v>840</v>
       </c>
       <c r="M5" s="61">
         <f t="shared" si="1"/>
-        <v>2006.4</v>
+        <v>1320</v>
       </c>
       <c r="N5" s="58">
         <f t="shared" si="2"/>
-        <v>437.76</v>
+        <v>288</v>
       </c>
       <c r="O5" s="72" t="s">
         <v>89</v>
@@ -2269,14 +2614,14 @@
         <v>99</v>
       </c>
       <c r="T5" s="13">
-        <v>14147</v>
+        <v>9360</v>
       </c>
       <c r="U5" s="70" t="s">
         <v>100</v>
       </c>
       <c r="V5" s="71" t="str" cm="1">
         <f t="array" ref="V5">(ROUNDDOWN(T6/V2, 0) + IF(X8,1,0)) &amp; _xlfn.IFS(X3, " + FS", X4, " + C1", X5, " + C2", X6, " + C3", X7, " + C4", TRUE, "")</f>
-        <v>2</v>
+        <v>2 + C4</v>
       </c>
       <c r="W5" s="57" t="s">
         <v>106</v>
@@ -2317,34 +2662,34 @@
       </c>
       <c r="I6" s="61">
         <f t="shared" si="3"/>
-        <v>304</v>
+        <v>200</v>
       </c>
       <c r="J6" s="61">
         <f t="shared" si="0"/>
-        <v>668.8</v>
+        <v>440</v>
       </c>
       <c r="K6" s="61">
         <f t="shared" si="1"/>
-        <v>1216</v>
+        <v>800</v>
       </c>
       <c r="L6" s="61">
         <f t="shared" si="1"/>
-        <v>1793.6</v>
+        <v>1180</v>
       </c>
       <c r="M6" s="61">
         <f t="shared" si="1"/>
-        <v>2432</v>
+        <v>1600</v>
       </c>
       <c r="N6" s="58">
         <f t="shared" si="2"/>
-        <v>456</v>
+        <v>300</v>
       </c>
       <c r="S6" s="75" t="s">
         <v>98</v>
       </c>
       <c r="T6" s="76">
         <f>T4 * (1 - SUM(P:P))</f>
-        <v>4367</v>
+        <v>3810</v>
       </c>
       <c r="U6" s="77" t="s">
         <v>101</v>
@@ -2392,41 +2737,41 @@
       </c>
       <c r="I7" s="61">
         <f t="shared" si="3"/>
-        <v>182.4</v>
+        <v>120</v>
       </c>
       <c r="J7" s="61">
         <f t="shared" si="0"/>
-        <v>547.20000000000005</v>
+        <v>360</v>
       </c>
       <c r="K7" s="61">
         <f t="shared" si="1"/>
-        <v>729.6</v>
+        <v>480</v>
       </c>
       <c r="L7" s="61">
         <f t="shared" si="1"/>
-        <v>1459.2</v>
+        <v>960</v>
       </c>
       <c r="M7" s="61">
         <f t="shared" si="1"/>
-        <v>2371.1999999999998</v>
+        <v>1560</v>
       </c>
       <c r="N7" s="58">
         <f t="shared" si="2"/>
-        <v>608</v>
+        <v>400</v>
       </c>
       <c r="S7" s="75" t="s">
         <v>104</v>
       </c>
       <c r="T7" s="76">
         <f>T5 * (1 - SUM(P:P))</f>
-        <v>14147</v>
+        <v>9360</v>
       </c>
       <c r="W7" s="57" t="s">
         <v>108</v>
       </c>
       <c r="X7" s="57" t="b">
         <f>AND(V3 &gt; VLOOKUP($T$3,$H$3:$M$13,4,FALSE),V3 &lt;= VLOOKUP($T$3,$H$3:$M$13,5,FALSE))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y7" s="57" t="b">
         <f>AND(V4 &gt; VLOOKUP($T$3,$H$3:$M$13,4,FALSE),V4 &lt;= VLOOKUP($T$3,$H$3:$M$13,5,FALSE))</f>
@@ -2460,38 +2805,38 @@
       </c>
       <c r="I8" s="61">
         <f t="shared" si="3"/>
-        <v>279.68</v>
+        <v>184</v>
       </c>
       <c r="J8" s="61">
         <f t="shared" si="0"/>
-        <v>419.52</v>
+        <v>276</v>
       </c>
       <c r="K8" s="61">
         <f t="shared" si="1"/>
-        <v>839.04</v>
+        <v>552</v>
       </c>
       <c r="L8" s="61">
         <f t="shared" si="1"/>
-        <v>1468.32</v>
+        <v>966</v>
       </c>
       <c r="M8" s="61">
         <f t="shared" si="1"/>
-        <v>2272.4</v>
+        <v>1495</v>
       </c>
       <c r="N8" s="58">
         <f t="shared" si="2"/>
-        <v>699.2</v>
+        <v>460</v>
       </c>
       <c r="W8" s="57" t="s">
         <v>109</v>
       </c>
       <c r="X8" s="57" t="b">
         <f>V3&gt;VLOOKUP($T$3,$H$3:$M$13,5,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y8" s="57" t="b">
         <f>V4&gt;VLOOKUP($T$3,$H$3:$M$13,5,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2521,27 +2866,27 @@
       </c>
       <c r="I9" s="61">
         <f t="shared" si="3"/>
-        <v>197.6</v>
+        <v>130</v>
       </c>
       <c r="J9" s="61">
         <f t="shared" si="0"/>
-        <v>501.6</v>
+        <v>330</v>
       </c>
       <c r="K9" s="61">
         <f t="shared" si="1"/>
-        <v>866.4</v>
+        <v>570</v>
       </c>
       <c r="L9" s="61">
         <f t="shared" si="1"/>
-        <v>1520</v>
+        <v>1000</v>
       </c>
       <c r="M9" s="61">
         <f t="shared" si="1"/>
-        <v>2432</v>
+        <v>1600</v>
       </c>
       <c r="N9" s="58">
         <f t="shared" si="2"/>
-        <v>608</v>
+        <v>400</v>
       </c>
       <c r="W9" s="57"/>
       <c r="X9" s="57"/>
@@ -2574,27 +2919,27 @@
       </c>
       <c r="I10" s="61">
         <f t="shared" si="3"/>
-        <v>352.64</v>
+        <v>232</v>
       </c>
       <c r="J10" s="61">
         <f t="shared" si="0"/>
-        <v>705.28</v>
+        <v>464</v>
       </c>
       <c r="K10" s="61">
         <f t="shared" si="1"/>
-        <v>1234.24</v>
+        <v>812</v>
       </c>
       <c r="L10" s="61">
         <f t="shared" si="1"/>
-        <v>1939.52</v>
+        <v>1276</v>
       </c>
       <c r="M10" s="61">
         <f t="shared" si="1"/>
-        <v>2997.44</v>
+        <v>1972</v>
       </c>
       <c r="N10" s="58">
         <f t="shared" si="2"/>
-        <v>881.6</v>
+        <v>580</v>
       </c>
     </row>
     <row r="11" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2618,18 +2963,18 @@
       </c>
       <c r="I11" s="61">
         <f t="shared" si="3"/>
-        <v>828.4</v>
+        <v>545</v>
       </c>
       <c r="J11" s="61">
         <f t="shared" si="0"/>
-        <v>1656.8</v>
+        <v>1090</v>
       </c>
       <c r="K11" s="61"/>
       <c r="L11" s="61"/>
       <c r="M11" s="61"/>
       <c r="N11" s="58">
         <f t="shared" si="2"/>
-        <v>608</v>
+        <v>400</v>
       </c>
     </row>
     <row r="12" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2653,18 +2998,18 @@
       </c>
       <c r="I12" s="61">
         <f t="shared" si="3"/>
-        <v>705.28</v>
+        <v>464</v>
       </c>
       <c r="J12" s="61">
         <f t="shared" si="0"/>
-        <v>1410.56</v>
+        <v>928</v>
       </c>
       <c r="K12" s="61"/>
       <c r="L12" s="61"/>
       <c r="M12" s="61"/>
       <c r="N12" s="58">
         <f t="shared" si="2"/>
-        <v>608</v>
+        <v>400</v>
       </c>
     </row>
     <row r="13" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2690,21 +3035,21 @@
       </c>
       <c r="I13" s="61">
         <f t="shared" si="3"/>
-        <v>456</v>
+        <v>300</v>
       </c>
       <c r="J13" s="61">
         <f t="shared" si="0"/>
-        <v>1161.28</v>
+        <v>764</v>
       </c>
       <c r="K13" s="61">
         <f>D13 * (1+SUM($R:$R))</f>
-        <v>1866.56</v>
+        <v>1228</v>
       </c>
       <c r="L13" s="61"/>
       <c r="M13" s="61"/>
       <c r="N13" s="58">
         <f t="shared" si="2"/>
-        <v>608</v>
+        <v>400</v>
       </c>
     </row>
   </sheetData>
@@ -2726,7 +3071,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3312,34 +3657,34 @@
       <c r="A18" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B18" s="93" t="s">
+      <c r="B18" s="132" t="s">
         <v>135</v>
       </c>
-      <c r="C18" s="93"/>
-      <c r="D18" s="93"/>
-      <c r="E18" s="94"/>
+      <c r="C18" s="132"/>
+      <c r="D18" s="132"/>
+      <c r="E18" s="133"/>
     </row>
     <row r="19" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B19" s="92" t="s">
+      <c r="B19" s="131" t="s">
         <v>137</v>
       </c>
-      <c r="C19" s="93"/>
-      <c r="D19" s="93"/>
-      <c r="E19" s="94"/>
+      <c r="C19" s="132"/>
+      <c r="D19" s="132"/>
+      <c r="E19" s="133"/>
     </row>
     <row r="20" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B20" s="92" t="s">
+      <c r="B20" s="131" t="s">
         <v>136</v>
       </c>
-      <c r="C20" s="93"/>
-      <c r="D20" s="93"/>
-      <c r="E20" s="94"/>
+      <c r="C20" s="132"/>
+      <c r="D20" s="132"/>
+      <c r="E20" s="133"/>
     </row>
     <row r="21" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E21" s="80"/>
@@ -3659,9 +4004,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEFF6CA3-18A6-4987-88AD-5768B35D8A0C}">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C4" sqref="C4"/>
+      <selection pane="topRight" activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3678,28 +4023,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="142" t="s">
+      <c r="A1" s="181" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="143"/>
-      <c r="C1" s="105" t="s">
+      <c r="B1" s="182"/>
+      <c r="C1" s="144" t="s">
         <v>146</v>
       </c>
-      <c r="D1" s="106"/>
-      <c r="E1" s="105" t="s">
+      <c r="D1" s="145"/>
+      <c r="E1" s="144" t="s">
         <v>147</v>
       </c>
-      <c r="F1" s="106"/>
-      <c r="G1" s="105" t="s">
+      <c r="F1" s="145"/>
+      <c r="G1" s="144" t="s">
         <v>145</v>
       </c>
-      <c r="H1" s="106"/>
+      <c r="H1" s="145"/>
     </row>
     <row r="2" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="119" t="s">
+      <c r="A2" s="158" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="120"/>
+      <c r="B2" s="159"/>
       <c r="C2" s="21">
         <f>5/3</f>
         <v>1.6666666666666667</v>
@@ -3726,10 +4071,10 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="119" t="s">
+      <c r="A3" s="158" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="120"/>
+      <c r="B3" s="159"/>
       <c r="C3" s="21">
         <v>0.1</v>
       </c>
@@ -3753,7 +4098,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="123" t="s">
+      <c r="A4" s="162" t="s">
         <v>60</v>
       </c>
       <c r="B4" s="45" t="s">
@@ -3762,102 +4107,102 @@
       <c r="C4" s="24">
         <v>4078</v>
       </c>
-      <c r="D4" s="107">
+      <c r="D4" s="146">
         <f>(C4/(1+C5)*(1+C5+C6)*(1+C7)*(1+C8))</f>
         <v>4078</v>
       </c>
       <c r="E4" s="24">
         <v>4353</v>
       </c>
-      <c r="F4" s="107">
+      <c r="F4" s="146">
         <f>(E4/(1+E5)*(1+E5+E6)*(1+E7)*(1+E8))</f>
         <v>5005.95</v>
       </c>
       <c r="G4" s="24">
         <v>4353</v>
       </c>
-      <c r="H4" s="107">
+      <c r="H4" s="146">
         <f>(G4/(1+G5)*(1+G5+G6)*(1+G7)*(1+G8))</f>
         <v>5005.95</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="124"/>
+      <c r="A5" s="163"/>
       <c r="B5" s="45" t="s">
         <v>44</v>
       </c>
       <c r="C5" s="26">
         <v>0</v>
       </c>
-      <c r="D5" s="108"/>
+      <c r="D5" s="147"/>
       <c r="E5" s="26">
         <v>0</v>
       </c>
-      <c r="F5" s="108"/>
+      <c r="F5" s="147"/>
       <c r="G5" s="26">
         <v>0</v>
       </c>
-      <c r="H5" s="108"/>
+      <c r="H5" s="147"/>
     </row>
     <row r="6" spans="1:8" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="124"/>
+      <c r="A6" s="163"/>
       <c r="B6" s="45" t="s">
         <v>45</v>
       </c>
       <c r="C6" s="27">
         <v>0</v>
       </c>
-      <c r="D6" s="108"/>
+      <c r="D6" s="147"/>
       <c r="E6" s="27">
         <v>0</v>
       </c>
-      <c r="F6" s="108"/>
+      <c r="F6" s="147"/>
       <c r="G6" s="27">
         <v>0</v>
       </c>
-      <c r="H6" s="108"/>
+      <c r="H6" s="147"/>
     </row>
     <row r="7" spans="1:8" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="124"/>
+      <c r="A7" s="163"/>
       <c r="B7" s="45" t="s">
         <v>56</v>
       </c>
       <c r="C7" s="27">
         <v>0</v>
       </c>
-      <c r="D7" s="108"/>
+      <c r="D7" s="147"/>
       <c r="E7" s="27">
         <v>0.15</v>
       </c>
-      <c r="F7" s="108"/>
+      <c r="F7" s="147"/>
       <c r="G7" s="27">
         <v>0.15</v>
       </c>
-      <c r="H7" s="108"/>
+      <c r="H7" s="147"/>
     </row>
     <row r="8" spans="1:8" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="125"/>
+      <c r="A8" s="164"/>
       <c r="B8" s="45" t="s">
         <v>57</v>
       </c>
       <c r="C8" s="27">
         <v>0</v>
       </c>
-      <c r="D8" s="109"/>
+      <c r="D8" s="148"/>
       <c r="E8" s="27">
         <v>0</v>
       </c>
-      <c r="F8" s="109"/>
+      <c r="F8" s="148"/>
       <c r="G8" s="27">
         <v>0</v>
       </c>
-      <c r="H8" s="109"/>
+      <c r="H8" s="148"/>
     </row>
     <row r="9" spans="1:8" s="30" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="138" t="s">
+      <c r="A9" s="177" t="s">
         <v>46</v>
       </c>
-      <c r="B9" s="139"/>
+      <c r="B9" s="178"/>
       <c r="C9" s="28">
         <v>16.64</v>
       </c>
@@ -3881,7 +4226,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" s="32" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="140" t="s">
+      <c r="A10" s="179" t="s">
         <v>62</v>
       </c>
       <c r="B10" s="46" t="s">
@@ -3890,45 +4235,45 @@
       <c r="C10" s="31">
         <v>0</v>
       </c>
-      <c r="D10" s="110">
+      <c r="D10" s="149">
         <f>1+((0.7+C11)*C10)</f>
         <v>1</v>
       </c>
       <c r="E10" s="31">
         <v>0</v>
       </c>
-      <c r="F10" s="110">
+      <c r="F10" s="149">
         <f>1+((0.7+E11)*E10)</f>
         <v>1</v>
       </c>
       <c r="G10" s="31">
         <v>0</v>
       </c>
-      <c r="H10" s="110">
+      <c r="H10" s="149">
         <f>1+((0.7+G11)*G10)</f>
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="32" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="141"/>
+      <c r="A11" s="180"/>
       <c r="B11" s="46" t="s">
         <v>42</v>
       </c>
       <c r="C11" s="33">
         <v>1.7</v>
       </c>
-      <c r="D11" s="111"/>
+      <c r="D11" s="150"/>
       <c r="E11" s="33">
         <v>0</v>
       </c>
-      <c r="F11" s="111"/>
+      <c r="F11" s="150"/>
       <c r="G11" s="33">
         <v>0</v>
       </c>
-      <c r="H11" s="111"/>
+      <c r="H11" s="150"/>
     </row>
     <row r="12" spans="1:8" s="35" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="133" t="s">
+      <c r="A12" s="172" t="s">
         <v>64</v>
       </c>
       <c r="B12" s="47" t="s">
@@ -3937,81 +4282,81 @@
       <c r="C12" s="34">
         <v>0</v>
       </c>
-      <c r="D12" s="112">
+      <c r="D12" s="151">
         <f>(1+C12+C13)*(1+C14)*(1+C15)</f>
         <v>1</v>
       </c>
       <c r="E12" s="34">
         <v>0</v>
       </c>
-      <c r="F12" s="112">
+      <c r="F12" s="151">
         <f>(1+E12+E13)*(1+E14)*(1+E15)</f>
         <v>1.1499999999999999</v>
       </c>
       <c r="G12" s="34">
         <v>0</v>
       </c>
-      <c r="H12" s="112">
+      <c r="H12" s="151">
         <f>(1+G12+G13)*(1+G14)*(1+G15)</f>
         <v>1.1499999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="35" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="134"/>
+      <c r="A13" s="173"/>
       <c r="B13" s="47" t="s">
         <v>48</v>
       </c>
       <c r="C13" s="34">
         <v>0</v>
       </c>
-      <c r="D13" s="113"/>
+      <c r="D13" s="152"/>
       <c r="E13" s="34">
         <v>0</v>
       </c>
-      <c r="F13" s="113"/>
+      <c r="F13" s="152"/>
       <c r="G13" s="34">
         <v>0</v>
       </c>
-      <c r="H13" s="113"/>
+      <c r="H13" s="152"/>
     </row>
     <row r="14" spans="1:8" s="35" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="134"/>
+      <c r="A14" s="173"/>
       <c r="B14" s="47" t="s">
         <v>69</v>
       </c>
       <c r="C14" s="34">
         <v>0</v>
       </c>
-      <c r="D14" s="113"/>
+      <c r="D14" s="152"/>
       <c r="E14" s="34">
         <v>0.15</v>
       </c>
-      <c r="F14" s="113"/>
+      <c r="F14" s="152"/>
       <c r="G14" s="34">
         <v>0.15</v>
       </c>
-      <c r="H14" s="113"/>
+      <c r="H14" s="152"/>
     </row>
     <row r="15" spans="1:8" s="35" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="135"/>
+      <c r="A15" s="174"/>
       <c r="B15" s="47" t="s">
         <v>70</v>
       </c>
       <c r="C15" s="34">
         <v>0</v>
       </c>
-      <c r="D15" s="114"/>
+      <c r="D15" s="153"/>
       <c r="E15" s="34">
         <v>0</v>
       </c>
-      <c r="F15" s="114"/>
+      <c r="F15" s="153"/>
       <c r="G15" s="34">
         <v>0</v>
       </c>
-      <c r="H15" s="114"/>
+      <c r="H15" s="153"/>
     </row>
     <row r="16" spans="1:8" s="37" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="136" t="s">
+      <c r="A16" s="175" t="s">
         <v>65</v>
       </c>
       <c r="B16" s="48" t="s">
@@ -4020,45 +4365,45 @@
       <c r="C16" s="36">
         <v>0</v>
       </c>
-      <c r="D16" s="115">
+      <c r="D16" s="154">
         <f>(1+C16)*(1+C17)</f>
         <v>1</v>
       </c>
       <c r="E16" s="36">
         <v>0</v>
       </c>
-      <c r="F16" s="115">
+      <c r="F16" s="154">
         <f>(1+E16)*(1+E17)</f>
         <v>1</v>
       </c>
       <c r="G16" s="36">
         <v>0</v>
       </c>
-      <c r="H16" s="115">
+      <c r="H16" s="154">
         <f>(1+G16)*(1+G17)</f>
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="37" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="137"/>
+      <c r="A17" s="176"/>
       <c r="B17" s="48" t="s">
         <v>49</v>
       </c>
       <c r="C17" s="36">
         <v>0</v>
       </c>
-      <c r="D17" s="116"/>
+      <c r="D17" s="155"/>
       <c r="E17" s="36">
         <v>0</v>
       </c>
-      <c r="F17" s="116"/>
+      <c r="F17" s="155"/>
       <c r="G17" s="36">
         <v>0</v>
       </c>
-      <c r="H17" s="116"/>
+      <c r="H17" s="155"/>
     </row>
     <row r="18" spans="1:8" s="39" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="128" t="s">
+      <c r="A18" s="167" t="s">
         <v>66</v>
       </c>
       <c r="B18" s="49" t="s">
@@ -4067,45 +4412,45 @@
       <c r="C18" s="38">
         <v>1.5</v>
       </c>
-      <c r="D18" s="95">
+      <c r="D18" s="134">
         <f>C18+C19</f>
         <v>1.5</v>
       </c>
       <c r="E18" s="38">
         <v>1.5</v>
       </c>
-      <c r="F18" s="95">
+      <c r="F18" s="134">
         <f>E18+E19</f>
         <v>1.5</v>
       </c>
       <c r="G18" s="38">
         <v>1.5</v>
       </c>
-      <c r="H18" s="95">
+      <c r="H18" s="134">
         <f>G18+G19</f>
         <v>1.5</v>
       </c>
     </row>
     <row r="19" spans="1:8" s="39" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="129"/>
+      <c r="A19" s="168"/>
       <c r="B19" s="49" t="s">
         <v>59</v>
       </c>
       <c r="C19" s="40">
         <v>0</v>
       </c>
-      <c r="D19" s="96"/>
+      <c r="D19" s="135"/>
       <c r="E19" s="40">
         <v>0</v>
       </c>
-      <c r="F19" s="96"/>
+      <c r="F19" s="135"/>
       <c r="G19" s="40">
         <v>0</v>
       </c>
-      <c r="H19" s="96"/>
+      <c r="H19" s="135"/>
     </row>
     <row r="20" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="130" t="s">
+      <c r="A20" s="169" t="s">
         <v>72</v>
       </c>
       <c r="B20" s="50" t="s">
@@ -4114,66 +4459,66 @@
       <c r="C20" s="41">
         <v>0</v>
       </c>
-      <c r="D20" s="97">
+      <c r="D20" s="136">
         <f>1+C20*(0.2+C21+C22)</f>
         <v>1</v>
       </c>
       <c r="E20" s="41">
         <v>0</v>
       </c>
-      <c r="F20" s="97">
+      <c r="F20" s="136">
         <f>1+E20*(0.2+E21+E22)</f>
         <v>1</v>
       </c>
       <c r="G20" s="41">
         <v>0</v>
       </c>
-      <c r="H20" s="97">
+      <c r="H20" s="136">
         <f>1+G20*(0.2+G21+G22)</f>
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="131"/>
+      <c r="A21" s="170"/>
       <c r="B21" s="50" t="s">
         <v>50</v>
       </c>
       <c r="C21" s="41">
         <v>0.5</v>
       </c>
-      <c r="D21" s="98"/>
+      <c r="D21" s="137"/>
       <c r="E21" s="41">
         <v>0.5</v>
       </c>
-      <c r="F21" s="98"/>
+      <c r="F21" s="137"/>
       <c r="G21" s="41">
         <v>0.5</v>
       </c>
-      <c r="H21" s="98"/>
+      <c r="H21" s="137"/>
     </row>
     <row r="22" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="132"/>
+      <c r="A22" s="171"/>
       <c r="B22" s="50" t="s">
         <v>51</v>
       </c>
       <c r="C22" s="41">
         <v>0</v>
       </c>
-      <c r="D22" s="99"/>
+      <c r="D22" s="138"/>
       <c r="E22" s="41">
         <v>0</v>
       </c>
-      <c r="F22" s="99"/>
+      <c r="F22" s="138"/>
       <c r="G22" s="41">
         <v>0</v>
       </c>
-      <c r="H22" s="99"/>
+      <c r="H22" s="138"/>
     </row>
     <row r="23" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="119" t="s">
+      <c r="A23" s="158" t="s">
         <v>73</v>
       </c>
-      <c r="B23" s="120"/>
+      <c r="B23" s="159"/>
       <c r="C23" s="21">
         <v>1</v>
       </c>
@@ -4197,10 +4542,10 @@
       </c>
     </row>
     <row r="24" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="121" t="s">
+      <c r="A24" s="160" t="s">
         <v>52</v>
       </c>
-      <c r="B24" s="122"/>
+      <c r="B24" s="161"/>
       <c r="C24" s="41">
         <v>10</v>
       </c>
@@ -4224,7 +4569,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="123" t="s">
+      <c r="A25" s="162" t="s">
         <v>53</v>
       </c>
       <c r="B25" s="45" t="s">
@@ -4233,66 +4578,66 @@
       <c r="C25" s="24">
         <v>0</v>
       </c>
-      <c r="D25" s="100">
+      <c r="D25" s="139">
         <f>(1-(1-C26)*C25)*(1-C27)</f>
         <v>1</v>
       </c>
       <c r="E25" s="24">
         <v>0</v>
       </c>
-      <c r="F25" s="100">
+      <c r="F25" s="139">
         <f>(1-(1-E26)*E25)*(1-E27)</f>
         <v>1</v>
       </c>
       <c r="G25" s="24">
         <v>0</v>
       </c>
-      <c r="H25" s="100">
+      <c r="H25" s="139">
         <f>(1-(1-G26)*G25)*(1-G27)</f>
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:8" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="124"/>
+      <c r="A26" s="163"/>
       <c r="B26" s="45" t="s">
         <v>74</v>
       </c>
       <c r="C26" s="24">
         <v>0.8</v>
       </c>
-      <c r="D26" s="101"/>
+      <c r="D26" s="140"/>
       <c r="E26" s="24">
         <v>0.6</v>
       </c>
-      <c r="F26" s="101"/>
+      <c r="F26" s="140"/>
       <c r="G26" s="24">
         <v>0.6</v>
       </c>
-      <c r="H26" s="101"/>
+      <c r="H26" s="140"/>
     </row>
     <row r="27" spans="1:8" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="125"/>
+      <c r="A27" s="164"/>
       <c r="B27" s="45" t="s">
         <v>37</v>
       </c>
       <c r="C27" s="27">
         <v>0</v>
       </c>
-      <c r="D27" s="102"/>
+      <c r="D27" s="141"/>
       <c r="E27" s="27">
         <v>0</v>
       </c>
-      <c r="F27" s="102"/>
+      <c r="F27" s="141"/>
       <c r="G27" s="27">
         <v>0</v>
       </c>
-      <c r="H27" s="102"/>
+      <c r="H27" s="141"/>
     </row>
     <row r="28" spans="1:8" s="39" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="126" t="s">
+      <c r="A28" s="165" t="s">
         <v>76</v>
       </c>
-      <c r="B28" s="127"/>
+      <c r="B28" s="166"/>
       <c r="C28" s="38">
         <v>0</v>
       </c>
@@ -4316,25 +4661,25 @@
       </c>
     </row>
     <row r="29" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="117" t="s">
+      <c r="A29" s="156" t="s">
         <v>54</v>
       </c>
-      <c r="B29" s="118"/>
-      <c r="C29" s="103">
+      <c r="B29" s="157"/>
+      <c r="C29" s="142">
         <f>D2*D3*D4*D9*D10*D12*D16*D18*D20*D23/D24/D25*D28</f>
         <v>15268.032000000001</v>
       </c>
-      <c r="D29" s="104"/>
-      <c r="E29" s="103">
+      <c r="D29" s="143"/>
+      <c r="E29" s="142">
         <f>F2*F3*F4*F9*F10*F12*F16*F18*F20*F23/F24/F25*F28</f>
         <v>41967.381825000004</v>
       </c>
-      <c r="F29" s="104"/>
-      <c r="G29" s="103">
+      <c r="F29" s="143"/>
+      <c r="G29" s="142">
         <f>H2*H3*H4*H9*H10*H12*H16*H18*H20*H23/H24/H25*H28</f>
         <v>45637.368918750006</v>
       </c>
-      <c r="H29" s="104"/>
+      <c r="H29" s="143"/>
     </row>
     <row r="30" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C30" s="20" t="s">
@@ -4405,4 +4750,2124 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30DD32DD-C8F1-4E13-B59E-D06F7BB09858}">
+  <dimension ref="A1:E19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.7109375" style="81" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" style="81" customWidth="1"/>
+    <col min="3" max="5" width="10.42578125" style="81" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="81"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C1" s="81" t="s">
+        <v>165</v>
+      </c>
+      <c r="D1" s="81" t="s">
+        <v>119</v>
+      </c>
+      <c r="E1" s="98" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="82" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="82" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="82" t="s">
+        <v>148</v>
+      </c>
+      <c r="C2" s="83">
+        <v>0.7</v>
+      </c>
+      <c r="D2" s="83">
+        <v>0.2</v>
+      </c>
+      <c r="E2" s="83">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="82" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="82" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" s="183">
+        <v>0.13</v>
+      </c>
+      <c r="D3" s="183"/>
+      <c r="E3" s="184"/>
+    </row>
+    <row r="4" spans="1:5" s="103" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="103" t="s">
+        <v>164</v>
+      </c>
+      <c r="C4" s="102">
+        <v>1</v>
+      </c>
+      <c r="D4" s="102">
+        <v>1</v>
+      </c>
+      <c r="E4" s="102">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="84" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="84" t="s">
+        <v>159</v>
+      </c>
+      <c r="B5" s="84" t="s">
+        <v>148</v>
+      </c>
+      <c r="C5" s="85">
+        <v>0</v>
+      </c>
+      <c r="D5" s="85">
+        <v>0.9</v>
+      </c>
+      <c r="E5" s="85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="84" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="84" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" s="192">
+        <v>0.4</v>
+      </c>
+      <c r="D6" s="192"/>
+      <c r="E6" s="193"/>
+    </row>
+    <row r="7" spans="1:5" s="84" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="84" t="s">
+        <v>163</v>
+      </c>
+      <c r="C7" s="192">
+        <v>0</v>
+      </c>
+      <c r="D7" s="192"/>
+      <c r="E7" s="193"/>
+    </row>
+    <row r="8" spans="1:5" s="100" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="100" t="s">
+        <v>164</v>
+      </c>
+      <c r="C8" s="99">
+        <v>0</v>
+      </c>
+      <c r="D8" s="99">
+        <v>0</v>
+      </c>
+      <c r="E8" s="99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="86" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="86" t="s">
+        <v>149</v>
+      </c>
+      <c r="B9" s="86" t="s">
+        <v>148</v>
+      </c>
+      <c r="C9" s="87">
+        <v>0.3</v>
+      </c>
+      <c r="D9" s="87">
+        <v>0</v>
+      </c>
+      <c r="E9" s="87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="86" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="86" t="s">
+        <v>150</v>
+      </c>
+      <c r="C10" s="194">
+        <v>0</v>
+      </c>
+      <c r="D10" s="195"/>
+      <c r="E10" s="195"/>
+    </row>
+    <row r="11" spans="1:5" s="86" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="86" t="s">
+        <v>160</v>
+      </c>
+      <c r="C11" s="190">
+        <v>0.5</v>
+      </c>
+      <c r="D11" s="190"/>
+      <c r="E11" s="191"/>
+    </row>
+    <row r="12" spans="1:5" s="88" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="88" t="s">
+        <v>87</v>
+      </c>
+      <c r="B12" s="88" t="s">
+        <v>162</v>
+      </c>
+      <c r="C12" s="188">
+        <v>0</v>
+      </c>
+      <c r="D12" s="188"/>
+      <c r="E12" s="189"/>
+    </row>
+    <row r="13" spans="1:5" s="88" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="88" t="s">
+        <v>161</v>
+      </c>
+      <c r="C13" s="188">
+        <v>0</v>
+      </c>
+      <c r="D13" s="188"/>
+      <c r="E13" s="189"/>
+    </row>
+    <row r="14" spans="1:5" s="89" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="89" t="s">
+        <v>152</v>
+      </c>
+      <c r="B14" s="89" t="s">
+        <v>151</v>
+      </c>
+      <c r="C14" s="185">
+        <v>1</v>
+      </c>
+      <c r="D14" s="185"/>
+      <c r="E14" s="186"/>
+    </row>
+    <row r="15" spans="1:5" s="89" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="89" t="s">
+        <v>159</v>
+      </c>
+      <c r="C15" s="187">
+        <v>1</v>
+      </c>
+      <c r="D15" s="187"/>
+      <c r="E15" s="186"/>
+    </row>
+    <row r="16" spans="1:5" s="90" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="90" t="s">
+        <v>153</v>
+      </c>
+      <c r="B16" s="90" t="s">
+        <v>151</v>
+      </c>
+      <c r="C16" s="92">
+        <f>(1+C2+$C3)*(1+$C4)*(1+C9+$C10+$C11)*(1+$C12)*$C14</f>
+        <v>6.5880000000000001</v>
+      </c>
+      <c r="D16" s="92">
+        <f>(1+D2+$C3)*(1+$C4)*(1+D9+$C10+$C11)*(1+$C12)*$C14</f>
+        <v>3.99</v>
+      </c>
+      <c r="E16" s="92">
+        <f>(1+E2+$C3)*(1+$C4)*(1+E9+$C10+$C11)*(1+$C12)*$C14</f>
+        <v>5.1899999999999995</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" s="90" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="101">
+        <f>-(1-MAX(C16:E16)/MAX(C18:E18))</f>
+        <v>-0.2857142857142857</v>
+      </c>
+      <c r="C17" s="91">
+        <f>-(1-(C16/MAX($C16:$E16)))</f>
+        <v>0</v>
+      </c>
+      <c r="D17" s="91">
+        <f>-(1-(D16/MAX($C16:$E16)))</f>
+        <v>-0.39435336976320579</v>
+      </c>
+      <c r="E17" s="91">
+        <f>-(1-(E16/MAX($C16:$E16)))</f>
+        <v>-0.21220400728597455</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" s="90" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="90" t="s">
+        <v>159</v>
+      </c>
+      <c r="C18" s="92">
+        <f>(1+C2+$C3)*(1+C4)*(1+C5+$C6+$C7)*(1+C8)*(1+C9+$C10+$C11)*(1+$C13)*$C15</f>
+        <v>9.2232000000000003</v>
+      </c>
+      <c r="D18" s="92">
+        <f>(1+D2+$C3)*(1+D4)*(1+D5+$C6+$C7)*(1+D8)*(1+D9+$C10+$C11)*(1+$C13)*$C15</f>
+        <v>9.1769999999999996</v>
+      </c>
+      <c r="E18" s="92">
+        <f>(1+E2+$C3)*(1+E4)*(1+E5+$C6+$C7)*(1+E8)*(1+E9+$C10+$C11)*(1+$C13)*$C15</f>
+        <v>7.6292999999999997</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" s="90" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="101">
+        <f>-(1-MAX(C18:E18)/MAX(C16:E16))</f>
+        <v>0.40000000000000013</v>
+      </c>
+      <c r="C19" s="91">
+        <f>-(1-(C18/MAX($C18:$E18)))</f>
+        <v>0</v>
+      </c>
+      <c r="D19" s="91">
+        <f>-(1-(D18/MAX($C18:$E18)))</f>
+        <v>-5.0091074681238856E-3</v>
+      </c>
+      <c r="E19" s="91">
+        <f>-(1-(E18/MAX($C18:$E18)))</f>
+        <v>-0.17281420765027322</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C6:E6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E75D12CF-EAA2-4AE2-9060-0FB10D1645D5}">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="9.140625" style="93"/>
+    <col min="3" max="3" width="9.140625" style="93" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="93"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="197" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="197"/>
+      <c r="C1" s="196" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="196"/>
+    </row>
+    <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="72" t="s">
+        <v>154</v>
+      </c>
+      <c r="B2" s="94">
+        <v>0.1</v>
+      </c>
+      <c r="C2" s="63" t="s">
+        <v>154</v>
+      </c>
+      <c r="D2" s="95">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="72" t="s">
+        <v>155</v>
+      </c>
+      <c r="B3" s="94">
+        <v>0.3</v>
+      </c>
+      <c r="C3" s="63" t="s">
+        <v>155</v>
+      </c>
+      <c r="D3" s="95">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="72" t="s">
+        <v>156</v>
+      </c>
+      <c r="B4" s="94">
+        <f>B2+B3</f>
+        <v>0.4</v>
+      </c>
+      <c r="C4" s="63" t="s">
+        <v>156</v>
+      </c>
+      <c r="D4" s="95">
+        <f>D2+D3</f>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="200" t="s">
+        <v>158</v>
+      </c>
+      <c r="D5" s="201"/>
+    </row>
+    <row r="6" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="65" t="s">
+        <v>154</v>
+      </c>
+      <c r="B6" s="65" t="s">
+        <v>154</v>
+      </c>
+      <c r="C6" s="198">
+        <f>1*(1-B2)+(1+D2)*(B2)</f>
+        <v>1.06</v>
+      </c>
+      <c r="D6" s="199"/>
+    </row>
+    <row r="7" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="65" t="s">
+        <v>154</v>
+      </c>
+      <c r="B7" s="96" t="s">
+        <v>157</v>
+      </c>
+      <c r="C7" s="198">
+        <f>1*(1-B2)+(1+D4)*(B2)</f>
+        <v>1.07</v>
+      </c>
+      <c r="D7" s="199"/>
+    </row>
+    <row r="8" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="96" t="s">
+        <v>157</v>
+      </c>
+      <c r="B8" s="65" t="s">
+        <v>154</v>
+      </c>
+      <c r="C8" s="198">
+        <f>1*(1-B4)+(1+D2)*(B4)</f>
+        <v>1.2400000000000002</v>
+      </c>
+      <c r="D8" s="199"/>
+      <c r="F8" s="97"/>
+    </row>
+    <row r="9" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="96" t="s">
+        <v>157</v>
+      </c>
+      <c r="B9" s="96" t="s">
+        <v>157</v>
+      </c>
+      <c r="C9" s="198">
+        <f>1*(1-B4)+(1+D4)*(B4)</f>
+        <v>1.28</v>
+      </c>
+      <c r="D9" s="199"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C5:D5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67061BFE-6F76-4E7B-9ED9-42BA29E49AED}">
+  <dimension ref="A1:L42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" style="104" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="93"/>
+    <col min="3" max="3" width="2.42578125" style="93" customWidth="1"/>
+    <col min="4" max="4" width="4.140625" style="105" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" style="105" customWidth="1"/>
+    <col min="6" max="6" width="8.5703125" style="105" customWidth="1"/>
+    <col min="7" max="7" width="8.140625" style="105" customWidth="1"/>
+    <col min="8" max="9" width="10.5703125" style="105" customWidth="1"/>
+    <col min="10" max="10" width="6.85546875" style="106" customWidth="1"/>
+    <col min="11" max="11" width="10.5703125" style="117" customWidth="1"/>
+    <col min="12" max="12" width="7.28515625" style="119" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="93"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="104" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="111" t="s">
+        <v>174</v>
+      </c>
+      <c r="B1" s="111">
+        <v>3</v>
+      </c>
+      <c r="D1" s="111" t="s">
+        <v>169</v>
+      </c>
+      <c r="E1" s="111" t="s">
+        <v>170</v>
+      </c>
+      <c r="F1" s="111" t="s">
+        <v>171</v>
+      </c>
+      <c r="G1" s="111" t="s">
+        <v>183</v>
+      </c>
+      <c r="H1" s="111" t="s">
+        <v>172</v>
+      </c>
+      <c r="I1" s="111" t="s">
+        <v>176</v>
+      </c>
+      <c r="J1" s="112" t="s">
+        <v>177</v>
+      </c>
+      <c r="K1" s="116" t="s">
+        <v>184</v>
+      </c>
+      <c r="L1" s="118" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="111" t="s">
+        <v>173</v>
+      </c>
+      <c r="B2" s="113">
+        <v>0.09</v>
+      </c>
+      <c r="D2" s="105">
+        <v>1</v>
+      </c>
+      <c r="E2" s="105">
+        <f>$B$1*D2</f>
+        <v>3</v>
+      </c>
+      <c r="F2" s="107">
+        <f t="shared" ref="F2:F42" si="0">$B$2+$B$6*_xlfn.FLOOR.MATH(E2/$B$3)</f>
+        <v>0.09</v>
+      </c>
+      <c r="G2" s="107">
+        <f>F2/$B$1</f>
+        <v>0.03</v>
+      </c>
+      <c r="H2" s="107">
+        <f>SUM($F$2:F2)</f>
+        <v>0.09</v>
+      </c>
+      <c r="I2" s="108">
+        <f>H2/E2</f>
+        <v>0.03</v>
+      </c>
+      <c r="J2" s="106">
+        <f>1/I2</f>
+        <v>33.333333333333336</v>
+      </c>
+      <c r="K2" s="117">
+        <f>IF($B$13-G2&gt;0,"",$B$13-G2)</f>
+        <v>-1.9230769230769232E-2</v>
+      </c>
+      <c r="L2" s="119">
+        <f>IF(ISNUMBER(K2),-1/K2,"")</f>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="111" t="s">
+        <v>167</v>
+      </c>
+      <c r="B3" s="105">
+        <v>12.2</v>
+      </c>
+      <c r="D3" s="105">
+        <f>D2+1</f>
+        <v>2</v>
+      </c>
+      <c r="E3" s="105">
+        <f>$B$1*D3</f>
+        <v>6</v>
+      </c>
+      <c r="F3" s="107">
+        <f t="shared" si="0"/>
+        <v>0.09</v>
+      </c>
+      <c r="G3" s="107">
+        <f t="shared" ref="G3:G42" si="1">F3/$B$1</f>
+        <v>0.03</v>
+      </c>
+      <c r="H3" s="107">
+        <f>SUM($F$2:F3)</f>
+        <v>0.18</v>
+      </c>
+      <c r="I3" s="108">
+        <f t="shared" ref="I3:I35" si="2">H3/E3</f>
+        <v>0.03</v>
+      </c>
+      <c r="J3" s="106">
+        <f t="shared" ref="J3:J42" si="3">1/I3</f>
+        <v>33.333333333333336</v>
+      </c>
+      <c r="K3" s="117">
+        <f t="shared" ref="K3:K35" si="4">IF($B$13-G3&gt;0,"",$B$13-G3)</f>
+        <v>-1.9230769230769232E-2</v>
+      </c>
+      <c r="L3" s="119">
+        <f t="shared" ref="L3:L42" si="5">IF(ISNUMBER(K3),-1/K3,"")</f>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="111" t="s">
+        <v>168</v>
+      </c>
+      <c r="B4" s="113">
+        <v>0.3</v>
+      </c>
+      <c r="D4" s="105">
+        <f t="shared" ref="D4:D15" si="6">D3+1</f>
+        <v>3</v>
+      </c>
+      <c r="E4" s="105">
+        <f t="shared" ref="E4:E20" si="7">$B$1*D4</f>
+        <v>9</v>
+      </c>
+      <c r="F4" s="107">
+        <f t="shared" si="0"/>
+        <v>0.09</v>
+      </c>
+      <c r="G4" s="107">
+        <f t="shared" si="1"/>
+        <v>0.03</v>
+      </c>
+      <c r="H4" s="107">
+        <f>SUM($F$2:F4)</f>
+        <v>0.27</v>
+      </c>
+      <c r="I4" s="108">
+        <f t="shared" si="2"/>
+        <v>3.0000000000000002E-2</v>
+      </c>
+      <c r="J4" s="106">
+        <f t="shared" si="3"/>
+        <v>33.333333333333329</v>
+      </c>
+      <c r="K4" s="117">
+        <f t="shared" si="4"/>
+        <v>-1.9230769230769232E-2</v>
+      </c>
+      <c r="L4" s="119">
+        <f t="shared" si="5"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D5" s="105">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="E5" s="105">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="F5" s="107">
+        <f t="shared" si="0"/>
+        <v>0.09</v>
+      </c>
+      <c r="G5" s="107">
+        <f t="shared" si="1"/>
+        <v>0.03</v>
+      </c>
+      <c r="H5" s="107">
+        <f>SUM($F$2:F5)</f>
+        <v>0.36</v>
+      </c>
+      <c r="I5" s="108">
+        <f t="shared" si="2"/>
+        <v>0.03</v>
+      </c>
+      <c r="J5" s="106">
+        <f t="shared" si="3"/>
+        <v>33.333333333333336</v>
+      </c>
+      <c r="K5" s="117">
+        <f t="shared" si="4"/>
+        <v>-1.9230769230769232E-2</v>
+      </c>
+      <c r="L5" s="119">
+        <f t="shared" si="5"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="104" t="s">
+        <v>175</v>
+      </c>
+      <c r="B6" s="97">
+        <f>B2*B4</f>
+        <v>2.7E-2</v>
+      </c>
+      <c r="D6" s="105">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="E6" s="105">
+        <f t="shared" si="7"/>
+        <v>15</v>
+      </c>
+      <c r="F6" s="107">
+        <f t="shared" si="0"/>
+        <v>0.11699999999999999</v>
+      </c>
+      <c r="G6" s="107">
+        <f t="shared" si="1"/>
+        <v>3.9E-2</v>
+      </c>
+      <c r="H6" s="107">
+        <f>SUM($F$2:F6)</f>
+        <v>0.47699999999999998</v>
+      </c>
+      <c r="I6" s="108">
+        <f t="shared" si="2"/>
+        <v>3.1800000000000002E-2</v>
+      </c>
+      <c r="J6" s="106">
+        <f t="shared" si="3"/>
+        <v>31.446540880503143</v>
+      </c>
+      <c r="K6" s="117">
+        <f t="shared" si="4"/>
+        <v>-2.8230769230769233E-2</v>
+      </c>
+      <c r="L6" s="119">
+        <f t="shared" si="5"/>
+        <v>35.422343324250676</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D7" s="105">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="E7" s="105">
+        <f t="shared" si="7"/>
+        <v>18</v>
+      </c>
+      <c r="F7" s="107">
+        <f t="shared" si="0"/>
+        <v>0.11699999999999999</v>
+      </c>
+      <c r="G7" s="107">
+        <f t="shared" si="1"/>
+        <v>3.9E-2</v>
+      </c>
+      <c r="H7" s="107">
+        <f>SUM($F$2:F7)</f>
+        <v>0.59399999999999997</v>
+      </c>
+      <c r="I7" s="108">
+        <f t="shared" si="2"/>
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="J7" s="106">
+        <f t="shared" si="3"/>
+        <v>30.303030303030301</v>
+      </c>
+      <c r="K7" s="117">
+        <f t="shared" si="4"/>
+        <v>-2.8230769230769233E-2</v>
+      </c>
+      <c r="L7" s="119">
+        <f t="shared" si="5"/>
+        <v>35.422343324250676</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="65" t="s">
+        <v>178</v>
+      </c>
+      <c r="B8" s="114">
+        <v>3.9</v>
+      </c>
+      <c r="C8" s="97"/>
+      <c r="D8" s="105">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="E8" s="105">
+        <f t="shared" si="7"/>
+        <v>21</v>
+      </c>
+      <c r="F8" s="107">
+        <f t="shared" si="0"/>
+        <v>0.11699999999999999</v>
+      </c>
+      <c r="G8" s="107">
+        <f t="shared" si="1"/>
+        <v>3.9E-2</v>
+      </c>
+      <c r="H8" s="107">
+        <f>SUM($F$2:F8)</f>
+        <v>0.71099999999999997</v>
+      </c>
+      <c r="I8" s="108">
+        <f t="shared" si="2"/>
+        <v>3.3857142857142856E-2</v>
+      </c>
+      <c r="J8" s="106">
+        <f t="shared" si="3"/>
+        <v>29.535864978902953</v>
+      </c>
+      <c r="K8" s="117">
+        <f t="shared" si="4"/>
+        <v>-2.8230769230769233E-2</v>
+      </c>
+      <c r="L8" s="119">
+        <f t="shared" si="5"/>
+        <v>35.422343324250676</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="65" t="s">
+        <v>179</v>
+      </c>
+      <c r="B9" s="115">
+        <v>0.06</v>
+      </c>
+      <c r="D9" s="105">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="E9" s="105">
+        <f t="shared" si="7"/>
+        <v>24</v>
+      </c>
+      <c r="F9" s="107">
+        <f t="shared" si="0"/>
+        <v>0.11699999999999999</v>
+      </c>
+      <c r="G9" s="107">
+        <f t="shared" si="1"/>
+        <v>3.9E-2</v>
+      </c>
+      <c r="H9" s="107">
+        <f>SUM($F$2:F9)</f>
+        <v>0.82799999999999996</v>
+      </c>
+      <c r="I9" s="108">
+        <f t="shared" si="2"/>
+        <v>3.4499999999999996E-2</v>
+      </c>
+      <c r="J9" s="106">
+        <f t="shared" si="3"/>
+        <v>28.985507246376816</v>
+      </c>
+      <c r="K9" s="117">
+        <f t="shared" si="4"/>
+        <v>-2.8230769230769233E-2</v>
+      </c>
+      <c r="L9" s="119">
+        <f t="shared" si="5"/>
+        <v>35.422343324250676</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="65" t="s">
+        <v>180</v>
+      </c>
+      <c r="B10" s="115">
+        <v>0.3</v>
+      </c>
+      <c r="D10" s="105">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="E10" s="105">
+        <f t="shared" si="7"/>
+        <v>27</v>
+      </c>
+      <c r="F10" s="107">
+        <f t="shared" si="0"/>
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="G10" s="107">
+        <f t="shared" si="1"/>
+        <v>4.7999999999999994E-2</v>
+      </c>
+      <c r="H10" s="107">
+        <f>SUM($F$2:F10)</f>
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="I10" s="108">
+        <f t="shared" si="2"/>
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="J10" s="106">
+        <f t="shared" si="3"/>
+        <v>27.777777777777779</v>
+      </c>
+      <c r="K10" s="117">
+        <f t="shared" si="4"/>
+        <v>-3.7230769230769227E-2</v>
+      </c>
+      <c r="L10" s="119">
+        <f t="shared" si="5"/>
+        <v>26.859504132231407</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="109"/>
+      <c r="D11" s="105">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="E11" s="105">
+        <f t="shared" si="7"/>
+        <v>30</v>
+      </c>
+      <c r="F11" s="107">
+        <f t="shared" si="0"/>
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="G11" s="107">
+        <f t="shared" si="1"/>
+        <v>4.7999999999999994E-2</v>
+      </c>
+      <c r="H11" s="107">
+        <f>SUM($F$2:F11)</f>
+        <v>1.1159999999999999</v>
+      </c>
+      <c r="I11" s="108">
+        <f t="shared" si="2"/>
+        <v>3.7199999999999997E-2</v>
+      </c>
+      <c r="J11" s="106">
+        <f t="shared" si="3"/>
+        <v>26.881720430107528</v>
+      </c>
+      <c r="K11" s="117">
+        <f t="shared" si="4"/>
+        <v>-3.7230769230769227E-2</v>
+      </c>
+      <c r="L11" s="119">
+        <f t="shared" si="5"/>
+        <v>26.859504132231407</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="104" t="s">
+        <v>181</v>
+      </c>
+      <c r="B12" s="97">
+        <f>B9*(1-B10)</f>
+        <v>4.1999999999999996E-2</v>
+      </c>
+      <c r="D12" s="105">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="E12" s="105">
+        <f t="shared" si="7"/>
+        <v>33</v>
+      </c>
+      <c r="F12" s="107">
+        <f t="shared" si="0"/>
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="G12" s="107">
+        <f t="shared" si="1"/>
+        <v>4.7999999999999994E-2</v>
+      </c>
+      <c r="H12" s="107">
+        <f>SUM($F$2:F12)</f>
+        <v>1.2599999999999998</v>
+      </c>
+      <c r="I12" s="108">
+        <f t="shared" si="2"/>
+        <v>3.8181818181818178E-2</v>
+      </c>
+      <c r="J12" s="106">
+        <f t="shared" si="3"/>
+        <v>26.190476190476193</v>
+      </c>
+      <c r="K12" s="117">
+        <f t="shared" si="4"/>
+        <v>-3.7230769230769227E-2</v>
+      </c>
+      <c r="L12" s="119">
+        <f t="shared" si="5"/>
+        <v>26.859504132231407</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="104" t="s">
+        <v>182</v>
+      </c>
+      <c r="B13" s="110">
+        <f>B12/B8</f>
+        <v>1.0769230769230769E-2</v>
+      </c>
+      <c r="D13" s="105">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+      <c r="E13" s="105">
+        <f t="shared" si="7"/>
+        <v>36</v>
+      </c>
+      <c r="F13" s="107">
+        <f t="shared" si="0"/>
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="G13" s="107">
+        <f t="shared" si="1"/>
+        <v>4.7999999999999994E-2</v>
+      </c>
+      <c r="H13" s="107">
+        <f>SUM($F$2:F13)</f>
+        <v>1.4039999999999997</v>
+      </c>
+      <c r="I13" s="108">
+        <f t="shared" si="2"/>
+        <v>3.8999999999999993E-2</v>
+      </c>
+      <c r="J13" s="106">
+        <f t="shared" si="3"/>
+        <v>25.641025641025646</v>
+      </c>
+      <c r="K13" s="117">
+        <f t="shared" si="4"/>
+        <v>-3.7230769230769227E-2</v>
+      </c>
+      <c r="L13" s="119">
+        <f t="shared" si="5"/>
+        <v>26.859504132231407</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D14" s="105">
+        <f t="shared" si="6"/>
+        <v>13</v>
+      </c>
+      <c r="E14" s="105">
+        <f t="shared" si="7"/>
+        <v>39</v>
+      </c>
+      <c r="F14" s="107">
+        <f t="shared" si="0"/>
+        <v>0.17099999999999999</v>
+      </c>
+      <c r="G14" s="107">
+        <f t="shared" si="1"/>
+        <v>5.6999999999999995E-2</v>
+      </c>
+      <c r="H14" s="107">
+        <f>SUM($F$2:F14)</f>
+        <v>1.5749999999999997</v>
+      </c>
+      <c r="I14" s="108">
+        <f t="shared" si="2"/>
+        <v>4.038461538461538E-2</v>
+      </c>
+      <c r="J14" s="106">
+        <f t="shared" si="3"/>
+        <v>24.761904761904766</v>
+      </c>
+      <c r="K14" s="117">
+        <f t="shared" si="4"/>
+        <v>-4.6230769230769228E-2</v>
+      </c>
+      <c r="L14" s="119">
+        <f t="shared" si="5"/>
+        <v>21.630615640599004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D15" s="105">
+        <f t="shared" si="6"/>
+        <v>14</v>
+      </c>
+      <c r="E15" s="105">
+        <f t="shared" si="7"/>
+        <v>42</v>
+      </c>
+      <c r="F15" s="107">
+        <f t="shared" si="0"/>
+        <v>0.17099999999999999</v>
+      </c>
+      <c r="G15" s="107">
+        <f t="shared" si="1"/>
+        <v>5.6999999999999995E-2</v>
+      </c>
+      <c r="H15" s="107">
+        <f>SUM($F$2:F15)</f>
+        <v>1.7459999999999998</v>
+      </c>
+      <c r="I15" s="108">
+        <f t="shared" si="2"/>
+        <v>4.1571428571428565E-2</v>
+      </c>
+      <c r="J15" s="106">
+        <f t="shared" si="3"/>
+        <v>24.054982817869419</v>
+      </c>
+      <c r="K15" s="117">
+        <f t="shared" si="4"/>
+        <v>-4.6230769230769228E-2</v>
+      </c>
+      <c r="L15" s="119">
+        <f t="shared" si="5"/>
+        <v>21.630615640599004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D16" s="105">
+        <f t="shared" ref="D16:D42" si="8">D15+1</f>
+        <v>15</v>
+      </c>
+      <c r="E16" s="105">
+        <f t="shared" si="7"/>
+        <v>45</v>
+      </c>
+      <c r="F16" s="107">
+        <f t="shared" si="0"/>
+        <v>0.17099999999999999</v>
+      </c>
+      <c r="G16" s="107">
+        <f t="shared" si="1"/>
+        <v>5.6999999999999995E-2</v>
+      </c>
+      <c r="H16" s="107">
+        <f>SUM($F$2:F16)</f>
+        <v>1.9169999999999998</v>
+      </c>
+      <c r="I16" s="108">
+        <f t="shared" si="2"/>
+        <v>4.2599999999999999E-2</v>
+      </c>
+      <c r="J16" s="106">
+        <f t="shared" si="3"/>
+        <v>23.474178403755868</v>
+      </c>
+      <c r="K16" s="117">
+        <f t="shared" si="4"/>
+        <v>-4.6230769230769228E-2</v>
+      </c>
+      <c r="L16" s="119">
+        <f t="shared" si="5"/>
+        <v>21.630615640599004</v>
+      </c>
+    </row>
+    <row r="17" spans="4:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D17" s="105">
+        <f t="shared" si="8"/>
+        <v>16</v>
+      </c>
+      <c r="E17" s="105">
+        <f t="shared" si="7"/>
+        <v>48</v>
+      </c>
+      <c r="F17" s="107">
+        <f t="shared" si="0"/>
+        <v>0.17099999999999999</v>
+      </c>
+      <c r="G17" s="107">
+        <f t="shared" si="1"/>
+        <v>5.6999999999999995E-2</v>
+      </c>
+      <c r="H17" s="107">
+        <f>SUM($F$2:F17)</f>
+        <v>2.0879999999999996</v>
+      </c>
+      <c r="I17" s="108">
+        <f t="shared" si="2"/>
+        <v>4.349999999999999E-2</v>
+      </c>
+      <c r="J17" s="106">
+        <f t="shared" si="3"/>
+        <v>22.988505747126442</v>
+      </c>
+      <c r="K17" s="117">
+        <f t="shared" si="4"/>
+        <v>-4.6230769230769228E-2</v>
+      </c>
+      <c r="L17" s="119">
+        <f t="shared" si="5"/>
+        <v>21.630615640599004</v>
+      </c>
+    </row>
+    <row r="18" spans="4:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D18" s="105">
+        <f t="shared" si="8"/>
+        <v>17</v>
+      </c>
+      <c r="E18" s="105">
+        <f t="shared" si="7"/>
+        <v>51</v>
+      </c>
+      <c r="F18" s="107">
+        <f t="shared" si="0"/>
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="G18" s="107">
+        <f t="shared" si="1"/>
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="H18" s="107">
+        <f>SUM($F$2:F18)</f>
+        <v>2.2859999999999996</v>
+      </c>
+      <c r="I18" s="108">
+        <f t="shared" si="2"/>
+        <v>4.48235294117647E-2</v>
+      </c>
+      <c r="J18" s="106">
+        <f t="shared" si="3"/>
+        <v>22.309711286089243</v>
+      </c>
+      <c r="K18" s="117">
+        <f t="shared" si="4"/>
+        <v>-5.5230769230769236E-2</v>
+      </c>
+      <c r="L18" s="119">
+        <f t="shared" si="5"/>
+        <v>18.105849582172699</v>
+      </c>
+    </row>
+    <row r="19" spans="4:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D19" s="105">
+        <f t="shared" si="8"/>
+        <v>18</v>
+      </c>
+      <c r="E19" s="105">
+        <f t="shared" si="7"/>
+        <v>54</v>
+      </c>
+      <c r="F19" s="107">
+        <f t="shared" si="0"/>
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="G19" s="107">
+        <f t="shared" si="1"/>
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="H19" s="107">
+        <f>SUM($F$2:F19)</f>
+        <v>2.4839999999999995</v>
+      </c>
+      <c r="I19" s="108">
+        <f t="shared" si="2"/>
+        <v>4.5999999999999992E-2</v>
+      </c>
+      <c r="J19" s="106">
+        <f t="shared" si="3"/>
+        <v>21.739130434782613</v>
+      </c>
+      <c r="K19" s="117">
+        <f t="shared" si="4"/>
+        <v>-5.5230769230769236E-2</v>
+      </c>
+      <c r="L19" s="119">
+        <f t="shared" si="5"/>
+        <v>18.105849582172699</v>
+      </c>
+    </row>
+    <row r="20" spans="4:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D20" s="105">
+        <f t="shared" si="8"/>
+        <v>19</v>
+      </c>
+      <c r="E20" s="105">
+        <f t="shared" si="7"/>
+        <v>57</v>
+      </c>
+      <c r="F20" s="107">
+        <f t="shared" si="0"/>
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="G20" s="107">
+        <f t="shared" si="1"/>
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="H20" s="107">
+        <f>SUM($F$2:F20)</f>
+        <v>2.6819999999999995</v>
+      </c>
+      <c r="I20" s="108">
+        <f t="shared" si="2"/>
+        <v>4.705263157894736E-2</v>
+      </c>
+      <c r="J20" s="106">
+        <f t="shared" si="3"/>
+        <v>21.25279642058166</v>
+      </c>
+      <c r="K20" s="117">
+        <f t="shared" si="4"/>
+        <v>-5.5230769230769236E-2</v>
+      </c>
+      <c r="L20" s="119">
+        <f t="shared" si="5"/>
+        <v>18.105849582172699</v>
+      </c>
+    </row>
+    <row r="21" spans="4:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D21" s="105">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="E21" s="105">
+        <f t="shared" ref="E21:E28" si="9">$B$1*D21</f>
+        <v>60</v>
+      </c>
+      <c r="F21" s="107">
+        <f t="shared" si="0"/>
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="G21" s="107">
+        <f t="shared" si="1"/>
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="H21" s="107">
+        <f>SUM($F$2:F21)</f>
+        <v>2.8799999999999994</v>
+      </c>
+      <c r="I21" s="108">
+        <f t="shared" si="2"/>
+        <v>4.7999999999999994E-2</v>
+      </c>
+      <c r="J21" s="106">
+        <f t="shared" si="3"/>
+        <v>20.833333333333336</v>
+      </c>
+      <c r="K21" s="117">
+        <f t="shared" si="4"/>
+        <v>-5.5230769230769236E-2</v>
+      </c>
+      <c r="L21" s="119">
+        <f t="shared" si="5"/>
+        <v>18.105849582172699</v>
+      </c>
+    </row>
+    <row r="22" spans="4:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D22" s="105">
+        <f t="shared" si="8"/>
+        <v>21</v>
+      </c>
+      <c r="E22" s="105">
+        <f t="shared" si="9"/>
+        <v>63</v>
+      </c>
+      <c r="F22" s="107">
+        <f t="shared" si="0"/>
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="G22" s="107">
+        <f t="shared" si="1"/>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="H22" s="107">
+        <f>SUM($F$2:F22)</f>
+        <v>3.1049999999999995</v>
+      </c>
+      <c r="I22" s="108">
+        <f t="shared" si="2"/>
+        <v>4.928571428571428E-2</v>
+      </c>
+      <c r="J22" s="106">
+        <f t="shared" si="3"/>
+        <v>20.289855072463769</v>
+      </c>
+      <c r="K22" s="117">
+        <f t="shared" si="4"/>
+        <v>-6.423076923076923E-2</v>
+      </c>
+      <c r="L22" s="119">
+        <f t="shared" si="5"/>
+        <v>15.568862275449101</v>
+      </c>
+    </row>
+    <row r="23" spans="4:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D23" s="105">
+        <f t="shared" si="8"/>
+        <v>22</v>
+      </c>
+      <c r="E23" s="105">
+        <f t="shared" si="9"/>
+        <v>66</v>
+      </c>
+      <c r="F23" s="107">
+        <f t="shared" si="0"/>
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="G23" s="107">
+        <f t="shared" si="1"/>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="H23" s="107">
+        <f>SUM($F$2:F23)</f>
+        <v>3.3299999999999996</v>
+      </c>
+      <c r="I23" s="108">
+        <f t="shared" si="2"/>
+        <v>5.0454545454545446E-2</v>
+      </c>
+      <c r="J23" s="106">
+        <f t="shared" si="3"/>
+        <v>19.819819819819823</v>
+      </c>
+      <c r="K23" s="117">
+        <f t="shared" si="4"/>
+        <v>-6.423076923076923E-2</v>
+      </c>
+      <c r="L23" s="119">
+        <f t="shared" si="5"/>
+        <v>15.568862275449101</v>
+      </c>
+    </row>
+    <row r="24" spans="4:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D24" s="105">
+        <f t="shared" si="8"/>
+        <v>23</v>
+      </c>
+      <c r="E24" s="105">
+        <f t="shared" si="9"/>
+        <v>69</v>
+      </c>
+      <c r="F24" s="107">
+        <f t="shared" si="0"/>
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="G24" s="107">
+        <f t="shared" si="1"/>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="H24" s="107">
+        <f>SUM($F$2:F24)</f>
+        <v>3.5549999999999997</v>
+      </c>
+      <c r="I24" s="108">
+        <f t="shared" si="2"/>
+        <v>5.1521739130434778E-2</v>
+      </c>
+      <c r="J24" s="106">
+        <f t="shared" si="3"/>
+        <v>19.409282700421944</v>
+      </c>
+      <c r="K24" s="117">
+        <f t="shared" si="4"/>
+        <v>-6.423076923076923E-2</v>
+      </c>
+      <c r="L24" s="119">
+        <f t="shared" si="5"/>
+        <v>15.568862275449101</v>
+      </c>
+    </row>
+    <row r="25" spans="4:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D25" s="105">
+        <f t="shared" si="8"/>
+        <v>24</v>
+      </c>
+      <c r="E25" s="105">
+        <f t="shared" si="9"/>
+        <v>72</v>
+      </c>
+      <c r="F25" s="107">
+        <f t="shared" si="0"/>
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="G25" s="107">
+        <f t="shared" si="1"/>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="H25" s="107">
+        <f>SUM($F$2:F25)</f>
+        <v>3.78</v>
+      </c>
+      <c r="I25" s="108">
+        <f t="shared" si="2"/>
+        <v>5.2499999999999998E-2</v>
+      </c>
+      <c r="J25" s="106">
+        <f t="shared" si="3"/>
+        <v>19.047619047619047</v>
+      </c>
+      <c r="K25" s="117">
+        <f t="shared" si="4"/>
+        <v>-6.423076923076923E-2</v>
+      </c>
+      <c r="L25" s="119">
+        <f t="shared" si="5"/>
+        <v>15.568862275449101</v>
+      </c>
+    </row>
+    <row r="26" spans="4:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D26" s="105">
+        <f t="shared" si="8"/>
+        <v>25</v>
+      </c>
+      <c r="E26" s="105">
+        <f t="shared" si="9"/>
+        <v>75</v>
+      </c>
+      <c r="F26" s="107">
+        <f t="shared" si="0"/>
+        <v>0.252</v>
+      </c>
+      <c r="G26" s="107">
+        <f t="shared" si="1"/>
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="H26" s="107">
+        <f>SUM($F$2:F26)</f>
+        <v>4.032</v>
+      </c>
+      <c r="I26" s="108">
+        <f t="shared" si="2"/>
+        <v>5.3760000000000002E-2</v>
+      </c>
+      <c r="J26" s="106">
+        <f t="shared" si="3"/>
+        <v>18.601190476190474</v>
+      </c>
+      <c r="K26" s="117">
+        <f t="shared" si="4"/>
+        <v>-7.3230769230769238E-2</v>
+      </c>
+      <c r="L26" s="119">
+        <f t="shared" si="5"/>
+        <v>13.655462184873949</v>
+      </c>
+    </row>
+    <row r="27" spans="4:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D27" s="105">
+        <f t="shared" si="8"/>
+        <v>26</v>
+      </c>
+      <c r="E27" s="105">
+        <f t="shared" si="9"/>
+        <v>78</v>
+      </c>
+      <c r="F27" s="107">
+        <f t="shared" si="0"/>
+        <v>0.252</v>
+      </c>
+      <c r="G27" s="107">
+        <f t="shared" si="1"/>
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="H27" s="107">
+        <f>SUM($F$2:F27)</f>
+        <v>4.2839999999999998</v>
+      </c>
+      <c r="I27" s="108">
+        <f t="shared" si="2"/>
+        <v>5.4923076923076922E-2</v>
+      </c>
+      <c r="J27" s="106">
+        <f t="shared" si="3"/>
+        <v>18.207282913165265</v>
+      </c>
+      <c r="K27" s="117">
+        <f t="shared" si="4"/>
+        <v>-7.3230769230769238E-2</v>
+      </c>
+      <c r="L27" s="119">
+        <f t="shared" si="5"/>
+        <v>13.655462184873949</v>
+      </c>
+    </row>
+    <row r="28" spans="4:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D28" s="105">
+        <f t="shared" si="8"/>
+        <v>27</v>
+      </c>
+      <c r="E28" s="105">
+        <f t="shared" si="9"/>
+        <v>81</v>
+      </c>
+      <c r="F28" s="107">
+        <f t="shared" si="0"/>
+        <v>0.252</v>
+      </c>
+      <c r="G28" s="107">
+        <f t="shared" si="1"/>
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="H28" s="107">
+        <f>SUM($F$2:F28)</f>
+        <v>4.5359999999999996</v>
+      </c>
+      <c r="I28" s="108">
+        <f t="shared" si="2"/>
+        <v>5.5999999999999994E-2</v>
+      </c>
+      <c r="J28" s="106">
+        <f t="shared" si="3"/>
+        <v>17.857142857142858</v>
+      </c>
+      <c r="K28" s="117">
+        <f t="shared" si="4"/>
+        <v>-7.3230769230769238E-2</v>
+      </c>
+      <c r="L28" s="119">
+        <f t="shared" si="5"/>
+        <v>13.655462184873949</v>
+      </c>
+    </row>
+    <row r="29" spans="4:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D29" s="105">
+        <f t="shared" si="8"/>
+        <v>28</v>
+      </c>
+      <c r="E29" s="105">
+        <f t="shared" ref="E29:E35" si="10">$B$1*D29</f>
+        <v>84</v>
+      </c>
+      <c r="F29" s="107">
+        <f t="shared" si="0"/>
+        <v>0.252</v>
+      </c>
+      <c r="G29" s="107">
+        <f t="shared" si="1"/>
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="H29" s="107">
+        <f>SUM($F$2:F29)</f>
+        <v>4.7879999999999994</v>
+      </c>
+      <c r="I29" s="108">
+        <f t="shared" si="2"/>
+        <v>5.6999999999999995E-2</v>
+      </c>
+      <c r="J29" s="106">
+        <f t="shared" si="3"/>
+        <v>17.543859649122808</v>
+      </c>
+      <c r="K29" s="117">
+        <f t="shared" si="4"/>
+        <v>-7.3230769230769238E-2</v>
+      </c>
+      <c r="L29" s="119">
+        <f t="shared" si="5"/>
+        <v>13.655462184873949</v>
+      </c>
+    </row>
+    <row r="30" spans="4:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D30" s="105">
+        <f t="shared" si="8"/>
+        <v>29</v>
+      </c>
+      <c r="E30" s="105">
+        <f t="shared" si="10"/>
+        <v>87</v>
+      </c>
+      <c r="F30" s="107">
+        <f t="shared" si="0"/>
+        <v>0.27900000000000003</v>
+      </c>
+      <c r="G30" s="107">
+        <f t="shared" si="1"/>
+        <v>9.3000000000000013E-2</v>
+      </c>
+      <c r="H30" s="107">
+        <f>SUM($F$2:F30)</f>
+        <v>5.0669999999999993</v>
+      </c>
+      <c r="I30" s="108">
+        <f t="shared" si="2"/>
+        <v>5.8241379310344822E-2</v>
+      </c>
+      <c r="J30" s="106">
+        <f t="shared" si="3"/>
+        <v>17.169923031379515</v>
+      </c>
+      <c r="K30" s="117">
+        <f t="shared" si="4"/>
+        <v>-8.2230769230769246E-2</v>
+      </c>
+      <c r="L30" s="119">
+        <f t="shared" si="5"/>
+        <v>12.160898035547238</v>
+      </c>
+    </row>
+    <row r="31" spans="4:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D31" s="105">
+        <f t="shared" si="8"/>
+        <v>30</v>
+      </c>
+      <c r="E31" s="105">
+        <f t="shared" si="10"/>
+        <v>90</v>
+      </c>
+      <c r="F31" s="107">
+        <f t="shared" si="0"/>
+        <v>0.27900000000000003</v>
+      </c>
+      <c r="G31" s="107">
+        <f t="shared" si="1"/>
+        <v>9.3000000000000013E-2</v>
+      </c>
+      <c r="H31" s="107">
+        <f>SUM($F$2:F31)</f>
+        <v>5.3459999999999992</v>
+      </c>
+      <c r="I31" s="108">
+        <f t="shared" si="2"/>
+        <v>5.9399999999999994E-2</v>
+      </c>
+      <c r="J31" s="106">
+        <f t="shared" si="3"/>
+        <v>16.835016835016837</v>
+      </c>
+      <c r="K31" s="117">
+        <f t="shared" si="4"/>
+        <v>-8.2230769230769246E-2</v>
+      </c>
+      <c r="L31" s="119">
+        <f t="shared" si="5"/>
+        <v>12.160898035547238</v>
+      </c>
+    </row>
+    <row r="32" spans="4:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D32" s="105">
+        <f t="shared" si="8"/>
+        <v>31</v>
+      </c>
+      <c r="E32" s="105">
+        <f t="shared" si="10"/>
+        <v>93</v>
+      </c>
+      <c r="F32" s="107">
+        <f t="shared" si="0"/>
+        <v>0.27900000000000003</v>
+      </c>
+      <c r="G32" s="107">
+        <f t="shared" si="1"/>
+        <v>9.3000000000000013E-2</v>
+      </c>
+      <c r="H32" s="107">
+        <f>SUM($F$2:F32)</f>
+        <v>5.6249999999999991</v>
+      </c>
+      <c r="I32" s="108">
+        <f t="shared" si="2"/>
+        <v>6.0483870967741923E-2</v>
+      </c>
+      <c r="J32" s="106">
+        <f t="shared" si="3"/>
+        <v>16.533333333333335</v>
+      </c>
+      <c r="K32" s="117">
+        <f t="shared" si="4"/>
+        <v>-8.2230769230769246E-2</v>
+      </c>
+      <c r="L32" s="119">
+        <f t="shared" si="5"/>
+        <v>12.160898035547238</v>
+      </c>
+    </row>
+    <row r="33" spans="4:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D33" s="105">
+        <f t="shared" si="8"/>
+        <v>32</v>
+      </c>
+      <c r="E33" s="105">
+        <f t="shared" si="10"/>
+        <v>96</v>
+      </c>
+      <c r="F33" s="107">
+        <f t="shared" si="0"/>
+        <v>0.27900000000000003</v>
+      </c>
+      <c r="G33" s="107">
+        <f t="shared" si="1"/>
+        <v>9.3000000000000013E-2</v>
+      </c>
+      <c r="H33" s="107">
+        <f>SUM($F$2:F33)</f>
+        <v>5.903999999999999</v>
+      </c>
+      <c r="I33" s="108">
+        <f t="shared" si="2"/>
+        <v>6.1499999999999992E-2</v>
+      </c>
+      <c r="J33" s="106">
+        <f t="shared" si="3"/>
+        <v>16.260162601626018</v>
+      </c>
+      <c r="K33" s="117">
+        <f t="shared" si="4"/>
+        <v>-8.2230769230769246E-2</v>
+      </c>
+      <c r="L33" s="119">
+        <f t="shared" si="5"/>
+        <v>12.160898035547238</v>
+      </c>
+    </row>
+    <row r="34" spans="4:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D34" s="105">
+        <f t="shared" si="8"/>
+        <v>33</v>
+      </c>
+      <c r="E34" s="105">
+        <f t="shared" si="10"/>
+        <v>99</v>
+      </c>
+      <c r="F34" s="107">
+        <f t="shared" si="0"/>
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="G34" s="107">
+        <f t="shared" si="1"/>
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="H34" s="107">
+        <f>SUM($F$2:F34)</f>
+        <v>6.2099999999999991</v>
+      </c>
+      <c r="I34" s="108">
+        <f t="shared" si="2"/>
+        <v>6.2727272727272715E-2</v>
+      </c>
+      <c r="J34" s="106">
+        <f t="shared" si="3"/>
+        <v>15.94202898550725</v>
+      </c>
+      <c r="K34" s="117">
+        <f t="shared" si="4"/>
+        <v>-9.1230769230769226E-2</v>
+      </c>
+      <c r="L34" s="119">
+        <f t="shared" si="5"/>
+        <v>10.961214165261383</v>
+      </c>
+    </row>
+    <row r="35" spans="4:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D35" s="105">
+        <f t="shared" si="8"/>
+        <v>34</v>
+      </c>
+      <c r="E35" s="105">
+        <f t="shared" si="10"/>
+        <v>102</v>
+      </c>
+      <c r="F35" s="107">
+        <f t="shared" si="0"/>
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="G35" s="107">
+        <f t="shared" si="1"/>
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="H35" s="107">
+        <f>SUM($F$2:F35)</f>
+        <v>6.5159999999999991</v>
+      </c>
+      <c r="I35" s="108">
+        <f t="shared" si="2"/>
+        <v>6.388235294117646E-2</v>
+      </c>
+      <c r="J35" s="106">
+        <f t="shared" si="3"/>
+        <v>15.653775322283613</v>
+      </c>
+      <c r="K35" s="117">
+        <f t="shared" si="4"/>
+        <v>-9.1230769230769226E-2</v>
+      </c>
+      <c r="L35" s="119">
+        <f t="shared" si="5"/>
+        <v>10.961214165261383</v>
+      </c>
+    </row>
+    <row r="36" spans="4:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D36" s="105">
+        <f t="shared" si="8"/>
+        <v>35</v>
+      </c>
+      <c r="E36" s="105">
+        <f t="shared" ref="E36:E42" si="11">$B$1*D36</f>
+        <v>105</v>
+      </c>
+      <c r="F36" s="107">
+        <f t="shared" si="0"/>
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="G36" s="107">
+        <f t="shared" si="1"/>
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="H36" s="107">
+        <f>SUM($F$2:F36)</f>
+        <v>6.8219999999999992</v>
+      </c>
+      <c r="I36" s="108">
+        <f t="shared" ref="I36:I42" si="12">H36/E36</f>
+        <v>6.4971428571428569E-2</v>
+      </c>
+      <c r="J36" s="106">
+        <f t="shared" si="3"/>
+        <v>15.391380826737027</v>
+      </c>
+      <c r="K36" s="117">
+        <f t="shared" ref="K36:K42" si="13">IF($B$13-G36&gt;0,"",$B$13-G36)</f>
+        <v>-9.1230769230769226E-2</v>
+      </c>
+      <c r="L36" s="119">
+        <f t="shared" si="5"/>
+        <v>10.961214165261383</v>
+      </c>
+    </row>
+    <row r="37" spans="4:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D37" s="105">
+        <f t="shared" si="8"/>
+        <v>36</v>
+      </c>
+      <c r="E37" s="105">
+        <f t="shared" si="11"/>
+        <v>108</v>
+      </c>
+      <c r="F37" s="107">
+        <f t="shared" si="0"/>
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="G37" s="107">
+        <f t="shared" si="1"/>
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="H37" s="107">
+        <f>SUM($F$2:F37)</f>
+        <v>7.1279999999999992</v>
+      </c>
+      <c r="I37" s="108">
+        <f t="shared" si="12"/>
+        <v>6.5999999999999989E-2</v>
+      </c>
+      <c r="J37" s="106">
+        <f t="shared" si="3"/>
+        <v>15.151515151515154</v>
+      </c>
+      <c r="K37" s="117">
+        <f t="shared" si="13"/>
+        <v>-9.1230769230769226E-2</v>
+      </c>
+      <c r="L37" s="119">
+        <f t="shared" si="5"/>
+        <v>10.961214165261383</v>
+      </c>
+    </row>
+    <row r="38" spans="4:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D38" s="105">
+        <f t="shared" si="8"/>
+        <v>37</v>
+      </c>
+      <c r="E38" s="105">
+        <f t="shared" si="11"/>
+        <v>111</v>
+      </c>
+      <c r="F38" s="107">
+        <f t="shared" si="0"/>
+        <v>0.33299999999999996</v>
+      </c>
+      <c r="G38" s="107">
+        <f t="shared" si="1"/>
+        <v>0.11099999999999999</v>
+      </c>
+      <c r="H38" s="107">
+        <f>SUM($F$2:F38)</f>
+        <v>7.4609999999999994</v>
+      </c>
+      <c r="I38" s="108">
+        <f t="shared" si="12"/>
+        <v>6.7216216216216207E-2</v>
+      </c>
+      <c r="J38" s="106">
+        <f t="shared" si="3"/>
+        <v>14.877362283876158</v>
+      </c>
+      <c r="K38" s="117">
+        <f t="shared" si="13"/>
+        <v>-0.10023076923076922</v>
+      </c>
+      <c r="L38" s="119">
+        <f t="shared" si="5"/>
+        <v>9.9769762087490417</v>
+      </c>
+    </row>
+    <row r="39" spans="4:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D39" s="105">
+        <f t="shared" si="8"/>
+        <v>38</v>
+      </c>
+      <c r="E39" s="105">
+        <f t="shared" si="11"/>
+        <v>114</v>
+      </c>
+      <c r="F39" s="107">
+        <f t="shared" si="0"/>
+        <v>0.33299999999999996</v>
+      </c>
+      <c r="G39" s="107">
+        <f t="shared" si="1"/>
+        <v>0.11099999999999999</v>
+      </c>
+      <c r="H39" s="107">
+        <f>SUM($F$2:F39)</f>
+        <v>7.7939999999999996</v>
+      </c>
+      <c r="I39" s="108">
+        <f t="shared" si="12"/>
+        <v>6.8368421052631578E-2</v>
+      </c>
+      <c r="J39" s="106">
+        <f t="shared" si="3"/>
+        <v>14.626635873749038</v>
+      </c>
+      <c r="K39" s="117">
+        <f t="shared" si="13"/>
+        <v>-0.10023076923076922</v>
+      </c>
+      <c r="L39" s="119">
+        <f t="shared" si="5"/>
+        <v>9.9769762087490417</v>
+      </c>
+    </row>
+    <row r="40" spans="4:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D40" s="105">
+        <f t="shared" si="8"/>
+        <v>39</v>
+      </c>
+      <c r="E40" s="105">
+        <f t="shared" si="11"/>
+        <v>117</v>
+      </c>
+      <c r="F40" s="107">
+        <f t="shared" si="0"/>
+        <v>0.33299999999999996</v>
+      </c>
+      <c r="G40" s="107">
+        <f t="shared" si="1"/>
+        <v>0.11099999999999999</v>
+      </c>
+      <c r="H40" s="107">
+        <f>SUM($F$2:F40)</f>
+        <v>8.1269999999999989</v>
+      </c>
+      <c r="I40" s="108">
+        <f t="shared" si="12"/>
+        <v>6.946153846153845E-2</v>
+      </c>
+      <c r="J40" s="106">
+        <f t="shared" si="3"/>
+        <v>14.396456256921375</v>
+      </c>
+      <c r="K40" s="117">
+        <f t="shared" si="13"/>
+        <v>-0.10023076923076922</v>
+      </c>
+      <c r="L40" s="119">
+        <f t="shared" si="5"/>
+        <v>9.9769762087490417</v>
+      </c>
+    </row>
+    <row r="41" spans="4:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D41" s="105">
+        <f t="shared" si="8"/>
+        <v>40</v>
+      </c>
+      <c r="E41" s="105">
+        <f t="shared" si="11"/>
+        <v>120</v>
+      </c>
+      <c r="F41" s="107">
+        <f t="shared" si="0"/>
+        <v>0.33299999999999996</v>
+      </c>
+      <c r="G41" s="107">
+        <f t="shared" si="1"/>
+        <v>0.11099999999999999</v>
+      </c>
+      <c r="H41" s="107">
+        <f>SUM($F$2:F41)</f>
+        <v>8.4599999999999991</v>
+      </c>
+      <c r="I41" s="108">
+        <f t="shared" si="12"/>
+        <v>7.0499999999999993E-2</v>
+      </c>
+      <c r="J41" s="106">
+        <f t="shared" si="3"/>
+        <v>14.184397163120568</v>
+      </c>
+      <c r="K41" s="117">
+        <f t="shared" si="13"/>
+        <v>-0.10023076923076922</v>
+      </c>
+      <c r="L41" s="119">
+        <f t="shared" si="5"/>
+        <v>9.9769762087490417</v>
+      </c>
+    </row>
+    <row r="42" spans="4:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D42" s="105">
+        <f t="shared" si="8"/>
+        <v>41</v>
+      </c>
+      <c r="E42" s="105">
+        <f t="shared" si="11"/>
+        <v>123</v>
+      </c>
+      <c r="F42" s="107">
+        <f t="shared" si="0"/>
+        <v>0.36</v>
+      </c>
+      <c r="G42" s="107">
+        <f t="shared" si="1"/>
+        <v>0.12</v>
+      </c>
+      <c r="H42" s="107">
+        <f>SUM($F$2:F42)</f>
+        <v>8.8199999999999985</v>
+      </c>
+      <c r="I42" s="108">
+        <f t="shared" si="12"/>
+        <v>7.1707317073170726E-2</v>
+      </c>
+      <c r="J42" s="106">
+        <f t="shared" si="3"/>
+        <v>13.945578231292519</v>
+      </c>
+      <c r="K42" s="117">
+        <f t="shared" si="13"/>
+        <v>-0.10923076923076923</v>
+      </c>
+      <c r="L42" s="119">
+        <f t="shared" si="5"/>
+        <v>9.1549295774647881</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Brainstorm.xlsx
+++ b/Brainstorm.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Personal@SSD\Game\DL\dragalia-data-track\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D185E776-74AA-4794-A881-F4CD8E6C6CA7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEBA83B1-123B-421C-B221-B2FCD01FA881}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2145" yWindow="1920" windowWidth="21600" windowHeight="11385" activeTab="7" xr2:uid="{4CFB4A6A-60C6-4091-BCA5-480044B61D33}"/>
+    <workbookView xWindow="26910" yWindow="2250" windowWidth="21600" windowHeight="13035" xr2:uid="{4CFB4A6A-60C6-4091-BCA5-480044B61D33}"/>
   </bookViews>
   <sheets>
     <sheet name="Rotation" sheetId="8" r:id="rId1"/>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="186">
   <si>
     <t>睡抗</t>
   </si>
@@ -593,12 +593,6 @@
     <t>Buff x</t>
   </si>
   <si>
-    <t>波勇</t>
-  </si>
-  <si>
-    <t>加百列</t>
-  </si>
-  <si>
     <t>疊加周期</t>
   </si>
   <si>
@@ -651,6 +645,15 @@
   </si>
   <si>
     <t>實際秒損血</t>
+  </si>
+  <si>
+    <t>雷勇</t>
+  </si>
+  <si>
+    <t>夢0</t>
+  </si>
+  <si>
+    <t>伐由</t>
   </si>
 </sst>
 </file>
@@ -2250,8 +2253,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B260D6A6-975E-4594-902D-33C279C7CA35}">
   <dimension ref="A1:Y13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R13" sqref="R13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2357,7 +2360,7 @@
         <v>87</v>
       </c>
       <c r="R2" s="66">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="S2" s="60" t="s">
         <v>9</v>
@@ -2368,7 +2371,7 @@
       </c>
       <c r="V2" s="69">
         <f>VLOOKUP(T3,$H$3:$M$13,6,FALSE)</f>
-        <v>1560</v>
+        <v>2400</v>
       </c>
       <c r="X2" s="57" t="s">
         <v>40</v>
@@ -2404,27 +2407,27 @@
       </c>
       <c r="I3" s="61">
         <f>B3 * (1+SUM($R:$R))</f>
-        <v>150</v>
+        <v>225</v>
       </c>
       <c r="J3" s="61">
         <f t="shared" ref="J3:J13" si="0">C3 * (1+SUM($R:$R))</f>
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="K3" s="61">
         <f t="shared" ref="K3:M10" si="1">D3 * (1+SUM($R:$R))</f>
-        <v>496</v>
+        <v>744</v>
       </c>
       <c r="L3" s="61">
         <f t="shared" si="1"/>
-        <v>761</v>
+        <v>1141.5</v>
       </c>
       <c r="M3" s="61">
         <f t="shared" si="1"/>
-        <v>1152</v>
+        <v>1728</v>
       </c>
       <c r="N3" s="58">
         <f t="shared" ref="N3:N13" si="2">G3 * (1+SUM($R:$R))</f>
-        <v>345</v>
+        <v>517.5</v>
       </c>
       <c r="O3" s="72" t="s">
         <v>17</v>
@@ -2442,14 +2445,14 @@
         <v>77</v>
       </c>
       <c r="T3" s="13" t="s">
-        <v>81</v>
+        <v>29</v>
       </c>
       <c r="U3" s="68" t="s">
         <v>102</v>
       </c>
       <c r="V3" s="69">
         <f>MOD(T6, V2)</f>
-        <v>690</v>
+        <v>992</v>
       </c>
       <c r="W3" s="57" t="s">
         <v>39</v>
@@ -2460,7 +2463,7 @@
       </c>
       <c r="Y3" s="57" t="b">
         <f>AND(V4 &gt; 0, V4 &lt;= VLOOKUP($T$3,$H$3:$N$13,7,FALSE))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2490,27 +2493,27 @@
       </c>
       <c r="I4" s="61">
         <f t="shared" ref="I4:I13" si="3">B4 * (1+SUM($R:$R))</f>
-        <v>130</v>
+        <v>195</v>
       </c>
       <c r="J4" s="61">
         <f t="shared" si="0"/>
-        <v>260</v>
+        <v>390</v>
       </c>
       <c r="K4" s="61">
         <f t="shared" si="1"/>
-        <v>480</v>
+        <v>720</v>
       </c>
       <c r="L4" s="61">
         <f t="shared" si="1"/>
-        <v>840</v>
+        <v>1260</v>
       </c>
       <c r="M4" s="61">
         <f t="shared" si="1"/>
-        <v>1740</v>
+        <v>2610</v>
       </c>
       <c r="N4" s="58">
         <f t="shared" si="2"/>
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="O4" s="72" t="s">
         <v>88</v>
@@ -2528,14 +2531,14 @@
         <v>97</v>
       </c>
       <c r="T4" s="13">
-        <v>3810</v>
+        <v>3392</v>
       </c>
       <c r="U4" s="68" t="s">
         <v>103</v>
       </c>
       <c r="V4" s="69">
         <f>MOD(T7, V2)</f>
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="W4" s="57" t="s">
         <v>105</v>
@@ -2576,27 +2579,27 @@
       </c>
       <c r="I5" s="61">
         <f t="shared" si="3"/>
-        <v>144</v>
+        <v>216</v>
       </c>
       <c r="J5" s="61">
         <f t="shared" si="0"/>
-        <v>288</v>
+        <v>432</v>
       </c>
       <c r="K5" s="61">
         <f t="shared" si="1"/>
-        <v>552</v>
+        <v>828</v>
       </c>
       <c r="L5" s="61">
         <f t="shared" si="1"/>
-        <v>840</v>
+        <v>1260</v>
       </c>
       <c r="M5" s="61">
         <f t="shared" si="1"/>
-        <v>1320</v>
+        <v>1980</v>
       </c>
       <c r="N5" s="58">
         <f t="shared" si="2"/>
-        <v>288</v>
+        <v>432</v>
       </c>
       <c r="O5" s="72" t="s">
         <v>89</v>
@@ -2614,14 +2617,14 @@
         <v>99</v>
       </c>
       <c r="T5" s="13">
-        <v>9360</v>
+        <v>7500</v>
       </c>
       <c r="U5" s="70" t="s">
         <v>100</v>
       </c>
       <c r="V5" s="71" t="str" cm="1">
         <f t="array" ref="V5">(ROUNDDOWN(T6/V2, 0) + IF(X8,1,0)) &amp; _xlfn.IFS(X3, " + FS", X4, " + C1", X5, " + C2", X6, " + C3", X7, " + C4", TRUE, "")</f>
-        <v>2 + C4</v>
+        <v>1 + C4</v>
       </c>
       <c r="W5" s="57" t="s">
         <v>106</v>
@@ -2632,7 +2635,7 @@
       </c>
       <c r="Y5" s="57" t="b">
         <f>AND(V4&gt;=VLOOKUP($T$3,$H$3:$M$13,2,FALSE),V4&lt;VLOOKUP($T$3,$H$3:$M$13,3,FALSE))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2662,41 +2665,41 @@
       </c>
       <c r="I6" s="61">
         <f t="shared" si="3"/>
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J6" s="61">
         <f t="shared" si="0"/>
-        <v>440</v>
+        <v>660</v>
       </c>
       <c r="K6" s="61">
         <f t="shared" si="1"/>
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="L6" s="61">
         <f t="shared" si="1"/>
-        <v>1180</v>
+        <v>1770</v>
       </c>
       <c r="M6" s="61">
         <f t="shared" si="1"/>
-        <v>1600</v>
+        <v>2400</v>
       </c>
       <c r="N6" s="58">
         <f t="shared" si="2"/>
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="S6" s="75" t="s">
         <v>98</v>
       </c>
       <c r="T6" s="76">
         <f>T4 * (1 - SUM(P:P))</f>
-        <v>3810</v>
+        <v>3392</v>
       </c>
       <c r="U6" s="77" t="s">
         <v>101</v>
       </c>
       <c r="V6" s="71" t="str" cm="1">
         <f t="array" ref="V6">(ROUNDDOWN(T7/V2, 0) + IF(Y8,1,0)) &amp; _xlfn.IFS(Y3, " + FS", Y4, " + C1", Y5, " + C2", Y6, " + C3", Y7, " + C4", TRUE, "")</f>
-        <v>6</v>
+        <v>3 + FS</v>
       </c>
       <c r="W6" s="57" t="s">
         <v>107</v>
@@ -2737,34 +2740,34 @@
       </c>
       <c r="I7" s="61">
         <f t="shared" si="3"/>
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="J7" s="61">
         <f t="shared" si="0"/>
-        <v>360</v>
+        <v>540</v>
       </c>
       <c r="K7" s="61">
         <f t="shared" si="1"/>
-        <v>480</v>
+        <v>720</v>
       </c>
       <c r="L7" s="61">
         <f t="shared" si="1"/>
-        <v>960</v>
+        <v>1440</v>
       </c>
       <c r="M7" s="61">
         <f t="shared" si="1"/>
-        <v>1560</v>
+        <v>2340</v>
       </c>
       <c r="N7" s="58">
         <f t="shared" si="2"/>
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="S7" s="75" t="s">
         <v>104</v>
       </c>
       <c r="T7" s="76">
         <f>T5 * (1 - SUM(P:P))</f>
-        <v>9360</v>
+        <v>7500</v>
       </c>
       <c r="W7" s="57" t="s">
         <v>108</v>
@@ -2805,27 +2808,27 @@
       </c>
       <c r="I8" s="61">
         <f t="shared" si="3"/>
-        <v>184</v>
+        <v>276</v>
       </c>
       <c r="J8" s="61">
         <f t="shared" si="0"/>
-        <v>276</v>
+        <v>414</v>
       </c>
       <c r="K8" s="61">
         <f t="shared" si="1"/>
-        <v>552</v>
+        <v>828</v>
       </c>
       <c r="L8" s="61">
         <f t="shared" si="1"/>
-        <v>966</v>
+        <v>1449</v>
       </c>
       <c r="M8" s="61">
         <f t="shared" si="1"/>
-        <v>1495</v>
+        <v>2242.5</v>
       </c>
       <c r="N8" s="58">
         <f t="shared" si="2"/>
-        <v>460</v>
+        <v>690</v>
       </c>
       <c r="W8" s="57" t="s">
         <v>109</v>
@@ -2866,27 +2869,27 @@
       </c>
       <c r="I9" s="61">
         <f t="shared" si="3"/>
-        <v>130</v>
+        <v>195</v>
       </c>
       <c r="J9" s="61">
         <f t="shared" si="0"/>
-        <v>330</v>
+        <v>495</v>
       </c>
       <c r="K9" s="61">
         <f t="shared" si="1"/>
-        <v>570</v>
+        <v>855</v>
       </c>
       <c r="L9" s="61">
         <f t="shared" si="1"/>
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="M9" s="61">
         <f t="shared" si="1"/>
-        <v>1600</v>
+        <v>2400</v>
       </c>
       <c r="N9" s="58">
         <f t="shared" si="2"/>
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="W9" s="57"/>
       <c r="X9" s="57"/>
@@ -2919,27 +2922,27 @@
       </c>
       <c r="I10" s="61">
         <f t="shared" si="3"/>
-        <v>232</v>
+        <v>348</v>
       </c>
       <c r="J10" s="61">
         <f t="shared" si="0"/>
-        <v>464</v>
+        <v>696</v>
       </c>
       <c r="K10" s="61">
         <f t="shared" si="1"/>
-        <v>812</v>
+        <v>1218</v>
       </c>
       <c r="L10" s="61">
         <f t="shared" si="1"/>
-        <v>1276</v>
+        <v>1914</v>
       </c>
       <c r="M10" s="61">
         <f t="shared" si="1"/>
-        <v>1972</v>
+        <v>2958</v>
       </c>
       <c r="N10" s="58">
         <f t="shared" si="2"/>
-        <v>580</v>
+        <v>870</v>
       </c>
     </row>
     <row r="11" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2963,18 +2966,18 @@
       </c>
       <c r="I11" s="61">
         <f t="shared" si="3"/>
-        <v>545</v>
+        <v>817.5</v>
       </c>
       <c r="J11" s="61">
         <f t="shared" si="0"/>
-        <v>1090</v>
+        <v>1635</v>
       </c>
       <c r="K11" s="61"/>
       <c r="L11" s="61"/>
       <c r="M11" s="61"/>
       <c r="N11" s="58">
         <f t="shared" si="2"/>
-        <v>400</v>
+        <v>600</v>
       </c>
     </row>
     <row r="12" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2998,18 +3001,18 @@
       </c>
       <c r="I12" s="61">
         <f t="shared" si="3"/>
-        <v>464</v>
+        <v>696</v>
       </c>
       <c r="J12" s="61">
         <f t="shared" si="0"/>
-        <v>928</v>
+        <v>1392</v>
       </c>
       <c r="K12" s="61"/>
       <c r="L12" s="61"/>
       <c r="M12" s="61"/>
       <c r="N12" s="58">
         <f t="shared" si="2"/>
-        <v>400</v>
+        <v>600</v>
       </c>
     </row>
     <row r="13" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3035,21 +3038,21 @@
       </c>
       <c r="I13" s="61">
         <f t="shared" si="3"/>
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="J13" s="61">
         <f t="shared" si="0"/>
-        <v>764</v>
+        <v>1146</v>
       </c>
       <c r="K13" s="61">
         <f>D13 * (1+SUM($R:$R))</f>
-        <v>1228</v>
+        <v>1842</v>
       </c>
       <c r="L13" s="61"/>
       <c r="M13" s="61"/>
       <c r="N13" s="58">
         <f t="shared" si="2"/>
-        <v>400</v>
+        <v>600</v>
       </c>
     </row>
   </sheetData>
@@ -4757,7 +4760,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="G20" sqref="F20:G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4770,13 +4773,13 @@
   <sheetData>
     <row r="1" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C1" s="81" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="D1" s="81" t="s">
-        <v>119</v>
+        <v>184</v>
       </c>
       <c r="E1" s="98" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="82" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4790,10 +4793,10 @@
         <v>0.7</v>
       </c>
       <c r="D2" s="83">
+        <v>0.35</v>
+      </c>
+      <c r="E2" s="83">
         <v>0.2</v>
-      </c>
-      <c r="E2" s="83">
-        <v>0.6</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="82" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4801,7 +4804,7 @@
         <v>88</v>
       </c>
       <c r="C3" s="183">
-        <v>0.13</v>
+        <v>0.4</v>
       </c>
       <c r="D3" s="183"/>
       <c r="E3" s="184"/>
@@ -4817,7 +4820,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="102">
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="84" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4831,10 +4834,10 @@
         <v>0</v>
       </c>
       <c r="D5" s="85">
+        <v>0.7</v>
+      </c>
+      <c r="E5" s="85">
         <v>0.9</v>
-      </c>
-      <c r="E5" s="85">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="84" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4963,21 +4966,21 @@
       </c>
       <c r="C16" s="92">
         <f>(1+C2+$C3)*(1+$C4)*(1+C9+$C10+$C11)*(1+$C12)*$C14</f>
-        <v>6.5880000000000001</v>
+        <v>7.5600000000000005</v>
       </c>
       <c r="D16" s="92">
-        <f>(1+D2+$C3)*(1+$C4)*(1+D9+$C10+$C11)*(1+$C12)*$C14</f>
-        <v>3.99</v>
+        <f>(1+D2+$C3)*(1+D4)*(1+D9+$C10+$C11)*(1+$C12)*$C14</f>
+        <v>5.25</v>
       </c>
       <c r="E16" s="92">
-        <f>(1+E2+$C3)*(1+$C4)*(1+E9+$C10+$C11)*(1+$C12)*$C14</f>
-        <v>5.1899999999999995</v>
+        <f>(1+E2+$C3)*(1+E4)*(1+E9+$C10+$C11)*(1+$C12)*$C14</f>
+        <v>4.8000000000000007</v>
       </c>
     </row>
     <row r="17" spans="2:5" s="90" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="101">
         <f>-(1-MAX(C16:E16)/MAX(C18:E18))</f>
-        <v>-0.2857142857142857</v>
+        <v>-0.31521739130434778</v>
       </c>
       <c r="C17" s="91">
         <f>-(1-(C16/MAX($C16:$E16)))</f>
@@ -4985,11 +4988,11 @@
       </c>
       <c r="D17" s="91">
         <f>-(1-(D16/MAX($C16:$E16)))</f>
-        <v>-0.39435336976320579</v>
+        <v>-0.30555555555555558</v>
       </c>
       <c r="E17" s="91">
         <f>-(1-(E16/MAX($C16:$E16)))</f>
-        <v>-0.21220400728597455</v>
+        <v>-0.365079365079365</v>
       </c>
     </row>
     <row r="18" spans="2:5" s="90" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4998,33 +5001,33 @@
       </c>
       <c r="C18" s="92">
         <f>(1+C2+$C3)*(1+C4)*(1+C5+$C6+$C7)*(1+C8)*(1+C9+$C10+$C11)*(1+$C13)*$C15</f>
-        <v>9.2232000000000003</v>
+        <v>10.584</v>
       </c>
       <c r="D18" s="92">
         <f>(1+D2+$C3)*(1+D4)*(1+D5+$C6+$C7)*(1+D8)*(1+D9+$C10+$C11)*(1+$C13)*$C15</f>
-        <v>9.1769999999999996</v>
+        <v>11.025</v>
       </c>
       <c r="E18" s="92">
         <f>(1+E2+$C3)*(1+E4)*(1+E5+$C6+$C7)*(1+E8)*(1+E9+$C10+$C11)*(1+$C13)*$C15</f>
-        <v>7.6292999999999997</v>
+        <v>11.04</v>
       </c>
     </row>
     <row r="19" spans="2:5" s="90" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="101">
         <f>-(1-MAX(C18:E18)/MAX(C16:E16))</f>
-        <v>0.40000000000000013</v>
+        <v>0.46031746031746001</v>
       </c>
       <c r="C19" s="91">
         <f>-(1-(C18/MAX($C18:$E18)))</f>
-        <v>0</v>
+        <v>-4.130434782608694E-2</v>
       </c>
       <c r="D19" s="91">
         <f>-(1-(D18/MAX($C18:$E18)))</f>
-        <v>-5.0091074681238856E-3</v>
+        <v>-1.3586956521738358E-3</v>
       </c>
       <c r="E19" s="91">
         <f>-(1-(E18/MAX($C18:$E18)))</f>
-        <v>-0.17281420765027322</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5049,7 +5052,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5074,13 +5077,13 @@
         <v>154</v>
       </c>
       <c r="B2" s="94">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="C2" s="63" t="s">
         <v>154</v>
       </c>
       <c r="D2" s="95">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5088,13 +5091,13 @@
         <v>155</v>
       </c>
       <c r="B3" s="94">
-        <v>0.3</v>
+        <v>0.22</v>
       </c>
       <c r="C3" s="63" t="s">
         <v>155</v>
       </c>
       <c r="D3" s="95">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5103,14 +5106,14 @@
       </c>
       <c r="B4" s="94">
         <f>B2+B3</f>
-        <v>0.4</v>
+        <v>0.33999999999999997</v>
       </c>
       <c r="C4" s="63" t="s">
         <v>156</v>
       </c>
       <c r="D4" s="95">
         <f>D2+D3</f>
-        <v>0.7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5134,7 +5137,7 @@
       </c>
       <c r="C6" s="198">
         <f>1*(1-B2)+(1+D2)*(B2)</f>
-        <v>1.06</v>
+        <v>1.0840000000000001</v>
       </c>
       <c r="D6" s="199"/>
     </row>
@@ -5147,7 +5150,7 @@
       </c>
       <c r="C7" s="198">
         <f>1*(1-B2)+(1+D4)*(B2)</f>
-        <v>1.07</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="D7" s="199"/>
     </row>
@@ -5160,7 +5163,7 @@
       </c>
       <c r="C8" s="198">
         <f>1*(1-B4)+(1+D2)*(B4)</f>
-        <v>1.2400000000000002</v>
+        <v>1.238</v>
       </c>
       <c r="D8" s="199"/>
       <c r="F8" s="97"/>
@@ -5174,7 +5177,7 @@
       </c>
       <c r="C9" s="198">
         <f>1*(1-B4)+(1+D4)*(B4)</f>
-        <v>1.28</v>
+        <v>1.3399999999999999</v>
       </c>
       <c r="D9" s="199"/>
     </row>
@@ -5196,8 +5199,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67061BFE-6F76-4E7B-9ED9-42BA29E49AED}">
   <dimension ref="A1:L42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5218,42 +5221,42 @@
   <sheetData>
     <row r="1" spans="1:12" s="104" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="111" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B1" s="111">
         <v>3</v>
       </c>
       <c r="D1" s="111" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1" s="111" t="s">
+        <v>168</v>
+      </c>
+      <c r="F1" s="111" t="s">
         <v>169</v>
       </c>
-      <c r="E1" s="111" t="s">
+      <c r="G1" s="111" t="s">
+        <v>181</v>
+      </c>
+      <c r="H1" s="111" t="s">
         <v>170</v>
       </c>
-      <c r="F1" s="111" t="s">
-        <v>171</v>
-      </c>
-      <c r="G1" s="111" t="s">
-        <v>183</v>
-      </c>
-      <c r="H1" s="111" t="s">
-        <v>172</v>
-      </c>
       <c r="I1" s="111" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="J1" s="112" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K1" s="116" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="L1" s="118" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="111" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B2" s="113">
         <v>0.09</v>
@@ -5296,7 +5299,7 @@
     </row>
     <row r="3" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="111" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B3" s="105">
         <v>12.2</v>
@@ -5340,7 +5343,7 @@
     </row>
     <row r="4" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="111" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B4" s="113">
         <v>0.3</v>
@@ -5422,7 +5425,7 @@
     </row>
     <row r="6" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="104" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B6" s="97">
         <f>B2*B4</f>
@@ -5505,7 +5508,7 @@
     </row>
     <row r="8" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="65" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B8" s="114">
         <v>3.9</v>
@@ -5550,7 +5553,7 @@
     </row>
     <row r="9" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="65" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B9" s="115">
         <v>0.06</v>
@@ -5594,7 +5597,7 @@
     </row>
     <row r="10" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="65" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B10" s="115">
         <v>0.3</v>
@@ -5677,7 +5680,7 @@
     </row>
     <row r="12" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="104" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B12" s="97">
         <f>B9*(1-B10)</f>
@@ -5722,7 +5725,7 @@
     </row>
     <row r="13" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="104" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B13" s="110">
         <f>B12/B8</f>

--- a/Brainstorm.xlsx
+++ b/Brainstorm.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Personal@SSD\Game\DL\dragalia-data-track\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEBA83B1-123B-421C-B221-B2FCD01FA881}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{209C37BC-C1A5-4622-8325-DE0677273492}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26910" yWindow="2250" windowWidth="21600" windowHeight="13035" xr2:uid="{4CFB4A6A-60C6-4091-BCA5-480044B61D33}"/>
+    <workbookView xWindow="2250" yWindow="1275" windowWidth="23190" windowHeight="13530" xr2:uid="{4CFB4A6A-60C6-4091-BCA5-480044B61D33}"/>
   </bookViews>
   <sheets>
     <sheet name="Rotation" sheetId="8" r:id="rId1"/>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="189">
   <si>
     <t>睡抗</t>
   </si>
@@ -587,12 +587,6 @@
     <t>普攻 x</t>
   </si>
   <si>
-    <t>Buff +</t>
-  </si>
-  <si>
-    <t>Buff x</t>
-  </si>
-  <si>
     <t>疊加周期</t>
   </si>
   <si>
@@ -647,13 +641,28 @@
     <t>實際秒損血</t>
   </si>
   <si>
-    <t>雷勇</t>
-  </si>
-  <si>
-    <t>夢0</t>
-  </si>
-  <si>
-    <t>伐由</t>
+    <t>勇</t>
+  </si>
+  <si>
+    <t>真普魯</t>
+  </si>
+  <si>
+    <t>貓</t>
+  </si>
+  <si>
+    <t>亞森</t>
+  </si>
+  <si>
+    <t>忍</t>
+  </si>
+  <si>
+    <t>Buff (全)</t>
+  </si>
+  <si>
+    <t>Buff</t>
+  </si>
+  <si>
+    <t>傷害 +</t>
   </si>
 </sst>
 </file>
@@ -1036,7 +1045,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -1291,12 +1300,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="202">
+  <cellXfs count="210">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1655,6 +1677,21 @@
     <xf numFmtId="2" fontId="2" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="2" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="43" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="33" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="41" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1881,6 +1918,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="43" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="40" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2254,7 +2300,7 @@
   <dimension ref="A1:Y13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2272,40 +2318,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="131" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="127"/>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
-      <c r="E1" s="127"/>
-      <c r="F1" s="127"/>
-      <c r="G1" s="128"/>
-      <c r="H1" s="126" t="s">
+      <c r="B1" s="132"/>
+      <c r="C1" s="132"/>
+      <c r="D1" s="132"/>
+      <c r="E1" s="132"/>
+      <c r="F1" s="132"/>
+      <c r="G1" s="133"/>
+      <c r="H1" s="131" t="s">
         <v>93</v>
       </c>
-      <c r="I1" s="127"/>
-      <c r="J1" s="127"/>
-      <c r="K1" s="127"/>
-      <c r="L1" s="127"/>
-      <c r="M1" s="127"/>
-      <c r="N1" s="128"/>
-      <c r="O1" s="129" t="s">
+      <c r="I1" s="132"/>
+      <c r="J1" s="132"/>
+      <c r="K1" s="132"/>
+      <c r="L1" s="132"/>
+      <c r="M1" s="132"/>
+      <c r="N1" s="133"/>
+      <c r="O1" s="134" t="s">
         <v>96</v>
       </c>
-      <c r="P1" s="130"/>
-      <c r="Q1" s="120" t="s">
+      <c r="P1" s="135"/>
+      <c r="Q1" s="125" t="s">
         <v>95</v>
       </c>
-      <c r="R1" s="121"/>
-      <c r="S1" s="122" t="s">
+      <c r="R1" s="126"/>
+      <c r="S1" s="127" t="s">
         <v>90</v>
       </c>
-      <c r="T1" s="123"/>
-      <c r="U1" s="124" t="s">
+      <c r="T1" s="128"/>
+      <c r="U1" s="129" t="s">
         <v>91</v>
       </c>
-      <c r="V1" s="125"/>
+      <c r="V1" s="130"/>
     </row>
     <row r="2" spans="1:25" s="57" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="64" t="s">
@@ -2360,7 +2406,7 @@
         <v>87</v>
       </c>
       <c r="R2" s="66">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="S2" s="60" t="s">
         <v>9</v>
@@ -2371,7 +2417,7 @@
       </c>
       <c r="V2" s="69">
         <f>VLOOKUP(T3,$H$3:$M$13,6,FALSE)</f>
-        <v>2400</v>
+        <v>1600</v>
       </c>
       <c r="X2" s="57" t="s">
         <v>40</v>
@@ -2407,27 +2453,27 @@
       </c>
       <c r="I3" s="61">
         <f>B3 * (1+SUM($R:$R))</f>
-        <v>225</v>
+        <v>150</v>
       </c>
       <c r="J3" s="61">
         <f t="shared" ref="J3:J13" si="0">C3 * (1+SUM($R:$R))</f>
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="K3" s="61">
         <f t="shared" ref="K3:M10" si="1">D3 * (1+SUM($R:$R))</f>
-        <v>744</v>
+        <v>496</v>
       </c>
       <c r="L3" s="61">
         <f t="shared" si="1"/>
-        <v>1141.5</v>
+        <v>761</v>
       </c>
       <c r="M3" s="61">
         <f t="shared" si="1"/>
-        <v>1728</v>
+        <v>1152</v>
       </c>
       <c r="N3" s="58">
         <f t="shared" ref="N3:N13" si="2">G3 * (1+SUM($R:$R))</f>
-        <v>517.5</v>
+        <v>345</v>
       </c>
       <c r="O3" s="72" t="s">
         <v>17</v>
@@ -2445,14 +2491,14 @@
         <v>77</v>
       </c>
       <c r="T3" s="13" t="s">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="U3" s="68" t="s">
         <v>102</v>
       </c>
       <c r="V3" s="69">
         <f>MOD(T6, V2)</f>
-        <v>992</v>
+        <v>1183</v>
       </c>
       <c r="W3" s="57" t="s">
         <v>39</v>
@@ -2463,7 +2509,7 @@
       </c>
       <c r="Y3" s="57" t="b">
         <f>AND(V4 &gt; 0, V4 &lt;= VLOOKUP($T$3,$H$3:$N$13,7,FALSE))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2493,27 +2539,27 @@
       </c>
       <c r="I4" s="61">
         <f t="shared" ref="I4:I13" si="3">B4 * (1+SUM($R:$R))</f>
-        <v>195</v>
+        <v>130</v>
       </c>
       <c r="J4" s="61">
         <f t="shared" si="0"/>
-        <v>390</v>
+        <v>260</v>
       </c>
       <c r="K4" s="61">
         <f t="shared" si="1"/>
-        <v>720</v>
+        <v>480</v>
       </c>
       <c r="L4" s="61">
         <f t="shared" si="1"/>
-        <v>1260</v>
+        <v>840</v>
       </c>
       <c r="M4" s="61">
         <f t="shared" si="1"/>
-        <v>2610</v>
+        <v>1740</v>
       </c>
       <c r="N4" s="58">
         <f t="shared" si="2"/>
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="O4" s="72" t="s">
         <v>88</v>
@@ -2531,14 +2577,14 @@
         <v>97</v>
       </c>
       <c r="T4" s="13">
-        <v>3392</v>
+        <v>7583</v>
       </c>
       <c r="U4" s="68" t="s">
         <v>103</v>
       </c>
       <c r="V4" s="69">
         <f>MOD(T7, V2)</f>
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="W4" s="57" t="s">
         <v>105</v>
@@ -2579,27 +2625,27 @@
       </c>
       <c r="I5" s="61">
         <f t="shared" si="3"/>
-        <v>216</v>
+        <v>144</v>
       </c>
       <c r="J5" s="61">
         <f t="shared" si="0"/>
-        <v>432</v>
+        <v>288</v>
       </c>
       <c r="K5" s="61">
         <f t="shared" si="1"/>
-        <v>828</v>
+        <v>552</v>
       </c>
       <c r="L5" s="61">
         <f t="shared" si="1"/>
-        <v>1260</v>
+        <v>840</v>
       </c>
       <c r="M5" s="61">
         <f t="shared" si="1"/>
-        <v>1980</v>
+        <v>1320</v>
       </c>
       <c r="N5" s="58">
         <f t="shared" si="2"/>
-        <v>432</v>
+        <v>288</v>
       </c>
       <c r="O5" s="72" t="s">
         <v>89</v>
@@ -2617,14 +2663,14 @@
         <v>99</v>
       </c>
       <c r="T5" s="13">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="U5" s="70" t="s">
         <v>100</v>
       </c>
       <c r="V5" s="71" t="str" cm="1">
         <f t="array" ref="V5">(ROUNDDOWN(T6/V2, 0) + IF(X8,1,0)) &amp; _xlfn.IFS(X3, " + FS", X4, " + C1", X5, " + C2", X6, " + C3", X7, " + C4", TRUE, "")</f>
-        <v>1 + C4</v>
+        <v>5</v>
       </c>
       <c r="W5" s="57" t="s">
         <v>106</v>
@@ -2635,7 +2681,7 @@
       </c>
       <c r="Y5" s="57" t="b">
         <f>AND(V4&gt;=VLOOKUP($T$3,$H$3:$M$13,2,FALSE),V4&lt;VLOOKUP($T$3,$H$3:$M$13,3,FALSE))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2665,41 +2711,41 @@
       </c>
       <c r="I6" s="61">
         <f t="shared" si="3"/>
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J6" s="61">
         <f t="shared" si="0"/>
-        <v>660</v>
+        <v>440</v>
       </c>
       <c r="K6" s="61">
         <f t="shared" si="1"/>
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="L6" s="61">
         <f t="shared" si="1"/>
-        <v>1770</v>
+        <v>1180</v>
       </c>
       <c r="M6" s="61">
         <f t="shared" si="1"/>
-        <v>2400</v>
+        <v>1600</v>
       </c>
       <c r="N6" s="58">
         <f t="shared" si="2"/>
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="S6" s="75" t="s">
         <v>98</v>
       </c>
       <c r="T6" s="76">
         <f>T4 * (1 - SUM(P:P))</f>
-        <v>3392</v>
+        <v>7583</v>
       </c>
       <c r="U6" s="77" t="s">
         <v>101</v>
       </c>
       <c r="V6" s="71" t="str" cm="1">
         <f t="array" ref="V6">(ROUNDDOWN(T7/V2, 0) + IF(Y8,1,0)) &amp; _xlfn.IFS(Y3, " + FS", Y4, " + C1", Y5, " + C2", Y6, " + C3", Y7, " + C4", TRUE, "")</f>
-        <v>3 + FS</v>
+        <v>5</v>
       </c>
       <c r="W6" s="57" t="s">
         <v>107</v>
@@ -2740,41 +2786,41 @@
       </c>
       <c r="I7" s="61">
         <f t="shared" si="3"/>
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="J7" s="61">
         <f t="shared" si="0"/>
-        <v>540</v>
+        <v>360</v>
       </c>
       <c r="K7" s="61">
         <f t="shared" si="1"/>
-        <v>720</v>
+        <v>480</v>
       </c>
       <c r="L7" s="61">
         <f t="shared" si="1"/>
-        <v>1440</v>
+        <v>960</v>
       </c>
       <c r="M7" s="61">
         <f t="shared" si="1"/>
-        <v>2340</v>
+        <v>1560</v>
       </c>
       <c r="N7" s="58">
         <f t="shared" si="2"/>
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="S7" s="75" t="s">
         <v>104</v>
       </c>
       <c r="T7" s="76">
         <f>T5 * (1 - SUM(P:P))</f>
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="W7" s="57" t="s">
         <v>108</v>
       </c>
       <c r="X7" s="57" t="b">
         <f>AND(V3 &gt; VLOOKUP($T$3,$H$3:$M$13,4,FALSE),V3 &lt;= VLOOKUP($T$3,$H$3:$M$13,5,FALSE))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y7" s="57" t="b">
         <f>AND(V4 &gt; VLOOKUP($T$3,$H$3:$M$13,4,FALSE),V4 &lt;= VLOOKUP($T$3,$H$3:$M$13,5,FALSE))</f>
@@ -2808,34 +2854,34 @@
       </c>
       <c r="I8" s="61">
         <f t="shared" si="3"/>
-        <v>276</v>
+        <v>184</v>
       </c>
       <c r="J8" s="61">
         <f t="shared" si="0"/>
-        <v>414</v>
+        <v>276</v>
       </c>
       <c r="K8" s="61">
         <f t="shared" si="1"/>
-        <v>828</v>
+        <v>552</v>
       </c>
       <c r="L8" s="61">
         <f t="shared" si="1"/>
-        <v>1449</v>
+        <v>966</v>
       </c>
       <c r="M8" s="61">
         <f t="shared" si="1"/>
-        <v>2242.5</v>
+        <v>1495</v>
       </c>
       <c r="N8" s="58">
         <f t="shared" si="2"/>
-        <v>690</v>
+        <v>460</v>
       </c>
       <c r="W8" s="57" t="s">
         <v>109</v>
       </c>
       <c r="X8" s="57" t="b">
         <f>V3&gt;VLOOKUP($T$3,$H$3:$M$13,5,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y8" s="57" t="b">
         <f>V4&gt;VLOOKUP($T$3,$H$3:$M$13,5,FALSE)</f>
@@ -2869,27 +2915,27 @@
       </c>
       <c r="I9" s="61">
         <f t="shared" si="3"/>
-        <v>195</v>
+        <v>130</v>
       </c>
       <c r="J9" s="61">
         <f t="shared" si="0"/>
-        <v>495</v>
+        <v>330</v>
       </c>
       <c r="K9" s="61">
         <f t="shared" si="1"/>
-        <v>855</v>
+        <v>570</v>
       </c>
       <c r="L9" s="61">
         <f t="shared" si="1"/>
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="M9" s="61">
         <f t="shared" si="1"/>
-        <v>2400</v>
+        <v>1600</v>
       </c>
       <c r="N9" s="58">
         <f t="shared" si="2"/>
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="W9" s="57"/>
       <c r="X9" s="57"/>
@@ -2922,27 +2968,27 @@
       </c>
       <c r="I10" s="61">
         <f t="shared" si="3"/>
-        <v>348</v>
+        <v>232</v>
       </c>
       <c r="J10" s="61">
         <f t="shared" si="0"/>
-        <v>696</v>
+        <v>464</v>
       </c>
       <c r="K10" s="61">
         <f t="shared" si="1"/>
-        <v>1218</v>
+        <v>812</v>
       </c>
       <c r="L10" s="61">
         <f t="shared" si="1"/>
-        <v>1914</v>
+        <v>1276</v>
       </c>
       <c r="M10" s="61">
         <f t="shared" si="1"/>
-        <v>2958</v>
+        <v>1972</v>
       </c>
       <c r="N10" s="58">
         <f t="shared" si="2"/>
-        <v>870</v>
+        <v>580</v>
       </c>
     </row>
     <row r="11" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2966,18 +3012,18 @@
       </c>
       <c r="I11" s="61">
         <f t="shared" si="3"/>
-        <v>817.5</v>
+        <v>545</v>
       </c>
       <c r="J11" s="61">
         <f t="shared" si="0"/>
-        <v>1635</v>
+        <v>1090</v>
       </c>
       <c r="K11" s="61"/>
       <c r="L11" s="61"/>
       <c r="M11" s="61"/>
       <c r="N11" s="58">
         <f t="shared" si="2"/>
-        <v>600</v>
+        <v>400</v>
       </c>
     </row>
     <row r="12" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3001,18 +3047,18 @@
       </c>
       <c r="I12" s="61">
         <f t="shared" si="3"/>
-        <v>696</v>
+        <v>464</v>
       </c>
       <c r="J12" s="61">
         <f t="shared" si="0"/>
-        <v>1392</v>
+        <v>928</v>
       </c>
       <c r="K12" s="61"/>
       <c r="L12" s="61"/>
       <c r="M12" s="61"/>
       <c r="N12" s="58">
         <f t="shared" si="2"/>
-        <v>600</v>
+        <v>400</v>
       </c>
     </row>
     <row r="13" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3038,21 +3084,21 @@
       </c>
       <c r="I13" s="61">
         <f t="shared" si="3"/>
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="J13" s="61">
         <f t="shared" si="0"/>
-        <v>1146</v>
+        <v>764</v>
       </c>
       <c r="K13" s="61">
         <f>D13 * (1+SUM($R:$R))</f>
-        <v>1842</v>
+        <v>1228</v>
       </c>
       <c r="L13" s="61"/>
       <c r="M13" s="61"/>
       <c r="N13" s="58">
         <f t="shared" si="2"/>
-        <v>600</v>
+        <v>400</v>
       </c>
     </row>
   </sheetData>
@@ -3660,34 +3706,34 @@
       <c r="A18" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B18" s="132" t="s">
+      <c r="B18" s="137" t="s">
         <v>135</v>
       </c>
-      <c r="C18" s="132"/>
-      <c r="D18" s="132"/>
-      <c r="E18" s="133"/>
+      <c r="C18" s="137"/>
+      <c r="D18" s="137"/>
+      <c r="E18" s="138"/>
     </row>
     <row r="19" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B19" s="131" t="s">
+      <c r="B19" s="136" t="s">
         <v>137</v>
       </c>
-      <c r="C19" s="132"/>
-      <c r="D19" s="132"/>
-      <c r="E19" s="133"/>
+      <c r="C19" s="137"/>
+      <c r="D19" s="137"/>
+      <c r="E19" s="138"/>
     </row>
     <row r="20" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B20" s="131" t="s">
+      <c r="B20" s="136" t="s">
         <v>136</v>
       </c>
-      <c r="C20" s="132"/>
-      <c r="D20" s="132"/>
-      <c r="E20" s="133"/>
+      <c r="C20" s="137"/>
+      <c r="D20" s="137"/>
+      <c r="E20" s="138"/>
     </row>
     <row r="21" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E21" s="80"/>
@@ -4026,28 +4072,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="181" t="s">
+      <c r="A1" s="186" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="182"/>
-      <c r="C1" s="144" t="s">
+      <c r="B1" s="187"/>
+      <c r="C1" s="149" t="s">
         <v>146</v>
       </c>
-      <c r="D1" s="145"/>
-      <c r="E1" s="144" t="s">
+      <c r="D1" s="150"/>
+      <c r="E1" s="149" t="s">
         <v>147</v>
       </c>
-      <c r="F1" s="145"/>
-      <c r="G1" s="144" t="s">
+      <c r="F1" s="150"/>
+      <c r="G1" s="149" t="s">
         <v>145</v>
       </c>
-      <c r="H1" s="145"/>
+      <c r="H1" s="150"/>
     </row>
     <row r="2" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="158" t="s">
+      <c r="A2" s="163" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="159"/>
+      <c r="B2" s="164"/>
       <c r="C2" s="21">
         <f>5/3</f>
         <v>1.6666666666666667</v>
@@ -4074,10 +4120,10 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="158" t="s">
+      <c r="A3" s="163" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="159"/>
+      <c r="B3" s="164"/>
       <c r="C3" s="21">
         <v>0.1</v>
       </c>
@@ -4101,7 +4147,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="162" t="s">
+      <c r="A4" s="167" t="s">
         <v>60</v>
       </c>
       <c r="B4" s="45" t="s">
@@ -4110,102 +4156,102 @@
       <c r="C4" s="24">
         <v>4078</v>
       </c>
-      <c r="D4" s="146">
+      <c r="D4" s="151">
         <f>(C4/(1+C5)*(1+C5+C6)*(1+C7)*(1+C8))</f>
         <v>4078</v>
       </c>
       <c r="E4" s="24">
         <v>4353</v>
       </c>
-      <c r="F4" s="146">
+      <c r="F4" s="151">
         <f>(E4/(1+E5)*(1+E5+E6)*(1+E7)*(1+E8))</f>
         <v>5005.95</v>
       </c>
       <c r="G4" s="24">
         <v>4353</v>
       </c>
-      <c r="H4" s="146">
+      <c r="H4" s="151">
         <f>(G4/(1+G5)*(1+G5+G6)*(1+G7)*(1+G8))</f>
         <v>5005.95</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="163"/>
+      <c r="A5" s="168"/>
       <c r="B5" s="45" t="s">
         <v>44</v>
       </c>
       <c r="C5" s="26">
         <v>0</v>
       </c>
-      <c r="D5" s="147"/>
+      <c r="D5" s="152"/>
       <c r="E5" s="26">
         <v>0</v>
       </c>
-      <c r="F5" s="147"/>
+      <c r="F5" s="152"/>
       <c r="G5" s="26">
         <v>0</v>
       </c>
-      <c r="H5" s="147"/>
+      <c r="H5" s="152"/>
     </row>
     <row r="6" spans="1:8" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="163"/>
+      <c r="A6" s="168"/>
       <c r="B6" s="45" t="s">
         <v>45</v>
       </c>
       <c r="C6" s="27">
         <v>0</v>
       </c>
-      <c r="D6" s="147"/>
+      <c r="D6" s="152"/>
       <c r="E6" s="27">
         <v>0</v>
       </c>
-      <c r="F6" s="147"/>
+      <c r="F6" s="152"/>
       <c r="G6" s="27">
         <v>0</v>
       </c>
-      <c r="H6" s="147"/>
+      <c r="H6" s="152"/>
     </row>
     <row r="7" spans="1:8" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="163"/>
+      <c r="A7" s="168"/>
       <c r="B7" s="45" t="s">
         <v>56</v>
       </c>
       <c r="C7" s="27">
         <v>0</v>
       </c>
-      <c r="D7" s="147"/>
+      <c r="D7" s="152"/>
       <c r="E7" s="27">
         <v>0.15</v>
       </c>
-      <c r="F7" s="147"/>
+      <c r="F7" s="152"/>
       <c r="G7" s="27">
         <v>0.15</v>
       </c>
-      <c r="H7" s="147"/>
+      <c r="H7" s="152"/>
     </row>
     <row r="8" spans="1:8" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="164"/>
+      <c r="A8" s="169"/>
       <c r="B8" s="45" t="s">
         <v>57</v>
       </c>
       <c r="C8" s="27">
         <v>0</v>
       </c>
-      <c r="D8" s="148"/>
+      <c r="D8" s="153"/>
       <c r="E8" s="27">
         <v>0</v>
       </c>
-      <c r="F8" s="148"/>
+      <c r="F8" s="153"/>
       <c r="G8" s="27">
         <v>0</v>
       </c>
-      <c r="H8" s="148"/>
+      <c r="H8" s="153"/>
     </row>
     <row r="9" spans="1:8" s="30" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="177" t="s">
+      <c r="A9" s="182" t="s">
         <v>46</v>
       </c>
-      <c r="B9" s="178"/>
+      <c r="B9" s="183"/>
       <c r="C9" s="28">
         <v>16.64</v>
       </c>
@@ -4229,7 +4275,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" s="32" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="179" t="s">
+      <c r="A10" s="184" t="s">
         <v>62</v>
       </c>
       <c r="B10" s="46" t="s">
@@ -4238,45 +4284,45 @@
       <c r="C10" s="31">
         <v>0</v>
       </c>
-      <c r="D10" s="149">
+      <c r="D10" s="154">
         <f>1+((0.7+C11)*C10)</f>
         <v>1</v>
       </c>
       <c r="E10" s="31">
         <v>0</v>
       </c>
-      <c r="F10" s="149">
+      <c r="F10" s="154">
         <f>1+((0.7+E11)*E10)</f>
         <v>1</v>
       </c>
       <c r="G10" s="31">
         <v>0</v>
       </c>
-      <c r="H10" s="149">
+      <c r="H10" s="154">
         <f>1+((0.7+G11)*G10)</f>
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="32" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="180"/>
+      <c r="A11" s="185"/>
       <c r="B11" s="46" t="s">
         <v>42</v>
       </c>
       <c r="C11" s="33">
         <v>1.7</v>
       </c>
-      <c r="D11" s="150"/>
+      <c r="D11" s="155"/>
       <c r="E11" s="33">
         <v>0</v>
       </c>
-      <c r="F11" s="150"/>
+      <c r="F11" s="155"/>
       <c r="G11" s="33">
         <v>0</v>
       </c>
-      <c r="H11" s="150"/>
+      <c r="H11" s="155"/>
     </row>
     <row r="12" spans="1:8" s="35" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="172" t="s">
+      <c r="A12" s="177" t="s">
         <v>64</v>
       </c>
       <c r="B12" s="47" t="s">
@@ -4285,81 +4331,81 @@
       <c r="C12" s="34">
         <v>0</v>
       </c>
-      <c r="D12" s="151">
+      <c r="D12" s="156">
         <f>(1+C12+C13)*(1+C14)*(1+C15)</f>
         <v>1</v>
       </c>
       <c r="E12" s="34">
         <v>0</v>
       </c>
-      <c r="F12" s="151">
+      <c r="F12" s="156">
         <f>(1+E12+E13)*(1+E14)*(1+E15)</f>
         <v>1.1499999999999999</v>
       </c>
       <c r="G12" s="34">
         <v>0</v>
       </c>
-      <c r="H12" s="151">
+      <c r="H12" s="156">
         <f>(1+G12+G13)*(1+G14)*(1+G15)</f>
         <v>1.1499999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="35" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="173"/>
+      <c r="A13" s="178"/>
       <c r="B13" s="47" t="s">
         <v>48</v>
       </c>
       <c r="C13" s="34">
         <v>0</v>
       </c>
-      <c r="D13" s="152"/>
+      <c r="D13" s="157"/>
       <c r="E13" s="34">
         <v>0</v>
       </c>
-      <c r="F13" s="152"/>
+      <c r="F13" s="157"/>
       <c r="G13" s="34">
         <v>0</v>
       </c>
-      <c r="H13" s="152"/>
+      <c r="H13" s="157"/>
     </row>
     <row r="14" spans="1:8" s="35" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="173"/>
+      <c r="A14" s="178"/>
       <c r="B14" s="47" t="s">
         <v>69</v>
       </c>
       <c r="C14" s="34">
         <v>0</v>
       </c>
-      <c r="D14" s="152"/>
+      <c r="D14" s="157"/>
       <c r="E14" s="34">
         <v>0.15</v>
       </c>
-      <c r="F14" s="152"/>
+      <c r="F14" s="157"/>
       <c r="G14" s="34">
         <v>0.15</v>
       </c>
-      <c r="H14" s="152"/>
+      <c r="H14" s="157"/>
     </row>
     <row r="15" spans="1:8" s="35" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="174"/>
+      <c r="A15" s="179"/>
       <c r="B15" s="47" t="s">
         <v>70</v>
       </c>
       <c r="C15" s="34">
         <v>0</v>
       </c>
-      <c r="D15" s="153"/>
+      <c r="D15" s="158"/>
       <c r="E15" s="34">
         <v>0</v>
       </c>
-      <c r="F15" s="153"/>
+      <c r="F15" s="158"/>
       <c r="G15" s="34">
         <v>0</v>
       </c>
-      <c r="H15" s="153"/>
+      <c r="H15" s="158"/>
     </row>
     <row r="16" spans="1:8" s="37" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="175" t="s">
+      <c r="A16" s="180" t="s">
         <v>65</v>
       </c>
       <c r="B16" s="48" t="s">
@@ -4368,45 +4414,45 @@
       <c r="C16" s="36">
         <v>0</v>
       </c>
-      <c r="D16" s="154">
+      <c r="D16" s="159">
         <f>(1+C16)*(1+C17)</f>
         <v>1</v>
       </c>
       <c r="E16" s="36">
         <v>0</v>
       </c>
-      <c r="F16" s="154">
+      <c r="F16" s="159">
         <f>(1+E16)*(1+E17)</f>
         <v>1</v>
       </c>
       <c r="G16" s="36">
         <v>0</v>
       </c>
-      <c r="H16" s="154">
+      <c r="H16" s="159">
         <f>(1+G16)*(1+G17)</f>
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="37" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="176"/>
+      <c r="A17" s="181"/>
       <c r="B17" s="48" t="s">
         <v>49</v>
       </c>
       <c r="C17" s="36">
         <v>0</v>
       </c>
-      <c r="D17" s="155"/>
+      <c r="D17" s="160"/>
       <c r="E17" s="36">
         <v>0</v>
       </c>
-      <c r="F17" s="155"/>
+      <c r="F17" s="160"/>
       <c r="G17" s="36">
         <v>0</v>
       </c>
-      <c r="H17" s="155"/>
+      <c r="H17" s="160"/>
     </row>
     <row r="18" spans="1:8" s="39" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="167" t="s">
+      <c r="A18" s="172" t="s">
         <v>66</v>
       </c>
       <c r="B18" s="49" t="s">
@@ -4415,45 +4461,45 @@
       <c r="C18" s="38">
         <v>1.5</v>
       </c>
-      <c r="D18" s="134">
+      <c r="D18" s="139">
         <f>C18+C19</f>
         <v>1.5</v>
       </c>
       <c r="E18" s="38">
         <v>1.5</v>
       </c>
-      <c r="F18" s="134">
+      <c r="F18" s="139">
         <f>E18+E19</f>
         <v>1.5</v>
       </c>
       <c r="G18" s="38">
         <v>1.5</v>
       </c>
-      <c r="H18" s="134">
+      <c r="H18" s="139">
         <f>G18+G19</f>
         <v>1.5</v>
       </c>
     </row>
     <row r="19" spans="1:8" s="39" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="168"/>
+      <c r="A19" s="173"/>
       <c r="B19" s="49" t="s">
         <v>59</v>
       </c>
       <c r="C19" s="40">
         <v>0</v>
       </c>
-      <c r="D19" s="135"/>
+      <c r="D19" s="140"/>
       <c r="E19" s="40">
         <v>0</v>
       </c>
-      <c r="F19" s="135"/>
+      <c r="F19" s="140"/>
       <c r="G19" s="40">
         <v>0</v>
       </c>
-      <c r="H19" s="135"/>
+      <c r="H19" s="140"/>
     </row>
     <row r="20" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="169" t="s">
+      <c r="A20" s="174" t="s">
         <v>72</v>
       </c>
       <c r="B20" s="50" t="s">
@@ -4462,66 +4508,66 @@
       <c r="C20" s="41">
         <v>0</v>
       </c>
-      <c r="D20" s="136">
+      <c r="D20" s="141">
         <f>1+C20*(0.2+C21+C22)</f>
         <v>1</v>
       </c>
       <c r="E20" s="41">
         <v>0</v>
       </c>
-      <c r="F20" s="136">
+      <c r="F20" s="141">
         <f>1+E20*(0.2+E21+E22)</f>
         <v>1</v>
       </c>
       <c r="G20" s="41">
         <v>0</v>
       </c>
-      <c r="H20" s="136">
+      <c r="H20" s="141">
         <f>1+G20*(0.2+G21+G22)</f>
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="170"/>
+      <c r="A21" s="175"/>
       <c r="B21" s="50" t="s">
         <v>50</v>
       </c>
       <c r="C21" s="41">
         <v>0.5</v>
       </c>
-      <c r="D21" s="137"/>
+      <c r="D21" s="142"/>
       <c r="E21" s="41">
         <v>0.5</v>
       </c>
-      <c r="F21" s="137"/>
+      <c r="F21" s="142"/>
       <c r="G21" s="41">
         <v>0.5</v>
       </c>
-      <c r="H21" s="137"/>
+      <c r="H21" s="142"/>
     </row>
     <row r="22" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="171"/>
+      <c r="A22" s="176"/>
       <c r="B22" s="50" t="s">
         <v>51</v>
       </c>
       <c r="C22" s="41">
         <v>0</v>
       </c>
-      <c r="D22" s="138"/>
+      <c r="D22" s="143"/>
       <c r="E22" s="41">
         <v>0</v>
       </c>
-      <c r="F22" s="138"/>
+      <c r="F22" s="143"/>
       <c r="G22" s="41">
         <v>0</v>
       </c>
-      <c r="H22" s="138"/>
+      <c r="H22" s="143"/>
     </row>
     <row r="23" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="158" t="s">
+      <c r="A23" s="163" t="s">
         <v>73</v>
       </c>
-      <c r="B23" s="159"/>
+      <c r="B23" s="164"/>
       <c r="C23" s="21">
         <v>1</v>
       </c>
@@ -4545,10 +4591,10 @@
       </c>
     </row>
     <row r="24" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="160" t="s">
+      <c r="A24" s="165" t="s">
         <v>52</v>
       </c>
-      <c r="B24" s="161"/>
+      <c r="B24" s="166"/>
       <c r="C24" s="41">
         <v>10</v>
       </c>
@@ -4572,7 +4618,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="162" t="s">
+      <c r="A25" s="167" t="s">
         <v>53</v>
       </c>
       <c r="B25" s="45" t="s">
@@ -4581,66 +4627,66 @@
       <c r="C25" s="24">
         <v>0</v>
       </c>
-      <c r="D25" s="139">
+      <c r="D25" s="144">
         <f>(1-(1-C26)*C25)*(1-C27)</f>
         <v>1</v>
       </c>
       <c r="E25" s="24">
         <v>0</v>
       </c>
-      <c r="F25" s="139">
+      <c r="F25" s="144">
         <f>(1-(1-E26)*E25)*(1-E27)</f>
         <v>1</v>
       </c>
       <c r="G25" s="24">
         <v>0</v>
       </c>
-      <c r="H25" s="139">
+      <c r="H25" s="144">
         <f>(1-(1-G26)*G25)*(1-G27)</f>
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:8" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="163"/>
+      <c r="A26" s="168"/>
       <c r="B26" s="45" t="s">
         <v>74</v>
       </c>
       <c r="C26" s="24">
         <v>0.8</v>
       </c>
-      <c r="D26" s="140"/>
+      <c r="D26" s="145"/>
       <c r="E26" s="24">
         <v>0.6</v>
       </c>
-      <c r="F26" s="140"/>
+      <c r="F26" s="145"/>
       <c r="G26" s="24">
         <v>0.6</v>
       </c>
-      <c r="H26" s="140"/>
+      <c r="H26" s="145"/>
     </row>
     <row r="27" spans="1:8" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="164"/>
+      <c r="A27" s="169"/>
       <c r="B27" s="45" t="s">
         <v>37</v>
       </c>
       <c r="C27" s="27">
         <v>0</v>
       </c>
-      <c r="D27" s="141"/>
+      <c r="D27" s="146"/>
       <c r="E27" s="27">
         <v>0</v>
       </c>
-      <c r="F27" s="141"/>
+      <c r="F27" s="146"/>
       <c r="G27" s="27">
         <v>0</v>
       </c>
-      <c r="H27" s="141"/>
+      <c r="H27" s="146"/>
     </row>
     <row r="28" spans="1:8" s="39" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="165" t="s">
+      <c r="A28" s="170" t="s">
         <v>76</v>
       </c>
-      <c r="B28" s="166"/>
+      <c r="B28" s="171"/>
       <c r="C28" s="38">
         <v>0</v>
       </c>
@@ -4664,25 +4710,25 @@
       </c>
     </row>
     <row r="29" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="156" t="s">
+      <c r="A29" s="161" t="s">
         <v>54</v>
       </c>
-      <c r="B29" s="157"/>
-      <c r="C29" s="142">
+      <c r="B29" s="162"/>
+      <c r="C29" s="147">
         <f>D2*D3*D4*D9*D10*D12*D16*D18*D20*D23/D24/D25*D28</f>
         <v>15268.032000000001</v>
       </c>
-      <c r="D29" s="143"/>
-      <c r="E29" s="142">
+      <c r="D29" s="148"/>
+      <c r="E29" s="147">
         <f>F2*F3*F4*F9*F10*F12*F16*F18*F20*F23/F24/F25*F28</f>
         <v>41967.381825000004</v>
       </c>
-      <c r="F29" s="143"/>
-      <c r="G29" s="142">
+      <c r="F29" s="148"/>
+      <c r="G29" s="147">
         <f>H2*H3*H4*H9*H10*H12*H16*H18*H20*H23/H24/H25*H28</f>
         <v>45637.368918750006</v>
       </c>
-      <c r="H29" s="143"/>
+      <c r="H29" s="148"/>
     </row>
     <row r="30" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C30" s="20" t="s">
@@ -4757,32 +4803,41 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30DD32DD-C8F1-4E13-B59E-D06F7BB09858}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="F20:G21"/>
+      <selection activeCell="C8" sqref="C8:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.7109375" style="81" customWidth="1"/>
     <col min="2" max="2" width="10.140625" style="81" customWidth="1"/>
-    <col min="3" max="5" width="10.42578125" style="81" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="81"/>
+    <col min="3" max="8" width="10.42578125" style="81" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="81"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C1" s="81" t="s">
+        <v>182</v>
+      </c>
+      <c r="D1" s="81" t="s">
+        <v>181</v>
+      </c>
+      <c r="E1" s="98">
+        <v>0.8</v>
+      </c>
+      <c r="F1" s="98" t="s">
         <v>183</v>
       </c>
-      <c r="D1" s="81" t="s">
+      <c r="G1" s="98" t="s">
         <v>184</v>
       </c>
-      <c r="E1" s="98" t="s">
+      <c r="H1" s="98" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="82" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" s="82" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="82" t="s">
         <v>60</v>
       </c>
@@ -4790,257 +4845,405 @@
         <v>148</v>
       </c>
       <c r="C2" s="83">
+        <v>1.05</v>
+      </c>
+      <c r="D2" s="83">
         <v>0.7</v>
       </c>
-      <c r="D2" s="83">
-        <v>0.35</v>
-      </c>
-      <c r="E2" s="83">
+      <c r="E2" s="120">
+        <v>0.8</v>
+      </c>
+      <c r="F2" s="120">
+        <v>0</v>
+      </c>
+      <c r="G2" s="120">
+        <v>0</v>
+      </c>
+      <c r="H2" s="83">
         <v>0.2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="82" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" s="82" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="82" t="s">
         <v>88</v>
       </c>
-      <c r="C3" s="183">
-        <v>0.4</v>
-      </c>
-      <c r="D3" s="183"/>
-      <c r="E3" s="184"/>
-    </row>
-    <row r="4" spans="1:5" s="103" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="103" t="s">
-        <v>164</v>
-      </c>
-      <c r="C4" s="102">
+      <c r="C3" s="188">
+        <v>0</v>
+      </c>
+      <c r="D3" s="188"/>
+      <c r="E3" s="188"/>
+      <c r="F3" s="188"/>
+      <c r="G3" s="188"/>
+      <c r="H3" s="189"/>
+    </row>
+    <row r="4" spans="1:8" s="121" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="121" t="s">
+        <v>186</v>
+      </c>
+      <c r="C4" s="201">
+        <v>0</v>
+      </c>
+      <c r="D4" s="202"/>
+      <c r="E4" s="202"/>
+      <c r="F4" s="202"/>
+      <c r="G4" s="202"/>
+      <c r="H4" s="203"/>
+    </row>
+    <row r="5" spans="1:8" s="103" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="103" t="s">
+        <v>187</v>
+      </c>
+      <c r="C5" s="102">
+        <v>0</v>
+      </c>
+      <c r="D5" s="102">
+        <v>0</v>
+      </c>
+      <c r="E5" s="120">
+        <v>0</v>
+      </c>
+      <c r="F5" s="120">
+        <v>0</v>
+      </c>
+      <c r="G5" s="120">
+        <v>0</v>
+      </c>
+      <c r="H5" s="102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="84" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="84" t="s">
+        <v>159</v>
+      </c>
+      <c r="B6" s="84" t="s">
+        <v>148</v>
+      </c>
+      <c r="C6" s="85">
+        <v>0</v>
+      </c>
+      <c r="D6" s="85">
+        <v>0</v>
+      </c>
+      <c r="E6" s="124">
+        <v>0</v>
+      </c>
+      <c r="F6" s="124">
+        <v>0</v>
+      </c>
+      <c r="G6" s="124">
+        <v>0</v>
+      </c>
+      <c r="H6" s="85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="84" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="84" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" s="197">
+        <v>0</v>
+      </c>
+      <c r="D7" s="197"/>
+      <c r="E7" s="197"/>
+      <c r="F7" s="197"/>
+      <c r="G7" s="197"/>
+      <c r="H7" s="198"/>
+    </row>
+    <row r="8" spans="1:8" s="84" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="84" t="s">
+        <v>186</v>
+      </c>
+      <c r="C8" s="197">
+        <v>0</v>
+      </c>
+      <c r="D8" s="197"/>
+      <c r="E8" s="197"/>
+      <c r="F8" s="197"/>
+      <c r="G8" s="197"/>
+      <c r="H8" s="198"/>
+    </row>
+    <row r="9" spans="1:8" s="100" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="100" t="s">
+        <v>187</v>
+      </c>
+      <c r="C9" s="99">
+        <v>0</v>
+      </c>
+      <c r="D9" s="99">
+        <v>0</v>
+      </c>
+      <c r="E9" s="124">
+        <v>0</v>
+      </c>
+      <c r="F9" s="124">
+        <v>0</v>
+      </c>
+      <c r="G9" s="124">
+        <v>0</v>
+      </c>
+      <c r="H9" s="99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="86" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="86" t="s">
+        <v>149</v>
+      </c>
+      <c r="B10" s="86" t="s">
+        <v>148</v>
+      </c>
+      <c r="C10" s="87">
+        <v>0</v>
+      </c>
+      <c r="D10" s="87">
+        <v>0.3</v>
+      </c>
+      <c r="E10" s="123">
+        <v>0</v>
+      </c>
+      <c r="F10" s="123">
+        <v>0</v>
+      </c>
+      <c r="G10" s="123">
+        <v>0</v>
+      </c>
+      <c r="H10" s="87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="86" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="86" t="s">
+        <v>150</v>
+      </c>
+      <c r="C11" s="199">
+        <v>0</v>
+      </c>
+      <c r="D11" s="200"/>
+      <c r="E11" s="200"/>
+      <c r="F11" s="200"/>
+      <c r="G11" s="200"/>
+      <c r="H11" s="200"/>
+    </row>
+    <row r="12" spans="1:8" s="86" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="86" t="s">
+        <v>160</v>
+      </c>
+      <c r="C12" s="195">
+        <v>0.5</v>
+      </c>
+      <c r="D12" s="195"/>
+      <c r="E12" s="195"/>
+      <c r="F12" s="195"/>
+      <c r="G12" s="195"/>
+      <c r="H12" s="196"/>
+    </row>
+    <row r="13" spans="1:8" s="88" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="88" t="s">
+        <v>87</v>
+      </c>
+      <c r="B13" s="88" t="s">
+        <v>162</v>
+      </c>
+      <c r="C13" s="193">
+        <v>0</v>
+      </c>
+      <c r="D13" s="193"/>
+      <c r="E13" s="193"/>
+      <c r="F13" s="193"/>
+      <c r="G13" s="193"/>
+      <c r="H13" s="194"/>
+    </row>
+    <row r="14" spans="1:8" s="122" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="122" t="s">
+        <v>188</v>
+      </c>
+      <c r="C14" s="193">
+        <v>0</v>
+      </c>
+      <c r="D14" s="193"/>
+      <c r="E14" s="193"/>
+      <c r="F14" s="193"/>
+      <c r="G14" s="193"/>
+      <c r="H14" s="194"/>
+    </row>
+    <row r="15" spans="1:8" s="88" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="88" t="s">
+        <v>161</v>
+      </c>
+      <c r="C15" s="193">
+        <v>0</v>
+      </c>
+      <c r="D15" s="193"/>
+      <c r="E15" s="193"/>
+      <c r="F15" s="193"/>
+      <c r="G15" s="193"/>
+      <c r="H15" s="194"/>
+    </row>
+    <row r="16" spans="1:8" s="89" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="89" t="s">
+        <v>152</v>
+      </c>
+      <c r="B16" s="89" t="s">
+        <v>151</v>
+      </c>
+      <c r="C16" s="190">
         <v>1</v>
       </c>
-      <c r="D4" s="102">
+      <c r="D16" s="190"/>
+      <c r="E16" s="190"/>
+      <c r="F16" s="190"/>
+      <c r="G16" s="190"/>
+      <c r="H16" s="191"/>
+    </row>
+    <row r="17" spans="1:8" s="89" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="89" t="s">
+        <v>159</v>
+      </c>
+      <c r="C17" s="192">
         <v>1</v>
       </c>
-      <c r="E4" s="102">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" s="84" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="84" t="s">
+      <c r="D17" s="192"/>
+      <c r="E17" s="192"/>
+      <c r="F17" s="192"/>
+      <c r="G17" s="192"/>
+      <c r="H17" s="191"/>
+    </row>
+    <row r="18" spans="1:8" s="90" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="90" t="s">
+        <v>153</v>
+      </c>
+      <c r="B18" s="90" t="s">
+        <v>151</v>
+      </c>
+      <c r="C18" s="92">
+        <f t="shared" ref="C18:H18" si="0">(1+C2+$C3)*(1+$C4+C5)*(1+C10+$C11+$C12)*(1+$C13)*$C16</f>
+        <v>3.0749999999999997</v>
+      </c>
+      <c r="D18" s="92">
+        <f t="shared" si="0"/>
+        <v>3.06</v>
+      </c>
+      <c r="E18" s="92">
+        <f t="shared" si="0"/>
+        <v>2.7</v>
+      </c>
+      <c r="F18" s="92">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="G18" s="92">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="H18" s="92">
+        <f t="shared" si="0"/>
+        <v>1.7999999999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" s="90" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="101">
+        <f>-(1-MAX(C18:H18)/MAX(C20:H20))</f>
+        <v>0</v>
+      </c>
+      <c r="C19" s="91">
+        <f t="shared" ref="C19:H19" si="1">-(1-(C18/MAX($C18:$H18)))</f>
+        <v>0</v>
+      </c>
+      <c r="D19" s="91">
+        <f t="shared" si="1"/>
+        <v>-4.8780487804876982E-3</v>
+      </c>
+      <c r="E19" s="91">
+        <f t="shared" si="1"/>
+        <v>-0.12195121951219501</v>
+      </c>
+      <c r="F19" s="91">
+        <f t="shared" si="1"/>
+        <v>-0.51219512195121952</v>
+      </c>
+      <c r="G19" s="91">
+        <f t="shared" si="1"/>
+        <v>-0.51219512195121952</v>
+      </c>
+      <c r="H19" s="91">
+        <f t="shared" si="1"/>
+        <v>-0.41463414634146345</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="90" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="90" t="s">
         <v>159</v>
       </c>
-      <c r="B5" s="84" t="s">
-        <v>148</v>
-      </c>
-      <c r="C5" s="85">
-        <v>0</v>
-      </c>
-      <c r="D5" s="85">
-        <v>0.7</v>
-      </c>
-      <c r="E5" s="85">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" s="84" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="84" t="s">
-        <v>88</v>
-      </c>
-      <c r="C6" s="192">
-        <v>0.4</v>
-      </c>
-      <c r="D6" s="192"/>
-      <c r="E6" s="193"/>
-    </row>
-    <row r="7" spans="1:5" s="84" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="84" t="s">
-        <v>163</v>
-      </c>
-      <c r="C7" s="192">
-        <v>0</v>
-      </c>
-      <c r="D7" s="192"/>
-      <c r="E7" s="193"/>
-    </row>
-    <row r="8" spans="1:5" s="100" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="100" t="s">
-        <v>164</v>
-      </c>
-      <c r="C8" s="99">
-        <v>0</v>
-      </c>
-      <c r="D8" s="99">
-        <v>0</v>
-      </c>
-      <c r="E8" s="99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" s="86" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="86" t="s">
-        <v>149</v>
-      </c>
-      <c r="B9" s="86" t="s">
-        <v>148</v>
-      </c>
-      <c r="C9" s="87">
-        <v>0.3</v>
-      </c>
-      <c r="D9" s="87">
-        <v>0</v>
-      </c>
-      <c r="E9" s="87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" s="86" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="86" t="s">
-        <v>150</v>
-      </c>
-      <c r="C10" s="194">
-        <v>0</v>
-      </c>
-      <c r="D10" s="195"/>
-      <c r="E10" s="195"/>
-    </row>
-    <row r="11" spans="1:5" s="86" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="86" t="s">
-        <v>160</v>
-      </c>
-      <c r="C11" s="190">
-        <v>0.5</v>
-      </c>
-      <c r="D11" s="190"/>
-      <c r="E11" s="191"/>
-    </row>
-    <row r="12" spans="1:5" s="88" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="88" t="s">
-        <v>87</v>
-      </c>
-      <c r="B12" s="88" t="s">
-        <v>162</v>
-      </c>
-      <c r="C12" s="188">
-        <v>0</v>
-      </c>
-      <c r="D12" s="188"/>
-      <c r="E12" s="189"/>
-    </row>
-    <row r="13" spans="1:5" s="88" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="88" t="s">
-        <v>161</v>
-      </c>
-      <c r="C13" s="188">
-        <v>0</v>
-      </c>
-      <c r="D13" s="188"/>
-      <c r="E13" s="189"/>
-    </row>
-    <row r="14" spans="1:5" s="89" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="89" t="s">
-        <v>152</v>
-      </c>
-      <c r="B14" s="89" t="s">
-        <v>151</v>
-      </c>
-      <c r="C14" s="185">
-        <v>1</v>
-      </c>
-      <c r="D14" s="185"/>
-      <c r="E14" s="186"/>
-    </row>
-    <row r="15" spans="1:5" s="89" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="89" t="s">
-        <v>159</v>
-      </c>
-      <c r="C15" s="187">
-        <v>1</v>
-      </c>
-      <c r="D15" s="187"/>
-      <c r="E15" s="186"/>
-    </row>
-    <row r="16" spans="1:5" s="90" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="90" t="s">
-        <v>153</v>
-      </c>
-      <c r="B16" s="90" t="s">
-        <v>151</v>
-      </c>
-      <c r="C16" s="92">
-        <f>(1+C2+$C3)*(1+$C4)*(1+C9+$C10+$C11)*(1+$C12)*$C14</f>
-        <v>7.5600000000000005</v>
-      </c>
-      <c r="D16" s="92">
-        <f>(1+D2+$C3)*(1+D4)*(1+D9+$C10+$C11)*(1+$C12)*$C14</f>
-        <v>5.25</v>
-      </c>
-      <c r="E16" s="92">
-        <f>(1+E2+$C3)*(1+E4)*(1+E9+$C10+$C11)*(1+$C12)*$C14</f>
-        <v>4.8000000000000007</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" s="90" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="101">
-        <f>-(1-MAX(C16:E16)/MAX(C18:E18))</f>
-        <v>-0.31521739130434778</v>
-      </c>
-      <c r="C17" s="91">
-        <f>-(1-(C16/MAX($C16:$E16)))</f>
-        <v>0</v>
-      </c>
-      <c r="D17" s="91">
-        <f>-(1-(D16/MAX($C16:$E16)))</f>
-        <v>-0.30555555555555558</v>
-      </c>
-      <c r="E17" s="91">
-        <f>-(1-(E16/MAX($C16:$E16)))</f>
-        <v>-0.365079365079365</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" s="90" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="90" t="s">
-        <v>159</v>
-      </c>
-      <c r="C18" s="92">
-        <f>(1+C2+$C3)*(1+C4)*(1+C5+$C6+$C7)*(1+C8)*(1+C9+$C10+$C11)*(1+$C13)*$C15</f>
-        <v>10.584</v>
-      </c>
-      <c r="D18" s="92">
-        <f>(1+D2+$C3)*(1+D4)*(1+D5+$C6+$C7)*(1+D8)*(1+D9+$C10+$C11)*(1+$C13)*$C15</f>
-        <v>11.025</v>
-      </c>
-      <c r="E18" s="92">
-        <f>(1+E2+$C3)*(1+E4)*(1+E5+$C6+$C7)*(1+E8)*(1+E9+$C10+$C11)*(1+$C13)*$C15</f>
-        <v>11.04</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" s="90" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="101">
-        <f>-(1-MAX(C18:E18)/MAX(C16:E16))</f>
-        <v>0.46031746031746001</v>
-      </c>
-      <c r="C19" s="91">
-        <f>-(1-(C18/MAX($C18:$E18)))</f>
-        <v>-4.130434782608694E-2</v>
-      </c>
-      <c r="D19" s="91">
-        <f>-(1-(D18/MAX($C18:$E18)))</f>
-        <v>-1.3586956521738358E-3</v>
-      </c>
-      <c r="E19" s="91">
-        <f>-(1-(E18/MAX($C18:$E18)))</f>
-        <v>0</v>
+      <c r="C20" s="92">
+        <f>(1+C2+$C3)*(1+$C4+C5)*(1+C6+$C7+$C14)*(1+$C8+C9)*(1+C10+$C11+$C12)*(1+$C15)*$C17</f>
+        <v>3.0749999999999997</v>
+      </c>
+      <c r="D20" s="92">
+        <f>(1+D2+$C3)*(1+$C4+D5)*(1+D6+$C7+$C14)*(1+$C8+D9)*(1+D10+$C11+$C12)*(1+$C15)*$C17</f>
+        <v>3.06</v>
+      </c>
+      <c r="E20" s="92">
+        <f>(1+E2+$C3)*(1+$C4+E5)*(1+E6+$C7+$C14)*(1+$C8+E9)*(1+E10+$C11+$C12)*(1+$C15)*$C17</f>
+        <v>2.7</v>
+      </c>
+      <c r="F20" s="92">
+        <f t="shared" ref="F20:H20" si="2">(1+F2+$C3)*(1+$C4+F5)*(1+F6+$C7+$C14)*(1+$C8+F9)*(1+F10+$C11+$C12)*(1+$C15)*$C17</f>
+        <v>1.5</v>
+      </c>
+      <c r="G20" s="92">
+        <f t="shared" si="2"/>
+        <v>1.5</v>
+      </c>
+      <c r="H20" s="92">
+        <f t="shared" si="2"/>
+        <v>1.7999999999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" s="90" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="101">
+        <f>-(1-MAX(C20:H20)/MAX(C18:H18))</f>
+        <v>0</v>
+      </c>
+      <c r="C21" s="91">
+        <f t="shared" ref="C21:H21" si="3">-(1-(C20/MAX($C20:$H20)))</f>
+        <v>0</v>
+      </c>
+      <c r="D21" s="91">
+        <f t="shared" si="3"/>
+        <v>-4.8780487804876982E-3</v>
+      </c>
+      <c r="E21" s="91">
+        <f t="shared" si="3"/>
+        <v>-0.12195121951219501</v>
+      </c>
+      <c r="F21" s="91">
+        <f t="shared" si="3"/>
+        <v>-0.51219512195121952</v>
+      </c>
+      <c r="G21" s="91">
+        <f t="shared" si="3"/>
+        <v>-0.51219512195121952</v>
+      </c>
+      <c r="H21" s="91">
+        <f t="shared" si="3"/>
+        <v>-0.41463414634146345</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C6:E6"/>
+  <mergeCells count="11">
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="C16:H16"/>
+    <mergeCell ref="C17:H17"/>
+    <mergeCell ref="C13:H13"/>
+    <mergeCell ref="C15:H15"/>
+    <mergeCell ref="C12:H12"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C11:H11"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="C14:H14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5052,7 +5255,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="J15" sqref="J15:J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5063,14 +5266,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="197" t="s">
+      <c r="A1" s="205" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="197"/>
-      <c r="C1" s="196" t="s">
+      <c r="B1" s="205"/>
+      <c r="C1" s="204" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="196"/>
+      <c r="D1" s="204"/>
     </row>
     <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="72" t="s">
@@ -5083,7 +5286,7 @@
         <v>154</v>
       </c>
       <c r="D2" s="95">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5091,7 +5294,7 @@
         <v>155</v>
       </c>
       <c r="B3" s="94">
-        <v>0.22</v>
+        <v>0.44</v>
       </c>
       <c r="C3" s="63" t="s">
         <v>155</v>
@@ -5106,14 +5309,14 @@
       </c>
       <c r="B4" s="94">
         <f>B2+B3</f>
-        <v>0.33999999999999997</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="C4" s="63" t="s">
         <v>156</v>
       </c>
       <c r="D4" s="95">
         <f>D2+D3</f>
-        <v>1</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5123,10 +5326,10 @@
       <c r="B5" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="200" t="s">
+      <c r="C5" s="208" t="s">
         <v>158</v>
       </c>
-      <c r="D5" s="201"/>
+      <c r="D5" s="209"/>
     </row>
     <row r="6" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65" t="s">
@@ -5135,11 +5338,11 @@
       <c r="B6" s="65" t="s">
         <v>154</v>
       </c>
-      <c r="C6" s="198">
+      <c r="C6" s="206">
         <f>1*(1-B2)+(1+D2)*(B2)</f>
-        <v>1.0840000000000001</v>
-      </c>
-      <c r="D6" s="199"/>
+        <v>1.1559999999999999</v>
+      </c>
+      <c r="D6" s="207"/>
     </row>
     <row r="7" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65" t="s">
@@ -5148,11 +5351,11 @@
       <c r="B7" s="96" t="s">
         <v>157</v>
       </c>
-      <c r="C7" s="198">
+      <c r="C7" s="206">
         <f>1*(1-B2)+(1+D4)*(B2)</f>
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="D7" s="199"/>
+        <v>1.1919999999999999</v>
+      </c>
+      <c r="D7" s="207"/>
     </row>
     <row r="8" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="96" t="s">
@@ -5161,11 +5364,11 @@
       <c r="B8" s="65" t="s">
         <v>154</v>
       </c>
-      <c r="C8" s="198">
+      <c r="C8" s="206">
         <f>1*(1-B4)+(1+D2)*(B4)</f>
-        <v>1.238</v>
-      </c>
-      <c r="D8" s="199"/>
+        <v>1.728</v>
+      </c>
+      <c r="D8" s="207"/>
       <c r="F8" s="97"/>
     </row>
     <row r="9" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5175,11 +5378,11 @@
       <c r="B9" s="96" t="s">
         <v>157</v>
       </c>
-      <c r="C9" s="198">
+      <c r="C9" s="206">
         <f>1*(1-B4)+(1+D4)*(B4)</f>
-        <v>1.3399999999999999</v>
-      </c>
-      <c r="D9" s="199"/>
+        <v>1.8960000000000001</v>
+      </c>
+      <c r="D9" s="207"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -5221,42 +5424,42 @@
   <sheetData>
     <row r="1" spans="1:12" s="104" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="111" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B1" s="111">
         <v>3</v>
       </c>
       <c r="D1" s="111" t="s">
+        <v>165</v>
+      </c>
+      <c r="E1" s="111" t="s">
+        <v>166</v>
+      </c>
+      <c r="F1" s="111" t="s">
         <v>167</v>
       </c>
-      <c r="E1" s="111" t="s">
+      <c r="G1" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="H1" s="111" t="s">
         <v>168</v>
       </c>
-      <c r="F1" s="111" t="s">
-        <v>169</v>
-      </c>
-      <c r="G1" s="111" t="s">
-        <v>181</v>
-      </c>
-      <c r="H1" s="111" t="s">
-        <v>170</v>
-      </c>
       <c r="I1" s="111" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="J1" s="112" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="K1" s="116" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="L1" s="118" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="111" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B2" s="113">
         <v>0.09</v>
@@ -5299,7 +5502,7 @@
     </row>
     <row r="3" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="111" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B3" s="105">
         <v>12.2</v>
@@ -5343,7 +5546,7 @@
     </row>
     <row r="4" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="111" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B4" s="113">
         <v>0.3</v>
@@ -5425,7 +5628,7 @@
     </row>
     <row r="6" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="104" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B6" s="97">
         <f>B2*B4</f>
@@ -5508,7 +5711,7 @@
     </row>
     <row r="8" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="65" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B8" s="114">
         <v>3.9</v>
@@ -5553,7 +5756,7 @@
     </row>
     <row r="9" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="65" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B9" s="115">
         <v>0.06</v>
@@ -5597,7 +5800,7 @@
     </row>
     <row r="10" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="65" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B10" s="115">
         <v>0.3</v>
@@ -5680,7 +5883,7 @@
     </row>
     <row r="12" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="104" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B12" s="97">
         <f>B9*(1-B10)</f>
@@ -5725,7 +5928,7 @@
     </row>
     <row r="13" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="104" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B13" s="110">
         <f>B12/B8</f>

--- a/Brainstorm.xlsx
+++ b/Brainstorm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Personal@SSD\Game\DL\dragalia-data-track\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{209C37BC-C1A5-4622-8325-DE0677273492}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8381D93D-CFDC-459F-8742-6DD5EF9641A9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2250" yWindow="1275" windowWidth="23190" windowHeight="13530" xr2:uid="{4CFB4A6A-60C6-4091-BCA5-480044B61D33}"/>
+    <workbookView xWindow="29145" yWindow="765" windowWidth="23190" windowHeight="13530" xr2:uid="{4CFB4A6A-60C6-4091-BCA5-480044B61D33}"/>
   </bookViews>
   <sheets>
     <sheet name="Rotation" sheetId="8" r:id="rId1"/>
@@ -1734,6 +1734,129 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="4" fontId="5" fillId="23" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="23" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="23" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="28" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="28" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="21" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="21" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="30" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="30" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="30" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="32" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="32" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="4" fontId="5" fillId="35" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1756,129 +1879,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="23" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="23" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="23" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="23" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="28" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="28" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="30" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="30" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="30" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="32" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="32" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="21" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="21" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2300,7 +2300,7 @@
   <dimension ref="A1:Y13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R5" sqref="R5"/>
+      <selection activeCell="T6" sqref="T6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2417,7 +2417,7 @@
       </c>
       <c r="V2" s="69">
         <f>VLOOKUP(T3,$H$3:$M$13,6,FALSE)</f>
-        <v>1600</v>
+        <v>1320</v>
       </c>
       <c r="X2" s="57" t="s">
         <v>40</v>
@@ -2491,25 +2491,25 @@
         <v>77</v>
       </c>
       <c r="T3" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="U3" s="68" t="s">
         <v>102</v>
       </c>
       <c r="V3" s="69">
         <f>MOD(T6, V2)</f>
-        <v>1183</v>
+        <v>160</v>
       </c>
       <c r="W3" s="57" t="s">
         <v>39</v>
       </c>
       <c r="X3" s="57" t="b">
         <f>AND(V3 &gt; 0, V3 &lt;= VLOOKUP($T$3,$H$3:$N$13,7,FALSE))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y3" s="57" t="b">
         <f>AND(V4 &gt; 0, V4 &lt;= VLOOKUP($T$3,$H$3:$N$13,7,FALSE))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2577,14 +2577,14 @@
         <v>97</v>
       </c>
       <c r="T4" s="13">
-        <v>7583</v>
+        <v>2800</v>
       </c>
       <c r="U4" s="68" t="s">
         <v>103</v>
       </c>
       <c r="V4" s="69">
         <f>MOD(T7, V2)</f>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="W4" s="57" t="s">
         <v>105</v>
@@ -2670,14 +2670,14 @@
       </c>
       <c r="V5" s="71" t="str" cm="1">
         <f t="array" ref="V5">(ROUNDDOWN(T6/V2, 0) + IF(X8,1,0)) &amp; _xlfn.IFS(X3, " + FS", X4, " + C1", X5, " + C2", X6, " + C3", X7, " + C4", TRUE, "")</f>
-        <v>5</v>
+        <v>2 + FS</v>
       </c>
       <c r="W5" s="57" t="s">
         <v>106</v>
       </c>
       <c r="X5" s="57" t="b">
         <f>AND(V3&gt;VLOOKUP($T$3,$H$3:$M$13,2,FALSE),V3&lt;=VLOOKUP($T$3,$H$3:$M$13,3,FALSE))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y5" s="57" t="b">
         <f>AND(V4&gt;=VLOOKUP($T$3,$H$3:$M$13,2,FALSE),V4&lt;VLOOKUP($T$3,$H$3:$M$13,3,FALSE))</f>
@@ -2738,14 +2738,14 @@
       </c>
       <c r="T6" s="76">
         <f>T4 * (1 - SUM(P:P))</f>
-        <v>7583</v>
+        <v>2800</v>
       </c>
       <c r="U6" s="77" t="s">
         <v>101</v>
       </c>
       <c r="V6" s="71" t="str" cm="1">
         <f t="array" ref="V6">(ROUNDDOWN(T7/V2, 0) + IF(Y8,1,0)) &amp; _xlfn.IFS(Y3, " + FS", Y4, " + C1", Y5, " + C2", Y6, " + C3", Y7, " + C4", TRUE, "")</f>
-        <v>5</v>
+        <v>6 + FS</v>
       </c>
       <c r="W6" s="57" t="s">
         <v>107</v>
@@ -2881,7 +2881,7 @@
       </c>
       <c r="X8" s="57" t="b">
         <f>V3&gt;VLOOKUP($T$3,$H$3:$M$13,5,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y8" s="57" t="b">
         <f>V4&gt;VLOOKUP($T$3,$H$3:$M$13,5,FALSE)</f>
@@ -4072,28 +4072,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="186" t="s">
+      <c r="A1" s="144" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="187"/>
-      <c r="C1" s="149" t="s">
+      <c r="B1" s="145"/>
+      <c r="C1" s="148" t="s">
         <v>146</v>
       </c>
-      <c r="D1" s="150"/>
-      <c r="E1" s="149" t="s">
+      <c r="D1" s="149"/>
+      <c r="E1" s="148" t="s">
         <v>147</v>
       </c>
-      <c r="F1" s="150"/>
-      <c r="G1" s="149" t="s">
+      <c r="F1" s="149"/>
+      <c r="G1" s="148" t="s">
         <v>145</v>
       </c>
-      <c r="H1" s="150"/>
+      <c r="H1" s="149"/>
     </row>
     <row r="2" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="163" t="s">
+      <c r="A2" s="146" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="164"/>
+      <c r="B2" s="147"/>
       <c r="C2" s="21">
         <f>5/3</f>
         <v>1.6666666666666667</v>
@@ -4120,10 +4120,10 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="163" t="s">
+      <c r="A3" s="146" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="164"/>
+      <c r="B3" s="147"/>
       <c r="C3" s="21">
         <v>0.1</v>
       </c>
@@ -4147,7 +4147,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="167" t="s">
+      <c r="A4" s="160" t="s">
         <v>60</v>
       </c>
       <c r="B4" s="45" t="s">
@@ -4156,102 +4156,102 @@
       <c r="C4" s="24">
         <v>4078</v>
       </c>
-      <c r="D4" s="151">
+      <c r="D4" s="139">
         <f>(C4/(1+C5)*(1+C5+C6)*(1+C7)*(1+C8))</f>
         <v>4078</v>
       </c>
       <c r="E4" s="24">
         <v>4353</v>
       </c>
-      <c r="F4" s="151">
+      <c r="F4" s="139">
         <f>(E4/(1+E5)*(1+E5+E6)*(1+E7)*(1+E8))</f>
         <v>5005.95</v>
       </c>
       <c r="G4" s="24">
         <v>4353</v>
       </c>
-      <c r="H4" s="151">
+      <c r="H4" s="139">
         <f>(G4/(1+G5)*(1+G5+G6)*(1+G7)*(1+G8))</f>
         <v>5005.95</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="168"/>
+      <c r="A5" s="161"/>
       <c r="B5" s="45" t="s">
         <v>44</v>
       </c>
       <c r="C5" s="26">
         <v>0</v>
       </c>
-      <c r="D5" s="152"/>
+      <c r="D5" s="140"/>
       <c r="E5" s="26">
         <v>0</v>
       </c>
-      <c r="F5" s="152"/>
+      <c r="F5" s="140"/>
       <c r="G5" s="26">
         <v>0</v>
       </c>
-      <c r="H5" s="152"/>
+      <c r="H5" s="140"/>
     </row>
     <row r="6" spans="1:8" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="168"/>
+      <c r="A6" s="161"/>
       <c r="B6" s="45" t="s">
         <v>45</v>
       </c>
       <c r="C6" s="27">
         <v>0</v>
       </c>
-      <c r="D6" s="152"/>
+      <c r="D6" s="140"/>
       <c r="E6" s="27">
         <v>0</v>
       </c>
-      <c r="F6" s="152"/>
+      <c r="F6" s="140"/>
       <c r="G6" s="27">
         <v>0</v>
       </c>
-      <c r="H6" s="152"/>
+      <c r="H6" s="140"/>
     </row>
     <row r="7" spans="1:8" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="168"/>
+      <c r="A7" s="161"/>
       <c r="B7" s="45" t="s">
         <v>56</v>
       </c>
       <c r="C7" s="27">
         <v>0</v>
       </c>
-      <c r="D7" s="152"/>
+      <c r="D7" s="140"/>
       <c r="E7" s="27">
         <v>0.15</v>
       </c>
-      <c r="F7" s="152"/>
+      <c r="F7" s="140"/>
       <c r="G7" s="27">
         <v>0.15</v>
       </c>
-      <c r="H7" s="152"/>
+      <c r="H7" s="140"/>
     </row>
     <row r="8" spans="1:8" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="169"/>
+      <c r="A8" s="162"/>
       <c r="B8" s="45" t="s">
         <v>57</v>
       </c>
       <c r="C8" s="27">
         <v>0</v>
       </c>
-      <c r="D8" s="153"/>
+      <c r="D8" s="141"/>
       <c r="E8" s="27">
         <v>0</v>
       </c>
-      <c r="F8" s="153"/>
+      <c r="F8" s="141"/>
       <c r="G8" s="27">
         <v>0</v>
       </c>
-      <c r="H8" s="153"/>
+      <c r="H8" s="141"/>
     </row>
     <row r="9" spans="1:8" s="30" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="182" t="s">
+      <c r="A9" s="163" t="s">
         <v>46</v>
       </c>
-      <c r="B9" s="183"/>
+      <c r="B9" s="164"/>
       <c r="C9" s="28">
         <v>16.64</v>
       </c>
@@ -4275,7 +4275,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" s="32" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="184" t="s">
+      <c r="A10" s="165" t="s">
         <v>62</v>
       </c>
       <c r="B10" s="46" t="s">
@@ -4284,45 +4284,45 @@
       <c r="C10" s="31">
         <v>0</v>
       </c>
-      <c r="D10" s="154">
+      <c r="D10" s="142">
         <f>1+((0.7+C11)*C10)</f>
         <v>1</v>
       </c>
       <c r="E10" s="31">
         <v>0</v>
       </c>
-      <c r="F10" s="154">
+      <c r="F10" s="142">
         <f>1+((0.7+E11)*E10)</f>
         <v>1</v>
       </c>
       <c r="G10" s="31">
         <v>0</v>
       </c>
-      <c r="H10" s="154">
+      <c r="H10" s="142">
         <f>1+((0.7+G11)*G10)</f>
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="32" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="185"/>
+      <c r="A11" s="166"/>
       <c r="B11" s="46" t="s">
         <v>42</v>
       </c>
       <c r="C11" s="33">
         <v>1.7</v>
       </c>
-      <c r="D11" s="155"/>
+      <c r="D11" s="143"/>
       <c r="E11" s="33">
         <v>0</v>
       </c>
-      <c r="F11" s="155"/>
+      <c r="F11" s="143"/>
       <c r="G11" s="33">
         <v>0</v>
       </c>
-      <c r="H11" s="155"/>
+      <c r="H11" s="143"/>
     </row>
     <row r="12" spans="1:8" s="35" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="177" t="s">
+      <c r="A12" s="155" t="s">
         <v>64</v>
       </c>
       <c r="B12" s="47" t="s">
@@ -4331,81 +4331,81 @@
       <c r="C12" s="34">
         <v>0</v>
       </c>
-      <c r="D12" s="156">
+      <c r="D12" s="175">
         <f>(1+C12+C13)*(1+C14)*(1+C15)</f>
         <v>1</v>
       </c>
       <c r="E12" s="34">
         <v>0</v>
       </c>
-      <c r="F12" s="156">
+      <c r="F12" s="175">
         <f>(1+E12+E13)*(1+E14)*(1+E15)</f>
         <v>1.1499999999999999</v>
       </c>
       <c r="G12" s="34">
         <v>0</v>
       </c>
-      <c r="H12" s="156">
+      <c r="H12" s="175">
         <f>(1+G12+G13)*(1+G14)*(1+G15)</f>
         <v>1.1499999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="35" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="178"/>
+      <c r="A13" s="156"/>
       <c r="B13" s="47" t="s">
         <v>48</v>
       </c>
       <c r="C13" s="34">
         <v>0</v>
       </c>
-      <c r="D13" s="157"/>
+      <c r="D13" s="176"/>
       <c r="E13" s="34">
         <v>0</v>
       </c>
-      <c r="F13" s="157"/>
+      <c r="F13" s="176"/>
       <c r="G13" s="34">
         <v>0</v>
       </c>
-      <c r="H13" s="157"/>
+      <c r="H13" s="176"/>
     </row>
     <row r="14" spans="1:8" s="35" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="178"/>
+      <c r="A14" s="156"/>
       <c r="B14" s="47" t="s">
         <v>69</v>
       </c>
       <c r="C14" s="34">
         <v>0</v>
       </c>
-      <c r="D14" s="157"/>
+      <c r="D14" s="176"/>
       <c r="E14" s="34">
         <v>0.15</v>
       </c>
-      <c r="F14" s="157"/>
+      <c r="F14" s="176"/>
       <c r="G14" s="34">
         <v>0.15</v>
       </c>
-      <c r="H14" s="157"/>
+      <c r="H14" s="176"/>
     </row>
     <row r="15" spans="1:8" s="35" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="179"/>
+      <c r="A15" s="157"/>
       <c r="B15" s="47" t="s">
         <v>70</v>
       </c>
       <c r="C15" s="34">
         <v>0</v>
       </c>
-      <c r="D15" s="158"/>
+      <c r="D15" s="177"/>
       <c r="E15" s="34">
         <v>0</v>
       </c>
-      <c r="F15" s="158"/>
+      <c r="F15" s="177"/>
       <c r="G15" s="34">
         <v>0</v>
       </c>
-      <c r="H15" s="158"/>
+      <c r="H15" s="177"/>
     </row>
     <row r="16" spans="1:8" s="37" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="180" t="s">
+      <c r="A16" s="158" t="s">
         <v>65</v>
       </c>
       <c r="B16" s="48" t="s">
@@ -4414,45 +4414,45 @@
       <c r="C16" s="36">
         <v>0</v>
       </c>
-      <c r="D16" s="159">
+      <c r="D16" s="178">
         <f>(1+C16)*(1+C17)</f>
         <v>1</v>
       </c>
       <c r="E16" s="36">
         <v>0</v>
       </c>
-      <c r="F16" s="159">
+      <c r="F16" s="178">
         <f>(1+E16)*(1+E17)</f>
         <v>1</v>
       </c>
       <c r="G16" s="36">
         <v>0</v>
       </c>
-      <c r="H16" s="159">
+      <c r="H16" s="178">
         <f>(1+G16)*(1+G17)</f>
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="37" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="181"/>
+      <c r="A17" s="159"/>
       <c r="B17" s="48" t="s">
         <v>49</v>
       </c>
       <c r="C17" s="36">
         <v>0</v>
       </c>
-      <c r="D17" s="160"/>
+      <c r="D17" s="179"/>
       <c r="E17" s="36">
         <v>0</v>
       </c>
-      <c r="F17" s="160"/>
+      <c r="F17" s="179"/>
       <c r="G17" s="36">
         <v>0</v>
       </c>
-      <c r="H17" s="160"/>
+      <c r="H17" s="179"/>
     </row>
     <row r="18" spans="1:8" s="39" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="172" t="s">
+      <c r="A18" s="150" t="s">
         <v>66</v>
       </c>
       <c r="B18" s="49" t="s">
@@ -4461,45 +4461,45 @@
       <c r="C18" s="38">
         <v>1.5</v>
       </c>
-      <c r="D18" s="139">
+      <c r="D18" s="180">
         <f>C18+C19</f>
         <v>1.5</v>
       </c>
       <c r="E18" s="38">
         <v>1.5</v>
       </c>
-      <c r="F18" s="139">
+      <c r="F18" s="180">
         <f>E18+E19</f>
         <v>1.5</v>
       </c>
       <c r="G18" s="38">
         <v>1.5</v>
       </c>
-      <c r="H18" s="139">
+      <c r="H18" s="180">
         <f>G18+G19</f>
         <v>1.5</v>
       </c>
     </row>
     <row r="19" spans="1:8" s="39" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="173"/>
+      <c r="A19" s="151"/>
       <c r="B19" s="49" t="s">
         <v>59</v>
       </c>
       <c r="C19" s="40">
         <v>0</v>
       </c>
-      <c r="D19" s="140"/>
+      <c r="D19" s="181"/>
       <c r="E19" s="40">
         <v>0</v>
       </c>
-      <c r="F19" s="140"/>
+      <c r="F19" s="181"/>
       <c r="G19" s="40">
         <v>0</v>
       </c>
-      <c r="H19" s="140"/>
+      <c r="H19" s="181"/>
     </row>
     <row r="20" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="174" t="s">
+      <c r="A20" s="152" t="s">
         <v>72</v>
       </c>
       <c r="B20" s="50" t="s">
@@ -4508,66 +4508,66 @@
       <c r="C20" s="41">
         <v>0</v>
       </c>
-      <c r="D20" s="141">
+      <c r="D20" s="182">
         <f>1+C20*(0.2+C21+C22)</f>
         <v>1</v>
       </c>
       <c r="E20" s="41">
         <v>0</v>
       </c>
-      <c r="F20" s="141">
+      <c r="F20" s="182">
         <f>1+E20*(0.2+E21+E22)</f>
         <v>1</v>
       </c>
       <c r="G20" s="41">
         <v>0</v>
       </c>
-      <c r="H20" s="141">
+      <c r="H20" s="182">
         <f>1+G20*(0.2+G21+G22)</f>
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="175"/>
+      <c r="A21" s="153"/>
       <c r="B21" s="50" t="s">
         <v>50</v>
       </c>
       <c r="C21" s="41">
         <v>0.5</v>
       </c>
-      <c r="D21" s="142"/>
+      <c r="D21" s="183"/>
       <c r="E21" s="41">
         <v>0.5</v>
       </c>
-      <c r="F21" s="142"/>
+      <c r="F21" s="183"/>
       <c r="G21" s="41">
         <v>0.5</v>
       </c>
-      <c r="H21" s="142"/>
+      <c r="H21" s="183"/>
     </row>
     <row r="22" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="176"/>
+      <c r="A22" s="154"/>
       <c r="B22" s="50" t="s">
         <v>51</v>
       </c>
       <c r="C22" s="41">
         <v>0</v>
       </c>
-      <c r="D22" s="143"/>
+      <c r="D22" s="184"/>
       <c r="E22" s="41">
         <v>0</v>
       </c>
-      <c r="F22" s="143"/>
+      <c r="F22" s="184"/>
       <c r="G22" s="41">
         <v>0</v>
       </c>
-      <c r="H22" s="143"/>
+      <c r="H22" s="184"/>
     </row>
     <row r="23" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="163" t="s">
+      <c r="A23" s="146" t="s">
         <v>73</v>
       </c>
-      <c r="B23" s="164"/>
+      <c r="B23" s="147"/>
       <c r="C23" s="21">
         <v>1</v>
       </c>
@@ -4591,10 +4591,10 @@
       </c>
     </row>
     <row r="24" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="165" t="s">
+      <c r="A24" s="169" t="s">
         <v>52</v>
       </c>
-      <c r="B24" s="166"/>
+      <c r="B24" s="170"/>
       <c r="C24" s="41">
         <v>10</v>
       </c>
@@ -4618,7 +4618,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="167" t="s">
+      <c r="A25" s="160" t="s">
         <v>53</v>
       </c>
       <c r="B25" s="45" t="s">
@@ -4627,66 +4627,66 @@
       <c r="C25" s="24">
         <v>0</v>
       </c>
-      <c r="D25" s="144">
+      <c r="D25" s="185">
         <f>(1-(1-C26)*C25)*(1-C27)</f>
         <v>1</v>
       </c>
       <c r="E25" s="24">
         <v>0</v>
       </c>
-      <c r="F25" s="144">
+      <c r="F25" s="185">
         <f>(1-(1-E26)*E25)*(1-E27)</f>
         <v>1</v>
       </c>
       <c r="G25" s="24">
         <v>0</v>
       </c>
-      <c r="H25" s="144">
+      <c r="H25" s="185">
         <f>(1-(1-G26)*G25)*(1-G27)</f>
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:8" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="168"/>
+      <c r="A26" s="161"/>
       <c r="B26" s="45" t="s">
         <v>74</v>
       </c>
       <c r="C26" s="24">
         <v>0.8</v>
       </c>
-      <c r="D26" s="145"/>
+      <c r="D26" s="186"/>
       <c r="E26" s="24">
         <v>0.6</v>
       </c>
-      <c r="F26" s="145"/>
+      <c r="F26" s="186"/>
       <c r="G26" s="24">
         <v>0.6</v>
       </c>
-      <c r="H26" s="145"/>
+      <c r="H26" s="186"/>
     </row>
     <row r="27" spans="1:8" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="169"/>
+      <c r="A27" s="162"/>
       <c r="B27" s="45" t="s">
         <v>37</v>
       </c>
       <c r="C27" s="27">
         <v>0</v>
       </c>
-      <c r="D27" s="146"/>
+      <c r="D27" s="187"/>
       <c r="E27" s="27">
         <v>0</v>
       </c>
-      <c r="F27" s="146"/>
+      <c r="F27" s="187"/>
       <c r="G27" s="27">
         <v>0</v>
       </c>
-      <c r="H27" s="146"/>
+      <c r="H27" s="187"/>
     </row>
     <row r="28" spans="1:8" s="39" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="170" t="s">
+      <c r="A28" s="171" t="s">
         <v>76</v>
       </c>
-      <c r="B28" s="171"/>
+      <c r="B28" s="172"/>
       <c r="C28" s="38">
         <v>0</v>
       </c>
@@ -4710,25 +4710,25 @@
       </c>
     </row>
     <row r="29" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="161" t="s">
+      <c r="A29" s="167" t="s">
         <v>54</v>
       </c>
-      <c r="B29" s="162"/>
-      <c r="C29" s="147">
+      <c r="B29" s="168"/>
+      <c r="C29" s="173">
         <f>D2*D3*D4*D9*D10*D12*D16*D18*D20*D23/D24/D25*D28</f>
         <v>15268.032000000001</v>
       </c>
-      <c r="D29" s="148"/>
-      <c r="E29" s="147">
+      <c r="D29" s="174"/>
+      <c r="E29" s="173">
         <f>F2*F3*F4*F9*F10*F12*F16*F18*F20*F23/F24/F25*F28</f>
         <v>41967.381825000004</v>
       </c>
-      <c r="F29" s="148"/>
-      <c r="G29" s="147">
+      <c r="F29" s="174"/>
+      <c r="G29" s="173">
         <f>H2*H3*H4*H9*H10*H12*H16*H18*H20*H23/H24/H25*H28</f>
         <v>45637.368918750006</v>
       </c>
-      <c r="H29" s="148"/>
+      <c r="H29" s="174"/>
     </row>
     <row r="30" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C30" s="20" t="s">
@@ -4752,30 +4752,15 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="D4:D8"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="D12:D15"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="F20:F22"/>
+    <mergeCell ref="F25:F27"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F4:F8"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="F12:F15"/>
+    <mergeCell ref="F16:F17"/>
     <mergeCell ref="H18:H19"/>
     <mergeCell ref="H20:H22"/>
     <mergeCell ref="H25:H27"/>
@@ -4785,15 +4770,30 @@
     <mergeCell ref="H10:H11"/>
     <mergeCell ref="H12:H15"/>
     <mergeCell ref="H16:H17"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="F20:F22"/>
-    <mergeCell ref="F25:F27"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="F4:F8"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="F12:F15"/>
-    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="D12:D15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="D4:D8"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Brainstorm.xlsx
+++ b/Brainstorm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Personal@SSD\Game\DL\dragalia-data-track\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8381D93D-CFDC-459F-8742-6DD5EF9641A9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FF584EC-869D-4DC5-BEB4-4F355483402C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29145" yWindow="765" windowWidth="23190" windowHeight="13530" xr2:uid="{4CFB4A6A-60C6-4091-BCA5-480044B61D33}"/>
+    <workbookView xWindow="9735" yWindow="1170" windowWidth="23205" windowHeight="13545" activeTab="5" xr2:uid="{4CFB4A6A-60C6-4091-BCA5-480044B61D33}"/>
   </bookViews>
   <sheets>
     <sheet name="Rotation" sheetId="8" r:id="rId1"/>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="187">
   <si>
     <t>睡抗</t>
   </si>
@@ -641,21 +641,6 @@
     <t>實際秒損血</t>
   </si>
   <si>
-    <t>勇</t>
-  </si>
-  <si>
-    <t>真普魯</t>
-  </si>
-  <si>
-    <t>貓</t>
-  </si>
-  <si>
-    <t>亞森</t>
-  </si>
-  <si>
-    <t>忍</t>
-  </si>
-  <si>
     <t>Buff (全)</t>
   </si>
   <si>
@@ -663,6 +648,15 @@
   </si>
   <si>
     <t>傷害 +</t>
+  </si>
+  <si>
+    <t>R70/牛</t>
+  </si>
+  <si>
+    <t>黑炎</t>
+  </si>
+  <si>
+    <t>馬斯</t>
   </si>
 </sst>
 </file>
@@ -1045,7 +1039,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -1300,25 +1294,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="1" tint="0.499984740745262"/>
-      </right>
-      <top style="thin">
-        <color theme="1" tint="0.499984740745262"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="210">
+  <cellXfs count="204">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1884,36 +1865,21 @@
     <xf numFmtId="9" fontId="2" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="10" fontId="2" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="2" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="2" fillId="43" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="43" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="2" fillId="33" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="2" fillId="43" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1924,9 +1890,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="40" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2299,8 +2262,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B260D6A6-975E-4594-902D-33C279C7CA35}">
   <dimension ref="A1:Y13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T6" sqref="T6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2406,7 +2369,7 @@
         <v>87</v>
       </c>
       <c r="R2" s="66">
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="S2" s="60" t="s">
         <v>9</v>
@@ -2417,7 +2380,7 @@
       </c>
       <c r="V2" s="69">
         <f>VLOOKUP(T3,$H$3:$M$13,6,FALSE)</f>
-        <v>1320</v>
+        <v>2911.9999999999995</v>
       </c>
       <c r="X2" s="57" t="s">
         <v>40</v>
@@ -2453,27 +2416,27 @@
       </c>
       <c r="I3" s="61">
         <f>B3 * (1+SUM($R:$R))</f>
-        <v>150</v>
+        <v>273</v>
       </c>
       <c r="J3" s="61">
         <f t="shared" ref="J3:J13" si="0">C3 * (1+SUM($R:$R))</f>
-        <v>300</v>
+        <v>546</v>
       </c>
       <c r="K3" s="61">
         <f t="shared" ref="K3:M10" si="1">D3 * (1+SUM($R:$R))</f>
-        <v>496</v>
+        <v>902.71999999999991</v>
       </c>
       <c r="L3" s="61">
         <f t="shared" si="1"/>
-        <v>761</v>
+        <v>1385.02</v>
       </c>
       <c r="M3" s="61">
         <f t="shared" si="1"/>
-        <v>1152</v>
+        <v>2096.64</v>
       </c>
       <c r="N3" s="58">
         <f t="shared" ref="N3:N13" si="2">G3 * (1+SUM($R:$R))</f>
-        <v>345</v>
+        <v>627.9</v>
       </c>
       <c r="O3" s="72" t="s">
         <v>17</v>
@@ -2485,20 +2448,20 @@
         <v>17</v>
       </c>
       <c r="R3" s="66">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="S3" s="60" t="s">
         <v>77</v>
       </c>
       <c r="T3" s="13" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="U3" s="68" t="s">
         <v>102</v>
       </c>
       <c r="V3" s="69">
         <f>MOD(T6, V2)</f>
-        <v>160</v>
+        <v>613.00000000000045</v>
       </c>
       <c r="W3" s="57" t="s">
         <v>39</v>
@@ -2509,7 +2472,7 @@
       </c>
       <c r="Y3" s="57" t="b">
         <f>AND(V4 &gt; 0, V4 &lt;= VLOOKUP($T$3,$H$3:$N$13,7,FALSE))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2539,27 +2502,27 @@
       </c>
       <c r="I4" s="61">
         <f t="shared" ref="I4:I13" si="3">B4 * (1+SUM($R:$R))</f>
-        <v>130</v>
+        <v>236.59999999999997</v>
       </c>
       <c r="J4" s="61">
         <f t="shared" si="0"/>
-        <v>260</v>
+        <v>473.19999999999993</v>
       </c>
       <c r="K4" s="61">
         <f t="shared" si="1"/>
-        <v>480</v>
+        <v>873.59999999999991</v>
       </c>
       <c r="L4" s="61">
         <f t="shared" si="1"/>
-        <v>840</v>
+        <v>1528.8</v>
       </c>
       <c r="M4" s="61">
         <f t="shared" si="1"/>
-        <v>1740</v>
+        <v>3166.7999999999997</v>
       </c>
       <c r="N4" s="58">
         <f t="shared" si="2"/>
-        <v>200</v>
+        <v>363.99999999999994</v>
       </c>
       <c r="O4" s="72" t="s">
         <v>88</v>
@@ -2571,20 +2534,20 @@
         <v>88</v>
       </c>
       <c r="R4" s="66">
-        <v>0</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="S4" s="60" t="s">
         <v>97</v>
       </c>
       <c r="T4" s="13">
-        <v>2800</v>
+        <v>3525</v>
       </c>
       <c r="U4" s="68" t="s">
         <v>103</v>
       </c>
       <c r="V4" s="69">
         <f>MOD(T7, V2)</f>
-        <v>80</v>
+        <v>2499.0000000000018</v>
       </c>
       <c r="W4" s="57" t="s">
         <v>105</v>
@@ -2625,27 +2588,27 @@
       </c>
       <c r="I5" s="61">
         <f t="shared" si="3"/>
-        <v>144</v>
+        <v>262.08</v>
       </c>
       <c r="J5" s="61">
         <f t="shared" si="0"/>
-        <v>288</v>
+        <v>524.16</v>
       </c>
       <c r="K5" s="61">
         <f t="shared" si="1"/>
-        <v>552</v>
+        <v>1004.6399999999999</v>
       </c>
       <c r="L5" s="61">
         <f t="shared" si="1"/>
-        <v>840</v>
+        <v>1528.8</v>
       </c>
       <c r="M5" s="61">
         <f t="shared" si="1"/>
-        <v>1320</v>
+        <v>2402.3999999999996</v>
       </c>
       <c r="N5" s="58">
         <f t="shared" si="2"/>
-        <v>288</v>
+        <v>524.16</v>
       </c>
       <c r="O5" s="72" t="s">
         <v>89</v>
@@ -2657,27 +2620,27 @@
         <v>89</v>
       </c>
       <c r="R5" s="66">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="S5" s="60" t="s">
         <v>99</v>
       </c>
       <c r="T5" s="13">
-        <v>8000</v>
+        <v>14147</v>
       </c>
       <c r="U5" s="70" t="s">
         <v>100</v>
       </c>
       <c r="V5" s="71" t="str" cm="1">
         <f t="array" ref="V5">(ROUNDDOWN(T6/V2, 0) + IF(X8,1,0)) &amp; _xlfn.IFS(X3, " + FS", X4, " + C1", X5, " + C2", X6, " + C3", X7, " + C4", TRUE, "")</f>
-        <v>2 + FS</v>
+        <v>1 + FS</v>
       </c>
       <c r="W5" s="57" t="s">
         <v>106</v>
       </c>
       <c r="X5" s="57" t="b">
         <f>AND(V3&gt;VLOOKUP($T$3,$H$3:$M$13,2,FALSE),V3&lt;=VLOOKUP($T$3,$H$3:$M$13,3,FALSE))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y5" s="57" t="b">
         <f>AND(V4&gt;=VLOOKUP($T$3,$H$3:$M$13,2,FALSE),V4&lt;VLOOKUP($T$3,$H$3:$M$13,3,FALSE))</f>
@@ -2711,48 +2674,48 @@
       </c>
       <c r="I6" s="61">
         <f t="shared" si="3"/>
-        <v>200</v>
+        <v>363.99999999999994</v>
       </c>
       <c r="J6" s="61">
         <f t="shared" si="0"/>
-        <v>440</v>
+        <v>800.8</v>
       </c>
       <c r="K6" s="61">
         <f t="shared" si="1"/>
-        <v>800</v>
+        <v>1455.9999999999998</v>
       </c>
       <c r="L6" s="61">
         <f t="shared" si="1"/>
-        <v>1180</v>
+        <v>2147.6</v>
       </c>
       <c r="M6" s="61">
         <f t="shared" si="1"/>
-        <v>1600</v>
+        <v>2911.9999999999995</v>
       </c>
       <c r="N6" s="58">
         <f t="shared" si="2"/>
-        <v>300</v>
+        <v>546</v>
       </c>
       <c r="S6" s="75" t="s">
         <v>98</v>
       </c>
       <c r="T6" s="76">
         <f>T4 * (1 - SUM(P:P))</f>
-        <v>2800</v>
+        <v>3525</v>
       </c>
       <c r="U6" s="77" t="s">
         <v>101</v>
       </c>
       <c r="V6" s="71" t="str" cm="1">
         <f t="array" ref="V6">(ROUNDDOWN(T7/V2, 0) + IF(Y8,1,0)) &amp; _xlfn.IFS(Y3, " + FS", Y4, " + C1", Y5, " + C2", Y6, " + C3", Y7, " + C4", TRUE, "")</f>
-        <v>6 + FS</v>
+        <v>5</v>
       </c>
       <c r="W6" s="57" t="s">
         <v>107</v>
       </c>
       <c r="X6" s="57" t="b">
         <f>AND(V3 &gt; VLOOKUP($T$3,$H$3:$M$13,3,FALSE),V3 &lt;= VLOOKUP($T$3,$H$3:$M$13,4,FALSE))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y6" s="57" t="b">
         <f>AND(V4 &gt; VLOOKUP($T$3,$H$3:$M$13,3,FALSE),V4 &lt;= VLOOKUP($T$3,$H$3:$M$13,4,FALSE))</f>
@@ -2786,34 +2749,34 @@
       </c>
       <c r="I7" s="61">
         <f t="shared" si="3"/>
-        <v>120</v>
+        <v>218.39999999999998</v>
       </c>
       <c r="J7" s="61">
         <f t="shared" si="0"/>
-        <v>360</v>
+        <v>655.19999999999993</v>
       </c>
       <c r="K7" s="61">
         <f t="shared" si="1"/>
-        <v>480</v>
+        <v>873.59999999999991</v>
       </c>
       <c r="L7" s="61">
         <f t="shared" si="1"/>
-        <v>960</v>
+        <v>1747.1999999999998</v>
       </c>
       <c r="M7" s="61">
         <f t="shared" si="1"/>
-        <v>1560</v>
+        <v>2839.2</v>
       </c>
       <c r="N7" s="58">
         <f t="shared" si="2"/>
-        <v>400</v>
+        <v>727.99999999999989</v>
       </c>
       <c r="S7" s="75" t="s">
         <v>104</v>
       </c>
       <c r="T7" s="76">
         <f>T5 * (1 - SUM(P:P))</f>
-        <v>8000</v>
+        <v>14147</v>
       </c>
       <c r="W7" s="57" t="s">
         <v>108</v>
@@ -2854,27 +2817,27 @@
       </c>
       <c r="I8" s="61">
         <f t="shared" si="3"/>
-        <v>184</v>
+        <v>334.88</v>
       </c>
       <c r="J8" s="61">
         <f t="shared" si="0"/>
-        <v>276</v>
+        <v>502.31999999999994</v>
       </c>
       <c r="K8" s="61">
         <f t="shared" si="1"/>
-        <v>552</v>
+        <v>1004.6399999999999</v>
       </c>
       <c r="L8" s="61">
         <f t="shared" si="1"/>
-        <v>966</v>
+        <v>1758.12</v>
       </c>
       <c r="M8" s="61">
         <f t="shared" si="1"/>
-        <v>1495</v>
+        <v>2720.8999999999996</v>
       </c>
       <c r="N8" s="58">
         <f t="shared" si="2"/>
-        <v>460</v>
+        <v>837.19999999999993</v>
       </c>
       <c r="W8" s="57" t="s">
         <v>109</v>
@@ -2885,7 +2848,7 @@
       </c>
       <c r="Y8" s="57" t="b">
         <f>V4&gt;VLOOKUP($T$3,$H$3:$M$13,5,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2915,27 +2878,27 @@
       </c>
       <c r="I9" s="61">
         <f t="shared" si="3"/>
-        <v>130</v>
+        <v>236.59999999999997</v>
       </c>
       <c r="J9" s="61">
         <f t="shared" si="0"/>
-        <v>330</v>
+        <v>600.59999999999991</v>
       </c>
       <c r="K9" s="61">
         <f t="shared" si="1"/>
-        <v>570</v>
+        <v>1037.3999999999999</v>
       </c>
       <c r="L9" s="61">
         <f t="shared" si="1"/>
-        <v>1000</v>
+        <v>1819.9999999999998</v>
       </c>
       <c r="M9" s="61">
         <f t="shared" si="1"/>
-        <v>1600</v>
+        <v>2911.9999999999995</v>
       </c>
       <c r="N9" s="58">
         <f t="shared" si="2"/>
-        <v>400</v>
+        <v>727.99999999999989</v>
       </c>
       <c r="W9" s="57"/>
       <c r="X9" s="57"/>
@@ -2968,27 +2931,27 @@
       </c>
       <c r="I10" s="61">
         <f t="shared" si="3"/>
-        <v>232</v>
+        <v>422.23999999999995</v>
       </c>
       <c r="J10" s="61">
         <f t="shared" si="0"/>
-        <v>464</v>
+        <v>844.4799999999999</v>
       </c>
       <c r="K10" s="61">
         <f t="shared" si="1"/>
-        <v>812</v>
+        <v>1477.84</v>
       </c>
       <c r="L10" s="61">
         <f t="shared" si="1"/>
-        <v>1276</v>
+        <v>2322.3199999999997</v>
       </c>
       <c r="M10" s="61">
         <f t="shared" si="1"/>
-        <v>1972</v>
+        <v>3589.0399999999995</v>
       </c>
       <c r="N10" s="58">
         <f t="shared" si="2"/>
-        <v>580</v>
+        <v>1055.5999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3012,18 +2975,18 @@
       </c>
       <c r="I11" s="61">
         <f t="shared" si="3"/>
-        <v>545</v>
+        <v>991.89999999999986</v>
       </c>
       <c r="J11" s="61">
         <f t="shared" si="0"/>
-        <v>1090</v>
+        <v>1983.7999999999997</v>
       </c>
       <c r="K11" s="61"/>
       <c r="L11" s="61"/>
       <c r="M11" s="61"/>
       <c r="N11" s="58">
         <f t="shared" si="2"/>
-        <v>400</v>
+        <v>727.99999999999989</v>
       </c>
     </row>
     <row r="12" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3047,18 +3010,18 @@
       </c>
       <c r="I12" s="61">
         <f t="shared" si="3"/>
-        <v>464</v>
+        <v>844.4799999999999</v>
       </c>
       <c r="J12" s="61">
         <f t="shared" si="0"/>
-        <v>928</v>
+        <v>1688.9599999999998</v>
       </c>
       <c r="K12" s="61"/>
       <c r="L12" s="61"/>
       <c r="M12" s="61"/>
       <c r="N12" s="58">
         <f t="shared" si="2"/>
-        <v>400</v>
+        <v>727.99999999999989</v>
       </c>
     </row>
     <row r="13" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3084,21 +3047,21 @@
       </c>
       <c r="I13" s="61">
         <f t="shared" si="3"/>
-        <v>300</v>
+        <v>546</v>
       </c>
       <c r="J13" s="61">
         <f t="shared" si="0"/>
-        <v>764</v>
+        <v>1390.4799999999998</v>
       </c>
       <c r="K13" s="61">
         <f>D13 * (1+SUM($R:$R))</f>
-        <v>1228</v>
+        <v>2234.9599999999996</v>
       </c>
       <c r="L13" s="61"/>
       <c r="M13" s="61"/>
       <c r="N13" s="58">
         <f t="shared" si="2"/>
-        <v>400</v>
+        <v>727.99999999999989</v>
       </c>
     </row>
   </sheetData>
@@ -4053,9 +4016,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEFF6CA3-18A6-4987-88AD-5768B35D8A0C}">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K4" sqref="K4"/>
+      <selection pane="topRight" activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4629,7 +4592,7 @@
       </c>
       <c r="D25" s="185">
         <f>(1-(1-C26)*C25)*(1-C27)</f>
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="E25" s="24">
         <v>0</v>
@@ -4670,7 +4633,7 @@
         <v>37</v>
       </c>
       <c r="C27" s="27">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="D27" s="187"/>
       <c r="E27" s="27">
@@ -4716,7 +4679,7 @@
       <c r="B29" s="168"/>
       <c r="C29" s="173">
         <f>D2*D3*D4*D9*D10*D12*D16*D18*D20*D23/D24/D25*D28</f>
-        <v>15268.032000000001</v>
+        <v>21811.474285714288</v>
       </c>
       <c r="D29" s="174"/>
       <c r="E29" s="173">
@@ -4803,41 +4766,32 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30DD32DD-C8F1-4E13-B59E-D06F7BB09858}">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:H8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.7109375" style="81" customWidth="1"/>
     <col min="2" max="2" width="10.140625" style="81" customWidth="1"/>
-    <col min="3" max="8" width="10.42578125" style="81" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="81"/>
+    <col min="3" max="5" width="10.42578125" style="81" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="81"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C1" s="81" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="D1" s="81" t="s">
-        <v>181</v>
-      </c>
-      <c r="E1" s="98">
-        <v>0.8</v>
-      </c>
-      <c r="F1" s="98" t="s">
-        <v>183</v>
-      </c>
-      <c r="G1" s="98" t="s">
+        <v>186</v>
+      </c>
+      <c r="E1" s="98" t="s">
         <v>184</v>
       </c>
-      <c r="H1" s="98" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="82" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5" s="82" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="82" t="s">
         <v>60</v>
       </c>
@@ -4845,53 +4799,38 @@
         <v>148</v>
       </c>
       <c r="C2" s="83">
-        <v>1.05</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="D2" s="83">
+        <v>0.9</v>
+      </c>
+      <c r="E2" s="120">
         <v>0.7</v>
       </c>
-      <c r="E2" s="120">
-        <v>0.8</v>
-      </c>
-      <c r="F2" s="120">
-        <v>0</v>
-      </c>
-      <c r="G2" s="120">
-        <v>0</v>
-      </c>
-      <c r="H2" s="83">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="82" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:5" s="82" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="82" t="s">
         <v>88</v>
       </c>
       <c r="C3" s="188">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="D3" s="188"/>
       <c r="E3" s="188"/>
-      <c r="F3" s="188"/>
-      <c r="G3" s="188"/>
-      <c r="H3" s="189"/>
-    </row>
-    <row r="4" spans="1:8" s="121" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:5" s="121" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="121" t="s">
-        <v>186</v>
-      </c>
-      <c r="C4" s="201">
-        <v>0</v>
-      </c>
-      <c r="D4" s="202"/>
-      <c r="E4" s="202"/>
-      <c r="F4" s="202"/>
-      <c r="G4" s="202"/>
-      <c r="H4" s="203"/>
-    </row>
-    <row r="5" spans="1:8" s="103" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+      <c r="C4" s="196">
+        <v>0</v>
+      </c>
+      <c r="D4" s="197"/>
+      <c r="E4" s="197"/>
+    </row>
+    <row r="5" spans="1:5" s="103" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="103" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C5" s="102">
         <v>0</v>
@@ -4902,17 +4841,8 @@
       <c r="E5" s="120">
         <v>0</v>
       </c>
-      <c r="F5" s="120">
-        <v>0</v>
-      </c>
-      <c r="G5" s="120">
-        <v>0</v>
-      </c>
-      <c r="H5" s="102">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" s="84" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:5" s="84" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="84" t="s">
         <v>159</v>
       </c>
@@ -4920,7 +4850,7 @@
         <v>148</v>
       </c>
       <c r="C6" s="85">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="D6" s="85">
         <v>0</v>
@@ -4928,45 +4858,30 @@
       <c r="E6" s="124">
         <v>0</v>
       </c>
-      <c r="F6" s="124">
-        <v>0</v>
-      </c>
-      <c r="G6" s="124">
-        <v>0</v>
-      </c>
-      <c r="H6" s="85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" s="84" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:5" s="84" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="84" t="s">
         <v>88</v>
       </c>
-      <c r="C7" s="197">
-        <v>0</v>
-      </c>
-      <c r="D7" s="197"/>
-      <c r="E7" s="197"/>
-      <c r="F7" s="197"/>
-      <c r="G7" s="197"/>
-      <c r="H7" s="198"/>
-    </row>
-    <row r="8" spans="1:8" s="84" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="193">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D7" s="193"/>
+      <c r="E7" s="193"/>
+    </row>
+    <row r="8" spans="1:5" s="84" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="84" t="s">
-        <v>186</v>
-      </c>
-      <c r="C8" s="197">
-        <v>0</v>
-      </c>
-      <c r="D8" s="197"/>
-      <c r="E8" s="197"/>
-      <c r="F8" s="197"/>
-      <c r="G8" s="197"/>
-      <c r="H8" s="198"/>
-    </row>
-    <row r="9" spans="1:8" s="100" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+      <c r="C8" s="193">
+        <v>0</v>
+      </c>
+      <c r="D8" s="193"/>
+      <c r="E8" s="193"/>
+    </row>
+    <row r="9" spans="1:5" s="100" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="100" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C9" s="99">
         <v>0</v>
@@ -4977,17 +4892,8 @@
       <c r="E9" s="124">
         <v>0</v>
       </c>
-      <c r="F9" s="124">
-        <v>0</v>
-      </c>
-      <c r="G9" s="124">
-        <v>0</v>
-      </c>
-      <c r="H9" s="99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" s="86" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:5" s="86" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="86" t="s">
         <v>149</v>
       </c>
@@ -4998,119 +4904,89 @@
         <v>0</v>
       </c>
       <c r="D10" s="87">
+        <v>0</v>
+      </c>
+      <c r="E10" s="123">
         <v>0.3</v>
       </c>
-      <c r="E10" s="123">
-        <v>0</v>
-      </c>
-      <c r="F10" s="123">
-        <v>0</v>
-      </c>
-      <c r="G10" s="123">
-        <v>0</v>
-      </c>
-      <c r="H10" s="87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" s="86" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:5" s="86" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="86" t="s">
         <v>150</v>
       </c>
-      <c r="C11" s="199">
-        <v>0</v>
-      </c>
-      <c r="D11" s="200"/>
-      <c r="E11" s="200"/>
-      <c r="F11" s="200"/>
-      <c r="G11" s="200"/>
-      <c r="H11" s="200"/>
-    </row>
-    <row r="12" spans="1:8" s="86" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="194">
+        <v>0</v>
+      </c>
+      <c r="D11" s="195"/>
+      <c r="E11" s="195"/>
+    </row>
+    <row r="12" spans="1:5" s="86" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="86" t="s">
         <v>160</v>
       </c>
-      <c r="C12" s="195">
+      <c r="C12" s="192">
         <v>0.5</v>
       </c>
-      <c r="D12" s="195"/>
-      <c r="E12" s="195"/>
-      <c r="F12" s="195"/>
-      <c r="G12" s="195"/>
-      <c r="H12" s="196"/>
-    </row>
-    <row r="13" spans="1:8" s="88" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D12" s="192"/>
+      <c r="E12" s="192"/>
+    </row>
+    <row r="13" spans="1:5" s="88" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="88" t="s">
         <v>87</v>
       </c>
       <c r="B13" s="88" t="s">
         <v>162</v>
       </c>
-      <c r="C13" s="193">
-        <v>0</v>
-      </c>
-      <c r="D13" s="193"/>
-      <c r="E13" s="193"/>
-      <c r="F13" s="193"/>
-      <c r="G13" s="193"/>
-      <c r="H13" s="194"/>
-    </row>
-    <row r="14" spans="1:8" s="122" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="191">
+        <v>0</v>
+      </c>
+      <c r="D13" s="191"/>
+      <c r="E13" s="191"/>
+    </row>
+    <row r="14" spans="1:5" s="122" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="122" t="s">
-        <v>188</v>
-      </c>
-      <c r="C14" s="193">
-        <v>0</v>
-      </c>
-      <c r="D14" s="193"/>
-      <c r="E14" s="193"/>
-      <c r="F14" s="193"/>
-      <c r="G14" s="193"/>
-      <c r="H14" s="194"/>
-    </row>
-    <row r="15" spans="1:8" s="88" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+      <c r="C14" s="191">
+        <v>0</v>
+      </c>
+      <c r="D14" s="191"/>
+      <c r="E14" s="191"/>
+    </row>
+    <row r="15" spans="1:5" s="88" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="88" t="s">
         <v>161</v>
       </c>
-      <c r="C15" s="193">
-        <v>0</v>
-      </c>
-      <c r="D15" s="193"/>
-      <c r="E15" s="193"/>
-      <c r="F15" s="193"/>
-      <c r="G15" s="193"/>
-      <c r="H15" s="194"/>
-    </row>
-    <row r="16" spans="1:8" s="89" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="191">
+        <v>0</v>
+      </c>
+      <c r="D15" s="191"/>
+      <c r="E15" s="191"/>
+    </row>
+    <row r="16" spans="1:5" s="89" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="89" t="s">
         <v>152</v>
       </c>
       <c r="B16" s="89" t="s">
         <v>151</v>
       </c>
-      <c r="C16" s="190">
+      <c r="C16" s="189">
         <v>1</v>
       </c>
-      <c r="D16" s="190"/>
-      <c r="E16" s="190"/>
-      <c r="F16" s="190"/>
-      <c r="G16" s="190"/>
-      <c r="H16" s="191"/>
-    </row>
-    <row r="17" spans="1:8" s="89" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D16" s="189"/>
+      <c r="E16" s="189"/>
+    </row>
+    <row r="17" spans="1:5" s="89" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="89" t="s">
         <v>159</v>
       </c>
-      <c r="C17" s="192">
+      <c r="C17" s="190">
         <v>1</v>
       </c>
-      <c r="D17" s="192"/>
-      <c r="E17" s="192"/>
-      <c r="F17" s="192"/>
-      <c r="G17" s="192"/>
-      <c r="H17" s="191"/>
-    </row>
-    <row r="18" spans="1:8" s="90" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D17" s="190"/>
+      <c r="E17" s="190"/>
+    </row>
+    <row r="18" spans="1:5" s="90" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="90" t="s">
         <v>153</v>
       </c>
@@ -5118,132 +4994,84 @@
         <v>151</v>
       </c>
       <c r="C18" s="92">
-        <f t="shared" ref="C18:H18" si="0">(1+C2+$C3)*(1+$C4+C5)*(1+C10+$C11+$C12)*(1+$C13)*$C16</f>
-        <v>3.0749999999999997</v>
+        <f t="shared" ref="C18" si="0">(1+C2+$C3)*(1+$C4+C5)*(1+C10+$C11+$C12)*(1+$C13)*$C16</f>
+        <v>2.625</v>
       </c>
       <c r="D18" s="92">
-        <f t="shared" si="0"/>
-        <v>3.06</v>
+        <f>(1+D2+$C3)*(1+$C4+D5)*(1+D10+$C11+$C12)*(1+$C13)*$C16</f>
+        <v>3.1500000000000004</v>
       </c>
       <c r="E18" s="92">
-        <f t="shared" si="0"/>
-        <v>2.7</v>
-      </c>
-      <c r="F18" s="92">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
-      </c>
-      <c r="G18" s="92">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
-      </c>
-      <c r="H18" s="92">
-        <f t="shared" si="0"/>
-        <v>1.7999999999999998</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" s="90" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <f>(1+E2+$C3)*(1+$C4+E5)*(1+E10+$C11+$C12)*(1+$C13)*$C16</f>
+        <v>3.42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" s="90" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="101">
-        <f>-(1-MAX(C18:H18)/MAX(C20:H20))</f>
-        <v>0</v>
+        <f>-(1-MAX(C18:E18)/MAX(C20:E20))</f>
+        <v>-0.39401993355481735</v>
       </c>
       <c r="C19" s="91">
-        <f t="shared" ref="C19:H19" si="1">-(1-(C18/MAX($C18:$H18)))</f>
-        <v>0</v>
+        <f>-(1-(C18/MAX($C18:$E18)))</f>
+        <v>-0.23245614035087714</v>
       </c>
       <c r="D19" s="91">
-        <f t="shared" si="1"/>
-        <v>-4.8780487804876982E-3</v>
+        <f>-(1-(D18/MAX($C18:$E18)))</f>
+        <v>-7.8947368421052544E-2</v>
       </c>
       <c r="E19" s="91">
-        <f t="shared" si="1"/>
-        <v>-0.12195121951219501</v>
-      </c>
-      <c r="F19" s="91">
-        <f t="shared" si="1"/>
-        <v>-0.51219512195121952</v>
-      </c>
-      <c r="G19" s="91">
-        <f t="shared" si="1"/>
-        <v>-0.51219512195121952</v>
-      </c>
-      <c r="H19" s="91">
-        <f t="shared" si="1"/>
-        <v>-0.41463414634146345</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" s="90" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <f>-(1-(E18/MAX($C18:$E18)))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" s="90" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="90" t="s">
         <v>159</v>
       </c>
       <c r="C20" s="92">
         <f>(1+C2+$C3)*(1+$C4+C5)*(1+C6+$C7+$C14)*(1+$C8+C9)*(1+C10+$C11+$C12)*(1+$C15)*$C17</f>
-        <v>3.0749999999999997</v>
+        <v>5.6437500000000007</v>
       </c>
       <c r="D20" s="92">
         <f>(1+D2+$C3)*(1+$C4+D5)*(1+D6+$C7+$C14)*(1+$C8+D9)*(1+D10+$C11+$C12)*(1+$C15)*$C17</f>
-        <v>3.06</v>
+        <v>4.8825000000000003</v>
       </c>
       <c r="E20" s="92">
         <f>(1+E2+$C3)*(1+$C4+E5)*(1+E6+$C7+$C14)*(1+$C8+E9)*(1+E10+$C11+$C12)*(1+$C15)*$C17</f>
-        <v>2.7</v>
-      </c>
-      <c r="F20" s="92">
-        <f t="shared" ref="F20:H20" si="2">(1+F2+$C3)*(1+$C4+F5)*(1+F6+$C7+$C14)*(1+$C8+F9)*(1+F10+$C11+$C12)*(1+$C15)*$C17</f>
-        <v>1.5</v>
-      </c>
-      <c r="G20" s="92">
-        <f t="shared" si="2"/>
-        <v>1.5</v>
-      </c>
-      <c r="H20" s="92">
-        <f t="shared" si="2"/>
-        <v>1.7999999999999998</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" s="90" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>5.3010000000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" s="90" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="101">
-        <f>-(1-MAX(C20:H20)/MAX(C18:H18))</f>
-        <v>0</v>
+        <f>-(1-MAX(C20:E20)/MAX(C18:E18))</f>
+        <v>0.65021929824561431</v>
       </c>
       <c r="C21" s="91">
-        <f t="shared" ref="C21:H21" si="3">-(1-(C20/MAX($C20:$H20)))</f>
+        <f>-(1-(C20/MAX($C20:$E20)))</f>
         <v>0</v>
       </c>
       <c r="D21" s="91">
-        <f t="shared" si="3"/>
-        <v>-4.8780487804876982E-3</v>
+        <f>-(1-(D20/MAX($C20:$E20)))</f>
+        <v>-0.1348837209302326</v>
       </c>
       <c r="E21" s="91">
-        <f t="shared" si="3"/>
-        <v>-0.12195121951219501</v>
-      </c>
-      <c r="F21" s="91">
-        <f t="shared" si="3"/>
-        <v>-0.51219512195121952</v>
-      </c>
-      <c r="G21" s="91">
-        <f t="shared" si="3"/>
-        <v>-0.51219512195121952</v>
-      </c>
-      <c r="H21" s="91">
-        <f t="shared" si="3"/>
-        <v>-0.41463414634146345</v>
+        <f>-(1-(E20/MAX($C20:$E20)))</f>
+        <v>-6.0730897009966922E-2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C3:H3"/>
-    <mergeCell ref="C16:H16"/>
-    <mergeCell ref="C17:H17"/>
-    <mergeCell ref="C13:H13"/>
-    <mergeCell ref="C15:H15"/>
-    <mergeCell ref="C12:H12"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C11:H11"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C4:H4"/>
-    <mergeCell ref="C14:H14"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C14:E14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5266,14 +5094,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="205" t="s">
+      <c r="A1" s="199" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="205"/>
-      <c r="C1" s="204" t="s">
+      <c r="B1" s="199"/>
+      <c r="C1" s="198" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="204"/>
+      <c r="D1" s="198"/>
     </row>
     <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="72" t="s">
@@ -5326,10 +5154,10 @@
       <c r="B5" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="208" t="s">
+      <c r="C5" s="202" t="s">
         <v>158</v>
       </c>
-      <c r="D5" s="209"/>
+      <c r="D5" s="203"/>
     </row>
     <row r="6" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65" t="s">
@@ -5338,11 +5166,11 @@
       <c r="B6" s="65" t="s">
         <v>154</v>
       </c>
-      <c r="C6" s="206">
+      <c r="C6" s="200">
         <f>1*(1-B2)+(1+D2)*(B2)</f>
         <v>1.1559999999999999</v>
       </c>
-      <c r="D6" s="207"/>
+      <c r="D6" s="201"/>
     </row>
     <row r="7" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65" t="s">
@@ -5351,11 +5179,11 @@
       <c r="B7" s="96" t="s">
         <v>157</v>
       </c>
-      <c r="C7" s="206">
+      <c r="C7" s="200">
         <f>1*(1-B2)+(1+D4)*(B2)</f>
         <v>1.1919999999999999</v>
       </c>
-      <c r="D7" s="207"/>
+      <c r="D7" s="201"/>
     </row>
     <row r="8" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="96" t="s">
@@ -5364,11 +5192,11 @@
       <c r="B8" s="65" t="s">
         <v>154</v>
       </c>
-      <c r="C8" s="206">
+      <c r="C8" s="200">
         <f>1*(1-B4)+(1+D2)*(B4)</f>
         <v>1.728</v>
       </c>
-      <c r="D8" s="207"/>
+      <c r="D8" s="201"/>
       <c r="F8" s="97"/>
     </row>
     <row r="9" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5378,11 +5206,11 @@
       <c r="B9" s="96" t="s">
         <v>157</v>
       </c>
-      <c r="C9" s="206">
+      <c r="C9" s="200">
         <f>1*(1-B4)+(1+D4)*(B4)</f>
         <v>1.8960000000000001</v>
       </c>
-      <c r="D9" s="207"/>
+      <c r="D9" s="201"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/Brainstorm.xlsx
+++ b/Brainstorm.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Personal@SSD\Game\DL\dragalia-data-track\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FF584EC-869D-4DC5-BEB4-4F355483402C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B36A24F-1853-4806-B227-5294F2CAC183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9735" yWindow="1170" windowWidth="23205" windowHeight="13545" activeTab="5" xr2:uid="{4CFB4A6A-60C6-4091-BCA5-480044B61D33}"/>
+    <workbookView xWindow="29520" yWindow="2550" windowWidth="21600" windowHeight="11385" xr2:uid="{4CFB4A6A-60C6-4091-BCA5-480044B61D33}"/>
   </bookViews>
   <sheets>
     <sheet name="Rotation" sheetId="8" r:id="rId1"/>
@@ -351,12 +351,6 @@
     <t>長銃</t>
   </si>
   <si>
-    <t>短銃</t>
-  </si>
-  <si>
-    <t>散銃</t>
-  </si>
-  <si>
     <t>EX</t>
   </si>
   <si>
@@ -657,6 +651,12 @@
   </si>
   <si>
     <t>馬斯</t>
+  </si>
+  <si>
+    <t>機關</t>
+  </si>
+  <si>
+    <t>散彈</t>
   </si>
 </sst>
 </file>
@@ -2262,8 +2262,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B260D6A6-975E-4594-902D-33C279C7CA35}">
   <dimension ref="A1:Y13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2282,7 +2282,7 @@
   <sheetData>
     <row r="1" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="131" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B1" s="132"/>
       <c r="C1" s="132"/>
@@ -2291,7 +2291,7 @@
       <c r="F1" s="132"/>
       <c r="G1" s="133"/>
       <c r="H1" s="131" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I1" s="132"/>
       <c r="J1" s="132"/>
@@ -2300,19 +2300,19 @@
       <c r="M1" s="132"/>
       <c r="N1" s="133"/>
       <c r="O1" s="134" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="P1" s="135"/>
       <c r="Q1" s="125" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="R1" s="126"/>
       <c r="S1" s="127" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="T1" s="128"/>
       <c r="U1" s="129" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="V1" s="130"/>
     </row>
@@ -2321,19 +2321,19 @@
         <v>16</v>
       </c>
       <c r="B2" s="62" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" s="62" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2" s="62" t="s">
         <v>105</v>
       </c>
-      <c r="C2" s="62" t="s">
+      <c r="E2" s="62" t="s">
         <v>106</v>
       </c>
-      <c r="D2" s="62" t="s">
+      <c r="F2" s="62" t="s">
         <v>107</v>
-      </c>
-      <c r="E2" s="62" t="s">
-        <v>108</v>
-      </c>
-      <c r="F2" s="62" t="s">
-        <v>109</v>
       </c>
       <c r="G2" s="63" t="s">
         <v>39</v>
@@ -2342,45 +2342,45 @@
         <v>16</v>
       </c>
       <c r="I2" s="62" t="s">
+        <v>103</v>
+      </c>
+      <c r="J2" s="62" t="s">
+        <v>104</v>
+      </c>
+      <c r="K2" s="62" t="s">
         <v>105</v>
       </c>
-      <c r="J2" s="62" t="s">
+      <c r="L2" s="62" t="s">
         <v>106</v>
       </c>
-      <c r="K2" s="62" t="s">
+      <c r="M2" s="62" t="s">
         <v>107</v>
-      </c>
-      <c r="L2" s="62" t="s">
-        <v>108</v>
-      </c>
-      <c r="M2" s="62" t="s">
-        <v>109</v>
       </c>
       <c r="N2" s="63" t="s">
         <v>39</v>
       </c>
       <c r="O2" s="72" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="P2" s="73">
         <v>0</v>
       </c>
       <c r="Q2" s="59" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="R2" s="66">
-        <v>0.23</v>
+        <v>0.15</v>
       </c>
       <c r="S2" s="60" t="s">
         <v>9</v>
       </c>
       <c r="T2" s="12"/>
       <c r="U2" s="68" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="V2" s="69">
         <f>VLOOKUP(T3,$H$3:$M$13,6,FALSE)</f>
-        <v>2911.9999999999995</v>
+        <v>2064</v>
       </c>
       <c r="X2" s="57" t="s">
         <v>40</v>
@@ -2416,27 +2416,27 @@
       </c>
       <c r="I3" s="61">
         <f>B3 * (1+SUM($R:$R))</f>
-        <v>273</v>
+        <v>193.5</v>
       </c>
       <c r="J3" s="61">
         <f t="shared" ref="J3:J13" si="0">C3 * (1+SUM($R:$R))</f>
-        <v>546</v>
+        <v>387</v>
       </c>
       <c r="K3" s="61">
         <f t="shared" ref="K3:M10" si="1">D3 * (1+SUM($R:$R))</f>
-        <v>902.71999999999991</v>
+        <v>639.84</v>
       </c>
       <c r="L3" s="61">
         <f t="shared" si="1"/>
-        <v>1385.02</v>
+        <v>981.69</v>
       </c>
       <c r="M3" s="61">
         <f t="shared" si="1"/>
-        <v>2096.64</v>
+        <v>1486.08</v>
       </c>
       <c r="N3" s="58">
         <f t="shared" ref="N3:N13" si="2">G3 * (1+SUM($R:$R))</f>
-        <v>627.9</v>
+        <v>445.05</v>
       </c>
       <c r="O3" s="72" t="s">
         <v>17</v>
@@ -2448,7 +2448,7 @@
         <v>17</v>
       </c>
       <c r="R3" s="66">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="S3" s="60" t="s">
         <v>77</v>
@@ -2457,22 +2457,22 @@
         <v>29</v>
       </c>
       <c r="U3" s="68" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="V3" s="69">
         <f>MOD(T6, V2)</f>
-        <v>613.00000000000045</v>
+        <v>672</v>
       </c>
       <c r="W3" s="57" t="s">
         <v>39</v>
       </c>
       <c r="X3" s="57" t="b">
         <f>AND(V3 &gt; 0, V3 &lt;= VLOOKUP($T$3,$H$3:$N$13,7,FALSE))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y3" s="57" t="b">
         <f>AND(V4 &gt; 0, V4 &lt;= VLOOKUP($T$3,$H$3:$N$13,7,FALSE))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2502,55 +2502,55 @@
       </c>
       <c r="I4" s="61">
         <f t="shared" ref="I4:I13" si="3">B4 * (1+SUM($R:$R))</f>
-        <v>236.59999999999997</v>
+        <v>167.70000000000002</v>
       </c>
       <c r="J4" s="61">
         <f t="shared" si="0"/>
-        <v>473.19999999999993</v>
+        <v>335.40000000000003</v>
       </c>
       <c r="K4" s="61">
         <f t="shared" si="1"/>
-        <v>873.59999999999991</v>
+        <v>619.20000000000005</v>
       </c>
       <c r="L4" s="61">
         <f t="shared" si="1"/>
-        <v>1528.8</v>
+        <v>1083.6000000000001</v>
       </c>
       <c r="M4" s="61">
         <f t="shared" si="1"/>
-        <v>3166.7999999999997</v>
+        <v>2244.6</v>
       </c>
       <c r="N4" s="58">
         <f t="shared" si="2"/>
-        <v>363.99999999999994</v>
+        <v>258</v>
       </c>
       <c r="O4" s="72" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="P4" s="73">
         <v>0</v>
       </c>
       <c r="Q4" s="59" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="R4" s="66">
         <v>0.14000000000000001</v>
       </c>
       <c r="S4" s="60" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="T4" s="13">
-        <v>3525</v>
+        <v>4800</v>
       </c>
       <c r="U4" s="68" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="V4" s="69">
         <f>MOD(T7, V2)</f>
-        <v>2499.0000000000018</v>
+        <v>85</v>
       </c>
       <c r="W4" s="57" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="X4" s="57" t="b">
         <f>AND(V3 &gt; VLOOKUP($T$3,$H$3:$M$13,1,FALSE),V3 &lt;= VLOOKUP($T$3,$H$3:$M$13,2,FALSE))</f>
@@ -2588,55 +2588,55 @@
       </c>
       <c r="I5" s="61">
         <f t="shared" si="3"/>
-        <v>262.08</v>
+        <v>185.76</v>
       </c>
       <c r="J5" s="61">
         <f t="shared" si="0"/>
-        <v>524.16</v>
+        <v>371.52</v>
       </c>
       <c r="K5" s="61">
         <f t="shared" si="1"/>
-        <v>1004.6399999999999</v>
+        <v>712.08</v>
       </c>
       <c r="L5" s="61">
         <f t="shared" si="1"/>
-        <v>1528.8</v>
+        <v>1083.6000000000001</v>
       </c>
       <c r="M5" s="61">
         <f t="shared" si="1"/>
-        <v>2402.3999999999996</v>
+        <v>1702.8</v>
       </c>
       <c r="N5" s="58">
         <f t="shared" si="2"/>
-        <v>524.16</v>
+        <v>371.52</v>
       </c>
       <c r="O5" s="72" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="P5" s="73">
         <v>0</v>
       </c>
       <c r="Q5" s="59" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="R5" s="66">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="S5" s="60" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="T5" s="13">
-        <v>14147</v>
+        <v>8341</v>
       </c>
       <c r="U5" s="70" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="V5" s="71" t="str" cm="1">
         <f t="array" ref="V5">(ROUNDDOWN(T6/V2, 0) + IF(X8,1,0)) &amp; _xlfn.IFS(X3, " + FS", X4, " + C1", X5, " + C2", X6, " + C3", X7, " + C4", TRUE, "")</f>
-        <v>1 + FS</v>
+        <v>2 + C3</v>
       </c>
       <c r="W5" s="57" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="X5" s="57" t="b">
         <f>AND(V3&gt;VLOOKUP($T$3,$H$3:$M$13,2,FALSE),V3&lt;=VLOOKUP($T$3,$H$3:$M$13,3,FALSE))</f>
@@ -2674,44 +2674,44 @@
       </c>
       <c r="I6" s="61">
         <f t="shared" si="3"/>
-        <v>363.99999999999994</v>
+        <v>258</v>
       </c>
       <c r="J6" s="61">
         <f t="shared" si="0"/>
-        <v>800.8</v>
+        <v>567.6</v>
       </c>
       <c r="K6" s="61">
         <f t="shared" si="1"/>
-        <v>1455.9999999999998</v>
+        <v>1032</v>
       </c>
       <c r="L6" s="61">
         <f t="shared" si="1"/>
-        <v>2147.6</v>
+        <v>1522.2</v>
       </c>
       <c r="M6" s="61">
         <f t="shared" si="1"/>
-        <v>2911.9999999999995</v>
+        <v>2064</v>
       </c>
       <c r="N6" s="58">
         <f t="shared" si="2"/>
-        <v>546</v>
+        <v>387</v>
       </c>
       <c r="S6" s="75" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="T6" s="76">
         <f>T4 * (1 - SUM(P:P))</f>
-        <v>3525</v>
+        <v>4800</v>
       </c>
       <c r="U6" s="77" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="V6" s="71" t="str" cm="1">
         <f t="array" ref="V6">(ROUNDDOWN(T7/V2, 0) + IF(Y8,1,0)) &amp; _xlfn.IFS(Y3, " + FS", Y4, " + C1", Y5, " + C2", Y6, " + C3", Y7, " + C4", TRUE, "")</f>
-        <v>5</v>
+        <v>4 + FS</v>
       </c>
       <c r="W6" s="57" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="X6" s="57" t="b">
         <f>AND(V3 &gt; VLOOKUP($T$3,$H$3:$M$13,3,FALSE),V3 &lt;= VLOOKUP($T$3,$H$3:$M$13,4,FALSE))</f>
@@ -2749,37 +2749,37 @@
       </c>
       <c r="I7" s="61">
         <f t="shared" si="3"/>
-        <v>218.39999999999998</v>
+        <v>154.80000000000001</v>
       </c>
       <c r="J7" s="61">
         <f t="shared" si="0"/>
-        <v>655.19999999999993</v>
+        <v>464.40000000000003</v>
       </c>
       <c r="K7" s="61">
         <f t="shared" si="1"/>
-        <v>873.59999999999991</v>
+        <v>619.20000000000005</v>
       </c>
       <c r="L7" s="61">
         <f t="shared" si="1"/>
-        <v>1747.1999999999998</v>
+        <v>1238.4000000000001</v>
       </c>
       <c r="M7" s="61">
         <f t="shared" si="1"/>
-        <v>2839.2</v>
+        <v>2012.4</v>
       </c>
       <c r="N7" s="58">
         <f t="shared" si="2"/>
-        <v>727.99999999999989</v>
+        <v>516</v>
       </c>
       <c r="S7" s="75" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="T7" s="76">
         <f>T5 * (1 - SUM(P:P))</f>
-        <v>14147</v>
+        <v>8341</v>
       </c>
       <c r="W7" s="57" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="X7" s="57" t="b">
         <f>AND(V3 &gt; VLOOKUP($T$3,$H$3:$M$13,4,FALSE),V3 &lt;= VLOOKUP($T$3,$H$3:$M$13,5,FALSE))</f>
@@ -2817,30 +2817,30 @@
       </c>
       <c r="I8" s="61">
         <f t="shared" si="3"/>
-        <v>334.88</v>
+        <v>237.36</v>
       </c>
       <c r="J8" s="61">
         <f t="shared" si="0"/>
-        <v>502.31999999999994</v>
+        <v>356.04</v>
       </c>
       <c r="K8" s="61">
         <f t="shared" si="1"/>
-        <v>1004.6399999999999</v>
+        <v>712.08</v>
       </c>
       <c r="L8" s="61">
         <f t="shared" si="1"/>
-        <v>1758.12</v>
+        <v>1246.1400000000001</v>
       </c>
       <c r="M8" s="61">
         <f t="shared" si="1"/>
-        <v>2720.8999999999996</v>
+        <v>1928.55</v>
       </c>
       <c r="N8" s="58">
         <f t="shared" si="2"/>
-        <v>837.19999999999993</v>
+        <v>593.4</v>
       </c>
       <c r="W8" s="57" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="X8" s="57" t="b">
         <f>V3&gt;VLOOKUP($T$3,$H$3:$M$13,5,FALSE)</f>
@@ -2848,7 +2848,7 @@
       </c>
       <c r="Y8" s="57" t="b">
         <f>V4&gt;VLOOKUP($T$3,$H$3:$M$13,5,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2878,27 +2878,27 @@
       </c>
       <c r="I9" s="61">
         <f t="shared" si="3"/>
-        <v>236.59999999999997</v>
+        <v>167.70000000000002</v>
       </c>
       <c r="J9" s="61">
         <f t="shared" si="0"/>
-        <v>600.59999999999991</v>
+        <v>425.7</v>
       </c>
       <c r="K9" s="61">
         <f t="shared" si="1"/>
-        <v>1037.3999999999999</v>
+        <v>735.30000000000007</v>
       </c>
       <c r="L9" s="61">
         <f t="shared" si="1"/>
-        <v>1819.9999999999998</v>
+        <v>1290</v>
       </c>
       <c r="M9" s="61">
         <f t="shared" si="1"/>
-        <v>2911.9999999999995</v>
+        <v>2064</v>
       </c>
       <c r="N9" s="58">
         <f t="shared" si="2"/>
-        <v>727.99999999999989</v>
+        <v>516</v>
       </c>
       <c r="W9" s="57"/>
       <c r="X9" s="57"/>
@@ -2931,27 +2931,27 @@
       </c>
       <c r="I10" s="61">
         <f t="shared" si="3"/>
-        <v>422.23999999999995</v>
+        <v>299.28000000000003</v>
       </c>
       <c r="J10" s="61">
         <f t="shared" si="0"/>
-        <v>844.4799999999999</v>
+        <v>598.56000000000006</v>
       </c>
       <c r="K10" s="61">
         <f t="shared" si="1"/>
-        <v>1477.84</v>
+        <v>1047.48</v>
       </c>
       <c r="L10" s="61">
         <f t="shared" si="1"/>
-        <v>2322.3199999999997</v>
+        <v>1646.04</v>
       </c>
       <c r="M10" s="61">
         <f t="shared" si="1"/>
-        <v>3589.0399999999995</v>
+        <v>2543.88</v>
       </c>
       <c r="N10" s="58">
         <f t="shared" si="2"/>
-        <v>1055.5999999999999</v>
+        <v>748.2</v>
       </c>
     </row>
     <row r="11" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2975,29 +2975,29 @@
       </c>
       <c r="I11" s="61">
         <f t="shared" si="3"/>
-        <v>991.89999999999986</v>
+        <v>703.05000000000007</v>
       </c>
       <c r="J11" s="61">
         <f t="shared" si="0"/>
-        <v>1983.7999999999997</v>
+        <v>1406.1000000000001</v>
       </c>
       <c r="K11" s="61"/>
       <c r="L11" s="61"/>
       <c r="M11" s="61"/>
       <c r="N11" s="58">
         <f t="shared" si="2"/>
-        <v>727.99999999999989</v>
+        <v>516</v>
       </c>
     </row>
     <row r="12" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>85</v>
+        <v>186</v>
       </c>
       <c r="B12" s="61">
-        <v>464</v>
+        <v>340</v>
       </c>
       <c r="C12" s="61">
-        <v>928</v>
+        <v>680</v>
       </c>
       <c r="D12" s="61"/>
       <c r="E12" s="61"/>
@@ -3006,62 +3006,62 @@
         <v>400</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>85</v>
+        <v>186</v>
       </c>
       <c r="I12" s="61">
         <f t="shared" si="3"/>
-        <v>844.4799999999999</v>
+        <v>438.6</v>
       </c>
       <c r="J12" s="61">
         <f t="shared" si="0"/>
-        <v>1688.9599999999998</v>
+        <v>877.2</v>
       </c>
       <c r="K12" s="61"/>
       <c r="L12" s="61"/>
       <c r="M12" s="61"/>
       <c r="N12" s="58">
         <f t="shared" si="2"/>
-        <v>727.99999999999989</v>
+        <v>516</v>
       </c>
     </row>
     <row r="13" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>86</v>
+        <v>185</v>
       </c>
       <c r="B13" s="61">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="C13" s="61">
-        <v>764</v>
+        <v>400</v>
       </c>
       <c r="D13" s="61">
-        <v>1228</v>
+        <v>600</v>
       </c>
       <c r="E13" s="61"/>
       <c r="F13" s="61"/>
       <c r="G13" s="58">
-        <v>400</v>
+        <v>90</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>86</v>
+        <v>185</v>
       </c>
       <c r="I13" s="61">
         <f t="shared" si="3"/>
-        <v>546</v>
+        <v>258</v>
       </c>
       <c r="J13" s="61">
         <f t="shared" si="0"/>
-        <v>1390.4799999999998</v>
+        <v>516</v>
       </c>
       <c r="K13" s="61">
         <f>D13 * (1+SUM($R:$R))</f>
-        <v>2234.9599999999996</v>
+        <v>774</v>
       </c>
       <c r="L13" s="61"/>
       <c r="M13" s="61"/>
       <c r="N13" s="58">
         <f t="shared" si="2"/>
-        <v>727.99999999999989</v>
+        <v>116.10000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -3287,19 +3287,19 @@
   <sheetData>
     <row r="1" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>118</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>33</v>
@@ -3336,25 +3336,25 @@
         <v>17</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>17</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3362,25 +3362,25 @@
         <v>18</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G4" s="10" t="s">
         <v>18</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3388,25 +3388,25 @@
         <v>19</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G5" s="10" t="s">
         <v>19</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3414,25 +3414,25 @@
         <v>20</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G6" s="10" t="s">
         <v>20</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3440,25 +3440,25 @@
         <v>21</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G7" s="12" t="s">
         <v>21</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3466,25 +3466,25 @@
         <v>22</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G8" s="12" t="s">
         <v>22</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3544,25 +3544,25 @@
         <v>25</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G11" s="16" t="s">
         <v>25</v>
       </c>
       <c r="H11" s="17" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I11" s="17" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3612,25 +3612,25 @@
         <v>31</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>31</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3638,25 +3638,25 @@
         <v>32</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>32</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3667,10 +3667,10 @@
     </row>
     <row r="18" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B18" s="137" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C18" s="137"/>
       <c r="D18" s="137"/>
@@ -3678,10 +3678,10 @@
     </row>
     <row r="19" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B19" s="136" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C19" s="137"/>
       <c r="D19" s="137"/>
@@ -3689,10 +3689,10 @@
     </row>
     <row r="20" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B20" s="136" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C20" s="137"/>
       <c r="D20" s="137"/>
@@ -3733,19 +3733,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="79" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D1" s="79" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>142</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:24" s="6" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3792,7 +3792,7 @@
     </row>
     <row r="4" spans="1:24" s="6" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -3859,7 +3859,7 @@
     </row>
     <row r="7" spans="1:24" s="8" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -3889,10 +3889,10 @@
         <v>38</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="N8" s="9" t="s">
         <v>35</v>
@@ -3927,7 +3927,7 @@
     </row>
     <row r="10" spans="1:24" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -3958,10 +3958,10 @@
         <v>38</v>
       </c>
       <c r="I11" s="15" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J11" s="15" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="N11" s="15" t="s">
         <v>35</v>
@@ -3995,7 +3995,7 @@
     </row>
     <row r="13" spans="1:24" s="15" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -4003,7 +4003,7 @@
     </row>
     <row r="14" spans="1:24" s="4" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -4040,15 +4040,15 @@
       </c>
       <c r="B1" s="145"/>
       <c r="C1" s="148" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D1" s="149"/>
       <c r="E1" s="148" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F1" s="149"/>
       <c r="G1" s="148" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H1" s="149"/>
     </row>
@@ -4695,19 +4695,19 @@
     </row>
     <row r="30" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C30" s="20" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D30" s="20">
         <v>11704</v>
       </c>
       <c r="E30" s="20" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F30" s="20">
         <v>38700</v>
       </c>
       <c r="G30" s="20" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H30" s="20">
         <v>38700</v>
@@ -4768,7 +4768,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30DD32DD-C8F1-4E13-B59E-D06F7BB09858}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
@@ -4782,13 +4782,13 @@
   <sheetData>
     <row r="1" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C1" s="81" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D1" s="81" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E1" s="98" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="82" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4796,7 +4796,7 @@
         <v>60</v>
       </c>
       <c r="B2" s="82" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C2" s="83">
         <v>0.55000000000000004</v>
@@ -4810,7 +4810,7 @@
     </row>
     <row r="3" spans="1:5" s="82" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="82" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C3" s="188">
         <v>0.2</v>
@@ -4820,7 +4820,7 @@
     </row>
     <row r="4" spans="1:5" s="121" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="121" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C4" s="196">
         <v>0</v>
@@ -4830,7 +4830,7 @@
     </row>
     <row r="5" spans="1:5" s="103" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="103" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C5" s="102">
         <v>0</v>
@@ -4844,10 +4844,10 @@
     </row>
     <row r="6" spans="1:5" s="84" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="84" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B6" s="84" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C6" s="85">
         <v>0.6</v>
@@ -4861,7 +4861,7 @@
     </row>
     <row r="7" spans="1:5" s="84" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="84" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C7" s="193">
         <v>0.55000000000000004</v>
@@ -4871,7 +4871,7 @@
     </row>
     <row r="8" spans="1:5" s="84" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="84" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C8" s="193">
         <v>0</v>
@@ -4881,7 +4881,7 @@
     </row>
     <row r="9" spans="1:5" s="100" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="100" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C9" s="99">
         <v>0</v>
@@ -4895,10 +4895,10 @@
     </row>
     <row r="10" spans="1:5" s="86" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="86" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B10" s="86" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C10" s="87">
         <v>0</v>
@@ -4912,7 +4912,7 @@
     </row>
     <row r="11" spans="1:5" s="86" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="86" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C11" s="194">
         <v>0</v>
@@ -4922,7 +4922,7 @@
     </row>
     <row r="12" spans="1:5" s="86" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="86" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C12" s="192">
         <v>0.5</v>
@@ -4932,10 +4932,10 @@
     </row>
     <row r="13" spans="1:5" s="88" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="88" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B13" s="88" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C13" s="191">
         <v>0</v>
@@ -4945,7 +4945,7 @@
     </row>
     <row r="14" spans="1:5" s="122" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="122" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C14" s="191">
         <v>0</v>
@@ -4955,7 +4955,7 @@
     </row>
     <row r="15" spans="1:5" s="88" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="88" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C15" s="191">
         <v>0</v>
@@ -4965,10 +4965,10 @@
     </row>
     <row r="16" spans="1:5" s="89" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="89" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B16" s="89" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C16" s="189">
         <v>1</v>
@@ -4978,7 +4978,7 @@
     </row>
     <row r="17" spans="1:5" s="89" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="89" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C17" s="190">
         <v>1</v>
@@ -4988,10 +4988,10 @@
     </row>
     <row r="18" spans="1:5" s="90" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="90" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B18" s="90" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C18" s="92">
         <f t="shared" ref="C18" si="0">(1+C2+$C3)*(1+$C4+C5)*(1+C10+$C11+$C12)*(1+$C13)*$C16</f>
@@ -5026,7 +5026,7 @@
     </row>
     <row r="20" spans="1:5" s="90" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="90" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C20" s="92">
         <f>(1+C2+$C3)*(1+$C4+C5)*(1+C6+$C7+$C14)*(1+$C8+C9)*(1+C10+$C11+$C12)*(1+$C15)*$C17</f>
@@ -5083,7 +5083,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="J15:J16"/>
+      <selection activeCell="C9" sqref="A1:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5105,46 +5105,46 @@
     </row>
     <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="72" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B2" s="94">
         <v>0.12</v>
       </c>
       <c r="C2" s="63" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D2" s="95">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="72" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B3" s="94">
-        <v>0.44</v>
+        <v>0</v>
       </c>
       <c r="C3" s="63" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D3" s="95">
-        <v>0.3</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="72" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B4" s="94">
         <f>B2+B3</f>
-        <v>0.56000000000000005</v>
+        <v>0.12</v>
       </c>
       <c r="C4" s="63" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D4" s="95">
         <f>D2+D3</f>
-        <v>1.6</v>
+        <v>2.15</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5155,60 +5155,60 @@
         <v>42</v>
       </c>
       <c r="C5" s="202" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D5" s="203"/>
     </row>
     <row r="6" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B6" s="65" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C6" s="200">
         <f>1*(1-B2)+(1+D2)*(B2)</f>
-        <v>1.1559999999999999</v>
+        <v>1.204</v>
       </c>
       <c r="D6" s="201"/>
     </row>
     <row r="7" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B7" s="96" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C7" s="200">
         <f>1*(1-B2)+(1+D4)*(B2)</f>
-        <v>1.1919999999999999</v>
+        <v>1.258</v>
       </c>
       <c r="D7" s="201"/>
     </row>
     <row r="8" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="96" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B8" s="65" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C8" s="200">
         <f>1*(1-B4)+(1+D2)*(B4)</f>
-        <v>1.728</v>
+        <v>1.204</v>
       </c>
       <c r="D8" s="201"/>
       <c r="F8" s="97"/>
     </row>
     <row r="9" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="96" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B9" s="96" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C9" s="200">
         <f>1*(1-B4)+(1+D4)*(B4)</f>
-        <v>1.8960000000000001</v>
+        <v>1.258</v>
       </c>
       <c r="D9" s="201"/>
     </row>
@@ -5252,42 +5252,42 @@
   <sheetData>
     <row r="1" spans="1:12" s="104" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="111" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B1" s="111">
         <v>3</v>
       </c>
       <c r="D1" s="111" t="s">
+        <v>163</v>
+      </c>
+      <c r="E1" s="111" t="s">
+        <v>164</v>
+      </c>
+      <c r="F1" s="111" t="s">
         <v>165</v>
       </c>
-      <c r="E1" s="111" t="s">
+      <c r="G1" s="111" t="s">
+        <v>177</v>
+      </c>
+      <c r="H1" s="111" t="s">
         <v>166</v>
       </c>
-      <c r="F1" s="111" t="s">
-        <v>167</v>
-      </c>
-      <c r="G1" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="H1" s="111" t="s">
-        <v>168</v>
-      </c>
       <c r="I1" s="111" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="J1" s="112" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K1" s="116" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L1" s="118" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="111" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B2" s="113">
         <v>0.09</v>
@@ -5330,7 +5330,7 @@
     </row>
     <row r="3" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="111" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B3" s="105">
         <v>12.2</v>
@@ -5374,7 +5374,7 @@
     </row>
     <row r="4" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="111" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B4" s="113">
         <v>0.3</v>
@@ -5456,7 +5456,7 @@
     </row>
     <row r="6" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="104" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B6" s="97">
         <f>B2*B4</f>
@@ -5539,7 +5539,7 @@
     </row>
     <row r="8" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="65" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B8" s="114">
         <v>3.9</v>
@@ -5584,7 +5584,7 @@
     </row>
     <row r="9" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="65" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B9" s="115">
         <v>0.06</v>
@@ -5628,7 +5628,7 @@
     </row>
     <row r="10" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="65" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B10" s="115">
         <v>0.3</v>
@@ -5711,7 +5711,7 @@
     </row>
     <row r="12" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="104" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B12" s="97">
         <f>B9*(1-B10)</f>
@@ -5756,7 +5756,7 @@
     </row>
     <row r="13" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="104" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B13" s="110">
         <f>B12/B8</f>

--- a/Brainstorm.xlsx
+++ b/Brainstorm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Personal@SSD\Game\DL\dragalia-data-track\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B36A24F-1853-4806-B227-5294F2CAC183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C841F3E5-3F5C-4C27-AB0F-24304464F4AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29520" yWindow="2550" windowWidth="21600" windowHeight="11385" xr2:uid="{4CFB4A6A-60C6-4091-BCA5-480044B61D33}"/>
+    <workbookView xWindow="29250" yWindow="2490" windowWidth="24690" windowHeight="11385" activeTab="4" xr2:uid="{4CFB4A6A-60C6-4091-BCA5-480044B61D33}"/>
   </bookViews>
   <sheets>
     <sheet name="Rotation" sheetId="8" r:id="rId1"/>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="190">
   <si>
     <t>睡抗</t>
   </si>
@@ -259,9 +259,6 @@
   </si>
   <si>
     <t>傷害計算</t>
-  </si>
-  <si>
-    <t>項目(技傷簡化版)</t>
   </si>
   <si>
     <t>攻擊BUFF</t>
@@ -506,9 +503,6 @@
     <t>切 &gt; S2 &gt; S3 &gt; S4 &gt; FS &gt; S4 &gt; S2 &gt; S3</t>
   </si>
   <si>
-    <t>Actual</t>
-  </si>
-  <si>
     <t>三葉 C</t>
   </si>
   <si>
@@ -527,15 +521,6 @@
     <t>P2</t>
   </si>
   <si>
-    <t>Cassandra</t>
-  </si>
-  <si>
-    <t>Yuya</t>
-  </si>
-  <si>
-    <t>Serena</t>
-  </si>
-  <si>
     <t>龍 被動</t>
   </si>
   <si>
@@ -644,32 +629,58 @@
     <t>傷害 +</t>
   </si>
   <si>
-    <t>R70/牛</t>
-  </si>
-  <si>
-    <t>黑炎</t>
-  </si>
-  <si>
-    <t>馬斯</t>
-  </si>
-  <si>
     <t>機關</t>
   </si>
   <si>
     <t>散彈</t>
+  </si>
+  <si>
+    <t>勇</t>
+  </si>
+  <si>
+    <t>亞森</t>
+  </si>
+  <si>
+    <t>x42</t>
+  </si>
+  <si>
+    <t>x1E</t>
+  </si>
+  <si>
+    <t>eKai: B=42 (AC?)</t>
+  </si>
+  <si>
+    <t>sAsura: P</t>
+  </si>
+  <si>
+    <t>eKai B=47 (1E+, XP)</t>
+  </si>
+  <si>
+    <t>eKai OG: R=0.95</t>
+  </si>
+  <si>
+    <t>eKai OG: R=1.05</t>
+  </si>
+  <si>
+    <t>eKai: 73M NB, R=1.05</t>
+  </si>
+  <si>
+    <t>eKai: 73M NB, R=0.95</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="[Color50]\+0.00%;[Red]\-0.00%;0.00%"/>
     <numFmt numFmtId="165" formatCode="0.000%"/>
     <numFmt numFmtId="166" formatCode="0.0000%"/>
     <numFmt numFmtId="167" formatCode="\+0.00%;\-0.00%"/>
+    <numFmt numFmtId="168" formatCode="0.0000"/>
+    <numFmt numFmtId="169" formatCode="0.000"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -765,6 +776,36 @@
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="7" tint="0.59999389629810485"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="7" tint="0.59999389629810485"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="5" tint="0.59999389629810485"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5" tint="0.59999389629810485"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="46">
@@ -1299,7 +1340,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="204">
+  <cellXfs count="212">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1592,9 +1633,6 @@
     <xf numFmtId="10" fontId="2" fillId="44" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="39" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="2" fillId="33" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1658,19 +1696,34 @@
     <xf numFmtId="2" fontId="2" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="43" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="33" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="2" fillId="44" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="44" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="16" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="18" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="41" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1715,6 +1768,36 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="15" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="15" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="4" fontId="5" fillId="23" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1730,136 +1813,118 @@
     <xf numFmtId="4" fontId="5" fillId="28" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="4" fontId="5" fillId="30" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="30" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="30" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="32" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="32" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="35" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="35" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="17" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="17" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="21" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="21" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="21" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="21" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="30" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="30" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="30" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="32" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="32" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="35" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="35" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1919,6 +1984,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF483000"/>
       <color rgb="FF003217"/>
       <color rgb="FF320000"/>
       <color rgb="FF323232"/>
@@ -1928,7 +1994,6 @@
       <color rgb="FF1B0C26"/>
       <color rgb="FF000C24"/>
       <color rgb="FF242300"/>
-      <color rgb="FF140000"/>
     </mruColors>
   </colors>
   <extLst>
@@ -2262,8 +2327,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B260D6A6-975E-4594-902D-33C279C7CA35}">
   <dimension ref="A1:Y13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2281,59 +2346,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="131" t="s">
+      <c r="A1" s="135" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" s="136"/>
+      <c r="C1" s="136"/>
+      <c r="D1" s="136"/>
+      <c r="E1" s="136"/>
+      <c r="F1" s="136"/>
+      <c r="G1" s="137"/>
+      <c r="H1" s="135" t="s">
+        <v>90</v>
+      </c>
+      <c r="I1" s="136"/>
+      <c r="J1" s="136"/>
+      <c r="K1" s="136"/>
+      <c r="L1" s="136"/>
+      <c r="M1" s="136"/>
+      <c r="N1" s="137"/>
+      <c r="O1" s="138" t="s">
+        <v>93</v>
+      </c>
+      <c r="P1" s="139"/>
+      <c r="Q1" s="129" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="132"/>
-      <c r="C1" s="132"/>
-      <c r="D1" s="132"/>
-      <c r="E1" s="132"/>
-      <c r="F1" s="132"/>
-      <c r="G1" s="133"/>
-      <c r="H1" s="131" t="s">
-        <v>91</v>
-      </c>
-      <c r="I1" s="132"/>
-      <c r="J1" s="132"/>
-      <c r="K1" s="132"/>
-      <c r="L1" s="132"/>
-      <c r="M1" s="132"/>
-      <c r="N1" s="133"/>
-      <c r="O1" s="134" t="s">
-        <v>94</v>
-      </c>
-      <c r="P1" s="135"/>
-      <c r="Q1" s="125" t="s">
-        <v>93</v>
-      </c>
-      <c r="R1" s="126"/>
-      <c r="S1" s="127" t="s">
+      <c r="R1" s="130"/>
+      <c r="S1" s="131" t="s">
+        <v>87</v>
+      </c>
+      <c r="T1" s="132"/>
+      <c r="U1" s="133" t="s">
         <v>88</v>
       </c>
-      <c r="T1" s="128"/>
-      <c r="U1" s="129" t="s">
-        <v>89</v>
-      </c>
-      <c r="V1" s="130"/>
+      <c r="V1" s="134"/>
     </row>
     <row r="2" spans="1:25" s="57" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="64" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="62" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" s="62" t="s">
         <v>103</v>
       </c>
-      <c r="C2" s="62" t="s">
+      <c r="D2" s="62" t="s">
         <v>104</v>
       </c>
-      <c r="D2" s="62" t="s">
+      <c r="E2" s="62" t="s">
         <v>105</v>
       </c>
-      <c r="E2" s="62" t="s">
+      <c r="F2" s="62" t="s">
         <v>106</v>
-      </c>
-      <c r="F2" s="62" t="s">
-        <v>107</v>
       </c>
       <c r="G2" s="63" t="s">
         <v>39</v>
@@ -2342,31 +2407,31 @@
         <v>16</v>
       </c>
       <c r="I2" s="62" t="s">
+        <v>102</v>
+      </c>
+      <c r="J2" s="62" t="s">
         <v>103</v>
       </c>
-      <c r="J2" s="62" t="s">
+      <c r="K2" s="62" t="s">
         <v>104</v>
       </c>
-      <c r="K2" s="62" t="s">
+      <c r="L2" s="62" t="s">
         <v>105</v>
       </c>
-      <c r="L2" s="62" t="s">
+      <c r="M2" s="62" t="s">
         <v>106</v>
-      </c>
-      <c r="M2" s="62" t="s">
-        <v>107</v>
       </c>
       <c r="N2" s="63" t="s">
         <v>39</v>
       </c>
       <c r="O2" s="72" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P2" s="73">
         <v>0</v>
       </c>
       <c r="Q2" s="59" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="R2" s="66">
         <v>0.15</v>
@@ -2376,11 +2441,11 @@
       </c>
       <c r="T2" s="12"/>
       <c r="U2" s="68" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="V2" s="69">
         <f>VLOOKUP(T3,$H$3:$M$13,6,FALSE)</f>
-        <v>2064</v>
+        <v>1719.2499999999998</v>
       </c>
       <c r="X2" s="57" t="s">
         <v>40</v>
@@ -2391,7 +2456,7 @@
     </row>
     <row r="3" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B3" s="61">
         <v>150</v>
@@ -2412,31 +2477,31 @@
         <v>345</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I3" s="61">
         <f>B3 * (1+SUM($R:$R))</f>
-        <v>193.5</v>
+        <v>172.5</v>
       </c>
       <c r="J3" s="61">
         <f t="shared" ref="J3:J13" si="0">C3 * (1+SUM($R:$R))</f>
-        <v>387</v>
+        <v>345</v>
       </c>
       <c r="K3" s="61">
         <f t="shared" ref="K3:M10" si="1">D3 * (1+SUM($R:$R))</f>
-        <v>639.84</v>
+        <v>570.4</v>
       </c>
       <c r="L3" s="61">
         <f t="shared" si="1"/>
-        <v>981.69</v>
+        <v>875.15</v>
       </c>
       <c r="M3" s="61">
         <f t="shared" si="1"/>
-        <v>1486.08</v>
+        <v>1324.8</v>
       </c>
       <c r="N3" s="58">
         <f t="shared" ref="N3:N13" si="2">G3 * (1+SUM($R:$R))</f>
-        <v>445.05</v>
+        <v>396.74999999999994</v>
       </c>
       <c r="O3" s="72" t="s">
         <v>17</v>
@@ -2451,24 +2516,24 @@
         <v>0</v>
       </c>
       <c r="S3" s="60" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="T3" s="13" t="s">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="U3" s="68" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="V3" s="69">
         <f>MOD(T6, V2)</f>
-        <v>672</v>
+        <v>263.00000000000091</v>
       </c>
       <c r="W3" s="57" t="s">
         <v>39</v>
       </c>
       <c r="X3" s="57" t="b">
         <f>AND(V3 &gt; 0, V3 &lt;= VLOOKUP($T$3,$H$3:$N$13,7,FALSE))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y3" s="57" t="b">
         <f>AND(V4 &gt; 0, V4 &lt;= VLOOKUP($T$3,$H$3:$N$13,7,FALSE))</f>
@@ -2502,55 +2567,55 @@
       </c>
       <c r="I4" s="61">
         <f t="shared" ref="I4:I13" si="3">B4 * (1+SUM($R:$R))</f>
-        <v>167.70000000000002</v>
+        <v>149.5</v>
       </c>
       <c r="J4" s="61">
         <f t="shared" si="0"/>
-        <v>335.40000000000003</v>
+        <v>299</v>
       </c>
       <c r="K4" s="61">
         <f t="shared" si="1"/>
-        <v>619.20000000000005</v>
+        <v>552</v>
       </c>
       <c r="L4" s="61">
         <f t="shared" si="1"/>
-        <v>1083.6000000000001</v>
+        <v>965.99999999999989</v>
       </c>
       <c r="M4" s="61">
         <f t="shared" si="1"/>
-        <v>2244.6</v>
+        <v>2000.9999999999998</v>
       </c>
       <c r="N4" s="58">
         <f t="shared" si="2"/>
-        <v>258</v>
+        <v>229.99999999999997</v>
       </c>
       <c r="O4" s="72" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P4" s="73">
         <v>0</v>
       </c>
       <c r="Q4" s="59" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="R4" s="66">
-        <v>0.14000000000000001</v>
+        <v>0</v>
       </c>
       <c r="S4" s="60" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="T4" s="13">
-        <v>4800</v>
+        <v>7140</v>
       </c>
       <c r="U4" s="68" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="V4" s="69">
         <f>MOD(T7, V2)</f>
-        <v>85</v>
+        <v>393.00000000000182</v>
       </c>
       <c r="W4" s="57" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="X4" s="57" t="b">
         <f>AND(V3 &gt; VLOOKUP($T$3,$H$3:$M$13,1,FALSE),V3 &lt;= VLOOKUP($T$3,$H$3:$M$13,2,FALSE))</f>
@@ -2563,7 +2628,7 @@
     </row>
     <row r="5" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B5" s="61">
         <v>144</v>
@@ -2584,63 +2649,63 @@
         <v>288</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I5" s="61">
         <f t="shared" si="3"/>
-        <v>185.76</v>
+        <v>165.6</v>
       </c>
       <c r="J5" s="61">
         <f t="shared" si="0"/>
-        <v>371.52</v>
+        <v>331.2</v>
       </c>
       <c r="K5" s="61">
         <f t="shared" si="1"/>
-        <v>712.08</v>
+        <v>634.79999999999995</v>
       </c>
       <c r="L5" s="61">
         <f t="shared" si="1"/>
-        <v>1083.6000000000001</v>
+        <v>965.99999999999989</v>
       </c>
       <c r="M5" s="61">
         <f t="shared" si="1"/>
-        <v>1702.8</v>
+        <v>1517.9999999999998</v>
       </c>
       <c r="N5" s="58">
         <f t="shared" si="2"/>
-        <v>371.52</v>
+        <v>331.2</v>
       </c>
       <c r="O5" s="72" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P5" s="73">
         <v>0</v>
       </c>
       <c r="Q5" s="59" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="R5" s="66">
         <v>0</v>
       </c>
       <c r="S5" s="60" t="s">
+        <v>96</v>
+      </c>
+      <c r="T5" s="13">
+        <v>14147</v>
+      </c>
+      <c r="U5" s="70" t="s">
         <v>97</v>
-      </c>
-      <c r="T5" s="13">
-        <v>8341</v>
-      </c>
-      <c r="U5" s="70" t="s">
-        <v>98</v>
       </c>
       <c r="V5" s="71" t="str" cm="1">
         <f t="array" ref="V5">(ROUNDDOWN(T6/V2, 0) + IF(X8,1,0)) &amp; _xlfn.IFS(X3, " + FS", X4, " + C1", X5, " + C2", X6, " + C3", X7, " + C4", TRUE, "")</f>
-        <v>2 + C3</v>
+        <v>4 + FS</v>
       </c>
       <c r="W5" s="57" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="X5" s="57" t="b">
         <f>AND(V3&gt;VLOOKUP($T$3,$H$3:$M$13,2,FALSE),V3&lt;=VLOOKUP($T$3,$H$3:$M$13,3,FALSE))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y5" s="57" t="b">
         <f>AND(V4&gt;=VLOOKUP($T$3,$H$3:$M$13,2,FALSE),V4&lt;VLOOKUP($T$3,$H$3:$M$13,3,FALSE))</f>
@@ -2649,7 +2714,7 @@
     </row>
     <row r="6" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B6" s="61">
         <v>200</v>
@@ -2670,61 +2735,61 @@
         <v>300</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I6" s="61">
         <f t="shared" si="3"/>
-        <v>258</v>
+        <v>229.99999999999997</v>
       </c>
       <c r="J6" s="61">
         <f t="shared" si="0"/>
-        <v>567.6</v>
+        <v>505.99999999999994</v>
       </c>
       <c r="K6" s="61">
         <f t="shared" si="1"/>
-        <v>1032</v>
+        <v>919.99999999999989</v>
       </c>
       <c r="L6" s="61">
         <f t="shared" si="1"/>
-        <v>1522.2</v>
+        <v>1357</v>
       </c>
       <c r="M6" s="61">
         <f t="shared" si="1"/>
-        <v>2064</v>
+        <v>1839.9999999999998</v>
       </c>
       <c r="N6" s="58">
         <f t="shared" si="2"/>
-        <v>387</v>
+        <v>345</v>
       </c>
       <c r="S6" s="75" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="T6" s="76">
         <f>T4 * (1 - SUM(P:P))</f>
-        <v>4800</v>
+        <v>7140</v>
       </c>
       <c r="U6" s="77" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="V6" s="71" t="str" cm="1">
         <f t="array" ref="V6">(ROUNDDOWN(T7/V2, 0) + IF(Y8,1,0)) &amp; _xlfn.IFS(Y3, " + FS", Y4, " + C1", Y5, " + C2", Y6, " + C3", Y7, " + C4", TRUE, "")</f>
-        <v>4 + FS</v>
+        <v>8 + FS</v>
       </c>
       <c r="W6" s="57" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="X6" s="57" t="b">
         <f>AND(V3 &gt; VLOOKUP($T$3,$H$3:$M$13,3,FALSE),V3 &lt;= VLOOKUP($T$3,$H$3:$M$13,4,FALSE))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y6" s="57" t="b">
         <f>AND(V4 &gt; VLOOKUP($T$3,$H$3:$M$13,3,FALSE),V4 &lt;= VLOOKUP($T$3,$H$3:$M$13,4,FALSE))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B7" s="61">
         <v>120</v>
@@ -2745,41 +2810,41 @@
         <v>400</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I7" s="61">
         <f t="shared" si="3"/>
-        <v>154.80000000000001</v>
+        <v>138</v>
       </c>
       <c r="J7" s="61">
         <f t="shared" si="0"/>
-        <v>464.40000000000003</v>
+        <v>413.99999999999994</v>
       </c>
       <c r="K7" s="61">
         <f t="shared" si="1"/>
-        <v>619.20000000000005</v>
+        <v>552</v>
       </c>
       <c r="L7" s="61">
         <f t="shared" si="1"/>
-        <v>1238.4000000000001</v>
+        <v>1104</v>
       </c>
       <c r="M7" s="61">
         <f t="shared" si="1"/>
-        <v>2012.4</v>
+        <v>1793.9999999999998</v>
       </c>
       <c r="N7" s="58">
         <f t="shared" si="2"/>
-        <v>516</v>
+        <v>459.99999999999994</v>
       </c>
       <c r="S7" s="75" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="T7" s="76">
         <f>T5 * (1 - SUM(P:P))</f>
-        <v>8341</v>
+        <v>14147</v>
       </c>
       <c r="W7" s="57" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="X7" s="57" t="b">
         <f>AND(V3 &gt; VLOOKUP($T$3,$H$3:$M$13,4,FALSE),V3 &lt;= VLOOKUP($T$3,$H$3:$M$13,5,FALSE))</f>
@@ -2792,7 +2857,7 @@
     </row>
     <row r="8" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B8" s="61">
         <v>184</v>
@@ -2813,34 +2878,34 @@
         <v>460</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I8" s="61">
         <f t="shared" si="3"/>
-        <v>237.36</v>
+        <v>211.6</v>
       </c>
       <c r="J8" s="61">
         <f t="shared" si="0"/>
-        <v>356.04</v>
+        <v>317.39999999999998</v>
       </c>
       <c r="K8" s="61">
         <f t="shared" si="1"/>
-        <v>712.08</v>
+        <v>634.79999999999995</v>
       </c>
       <c r="L8" s="61">
         <f t="shared" si="1"/>
-        <v>1246.1400000000001</v>
+        <v>1110.8999999999999</v>
       </c>
       <c r="M8" s="61">
         <f t="shared" si="1"/>
-        <v>1928.55</v>
+        <v>1719.2499999999998</v>
       </c>
       <c r="N8" s="58">
         <f t="shared" si="2"/>
-        <v>593.4</v>
+        <v>529</v>
       </c>
       <c r="W8" s="57" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="X8" s="57" t="b">
         <f>V3&gt;VLOOKUP($T$3,$H$3:$M$13,5,FALSE)</f>
@@ -2878,27 +2943,27 @@
       </c>
       <c r="I9" s="61">
         <f t="shared" si="3"/>
-        <v>167.70000000000002</v>
+        <v>149.5</v>
       </c>
       <c r="J9" s="61">
         <f t="shared" si="0"/>
-        <v>425.7</v>
+        <v>379.49999999999994</v>
       </c>
       <c r="K9" s="61">
         <f t="shared" si="1"/>
-        <v>735.30000000000007</v>
+        <v>655.5</v>
       </c>
       <c r="L9" s="61">
         <f t="shared" si="1"/>
-        <v>1290</v>
+        <v>1150</v>
       </c>
       <c r="M9" s="61">
         <f t="shared" si="1"/>
-        <v>2064</v>
+        <v>1839.9999999999998</v>
       </c>
       <c r="N9" s="58">
         <f t="shared" si="2"/>
-        <v>516</v>
+        <v>459.99999999999994</v>
       </c>
       <c r="W9" s="57"/>
       <c r="X9" s="57"/>
@@ -2906,7 +2971,7 @@
     </row>
     <row r="10" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B10" s="61">
         <v>232</v>
@@ -2927,36 +2992,36 @@
         <v>580</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I10" s="61">
         <f t="shared" si="3"/>
-        <v>299.28000000000003</v>
+        <v>266.79999999999995</v>
       </c>
       <c r="J10" s="61">
         <f t="shared" si="0"/>
-        <v>598.56000000000006</v>
+        <v>533.59999999999991</v>
       </c>
       <c r="K10" s="61">
         <f t="shared" si="1"/>
-        <v>1047.48</v>
+        <v>933.8</v>
       </c>
       <c r="L10" s="61">
         <f t="shared" si="1"/>
-        <v>1646.04</v>
+        <v>1467.3999999999999</v>
       </c>
       <c r="M10" s="61">
         <f t="shared" si="1"/>
-        <v>2543.88</v>
+        <v>2267.7999999999997</v>
       </c>
       <c r="N10" s="58">
         <f t="shared" si="2"/>
-        <v>748.2</v>
+        <v>667</v>
       </c>
     </row>
     <row r="11" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B11" s="61">
         <v>545</v>
@@ -2971,27 +3036,27 @@
         <v>400</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I11" s="61">
         <f t="shared" si="3"/>
-        <v>703.05000000000007</v>
+        <v>626.75</v>
       </c>
       <c r="J11" s="61">
         <f t="shared" si="0"/>
-        <v>1406.1000000000001</v>
+        <v>1253.5</v>
       </c>
       <c r="K11" s="61"/>
       <c r="L11" s="61"/>
       <c r="M11" s="61"/>
       <c r="N11" s="58">
         <f t="shared" si="2"/>
-        <v>516</v>
+        <v>459.99999999999994</v>
       </c>
     </row>
     <row r="12" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="B12" s="61">
         <v>340</v>
@@ -3006,27 +3071,27 @@
         <v>400</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="I12" s="61">
         <f t="shared" si="3"/>
-        <v>438.6</v>
+        <v>390.99999999999994</v>
       </c>
       <c r="J12" s="61">
         <f t="shared" si="0"/>
-        <v>877.2</v>
+        <v>781.99999999999989</v>
       </c>
       <c r="K12" s="61"/>
       <c r="L12" s="61"/>
       <c r="M12" s="61"/>
       <c r="N12" s="58">
         <f t="shared" si="2"/>
-        <v>516</v>
+        <v>459.99999999999994</v>
       </c>
     </row>
     <row r="13" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="B13" s="61">
         <v>200</v>
@@ -3043,25 +3108,25 @@
         <v>90</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="I13" s="61">
         <f t="shared" si="3"/>
-        <v>258</v>
+        <v>229.99999999999997</v>
       </c>
       <c r="J13" s="61">
         <f t="shared" si="0"/>
-        <v>516</v>
+        <v>459.99999999999994</v>
       </c>
       <c r="K13" s="61">
         <f>D13 * (1+SUM($R:$R))</f>
-        <v>774</v>
+        <v>690</v>
       </c>
       <c r="L13" s="61"/>
       <c r="M13" s="61"/>
       <c r="N13" s="58">
         <f t="shared" si="2"/>
-        <v>116.10000000000001</v>
+        <v>103.49999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -3287,19 +3352,19 @@
   <sheetData>
     <row r="1" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>33</v>
@@ -3336,25 +3401,25 @@
         <v>17</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>17</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3362,25 +3427,25 @@
         <v>18</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G4" s="10" t="s">
         <v>18</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3388,25 +3453,25 @@
         <v>19</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G5" s="10" t="s">
         <v>19</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3414,25 +3479,25 @@
         <v>20</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G6" s="10" t="s">
         <v>20</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3440,25 +3505,25 @@
         <v>21</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G7" s="12" t="s">
         <v>21</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3466,25 +3531,25 @@
         <v>22</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G8" s="12" t="s">
         <v>22</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3544,25 +3609,25 @@
         <v>25</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G11" s="16" t="s">
         <v>25</v>
       </c>
       <c r="H11" s="17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I11" s="17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3612,25 +3677,25 @@
         <v>31</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>31</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3638,25 +3703,25 @@
         <v>32</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>32</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3667,36 +3732,36 @@
     </row>
     <row r="18" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B18" s="137" t="s">
-        <v>133</v>
-      </c>
-      <c r="C18" s="137"/>
-      <c r="D18" s="137"/>
-      <c r="E18" s="138"/>
+        <v>113</v>
+      </c>
+      <c r="B18" s="141" t="s">
+        <v>132</v>
+      </c>
+      <c r="C18" s="141"/>
+      <c r="D18" s="141"/>
+      <c r="E18" s="142"/>
     </row>
     <row r="19" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B19" s="136" t="s">
-        <v>135</v>
-      </c>
-      <c r="C19" s="137"/>
-      <c r="D19" s="137"/>
-      <c r="E19" s="138"/>
+        <v>114</v>
+      </c>
+      <c r="B19" s="140" t="s">
+        <v>134</v>
+      </c>
+      <c r="C19" s="141"/>
+      <c r="D19" s="141"/>
+      <c r="E19" s="142"/>
     </row>
     <row r="20" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B20" s="136" t="s">
-        <v>134</v>
-      </c>
-      <c r="C20" s="137"/>
-      <c r="D20" s="137"/>
-      <c r="E20" s="138"/>
+        <v>115</v>
+      </c>
+      <c r="B20" s="140" t="s">
+        <v>133</v>
+      </c>
+      <c r="C20" s="141"/>
+      <c r="D20" s="141"/>
+      <c r="E20" s="142"/>
     </row>
     <row r="21" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E21" s="80"/>
@@ -3733,19 +3798,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="79" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1" s="79" t="s">
         <v>127</v>
       </c>
-      <c r="D1" s="79" t="s">
-        <v>128</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:24" s="6" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3792,7 +3857,7 @@
     </row>
     <row r="4" spans="1:24" s="6" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -3859,7 +3924,7 @@
     </row>
     <row r="7" spans="1:24" s="8" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -3889,10 +3954,10 @@
         <v>38</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="N8" s="9" t="s">
         <v>35</v>
@@ -3927,7 +3992,7 @@
     </row>
     <row r="10" spans="1:24" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -3958,10 +4023,10 @@
         <v>38</v>
       </c>
       <c r="I11" s="15" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J11" s="15" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="N11" s="15" t="s">
         <v>35</v>
@@ -3995,7 +4060,7 @@
     </row>
     <row r="13" spans="1:24" s="15" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -4003,7 +4068,7 @@
     </row>
     <row r="14" spans="1:24" s="4" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -4014,11 +4079,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEFF6CA3-18A6-4987-88AD-5768B35D8A0C}">
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:R32"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P4" sqref="P4:Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4026,37 +4091,65 @@
     <col min="1" max="1" width="9.140625" style="51"/>
     <col min="2" max="2" width="19" style="52" customWidth="1"/>
     <col min="3" max="3" width="9.140625" style="20"/>
-    <col min="4" max="4" width="15.42578125" style="20" customWidth="1"/>
+    <col min="4" max="4" width="12" style="20" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="20"/>
-    <col min="6" max="6" width="11.28515625" style="20" customWidth="1"/>
+    <col min="6" max="6" width="12" style="20" customWidth="1"/>
     <col min="7" max="7" width="9.140625" style="20"/>
-    <col min="8" max="8" width="11.28515625" style="20" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="20"/>
+    <col min="8" max="8" width="12" style="20" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="20"/>
+    <col min="10" max="10" width="12" style="20" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="20"/>
+    <col min="12" max="12" width="12" style="20" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="20"/>
+    <col min="14" max="14" width="12" style="20" customWidth="1"/>
+    <col min="15" max="15" width="9.140625" style="20"/>
+    <col min="16" max="16" width="12" style="20" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" style="20"/>
+    <col min="18" max="18" width="12" style="20" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="144" t="s">
-        <v>55</v>
-      </c>
-      <c r="B1" s="145"/>
-      <c r="C1" s="148" t="s">
-        <v>144</v>
-      </c>
-      <c r="D1" s="149"/>
-      <c r="E1" s="148" t="s">
-        <v>145</v>
-      </c>
-      <c r="F1" s="149"/>
-      <c r="G1" s="148" t="s">
-        <v>143</v>
-      </c>
-      <c r="H1" s="149"/>
-    </row>
-    <row r="2" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="146" t="s">
+    <row r="1" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="194"/>
+      <c r="B1" s="195"/>
+      <c r="C1" s="151" t="s">
+        <v>187</v>
+      </c>
+      <c r="D1" s="152"/>
+      <c r="E1" s="151" t="s">
+        <v>186</v>
+      </c>
+      <c r="F1" s="152"/>
+      <c r="G1" s="151" t="s">
+        <v>188</v>
+      </c>
+      <c r="H1" s="152"/>
+      <c r="I1" s="151" t="s">
+        <v>189</v>
+      </c>
+      <c r="J1" s="152"/>
+      <c r="K1" s="151" t="s">
+        <v>183</v>
+      </c>
+      <c r="L1" s="152"/>
+      <c r="M1" s="151" t="s">
+        <v>185</v>
+      </c>
+      <c r="N1" s="152"/>
+      <c r="O1" s="151" t="s">
+        <v>184</v>
+      </c>
+      <c r="P1" s="152"/>
+      <c r="Q1" s="151" t="s">
+        <v>184</v>
+      </c>
+      <c r="R1" s="152"/>
+    </row>
+    <row r="2" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="171" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="147"/>
+      <c r="B2" s="172"/>
       <c r="C2" s="21">
         <f>5/3</f>
         <v>1.6666666666666667</v>
@@ -4081,18 +4174,58 @@
         <f>G2</f>
         <v>1.6666666666666667</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="146" t="s">
-        <v>61</v>
-      </c>
-      <c r="B3" s="147"/>
+      <c r="I2" s="21">
+        <f>5/3</f>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="J2" s="22">
+        <f>I2</f>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="K2" s="21">
+        <f>5/3</f>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="L2" s="22">
+        <f>K2</f>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="M2" s="21">
+        <f>5/3</f>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="N2" s="22">
+        <f>M2</f>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="O2" s="21">
+        <f>5/3</f>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="P2" s="22">
+        <f>O2</f>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="Q2" s="21">
+        <f>5/3</f>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="R2" s="22">
+        <f>Q2</f>
+        <v>1.6666666666666667</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="171" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="172"/>
       <c r="C3" s="21">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="D3" s="22">
         <f>1-C3</f>
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="E3" s="21">
         <v>0</v>
@@ -4108,561 +4241,1234 @@
         <f>1-G3</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="160" t="s">
-        <v>60</v>
+      <c r="I3" s="21">
+        <v>0</v>
+      </c>
+      <c r="J3" s="22">
+        <f>1-I3</f>
+        <v>1</v>
+      </c>
+      <c r="K3" s="21">
+        <v>0</v>
+      </c>
+      <c r="L3" s="22">
+        <f>1-K3</f>
+        <v>1</v>
+      </c>
+      <c r="M3" s="21">
+        <v>0</v>
+      </c>
+      <c r="N3" s="22">
+        <f>1-M3</f>
+        <v>1</v>
+      </c>
+      <c r="O3" s="21">
+        <v>0</v>
+      </c>
+      <c r="P3" s="22">
+        <f>1-O3</f>
+        <v>1</v>
+      </c>
+      <c r="Q3" s="21">
+        <v>0</v>
+      </c>
+      <c r="R3" s="22">
+        <f>1-Q3</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="175" t="s">
+        <v>59</v>
       </c>
       <c r="B4" s="45" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C4" s="24">
-        <v>4078</v>
-      </c>
-      <c r="D4" s="139">
+        <v>4483</v>
+      </c>
+      <c r="D4" s="153">
         <f>(C4/(1+C5)*(1+C5+C6)*(1+C7)*(1+C8))</f>
-        <v>4078</v>
+        <v>14793.900000000001</v>
       </c>
       <c r="E4" s="24">
-        <v>4353</v>
-      </c>
-      <c r="F4" s="139">
+        <v>4483</v>
+      </c>
+      <c r="F4" s="153">
         <f>(E4/(1+E5)*(1+E5+E6)*(1+E7)*(1+E8))</f>
-        <v>5005.95</v>
+        <v>14793.900000000001</v>
       </c>
       <c r="G4" s="24">
-        <v>4353</v>
-      </c>
-      <c r="H4" s="139">
+        <v>5096</v>
+      </c>
+      <c r="H4" s="153">
         <f>(G4/(1+G5)*(1+G5+G6)*(1+G7)*(1+G8))</f>
-        <v>5005.95</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="161"/>
+        <v>16816.800000000003</v>
+      </c>
+      <c r="I4" s="24">
+        <v>5096</v>
+      </c>
+      <c r="J4" s="153">
+        <f>(I4/(1+I5)*(1+I5+I6)*(1+I7)*(1+I8))</f>
+        <v>16816.800000000003</v>
+      </c>
+      <c r="K4" s="24">
+        <v>5096</v>
+      </c>
+      <c r="L4" s="153">
+        <f>(K4/(1+K5)*(1+K5+K6)*(1+K7)*(1+K8))</f>
+        <v>16816.800000000003</v>
+      </c>
+      <c r="M4" s="24">
+        <v>5096</v>
+      </c>
+      <c r="N4" s="153">
+        <f>(M4/(1+M5)*(1+M5+M6)*(1+M7)*(1+M8))</f>
+        <v>16816.800000000003</v>
+      </c>
+      <c r="O4" s="24">
+        <v>5096</v>
+      </c>
+      <c r="P4" s="153">
+        <f>(O4/(1+O5)*(1+O5+O6)*(1+O7)*(1+O8))</f>
+        <v>16816.800000000003</v>
+      </c>
+      <c r="Q4" s="24">
+        <v>5096</v>
+      </c>
+      <c r="R4" s="153">
+        <f>(Q4/(1+Q5)*(1+Q5+Q6)*(1+Q7)*(1+Q8))</f>
+        <v>16816.800000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="176"/>
       <c r="B5" s="45" t="s">
         <v>44</v>
       </c>
       <c r="C5" s="26">
         <v>0</v>
       </c>
-      <c r="D5" s="140"/>
+      <c r="D5" s="154"/>
       <c r="E5" s="26">
         <v>0</v>
       </c>
-      <c r="F5" s="140"/>
+      <c r="F5" s="154"/>
       <c r="G5" s="26">
         <v>0</v>
       </c>
-      <c r="H5" s="140"/>
-    </row>
-    <row r="6" spans="1:8" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="161"/>
+      <c r="H5" s="154"/>
+      <c r="I5" s="26">
+        <v>0</v>
+      </c>
+      <c r="J5" s="154"/>
+      <c r="K5" s="26">
+        <v>0</v>
+      </c>
+      <c r="L5" s="154"/>
+      <c r="M5" s="26">
+        <v>0</v>
+      </c>
+      <c r="N5" s="154"/>
+      <c r="O5" s="26">
+        <v>0</v>
+      </c>
+      <c r="P5" s="154"/>
+      <c r="Q5" s="26">
+        <v>0</v>
+      </c>
+      <c r="R5" s="154"/>
+    </row>
+    <row r="6" spans="1:18" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="176"/>
       <c r="B6" s="45" t="s">
         <v>45</v>
       </c>
       <c r="C6" s="27">
         <v>0</v>
       </c>
-      <c r="D6" s="140"/>
+      <c r="D6" s="154"/>
       <c r="E6" s="27">
         <v>0</v>
       </c>
-      <c r="F6" s="140"/>
+      <c r="F6" s="154"/>
       <c r="G6" s="27">
         <v>0</v>
       </c>
-      <c r="H6" s="140"/>
-    </row>
-    <row r="7" spans="1:8" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="161"/>
+      <c r="H6" s="154"/>
+      <c r="I6" s="27">
+        <v>0</v>
+      </c>
+      <c r="J6" s="154"/>
+      <c r="K6" s="27">
+        <v>0</v>
+      </c>
+      <c r="L6" s="154"/>
+      <c r="M6" s="27">
+        <v>0</v>
+      </c>
+      <c r="N6" s="154"/>
+      <c r="O6" s="27">
+        <v>0</v>
+      </c>
+      <c r="P6" s="154"/>
+      <c r="Q6" s="27">
+        <v>0</v>
+      </c>
+      <c r="R6" s="154"/>
+    </row>
+    <row r="7" spans="1:18" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="176"/>
       <c r="B7" s="45" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="27">
+        <v>2</v>
+      </c>
+      <c r="D7" s="154"/>
+      <c r="E7" s="27">
+        <v>2</v>
+      </c>
+      <c r="F7" s="154"/>
+      <c r="G7" s="27">
+        <v>2</v>
+      </c>
+      <c r="H7" s="154"/>
+      <c r="I7" s="27">
+        <v>2</v>
+      </c>
+      <c r="J7" s="154"/>
+      <c r="K7" s="27">
+        <v>2</v>
+      </c>
+      <c r="L7" s="154"/>
+      <c r="M7" s="27">
+        <v>2</v>
+      </c>
+      <c r="N7" s="154"/>
+      <c r="O7" s="27">
+        <v>2</v>
+      </c>
+      <c r="P7" s="154"/>
+      <c r="Q7" s="27">
+        <v>2</v>
+      </c>
+      <c r="R7" s="154"/>
+    </row>
+    <row r="8" spans="1:18" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="177"/>
+      <c r="B8" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="27">
-        <v>0</v>
-      </c>
-      <c r="D7" s="140"/>
-      <c r="E7" s="27">
-        <v>0.15</v>
-      </c>
-      <c r="F7" s="140"/>
-      <c r="G7" s="27">
-        <v>0.15</v>
-      </c>
-      <c r="H7" s="140"/>
-    </row>
-    <row r="8" spans="1:8" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="162"/>
-      <c r="B8" s="45" t="s">
-        <v>57</v>
-      </c>
       <c r="C8" s="27">
-        <v>0</v>
-      </c>
-      <c r="D8" s="141"/>
+        <v>0.1</v>
+      </c>
+      <c r="D8" s="155"/>
       <c r="E8" s="27">
-        <v>0</v>
-      </c>
-      <c r="F8" s="141"/>
+        <v>0.1</v>
+      </c>
+      <c r="F8" s="155"/>
       <c r="G8" s="27">
-        <v>0</v>
-      </c>
-      <c r="H8" s="141"/>
-    </row>
-    <row r="9" spans="1:8" s="30" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="163" t="s">
+        <v>0.1</v>
+      </c>
+      <c r="H8" s="155"/>
+      <c r="I8" s="27">
+        <v>0.1</v>
+      </c>
+      <c r="J8" s="155"/>
+      <c r="K8" s="27">
+        <v>0.1</v>
+      </c>
+      <c r="L8" s="155"/>
+      <c r="M8" s="27">
+        <v>0.1</v>
+      </c>
+      <c r="N8" s="155"/>
+      <c r="O8" s="27">
+        <v>0.1</v>
+      </c>
+      <c r="P8" s="155"/>
+      <c r="Q8" s="27">
+        <v>0.1</v>
+      </c>
+      <c r="R8" s="155"/>
+    </row>
+    <row r="9" spans="1:18" s="30" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="190" t="s">
         <v>46</v>
       </c>
-      <c r="B9" s="164"/>
+      <c r="B9" s="191"/>
       <c r="C9" s="28">
-        <v>16.64</v>
+        <f>16.64*(1+0.05*D31)*0.7</f>
+        <v>37.855999999999995</v>
       </c>
       <c r="D9" s="29">
         <f>C9</f>
-        <v>16.64</v>
+        <v>37.855999999999995</v>
       </c>
       <c r="E9" s="28">
-        <v>29.16</v>
+        <f>16.64*(1+0.05*F31)*0.7</f>
+        <v>41.9328</v>
       </c>
       <c r="F9" s="29">
         <f>E9</f>
-        <v>29.16</v>
+        <v>41.9328</v>
       </c>
       <c r="G9" s="28">
-        <v>31.71</v>
+        <f>16.64*(1+0.05*H31)*0.7</f>
+        <v>40.185600000000001</v>
       </c>
       <c r="H9" s="29">
         <f>G9</f>
-        <v>31.71</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" s="32" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="165" t="s">
-        <v>62</v>
+        <v>40.185600000000001</v>
+      </c>
+      <c r="I9" s="28">
+        <f>16.64*(1+0.05*J31)*0.7</f>
+        <v>44.2624</v>
+      </c>
+      <c r="J9" s="29">
+        <f>I9</f>
+        <v>44.2624</v>
+      </c>
+      <c r="K9" s="28">
+        <f>16.64*(1+0.05*L31)*0.7</f>
+        <v>36.108800000000002</v>
+      </c>
+      <c r="L9" s="29">
+        <f>K9</f>
+        <v>36.108800000000002</v>
+      </c>
+      <c r="M9" s="28">
+        <f>16.64*(1+0.05*N31)*0.7</f>
+        <v>39.020800000000001</v>
+      </c>
+      <c r="N9" s="29">
+        <f>M9</f>
+        <v>39.020800000000001</v>
+      </c>
+      <c r="O9" s="28">
+        <f>16.64*(1+0.05*P31)*0.7</f>
+        <v>36.108800000000002</v>
+      </c>
+      <c r="P9" s="29">
+        <f>O9</f>
+        <v>36.108800000000002</v>
+      </c>
+      <c r="Q9" s="28">
+        <f>16.64*(1+0.05*R31)*0.7</f>
+        <v>36.108800000000002</v>
+      </c>
+      <c r="R9" s="29">
+        <f>Q9</f>
+        <v>36.108800000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" s="32" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="192" t="s">
+        <v>61</v>
       </c>
       <c r="B10" s="46" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C10" s="31">
-        <v>0</v>
-      </c>
-      <c r="D10" s="142">
+        <v>1</v>
+      </c>
+      <c r="D10" s="156">
         <f>1+((0.7+C11)*C10)</f>
+        <v>5.7</v>
+      </c>
+      <c r="E10" s="31">
         <v>1</v>
       </c>
-      <c r="E10" s="31">
-        <v>0</v>
-      </c>
-      <c r="F10" s="142">
+      <c r="F10" s="156">
         <f>1+((0.7+E11)*E10)</f>
+        <v>5.7</v>
+      </c>
+      <c r="G10" s="31">
         <v>1</v>
       </c>
-      <c r="G10" s="31">
-        <v>0</v>
-      </c>
-      <c r="H10" s="142">
+      <c r="H10" s="156">
         <f>1+((0.7+G11)*G10)</f>
+        <v>5.7</v>
+      </c>
+      <c r="I10" s="31">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" s="32" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="166"/>
+      <c r="J10" s="156">
+        <f>1+((0.7+I11)*I10)</f>
+        <v>5.7</v>
+      </c>
+      <c r="K10" s="31">
+        <v>1</v>
+      </c>
+      <c r="L10" s="156">
+        <f>1+((0.7+K11)*K10)</f>
+        <v>5.7</v>
+      </c>
+      <c r="M10" s="31">
+        <v>1</v>
+      </c>
+      <c r="N10" s="156">
+        <f>1+((0.7+M11)*M10)</f>
+        <v>5.7</v>
+      </c>
+      <c r="O10" s="31">
+        <v>1</v>
+      </c>
+      <c r="P10" s="156">
+        <f>1+((0.7+O11)*O10)</f>
+        <v>5.7</v>
+      </c>
+      <c r="Q10" s="31">
+        <v>1</v>
+      </c>
+      <c r="R10" s="156">
+        <f>1+((0.7+Q11)*Q10)</f>
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" s="32" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="193"/>
       <c r="B11" s="46" t="s">
         <v>42</v>
       </c>
       <c r="C11" s="33">
-        <v>1.7</v>
-      </c>
-      <c r="D11" s="143"/>
+        <v>4</v>
+      </c>
+      <c r="D11" s="157"/>
       <c r="E11" s="33">
-        <v>0</v>
-      </c>
-      <c r="F11" s="143"/>
+        <v>4</v>
+      </c>
+      <c r="F11" s="157"/>
       <c r="G11" s="33">
-        <v>0</v>
-      </c>
-      <c r="H11" s="143"/>
-    </row>
-    <row r="12" spans="1:8" s="35" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="155" t="s">
-        <v>64</v>
+        <v>4</v>
+      </c>
+      <c r="H11" s="157"/>
+      <c r="I11" s="33">
+        <v>4</v>
+      </c>
+      <c r="J11" s="157"/>
+      <c r="K11" s="33">
+        <v>4</v>
+      </c>
+      <c r="L11" s="157"/>
+      <c r="M11" s="33">
+        <v>4</v>
+      </c>
+      <c r="N11" s="157"/>
+      <c r="O11" s="33">
+        <v>4</v>
+      </c>
+      <c r="P11" s="157"/>
+      <c r="Q11" s="33">
+        <v>4</v>
+      </c>
+      <c r="R11" s="157"/>
+    </row>
+    <row r="12" spans="1:18" s="35" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="185" t="s">
+        <v>63</v>
       </c>
       <c r="B12" s="47" t="s">
         <v>47</v>
       </c>
       <c r="C12" s="34">
-        <v>0</v>
-      </c>
-      <c r="D12" s="175">
+        <v>0.4</v>
+      </c>
+      <c r="D12" s="158">
         <f>(1+C12+C13)*(1+C14)*(1+C15)</f>
-        <v>1</v>
+        <v>6.3364999999999982</v>
       </c>
       <c r="E12" s="34">
-        <v>0</v>
-      </c>
-      <c r="F12" s="175">
+        <v>0.4</v>
+      </c>
+      <c r="F12" s="158">
         <f>(1+E12+E13)*(1+E14)*(1+E15)</f>
-        <v>1.1499999999999999</v>
+        <v>6.3364999999999982</v>
       </c>
       <c r="G12" s="34">
-        <v>0</v>
-      </c>
-      <c r="H12" s="175">
+        <v>0.4</v>
+      </c>
+      <c r="H12" s="158">
         <f>(1+G12+G13)*(1+G14)*(1+G15)</f>
-        <v>1.1499999999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" s="35" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="156"/>
+        <v>6.3364999999999982</v>
+      </c>
+      <c r="I12" s="34">
+        <v>0.4</v>
+      </c>
+      <c r="J12" s="158">
+        <f>(1+I12+I13)*(1+I14)*(1+I15)</f>
+        <v>6.3364999999999982</v>
+      </c>
+      <c r="K12" s="34">
+        <v>0.4</v>
+      </c>
+      <c r="L12" s="158">
+        <f>(1+K12+K13)*(1+K14)*(1+K15)</f>
+        <v>6.3364999999999982</v>
+      </c>
+      <c r="M12" s="34">
+        <v>0.4</v>
+      </c>
+      <c r="N12" s="158">
+        <f>(1+M12+M13)*(1+M14)*(1+M15)</f>
+        <v>6.3364999999999982</v>
+      </c>
+      <c r="O12" s="34">
+        <v>0.4</v>
+      </c>
+      <c r="P12" s="158">
+        <f>(1+O12+O13)*(1+O14)*(1+O15)</f>
+        <v>6.3364999999999982</v>
+      </c>
+      <c r="Q12" s="34">
+        <v>0.4</v>
+      </c>
+      <c r="R12" s="158">
+        <f>(1+Q12+Q13)*(1+Q14)*(1+Q15)</f>
+        <v>6.3364999999999982</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" s="35" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="186"/>
       <c r="B13" s="47" t="s">
         <v>48</v>
       </c>
       <c r="C13" s="34">
-        <v>0</v>
-      </c>
-      <c r="D13" s="176"/>
+        <v>0.5</v>
+      </c>
+      <c r="D13" s="159"/>
       <c r="E13" s="34">
-        <v>0</v>
-      </c>
-      <c r="F13" s="176"/>
+        <v>0.5</v>
+      </c>
+      <c r="F13" s="159"/>
       <c r="G13" s="34">
-        <v>0</v>
-      </c>
-      <c r="H13" s="176"/>
-    </row>
-    <row r="14" spans="1:8" s="35" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="156"/>
+        <v>0.5</v>
+      </c>
+      <c r="H13" s="159"/>
+      <c r="I13" s="34">
+        <v>0.5</v>
+      </c>
+      <c r="J13" s="159"/>
+      <c r="K13" s="34">
+        <v>0.5</v>
+      </c>
+      <c r="L13" s="159"/>
+      <c r="M13" s="34">
+        <v>0.5</v>
+      </c>
+      <c r="N13" s="159"/>
+      <c r="O13" s="34">
+        <v>0.5</v>
+      </c>
+      <c r="P13" s="159"/>
+      <c r="Q13" s="34">
+        <v>0.5</v>
+      </c>
+      <c r="R13" s="159"/>
+    </row>
+    <row r="14" spans="1:18" s="35" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="186"/>
       <c r="B14" s="47" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C14" s="34">
-        <v>0</v>
-      </c>
-      <c r="D14" s="176"/>
+        <v>0.15</v>
+      </c>
+      <c r="D14" s="159"/>
       <c r="E14" s="34">
         <v>0.15</v>
       </c>
-      <c r="F14" s="176"/>
+      <c r="F14" s="159"/>
       <c r="G14" s="34">
         <v>0.15</v>
       </c>
-      <c r="H14" s="176"/>
-    </row>
-    <row r="15" spans="1:8" s="35" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="157"/>
+      <c r="H14" s="159"/>
+      <c r="I14" s="34">
+        <v>0.15</v>
+      </c>
+      <c r="J14" s="159"/>
+      <c r="K14" s="34">
+        <v>0.15</v>
+      </c>
+      <c r="L14" s="159"/>
+      <c r="M14" s="34">
+        <v>0.15</v>
+      </c>
+      <c r="N14" s="159"/>
+      <c r="O14" s="34">
+        <v>0.15</v>
+      </c>
+      <c r="P14" s="159"/>
+      <c r="Q14" s="34">
+        <v>0.15</v>
+      </c>
+      <c r="R14" s="159"/>
+    </row>
+    <row r="15" spans="1:18" s="35" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="187"/>
       <c r="B15" s="47" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C15" s="34">
-        <v>0</v>
-      </c>
-      <c r="D15" s="177"/>
+        <v>1.9</v>
+      </c>
+      <c r="D15" s="160"/>
       <c r="E15" s="34">
-        <v>0</v>
-      </c>
-      <c r="F15" s="177"/>
+        <v>1.9</v>
+      </c>
+      <c r="F15" s="160"/>
       <c r="G15" s="34">
-        <v>0</v>
-      </c>
-      <c r="H15" s="177"/>
-    </row>
-    <row r="16" spans="1:8" s="37" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="158" t="s">
-        <v>65</v>
+        <v>1.9</v>
+      </c>
+      <c r="H15" s="160"/>
+      <c r="I15" s="34">
+        <v>1.9</v>
+      </c>
+      <c r="J15" s="160"/>
+      <c r="K15" s="34">
+        <v>1.9</v>
+      </c>
+      <c r="L15" s="160"/>
+      <c r="M15" s="34">
+        <v>1.9</v>
+      </c>
+      <c r="N15" s="160"/>
+      <c r="O15" s="34">
+        <v>1.9</v>
+      </c>
+      <c r="P15" s="160"/>
+      <c r="Q15" s="34">
+        <v>1.9</v>
+      </c>
+      <c r="R15" s="160"/>
+    </row>
+    <row r="16" spans="1:18" s="37" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="188" t="s">
+        <v>64</v>
       </c>
       <c r="B16" s="48" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C16" s="36">
-        <v>0</v>
-      </c>
-      <c r="D16" s="178">
+        <v>0.3</v>
+      </c>
+      <c r="D16" s="161">
         <f>(1+C16)*(1+C17)</f>
-        <v>1</v>
+        <v>2.1840000000000002</v>
       </c>
       <c r="E16" s="36">
-        <v>0</v>
-      </c>
-      <c r="F16" s="178">
+        <v>0.3</v>
+      </c>
+      <c r="F16" s="161">
         <f>(1+E16)*(1+E17)</f>
-        <v>1</v>
+        <v>2.1840000000000002</v>
       </c>
       <c r="G16" s="36">
-        <v>0</v>
-      </c>
-      <c r="H16" s="178">
+        <v>0.3</v>
+      </c>
+      <c r="H16" s="161">
         <f>(1+G16)*(1+G17)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" s="37" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="159"/>
+        <v>2.5739999999999998</v>
+      </c>
+      <c r="I16" s="36">
+        <v>0.3</v>
+      </c>
+      <c r="J16" s="161">
+        <f>(1+I16)*(1+I17)</f>
+        <v>2.5739999999999998</v>
+      </c>
+      <c r="K16" s="36">
+        <v>0.3</v>
+      </c>
+      <c r="L16" s="161">
+        <f>(1+K16)*(1+K17)</f>
+        <v>2.5739999999999998</v>
+      </c>
+      <c r="M16" s="36">
+        <v>0.3</v>
+      </c>
+      <c r="N16" s="161">
+        <f>(1+M16)*(1+M17)</f>
+        <v>2.5739999999999998</v>
+      </c>
+      <c r="O16" s="36">
+        <v>0.3</v>
+      </c>
+      <c r="P16" s="161">
+        <f>(1+O16)*(1+O17)</f>
+        <v>2.5739999999999998</v>
+      </c>
+      <c r="Q16" s="36">
+        <v>0.3</v>
+      </c>
+      <c r="R16" s="161">
+        <f>(1+Q16)*(1+Q17)</f>
+        <v>1.7939999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" s="37" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="189"/>
       <c r="B17" s="48" t="s">
         <v>49</v>
       </c>
       <c r="C17" s="36">
-        <v>0</v>
-      </c>
-      <c r="D17" s="179"/>
+        <v>0.68</v>
+      </c>
+      <c r="D17" s="162"/>
       <c r="E17" s="36">
-        <v>0</v>
-      </c>
-      <c r="F17" s="179"/>
+        <v>0.68</v>
+      </c>
+      <c r="F17" s="162"/>
       <c r="G17" s="36">
-        <v>0</v>
-      </c>
-      <c r="H17" s="179"/>
-    </row>
-    <row r="18" spans="1:8" s="39" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="150" t="s">
+        <v>0.98</v>
+      </c>
+      <c r="H17" s="162"/>
+      <c r="I17" s="36">
+        <v>0.98</v>
+      </c>
+      <c r="J17" s="162"/>
+      <c r="K17" s="36">
+        <v>0.98</v>
+      </c>
+      <c r="L17" s="162"/>
+      <c r="M17" s="36">
+        <v>0.98</v>
+      </c>
+      <c r="N17" s="162"/>
+      <c r="O17" s="36">
+        <v>0.98</v>
+      </c>
+      <c r="P17" s="162"/>
+      <c r="Q17" s="36">
+        <v>0.38</v>
+      </c>
+      <c r="R17" s="162"/>
+    </row>
+    <row r="18" spans="1:18" s="39" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="180" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" s="49" t="s">
         <v>66</v>
-      </c>
-      <c r="B18" s="49" t="s">
-        <v>67</v>
       </c>
       <c r="C18" s="38">
         <v>1.5</v>
       </c>
-      <c r="D18" s="180">
+      <c r="D18" s="163">
         <f>C18+C19</f>
         <v>1.5</v>
       </c>
       <c r="E18" s="38">
         <v>1.5</v>
       </c>
-      <c r="F18" s="180">
+      <c r="F18" s="163">
         <f>E18+E19</f>
         <v>1.5</v>
       </c>
       <c r="G18" s="38">
         <v>1.5</v>
       </c>
-      <c r="H18" s="180">
+      <c r="H18" s="163">
         <f>G18+G19</f>
         <v>1.5</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" s="39" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="151"/>
+      <c r="I18" s="38">
+        <v>1.5</v>
+      </c>
+      <c r="J18" s="163">
+        <f>I18+I19</f>
+        <v>1.5</v>
+      </c>
+      <c r="K18" s="38">
+        <v>1.5</v>
+      </c>
+      <c r="L18" s="163">
+        <f>K18+K19</f>
+        <v>1.5</v>
+      </c>
+      <c r="M18" s="38">
+        <v>1.5</v>
+      </c>
+      <c r="N18" s="163">
+        <f>M18+M19</f>
+        <v>1.5</v>
+      </c>
+      <c r="O18" s="38">
+        <v>1.5</v>
+      </c>
+      <c r="P18" s="163">
+        <f>O18+O19</f>
+        <v>1.5</v>
+      </c>
+      <c r="Q18" s="38">
+        <v>1.5</v>
+      </c>
+      <c r="R18" s="163">
+        <f>Q18+Q19</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" s="39" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="181"/>
       <c r="B19" s="49" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C19" s="40">
         <v>0</v>
       </c>
-      <c r="D19" s="181"/>
+      <c r="D19" s="164"/>
       <c r="E19" s="40">
         <v>0</v>
       </c>
-      <c r="F19" s="181"/>
+      <c r="F19" s="164"/>
       <c r="G19" s="40">
         <v>0</v>
       </c>
-      <c r="H19" s="181"/>
-    </row>
-    <row r="20" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="152" t="s">
-        <v>72</v>
+      <c r="H19" s="164"/>
+      <c r="I19" s="40">
+        <v>0</v>
+      </c>
+      <c r="J19" s="164"/>
+      <c r="K19" s="40">
+        <v>0</v>
+      </c>
+      <c r="L19" s="164"/>
+      <c r="M19" s="40">
+        <v>0</v>
+      </c>
+      <c r="N19" s="164"/>
+      <c r="O19" s="40">
+        <v>0</v>
+      </c>
+      <c r="P19" s="164"/>
+      <c r="Q19" s="40">
+        <v>0</v>
+      </c>
+      <c r="R19" s="164"/>
+    </row>
+    <row r="20" spans="1:18" s="42" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="182" t="s">
+        <v>71</v>
       </c>
       <c r="B20" s="50" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C20" s="41">
         <v>0</v>
       </c>
-      <c r="D20" s="182">
+      <c r="D20" s="143">
         <f>1+C20*(0.2+C21+C22)</f>
         <v>1</v>
       </c>
       <c r="E20" s="41">
         <v>0</v>
       </c>
-      <c r="F20" s="182">
+      <c r="F20" s="143">
         <f>1+E20*(0.2+E21+E22)</f>
         <v>1</v>
       </c>
       <c r="G20" s="41">
         <v>0</v>
       </c>
-      <c r="H20" s="182">
+      <c r="H20" s="143">
         <f>1+G20*(0.2+G21+G22)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="153"/>
+      <c r="I20" s="41">
+        <v>0</v>
+      </c>
+      <c r="J20" s="143">
+        <f>1+I20*(0.2+I21+I22)</f>
+        <v>1</v>
+      </c>
+      <c r="K20" s="41">
+        <v>0</v>
+      </c>
+      <c r="L20" s="143">
+        <f>1+K20*(0.2+K21+K22)</f>
+        <v>1</v>
+      </c>
+      <c r="M20" s="41">
+        <v>0</v>
+      </c>
+      <c r="N20" s="143">
+        <f>1+M20*(0.2+M21+M22)</f>
+        <v>1</v>
+      </c>
+      <c r="O20" s="41">
+        <v>0</v>
+      </c>
+      <c r="P20" s="143">
+        <f>1+O20*(0.2+O21+O22)</f>
+        <v>1</v>
+      </c>
+      <c r="Q20" s="41">
+        <v>0</v>
+      </c>
+      <c r="R20" s="143">
+        <f>1+Q20*(0.2+Q21+Q22)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" s="42" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="183"/>
       <c r="B21" s="50" t="s">
         <v>50</v>
       </c>
       <c r="C21" s="41">
         <v>0.5</v>
       </c>
-      <c r="D21" s="183"/>
+      <c r="D21" s="144"/>
       <c r="E21" s="41">
         <v>0.5</v>
       </c>
-      <c r="F21" s="183"/>
+      <c r="F21" s="144"/>
       <c r="G21" s="41">
         <v>0.5</v>
       </c>
-      <c r="H21" s="183"/>
-    </row>
-    <row r="22" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="154"/>
+      <c r="H21" s="144"/>
+      <c r="I21" s="41">
+        <v>0.5</v>
+      </c>
+      <c r="J21" s="144"/>
+      <c r="K21" s="41">
+        <v>0.5</v>
+      </c>
+      <c r="L21" s="144"/>
+      <c r="M21" s="41">
+        <v>0.5</v>
+      </c>
+      <c r="N21" s="144"/>
+      <c r="O21" s="41">
+        <v>0.5</v>
+      </c>
+      <c r="P21" s="144"/>
+      <c r="Q21" s="41">
+        <v>0.5</v>
+      </c>
+      <c r="R21" s="144"/>
+    </row>
+    <row r="22" spans="1:18" s="42" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="184"/>
       <c r="B22" s="50" t="s">
         <v>51</v>
       </c>
       <c r="C22" s="41">
         <v>0</v>
       </c>
-      <c r="D22" s="184"/>
+      <c r="D22" s="145"/>
       <c r="E22" s="41">
         <v>0</v>
       </c>
-      <c r="F22" s="184"/>
+      <c r="F22" s="145"/>
       <c r="G22" s="41">
         <v>0</v>
       </c>
-      <c r="H22" s="184"/>
-    </row>
-    <row r="23" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="146" t="s">
-        <v>73</v>
-      </c>
-      <c r="B23" s="147"/>
+      <c r="H22" s="145"/>
+      <c r="I22" s="41">
+        <v>0</v>
+      </c>
+      <c r="J22" s="145"/>
+      <c r="K22" s="41">
+        <v>0</v>
+      </c>
+      <c r="L22" s="145"/>
+      <c r="M22" s="41">
+        <v>0</v>
+      </c>
+      <c r="N22" s="145"/>
+      <c r="O22" s="41">
+        <v>0</v>
+      </c>
+      <c r="P22" s="145"/>
+      <c r="Q22" s="41">
+        <v>0</v>
+      </c>
+      <c r="R22" s="145"/>
+    </row>
+    <row r="23" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="171" t="s">
+        <v>72</v>
+      </c>
+      <c r="B23" s="172"/>
       <c r="C23" s="21">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="D23" s="23">
         <f>C23</f>
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="E23" s="21">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="F23" s="23">
         <f>E23</f>
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="G23" s="21">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="H23" s="23">
         <f>G23</f>
+        <v>1.05</v>
+      </c>
+      <c r="I23" s="21">
+        <v>0.95</v>
+      </c>
+      <c r="J23" s="23">
+        <f>I23</f>
+        <v>0.95</v>
+      </c>
+      <c r="K23" s="21">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="169" t="s">
+      <c r="L23" s="23">
+        <f>K23</f>
+        <v>1</v>
+      </c>
+      <c r="M23" s="21">
+        <v>1</v>
+      </c>
+      <c r="N23" s="23">
+        <f>M23</f>
+        <v>1</v>
+      </c>
+      <c r="O23" s="21">
+        <v>1</v>
+      </c>
+      <c r="P23" s="23">
+        <f>O23</f>
+        <v>1</v>
+      </c>
+      <c r="Q23" s="21">
+        <v>1</v>
+      </c>
+      <c r="R23" s="23">
+        <f>Q23</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" s="42" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="173" t="s">
         <v>52</v>
       </c>
-      <c r="B24" s="170"/>
+      <c r="B24" s="174"/>
       <c r="C24" s="41">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D24" s="43">
         <f>C24</f>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E24" s="41">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F24" s="43">
         <f>E24</f>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G24" s="41">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H24" s="43">
         <f>G24</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="160" t="s">
+        <v>15</v>
+      </c>
+      <c r="I24" s="41">
+        <v>15</v>
+      </c>
+      <c r="J24" s="43">
+        <f>I24</f>
+        <v>15</v>
+      </c>
+      <c r="K24" s="41">
+        <v>15</v>
+      </c>
+      <c r="L24" s="43">
+        <f>K24</f>
+        <v>15</v>
+      </c>
+      <c r="M24" s="41">
+        <v>15</v>
+      </c>
+      <c r="N24" s="43">
+        <f>M24</f>
+        <v>15</v>
+      </c>
+      <c r="O24" s="41">
+        <v>15</v>
+      </c>
+      <c r="P24" s="43">
+        <f>O24</f>
+        <v>15</v>
+      </c>
+      <c r="Q24" s="41">
+        <v>15</v>
+      </c>
+      <c r="R24" s="43">
+        <f>Q24</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="175" t="s">
         <v>53</v>
       </c>
       <c r="B25" s="45" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C25" s="24">
-        <v>0</v>
-      </c>
-      <c r="D25" s="185">
+        <v>1</v>
+      </c>
+      <c r="D25" s="146">
         <f>(1-(1-C26)*C25)*(1-C27)</f>
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="E25" s="24">
-        <v>0</v>
-      </c>
-      <c r="F25" s="185">
+        <v>1</v>
+      </c>
+      <c r="F25" s="146">
         <f>(1-(1-E26)*E25)*(1-E27)</f>
+        <v>0.3</v>
+      </c>
+      <c r="G25" s="24">
         <v>1</v>
       </c>
-      <c r="G25" s="24">
-        <v>0</v>
-      </c>
-      <c r="H25" s="185">
+      <c r="H25" s="146">
         <f>(1-(1-G26)*G25)*(1-G27)</f>
+        <v>0.3</v>
+      </c>
+      <c r="I25" s="24">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="161"/>
+      <c r="J25" s="146">
+        <f>(1-(1-I26)*I25)*(1-I27)</f>
+        <v>0.3</v>
+      </c>
+      <c r="K25" s="24">
+        <v>1</v>
+      </c>
+      <c r="L25" s="146">
+        <f>(1-(1-K26)*K25)*(1-K27)</f>
+        <v>0.3</v>
+      </c>
+      <c r="M25" s="24">
+        <v>1</v>
+      </c>
+      <c r="N25" s="146">
+        <f>(1-(1-M26)*M25)*(1-M27)</f>
+        <v>0.3</v>
+      </c>
+      <c r="O25" s="24">
+        <v>1</v>
+      </c>
+      <c r="P25" s="146">
+        <f>(1-(1-O26)*O25)*(1-O27)</f>
+        <v>0.4</v>
+      </c>
+      <c r="Q25" s="24">
+        <v>1</v>
+      </c>
+      <c r="R25" s="146">
+        <f>(1-(1-Q26)*Q25)*(1-Q27)</f>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="176"/>
       <c r="B26" s="45" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C26" s="24">
-        <v>0.8</v>
-      </c>
-      <c r="D26" s="186"/>
+        <v>0.6</v>
+      </c>
+      <c r="D26" s="147"/>
       <c r="E26" s="24">
         <v>0.6</v>
       </c>
-      <c r="F26" s="186"/>
+      <c r="F26" s="147"/>
       <c r="G26" s="24">
         <v>0.6</v>
       </c>
-      <c r="H26" s="186"/>
-    </row>
-    <row r="27" spans="1:8" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="162"/>
+      <c r="H26" s="147"/>
+      <c r="I26" s="24">
+        <v>0.6</v>
+      </c>
+      <c r="J26" s="147"/>
+      <c r="K26" s="24">
+        <v>0.6</v>
+      </c>
+      <c r="L26" s="147"/>
+      <c r="M26" s="24">
+        <v>0.6</v>
+      </c>
+      <c r="N26" s="147"/>
+      <c r="O26" s="24">
+        <v>0.8</v>
+      </c>
+      <c r="P26" s="147"/>
+      <c r="Q26" s="24">
+        <v>0.8</v>
+      </c>
+      <c r="R26" s="147"/>
+    </row>
+    <row r="27" spans="1:18" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="177"/>
       <c r="B27" s="45" t="s">
         <v>37</v>
       </c>
       <c r="C27" s="27">
-        <v>0.3</v>
-      </c>
-      <c r="D27" s="187"/>
+        <v>0.5</v>
+      </c>
+      <c r="D27" s="148"/>
       <c r="E27" s="27">
-        <v>0</v>
-      </c>
-      <c r="F27" s="187"/>
+        <v>0.5</v>
+      </c>
+      <c r="F27" s="148"/>
       <c r="G27" s="27">
-        <v>0</v>
-      </c>
-      <c r="H27" s="187"/>
-    </row>
-    <row r="28" spans="1:8" s="39" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="171" t="s">
-        <v>76</v>
-      </c>
-      <c r="B28" s="172"/>
+        <v>0.5</v>
+      </c>
+      <c r="H27" s="148"/>
+      <c r="I27" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="J27" s="148"/>
+      <c r="K27" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="L27" s="148"/>
+      <c r="M27" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="N27" s="148"/>
+      <c r="O27" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="P27" s="148"/>
+      <c r="Q27" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="R27" s="148"/>
+    </row>
+    <row r="28" spans="1:18" s="39" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="178" t="s">
+        <v>75</v>
+      </c>
+      <c r="B28" s="179"/>
       <c r="C28" s="38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28" s="44">
         <f>C28*0.5+1</f>
+        <v>1.5</v>
+      </c>
+      <c r="E28" s="38">
         <v>1</v>
-      </c>
-      <c r="E28" s="38">
-        <v>0</v>
       </c>
       <c r="F28" s="44">
         <f>E28*0.5+1</f>
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="G28" s="38">
         <v>0</v>
@@ -4671,79 +5477,211 @@
         <f>G28*0.5+1</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="167" t="s">
+      <c r="I28" s="38">
+        <v>0</v>
+      </c>
+      <c r="J28" s="44">
+        <f>I28*0.5+1</f>
+        <v>1</v>
+      </c>
+      <c r="K28" s="38">
+        <v>1</v>
+      </c>
+      <c r="L28" s="44">
+        <f>K28*0.5+1</f>
+        <v>1.5</v>
+      </c>
+      <c r="M28" s="38">
+        <v>1</v>
+      </c>
+      <c r="N28" s="44">
+        <f>M28*0.5+1</f>
+        <v>1.5</v>
+      </c>
+      <c r="O28" s="38">
+        <v>0</v>
+      </c>
+      <c r="P28" s="44">
+        <f>O28*0.5+1</f>
+        <v>1</v>
+      </c>
+      <c r="Q28" s="38">
+        <v>0</v>
+      </c>
+      <c r="R28" s="44">
+        <f>Q28*0.5+1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="169" t="s">
         <v>54</v>
       </c>
-      <c r="B29" s="168"/>
-      <c r="C29" s="173">
+      <c r="B29" s="170"/>
+      <c r="C29" s="149">
         <f>D2*D3*D4*D9*D10*D12*D16*D18*D20*D23/D24/D25*D28</f>
-        <v>21811.474285714288</v>
-      </c>
-      <c r="D29" s="174"/>
-      <c r="E29" s="173">
+        <v>38654706.815529115</v>
+      </c>
+      <c r="D29" s="150"/>
+      <c r="E29" s="149">
         <f>F2*F3*F4*F9*F10*F12*F16*F18*F20*F23/F24/F25*F28</f>
-        <v>41967.381825000004</v>
-      </c>
-      <c r="F29" s="174"/>
-      <c r="G29" s="173">
+        <v>38739662.215123691</v>
+      </c>
+      <c r="F29" s="150"/>
+      <c r="G29" s="165">
         <f>H2*H3*H4*H9*H10*H12*H16*H18*H20*H23/H24/H25*H28</f>
-        <v>45637.368918750006</v>
-      </c>
-      <c r="H29" s="174"/>
-    </row>
-    <row r="30" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C30" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="D30" s="20">
-        <v>11704</v>
-      </c>
-      <c r="E30" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="F30" s="20">
-        <v>38700</v>
-      </c>
-      <c r="G30" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="H30" s="20">
-        <v>38700</v>
+        <v>36649111.275646895</v>
+      </c>
+      <c r="H29" s="166"/>
+      <c r="I29" s="165">
+        <f>J2*J3*J4*J9*J10*J12*J16*J18*J20*J23/J24/J25*J28</f>
+        <v>36522647.813688129</v>
+      </c>
+      <c r="J29" s="166"/>
+      <c r="K29" s="165">
+        <f>L2*L3*L4*L9*L10*L12*L16*L18*L20*L23/L24/L25*L28</f>
+        <v>47044407.848656461</v>
+      </c>
+      <c r="L29" s="166"/>
+      <c r="M29" s="165">
+        <f>N2*N3*N4*N9*N10*N12*N16*N18*N20*N23/N24/N25*N28</f>
+        <v>50838311.707419075</v>
+      </c>
+      <c r="N29" s="166"/>
+      <c r="O29" s="167">
+        <f>P2*P3*P4*P9*P10*P12*P16*P18*P20*P23/P24/P25*P28</f>
+        <v>23522203.924328227</v>
+      </c>
+      <c r="P29" s="168"/>
+      <c r="Q29" s="167">
+        <f>R2*R3*R4*R9*R10*R12*R16*R18*R20*R23/R24/R25*R28</f>
+        <v>16394263.341198463</v>
+      </c>
+      <c r="R29" s="168"/>
+    </row>
+    <row r="30" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C30" s="125"/>
+      <c r="D30" s="126">
+        <f>C29*2</f>
+        <v>77309413.631058231</v>
+      </c>
+      <c r="E30" s="125"/>
+      <c r="F30" s="126">
+        <f>E29*2</f>
+        <v>77479324.430247381</v>
+      </c>
+      <c r="G30" s="127"/>
+      <c r="H30" s="128">
+        <f>G29*2</f>
+        <v>73298222.55129379</v>
+      </c>
+      <c r="I30" s="127"/>
+      <c r="J30" s="128">
+        <f>I29*2</f>
+        <v>73045295.627376258</v>
+      </c>
+      <c r="K30" s="127"/>
+      <c r="L30" s="128">
+        <f>K29*2</f>
+        <v>94088815.697312921</v>
+      </c>
+      <c r="M30" s="127"/>
+      <c r="N30" s="128">
+        <f>M29*2</f>
+        <v>101676623.41483815</v>
+      </c>
+      <c r="O30" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="P30" s="124">
+        <f>K29/O29</f>
+        <v>2.0000000000000004</v>
+      </c>
+      <c r="Q30" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="R30" s="124">
+        <f>K29/Q29</f>
+        <v>2.8695652173913047</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C31" s="125" t="s">
+        <v>175</v>
+      </c>
+      <c r="D31" s="125">
+        <v>45</v>
+      </c>
+      <c r="E31" s="125" t="s">
+        <v>175</v>
+      </c>
+      <c r="F31" s="125">
+        <v>52</v>
+      </c>
+      <c r="G31" s="127" t="s">
+        <v>175</v>
+      </c>
+      <c r="H31" s="127">
+        <v>49</v>
+      </c>
+      <c r="I31" s="127" t="s">
+        <v>175</v>
+      </c>
+      <c r="J31" s="127">
+        <v>56</v>
+      </c>
+      <c r="K31" s="127" t="s">
+        <v>175</v>
+      </c>
+      <c r="L31" s="127">
+        <v>42</v>
+      </c>
+      <c r="M31" s="127" t="s">
+        <v>175</v>
+      </c>
+      <c r="N31" s="127">
+        <v>47</v>
+      </c>
+      <c r="O31" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="P31" s="20">
+        <v>42</v>
+      </c>
+      <c r="Q31" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="R31" s="20">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O32" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="P32" s="123">
+        <f>100000000/O29</f>
+        <v>4.25130231511059</v>
+      </c>
+      <c r="Q32" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="R32" s="123">
+        <f>100000000/Q29</f>
+        <v>6.0996946260282376</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="42">
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="F20:F22"/>
-    <mergeCell ref="F25:F27"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="F4:F8"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="F12:F15"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="H20:H22"/>
-    <mergeCell ref="H25:H27"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="H4:H8"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="H12:H15"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="D12:D15"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="D25:D27"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="A28:B28"/>
+  <mergeCells count="87">
+    <mergeCell ref="N4:N8"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="D4:D8"/>
+    <mergeCell ref="D10:D11"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="A12:A15"/>
@@ -4751,12 +5689,77 @@
     <mergeCell ref="A4:A8"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="D4:D8"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="N12:N15"/>
+    <mergeCell ref="N16:N17"/>
+    <mergeCell ref="N18:N19"/>
+    <mergeCell ref="N20:N22"/>
+    <mergeCell ref="N25:N27"/>
+    <mergeCell ref="P18:P19"/>
+    <mergeCell ref="P20:P22"/>
+    <mergeCell ref="P25:P27"/>
+    <mergeCell ref="O29:P29"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="P4:P8"/>
+    <mergeCell ref="P10:P11"/>
+    <mergeCell ref="P12:P15"/>
+    <mergeCell ref="P16:P17"/>
+    <mergeCell ref="R18:R19"/>
+    <mergeCell ref="R20:R22"/>
+    <mergeCell ref="R25:R27"/>
+    <mergeCell ref="Q29:R29"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="R4:R8"/>
+    <mergeCell ref="R10:R11"/>
+    <mergeCell ref="R12:R15"/>
+    <mergeCell ref="R16:R17"/>
+    <mergeCell ref="L12:L15"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F4:F8"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="F12:F15"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="D12:D15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="L20:L22"/>
+    <mergeCell ref="L25:L27"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="H4:H8"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="H12:H15"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="H20:H22"/>
+    <mergeCell ref="H25:H27"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="L4:L8"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="F20:F22"/>
+    <mergeCell ref="F25:F27"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="J4:J8"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="J12:J15"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="J20:J22"/>
+    <mergeCell ref="J25:J27"/>
+    <mergeCell ref="I29:J29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4766,312 +5769,267 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30DD32DD-C8F1-4E13-B59E-D06F7BB09858}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.7109375" style="81" customWidth="1"/>
     <col min="2" max="2" width="10.140625" style="81" customWidth="1"/>
-    <col min="3" max="5" width="10.42578125" style="81" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="81"/>
+    <col min="3" max="4" width="10.42578125" style="81" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="81"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C1" s="81" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D1" s="81" t="s">
-        <v>184</v>
-      </c>
-      <c r="E1" s="98" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="82" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="82" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="82" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B2" s="82" t="s">
+        <v>141</v>
+      </c>
+      <c r="C2" s="83">
+        <v>0.8</v>
+      </c>
+      <c r="D2" s="83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="82" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="82" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" s="196">
+        <v>0.1</v>
+      </c>
+      <c r="D3" s="196"/>
+    </row>
+    <row r="4" spans="1:4" s="119" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="119" t="s">
+        <v>174</v>
+      </c>
+      <c r="C4" s="204">
+        <v>0</v>
+      </c>
+      <c r="D4" s="205"/>
+    </row>
+    <row r="5" spans="1:4" s="102" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="102" t="s">
+        <v>175</v>
+      </c>
+      <c r="C5" s="101">
+        <v>0</v>
+      </c>
+      <c r="D5" s="101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="84" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="84" t="s">
+        <v>152</v>
+      </c>
+      <c r="B6" s="84" t="s">
+        <v>141</v>
+      </c>
+      <c r="C6" s="85">
+        <v>0</v>
+      </c>
+      <c r="D6" s="85">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="84" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="84" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" s="201">
+        <v>0.4</v>
+      </c>
+      <c r="D7" s="201"/>
+    </row>
+    <row r="8" spans="1:4" s="84" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="84" t="s">
+        <v>174</v>
+      </c>
+      <c r="C8" s="201">
+        <v>0</v>
+      </c>
+      <c r="D8" s="201"/>
+    </row>
+    <row r="9" spans="1:4" s="99" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="99" t="s">
+        <v>175</v>
+      </c>
+      <c r="C9" s="98">
+        <v>0</v>
+      </c>
+      <c r="D9" s="98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="86" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="86" t="s">
+        <v>142</v>
+      </c>
+      <c r="B10" s="86" t="s">
+        <v>141</v>
+      </c>
+      <c r="C10" s="87">
+        <v>0.3</v>
+      </c>
+      <c r="D10" s="87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="86" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="86" t="s">
+        <v>143</v>
+      </c>
+      <c r="C11" s="202">
+        <v>0</v>
+      </c>
+      <c r="D11" s="203"/>
+    </row>
+    <row r="12" spans="1:4" s="86" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="86" t="s">
+        <v>153</v>
+      </c>
+      <c r="C12" s="200">
+        <v>0.5</v>
+      </c>
+      <c r="D12" s="200"/>
+    </row>
+    <row r="13" spans="1:4" s="88" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="88" t="s">
+        <v>84</v>
+      </c>
+      <c r="B13" s="88" t="s">
+        <v>155</v>
+      </c>
+      <c r="C13" s="199">
+        <v>0</v>
+      </c>
+      <c r="D13" s="199"/>
+    </row>
+    <row r="14" spans="1:4" s="120" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="120" t="s">
+        <v>176</v>
+      </c>
+      <c r="C14" s="199">
+        <v>0</v>
+      </c>
+      <c r="D14" s="199"/>
+    </row>
+    <row r="15" spans="1:4" s="88" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="88" t="s">
+        <v>154</v>
+      </c>
+      <c r="C15" s="199">
+        <v>0</v>
+      </c>
+      <c r="D15" s="199"/>
+    </row>
+    <row r="16" spans="1:4" s="89" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="89" t="s">
+        <v>145</v>
+      </c>
+      <c r="B16" s="89" t="s">
+        <v>144</v>
+      </c>
+      <c r="C16" s="197">
+        <v>1</v>
+      </c>
+      <c r="D16" s="197"/>
+    </row>
+    <row r="17" spans="1:4" s="89" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="89" t="s">
+        <v>152</v>
+      </c>
+      <c r="C17" s="198">
+        <v>1</v>
+      </c>
+      <c r="D17" s="198"/>
+    </row>
+    <row r="18" spans="1:4" s="90" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="90" t="s">
         <v>146</v>
       </c>
-      <c r="C2" s="83">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="D2" s="83">
-        <v>0.9</v>
-      </c>
-      <c r="E2" s="120">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" s="82" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="82" t="s">
-        <v>86</v>
-      </c>
-      <c r="C3" s="188">
-        <v>0.2</v>
-      </c>
-      <c r="D3" s="188"/>
-      <c r="E3" s="188"/>
-    </row>
-    <row r="4" spans="1:5" s="121" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="121" t="s">
-        <v>179</v>
-      </c>
-      <c r="C4" s="196">
-        <v>0</v>
-      </c>
-      <c r="D4" s="197"/>
-      <c r="E4" s="197"/>
-    </row>
-    <row r="5" spans="1:5" s="103" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="103" t="s">
-        <v>180</v>
-      </c>
-      <c r="C5" s="102">
-        <v>0</v>
-      </c>
-      <c r="D5" s="102">
-        <v>0</v>
-      </c>
-      <c r="E5" s="120">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" s="84" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="84" t="s">
-        <v>157</v>
-      </c>
-      <c r="B6" s="84" t="s">
-        <v>146</v>
-      </c>
-      <c r="C6" s="85">
-        <v>0.6</v>
-      </c>
-      <c r="D6" s="85">
-        <v>0</v>
-      </c>
-      <c r="E6" s="124">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" s="84" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="84" t="s">
-        <v>86</v>
-      </c>
-      <c r="C7" s="193">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="D7" s="193"/>
-      <c r="E7" s="193"/>
-    </row>
-    <row r="8" spans="1:5" s="84" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="84" t="s">
-        <v>179</v>
-      </c>
-      <c r="C8" s="193">
-        <v>0</v>
-      </c>
-      <c r="D8" s="193"/>
-      <c r="E8" s="193"/>
-    </row>
-    <row r="9" spans="1:5" s="100" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="100" t="s">
-        <v>180</v>
-      </c>
-      <c r="C9" s="99">
-        <v>0</v>
-      </c>
-      <c r="D9" s="99">
-        <v>0</v>
-      </c>
-      <c r="E9" s="124">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" s="86" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="86" t="s">
-        <v>147</v>
-      </c>
-      <c r="B10" s="86" t="s">
-        <v>146</v>
-      </c>
-      <c r="C10" s="87">
-        <v>0</v>
-      </c>
-      <c r="D10" s="87">
-        <v>0</v>
-      </c>
-      <c r="E10" s="123">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" s="86" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="86" t="s">
-        <v>148</v>
-      </c>
-      <c r="C11" s="194">
-        <v>0</v>
-      </c>
-      <c r="D11" s="195"/>
-      <c r="E11" s="195"/>
-    </row>
-    <row r="12" spans="1:5" s="86" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="86" t="s">
-        <v>158</v>
-      </c>
-      <c r="C12" s="192">
-        <v>0.5</v>
-      </c>
-      <c r="D12" s="192"/>
-      <c r="E12" s="192"/>
-    </row>
-    <row r="13" spans="1:5" s="88" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="88" t="s">
-        <v>85</v>
-      </c>
-      <c r="B13" s="88" t="s">
-        <v>160</v>
-      </c>
-      <c r="C13" s="191">
-        <v>0</v>
-      </c>
-      <c r="D13" s="191"/>
-      <c r="E13" s="191"/>
-    </row>
-    <row r="14" spans="1:5" s="122" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="122" t="s">
-        <v>181</v>
-      </c>
-      <c r="C14" s="191">
-        <v>0</v>
-      </c>
-      <c r="D14" s="191"/>
-      <c r="E14" s="191"/>
-    </row>
-    <row r="15" spans="1:5" s="88" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="88" t="s">
-        <v>159</v>
-      </c>
-      <c r="C15" s="191">
-        <v>0</v>
-      </c>
-      <c r="D15" s="191"/>
-      <c r="E15" s="191"/>
-    </row>
-    <row r="16" spans="1:5" s="89" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="89" t="s">
-        <v>150</v>
-      </c>
-      <c r="B16" s="89" t="s">
-        <v>149</v>
-      </c>
-      <c r="C16" s="189">
-        <v>1</v>
-      </c>
-      <c r="D16" s="189"/>
-      <c r="E16" s="189"/>
-    </row>
-    <row r="17" spans="1:5" s="89" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="89" t="s">
-        <v>157</v>
-      </c>
-      <c r="C17" s="190">
-        <v>1</v>
-      </c>
-      <c r="D17" s="190"/>
-      <c r="E17" s="190"/>
-    </row>
-    <row r="18" spans="1:5" s="90" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="90" t="s">
-        <v>151</v>
-      </c>
       <c r="B18" s="90" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C18" s="92">
         <f t="shared" ref="C18" si="0">(1+C2+$C3)*(1+$C4+C5)*(1+C10+$C11+$C12)*(1+$C13)*$C16</f>
-        <v>2.625</v>
+        <v>3.4200000000000004</v>
       </c>
       <c r="D18" s="92">
         <f>(1+D2+$C3)*(1+$C4+D5)*(1+D10+$C11+$C12)*(1+$C13)*$C16</f>
-        <v>3.1500000000000004</v>
-      </c>
-      <c r="E18" s="92">
-        <f>(1+E2+$C3)*(1+$C4+E5)*(1+E10+$C11+$C12)*(1+$C13)*$C16</f>
-        <v>3.42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" s="90" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="101">
-        <f>-(1-MAX(C18:E18)/MAX(C20:E20))</f>
-        <v>-0.39401993355481735</v>
+        <v>1.6500000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" s="90" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="100">
+        <f>-(1-MAX(C18:D18)/MAX(C20:D20))</f>
+        <v>-0.35227272727272718</v>
       </c>
       <c r="C19" s="91">
-        <f>-(1-(C18/MAX($C18:$E18)))</f>
-        <v>-0.23245614035087714</v>
+        <f>-(1-(C18/MAX($C18:$D18)))</f>
+        <v>0</v>
       </c>
       <c r="D19" s="91">
-        <f>-(1-(D18/MAX($C18:$E18)))</f>
-        <v>-7.8947368421052544E-2</v>
-      </c>
-      <c r="E19" s="91">
-        <f>-(1-(E18/MAX($C18:$E18)))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" s="90" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <f>-(1-(D18/MAX($C18:$D18)))</f>
+        <v>-0.51754385964912286</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" s="90" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="90" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C20" s="92">
         <f>(1+C2+$C3)*(1+$C4+C5)*(1+C6+$C7+$C14)*(1+$C8+C9)*(1+C10+$C11+$C12)*(1+$C15)*$C17</f>
-        <v>5.6437500000000007</v>
+        <v>4.7880000000000003</v>
       </c>
       <c r="D20" s="92">
         <f>(1+D2+$C3)*(1+$C4+D5)*(1+D6+$C7+$C14)*(1+$C8+D9)*(1+D10+$C11+$C12)*(1+$C15)*$C17</f>
-        <v>4.8825000000000003</v>
-      </c>
-      <c r="E20" s="92">
-        <f>(1+E2+$C3)*(1+$C4+E5)*(1+E6+$C7+$C14)*(1+$C8+E9)*(1+E10+$C11+$C12)*(1+$C15)*$C17</f>
-        <v>5.3010000000000002</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" s="90" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="101">
-        <f>-(1-MAX(C20:E20)/MAX(C18:E18))</f>
-        <v>0.65021929824561431</v>
+        <v>5.28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" s="90" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="100">
+        <f>-(1-MAX(C20:D20)/MAX(C18:D18))</f>
+        <v>0.54385964912280693</v>
       </c>
       <c r="C21" s="91">
-        <f>-(1-(C20/MAX($C20:$E20)))</f>
-        <v>0</v>
+        <f>-(1-(C20/MAX($C20:$D20)))</f>
+        <v>-9.3181818181818143E-2</v>
       </c>
       <c r="D21" s="91">
-        <f>-(1-(D20/MAX($C20:$E20)))</f>
-        <v>-0.1348837209302326</v>
-      </c>
-      <c r="E21" s="91">
-        <f>-(1-(E20/MAX($C20:$E20)))</f>
-        <v>-6.0730897009966922E-2</v>
+        <f>-(1-(D20/MAX($C20:$D20)))</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C14:D14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5083,35 +6041,37 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="A1:D9"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="9.140625" style="93"/>
     <col min="3" max="3" width="9.140625" style="93" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="93"/>
+    <col min="4" max="4" width="9.140625" style="93"/>
+    <col min="5" max="5" width="9.140625" style="121"/>
+    <col min="6" max="16384" width="9.140625" style="93"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="199" t="s">
-        <v>62</v>
-      </c>
-      <c r="B1" s="199"/>
-      <c r="C1" s="198" t="s">
+      <c r="A1" s="207" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="207"/>
+      <c r="C1" s="206" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="198"/>
+      <c r="D1" s="206"/>
     </row>
     <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="72" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B2" s="94">
-        <v>0.12</v>
+        <v>0.3</v>
       </c>
       <c r="C2" s="63" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="D2" s="95">
         <v>1.7</v>
@@ -5119,98 +6079,104 @@
     </row>
     <row r="3" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="72" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B3" s="94">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C3" s="63" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D3" s="95">
-        <v>0.45</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="72" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B4" s="94">
         <f>B2+B3</f>
-        <v>0.12</v>
+        <v>0.4</v>
       </c>
       <c r="C4" s="63" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D4" s="95">
         <f>D2+D3</f>
-        <v>2.15</v>
+        <v>1.8499999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B5" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="202" t="s">
-        <v>156</v>
-      </c>
-      <c r="D5" s="203"/>
+      <c r="C5" s="210" t="s">
+        <v>151</v>
+      </c>
+      <c r="D5" s="211"/>
     </row>
     <row r="6" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B6" s="65" t="s">
-        <v>152</v>
-      </c>
-      <c r="C6" s="200">
-        <f>1*(1-B2)+(1+D2)*(B2)</f>
-        <v>1.204</v>
-      </c>
-      <c r="D6" s="201"/>
+        <v>147</v>
+      </c>
+      <c r="C6" s="208">
+        <f>1*(1-B2)+D2*(B2)</f>
+        <v>1.21</v>
+      </c>
+      <c r="D6" s="209"/>
     </row>
     <row r="7" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B7" s="96" t="s">
-        <v>155</v>
-      </c>
-      <c r="C7" s="200">
-        <f>1*(1-B2)+(1+D4)*(B2)</f>
-        <v>1.258</v>
-      </c>
-      <c r="D7" s="201"/>
+        <v>150</v>
+      </c>
+      <c r="C7" s="208">
+        <f>1*(1-B2)+D4*(B2)</f>
+        <v>1.2549999999999999</v>
+      </c>
+      <c r="D7" s="209"/>
+      <c r="E7" s="122"/>
     </row>
     <row r="8" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="96" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B8" s="65" t="s">
-        <v>152</v>
-      </c>
-      <c r="C8" s="200">
-        <f>1*(1-B4)+(1+D2)*(B4)</f>
-        <v>1.204</v>
-      </c>
-      <c r="D8" s="201"/>
+        <v>147</v>
+      </c>
+      <c r="C8" s="208">
+        <f>1*(1-B4)+D2*(B4)</f>
+        <v>1.28</v>
+      </c>
+      <c r="D8" s="209"/>
+      <c r="E8" s="122">
+        <f>C8/C6</f>
+        <v>1.0578512396694215</v>
+      </c>
       <c r="F8" s="97"/>
     </row>
     <row r="9" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="96" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B9" s="96" t="s">
-        <v>155</v>
-      </c>
-      <c r="C9" s="200">
-        <f>1*(1-B4)+(1+D4)*(B4)</f>
-        <v>1.258</v>
-      </c>
-      <c r="D9" s="201"/>
+        <v>150</v>
+      </c>
+      <c r="C9" s="208">
+        <f>1*(1-B4)+D4*(B4)</f>
+        <v>1.3399999999999999</v>
+      </c>
+      <c r="D9" s="209"/>
+      <c r="E9" s="122"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -5236,1667 +6202,1667 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="104" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="103" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="93"/>
     <col min="3" max="3" width="2.42578125" style="93" customWidth="1"/>
-    <col min="4" max="4" width="4.140625" style="105" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" style="105" customWidth="1"/>
-    <col min="6" max="6" width="8.5703125" style="105" customWidth="1"/>
-    <col min="7" max="7" width="8.140625" style="105" customWidth="1"/>
-    <col min="8" max="9" width="10.5703125" style="105" customWidth="1"/>
-    <col min="10" max="10" width="6.85546875" style="106" customWidth="1"/>
-    <col min="11" max="11" width="10.5703125" style="117" customWidth="1"/>
-    <col min="12" max="12" width="7.28515625" style="119" customWidth="1"/>
+    <col min="4" max="4" width="4.140625" style="104" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" style="104" customWidth="1"/>
+    <col min="6" max="6" width="8.5703125" style="104" customWidth="1"/>
+    <col min="7" max="7" width="8.140625" style="104" customWidth="1"/>
+    <col min="8" max="9" width="10.5703125" style="104" customWidth="1"/>
+    <col min="10" max="10" width="6.85546875" style="105" customWidth="1"/>
+    <col min="11" max="11" width="10.5703125" style="116" customWidth="1"/>
+    <col min="12" max="12" width="7.28515625" style="118" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="93"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="104" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="111" t="s">
-        <v>168</v>
-      </c>
-      <c r="B1" s="111">
+    <row r="1" spans="1:12" s="103" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="110" t="s">
+        <v>163</v>
+      </c>
+      <c r="B1" s="110">
         <v>3</v>
       </c>
-      <c r="D1" s="111" t="s">
-        <v>163</v>
-      </c>
-      <c r="E1" s="111" t="s">
-        <v>164</v>
-      </c>
-      <c r="F1" s="111" t="s">
+      <c r="D1" s="110" t="s">
+        <v>158</v>
+      </c>
+      <c r="E1" s="110" t="s">
+        <v>159</v>
+      </c>
+      <c r="F1" s="110" t="s">
+        <v>160</v>
+      </c>
+      <c r="G1" s="110" t="s">
+        <v>172</v>
+      </c>
+      <c r="H1" s="110" t="s">
+        <v>161</v>
+      </c>
+      <c r="I1" s="110" t="s">
         <v>165</v>
       </c>
-      <c r="G1" s="111" t="s">
-        <v>177</v>
-      </c>
-      <c r="H1" s="111" t="s">
+      <c r="J1" s="111" t="s">
         <v>166</v>
       </c>
-      <c r="I1" s="111" t="s">
-        <v>170</v>
-      </c>
-      <c r="J1" s="112" t="s">
-        <v>171</v>
-      </c>
-      <c r="K1" s="116" t="s">
-        <v>178</v>
-      </c>
-      <c r="L1" s="118" t="s">
-        <v>171</v>
+      <c r="K1" s="115" t="s">
+        <v>173</v>
+      </c>
+      <c r="L1" s="117" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="111" t="s">
-        <v>167</v>
-      </c>
-      <c r="B2" s="113">
+      <c r="A2" s="110" t="s">
+        <v>162</v>
+      </c>
+      <c r="B2" s="112">
         <v>0.09</v>
       </c>
-      <c r="D2" s="105">
+      <c r="D2" s="104">
         <v>1</v>
       </c>
-      <c r="E2" s="105">
+      <c r="E2" s="104">
         <f>$B$1*D2</f>
         <v>3</v>
       </c>
-      <c r="F2" s="107">
+      <c r="F2" s="106">
         <f t="shared" ref="F2:F42" si="0">$B$2+$B$6*_xlfn.FLOOR.MATH(E2/$B$3)</f>
         <v>0.09</v>
       </c>
-      <c r="G2" s="107">
+      <c r="G2" s="106">
         <f>F2/$B$1</f>
         <v>0.03</v>
       </c>
-      <c r="H2" s="107">
+      <c r="H2" s="106">
         <f>SUM($F$2:F2)</f>
         <v>0.09</v>
       </c>
-      <c r="I2" s="108">
+      <c r="I2" s="107">
         <f>H2/E2</f>
         <v>0.03</v>
       </c>
-      <c r="J2" s="106">
+      <c r="J2" s="105">
         <f>1/I2</f>
         <v>33.333333333333336</v>
       </c>
-      <c r="K2" s="117">
+      <c r="K2" s="116">
         <f>IF($B$13-G2&gt;0,"",$B$13-G2)</f>
         <v>-1.9230769230769232E-2</v>
       </c>
-      <c r="L2" s="119">
+      <c r="L2" s="118">
         <f>IF(ISNUMBER(K2),-1/K2,"")</f>
         <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="111" t="s">
-        <v>161</v>
-      </c>
-      <c r="B3" s="105">
+      <c r="A3" s="110" t="s">
+        <v>156</v>
+      </c>
+      <c r="B3" s="104">
         <v>12.2</v>
       </c>
-      <c r="D3" s="105">
+      <c r="D3" s="104">
         <f>D2+1</f>
         <v>2</v>
       </c>
-      <c r="E3" s="105">
+      <c r="E3" s="104">
         <f>$B$1*D3</f>
         <v>6</v>
       </c>
-      <c r="F3" s="107">
+      <c r="F3" s="106">
         <f t="shared" si="0"/>
         <v>0.09</v>
       </c>
-      <c r="G3" s="107">
+      <c r="G3" s="106">
         <f t="shared" ref="G3:G42" si="1">F3/$B$1</f>
         <v>0.03</v>
       </c>
-      <c r="H3" s="107">
+      <c r="H3" s="106">
         <f>SUM($F$2:F3)</f>
         <v>0.18</v>
       </c>
-      <c r="I3" s="108">
+      <c r="I3" s="107">
         <f t="shared" ref="I3:I35" si="2">H3/E3</f>
         <v>0.03</v>
       </c>
-      <c r="J3" s="106">
+      <c r="J3" s="105">
         <f t="shared" ref="J3:J42" si="3">1/I3</f>
         <v>33.333333333333336</v>
       </c>
-      <c r="K3" s="117">
+      <c r="K3" s="116">
         <f t="shared" ref="K3:K35" si="4">IF($B$13-G3&gt;0,"",$B$13-G3)</f>
         <v>-1.9230769230769232E-2</v>
       </c>
-      <c r="L3" s="119">
+      <c r="L3" s="118">
         <f t="shared" ref="L3:L42" si="5">IF(ISNUMBER(K3),-1/K3,"")</f>
         <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="111" t="s">
-        <v>162</v>
-      </c>
-      <c r="B4" s="113">
+      <c r="A4" s="110" t="s">
+        <v>157</v>
+      </c>
+      <c r="B4" s="112">
         <v>0.3</v>
       </c>
-      <c r="D4" s="105">
+      <c r="D4" s="104">
         <f t="shared" ref="D4:D15" si="6">D3+1</f>
         <v>3</v>
       </c>
-      <c r="E4" s="105">
+      <c r="E4" s="104">
         <f t="shared" ref="E4:E20" si="7">$B$1*D4</f>
         <v>9</v>
       </c>
-      <c r="F4" s="107">
+      <c r="F4" s="106">
         <f t="shared" si="0"/>
         <v>0.09</v>
       </c>
-      <c r="G4" s="107">
+      <c r="G4" s="106">
         <f t="shared" si="1"/>
         <v>0.03</v>
       </c>
-      <c r="H4" s="107">
+      <c r="H4" s="106">
         <f>SUM($F$2:F4)</f>
         <v>0.27</v>
       </c>
-      <c r="I4" s="108">
+      <c r="I4" s="107">
         <f t="shared" si="2"/>
         <v>3.0000000000000002E-2</v>
       </c>
-      <c r="J4" s="106">
+      <c r="J4" s="105">
         <f t="shared" si="3"/>
         <v>33.333333333333329</v>
       </c>
-      <c r="K4" s="117">
+      <c r="K4" s="116">
         <f t="shared" si="4"/>
         <v>-1.9230769230769232E-2</v>
       </c>
-      <c r="L4" s="119">
+      <c r="L4" s="118">
         <f t="shared" si="5"/>
         <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D5" s="105">
+      <c r="D5" s="104">
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="E5" s="105">
+      <c r="E5" s="104">
         <f t="shared" si="7"/>
         <v>12</v>
       </c>
-      <c r="F5" s="107">
+      <c r="F5" s="106">
         <f t="shared" si="0"/>
         <v>0.09</v>
       </c>
-      <c r="G5" s="107">
+      <c r="G5" s="106">
         <f t="shared" si="1"/>
         <v>0.03</v>
       </c>
-      <c r="H5" s="107">
+      <c r="H5" s="106">
         <f>SUM($F$2:F5)</f>
         <v>0.36</v>
       </c>
-      <c r="I5" s="108">
+      <c r="I5" s="107">
         <f t="shared" si="2"/>
         <v>0.03</v>
       </c>
-      <c r="J5" s="106">
+      <c r="J5" s="105">
         <f t="shared" si="3"/>
         <v>33.333333333333336</v>
       </c>
-      <c r="K5" s="117">
+      <c r="K5" s="116">
         <f t="shared" si="4"/>
         <v>-1.9230769230769232E-2</v>
       </c>
-      <c r="L5" s="119">
+      <c r="L5" s="118">
         <f t="shared" si="5"/>
         <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="104" t="s">
-        <v>169</v>
+      <c r="A6" s="103" t="s">
+        <v>164</v>
       </c>
       <c r="B6" s="97">
         <f>B2*B4</f>
         <v>2.7E-2</v>
       </c>
-      <c r="D6" s="105">
+      <c r="D6" s="104">
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="E6" s="105">
+      <c r="E6" s="104">
         <f t="shared" si="7"/>
         <v>15</v>
       </c>
-      <c r="F6" s="107">
+      <c r="F6" s="106">
         <f t="shared" si="0"/>
         <v>0.11699999999999999</v>
       </c>
-      <c r="G6" s="107">
+      <c r="G6" s="106">
         <f t="shared" si="1"/>
         <v>3.9E-2</v>
       </c>
-      <c r="H6" s="107">
+      <c r="H6" s="106">
         <f>SUM($F$2:F6)</f>
         <v>0.47699999999999998</v>
       </c>
-      <c r="I6" s="108">
+      <c r="I6" s="107">
         <f t="shared" si="2"/>
         <v>3.1800000000000002E-2</v>
       </c>
-      <c r="J6" s="106">
+      <c r="J6" s="105">
         <f t="shared" si="3"/>
         <v>31.446540880503143</v>
       </c>
-      <c r="K6" s="117">
+      <c r="K6" s="116">
         <f t="shared" si="4"/>
         <v>-2.8230769230769233E-2</v>
       </c>
-      <c r="L6" s="119">
+      <c r="L6" s="118">
         <f t="shared" si="5"/>
         <v>35.422343324250676</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D7" s="105">
+      <c r="D7" s="104">
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
-      <c r="E7" s="105">
+      <c r="E7" s="104">
         <f t="shared" si="7"/>
         <v>18</v>
       </c>
-      <c r="F7" s="107">
+      <c r="F7" s="106">
         <f t="shared" si="0"/>
         <v>0.11699999999999999</v>
       </c>
-      <c r="G7" s="107">
+      <c r="G7" s="106">
         <f t="shared" si="1"/>
         <v>3.9E-2</v>
       </c>
-      <c r="H7" s="107">
+      <c r="H7" s="106">
         <f>SUM($F$2:F7)</f>
         <v>0.59399999999999997</v>
       </c>
-      <c r="I7" s="108">
+      <c r="I7" s="107">
         <f t="shared" si="2"/>
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="J7" s="106">
+      <c r="J7" s="105">
         <f t="shared" si="3"/>
         <v>30.303030303030301</v>
       </c>
-      <c r="K7" s="117">
+      <c r="K7" s="116">
         <f t="shared" si="4"/>
         <v>-2.8230769230769233E-2</v>
       </c>
-      <c r="L7" s="119">
+      <c r="L7" s="118">
         <f t="shared" si="5"/>
         <v>35.422343324250676</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="65" t="s">
-        <v>172</v>
-      </c>
-      <c r="B8" s="114">
+        <v>167</v>
+      </c>
+      <c r="B8" s="113">
         <v>3.9</v>
       </c>
       <c r="C8" s="97"/>
-      <c r="D8" s="105">
+      <c r="D8" s="104">
         <f t="shared" si="6"/>
         <v>7</v>
       </c>
-      <c r="E8" s="105">
+      <c r="E8" s="104">
         <f t="shared" si="7"/>
         <v>21</v>
       </c>
-      <c r="F8" s="107">
+      <c r="F8" s="106">
         <f t="shared" si="0"/>
         <v>0.11699999999999999</v>
       </c>
-      <c r="G8" s="107">
+      <c r="G8" s="106">
         <f t="shared" si="1"/>
         <v>3.9E-2</v>
       </c>
-      <c r="H8" s="107">
+      <c r="H8" s="106">
         <f>SUM($F$2:F8)</f>
         <v>0.71099999999999997</v>
       </c>
-      <c r="I8" s="108">
+      <c r="I8" s="107">
         <f t="shared" si="2"/>
         <v>3.3857142857142856E-2</v>
       </c>
-      <c r="J8" s="106">
+      <c r="J8" s="105">
         <f t="shared" si="3"/>
         <v>29.535864978902953</v>
       </c>
-      <c r="K8" s="117">
+      <c r="K8" s="116">
         <f t="shared" si="4"/>
         <v>-2.8230769230769233E-2</v>
       </c>
-      <c r="L8" s="119">
+      <c r="L8" s="118">
         <f t="shared" si="5"/>
         <v>35.422343324250676</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="65" t="s">
-        <v>173</v>
-      </c>
-      <c r="B9" s="115">
+        <v>168</v>
+      </c>
+      <c r="B9" s="114">
         <v>0.06</v>
       </c>
-      <c r="D9" s="105">
+      <c r="D9" s="104">
         <f t="shared" si="6"/>
         <v>8</v>
       </c>
-      <c r="E9" s="105">
+      <c r="E9" s="104">
         <f t="shared" si="7"/>
         <v>24</v>
       </c>
-      <c r="F9" s="107">
+      <c r="F9" s="106">
         <f t="shared" si="0"/>
         <v>0.11699999999999999</v>
       </c>
-      <c r="G9" s="107">
+      <c r="G9" s="106">
         <f t="shared" si="1"/>
         <v>3.9E-2</v>
       </c>
-      <c r="H9" s="107">
+      <c r="H9" s="106">
         <f>SUM($F$2:F9)</f>
         <v>0.82799999999999996</v>
       </c>
-      <c r="I9" s="108">
+      <c r="I9" s="107">
         <f t="shared" si="2"/>
         <v>3.4499999999999996E-2</v>
       </c>
-      <c r="J9" s="106">
+      <c r="J9" s="105">
         <f t="shared" si="3"/>
         <v>28.985507246376816</v>
       </c>
-      <c r="K9" s="117">
+      <c r="K9" s="116">
         <f t="shared" si="4"/>
         <v>-2.8230769230769233E-2</v>
       </c>
-      <c r="L9" s="119">
+      <c r="L9" s="118">
         <f t="shared" si="5"/>
         <v>35.422343324250676</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="65" t="s">
-        <v>174</v>
-      </c>
-      <c r="B10" s="115">
+        <v>169</v>
+      </c>
+      <c r="B10" s="114">
         <v>0.3</v>
       </c>
-      <c r="D10" s="105">
+      <c r="D10" s="104">
         <f t="shared" si="6"/>
         <v>9</v>
       </c>
-      <c r="E10" s="105">
+      <c r="E10" s="104">
         <f t="shared" si="7"/>
         <v>27</v>
       </c>
-      <c r="F10" s="107">
+      <c r="F10" s="106">
         <f t="shared" si="0"/>
         <v>0.14399999999999999</v>
       </c>
-      <c r="G10" s="107">
+      <c r="G10" s="106">
         <f t="shared" si="1"/>
         <v>4.7999999999999994E-2</v>
       </c>
-      <c r="H10" s="107">
+      <c r="H10" s="106">
         <f>SUM($F$2:F10)</f>
         <v>0.97199999999999998</v>
       </c>
-      <c r="I10" s="108">
+      <c r="I10" s="107">
         <f t="shared" si="2"/>
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="J10" s="106">
+      <c r="J10" s="105">
         <f t="shared" si="3"/>
         <v>27.777777777777779</v>
       </c>
-      <c r="K10" s="117">
+      <c r="K10" s="116">
         <f t="shared" si="4"/>
         <v>-3.7230769230769227E-2</v>
       </c>
-      <c r="L10" s="119">
+      <c r="L10" s="118">
         <f t="shared" si="5"/>
         <v>26.859504132231407</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="109"/>
-      <c r="D11" s="105">
+      <c r="B11" s="108"/>
+      <c r="D11" s="104">
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
-      <c r="E11" s="105">
+      <c r="E11" s="104">
         <f t="shared" si="7"/>
         <v>30</v>
       </c>
-      <c r="F11" s="107">
+      <c r="F11" s="106">
         <f t="shared" si="0"/>
         <v>0.14399999999999999</v>
       </c>
-      <c r="G11" s="107">
+      <c r="G11" s="106">
         <f t="shared" si="1"/>
         <v>4.7999999999999994E-2</v>
       </c>
-      <c r="H11" s="107">
+      <c r="H11" s="106">
         <f>SUM($F$2:F11)</f>
         <v>1.1159999999999999</v>
       </c>
-      <c r="I11" s="108">
+      <c r="I11" s="107">
         <f t="shared" si="2"/>
         <v>3.7199999999999997E-2</v>
       </c>
-      <c r="J11" s="106">
+      <c r="J11" s="105">
         <f t="shared" si="3"/>
         <v>26.881720430107528</v>
       </c>
-      <c r="K11" s="117">
+      <c r="K11" s="116">
         <f t="shared" si="4"/>
         <v>-3.7230769230769227E-2</v>
       </c>
-      <c r="L11" s="119">
+      <c r="L11" s="118">
         <f t="shared" si="5"/>
         <v>26.859504132231407</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="104" t="s">
-        <v>175</v>
+      <c r="A12" s="103" t="s">
+        <v>170</v>
       </c>
       <c r="B12" s="97">
         <f>B9*(1-B10)</f>
         <v>4.1999999999999996E-2</v>
       </c>
-      <c r="D12" s="105">
+      <c r="D12" s="104">
         <f t="shared" si="6"/>
         <v>11</v>
       </c>
-      <c r="E12" s="105">
+      <c r="E12" s="104">
         <f t="shared" si="7"/>
         <v>33</v>
       </c>
-      <c r="F12" s="107">
+      <c r="F12" s="106">
         <f t="shared" si="0"/>
         <v>0.14399999999999999</v>
       </c>
-      <c r="G12" s="107">
+      <c r="G12" s="106">
         <f t="shared" si="1"/>
         <v>4.7999999999999994E-2</v>
       </c>
-      <c r="H12" s="107">
+      <c r="H12" s="106">
         <f>SUM($F$2:F12)</f>
         <v>1.2599999999999998</v>
       </c>
-      <c r="I12" s="108">
+      <c r="I12" s="107">
         <f t="shared" si="2"/>
         <v>3.8181818181818178E-2</v>
       </c>
-      <c r="J12" s="106">
+      <c r="J12" s="105">
         <f t="shared" si="3"/>
         <v>26.190476190476193</v>
       </c>
-      <c r="K12" s="117">
+      <c r="K12" s="116">
         <f t="shared" si="4"/>
         <v>-3.7230769230769227E-2</v>
       </c>
-      <c r="L12" s="119">
+      <c r="L12" s="118">
         <f t="shared" si="5"/>
         <v>26.859504132231407</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="104" t="s">
-        <v>176</v>
-      </c>
-      <c r="B13" s="110">
+      <c r="A13" s="103" t="s">
+        <v>171</v>
+      </c>
+      <c r="B13" s="109">
         <f>B12/B8</f>
         <v>1.0769230769230769E-2</v>
       </c>
-      <c r="D13" s="105">
+      <c r="D13" s="104">
         <f t="shared" si="6"/>
         <v>12</v>
       </c>
-      <c r="E13" s="105">
+      <c r="E13" s="104">
         <f t="shared" si="7"/>
         <v>36</v>
       </c>
-      <c r="F13" s="107">
+      <c r="F13" s="106">
         <f t="shared" si="0"/>
         <v>0.14399999999999999</v>
       </c>
-      <c r="G13" s="107">
+      <c r="G13" s="106">
         <f t="shared" si="1"/>
         <v>4.7999999999999994E-2</v>
       </c>
-      <c r="H13" s="107">
+      <c r="H13" s="106">
         <f>SUM($F$2:F13)</f>
         <v>1.4039999999999997</v>
       </c>
-      <c r="I13" s="108">
+      <c r="I13" s="107">
         <f t="shared" si="2"/>
         <v>3.8999999999999993E-2</v>
       </c>
-      <c r="J13" s="106">
+      <c r="J13" s="105">
         <f t="shared" si="3"/>
         <v>25.641025641025646</v>
       </c>
-      <c r="K13" s="117">
+      <c r="K13" s="116">
         <f t="shared" si="4"/>
         <v>-3.7230769230769227E-2</v>
       </c>
-      <c r="L13" s="119">
+      <c r="L13" s="118">
         <f t="shared" si="5"/>
         <v>26.859504132231407</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D14" s="105">
+      <c r="D14" s="104">
         <f t="shared" si="6"/>
         <v>13</v>
       </c>
-      <c r="E14" s="105">
+      <c r="E14" s="104">
         <f t="shared" si="7"/>
         <v>39</v>
       </c>
-      <c r="F14" s="107">
+      <c r="F14" s="106">
         <f t="shared" si="0"/>
         <v>0.17099999999999999</v>
       </c>
-      <c r="G14" s="107">
+      <c r="G14" s="106">
         <f t="shared" si="1"/>
         <v>5.6999999999999995E-2</v>
       </c>
-      <c r="H14" s="107">
+      <c r="H14" s="106">
         <f>SUM($F$2:F14)</f>
         <v>1.5749999999999997</v>
       </c>
-      <c r="I14" s="108">
+      <c r="I14" s="107">
         <f t="shared" si="2"/>
         <v>4.038461538461538E-2</v>
       </c>
-      <c r="J14" s="106">
+      <c r="J14" s="105">
         <f t="shared" si="3"/>
         <v>24.761904761904766</v>
       </c>
-      <c r="K14" s="117">
+      <c r="K14" s="116">
         <f t="shared" si="4"/>
         <v>-4.6230769230769228E-2</v>
       </c>
-      <c r="L14" s="119">
+      <c r="L14" s="118">
         <f t="shared" si="5"/>
         <v>21.630615640599004</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D15" s="105">
+      <c r="D15" s="104">
         <f t="shared" si="6"/>
         <v>14</v>
       </c>
-      <c r="E15" s="105">
+      <c r="E15" s="104">
         <f t="shared" si="7"/>
         <v>42</v>
       </c>
-      <c r="F15" s="107">
+      <c r="F15" s="106">
         <f t="shared" si="0"/>
         <v>0.17099999999999999</v>
       </c>
-      <c r="G15" s="107">
+      <c r="G15" s="106">
         <f t="shared" si="1"/>
         <v>5.6999999999999995E-2</v>
       </c>
-      <c r="H15" s="107">
+      <c r="H15" s="106">
         <f>SUM($F$2:F15)</f>
         <v>1.7459999999999998</v>
       </c>
-      <c r="I15" s="108">
+      <c r="I15" s="107">
         <f t="shared" si="2"/>
         <v>4.1571428571428565E-2</v>
       </c>
-      <c r="J15" s="106">
+      <c r="J15" s="105">
         <f t="shared" si="3"/>
         <v>24.054982817869419</v>
       </c>
-      <c r="K15" s="117">
+      <c r="K15" s="116">
         <f t="shared" si="4"/>
         <v>-4.6230769230769228E-2</v>
       </c>
-      <c r="L15" s="119">
+      <c r="L15" s="118">
         <f t="shared" si="5"/>
         <v>21.630615640599004</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D16" s="105">
+      <c r="D16" s="104">
         <f t="shared" ref="D16:D42" si="8">D15+1</f>
         <v>15</v>
       </c>
-      <c r="E16" s="105">
+      <c r="E16" s="104">
         <f t="shared" si="7"/>
         <v>45</v>
       </c>
-      <c r="F16" s="107">
+      <c r="F16" s="106">
         <f t="shared" si="0"/>
         <v>0.17099999999999999</v>
       </c>
-      <c r="G16" s="107">
+      <c r="G16" s="106">
         <f t="shared" si="1"/>
         <v>5.6999999999999995E-2</v>
       </c>
-      <c r="H16" s="107">
+      <c r="H16" s="106">
         <f>SUM($F$2:F16)</f>
         <v>1.9169999999999998</v>
       </c>
-      <c r="I16" s="108">
+      <c r="I16" s="107">
         <f t="shared" si="2"/>
         <v>4.2599999999999999E-2</v>
       </c>
-      <c r="J16" s="106">
+      <c r="J16" s="105">
         <f t="shared" si="3"/>
         <v>23.474178403755868</v>
       </c>
-      <c r="K16" s="117">
+      <c r="K16" s="116">
         <f t="shared" si="4"/>
         <v>-4.6230769230769228E-2</v>
       </c>
-      <c r="L16" s="119">
+      <c r="L16" s="118">
         <f t="shared" si="5"/>
         <v>21.630615640599004</v>
       </c>
     </row>
     <row r="17" spans="4:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D17" s="105">
+      <c r="D17" s="104">
         <f t="shared" si="8"/>
         <v>16</v>
       </c>
-      <c r="E17" s="105">
+      <c r="E17" s="104">
         <f t="shared" si="7"/>
         <v>48</v>
       </c>
-      <c r="F17" s="107">
+      <c r="F17" s="106">
         <f t="shared" si="0"/>
         <v>0.17099999999999999</v>
       </c>
-      <c r="G17" s="107">
+      <c r="G17" s="106">
         <f t="shared" si="1"/>
         <v>5.6999999999999995E-2</v>
       </c>
-      <c r="H17" s="107">
+      <c r="H17" s="106">
         <f>SUM($F$2:F17)</f>
         <v>2.0879999999999996</v>
       </c>
-      <c r="I17" s="108">
+      <c r="I17" s="107">
         <f t="shared" si="2"/>
         <v>4.349999999999999E-2</v>
       </c>
-      <c r="J17" s="106">
+      <c r="J17" s="105">
         <f t="shared" si="3"/>
         <v>22.988505747126442</v>
       </c>
-      <c r="K17" s="117">
+      <c r="K17" s="116">
         <f t="shared" si="4"/>
         <v>-4.6230769230769228E-2</v>
       </c>
-      <c r="L17" s="119">
+      <c r="L17" s="118">
         <f t="shared" si="5"/>
         <v>21.630615640599004</v>
       </c>
     </row>
     <row r="18" spans="4:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D18" s="105">
+      <c r="D18" s="104">
         <f t="shared" si="8"/>
         <v>17</v>
       </c>
-      <c r="E18" s="105">
+      <c r="E18" s="104">
         <f t="shared" si="7"/>
         <v>51</v>
       </c>
-      <c r="F18" s="107">
+      <c r="F18" s="106">
         <f t="shared" si="0"/>
         <v>0.19800000000000001</v>
       </c>
-      <c r="G18" s="107">
+      <c r="G18" s="106">
         <f t="shared" si="1"/>
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="H18" s="107">
+      <c r="H18" s="106">
         <f>SUM($F$2:F18)</f>
         <v>2.2859999999999996</v>
       </c>
-      <c r="I18" s="108">
+      <c r="I18" s="107">
         <f t="shared" si="2"/>
         <v>4.48235294117647E-2</v>
       </c>
-      <c r="J18" s="106">
+      <c r="J18" s="105">
         <f t="shared" si="3"/>
         <v>22.309711286089243</v>
       </c>
-      <c r="K18" s="117">
+      <c r="K18" s="116">
         <f t="shared" si="4"/>
         <v>-5.5230769230769236E-2</v>
       </c>
-      <c r="L18" s="119">
+      <c r="L18" s="118">
         <f t="shared" si="5"/>
         <v>18.105849582172699</v>
       </c>
     </row>
     <row r="19" spans="4:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D19" s="105">
+      <c r="D19" s="104">
         <f t="shared" si="8"/>
         <v>18</v>
       </c>
-      <c r="E19" s="105">
+      <c r="E19" s="104">
         <f t="shared" si="7"/>
         <v>54</v>
       </c>
-      <c r="F19" s="107">
+      <c r="F19" s="106">
         <f t="shared" si="0"/>
         <v>0.19800000000000001</v>
       </c>
-      <c r="G19" s="107">
+      <c r="G19" s="106">
         <f t="shared" si="1"/>
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="H19" s="107">
+      <c r="H19" s="106">
         <f>SUM($F$2:F19)</f>
         <v>2.4839999999999995</v>
       </c>
-      <c r="I19" s="108">
+      <c r="I19" s="107">
         <f t="shared" si="2"/>
         <v>4.5999999999999992E-2</v>
       </c>
-      <c r="J19" s="106">
+      <c r="J19" s="105">
         <f t="shared" si="3"/>
         <v>21.739130434782613</v>
       </c>
-      <c r="K19" s="117">
+      <c r="K19" s="116">
         <f t="shared" si="4"/>
         <v>-5.5230769230769236E-2</v>
       </c>
-      <c r="L19" s="119">
+      <c r="L19" s="118">
         <f t="shared" si="5"/>
         <v>18.105849582172699</v>
       </c>
     </row>
     <row r="20" spans="4:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D20" s="105">
+      <c r="D20" s="104">
         <f t="shared" si="8"/>
         <v>19</v>
       </c>
-      <c r="E20" s="105">
+      <c r="E20" s="104">
         <f t="shared" si="7"/>
         <v>57</v>
       </c>
-      <c r="F20" s="107">
+      <c r="F20" s="106">
         <f t="shared" si="0"/>
         <v>0.19800000000000001</v>
       </c>
-      <c r="G20" s="107">
+      <c r="G20" s="106">
         <f t="shared" si="1"/>
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="H20" s="107">
+      <c r="H20" s="106">
         <f>SUM($F$2:F20)</f>
         <v>2.6819999999999995</v>
       </c>
-      <c r="I20" s="108">
+      <c r="I20" s="107">
         <f t="shared" si="2"/>
         <v>4.705263157894736E-2</v>
       </c>
-      <c r="J20" s="106">
+      <c r="J20" s="105">
         <f t="shared" si="3"/>
         <v>21.25279642058166</v>
       </c>
-      <c r="K20" s="117">
+      <c r="K20" s="116">
         <f t="shared" si="4"/>
         <v>-5.5230769230769236E-2</v>
       </c>
-      <c r="L20" s="119">
+      <c r="L20" s="118">
         <f t="shared" si="5"/>
         <v>18.105849582172699</v>
       </c>
     </row>
     <row r="21" spans="4:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D21" s="105">
+      <c r="D21" s="104">
         <f t="shared" si="8"/>
         <v>20</v>
       </c>
-      <c r="E21" s="105">
+      <c r="E21" s="104">
         <f t="shared" ref="E21:E28" si="9">$B$1*D21</f>
         <v>60</v>
       </c>
-      <c r="F21" s="107">
+      <c r="F21" s="106">
         <f t="shared" si="0"/>
         <v>0.19800000000000001</v>
       </c>
-      <c r="G21" s="107">
+      <c r="G21" s="106">
         <f t="shared" si="1"/>
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="H21" s="107">
+      <c r="H21" s="106">
         <f>SUM($F$2:F21)</f>
         <v>2.8799999999999994</v>
       </c>
-      <c r="I21" s="108">
+      <c r="I21" s="107">
         <f t="shared" si="2"/>
         <v>4.7999999999999994E-2</v>
       </c>
-      <c r="J21" s="106">
+      <c r="J21" s="105">
         <f t="shared" si="3"/>
         <v>20.833333333333336</v>
       </c>
-      <c r="K21" s="117">
+      <c r="K21" s="116">
         <f t="shared" si="4"/>
         <v>-5.5230769230769236E-2</v>
       </c>
-      <c r="L21" s="119">
+      <c r="L21" s="118">
         <f t="shared" si="5"/>
         <v>18.105849582172699</v>
       </c>
     </row>
     <row r="22" spans="4:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D22" s="105">
+      <c r="D22" s="104">
         <f t="shared" si="8"/>
         <v>21</v>
       </c>
-      <c r="E22" s="105">
+      <c r="E22" s="104">
         <f t="shared" si="9"/>
         <v>63</v>
       </c>
-      <c r="F22" s="107">
+      <c r="F22" s="106">
         <f t="shared" si="0"/>
         <v>0.22500000000000001</v>
       </c>
-      <c r="G22" s="107">
+      <c r="G22" s="106">
         <f t="shared" si="1"/>
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="H22" s="107">
+      <c r="H22" s="106">
         <f>SUM($F$2:F22)</f>
         <v>3.1049999999999995</v>
       </c>
-      <c r="I22" s="108">
+      <c r="I22" s="107">
         <f t="shared" si="2"/>
         <v>4.928571428571428E-2</v>
       </c>
-      <c r="J22" s="106">
+      <c r="J22" s="105">
         <f t="shared" si="3"/>
         <v>20.289855072463769</v>
       </c>
-      <c r="K22" s="117">
+      <c r="K22" s="116">
         <f t="shared" si="4"/>
         <v>-6.423076923076923E-2</v>
       </c>
-      <c r="L22" s="119">
+      <c r="L22" s="118">
         <f t="shared" si="5"/>
         <v>15.568862275449101</v>
       </c>
     </row>
     <row r="23" spans="4:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D23" s="105">
+      <c r="D23" s="104">
         <f t="shared" si="8"/>
         <v>22</v>
       </c>
-      <c r="E23" s="105">
+      <c r="E23" s="104">
         <f t="shared" si="9"/>
         <v>66</v>
       </c>
-      <c r="F23" s="107">
+      <c r="F23" s="106">
         <f t="shared" si="0"/>
         <v>0.22500000000000001</v>
       </c>
-      <c r="G23" s="107">
+      <c r="G23" s="106">
         <f t="shared" si="1"/>
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="H23" s="107">
+      <c r="H23" s="106">
         <f>SUM($F$2:F23)</f>
         <v>3.3299999999999996</v>
       </c>
-      <c r="I23" s="108">
+      <c r="I23" s="107">
         <f t="shared" si="2"/>
         <v>5.0454545454545446E-2</v>
       </c>
-      <c r="J23" s="106">
+      <c r="J23" s="105">
         <f t="shared" si="3"/>
         <v>19.819819819819823</v>
       </c>
-      <c r="K23" s="117">
+      <c r="K23" s="116">
         <f t="shared" si="4"/>
         <v>-6.423076923076923E-2</v>
       </c>
-      <c r="L23" s="119">
+      <c r="L23" s="118">
         <f t="shared" si="5"/>
         <v>15.568862275449101</v>
       </c>
     </row>
     <row r="24" spans="4:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D24" s="105">
+      <c r="D24" s="104">
         <f t="shared" si="8"/>
         <v>23</v>
       </c>
-      <c r="E24" s="105">
+      <c r="E24" s="104">
         <f t="shared" si="9"/>
         <v>69</v>
       </c>
-      <c r="F24" s="107">
+      <c r="F24" s="106">
         <f t="shared" si="0"/>
         <v>0.22500000000000001</v>
       </c>
-      <c r="G24" s="107">
+      <c r="G24" s="106">
         <f t="shared" si="1"/>
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="H24" s="107">
+      <c r="H24" s="106">
         <f>SUM($F$2:F24)</f>
         <v>3.5549999999999997</v>
       </c>
-      <c r="I24" s="108">
+      <c r="I24" s="107">
         <f t="shared" si="2"/>
         <v>5.1521739130434778E-2</v>
       </c>
-      <c r="J24" s="106">
+      <c r="J24" s="105">
         <f t="shared" si="3"/>
         <v>19.409282700421944</v>
       </c>
-      <c r="K24" s="117">
+      <c r="K24" s="116">
         <f t="shared" si="4"/>
         <v>-6.423076923076923E-2</v>
       </c>
-      <c r="L24" s="119">
+      <c r="L24" s="118">
         <f t="shared" si="5"/>
         <v>15.568862275449101</v>
       </c>
     </row>
     <row r="25" spans="4:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D25" s="105">
+      <c r="D25" s="104">
         <f t="shared" si="8"/>
         <v>24</v>
       </c>
-      <c r="E25" s="105">
+      <c r="E25" s="104">
         <f t="shared" si="9"/>
         <v>72</v>
       </c>
-      <c r="F25" s="107">
+      <c r="F25" s="106">
         <f t="shared" si="0"/>
         <v>0.22500000000000001</v>
       </c>
-      <c r="G25" s="107">
+      <c r="G25" s="106">
         <f t="shared" si="1"/>
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="H25" s="107">
+      <c r="H25" s="106">
         <f>SUM($F$2:F25)</f>
         <v>3.78</v>
       </c>
-      <c r="I25" s="108">
+      <c r="I25" s="107">
         <f t="shared" si="2"/>
         <v>5.2499999999999998E-2</v>
       </c>
-      <c r="J25" s="106">
+      <c r="J25" s="105">
         <f t="shared" si="3"/>
         <v>19.047619047619047</v>
       </c>
-      <c r="K25" s="117">
+      <c r="K25" s="116">
         <f t="shared" si="4"/>
         <v>-6.423076923076923E-2</v>
       </c>
-      <c r="L25" s="119">
+      <c r="L25" s="118">
         <f t="shared" si="5"/>
         <v>15.568862275449101</v>
       </c>
     </row>
     <row r="26" spans="4:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D26" s="105">
+      <c r="D26" s="104">
         <f t="shared" si="8"/>
         <v>25</v>
       </c>
-      <c r="E26" s="105">
+      <c r="E26" s="104">
         <f t="shared" si="9"/>
         <v>75</v>
       </c>
-      <c r="F26" s="107">
+      <c r="F26" s="106">
         <f t="shared" si="0"/>
         <v>0.252</v>
       </c>
-      <c r="G26" s="107">
+      <c r="G26" s="106">
         <f t="shared" si="1"/>
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="H26" s="107">
+      <c r="H26" s="106">
         <f>SUM($F$2:F26)</f>
         <v>4.032</v>
       </c>
-      <c r="I26" s="108">
+      <c r="I26" s="107">
         <f t="shared" si="2"/>
         <v>5.3760000000000002E-2</v>
       </c>
-      <c r="J26" s="106">
+      <c r="J26" s="105">
         <f t="shared" si="3"/>
         <v>18.601190476190474</v>
       </c>
-      <c r="K26" s="117">
+      <c r="K26" s="116">
         <f t="shared" si="4"/>
         <v>-7.3230769230769238E-2</v>
       </c>
-      <c r="L26" s="119">
+      <c r="L26" s="118">
         <f t="shared" si="5"/>
         <v>13.655462184873949</v>
       </c>
     </row>
     <row r="27" spans="4:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D27" s="105">
+      <c r="D27" s="104">
         <f t="shared" si="8"/>
         <v>26</v>
       </c>
-      <c r="E27" s="105">
+      <c r="E27" s="104">
         <f t="shared" si="9"/>
         <v>78</v>
       </c>
-      <c r="F27" s="107">
+      <c r="F27" s="106">
         <f t="shared" si="0"/>
         <v>0.252</v>
       </c>
-      <c r="G27" s="107">
+      <c r="G27" s="106">
         <f t="shared" si="1"/>
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="H27" s="107">
+      <c r="H27" s="106">
         <f>SUM($F$2:F27)</f>
         <v>4.2839999999999998</v>
       </c>
-      <c r="I27" s="108">
+      <c r="I27" s="107">
         <f t="shared" si="2"/>
         <v>5.4923076923076922E-2</v>
       </c>
-      <c r="J27" s="106">
+      <c r="J27" s="105">
         <f t="shared" si="3"/>
         <v>18.207282913165265</v>
       </c>
-      <c r="K27" s="117">
+      <c r="K27" s="116">
         <f t="shared" si="4"/>
         <v>-7.3230769230769238E-2</v>
       </c>
-      <c r="L27" s="119">
+      <c r="L27" s="118">
         <f t="shared" si="5"/>
         <v>13.655462184873949</v>
       </c>
     </row>
     <row r="28" spans="4:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D28" s="105">
+      <c r="D28" s="104">
         <f t="shared" si="8"/>
         <v>27</v>
       </c>
-      <c r="E28" s="105">
+      <c r="E28" s="104">
         <f t="shared" si="9"/>
         <v>81</v>
       </c>
-      <c r="F28" s="107">
+      <c r="F28" s="106">
         <f t="shared" si="0"/>
         <v>0.252</v>
       </c>
-      <c r="G28" s="107">
+      <c r="G28" s="106">
         <f t="shared" si="1"/>
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="H28" s="107">
+      <c r="H28" s="106">
         <f>SUM($F$2:F28)</f>
         <v>4.5359999999999996</v>
       </c>
-      <c r="I28" s="108">
+      <c r="I28" s="107">
         <f t="shared" si="2"/>
         <v>5.5999999999999994E-2</v>
       </c>
-      <c r="J28" s="106">
+      <c r="J28" s="105">
         <f t="shared" si="3"/>
         <v>17.857142857142858</v>
       </c>
-      <c r="K28" s="117">
+      <c r="K28" s="116">
         <f t="shared" si="4"/>
         <v>-7.3230769230769238E-2</v>
       </c>
-      <c r="L28" s="119">
+      <c r="L28" s="118">
         <f t="shared" si="5"/>
         <v>13.655462184873949</v>
       </c>
     </row>
     <row r="29" spans="4:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D29" s="105">
+      <c r="D29" s="104">
         <f t="shared" si="8"/>
         <v>28</v>
       </c>
-      <c r="E29" s="105">
+      <c r="E29" s="104">
         <f t="shared" ref="E29:E35" si="10">$B$1*D29</f>
         <v>84</v>
       </c>
-      <c r="F29" s="107">
+      <c r="F29" s="106">
         <f t="shared" si="0"/>
         <v>0.252</v>
       </c>
-      <c r="G29" s="107">
+      <c r="G29" s="106">
         <f t="shared" si="1"/>
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="H29" s="107">
+      <c r="H29" s="106">
         <f>SUM($F$2:F29)</f>
         <v>4.7879999999999994</v>
       </c>
-      <c r="I29" s="108">
+      <c r="I29" s="107">
         <f t="shared" si="2"/>
         <v>5.6999999999999995E-2</v>
       </c>
-      <c r="J29" s="106">
+      <c r="J29" s="105">
         <f t="shared" si="3"/>
         <v>17.543859649122808</v>
       </c>
-      <c r="K29" s="117">
+      <c r="K29" s="116">
         <f t="shared" si="4"/>
         <v>-7.3230769230769238E-2</v>
       </c>
-      <c r="L29" s="119">
+      <c r="L29" s="118">
         <f t="shared" si="5"/>
         <v>13.655462184873949</v>
       </c>
     </row>
     <row r="30" spans="4:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D30" s="105">
+      <c r="D30" s="104">
         <f t="shared" si="8"/>
         <v>29</v>
       </c>
-      <c r="E30" s="105">
+      <c r="E30" s="104">
         <f t="shared" si="10"/>
         <v>87</v>
       </c>
-      <c r="F30" s="107">
+      <c r="F30" s="106">
         <f t="shared" si="0"/>
         <v>0.27900000000000003</v>
       </c>
-      <c r="G30" s="107">
+      <c r="G30" s="106">
         <f t="shared" si="1"/>
         <v>9.3000000000000013E-2</v>
       </c>
-      <c r="H30" s="107">
+      <c r="H30" s="106">
         <f>SUM($F$2:F30)</f>
         <v>5.0669999999999993</v>
       </c>
-      <c r="I30" s="108">
+      <c r="I30" s="107">
         <f t="shared" si="2"/>
         <v>5.8241379310344822E-2</v>
       </c>
-      <c r="J30" s="106">
+      <c r="J30" s="105">
         <f t="shared" si="3"/>
         <v>17.169923031379515</v>
       </c>
-      <c r="K30" s="117">
+      <c r="K30" s="116">
         <f t="shared" si="4"/>
         <v>-8.2230769230769246E-2</v>
       </c>
-      <c r="L30" s="119">
+      <c r="L30" s="118">
         <f t="shared" si="5"/>
         <v>12.160898035547238</v>
       </c>
     </row>
     <row r="31" spans="4:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D31" s="105">
+      <c r="D31" s="104">
         <f t="shared" si="8"/>
         <v>30</v>
       </c>
-      <c r="E31" s="105">
+      <c r="E31" s="104">
         <f t="shared" si="10"/>
         <v>90</v>
       </c>
-      <c r="F31" s="107">
+      <c r="F31" s="106">
         <f t="shared" si="0"/>
         <v>0.27900000000000003</v>
       </c>
-      <c r="G31" s="107">
+      <c r="G31" s="106">
         <f t="shared" si="1"/>
         <v>9.3000000000000013E-2</v>
       </c>
-      <c r="H31" s="107">
+      <c r="H31" s="106">
         <f>SUM($F$2:F31)</f>
         <v>5.3459999999999992</v>
       </c>
-      <c r="I31" s="108">
+      <c r="I31" s="107">
         <f t="shared" si="2"/>
         <v>5.9399999999999994E-2</v>
       </c>
-      <c r="J31" s="106">
+      <c r="J31" s="105">
         <f t="shared" si="3"/>
         <v>16.835016835016837</v>
       </c>
-      <c r="K31" s="117">
+      <c r="K31" s="116">
         <f t="shared" si="4"/>
         <v>-8.2230769230769246E-2</v>
       </c>
-      <c r="L31" s="119">
+      <c r="L31" s="118">
         <f t="shared" si="5"/>
         <v>12.160898035547238</v>
       </c>
     </row>
     <row r="32" spans="4:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D32" s="105">
+      <c r="D32" s="104">
         <f t="shared" si="8"/>
         <v>31</v>
       </c>
-      <c r="E32" s="105">
+      <c r="E32" s="104">
         <f t="shared" si="10"/>
         <v>93</v>
       </c>
-      <c r="F32" s="107">
+      <c r="F32" s="106">
         <f t="shared" si="0"/>
         <v>0.27900000000000003</v>
       </c>
-      <c r="G32" s="107">
+      <c r="G32" s="106">
         <f t="shared" si="1"/>
         <v>9.3000000000000013E-2</v>
       </c>
-      <c r="H32" s="107">
+      <c r="H32" s="106">
         <f>SUM($F$2:F32)</f>
         <v>5.6249999999999991</v>
       </c>
-      <c r="I32" s="108">
+      <c r="I32" s="107">
         <f t="shared" si="2"/>
         <v>6.0483870967741923E-2</v>
       </c>
-      <c r="J32" s="106">
+      <c r="J32" s="105">
         <f t="shared" si="3"/>
         <v>16.533333333333335</v>
       </c>
-      <c r="K32" s="117">
+      <c r="K32" s="116">
         <f t="shared" si="4"/>
         <v>-8.2230769230769246E-2</v>
       </c>
-      <c r="L32" s="119">
+      <c r="L32" s="118">
         <f t="shared" si="5"/>
         <v>12.160898035547238</v>
       </c>
     </row>
     <row r="33" spans="4:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D33" s="105">
+      <c r="D33" s="104">
         <f t="shared" si="8"/>
         <v>32</v>
       </c>
-      <c r="E33" s="105">
+      <c r="E33" s="104">
         <f t="shared" si="10"/>
         <v>96</v>
       </c>
-      <c r="F33" s="107">
+      <c r="F33" s="106">
         <f t="shared" si="0"/>
         <v>0.27900000000000003</v>
       </c>
-      <c r="G33" s="107">
+      <c r="G33" s="106">
         <f t="shared" si="1"/>
         <v>9.3000000000000013E-2</v>
       </c>
-      <c r="H33" s="107">
+      <c r="H33" s="106">
         <f>SUM($F$2:F33)</f>
         <v>5.903999999999999</v>
       </c>
-      <c r="I33" s="108">
+      <c r="I33" s="107">
         <f t="shared" si="2"/>
         <v>6.1499999999999992E-2</v>
       </c>
-      <c r="J33" s="106">
+      <c r="J33" s="105">
         <f t="shared" si="3"/>
         <v>16.260162601626018</v>
       </c>
-      <c r="K33" s="117">
+      <c r="K33" s="116">
         <f t="shared" si="4"/>
         <v>-8.2230769230769246E-2</v>
       </c>
-      <c r="L33" s="119">
+      <c r="L33" s="118">
         <f t="shared" si="5"/>
         <v>12.160898035547238</v>
       </c>
     </row>
     <row r="34" spans="4:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D34" s="105">
+      <c r="D34" s="104">
         <f t="shared" si="8"/>
         <v>33</v>
       </c>
-      <c r="E34" s="105">
+      <c r="E34" s="104">
         <f t="shared" si="10"/>
         <v>99</v>
       </c>
-      <c r="F34" s="107">
+      <c r="F34" s="106">
         <f t="shared" si="0"/>
         <v>0.30599999999999999</v>
       </c>
-      <c r="G34" s="107">
+      <c r="G34" s="106">
         <f t="shared" si="1"/>
         <v>0.10199999999999999</v>
       </c>
-      <c r="H34" s="107">
+      <c r="H34" s="106">
         <f>SUM($F$2:F34)</f>
         <v>6.2099999999999991</v>
       </c>
-      <c r="I34" s="108">
+      <c r="I34" s="107">
         <f t="shared" si="2"/>
         <v>6.2727272727272715E-2</v>
       </c>
-      <c r="J34" s="106">
+      <c r="J34" s="105">
         <f t="shared" si="3"/>
         <v>15.94202898550725</v>
       </c>
-      <c r="K34" s="117">
+      <c r="K34" s="116">
         <f t="shared" si="4"/>
         <v>-9.1230769230769226E-2</v>
       </c>
-      <c r="L34" s="119">
+      <c r="L34" s="118">
         <f t="shared" si="5"/>
         <v>10.961214165261383</v>
       </c>
     </row>
     <row r="35" spans="4:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D35" s="105">
+      <c r="D35" s="104">
         <f t="shared" si="8"/>
         <v>34</v>
       </c>
-      <c r="E35" s="105">
+      <c r="E35" s="104">
         <f t="shared" si="10"/>
         <v>102</v>
       </c>
-      <c r="F35" s="107">
+      <c r="F35" s="106">
         <f t="shared" si="0"/>
         <v>0.30599999999999999</v>
       </c>
-      <c r="G35" s="107">
+      <c r="G35" s="106">
         <f t="shared" si="1"/>
         <v>0.10199999999999999</v>
       </c>
-      <c r="H35" s="107">
+      <c r="H35" s="106">
         <f>SUM($F$2:F35)</f>
         <v>6.5159999999999991</v>
       </c>
-      <c r="I35" s="108">
+      <c r="I35" s="107">
         <f t="shared" si="2"/>
         <v>6.388235294117646E-2</v>
       </c>
-      <c r="J35" s="106">
+      <c r="J35" s="105">
         <f t="shared" si="3"/>
         <v>15.653775322283613</v>
       </c>
-      <c r="K35" s="117">
+      <c r="K35" s="116">
         <f t="shared" si="4"/>
         <v>-9.1230769230769226E-2</v>
       </c>
-      <c r="L35" s="119">
+      <c r="L35" s="118">
         <f t="shared" si="5"/>
         <v>10.961214165261383</v>
       </c>
     </row>
     <row r="36" spans="4:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D36" s="105">
+      <c r="D36" s="104">
         <f t="shared" si="8"/>
         <v>35</v>
       </c>
-      <c r="E36" s="105">
+      <c r="E36" s="104">
         <f t="shared" ref="E36:E42" si="11">$B$1*D36</f>
         <v>105</v>
       </c>
-      <c r="F36" s="107">
+      <c r="F36" s="106">
         <f t="shared" si="0"/>
         <v>0.30599999999999999</v>
       </c>
-      <c r="G36" s="107">
+      <c r="G36" s="106">
         <f t="shared" si="1"/>
         <v>0.10199999999999999</v>
       </c>
-      <c r="H36" s="107">
+      <c r="H36" s="106">
         <f>SUM($F$2:F36)</f>
         <v>6.8219999999999992</v>
       </c>
-      <c r="I36" s="108">
+      <c r="I36" s="107">
         <f t="shared" ref="I36:I42" si="12">H36/E36</f>
         <v>6.4971428571428569E-2</v>
       </c>
-      <c r="J36" s="106">
+      <c r="J36" s="105">
         <f t="shared" si="3"/>
         <v>15.391380826737027</v>
       </c>
-      <c r="K36" s="117">
+      <c r="K36" s="116">
         <f t="shared" ref="K36:K42" si="13">IF($B$13-G36&gt;0,"",$B$13-G36)</f>
         <v>-9.1230769230769226E-2</v>
       </c>
-      <c r="L36" s="119">
+      <c r="L36" s="118">
         <f t="shared" si="5"/>
         <v>10.961214165261383</v>
       </c>
     </row>
     <row r="37" spans="4:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D37" s="105">
+      <c r="D37" s="104">
         <f t="shared" si="8"/>
         <v>36</v>
       </c>
-      <c r="E37" s="105">
+      <c r="E37" s="104">
         <f t="shared" si="11"/>
         <v>108</v>
       </c>
-      <c r="F37" s="107">
+      <c r="F37" s="106">
         <f t="shared" si="0"/>
         <v>0.30599999999999999</v>
       </c>
-      <c r="G37" s="107">
+      <c r="G37" s="106">
         <f t="shared" si="1"/>
         <v>0.10199999999999999</v>
       </c>
-      <c r="H37" s="107">
+      <c r="H37" s="106">
         <f>SUM($F$2:F37)</f>
         <v>7.1279999999999992</v>
       </c>
-      <c r="I37" s="108">
+      <c r="I37" s="107">
         <f t="shared" si="12"/>
         <v>6.5999999999999989E-2</v>
       </c>
-      <c r="J37" s="106">
+      <c r="J37" s="105">
         <f t="shared" si="3"/>
         <v>15.151515151515154</v>
       </c>
-      <c r="K37" s="117">
+      <c r="K37" s="116">
         <f t="shared" si="13"/>
         <v>-9.1230769230769226E-2</v>
       </c>
-      <c r="L37" s="119">
+      <c r="L37" s="118">
         <f t="shared" si="5"/>
         <v>10.961214165261383</v>
       </c>
     </row>
     <row r="38" spans="4:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D38" s="105">
+      <c r="D38" s="104">
         <f t="shared" si="8"/>
         <v>37</v>
       </c>
-      <c r="E38" s="105">
+      <c r="E38" s="104">
         <f t="shared" si="11"/>
         <v>111</v>
       </c>
-      <c r="F38" s="107">
+      <c r="F38" s="106">
         <f t="shared" si="0"/>
         <v>0.33299999999999996</v>
       </c>
-      <c r="G38" s="107">
+      <c r="G38" s="106">
         <f t="shared" si="1"/>
         <v>0.11099999999999999</v>
       </c>
-      <c r="H38" s="107">
+      <c r="H38" s="106">
         <f>SUM($F$2:F38)</f>
         <v>7.4609999999999994</v>
       </c>
-      <c r="I38" s="108">
+      <c r="I38" s="107">
         <f t="shared" si="12"/>
         <v>6.7216216216216207E-2</v>
       </c>
-      <c r="J38" s="106">
+      <c r="J38" s="105">
         <f t="shared" si="3"/>
         <v>14.877362283876158</v>
       </c>
-      <c r="K38" s="117">
+      <c r="K38" s="116">
         <f t="shared" si="13"/>
         <v>-0.10023076923076922</v>
       </c>
-      <c r="L38" s="119">
+      <c r="L38" s="118">
         <f t="shared" si="5"/>
         <v>9.9769762087490417</v>
       </c>
     </row>
     <row r="39" spans="4:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D39" s="105">
+      <c r="D39" s="104">
         <f t="shared" si="8"/>
         <v>38</v>
       </c>
-      <c r="E39" s="105">
+      <c r="E39" s="104">
         <f t="shared" si="11"/>
         <v>114</v>
       </c>
-      <c r="F39" s="107">
+      <c r="F39" s="106">
         <f t="shared" si="0"/>
         <v>0.33299999999999996</v>
       </c>
-      <c r="G39" s="107">
+      <c r="G39" s="106">
         <f t="shared" si="1"/>
         <v>0.11099999999999999</v>
       </c>
-      <c r="H39" s="107">
+      <c r="H39" s="106">
         <f>SUM($F$2:F39)</f>
         <v>7.7939999999999996</v>
       </c>
-      <c r="I39" s="108">
+      <c r="I39" s="107">
         <f t="shared" si="12"/>
         <v>6.8368421052631578E-2</v>
       </c>
-      <c r="J39" s="106">
+      <c r="J39" s="105">
         <f t="shared" si="3"/>
         <v>14.626635873749038</v>
       </c>
-      <c r="K39" s="117">
+      <c r="K39" s="116">
         <f t="shared" si="13"/>
         <v>-0.10023076923076922</v>
       </c>
-      <c r="L39" s="119">
+      <c r="L39" s="118">
         <f t="shared" si="5"/>
         <v>9.9769762087490417</v>
       </c>
     </row>
     <row r="40" spans="4:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D40" s="105">
+      <c r="D40" s="104">
         <f t="shared" si="8"/>
         <v>39</v>
       </c>
-      <c r="E40" s="105">
+      <c r="E40" s="104">
         <f t="shared" si="11"/>
         <v>117</v>
       </c>
-      <c r="F40" s="107">
+      <c r="F40" s="106">
         <f t="shared" si="0"/>
         <v>0.33299999999999996</v>
       </c>
-      <c r="G40" s="107">
+      <c r="G40" s="106">
         <f t="shared" si="1"/>
         <v>0.11099999999999999</v>
       </c>
-      <c r="H40" s="107">
+      <c r="H40" s="106">
         <f>SUM($F$2:F40)</f>
         <v>8.1269999999999989</v>
       </c>
-      <c r="I40" s="108">
+      <c r="I40" s="107">
         <f t="shared" si="12"/>
         <v>6.946153846153845E-2</v>
       </c>
-      <c r="J40" s="106">
+      <c r="J40" s="105">
         <f t="shared" si="3"/>
         <v>14.396456256921375</v>
       </c>
-      <c r="K40" s="117">
+      <c r="K40" s="116">
         <f t="shared" si="13"/>
         <v>-0.10023076923076922</v>
       </c>
-      <c r="L40" s="119">
+      <c r="L40" s="118">
         <f t="shared" si="5"/>
         <v>9.9769762087490417</v>
       </c>
     </row>
     <row r="41" spans="4:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D41" s="105">
+      <c r="D41" s="104">
         <f t="shared" si="8"/>
         <v>40</v>
       </c>
-      <c r="E41" s="105">
+      <c r="E41" s="104">
         <f t="shared" si="11"/>
         <v>120</v>
       </c>
-      <c r="F41" s="107">
+      <c r="F41" s="106">
         <f t="shared" si="0"/>
         <v>0.33299999999999996</v>
       </c>
-      <c r="G41" s="107">
+      <c r="G41" s="106">
         <f t="shared" si="1"/>
         <v>0.11099999999999999</v>
       </c>
-      <c r="H41" s="107">
+      <c r="H41" s="106">
         <f>SUM($F$2:F41)</f>
         <v>8.4599999999999991</v>
       </c>
-      <c r="I41" s="108">
+      <c r="I41" s="107">
         <f t="shared" si="12"/>
         <v>7.0499999999999993E-2</v>
       </c>
-      <c r="J41" s="106">
+      <c r="J41" s="105">
         <f t="shared" si="3"/>
         <v>14.184397163120568</v>
       </c>
-      <c r="K41" s="117">
+      <c r="K41" s="116">
         <f t="shared" si="13"/>
         <v>-0.10023076923076922</v>
       </c>
-      <c r="L41" s="119">
+      <c r="L41" s="118">
         <f t="shared" si="5"/>
         <v>9.9769762087490417</v>
       </c>
     </row>
     <row r="42" spans="4:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D42" s="105">
+      <c r="D42" s="104">
         <f t="shared" si="8"/>
         <v>41</v>
       </c>
-      <c r="E42" s="105">
+      <c r="E42" s="104">
         <f t="shared" si="11"/>
         <v>123</v>
       </c>
-      <c r="F42" s="107">
+      <c r="F42" s="106">
         <f t="shared" si="0"/>
         <v>0.36</v>
       </c>
-      <c r="G42" s="107">
+      <c r="G42" s="106">
         <f t="shared" si="1"/>
         <v>0.12</v>
       </c>
-      <c r="H42" s="107">
+      <c r="H42" s="106">
         <f>SUM($F$2:F42)</f>
         <v>8.8199999999999985</v>
       </c>
-      <c r="I42" s="108">
+      <c r="I42" s="107">
         <f t="shared" si="12"/>
         <v>7.1707317073170726E-2</v>
       </c>
-      <c r="J42" s="106">
+      <c r="J42" s="105">
         <f t="shared" si="3"/>
         <v>13.945578231292519</v>
       </c>
-      <c r="K42" s="117">
+      <c r="K42" s="116">
         <f t="shared" si="13"/>
         <v>-0.10923076923076923</v>
       </c>
-      <c r="L42" s="119">
+      <c r="L42" s="118">
         <f t="shared" si="5"/>
         <v>9.1549295774647881</v>
       </c>

--- a/Brainstorm.xlsx
+++ b/Brainstorm.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Personal@SSD\Game\DL\dragalia-data-track\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C841F3E5-3F5C-4C27-AB0F-24304464F4AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8C201B2-6B9C-4CCD-A553-AAC6D49C2B81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29250" yWindow="2490" windowWidth="24690" windowHeight="11385" activeTab="4" xr2:uid="{4CFB4A6A-60C6-4091-BCA5-480044B61D33}"/>
+    <workbookView xWindow="3240" yWindow="240" windowWidth="21600" windowHeight="14355" activeTab="6" xr2:uid="{4CFB4A6A-60C6-4091-BCA5-480044B61D33}"/>
   </bookViews>
   <sheets>
     <sheet name="Rotation" sheetId="8" r:id="rId1"/>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="184">
   <si>
     <t>睡抗</t>
   </si>
@@ -641,46 +641,26 @@
     <t>亞森</t>
   </si>
   <si>
-    <t>x42</t>
-  </si>
-  <si>
-    <t>x1E</t>
-  </si>
-  <si>
-    <t>eKai: B=42 (AC?)</t>
-  </si>
-  <si>
-    <t>sAsura: P</t>
-  </si>
-  <si>
-    <t>eKai B=47 (1E+, XP)</t>
-  </si>
-  <si>
-    <t>eKai OG: R=0.95</t>
-  </si>
-  <si>
-    <t>eKai OG: R=1.05</t>
-  </si>
-  <si>
-    <t>eKai: 73M NB, R=1.05</t>
-  </si>
-  <si>
-    <t>eKai: 73M NB, R=0.95</t>
+    <t>Actual</t>
+  </si>
+  <si>
+    <t>Mitsu@No BK</t>
+  </si>
+  <si>
+    <t>Expected</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="6">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="[Color50]\+0.00%;[Red]\-0.00%;0.00%"/>
     <numFmt numFmtId="165" formatCode="0.000%"/>
     <numFmt numFmtId="166" formatCode="0.0000%"/>
     <numFmt numFmtId="167" formatCode="\+0.00%;\-0.00%"/>
-    <numFmt numFmtId="168" formatCode="0.0000"/>
-    <numFmt numFmtId="169" formatCode="0.000"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -720,14 +700,6 @@
     </font>
     <font>
       <sz val="14"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="20"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -794,15 +766,8 @@
     </font>
     <font>
       <b/>
-      <sz val="20"/>
-      <color theme="5" tint="0.59999389629810485"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="5" tint="0.59999389629810485"/>
+      <color theme="7" tint="0.59999389629810485"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1340,7 +1305,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="212">
+  <cellXfs count="206">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1510,73 +1475,73 @@
     <xf numFmtId="10" fontId="2" fillId="39" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="39" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="39" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="40" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="41" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="41" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="42" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="42" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="40" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="41" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="41" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="43" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="43" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="43" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="42" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="42" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="40" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="41" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="41" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="43" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="43" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="43" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1627,7 +1592,7 @@
     <xf numFmtId="9" fontId="2" fillId="40" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="44" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1648,7 +1613,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="44" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="44" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="45" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1669,10 +1634,10 @@
     <xf numFmtId="166" fontId="2" fillId="44" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="45" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="45" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="45" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="45" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="45" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1684,13 +1649,13 @@
     <xf numFmtId="9" fontId="2" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="8" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="7" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="2" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="7" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1708,22 +1673,16 @@
     <xf numFmtId="10" fontId="2" fillId="44" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="16" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="18" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="5" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="41" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1768,6 +1727,135 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="4" fontId="5" fillId="28" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="28" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="23" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="23" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="23" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="21" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="21" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="14" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="14" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="30" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="30" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="30" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="32" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="32" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="35" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="35" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="38" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1786,147 +1874,6 @@
     <xf numFmtId="0" fontId="5" fillId="23" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="15" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="15" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="23" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="23" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="23" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="28" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="28" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="30" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="30" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="30" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="32" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="32" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="35" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="35" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="17" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="17" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="21" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="21" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="2" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1969,10 +1916,10 @@
     <xf numFmtId="10" fontId="2" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2328,7 +2275,7 @@
   <dimension ref="A1:Y13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2346,40 +2293,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="135" t="s">
+      <c r="A1" s="133" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="136"/>
-      <c r="C1" s="136"/>
-      <c r="D1" s="136"/>
-      <c r="E1" s="136"/>
-      <c r="F1" s="136"/>
-      <c r="G1" s="137"/>
-      <c r="H1" s="135" t="s">
+      <c r="B1" s="134"/>
+      <c r="C1" s="134"/>
+      <c r="D1" s="134"/>
+      <c r="E1" s="134"/>
+      <c r="F1" s="134"/>
+      <c r="G1" s="135"/>
+      <c r="H1" s="133" t="s">
         <v>90</v>
       </c>
-      <c r="I1" s="136"/>
-      <c r="J1" s="136"/>
-      <c r="K1" s="136"/>
-      <c r="L1" s="136"/>
-      <c r="M1" s="136"/>
-      <c r="N1" s="137"/>
-      <c r="O1" s="138" t="s">
+      <c r="I1" s="134"/>
+      <c r="J1" s="134"/>
+      <c r="K1" s="134"/>
+      <c r="L1" s="134"/>
+      <c r="M1" s="134"/>
+      <c r="N1" s="135"/>
+      <c r="O1" s="136" t="s">
         <v>93</v>
       </c>
-      <c r="P1" s="139"/>
-      <c r="Q1" s="129" t="s">
+      <c r="P1" s="137"/>
+      <c r="Q1" s="127" t="s">
         <v>92</v>
       </c>
-      <c r="R1" s="130"/>
-      <c r="S1" s="131" t="s">
+      <c r="R1" s="128"/>
+      <c r="S1" s="129" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="132"/>
-      <c r="U1" s="133" t="s">
+      <c r="T1" s="130"/>
+      <c r="U1" s="131" t="s">
         <v>88</v>
       </c>
-      <c r="V1" s="134"/>
+      <c r="V1" s="132"/>
     </row>
     <row r="2" spans="1:25" s="57" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="64" t="s">
@@ -2434,7 +2381,7 @@
         <v>84</v>
       </c>
       <c r="R2" s="66">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="S2" s="60" t="s">
         <v>9</v>
@@ -2445,7 +2392,7 @@
       </c>
       <c r="V2" s="69">
         <f>VLOOKUP(T3,$H$3:$M$13,6,FALSE)</f>
-        <v>1719.2499999999998</v>
+        <v>1600</v>
       </c>
       <c r="X2" s="57" t="s">
         <v>40</v>
@@ -2481,27 +2428,27 @@
       </c>
       <c r="I3" s="61">
         <f>B3 * (1+SUM($R:$R))</f>
-        <v>172.5</v>
+        <v>150</v>
       </c>
       <c r="J3" s="61">
         <f t="shared" ref="J3:J13" si="0">C3 * (1+SUM($R:$R))</f>
-        <v>345</v>
+        <v>300</v>
       </c>
       <c r="K3" s="61">
         <f t="shared" ref="K3:M10" si="1">D3 * (1+SUM($R:$R))</f>
-        <v>570.4</v>
+        <v>496</v>
       </c>
       <c r="L3" s="61">
         <f t="shared" si="1"/>
-        <v>875.15</v>
+        <v>761</v>
       </c>
       <c r="M3" s="61">
         <f t="shared" si="1"/>
-        <v>1324.8</v>
+        <v>1152</v>
       </c>
       <c r="N3" s="58">
         <f t="shared" ref="N3:N13" si="2">G3 * (1+SUM($R:$R))</f>
-        <v>396.74999999999994</v>
+        <v>345</v>
       </c>
       <c r="O3" s="72" t="s">
         <v>17</v>
@@ -2519,25 +2466,25 @@
         <v>76</v>
       </c>
       <c r="T3" s="13" t="s">
-        <v>81</v>
+        <v>29</v>
       </c>
       <c r="U3" s="68" t="s">
         <v>99</v>
       </c>
       <c r="V3" s="69">
         <f>MOD(T6, V2)</f>
-        <v>263.00000000000091</v>
+        <v>1347</v>
       </c>
       <c r="W3" s="57" t="s">
         <v>39</v>
       </c>
       <c r="X3" s="57" t="b">
         <f>AND(V3 &gt; 0, V3 &lt;= VLOOKUP($T$3,$H$3:$N$13,7,FALSE))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y3" s="57" t="b">
         <f>AND(V4 &gt; 0, V4 &lt;= VLOOKUP($T$3,$H$3:$N$13,7,FALSE))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2567,27 +2514,27 @@
       </c>
       <c r="I4" s="61">
         <f t="shared" ref="I4:I13" si="3">B4 * (1+SUM($R:$R))</f>
-        <v>149.5</v>
+        <v>130</v>
       </c>
       <c r="J4" s="61">
         <f t="shared" si="0"/>
-        <v>299</v>
+        <v>260</v>
       </c>
       <c r="K4" s="61">
         <f t="shared" si="1"/>
-        <v>552</v>
+        <v>480</v>
       </c>
       <c r="L4" s="61">
         <f t="shared" si="1"/>
-        <v>965.99999999999989</v>
+        <v>840</v>
       </c>
       <c r="M4" s="61">
         <f t="shared" si="1"/>
-        <v>2000.9999999999998</v>
+        <v>1740</v>
       </c>
       <c r="N4" s="58">
         <f t="shared" si="2"/>
-        <v>229.99999999999997</v>
+        <v>200</v>
       </c>
       <c r="O4" s="72" t="s">
         <v>85</v>
@@ -2605,14 +2552,14 @@
         <v>94</v>
       </c>
       <c r="T4" s="13">
-        <v>7140</v>
+        <v>14147</v>
       </c>
       <c r="U4" s="68" t="s">
         <v>100</v>
       </c>
       <c r="V4" s="69">
         <f>MOD(T7, V2)</f>
-        <v>393.00000000000182</v>
+        <v>1500</v>
       </c>
       <c r="W4" s="57" t="s">
         <v>102</v>
@@ -2653,27 +2600,27 @@
       </c>
       <c r="I5" s="61">
         <f t="shared" si="3"/>
-        <v>165.6</v>
+        <v>144</v>
       </c>
       <c r="J5" s="61">
         <f t="shared" si="0"/>
-        <v>331.2</v>
+        <v>288</v>
       </c>
       <c r="K5" s="61">
         <f t="shared" si="1"/>
-        <v>634.79999999999995</v>
+        <v>552</v>
       </c>
       <c r="L5" s="61">
         <f t="shared" si="1"/>
-        <v>965.99999999999989</v>
+        <v>840</v>
       </c>
       <c r="M5" s="61">
         <f t="shared" si="1"/>
-        <v>1517.9999999999998</v>
+        <v>1320</v>
       </c>
       <c r="N5" s="58">
         <f t="shared" si="2"/>
-        <v>331.2</v>
+        <v>288</v>
       </c>
       <c r="O5" s="72" t="s">
         <v>86</v>
@@ -2691,21 +2638,21 @@
         <v>96</v>
       </c>
       <c r="T5" s="13">
-        <v>14147</v>
+        <v>6300</v>
       </c>
       <c r="U5" s="70" t="s">
         <v>97</v>
       </c>
       <c r="V5" s="71" t="str" cm="1">
         <f t="array" ref="V5">(ROUNDDOWN(T6/V2, 0) + IF(X8,1,0)) &amp; _xlfn.IFS(X3, " + FS", X4, " + C1", X5, " + C2", X6, " + C3", X7, " + C4", TRUE, "")</f>
-        <v>4 + FS</v>
+        <v>9</v>
       </c>
       <c r="W5" s="57" t="s">
         <v>103</v>
       </c>
       <c r="X5" s="57" t="b">
         <f>AND(V3&gt;VLOOKUP($T$3,$H$3:$M$13,2,FALSE),V3&lt;=VLOOKUP($T$3,$H$3:$M$13,3,FALSE))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y5" s="57" t="b">
         <f>AND(V4&gt;=VLOOKUP($T$3,$H$3:$M$13,2,FALSE),V4&lt;VLOOKUP($T$3,$H$3:$M$13,3,FALSE))</f>
@@ -2739,41 +2686,41 @@
       </c>
       <c r="I6" s="61">
         <f t="shared" si="3"/>
-        <v>229.99999999999997</v>
+        <v>200</v>
       </c>
       <c r="J6" s="61">
         <f t="shared" si="0"/>
-        <v>505.99999999999994</v>
+        <v>440</v>
       </c>
       <c r="K6" s="61">
         <f t="shared" si="1"/>
-        <v>919.99999999999989</v>
+        <v>800</v>
       </c>
       <c r="L6" s="61">
         <f t="shared" si="1"/>
-        <v>1357</v>
+        <v>1180</v>
       </c>
       <c r="M6" s="61">
         <f t="shared" si="1"/>
-        <v>1839.9999999999998</v>
+        <v>1600</v>
       </c>
       <c r="N6" s="58">
         <f t="shared" si="2"/>
-        <v>345</v>
+        <v>300</v>
       </c>
       <c r="S6" s="75" t="s">
         <v>95</v>
       </c>
       <c r="T6" s="76">
         <f>T4 * (1 - SUM(P:P))</f>
-        <v>7140</v>
+        <v>14147</v>
       </c>
       <c r="U6" s="77" t="s">
         <v>98</v>
       </c>
       <c r="V6" s="71" t="str" cm="1">
         <f t="array" ref="V6">(ROUNDDOWN(T7/V2, 0) + IF(Y8,1,0)) &amp; _xlfn.IFS(Y3, " + FS", Y4, " + C1", Y5, " + C2", Y6, " + C3", Y7, " + C4", TRUE, "")</f>
-        <v>8 + FS</v>
+        <v>4</v>
       </c>
       <c r="W6" s="57" t="s">
         <v>104</v>
@@ -2784,7 +2731,7 @@
       </c>
       <c r="Y6" s="57" t="b">
         <f>AND(V4 &gt; VLOOKUP($T$3,$H$3:$M$13,3,FALSE),V4 &lt;= VLOOKUP($T$3,$H$3:$M$13,4,FALSE))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2814,34 +2761,34 @@
       </c>
       <c r="I7" s="61">
         <f t="shared" si="3"/>
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="J7" s="61">
         <f t="shared" si="0"/>
-        <v>413.99999999999994</v>
+        <v>360</v>
       </c>
       <c r="K7" s="61">
         <f t="shared" si="1"/>
-        <v>552</v>
+        <v>480</v>
       </c>
       <c r="L7" s="61">
         <f t="shared" si="1"/>
-        <v>1104</v>
+        <v>960</v>
       </c>
       <c r="M7" s="61">
         <f t="shared" si="1"/>
-        <v>1793.9999999999998</v>
+        <v>1560</v>
       </c>
       <c r="N7" s="58">
         <f t="shared" si="2"/>
-        <v>459.99999999999994</v>
+        <v>400</v>
       </c>
       <c r="S7" s="75" t="s">
         <v>101</v>
       </c>
       <c r="T7" s="76">
         <f>T5 * (1 - SUM(P:P))</f>
-        <v>14147</v>
+        <v>6300</v>
       </c>
       <c r="W7" s="57" t="s">
         <v>105</v>
@@ -2882,38 +2829,38 @@
       </c>
       <c r="I8" s="61">
         <f t="shared" si="3"/>
-        <v>211.6</v>
+        <v>184</v>
       </c>
       <c r="J8" s="61">
         <f t="shared" si="0"/>
-        <v>317.39999999999998</v>
+        <v>276</v>
       </c>
       <c r="K8" s="61">
         <f t="shared" si="1"/>
-        <v>634.79999999999995</v>
+        <v>552</v>
       </c>
       <c r="L8" s="61">
         <f t="shared" si="1"/>
-        <v>1110.8999999999999</v>
+        <v>966</v>
       </c>
       <c r="M8" s="61">
         <f t="shared" si="1"/>
-        <v>1719.2499999999998</v>
+        <v>1495</v>
       </c>
       <c r="N8" s="58">
         <f t="shared" si="2"/>
-        <v>529</v>
+        <v>460</v>
       </c>
       <c r="W8" s="57" t="s">
         <v>106</v>
       </c>
       <c r="X8" s="57" t="b">
         <f>V3&gt;VLOOKUP($T$3,$H$3:$M$13,5,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y8" s="57" t="b">
         <f>V4&gt;VLOOKUP($T$3,$H$3:$M$13,5,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2943,27 +2890,27 @@
       </c>
       <c r="I9" s="61">
         <f t="shared" si="3"/>
-        <v>149.5</v>
+        <v>130</v>
       </c>
       <c r="J9" s="61">
         <f t="shared" si="0"/>
-        <v>379.49999999999994</v>
+        <v>330</v>
       </c>
       <c r="K9" s="61">
         <f t="shared" si="1"/>
-        <v>655.5</v>
+        <v>570</v>
       </c>
       <c r="L9" s="61">
         <f t="shared" si="1"/>
-        <v>1150</v>
+        <v>1000</v>
       </c>
       <c r="M9" s="61">
         <f t="shared" si="1"/>
-        <v>1839.9999999999998</v>
+        <v>1600</v>
       </c>
       <c r="N9" s="58">
         <f t="shared" si="2"/>
-        <v>459.99999999999994</v>
+        <v>400</v>
       </c>
       <c r="W9" s="57"/>
       <c r="X9" s="57"/>
@@ -2996,27 +2943,27 @@
       </c>
       <c r="I10" s="61">
         <f t="shared" si="3"/>
-        <v>266.79999999999995</v>
+        <v>232</v>
       </c>
       <c r="J10" s="61">
         <f t="shared" si="0"/>
-        <v>533.59999999999991</v>
+        <v>464</v>
       </c>
       <c r="K10" s="61">
         <f t="shared" si="1"/>
-        <v>933.8</v>
+        <v>812</v>
       </c>
       <c r="L10" s="61">
         <f t="shared" si="1"/>
-        <v>1467.3999999999999</v>
+        <v>1276</v>
       </c>
       <c r="M10" s="61">
         <f t="shared" si="1"/>
-        <v>2267.7999999999997</v>
+        <v>1972</v>
       </c>
       <c r="N10" s="58">
         <f t="shared" si="2"/>
-        <v>667</v>
+        <v>580</v>
       </c>
     </row>
     <row r="11" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3040,18 +2987,18 @@
       </c>
       <c r="I11" s="61">
         <f t="shared" si="3"/>
-        <v>626.75</v>
+        <v>545</v>
       </c>
       <c r="J11" s="61">
         <f t="shared" si="0"/>
-        <v>1253.5</v>
+        <v>1090</v>
       </c>
       <c r="K11" s="61"/>
       <c r="L11" s="61"/>
       <c r="M11" s="61"/>
       <c r="N11" s="58">
         <f t="shared" si="2"/>
-        <v>459.99999999999994</v>
+        <v>400</v>
       </c>
     </row>
     <row r="12" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3075,18 +3022,18 @@
       </c>
       <c r="I12" s="61">
         <f t="shared" si="3"/>
-        <v>390.99999999999994</v>
+        <v>340</v>
       </c>
       <c r="J12" s="61">
         <f t="shared" si="0"/>
-        <v>781.99999999999989</v>
+        <v>680</v>
       </c>
       <c r="K12" s="61"/>
       <c r="L12" s="61"/>
       <c r="M12" s="61"/>
       <c r="N12" s="58">
         <f t="shared" si="2"/>
-        <v>459.99999999999994</v>
+        <v>400</v>
       </c>
     </row>
     <row r="13" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3112,21 +3059,21 @@
       </c>
       <c r="I13" s="61">
         <f t="shared" si="3"/>
-        <v>229.99999999999997</v>
+        <v>200</v>
       </c>
       <c r="J13" s="61">
         <f t="shared" si="0"/>
-        <v>459.99999999999994</v>
+        <v>400</v>
       </c>
       <c r="K13" s="61">
         <f>D13 * (1+SUM($R:$R))</f>
-        <v>690</v>
+        <v>600</v>
       </c>
       <c r="L13" s="61"/>
       <c r="M13" s="61"/>
       <c r="N13" s="58">
         <f t="shared" si="2"/>
-        <v>103.49999999999999</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -3734,34 +3681,34 @@
       <c r="A18" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B18" s="141" t="s">
+      <c r="B18" s="139" t="s">
         <v>132</v>
       </c>
-      <c r="C18" s="141"/>
-      <c r="D18" s="141"/>
-      <c r="E18" s="142"/>
+      <c r="C18" s="139"/>
+      <c r="D18" s="139"/>
+      <c r="E18" s="140"/>
     </row>
     <row r="19" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B19" s="140" t="s">
+      <c r="B19" s="138" t="s">
         <v>134</v>
       </c>
-      <c r="C19" s="141"/>
-      <c r="D19" s="141"/>
-      <c r="E19" s="142"/>
+      <c r="C19" s="139"/>
+      <c r="D19" s="139"/>
+      <c r="E19" s="140"/>
     </row>
     <row r="20" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B20" s="140" t="s">
+      <c r="B20" s="138" t="s">
         <v>133</v>
       </c>
-      <c r="C20" s="141"/>
-      <c r="D20" s="141"/>
-      <c r="E20" s="142"/>
+      <c r="C20" s="139"/>
+      <c r="D20" s="139"/>
+      <c r="E20" s="140"/>
     </row>
     <row r="21" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E21" s="80"/>
@@ -4079,11 +4026,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEFF6CA3-18A6-4987-88AD-5768B35D8A0C}">
-  <dimension ref="A1:R32"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P4" sqref="P4:Q8"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4092,64 +4039,22 @@
     <col min="2" max="2" width="19" style="52" customWidth="1"/>
     <col min="3" max="3" width="9.140625" style="20"/>
     <col min="4" max="4" width="12" style="20" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="20"/>
-    <col min="6" max="6" width="12" style="20" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="20"/>
-    <col min="8" max="8" width="12" style="20" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="20"/>
-    <col min="10" max="10" width="12" style="20" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="20"/>
-    <col min="12" max="12" width="12" style="20" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" style="20"/>
-    <col min="14" max="14" width="12" style="20" customWidth="1"/>
-    <col min="15" max="15" width="9.140625" style="20"/>
-    <col min="16" max="16" width="12" style="20" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" style="20"/>
-    <col min="18" max="18" width="12" style="20" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="20"/>
+    <col min="5" max="16384" width="9.140625" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="194"/>
-      <c r="B1" s="195"/>
-      <c r="C1" s="151" t="s">
-        <v>187</v>
-      </c>
-      <c r="D1" s="152"/>
-      <c r="E1" s="151" t="s">
-        <v>186</v>
-      </c>
-      <c r="F1" s="152"/>
-      <c r="G1" s="151" t="s">
-        <v>188</v>
-      </c>
-      <c r="H1" s="152"/>
-      <c r="I1" s="151" t="s">
-        <v>189</v>
-      </c>
-      <c r="J1" s="152"/>
-      <c r="K1" s="151" t="s">
-        <v>183</v>
-      </c>
-      <c r="L1" s="152"/>
-      <c r="M1" s="151" t="s">
-        <v>185</v>
-      </c>
-      <c r="N1" s="152"/>
-      <c r="O1" s="151" t="s">
-        <v>184</v>
-      </c>
-      <c r="P1" s="152"/>
-      <c r="Q1" s="151" t="s">
-        <v>184</v>
-      </c>
-      <c r="R1" s="152"/>
-    </row>
-    <row r="2" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="171" t="s">
+    <row r="1" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="143"/>
+      <c r="B1" s="144"/>
+      <c r="C1" s="147" t="s">
+        <v>182</v>
+      </c>
+      <c r="D1" s="148"/>
+    </row>
+    <row r="2" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="145" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="172"/>
+      <c r="B2" s="146"/>
       <c r="C2" s="21">
         <f>5/3</f>
         <v>1.6666666666666667</v>
@@ -4158,515 +4063,115 @@
         <f>C2</f>
         <v>1.6666666666666667</v>
       </c>
-      <c r="E2" s="21">
-        <f>5/3</f>
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="F2" s="22">
-        <f>E2</f>
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="G2" s="21">
-        <f>5/3</f>
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="H2" s="22">
-        <f>G2</f>
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="I2" s="21">
-        <f>5/3</f>
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="J2" s="22">
-        <f>I2</f>
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="K2" s="21">
-        <f>5/3</f>
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="L2" s="22">
-        <f>K2</f>
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="M2" s="21">
-        <f>5/3</f>
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="N2" s="22">
-        <f>M2</f>
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="O2" s="21">
-        <f>5/3</f>
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="P2" s="22">
-        <f>O2</f>
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="Q2" s="21">
-        <f>5/3</f>
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="R2" s="22">
-        <f>Q2</f>
-        <v>1.6666666666666667</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="171" t="s">
+    </row>
+    <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="145" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="172"/>
-      <c r="C3" s="21">
+      <c r="B3" s="146"/>
+      <c r="C3" s="125">
         <v>0</v>
       </c>
       <c r="D3" s="22">
         <f>1-C3</f>
         <v>1</v>
       </c>
-      <c r="E3" s="21">
-        <v>0</v>
-      </c>
-      <c r="F3" s="22">
-        <f>1-E3</f>
-        <v>1</v>
-      </c>
-      <c r="G3" s="21">
-        <v>0</v>
-      </c>
-      <c r="H3" s="22">
-        <f>1-G3</f>
-        <v>1</v>
-      </c>
-      <c r="I3" s="21">
-        <v>0</v>
-      </c>
-      <c r="J3" s="22">
-        <f>1-I3</f>
-        <v>1</v>
-      </c>
-      <c r="K3" s="21">
-        <v>0</v>
-      </c>
-      <c r="L3" s="22">
-        <f>1-K3</f>
-        <v>1</v>
-      </c>
-      <c r="M3" s="21">
-        <v>0</v>
-      </c>
-      <c r="N3" s="22">
-        <f>1-M3</f>
-        <v>1</v>
-      </c>
-      <c r="O3" s="21">
-        <v>0</v>
-      </c>
-      <c r="P3" s="22">
-        <f>1-O3</f>
-        <v>1</v>
-      </c>
-      <c r="Q3" s="21">
-        <v>0</v>
-      </c>
-      <c r="R3" s="22">
-        <f>1-Q3</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="175" t="s">
+    </row>
+    <row r="4" spans="1:4" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="162" t="s">
         <v>59</v>
       </c>
       <c r="B4" s="45" t="s">
         <v>62</v>
       </c>
       <c r="C4" s="24">
-        <v>4483</v>
-      </c>
-      <c r="D4" s="153">
+        <v>8254</v>
+      </c>
+      <c r="D4" s="149">
         <f>(C4/(1+C5)*(1+C5+C6)*(1+C7)*(1+C8))</f>
-        <v>14793.900000000001</v>
-      </c>
-      <c r="E4" s="24">
-        <v>4483</v>
-      </c>
-      <c r="F4" s="153">
-        <f>(E4/(1+E5)*(1+E5+E6)*(1+E7)*(1+E8))</f>
-        <v>14793.900000000001</v>
-      </c>
-      <c r="G4" s="24">
-        <v>5096</v>
-      </c>
-      <c r="H4" s="153">
-        <f>(G4/(1+G5)*(1+G5+G6)*(1+G7)*(1+G8))</f>
-        <v>16816.800000000003</v>
-      </c>
-      <c r="I4" s="24">
-        <v>5096</v>
-      </c>
-      <c r="J4" s="153">
-        <f>(I4/(1+I5)*(1+I5+I6)*(1+I7)*(1+I8))</f>
-        <v>16816.800000000003</v>
-      </c>
-      <c r="K4" s="24">
-        <v>5096</v>
-      </c>
-      <c r="L4" s="153">
-        <f>(K4/(1+K5)*(1+K5+K6)*(1+K7)*(1+K8))</f>
-        <v>16816.800000000003</v>
-      </c>
-      <c r="M4" s="24">
-        <v>5096</v>
-      </c>
-      <c r="N4" s="153">
-        <f>(M4/(1+M5)*(1+M5+M6)*(1+M7)*(1+M8))</f>
-        <v>16816.800000000003</v>
-      </c>
-      <c r="O4" s="24">
-        <v>5096</v>
-      </c>
-      <c r="P4" s="153">
-        <f>(O4/(1+O5)*(1+O5+O6)*(1+O7)*(1+O8))</f>
-        <v>16816.800000000003</v>
-      </c>
-      <c r="Q4" s="24">
-        <v>5096</v>
-      </c>
-      <c r="R4" s="153">
-        <f>(Q4/(1+Q5)*(1+Q5+Q6)*(1+Q7)*(1+Q8))</f>
-        <v>16816.800000000003</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="176"/>
+        <v>22946.120000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="163"/>
       <c r="B5" s="45" t="s">
         <v>44</v>
       </c>
       <c r="C5" s="26">
         <v>0</v>
       </c>
-      <c r="D5" s="154"/>
-      <c r="E5" s="26">
-        <v>0</v>
-      </c>
-      <c r="F5" s="154"/>
-      <c r="G5" s="26">
-        <v>0</v>
-      </c>
-      <c r="H5" s="154"/>
-      <c r="I5" s="26">
-        <v>0</v>
-      </c>
-      <c r="J5" s="154"/>
-      <c r="K5" s="26">
-        <v>0</v>
-      </c>
-      <c r="L5" s="154"/>
-      <c r="M5" s="26">
-        <v>0</v>
-      </c>
-      <c r="N5" s="154"/>
-      <c r="O5" s="26">
-        <v>0</v>
-      </c>
-      <c r="P5" s="154"/>
-      <c r="Q5" s="26">
-        <v>0</v>
-      </c>
-      <c r="R5" s="154"/>
-    </row>
-    <row r="6" spans="1:18" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="176"/>
+      <c r="D5" s="150"/>
+    </row>
+    <row r="6" spans="1:4" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="163"/>
       <c r="B6" s="45" t="s">
         <v>45</v>
       </c>
       <c r="C6" s="27">
         <v>0</v>
       </c>
-      <c r="D6" s="154"/>
-      <c r="E6" s="27">
-        <v>0</v>
-      </c>
-      <c r="F6" s="154"/>
-      <c r="G6" s="27">
-        <v>0</v>
-      </c>
-      <c r="H6" s="154"/>
-      <c r="I6" s="27">
-        <v>0</v>
-      </c>
-      <c r="J6" s="154"/>
-      <c r="K6" s="27">
-        <v>0</v>
-      </c>
-      <c r="L6" s="154"/>
-      <c r="M6" s="27">
-        <v>0</v>
-      </c>
-      <c r="N6" s="154"/>
-      <c r="O6" s="27">
-        <v>0</v>
-      </c>
-      <c r="P6" s="154"/>
-      <c r="Q6" s="27">
-        <v>0</v>
-      </c>
-      <c r="R6" s="154"/>
-    </row>
-    <row r="7" spans="1:18" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="176"/>
+      <c r="D6" s="150"/>
+    </row>
+    <row r="7" spans="1:4" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="163"/>
       <c r="B7" s="45" t="s">
         <v>55</v>
       </c>
       <c r="C7" s="27">
-        <v>2</v>
-      </c>
-      <c r="D7" s="154"/>
-      <c r="E7" s="27">
-        <v>2</v>
-      </c>
-      <c r="F7" s="154"/>
-      <c r="G7" s="27">
-        <v>2</v>
-      </c>
-      <c r="H7" s="154"/>
-      <c r="I7" s="27">
-        <v>2</v>
-      </c>
-      <c r="J7" s="154"/>
-      <c r="K7" s="27">
-        <v>2</v>
-      </c>
-      <c r="L7" s="154"/>
-      <c r="M7" s="27">
-        <v>2</v>
-      </c>
-      <c r="N7" s="154"/>
-      <c r="O7" s="27">
-        <v>2</v>
-      </c>
-      <c r="P7" s="154"/>
-      <c r="Q7" s="27">
-        <v>2</v>
-      </c>
-      <c r="R7" s="154"/>
-    </row>
-    <row r="8" spans="1:18" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="177"/>
+        <v>1.78</v>
+      </c>
+      <c r="D7" s="150"/>
+    </row>
+    <row r="8" spans="1:4" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="164"/>
       <c r="B8" s="45" t="s">
         <v>56</v>
       </c>
       <c r="C8" s="27">
-        <v>0.1</v>
-      </c>
-      <c r="D8" s="155"/>
-      <c r="E8" s="27">
-        <v>0.1</v>
-      </c>
-      <c r="F8" s="155"/>
-      <c r="G8" s="27">
-        <v>0.1</v>
-      </c>
-      <c r="H8" s="155"/>
-      <c r="I8" s="27">
-        <v>0.1</v>
-      </c>
-      <c r="J8" s="155"/>
-      <c r="K8" s="27">
-        <v>0.1</v>
-      </c>
-      <c r="L8" s="155"/>
-      <c r="M8" s="27">
-        <v>0.1</v>
-      </c>
-      <c r="N8" s="155"/>
-      <c r="O8" s="27">
-        <v>0.1</v>
-      </c>
-      <c r="P8" s="155"/>
-      <c r="Q8" s="27">
-        <v>0.1</v>
-      </c>
-      <c r="R8" s="155"/>
-    </row>
-    <row r="9" spans="1:18" s="30" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="190" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="151"/>
+    </row>
+    <row r="9" spans="1:4" s="30" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="165" t="s">
         <v>46</v>
       </c>
-      <c r="B9" s="191"/>
+      <c r="B9" s="166"/>
       <c r="C9" s="28">
-        <f>16.64*(1+0.05*D31)*0.7</f>
-        <v>37.855999999999995</v>
+        <v>8.08</v>
       </c>
       <c r="D9" s="29">
         <f>C9</f>
-        <v>37.855999999999995</v>
-      </c>
-      <c r="E9" s="28">
-        <f>16.64*(1+0.05*F31)*0.7</f>
-        <v>41.9328</v>
-      </c>
-      <c r="F9" s="29">
-        <f>E9</f>
-        <v>41.9328</v>
-      </c>
-      <c r="G9" s="28">
-        <f>16.64*(1+0.05*H31)*0.7</f>
-        <v>40.185600000000001</v>
-      </c>
-      <c r="H9" s="29">
-        <f>G9</f>
-        <v>40.185600000000001</v>
-      </c>
-      <c r="I9" s="28">
-        <f>16.64*(1+0.05*J31)*0.7</f>
-        <v>44.2624</v>
-      </c>
-      <c r="J9" s="29">
-        <f>I9</f>
-        <v>44.2624</v>
-      </c>
-      <c r="K9" s="28">
-        <f>16.64*(1+0.05*L31)*0.7</f>
-        <v>36.108800000000002</v>
-      </c>
-      <c r="L9" s="29">
-        <f>K9</f>
-        <v>36.108800000000002</v>
-      </c>
-      <c r="M9" s="28">
-        <f>16.64*(1+0.05*N31)*0.7</f>
-        <v>39.020800000000001</v>
-      </c>
-      <c r="N9" s="29">
-        <f>M9</f>
-        <v>39.020800000000001</v>
-      </c>
-      <c r="O9" s="28">
-        <f>16.64*(1+0.05*P31)*0.7</f>
-        <v>36.108800000000002</v>
-      </c>
-      <c r="P9" s="29">
-        <f>O9</f>
-        <v>36.108800000000002</v>
-      </c>
-      <c r="Q9" s="28">
-        <f>16.64*(1+0.05*R31)*0.7</f>
-        <v>36.108800000000002</v>
-      </c>
-      <c r="R9" s="29">
-        <f>Q9</f>
-        <v>36.108800000000002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" s="32" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="192" t="s">
+        <v>8.08</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="32" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="167" t="s">
         <v>61</v>
       </c>
       <c r="B10" s="46" t="s">
         <v>67</v>
       </c>
       <c r="C10" s="31">
+        <v>0</v>
+      </c>
+      <c r="D10" s="141">
+        <f>1+((0.7+C11)*C10)</f>
         <v>1</v>
       </c>
-      <c r="D10" s="156">
-        <f>1+((0.7+C11)*C10)</f>
-        <v>5.7</v>
-      </c>
-      <c r="E10" s="31">
-        <v>1</v>
-      </c>
-      <c r="F10" s="156">
-        <f>1+((0.7+E11)*E10)</f>
-        <v>5.7</v>
-      </c>
-      <c r="G10" s="31">
-        <v>1</v>
-      </c>
-      <c r="H10" s="156">
-        <f>1+((0.7+G11)*G10)</f>
-        <v>5.7</v>
-      </c>
-      <c r="I10" s="31">
-        <v>1</v>
-      </c>
-      <c r="J10" s="156">
-        <f>1+((0.7+I11)*I10)</f>
-        <v>5.7</v>
-      </c>
-      <c r="K10" s="31">
-        <v>1</v>
-      </c>
-      <c r="L10" s="156">
-        <f>1+((0.7+K11)*K10)</f>
-        <v>5.7</v>
-      </c>
-      <c r="M10" s="31">
-        <v>1</v>
-      </c>
-      <c r="N10" s="156">
-        <f>1+((0.7+M11)*M10)</f>
-        <v>5.7</v>
-      </c>
-      <c r="O10" s="31">
-        <v>1</v>
-      </c>
-      <c r="P10" s="156">
-        <f>1+((0.7+O11)*O10)</f>
-        <v>5.7</v>
-      </c>
-      <c r="Q10" s="31">
-        <v>1</v>
-      </c>
-      <c r="R10" s="156">
-        <f>1+((0.7+Q11)*Q10)</f>
-        <v>5.7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" s="32" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="193"/>
+    </row>
+    <row r="11" spans="1:4" s="32" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="168"/>
       <c r="B11" s="46" t="s">
         <v>42</v>
       </c>
       <c r="C11" s="33">
         <v>4</v>
       </c>
-      <c r="D11" s="157"/>
-      <c r="E11" s="33">
-        <v>4</v>
-      </c>
-      <c r="F11" s="157"/>
-      <c r="G11" s="33">
-        <v>4</v>
-      </c>
-      <c r="H11" s="157"/>
-      <c r="I11" s="33">
-        <v>4</v>
-      </c>
-      <c r="J11" s="157"/>
-      <c r="K11" s="33">
-        <v>4</v>
-      </c>
-      <c r="L11" s="157"/>
-      <c r="M11" s="33">
-        <v>4</v>
-      </c>
-      <c r="N11" s="157"/>
-      <c r="O11" s="33">
-        <v>4</v>
-      </c>
-      <c r="P11" s="157"/>
-      <c r="Q11" s="33">
-        <v>4</v>
-      </c>
-      <c r="R11" s="157"/>
-    </row>
-    <row r="12" spans="1:18" s="35" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="185" t="s">
+      <c r="D11" s="142"/>
+    </row>
+    <row r="12" spans="1:4" s="35" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="157" t="s">
         <v>63</v>
       </c>
       <c r="B12" s="47" t="s">
@@ -4675,278 +4180,68 @@
       <c r="C12" s="34">
         <v>0.4</v>
       </c>
-      <c r="D12" s="158">
+      <c r="D12" s="177">
         <f>(1+C12+C13)*(1+C14)*(1+C15)</f>
-        <v>6.3364999999999982</v>
-      </c>
-      <c r="E12" s="34">
-        <v>0.4</v>
-      </c>
-      <c r="F12" s="158">
-        <f>(1+E12+E13)*(1+E14)*(1+E15)</f>
-        <v>6.3364999999999982</v>
-      </c>
-      <c r="G12" s="34">
-        <v>0.4</v>
-      </c>
-      <c r="H12" s="158">
-        <f>(1+G12+G13)*(1+G14)*(1+G15)</f>
-        <v>6.3364999999999982</v>
-      </c>
-      <c r="I12" s="34">
-        <v>0.4</v>
-      </c>
-      <c r="J12" s="158">
-        <f>(1+I12+I13)*(1+I14)*(1+I15)</f>
-        <v>6.3364999999999982</v>
-      </c>
-      <c r="K12" s="34">
-        <v>0.4</v>
-      </c>
-      <c r="L12" s="158">
-        <f>(1+K12+K13)*(1+K14)*(1+K15)</f>
-        <v>6.3364999999999982</v>
-      </c>
-      <c r="M12" s="34">
-        <v>0.4</v>
-      </c>
-      <c r="N12" s="158">
-        <f>(1+M12+M13)*(1+M14)*(1+M15)</f>
-        <v>6.3364999999999982</v>
-      </c>
-      <c r="O12" s="34">
-        <v>0.4</v>
-      </c>
-      <c r="P12" s="158">
-        <f>(1+O12+O13)*(1+O14)*(1+O15)</f>
-        <v>6.3364999999999982</v>
-      </c>
-      <c r="Q12" s="34">
-        <v>0.4</v>
-      </c>
-      <c r="R12" s="158">
-        <f>(1+Q12+Q13)*(1+Q14)*(1+Q15)</f>
-        <v>6.3364999999999982</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" s="35" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="186"/>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" s="35" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="158"/>
       <c r="B13" s="47" t="s">
         <v>48</v>
       </c>
       <c r="C13" s="34">
-        <v>0.5</v>
-      </c>
-      <c r="D13" s="159"/>
-      <c r="E13" s="34">
-        <v>0.5</v>
-      </c>
-      <c r="F13" s="159"/>
-      <c r="G13" s="34">
-        <v>0.5</v>
-      </c>
-      <c r="H13" s="159"/>
-      <c r="I13" s="34">
-        <v>0.5</v>
-      </c>
-      <c r="J13" s="159"/>
-      <c r="K13" s="34">
-        <v>0.5</v>
-      </c>
-      <c r="L13" s="159"/>
-      <c r="M13" s="34">
-        <v>0.5</v>
-      </c>
-      <c r="N13" s="159"/>
-      <c r="O13" s="34">
-        <v>0.5</v>
-      </c>
-      <c r="P13" s="159"/>
-      <c r="Q13" s="34">
-        <v>0.5</v>
-      </c>
-      <c r="R13" s="159"/>
-    </row>
-    <row r="14" spans="1:18" s="35" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="186"/>
+        <v>0</v>
+      </c>
+      <c r="D13" s="178"/>
+    </row>
+    <row r="14" spans="1:4" s="35" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="158"/>
       <c r="B14" s="47" t="s">
         <v>68</v>
       </c>
       <c r="C14" s="34">
-        <v>0.15</v>
-      </c>
-      <c r="D14" s="159"/>
-      <c r="E14" s="34">
-        <v>0.15</v>
-      </c>
-      <c r="F14" s="159"/>
-      <c r="G14" s="34">
-        <v>0.15</v>
-      </c>
-      <c r="H14" s="159"/>
-      <c r="I14" s="34">
-        <v>0.15</v>
-      </c>
-      <c r="J14" s="159"/>
-      <c r="K14" s="34">
-        <v>0.15</v>
-      </c>
-      <c r="L14" s="159"/>
-      <c r="M14" s="34">
-        <v>0.15</v>
-      </c>
-      <c r="N14" s="159"/>
-      <c r="O14" s="34">
-        <v>0.15</v>
-      </c>
-      <c r="P14" s="159"/>
-      <c r="Q14" s="34">
-        <v>0.15</v>
-      </c>
-      <c r="R14" s="159"/>
-    </row>
-    <row r="15" spans="1:18" s="35" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="187"/>
+        <v>0</v>
+      </c>
+      <c r="D14" s="178"/>
+    </row>
+    <row r="15" spans="1:4" s="35" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="159"/>
       <c r="B15" s="47" t="s">
         <v>69</v>
       </c>
       <c r="C15" s="34">
-        <v>1.9</v>
-      </c>
-      <c r="D15" s="160"/>
-      <c r="E15" s="34">
-        <v>1.9</v>
-      </c>
-      <c r="F15" s="160"/>
-      <c r="G15" s="34">
-        <v>1.9</v>
-      </c>
-      <c r="H15" s="160"/>
-      <c r="I15" s="34">
-        <v>1.9</v>
-      </c>
-      <c r="J15" s="160"/>
-      <c r="K15" s="34">
-        <v>1.9</v>
-      </c>
-      <c r="L15" s="160"/>
-      <c r="M15" s="34">
-        <v>1.9</v>
-      </c>
-      <c r="N15" s="160"/>
-      <c r="O15" s="34">
-        <v>1.9</v>
-      </c>
-      <c r="P15" s="160"/>
-      <c r="Q15" s="34">
-        <v>1.9</v>
-      </c>
-      <c r="R15" s="160"/>
-    </row>
-    <row r="16" spans="1:18" s="37" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="188" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="179"/>
+    </row>
+    <row r="16" spans="1:4" s="37" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="160" t="s">
         <v>64</v>
       </c>
       <c r="B16" s="48" t="s">
         <v>57</v>
       </c>
       <c r="C16" s="36">
-        <v>0.3</v>
-      </c>
-      <c r="D16" s="161">
+        <v>0</v>
+      </c>
+      <c r="D16" s="180">
         <f>(1+C16)*(1+C17)</f>
-        <v>2.1840000000000002</v>
-      </c>
-      <c r="E16" s="36">
-        <v>0.3</v>
-      </c>
-      <c r="F16" s="161">
-        <f>(1+E16)*(1+E17)</f>
-        <v>2.1840000000000002</v>
-      </c>
-      <c r="G16" s="36">
-        <v>0.3</v>
-      </c>
-      <c r="H16" s="161">
-        <f>(1+G16)*(1+G17)</f>
-        <v>2.5739999999999998</v>
-      </c>
-      <c r="I16" s="36">
-        <v>0.3</v>
-      </c>
-      <c r="J16" s="161">
-        <f>(1+I16)*(1+I17)</f>
-        <v>2.5739999999999998</v>
-      </c>
-      <c r="K16" s="36">
-        <v>0.3</v>
-      </c>
-      <c r="L16" s="161">
-        <f>(1+K16)*(1+K17)</f>
-        <v>2.5739999999999998</v>
-      </c>
-      <c r="M16" s="36">
-        <v>0.3</v>
-      </c>
-      <c r="N16" s="161">
-        <f>(1+M16)*(1+M17)</f>
-        <v>2.5739999999999998</v>
-      </c>
-      <c r="O16" s="36">
-        <v>0.3</v>
-      </c>
-      <c r="P16" s="161">
-        <f>(1+O16)*(1+O17)</f>
-        <v>2.5739999999999998</v>
-      </c>
-      <c r="Q16" s="36">
-        <v>0.3</v>
-      </c>
-      <c r="R16" s="161">
-        <f>(1+Q16)*(1+Q17)</f>
-        <v>1.7939999999999998</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" s="37" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="189"/>
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" s="37" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="161"/>
       <c r="B17" s="48" t="s">
         <v>49</v>
       </c>
       <c r="C17" s="36">
-        <v>0.68</v>
-      </c>
-      <c r="D17" s="162"/>
-      <c r="E17" s="36">
-        <v>0.68</v>
-      </c>
-      <c r="F17" s="162"/>
-      <c r="G17" s="36">
-        <v>0.98</v>
-      </c>
-      <c r="H17" s="162"/>
-      <c r="I17" s="36">
-        <v>0.98</v>
-      </c>
-      <c r="J17" s="162"/>
-      <c r="K17" s="36">
-        <v>0.98</v>
-      </c>
-      <c r="L17" s="162"/>
-      <c r="M17" s="36">
-        <v>0.98</v>
-      </c>
-      <c r="N17" s="162"/>
-      <c r="O17" s="36">
-        <v>0.98</v>
-      </c>
-      <c r="P17" s="162"/>
-      <c r="Q17" s="36">
-        <v>0.38</v>
-      </c>
-      <c r="R17" s="162"/>
-    </row>
-    <row r="18" spans="1:18" s="39" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="180" t="s">
+        <v>0.25</v>
+      </c>
+      <c r="D17" s="181"/>
+    </row>
+    <row r="18" spans="1:9" s="39" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="152" t="s">
         <v>65</v>
       </c>
       <c r="B18" s="49" t="s">
@@ -4955,364 +4250,84 @@
       <c r="C18" s="38">
         <v>1.5</v>
       </c>
-      <c r="D18" s="163">
+      <c r="D18" s="182">
         <f>C18+C19</f>
-        <v>1.5</v>
-      </c>
-      <c r="E18" s="38">
-        <v>1.5</v>
-      </c>
-      <c r="F18" s="163">
-        <f>E18+E19</f>
-        <v>1.5</v>
-      </c>
-      <c r="G18" s="38">
-        <v>1.5</v>
-      </c>
-      <c r="H18" s="163">
-        <f>G18+G19</f>
-        <v>1.5</v>
-      </c>
-      <c r="I18" s="38">
-        <v>1.5</v>
-      </c>
-      <c r="J18" s="163">
-        <f>I18+I19</f>
-        <v>1.5</v>
-      </c>
-      <c r="K18" s="38">
-        <v>1.5</v>
-      </c>
-      <c r="L18" s="163">
-        <f>K18+K19</f>
-        <v>1.5</v>
-      </c>
-      <c r="M18" s="38">
-        <v>1.5</v>
-      </c>
-      <c r="N18" s="163">
-        <f>M18+M19</f>
-        <v>1.5</v>
-      </c>
-      <c r="O18" s="38">
-        <v>1.5</v>
-      </c>
-      <c r="P18" s="163">
-        <f>O18+O19</f>
-        <v>1.5</v>
-      </c>
-      <c r="Q18" s="38">
-        <v>1.5</v>
-      </c>
-      <c r="R18" s="163">
-        <f>Q18+Q19</f>
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" s="39" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="181"/>
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" s="39" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="153"/>
       <c r="B19" s="49" t="s">
         <v>58</v>
       </c>
       <c r="C19" s="40">
-        <v>0</v>
-      </c>
-      <c r="D19" s="164"/>
-      <c r="E19" s="40">
-        <v>0</v>
-      </c>
-      <c r="F19" s="164"/>
-      <c r="G19" s="40">
-        <v>0</v>
-      </c>
-      <c r="H19" s="164"/>
-      <c r="I19" s="40">
-        <v>0</v>
-      </c>
-      <c r="J19" s="164"/>
-      <c r="K19" s="40">
-        <v>0</v>
-      </c>
-      <c r="L19" s="164"/>
-      <c r="M19" s="40">
-        <v>0</v>
-      </c>
-      <c r="N19" s="164"/>
-      <c r="O19" s="40">
-        <v>0</v>
-      </c>
-      <c r="P19" s="164"/>
-      <c r="Q19" s="40">
-        <v>0</v>
-      </c>
-      <c r="R19" s="164"/>
-    </row>
-    <row r="20" spans="1:18" s="42" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="182" t="s">
+        <v>0.3</v>
+      </c>
+      <c r="D19" s="183"/>
+    </row>
+    <row r="20" spans="1:9" s="42" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="154" t="s">
         <v>71</v>
       </c>
       <c r="B20" s="50" t="s">
         <v>70</v>
       </c>
       <c r="C20" s="41">
-        <v>0</v>
-      </c>
-      <c r="D20" s="143">
+        <v>1</v>
+      </c>
+      <c r="D20" s="184">
         <f>1+C20*(0.2+C21+C22)</f>
-        <v>1</v>
-      </c>
-      <c r="E20" s="41">
-        <v>0</v>
-      </c>
-      <c r="F20" s="143">
-        <f>1+E20*(0.2+E21+E22)</f>
-        <v>1</v>
-      </c>
-      <c r="G20" s="41">
-        <v>0</v>
-      </c>
-      <c r="H20" s="143">
-        <f>1+G20*(0.2+G21+G22)</f>
-        <v>1</v>
-      </c>
-      <c r="I20" s="41">
-        <v>0</v>
-      </c>
-      <c r="J20" s="143">
-        <f>1+I20*(0.2+I21+I22)</f>
-        <v>1</v>
-      </c>
-      <c r="K20" s="41">
-        <v>0</v>
-      </c>
-      <c r="L20" s="143">
-        <f>1+K20*(0.2+K21+K22)</f>
-        <v>1</v>
-      </c>
-      <c r="M20" s="41">
-        <v>0</v>
-      </c>
-      <c r="N20" s="143">
-        <f>1+M20*(0.2+M21+M22)</f>
-        <v>1</v>
-      </c>
-      <c r="O20" s="41">
-        <v>0</v>
-      </c>
-      <c r="P20" s="143">
-        <f>1+O20*(0.2+O21+O22)</f>
-        <v>1</v>
-      </c>
-      <c r="Q20" s="41">
-        <v>0</v>
-      </c>
-      <c r="R20" s="143">
-        <f>1+Q20*(0.2+Q21+Q22)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" s="42" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="183"/>
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" s="42" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="155"/>
       <c r="B21" s="50" t="s">
         <v>50</v>
       </c>
       <c r="C21" s="41">
         <v>0.5</v>
       </c>
-      <c r="D21" s="144"/>
-      <c r="E21" s="41">
-        <v>0.5</v>
-      </c>
-      <c r="F21" s="144"/>
-      <c r="G21" s="41">
-        <v>0.5</v>
-      </c>
-      <c r="H21" s="144"/>
-      <c r="I21" s="41">
-        <v>0.5</v>
-      </c>
-      <c r="J21" s="144"/>
-      <c r="K21" s="41">
-        <v>0.5</v>
-      </c>
-      <c r="L21" s="144"/>
-      <c r="M21" s="41">
-        <v>0.5</v>
-      </c>
-      <c r="N21" s="144"/>
-      <c r="O21" s="41">
-        <v>0.5</v>
-      </c>
-      <c r="P21" s="144"/>
-      <c r="Q21" s="41">
-        <v>0.5</v>
-      </c>
-      <c r="R21" s="144"/>
-    </row>
-    <row r="22" spans="1:18" s="42" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="184"/>
+      <c r="D21" s="185"/>
+    </row>
+    <row r="22" spans="1:9" s="42" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="156"/>
       <c r="B22" s="50" t="s">
         <v>51</v>
       </c>
       <c r="C22" s="41">
         <v>0</v>
       </c>
-      <c r="D22" s="145"/>
-      <c r="E22" s="41">
-        <v>0</v>
-      </c>
-      <c r="F22" s="145"/>
-      <c r="G22" s="41">
-        <v>0</v>
-      </c>
-      <c r="H22" s="145"/>
-      <c r="I22" s="41">
-        <v>0</v>
-      </c>
-      <c r="J22" s="145"/>
-      <c r="K22" s="41">
-        <v>0</v>
-      </c>
-      <c r="L22" s="145"/>
-      <c r="M22" s="41">
-        <v>0</v>
-      </c>
-      <c r="N22" s="145"/>
-      <c r="O22" s="41">
-        <v>0</v>
-      </c>
-      <c r="P22" s="145"/>
-      <c r="Q22" s="41">
-        <v>0</v>
-      </c>
-      <c r="R22" s="145"/>
-    </row>
-    <row r="23" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="171" t="s">
+      <c r="D22" s="186"/>
+    </row>
+    <row r="23" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="145" t="s">
         <v>72</v>
       </c>
-      <c r="B23" s="172"/>
+      <c r="B23" s="146"/>
       <c r="C23" s="21">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="D23" s="23">
         <f>C23</f>
-        <v>1.05</v>
-      </c>
-      <c r="E23" s="21">
-        <v>0.95</v>
-      </c>
-      <c r="F23" s="23">
-        <f>E23</f>
-        <v>0.95</v>
-      </c>
-      <c r="G23" s="21">
-        <v>1.05</v>
-      </c>
-      <c r="H23" s="23">
-        <f>G23</f>
-        <v>1.05</v>
-      </c>
-      <c r="I23" s="21">
-        <v>0.95</v>
-      </c>
-      <c r="J23" s="23">
-        <f>I23</f>
-        <v>0.95</v>
-      </c>
-      <c r="K23" s="21">
         <v>1</v>
       </c>
-      <c r="L23" s="23">
-        <f>K23</f>
-        <v>1</v>
-      </c>
-      <c r="M23" s="21">
-        <v>1</v>
-      </c>
-      <c r="N23" s="23">
-        <f>M23</f>
-        <v>1</v>
-      </c>
-      <c r="O23" s="21">
-        <v>1</v>
-      </c>
-      <c r="P23" s="23">
-        <f>O23</f>
-        <v>1</v>
-      </c>
-      <c r="Q23" s="21">
-        <v>1</v>
-      </c>
-      <c r="R23" s="23">
-        <f>Q23</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" s="42" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="173" t="s">
+    </row>
+    <row r="24" spans="1:9" s="42" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="171" t="s">
         <v>52</v>
       </c>
-      <c r="B24" s="174"/>
+      <c r="B24" s="172"/>
       <c r="C24" s="41">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D24" s="43">
         <f>C24</f>
-        <v>15</v>
-      </c>
-      <c r="E24" s="41">
-        <v>15</v>
-      </c>
-      <c r="F24" s="43">
-        <f>E24</f>
-        <v>15</v>
-      </c>
-      <c r="G24" s="41">
-        <v>15</v>
-      </c>
-      <c r="H24" s="43">
-        <f>G24</f>
-        <v>15</v>
-      </c>
-      <c r="I24" s="41">
-        <v>15</v>
-      </c>
-      <c r="J24" s="43">
-        <f>I24</f>
-        <v>15</v>
-      </c>
-      <c r="K24" s="41">
-        <v>15</v>
-      </c>
-      <c r="L24" s="43">
-        <f>K24</f>
-        <v>15</v>
-      </c>
-      <c r="M24" s="41">
-        <v>15</v>
-      </c>
-      <c r="N24" s="43">
-        <f>M24</f>
-        <v>15</v>
-      </c>
-      <c r="O24" s="41">
-        <v>15</v>
-      </c>
-      <c r="P24" s="43">
-        <f>O24</f>
-        <v>15</v>
-      </c>
-      <c r="Q24" s="41">
-        <v>15</v>
-      </c>
-      <c r="R24" s="43">
-        <f>Q24</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="175" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="162" t="s">
         <v>53</v>
       </c>
       <c r="B25" s="45" t="s">
@@ -5321,141 +4336,36 @@
       <c r="C25" s="24">
         <v>1</v>
       </c>
-      <c r="D25" s="146">
+      <c r="D25" s="187">
         <f>(1-(1-C26)*C25)*(1-C27)</f>
-        <v>0.3</v>
-      </c>
-      <c r="E25" s="24">
-        <v>1</v>
-      </c>
-      <c r="F25" s="146">
-        <f>(1-(1-E26)*E25)*(1-E27)</f>
-        <v>0.3</v>
-      </c>
-      <c r="G25" s="24">
-        <v>1</v>
-      </c>
-      <c r="H25" s="146">
-        <f>(1-(1-G26)*G25)*(1-G27)</f>
-        <v>0.3</v>
-      </c>
-      <c r="I25" s="24">
-        <v>1</v>
-      </c>
-      <c r="J25" s="146">
-        <f>(1-(1-I26)*I25)*(1-I27)</f>
-        <v>0.3</v>
-      </c>
-      <c r="K25" s="24">
-        <v>1</v>
-      </c>
-      <c r="L25" s="146">
-        <f>(1-(1-K26)*K25)*(1-K27)</f>
-        <v>0.3</v>
-      </c>
-      <c r="M25" s="24">
-        <v>1</v>
-      </c>
-      <c r="N25" s="146">
-        <f>(1-(1-M26)*M25)*(1-M27)</f>
-        <v>0.3</v>
-      </c>
-      <c r="O25" s="24">
-        <v>1</v>
-      </c>
-      <c r="P25" s="146">
-        <f>(1-(1-O26)*O25)*(1-O27)</f>
-        <v>0.4</v>
-      </c>
-      <c r="Q25" s="24">
-        <v>1</v>
-      </c>
-      <c r="R25" s="146">
-        <f>(1-(1-Q26)*Q25)*(1-Q27)</f>
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="176"/>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="163"/>
       <c r="B26" s="45" t="s">
         <v>73</v>
       </c>
       <c r="C26" s="24">
         <v>0.6</v>
       </c>
-      <c r="D26" s="147"/>
-      <c r="E26" s="24">
-        <v>0.6</v>
-      </c>
-      <c r="F26" s="147"/>
-      <c r="G26" s="24">
-        <v>0.6</v>
-      </c>
-      <c r="H26" s="147"/>
-      <c r="I26" s="24">
-        <v>0.6</v>
-      </c>
-      <c r="J26" s="147"/>
-      <c r="K26" s="24">
-        <v>0.6</v>
-      </c>
-      <c r="L26" s="147"/>
-      <c r="M26" s="24">
-        <v>0.6</v>
-      </c>
-      <c r="N26" s="147"/>
-      <c r="O26" s="24">
-        <v>0.8</v>
-      </c>
-      <c r="P26" s="147"/>
-      <c r="Q26" s="24">
-        <v>0.8</v>
-      </c>
-      <c r="R26" s="147"/>
-    </row>
-    <row r="27" spans="1:18" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="177"/>
+      <c r="D26" s="188"/>
+    </row>
+    <row r="27" spans="1:9" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="164"/>
       <c r="B27" s="45" t="s">
         <v>37</v>
       </c>
       <c r="C27" s="27">
-        <v>0.5</v>
-      </c>
-      <c r="D27" s="148"/>
-      <c r="E27" s="27">
-        <v>0.5</v>
-      </c>
-      <c r="F27" s="148"/>
-      <c r="G27" s="27">
-        <v>0.5</v>
-      </c>
-      <c r="H27" s="148"/>
-      <c r="I27" s="27">
-        <v>0.5</v>
-      </c>
-      <c r="J27" s="148"/>
-      <c r="K27" s="27">
-        <v>0.5</v>
-      </c>
-      <c r="L27" s="148"/>
-      <c r="M27" s="27">
-        <v>0.5</v>
-      </c>
-      <c r="N27" s="148"/>
-      <c r="O27" s="27">
-        <v>0.5</v>
-      </c>
-      <c r="P27" s="148"/>
-      <c r="Q27" s="27">
-        <v>0.5</v>
-      </c>
-      <c r="R27" s="148"/>
-    </row>
-    <row r="28" spans="1:18" s="39" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="178" t="s">
+        <v>0</v>
+      </c>
+      <c r="D27" s="189"/>
+    </row>
+    <row r="28" spans="1:9" s="39" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="173" t="s">
         <v>75</v>
       </c>
-      <c r="B28" s="179"/>
+      <c r="B28" s="174"/>
       <c r="C28" s="38">
         <v>1</v>
       </c>
@@ -5463,225 +4373,86 @@
         <f>C28*0.5+1</f>
         <v>1.5</v>
       </c>
-      <c r="E28" s="38">
-        <v>1</v>
-      </c>
-      <c r="F28" s="44">
-        <f>E28*0.5+1</f>
-        <v>1.5</v>
-      </c>
-      <c r="G28" s="38">
-        <v>0</v>
-      </c>
-      <c r="H28" s="44">
-        <f>G28*0.5+1</f>
-        <v>1</v>
-      </c>
-      <c r="I28" s="38">
-        <v>0</v>
-      </c>
-      <c r="J28" s="44">
-        <f>I28*0.5+1</f>
-        <v>1</v>
-      </c>
-      <c r="K28" s="38">
-        <v>1</v>
-      </c>
-      <c r="L28" s="44">
-        <f>K28*0.5+1</f>
-        <v>1.5</v>
-      </c>
-      <c r="M28" s="38">
-        <v>1</v>
-      </c>
-      <c r="N28" s="44">
-        <f>M28*0.5+1</f>
-        <v>1.5</v>
-      </c>
-      <c r="O28" s="38">
-        <v>0</v>
-      </c>
-      <c r="P28" s="44">
-        <f>O28*0.5+1</f>
-        <v>1</v>
-      </c>
-      <c r="Q28" s="38">
-        <v>0</v>
-      </c>
-      <c r="R28" s="44">
-        <f>Q28*0.5+1</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="169" t="s">
         <v>54</v>
       </c>
       <c r="B29" s="170"/>
-      <c r="C29" s="149">
+      <c r="C29" s="175">
         <f>D2*D3*D4*D9*D10*D12*D16*D18*D20*D23/D24/D25*D28</f>
-        <v>38654706.815529115</v>
-      </c>
-      <c r="D29" s="150"/>
-      <c r="E29" s="149">
-        <f>F2*F3*F4*F9*F10*F12*F16*F18*F20*F23/F24/F25*F28</f>
-        <v>38739662.215123691</v>
-      </c>
-      <c r="F29" s="150"/>
-      <c r="G29" s="165">
-        <f>H2*H3*H4*H9*H10*H12*H16*H18*H20*H23/H24/H25*H28</f>
-        <v>36649111.275646895</v>
-      </c>
-      <c r="H29" s="166"/>
-      <c r="I29" s="165">
-        <f>J2*J3*J4*J9*J10*J12*J16*J18*J20*J23/J24/J25*J28</f>
-        <v>36522647.813688129</v>
-      </c>
-      <c r="J29" s="166"/>
-      <c r="K29" s="165">
-        <f>L2*L3*L4*L9*L10*L12*L16*L18*L20*L23/L24/L25*L28</f>
-        <v>47044407.848656461</v>
-      </c>
-      <c r="L29" s="166"/>
-      <c r="M29" s="165">
-        <f>N2*N3*N4*N9*N10*N12*N16*N18*N20*N23/N24/N25*N28</f>
-        <v>50838311.707419075</v>
-      </c>
-      <c r="N29" s="166"/>
-      <c r="O29" s="167">
-        <f>P2*P3*P4*P9*P10*P12*P16*P18*P20*P23/P24/P25*P28</f>
-        <v>23522203.924328227</v>
-      </c>
-      <c r="P29" s="168"/>
-      <c r="Q29" s="167">
-        <f>R2*R3*R4*R9*R10*R12*R16*R18*R20*R23/R24/R25*R28</f>
-        <v>16394263.341198463</v>
-      </c>
-      <c r="R29" s="168"/>
-    </row>
-    <row r="30" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C30" s="125"/>
-      <c r="D30" s="126">
-        <f>C29*2</f>
-        <v>77309413.631058231</v>
-      </c>
-      <c r="E30" s="125"/>
-      <c r="F30" s="126">
-        <f>E29*2</f>
-        <v>77479324.430247381</v>
-      </c>
-      <c r="G30" s="127"/>
-      <c r="H30" s="128">
-        <f>G29*2</f>
-        <v>73298222.55129379</v>
-      </c>
-      <c r="I30" s="127"/>
-      <c r="J30" s="128">
-        <f>I29*2</f>
-        <v>73045295.627376258</v>
-      </c>
-      <c r="K30" s="127"/>
-      <c r="L30" s="128">
-        <f>K29*2</f>
-        <v>94088815.697312921</v>
-      </c>
-      <c r="M30" s="127"/>
-      <c r="N30" s="128">
-        <f>M29*2</f>
-        <v>101676623.41483815</v>
-      </c>
-      <c r="O30" s="20" t="s">
+        <v>413684.12442000001</v>
+      </c>
+      <c r="D29" s="176"/>
+    </row>
+    <row r="30" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C30" s="123" t="s">
         <v>181</v>
       </c>
-      <c r="P30" s="124">
-        <f>K29/O29</f>
-        <v>2.0000000000000004</v>
-      </c>
-      <c r="Q30" s="20" t="s">
-        <v>181</v>
-      </c>
-      <c r="R30" s="124">
-        <f>K29/Q29</f>
-        <v>2.8695652173913047</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C31" s="125" t="s">
-        <v>175</v>
-      </c>
-      <c r="D31" s="125">
-        <v>45</v>
-      </c>
-      <c r="E31" s="125" t="s">
-        <v>175</v>
-      </c>
-      <c r="F31" s="125">
-        <v>52</v>
-      </c>
-      <c r="G31" s="127" t="s">
-        <v>175</v>
-      </c>
-      <c r="H31" s="127">
-        <v>49</v>
-      </c>
-      <c r="I31" s="127" t="s">
-        <v>175</v>
-      </c>
-      <c r="J31" s="127">
-        <v>56</v>
-      </c>
-      <c r="K31" s="127" t="s">
-        <v>175</v>
-      </c>
-      <c r="L31" s="127">
-        <v>42</v>
-      </c>
-      <c r="M31" s="127" t="s">
-        <v>175</v>
-      </c>
-      <c r="N31" s="127">
-        <v>47</v>
-      </c>
-      <c r="O31" s="20" t="s">
-        <v>175</v>
-      </c>
-      <c r="P31" s="20">
-        <v>42</v>
-      </c>
-      <c r="Q31" s="20" t="s">
-        <v>175</v>
-      </c>
-      <c r="R31" s="20">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O32" s="20" t="s">
-        <v>182</v>
-      </c>
-      <c r="P32" s="123">
-        <f>100000000/O29</f>
-        <v>4.25130231511059</v>
-      </c>
-      <c r="Q32" s="20" t="s">
-        <v>182</v>
-      </c>
-      <c r="R32" s="123">
-        <f>100000000/Q29</f>
-        <v>6.0996946260282376</v>
+      <c r="D30" s="124">
+        <v>702176</v>
+      </c>
+      <c r="F30" s="20">
+        <v>300279</v>
+      </c>
+      <c r="G30" s="20">
+        <v>1078</v>
+      </c>
+      <c r="H30" s="20">
+        <v>808</v>
+      </c>
+      <c r="I30" s="126"/>
+    </row>
+    <row r="31" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C31" s="123" t="s">
+        <v>183</v>
+      </c>
+      <c r="D31" s="123">
+        <f>C29*0.85</f>
+        <v>351631.50575700001</v>
+      </c>
+      <c r="F31" s="20">
+        <v>401897</v>
+      </c>
+      <c r="G31" s="20">
+        <v>1470</v>
+      </c>
+      <c r="H31" s="20">
+        <v>1102</v>
+      </c>
+      <c r="I31" s="126"/>
+    </row>
+    <row r="32" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D32" s="20">
+        <f>C29*0.75*0.85</f>
+        <v>263723.62931774999</v>
+      </c>
+      <c r="F32" s="20">
+        <f>F30/F31</f>
+        <v>0.74715412157841432</v>
+      </c>
+      <c r="G32" s="20">
+        <f>G30/G31</f>
+        <v>0.73333333333333328</v>
+      </c>
+      <c r="H32" s="20">
+        <f>H30/H31</f>
+        <v>0.73321234119782219</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="87">
-    <mergeCell ref="N4:N8"/>
-    <mergeCell ref="N10:N11"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="D4:D8"/>
-    <mergeCell ref="D10:D11"/>
+  <mergeCells count="24">
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="D12:D15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:B28"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="A12:A15"/>
@@ -5689,77 +4460,12 @@
     <mergeCell ref="A4:A8"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="N12:N15"/>
-    <mergeCell ref="N16:N17"/>
-    <mergeCell ref="N18:N19"/>
-    <mergeCell ref="N20:N22"/>
-    <mergeCell ref="N25:N27"/>
-    <mergeCell ref="P18:P19"/>
-    <mergeCell ref="P20:P22"/>
-    <mergeCell ref="P25:P27"/>
-    <mergeCell ref="O29:P29"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="P4:P8"/>
-    <mergeCell ref="P10:P11"/>
-    <mergeCell ref="P12:P15"/>
-    <mergeCell ref="P16:P17"/>
-    <mergeCell ref="R18:R19"/>
-    <mergeCell ref="R20:R22"/>
-    <mergeCell ref="R25:R27"/>
-    <mergeCell ref="Q29:R29"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="R4:R8"/>
-    <mergeCell ref="R10:R11"/>
-    <mergeCell ref="R12:R15"/>
-    <mergeCell ref="R16:R17"/>
-    <mergeCell ref="L12:L15"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="F4:F8"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="F12:F15"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="D12:D15"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="D25:D27"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="L20:L22"/>
-    <mergeCell ref="L25:L27"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="H4:H8"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="H12:H15"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="H20:H22"/>
-    <mergeCell ref="H25:H27"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="L4:L8"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="F20:F22"/>
-    <mergeCell ref="F25:F27"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="J4:J8"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="J12:J15"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="J20:J22"/>
-    <mergeCell ref="J25:J27"/>
-    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="D4:D8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5809,19 +4515,19 @@
       <c r="B3" s="82" t="s">
         <v>85</v>
       </c>
-      <c r="C3" s="196">
+      <c r="C3" s="190">
         <v>0.1</v>
       </c>
-      <c r="D3" s="196"/>
+      <c r="D3" s="190"/>
     </row>
     <row r="4" spans="1:4" s="119" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="119" t="s">
         <v>174</v>
       </c>
-      <c r="C4" s="204">
+      <c r="C4" s="198">
         <v>0</v>
       </c>
-      <c r="D4" s="205"/>
+      <c r="D4" s="199"/>
     </row>
     <row r="5" spans="1:4" s="102" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="102" t="s">
@@ -5852,19 +4558,19 @@
       <c r="B7" s="84" t="s">
         <v>85</v>
       </c>
-      <c r="C7" s="201">
+      <c r="C7" s="195">
         <v>0.4</v>
       </c>
-      <c r="D7" s="201"/>
+      <c r="D7" s="195"/>
     </row>
     <row r="8" spans="1:4" s="84" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="84" t="s">
         <v>174</v>
       </c>
-      <c r="C8" s="201">
+      <c r="C8" s="195">
         <v>0</v>
       </c>
-      <c r="D8" s="201"/>
+      <c r="D8" s="195"/>
     </row>
     <row r="9" spans="1:4" s="99" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="99" t="s">
@@ -5895,19 +4601,19 @@
       <c r="B11" s="86" t="s">
         <v>143</v>
       </c>
-      <c r="C11" s="202">
+      <c r="C11" s="196">
         <v>0</v>
       </c>
-      <c r="D11" s="203"/>
+      <c r="D11" s="197"/>
     </row>
     <row r="12" spans="1:4" s="86" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="86" t="s">
         <v>153</v>
       </c>
-      <c r="C12" s="200">
+      <c r="C12" s="194">
         <v>0.5</v>
       </c>
-      <c r="D12" s="200"/>
+      <c r="D12" s="194"/>
     </row>
     <row r="13" spans="1:4" s="88" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="88" t="s">
@@ -5916,28 +4622,28 @@
       <c r="B13" s="88" t="s">
         <v>155</v>
       </c>
-      <c r="C13" s="199">
+      <c r="C13" s="193">
         <v>0</v>
       </c>
-      <c r="D13" s="199"/>
+      <c r="D13" s="193"/>
     </row>
     <row r="14" spans="1:4" s="120" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="120" t="s">
         <v>176</v>
       </c>
-      <c r="C14" s="199">
+      <c r="C14" s="193">
         <v>0</v>
       </c>
-      <c r="D14" s="199"/>
+      <c r="D14" s="193"/>
     </row>
     <row r="15" spans="1:4" s="88" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="88" t="s">
         <v>154</v>
       </c>
-      <c r="C15" s="199">
+      <c r="C15" s="193">
         <v>0</v>
       </c>
-      <c r="D15" s="199"/>
+      <c r="D15" s="193"/>
     </row>
     <row r="16" spans="1:4" s="89" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="89" t="s">
@@ -5946,19 +4652,19 @@
       <c r="B16" s="89" t="s">
         <v>144</v>
       </c>
-      <c r="C16" s="197">
+      <c r="C16" s="191">
         <v>1</v>
       </c>
-      <c r="D16" s="197"/>
+      <c r="D16" s="191"/>
     </row>
     <row r="17" spans="1:4" s="89" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="89" t="s">
         <v>152</v>
       </c>
-      <c r="C17" s="198">
+      <c r="C17" s="192">
         <v>1</v>
       </c>
-      <c r="D17" s="198"/>
+      <c r="D17" s="192"/>
     </row>
     <row r="18" spans="1:4" s="90" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="90" t="s">
@@ -5968,7 +4674,7 @@
         <v>144</v>
       </c>
       <c r="C18" s="92">
-        <f t="shared" ref="C18" si="0">(1+C2+$C3)*(1+$C4+C5)*(1+C10+$C11+$C12)*(1+$C13)*$C16</f>
+        <f>(1+C2+$C3)*(1+$C4+C5)*(1+C10+$C11+$C12)*(1+$C13)*$C16</f>
         <v>3.4200000000000004</v>
       </c>
       <c r="D18" s="92">
@@ -6040,8 +4746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E75D12CF-EAA2-4AE2-9060-0FB10D1645D5}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6054,21 +4760,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="207" t="s">
+      <c r="A1" s="201" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="207"/>
-      <c r="C1" s="206" t="s">
+      <c r="B1" s="201"/>
+      <c r="C1" s="200" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="206"/>
+      <c r="D1" s="200"/>
     </row>
     <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="72" t="s">
         <v>147</v>
       </c>
       <c r="B2" s="94">
-        <v>0.3</v>
+        <v>0.12</v>
       </c>
       <c r="C2" s="63" t="s">
         <v>147</v>
@@ -6088,7 +4794,7 @@
         <v>148</v>
       </c>
       <c r="D3" s="95">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6097,14 +4803,14 @@
       </c>
       <c r="B4" s="94">
         <f>B2+B3</f>
-        <v>0.4</v>
+        <v>0.22</v>
       </c>
       <c r="C4" s="63" t="s">
         <v>149</v>
       </c>
       <c r="D4" s="95">
         <f>D2+D3</f>
-        <v>1.8499999999999999</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6114,10 +4820,10 @@
       <c r="B5" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="210" t="s">
+      <c r="C5" s="204" t="s">
         <v>151</v>
       </c>
-      <c r="D5" s="211"/>
+      <c r="D5" s="205"/>
     </row>
     <row r="6" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65" t="s">
@@ -6126,11 +4832,11 @@
       <c r="B6" s="65" t="s">
         <v>147</v>
       </c>
-      <c r="C6" s="208">
+      <c r="C6" s="202">
         <f>1*(1-B2)+D2*(B2)</f>
-        <v>1.21</v>
-      </c>
-      <c r="D6" s="209"/>
+        <v>1.0840000000000001</v>
+      </c>
+      <c r="D6" s="203"/>
     </row>
     <row r="7" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65" t="s">
@@ -6139,12 +4845,15 @@
       <c r="B7" s="96" t="s">
         <v>150</v>
       </c>
-      <c r="C7" s="208">
+      <c r="C7" s="202">
         <f>1*(1-B2)+D4*(B2)</f>
-        <v>1.2549999999999999</v>
-      </c>
-      <c r="D7" s="209"/>
-      <c r="E7" s="122"/>
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="D7" s="203"/>
+      <c r="E7" s="122">
+        <f>C7/C6</f>
+        <v>1.033210332103321</v>
+      </c>
     </row>
     <row r="8" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="96" t="s">
@@ -6153,14 +4862,14 @@
       <c r="B8" s="65" t="s">
         <v>147</v>
       </c>
-      <c r="C8" s="208">
+      <c r="C8" s="202">
         <f>1*(1-B4)+D2*(B4)</f>
-        <v>1.28</v>
-      </c>
-      <c r="D8" s="209"/>
+        <v>1.1539999999999999</v>
+      </c>
+      <c r="D8" s="203"/>
       <c r="E8" s="122">
         <f>C8/C6</f>
-        <v>1.0578512396694215</v>
+        <v>1.0645756457564575</v>
       </c>
       <c r="F8" s="97"/>
     </row>
@@ -6171,12 +4880,15 @@
       <c r="B9" s="96" t="s">
         <v>150</v>
       </c>
-      <c r="C9" s="208">
+      <c r="C9" s="202">
         <f>1*(1-B4)+D4*(B4)</f>
-        <v>1.3399999999999999</v>
-      </c>
-      <c r="D9" s="209"/>
-      <c r="E9" s="122"/>
+        <v>1.22</v>
+      </c>
+      <c r="D9" s="203"/>
+      <c r="E9" s="122">
+        <f>C9/C8</f>
+        <v>1.0571923743500866</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/Brainstorm.xlsx
+++ b/Brainstorm.xlsx
@@ -1,26 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Personal@SSD\Game\DL\dragalia-data-track\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8C201B2-6B9C-4CCD-A553-AAC6D49C2B81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFDA124E-9F73-404B-86C2-3A7D567A199C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3240" yWindow="240" windowWidth="21600" windowHeight="14355" activeTab="6" xr2:uid="{4CFB4A6A-60C6-4091-BCA5-480044B61D33}"/>
+    <workbookView xWindow="29430" yWindow="3270" windowWidth="21600" windowHeight="11385" activeTab="8" xr2:uid="{4CFB4A6A-60C6-4091-BCA5-480044B61D33}"/>
   </bookViews>
   <sheets>
     <sheet name="Rotation" sheetId="8" r:id="rId1"/>
-    <sheet name="Affliction" sheetId="1" r:id="rId2"/>
-    <sheet name="Equips" sheetId="6" r:id="rId3"/>
-    <sheet name="Steps" sheetId="4" r:id="rId4"/>
+    <sheet name="Affliction" sheetId="1" state="hidden" r:id="rId2"/>
+    <sheet name="Equips" sheetId="6" state="hidden" r:id="rId3"/>
+    <sheet name="Steps" sheetId="4" state="hidden" r:id="rId4"/>
     <sheet name="Damage" sheetId="7" r:id="rId5"/>
-    <sheet name="Dragon" sheetId="9" r:id="rId6"/>
-    <sheet name="CRT effect" sheetId="10" r:id="rId7"/>
-    <sheet name="Corrosion" sheetId="11" r:id="rId8"/>
+    <sheet name="Damage (Rev Buff)" sheetId="12" r:id="rId6"/>
+    <sheet name="Sheet2" sheetId="13" r:id="rId7"/>
+    <sheet name="Dragon" sheetId="9" r:id="rId8"/>
+    <sheet name="CRT effect" sheetId="10" r:id="rId9"/>
+    <sheet name="Corrosion" sheetId="11" state="hidden" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -71,6 +73,37 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={ED694F4C-CBA5-4DCA-BDE8-23901C6128BC}</author>
+    <author>tc={DFE1C7C2-B602-406E-BFFD-8570BFC5E5EA}</author>
+  </authors>
+  <commentList>
+    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{ED694F4C-CBA5-4DCA-BDE8-23901C6128BC}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    【護符被動、龍被動】
+裝備時，遊戲內顯示出的改變後的 ATK，例如: 滿血
+【主條件】
+滿血、0 Combo</t>
+      </text>
+    </comment>
+    <comment ref="B6" authorId="1" shapeId="0" xr:uid="{DFE1C7C2-B602-406E-BFFD-8570BFC5E5EA}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    【護符被動、龍被動】
+HP 70%、疾風怒濤...等</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
 <metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
@@ -94,7 +127,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="198">
   <si>
     <t>睡抗</t>
   </si>
@@ -648,6 +681,48 @@
   </si>
   <si>
     <t>Expected</t>
+  </si>
+  <si>
+    <t>Eze - Xander</t>
+  </si>
+  <si>
+    <t>ENER</t>
+  </si>
+  <si>
+    <t>SD</t>
+  </si>
+  <si>
+    <t>PUN (O)</t>
+  </si>
+  <si>
+    <t>PUN (B)</t>
+  </si>
+  <si>
+    <t>DEF -</t>
+  </si>
+  <si>
+    <t>Mod</t>
+  </si>
+  <si>
+    <t>Current HP%</t>
+  </si>
+  <si>
+    <t>Effectiveness</t>
+  </si>
+  <si>
+    <t>HP%</t>
+  </si>
+  <si>
+    <t>壓血</t>
+  </si>
+  <si>
+    <t>當前 HP%</t>
+  </si>
+  <si>
+    <t>ATK%</t>
+  </si>
+  <si>
+    <t>ATK (P)</t>
   </si>
 </sst>
 </file>
@@ -773,7 +848,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="46">
+  <fills count="50">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1044,8 +1119,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF242300"/>
+        <bgColor rgb="FFEAD1DC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF242300"/>
+        <bgColor rgb="FFD9D9D9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF242300"/>
+        <bgColor rgb="FFEFEFEF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF242300"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="20">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -1300,12 +1399,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color theme="2"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="2"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="206">
+  <cellXfs count="221">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1685,6 +1821,39 @@
     <xf numFmtId="9" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="5" fillId="15" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="15" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="15" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="49" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="47" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="46" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="47" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="15" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="41" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1872,6 +2041,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="23" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="46" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="46" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="48" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="48" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1931,6 +2112,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF242300"/>
       <color rgb="FF483000"/>
       <color rgb="FF003217"/>
       <color rgb="FF320000"/>
@@ -1940,7 +2122,6 @@
       <color rgb="FF323100"/>
       <color rgb="FF1B0C26"/>
       <color rgb="FF000C24"/>
-      <color rgb="FF242300"/>
     </mruColors>
   </colors>
   <extLst>
@@ -2270,12 +2451,27 @@
 </ThreadedComments>
 </file>
 
+<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="B5" dT="2020-10-09T14:25:11.51" personId="{ABEC8F12-B0D3-44BC-AF35-B8DCE860105B}" id="{ED694F4C-CBA5-4DCA-BDE8-23901C6128BC}">
+    <text>【護符被動、龍被動】
+裝備時，遊戲內顯示出的改變後的 ATK，例如: 滿血
+【主條件】
+滿血、0 Combo</text>
+  </threadedComment>
+  <threadedComment ref="B6" dT="2020-10-10T04:01:10.20" personId="{ABEC8F12-B0D3-44BC-AF35-B8DCE860105B}" id="{DFE1C7C2-B602-406E-BFFD-8570BFC5E5EA}">
+    <text>【護符被動、龍被動】
+HP 70%、疾風怒濤...等</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B260D6A6-975E-4594-902D-33C279C7CA35}">
   <dimension ref="A1:Y13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2293,40 +2489,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="133" t="s">
+      <c r="A1" s="144" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="134"/>
-      <c r="C1" s="134"/>
-      <c r="D1" s="134"/>
-      <c r="E1" s="134"/>
-      <c r="F1" s="134"/>
-      <c r="G1" s="135"/>
-      <c r="H1" s="133" t="s">
+      <c r="B1" s="145"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="145"/>
+      <c r="E1" s="145"/>
+      <c r="F1" s="145"/>
+      <c r="G1" s="146"/>
+      <c r="H1" s="144" t="s">
         <v>90</v>
       </c>
-      <c r="I1" s="134"/>
-      <c r="J1" s="134"/>
-      <c r="K1" s="134"/>
-      <c r="L1" s="134"/>
-      <c r="M1" s="134"/>
-      <c r="N1" s="135"/>
-      <c r="O1" s="136" t="s">
+      <c r="I1" s="145"/>
+      <c r="J1" s="145"/>
+      <c r="K1" s="145"/>
+      <c r="L1" s="145"/>
+      <c r="M1" s="145"/>
+      <c r="N1" s="146"/>
+      <c r="O1" s="147" t="s">
         <v>93</v>
       </c>
-      <c r="P1" s="137"/>
-      <c r="Q1" s="127" t="s">
+      <c r="P1" s="148"/>
+      <c r="Q1" s="138" t="s">
         <v>92</v>
       </c>
-      <c r="R1" s="128"/>
-      <c r="S1" s="129" t="s">
+      <c r="R1" s="139"/>
+      <c r="S1" s="140" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="130"/>
-      <c r="U1" s="131" t="s">
+      <c r="T1" s="141"/>
+      <c r="U1" s="142" t="s">
         <v>88</v>
       </c>
-      <c r="V1" s="132"/>
+      <c r="V1" s="143"/>
     </row>
     <row r="2" spans="1:25" s="57" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="64" t="s">
@@ -2381,7 +2577,7 @@
         <v>84</v>
       </c>
       <c r="R2" s="66">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="S2" s="60" t="s">
         <v>9</v>
@@ -2392,7 +2588,7 @@
       </c>
       <c r="V2" s="69">
         <f>VLOOKUP(T3,$H$3:$M$13,6,FALSE)</f>
-        <v>1600</v>
+        <v>1517.9999999999998</v>
       </c>
       <c r="X2" s="57" t="s">
         <v>40</v>
@@ -2428,27 +2624,27 @@
       </c>
       <c r="I3" s="61">
         <f>B3 * (1+SUM($R:$R))</f>
-        <v>150</v>
+        <v>172.5</v>
       </c>
       <c r="J3" s="61">
         <f t="shared" ref="J3:J13" si="0">C3 * (1+SUM($R:$R))</f>
-        <v>300</v>
+        <v>345</v>
       </c>
       <c r="K3" s="61">
         <f t="shared" ref="K3:M10" si="1">D3 * (1+SUM($R:$R))</f>
-        <v>496</v>
+        <v>570.4</v>
       </c>
       <c r="L3" s="61">
         <f t="shared" si="1"/>
-        <v>761</v>
+        <v>875.15</v>
       </c>
       <c r="M3" s="61">
         <f t="shared" si="1"/>
-        <v>1152</v>
+        <v>1324.8</v>
       </c>
       <c r="N3" s="58">
         <f t="shared" ref="N3:N13" si="2">G3 * (1+SUM($R:$R))</f>
-        <v>345</v>
+        <v>396.74999999999994</v>
       </c>
       <c r="O3" s="72" t="s">
         <v>17</v>
@@ -2466,14 +2662,14 @@
         <v>76</v>
       </c>
       <c r="T3" s="13" t="s">
-        <v>29</v>
+        <v>78</v>
       </c>
       <c r="U3" s="68" t="s">
         <v>99</v>
       </c>
       <c r="V3" s="69">
         <f>MOD(T6, V2)</f>
-        <v>1347</v>
+        <v>1074.0000000000005</v>
       </c>
       <c r="W3" s="57" t="s">
         <v>39</v>
@@ -2514,27 +2710,27 @@
       </c>
       <c r="I4" s="61">
         <f t="shared" ref="I4:I13" si="3">B4 * (1+SUM($R:$R))</f>
-        <v>130</v>
+        <v>149.5</v>
       </c>
       <c r="J4" s="61">
         <f t="shared" si="0"/>
-        <v>260</v>
+        <v>299</v>
       </c>
       <c r="K4" s="61">
         <f t="shared" si="1"/>
-        <v>480</v>
+        <v>552</v>
       </c>
       <c r="L4" s="61">
         <f t="shared" si="1"/>
-        <v>840</v>
+        <v>965.99999999999989</v>
       </c>
       <c r="M4" s="61">
         <f t="shared" si="1"/>
-        <v>1740</v>
+        <v>2000.9999999999998</v>
       </c>
       <c r="N4" s="58">
         <f t="shared" si="2"/>
-        <v>200</v>
+        <v>229.99999999999997</v>
       </c>
       <c r="O4" s="72" t="s">
         <v>85</v>
@@ -2552,14 +2748,14 @@
         <v>94</v>
       </c>
       <c r="T4" s="13">
-        <v>14147</v>
+        <v>4110</v>
       </c>
       <c r="U4" s="68" t="s">
         <v>100</v>
       </c>
       <c r="V4" s="69">
         <f>MOD(T7, V2)</f>
-        <v>1500</v>
+        <v>1503.0000000000023</v>
       </c>
       <c r="W4" s="57" t="s">
         <v>102</v>
@@ -2600,27 +2796,27 @@
       </c>
       <c r="I5" s="61">
         <f t="shared" si="3"/>
-        <v>144</v>
+        <v>165.6</v>
       </c>
       <c r="J5" s="61">
         <f t="shared" si="0"/>
-        <v>288</v>
+        <v>331.2</v>
       </c>
       <c r="K5" s="61">
         <f t="shared" si="1"/>
-        <v>552</v>
+        <v>634.79999999999995</v>
       </c>
       <c r="L5" s="61">
         <f t="shared" si="1"/>
-        <v>840</v>
+        <v>965.99999999999989</v>
       </c>
       <c r="M5" s="61">
         <f t="shared" si="1"/>
-        <v>1320</v>
+        <v>1517.9999999999998</v>
       </c>
       <c r="N5" s="58">
         <f t="shared" si="2"/>
-        <v>288</v>
+        <v>331.2</v>
       </c>
       <c r="O5" s="72" t="s">
         <v>86</v>
@@ -2638,14 +2834,14 @@
         <v>96</v>
       </c>
       <c r="T5" s="13">
-        <v>6300</v>
+        <v>16683</v>
       </c>
       <c r="U5" s="70" t="s">
         <v>97</v>
       </c>
       <c r="V5" s="71" t="str" cm="1">
         <f t="array" ref="V5">(ROUNDDOWN(T6/V2, 0) + IF(X8,1,0)) &amp; _xlfn.IFS(X3, " + FS", X4, " + C1", X5, " + C2", X6, " + C3", X7, " + C4", TRUE, "")</f>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="W5" s="57" t="s">
         <v>103</v>
@@ -2686,41 +2882,41 @@
       </c>
       <c r="I6" s="61">
         <f t="shared" si="3"/>
-        <v>200</v>
+        <v>229.99999999999997</v>
       </c>
       <c r="J6" s="61">
         <f t="shared" si="0"/>
-        <v>440</v>
+        <v>505.99999999999994</v>
       </c>
       <c r="K6" s="61">
         <f t="shared" si="1"/>
-        <v>800</v>
+        <v>919.99999999999989</v>
       </c>
       <c r="L6" s="61">
         <f t="shared" si="1"/>
-        <v>1180</v>
+        <v>1357</v>
       </c>
       <c r="M6" s="61">
         <f t="shared" si="1"/>
-        <v>1600</v>
+        <v>1839.9999999999998</v>
       </c>
       <c r="N6" s="58">
         <f t="shared" si="2"/>
-        <v>300</v>
+        <v>345</v>
       </c>
       <c r="S6" s="75" t="s">
         <v>95</v>
       </c>
       <c r="T6" s="76">
         <f>T4 * (1 - SUM(P:P))</f>
-        <v>14147</v>
+        <v>4110</v>
       </c>
       <c r="U6" s="77" t="s">
         <v>98</v>
       </c>
       <c r="V6" s="71" t="str" cm="1">
         <f t="array" ref="V6">(ROUNDDOWN(T7/V2, 0) + IF(Y8,1,0)) &amp; _xlfn.IFS(Y3, " + FS", Y4, " + C1", Y5, " + C2", Y6, " + C3", Y7, " + C4", TRUE, "")</f>
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="W6" s="57" t="s">
         <v>104</v>
@@ -2761,34 +2957,34 @@
       </c>
       <c r="I7" s="61">
         <f t="shared" si="3"/>
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="J7" s="61">
         <f t="shared" si="0"/>
-        <v>360</v>
+        <v>413.99999999999994</v>
       </c>
       <c r="K7" s="61">
         <f t="shared" si="1"/>
-        <v>480</v>
+        <v>552</v>
       </c>
       <c r="L7" s="61">
         <f t="shared" si="1"/>
-        <v>960</v>
+        <v>1104</v>
       </c>
       <c r="M7" s="61">
         <f t="shared" si="1"/>
-        <v>1560</v>
+        <v>1793.9999999999998</v>
       </c>
       <c r="N7" s="58">
         <f t="shared" si="2"/>
-        <v>400</v>
+        <v>459.99999999999994</v>
       </c>
       <c r="S7" s="75" t="s">
         <v>101</v>
       </c>
       <c r="T7" s="76">
         <f>T5 * (1 - SUM(P:P))</f>
-        <v>6300</v>
+        <v>16683</v>
       </c>
       <c r="W7" s="57" t="s">
         <v>105</v>
@@ -2829,27 +3025,27 @@
       </c>
       <c r="I8" s="61">
         <f t="shared" si="3"/>
-        <v>184</v>
+        <v>211.6</v>
       </c>
       <c r="J8" s="61">
         <f t="shared" si="0"/>
-        <v>276</v>
+        <v>317.39999999999998</v>
       </c>
       <c r="K8" s="61">
         <f t="shared" si="1"/>
-        <v>552</v>
+        <v>634.79999999999995</v>
       </c>
       <c r="L8" s="61">
         <f t="shared" si="1"/>
-        <v>966</v>
+        <v>1110.8999999999999</v>
       </c>
       <c r="M8" s="61">
         <f t="shared" si="1"/>
-        <v>1495</v>
+        <v>1719.2499999999998</v>
       </c>
       <c r="N8" s="58">
         <f t="shared" si="2"/>
-        <v>460</v>
+        <v>529</v>
       </c>
       <c r="W8" s="57" t="s">
         <v>106</v>
@@ -2890,27 +3086,27 @@
       </c>
       <c r="I9" s="61">
         <f t="shared" si="3"/>
-        <v>130</v>
+        <v>149.5</v>
       </c>
       <c r="J9" s="61">
         <f t="shared" si="0"/>
-        <v>330</v>
+        <v>379.49999999999994</v>
       </c>
       <c r="K9" s="61">
         <f t="shared" si="1"/>
-        <v>570</v>
+        <v>655.5</v>
       </c>
       <c r="L9" s="61">
         <f t="shared" si="1"/>
-        <v>1000</v>
+        <v>1150</v>
       </c>
       <c r="M9" s="61">
         <f t="shared" si="1"/>
-        <v>1600</v>
+        <v>1839.9999999999998</v>
       </c>
       <c r="N9" s="58">
         <f t="shared" si="2"/>
-        <v>400</v>
+        <v>459.99999999999994</v>
       </c>
       <c r="W9" s="57"/>
       <c r="X9" s="57"/>
@@ -2943,27 +3139,27 @@
       </c>
       <c r="I10" s="61">
         <f t="shared" si="3"/>
-        <v>232</v>
+        <v>266.79999999999995</v>
       </c>
       <c r="J10" s="61">
         <f t="shared" si="0"/>
-        <v>464</v>
+        <v>533.59999999999991</v>
       </c>
       <c r="K10" s="61">
         <f t="shared" si="1"/>
-        <v>812</v>
+        <v>933.8</v>
       </c>
       <c r="L10" s="61">
         <f t="shared" si="1"/>
-        <v>1276</v>
+        <v>1467.3999999999999</v>
       </c>
       <c r="M10" s="61">
         <f t="shared" si="1"/>
-        <v>1972</v>
+        <v>2267.7999999999997</v>
       </c>
       <c r="N10" s="58">
         <f t="shared" si="2"/>
-        <v>580</v>
+        <v>667</v>
       </c>
     </row>
     <row r="11" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2987,18 +3183,18 @@
       </c>
       <c r="I11" s="61">
         <f t="shared" si="3"/>
-        <v>545</v>
+        <v>626.75</v>
       </c>
       <c r="J11" s="61">
         <f t="shared" si="0"/>
-        <v>1090</v>
+        <v>1253.5</v>
       </c>
       <c r="K11" s="61"/>
       <c r="L11" s="61"/>
       <c r="M11" s="61"/>
       <c r="N11" s="58">
         <f t="shared" si="2"/>
-        <v>400</v>
+        <v>459.99999999999994</v>
       </c>
     </row>
     <row r="12" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3022,18 +3218,18 @@
       </c>
       <c r="I12" s="61">
         <f t="shared" si="3"/>
-        <v>340</v>
+        <v>390.99999999999994</v>
       </c>
       <c r="J12" s="61">
         <f t="shared" si="0"/>
-        <v>680</v>
+        <v>781.99999999999989</v>
       </c>
       <c r="K12" s="61"/>
       <c r="L12" s="61"/>
       <c r="M12" s="61"/>
       <c r="N12" s="58">
         <f t="shared" si="2"/>
-        <v>400</v>
+        <v>459.99999999999994</v>
       </c>
     </row>
     <row r="13" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3059,21 +3255,21 @@
       </c>
       <c r="I13" s="61">
         <f t="shared" si="3"/>
-        <v>200</v>
+        <v>229.99999999999997</v>
       </c>
       <c r="J13" s="61">
         <f t="shared" si="0"/>
-        <v>400</v>
+        <v>459.99999999999994</v>
       </c>
       <c r="K13" s="61">
         <f>D13 * (1+SUM($R:$R))</f>
-        <v>600</v>
+        <v>690</v>
       </c>
       <c r="L13" s="61"/>
       <c r="M13" s="61"/>
       <c r="N13" s="58">
         <f t="shared" si="2"/>
-        <v>90</v>
+        <v>103.49999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -3087,6 +3283,1686 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67061BFE-6F76-4E7B-9ED9-42BA29E49AED}">
+  <dimension ref="A1:L42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" style="103" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="93"/>
+    <col min="3" max="3" width="2.42578125" style="93" customWidth="1"/>
+    <col min="4" max="4" width="4.140625" style="104" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" style="104" customWidth="1"/>
+    <col min="6" max="6" width="8.5703125" style="104" customWidth="1"/>
+    <col min="7" max="7" width="8.140625" style="104" customWidth="1"/>
+    <col min="8" max="9" width="10.5703125" style="104" customWidth="1"/>
+    <col min="10" max="10" width="6.85546875" style="105" customWidth="1"/>
+    <col min="11" max="11" width="10.5703125" style="116" customWidth="1"/>
+    <col min="12" max="12" width="7.28515625" style="118" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="93"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="103" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="110" t="s">
+        <v>163</v>
+      </c>
+      <c r="B1" s="110">
+        <v>3</v>
+      </c>
+      <c r="D1" s="110" t="s">
+        <v>158</v>
+      </c>
+      <c r="E1" s="110" t="s">
+        <v>159</v>
+      </c>
+      <c r="F1" s="110" t="s">
+        <v>160</v>
+      </c>
+      <c r="G1" s="110" t="s">
+        <v>172</v>
+      </c>
+      <c r="H1" s="110" t="s">
+        <v>161</v>
+      </c>
+      <c r="I1" s="110" t="s">
+        <v>165</v>
+      </c>
+      <c r="J1" s="111" t="s">
+        <v>166</v>
+      </c>
+      <c r="K1" s="115" t="s">
+        <v>173</v>
+      </c>
+      <c r="L1" s="117" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="110" t="s">
+        <v>162</v>
+      </c>
+      <c r="B2" s="112">
+        <v>0.09</v>
+      </c>
+      <c r="D2" s="104">
+        <v>1</v>
+      </c>
+      <c r="E2" s="104">
+        <f>$B$1*D2</f>
+        <v>3</v>
+      </c>
+      <c r="F2" s="106">
+        <f t="shared" ref="F2:F42" si="0">$B$2+$B$6*_xlfn.FLOOR.MATH(E2/$B$3)</f>
+        <v>0.09</v>
+      </c>
+      <c r="G2" s="106">
+        <f>F2/$B$1</f>
+        <v>0.03</v>
+      </c>
+      <c r="H2" s="106">
+        <f>SUM($F$2:F2)</f>
+        <v>0.09</v>
+      </c>
+      <c r="I2" s="107">
+        <f>H2/E2</f>
+        <v>0.03</v>
+      </c>
+      <c r="J2" s="105">
+        <f>1/I2</f>
+        <v>33.333333333333336</v>
+      </c>
+      <c r="K2" s="116">
+        <f>IF($B$13-G2&gt;0,"",$B$13-G2)</f>
+        <v>-1.9230769230769232E-2</v>
+      </c>
+      <c r="L2" s="118">
+        <f>IF(ISNUMBER(K2),-1/K2,"")</f>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="110" t="s">
+        <v>156</v>
+      </c>
+      <c r="B3" s="104">
+        <v>12.2</v>
+      </c>
+      <c r="D3" s="104">
+        <f>D2+1</f>
+        <v>2</v>
+      </c>
+      <c r="E3" s="104">
+        <f>$B$1*D3</f>
+        <v>6</v>
+      </c>
+      <c r="F3" s="106">
+        <f t="shared" si="0"/>
+        <v>0.09</v>
+      </c>
+      <c r="G3" s="106">
+        <f t="shared" ref="G3:G42" si="1">F3/$B$1</f>
+        <v>0.03</v>
+      </c>
+      <c r="H3" s="106">
+        <f>SUM($F$2:F3)</f>
+        <v>0.18</v>
+      </c>
+      <c r="I3" s="107">
+        <f t="shared" ref="I3:I35" si="2">H3/E3</f>
+        <v>0.03</v>
+      </c>
+      <c r="J3" s="105">
+        <f t="shared" ref="J3:J42" si="3">1/I3</f>
+        <v>33.333333333333336</v>
+      </c>
+      <c r="K3" s="116">
+        <f t="shared" ref="K3:K35" si="4">IF($B$13-G3&gt;0,"",$B$13-G3)</f>
+        <v>-1.9230769230769232E-2</v>
+      </c>
+      <c r="L3" s="118">
+        <f t="shared" ref="L3:L42" si="5">IF(ISNUMBER(K3),-1/K3,"")</f>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="110" t="s">
+        <v>157</v>
+      </c>
+      <c r="B4" s="112">
+        <v>0.3</v>
+      </c>
+      <c r="D4" s="104">
+        <f t="shared" ref="D4:D15" si="6">D3+1</f>
+        <v>3</v>
+      </c>
+      <c r="E4" s="104">
+        <f t="shared" ref="E4:E20" si="7">$B$1*D4</f>
+        <v>9</v>
+      </c>
+      <c r="F4" s="106">
+        <f t="shared" si="0"/>
+        <v>0.09</v>
+      </c>
+      <c r="G4" s="106">
+        <f t="shared" si="1"/>
+        <v>0.03</v>
+      </c>
+      <c r="H4" s="106">
+        <f>SUM($F$2:F4)</f>
+        <v>0.27</v>
+      </c>
+      <c r="I4" s="107">
+        <f t="shared" si="2"/>
+        <v>3.0000000000000002E-2</v>
+      </c>
+      <c r="J4" s="105">
+        <f t="shared" si="3"/>
+        <v>33.333333333333329</v>
+      </c>
+      <c r="K4" s="116">
+        <f t="shared" si="4"/>
+        <v>-1.9230769230769232E-2</v>
+      </c>
+      <c r="L4" s="118">
+        <f t="shared" si="5"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D5" s="104">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="E5" s="104">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="F5" s="106">
+        <f t="shared" si="0"/>
+        <v>0.09</v>
+      </c>
+      <c r="G5" s="106">
+        <f t="shared" si="1"/>
+        <v>0.03</v>
+      </c>
+      <c r="H5" s="106">
+        <f>SUM($F$2:F5)</f>
+        <v>0.36</v>
+      </c>
+      <c r="I5" s="107">
+        <f t="shared" si="2"/>
+        <v>0.03</v>
+      </c>
+      <c r="J5" s="105">
+        <f t="shared" si="3"/>
+        <v>33.333333333333336</v>
+      </c>
+      <c r="K5" s="116">
+        <f t="shared" si="4"/>
+        <v>-1.9230769230769232E-2</v>
+      </c>
+      <c r="L5" s="118">
+        <f t="shared" si="5"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="103" t="s">
+        <v>164</v>
+      </c>
+      <c r="B6" s="97">
+        <f>B2*B4</f>
+        <v>2.7E-2</v>
+      </c>
+      <c r="D6" s="104">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="E6" s="104">
+        <f t="shared" si="7"/>
+        <v>15</v>
+      </c>
+      <c r="F6" s="106">
+        <f t="shared" si="0"/>
+        <v>0.11699999999999999</v>
+      </c>
+      <c r="G6" s="106">
+        <f t="shared" si="1"/>
+        <v>3.9E-2</v>
+      </c>
+      <c r="H6" s="106">
+        <f>SUM($F$2:F6)</f>
+        <v>0.47699999999999998</v>
+      </c>
+      <c r="I6" s="107">
+        <f t="shared" si="2"/>
+        <v>3.1800000000000002E-2</v>
+      </c>
+      <c r="J6" s="105">
+        <f t="shared" si="3"/>
+        <v>31.446540880503143</v>
+      </c>
+      <c r="K6" s="116">
+        <f t="shared" si="4"/>
+        <v>-2.8230769230769233E-2</v>
+      </c>
+      <c r="L6" s="118">
+        <f t="shared" si="5"/>
+        <v>35.422343324250676</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D7" s="104">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="E7" s="104">
+        <f t="shared" si="7"/>
+        <v>18</v>
+      </c>
+      <c r="F7" s="106">
+        <f t="shared" si="0"/>
+        <v>0.11699999999999999</v>
+      </c>
+      <c r="G7" s="106">
+        <f t="shared" si="1"/>
+        <v>3.9E-2</v>
+      </c>
+      <c r="H7" s="106">
+        <f>SUM($F$2:F7)</f>
+        <v>0.59399999999999997</v>
+      </c>
+      <c r="I7" s="107">
+        <f t="shared" si="2"/>
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="J7" s="105">
+        <f t="shared" si="3"/>
+        <v>30.303030303030301</v>
+      </c>
+      <c r="K7" s="116">
+        <f t="shared" si="4"/>
+        <v>-2.8230769230769233E-2</v>
+      </c>
+      <c r="L7" s="118">
+        <f t="shared" si="5"/>
+        <v>35.422343324250676</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="65" t="s">
+        <v>167</v>
+      </c>
+      <c r="B8" s="113">
+        <v>3.9</v>
+      </c>
+      <c r="C8" s="97"/>
+      <c r="D8" s="104">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="E8" s="104">
+        <f t="shared" si="7"/>
+        <v>21</v>
+      </c>
+      <c r="F8" s="106">
+        <f t="shared" si="0"/>
+        <v>0.11699999999999999</v>
+      </c>
+      <c r="G8" s="106">
+        <f t="shared" si="1"/>
+        <v>3.9E-2</v>
+      </c>
+      <c r="H8" s="106">
+        <f>SUM($F$2:F8)</f>
+        <v>0.71099999999999997</v>
+      </c>
+      <c r="I8" s="107">
+        <f t="shared" si="2"/>
+        <v>3.3857142857142856E-2</v>
+      </c>
+      <c r="J8" s="105">
+        <f t="shared" si="3"/>
+        <v>29.535864978902953</v>
+      </c>
+      <c r="K8" s="116">
+        <f t="shared" si="4"/>
+        <v>-2.8230769230769233E-2</v>
+      </c>
+      <c r="L8" s="118">
+        <f t="shared" si="5"/>
+        <v>35.422343324250676</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="65" t="s">
+        <v>168</v>
+      </c>
+      <c r="B9" s="114">
+        <v>0.06</v>
+      </c>
+      <c r="D9" s="104">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="E9" s="104">
+        <f t="shared" si="7"/>
+        <v>24</v>
+      </c>
+      <c r="F9" s="106">
+        <f t="shared" si="0"/>
+        <v>0.11699999999999999</v>
+      </c>
+      <c r="G9" s="106">
+        <f t="shared" si="1"/>
+        <v>3.9E-2</v>
+      </c>
+      <c r="H9" s="106">
+        <f>SUM($F$2:F9)</f>
+        <v>0.82799999999999996</v>
+      </c>
+      <c r="I9" s="107">
+        <f t="shared" si="2"/>
+        <v>3.4499999999999996E-2</v>
+      </c>
+      <c r="J9" s="105">
+        <f t="shared" si="3"/>
+        <v>28.985507246376816</v>
+      </c>
+      <c r="K9" s="116">
+        <f t="shared" si="4"/>
+        <v>-2.8230769230769233E-2</v>
+      </c>
+      <c r="L9" s="118">
+        <f t="shared" si="5"/>
+        <v>35.422343324250676</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="65" t="s">
+        <v>169</v>
+      </c>
+      <c r="B10" s="114">
+        <v>0.3</v>
+      </c>
+      <c r="D10" s="104">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="E10" s="104">
+        <f t="shared" si="7"/>
+        <v>27</v>
+      </c>
+      <c r="F10" s="106">
+        <f t="shared" si="0"/>
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="G10" s="106">
+        <f t="shared" si="1"/>
+        <v>4.7999999999999994E-2</v>
+      </c>
+      <c r="H10" s="106">
+        <f>SUM($F$2:F10)</f>
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="I10" s="107">
+        <f t="shared" si="2"/>
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="J10" s="105">
+        <f t="shared" si="3"/>
+        <v>27.777777777777779</v>
+      </c>
+      <c r="K10" s="116">
+        <f t="shared" si="4"/>
+        <v>-3.7230769230769227E-2</v>
+      </c>
+      <c r="L10" s="118">
+        <f t="shared" si="5"/>
+        <v>26.859504132231407</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="108"/>
+      <c r="D11" s="104">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="E11" s="104">
+        <f t="shared" si="7"/>
+        <v>30</v>
+      </c>
+      <c r="F11" s="106">
+        <f t="shared" si="0"/>
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="G11" s="106">
+        <f t="shared" si="1"/>
+        <v>4.7999999999999994E-2</v>
+      </c>
+      <c r="H11" s="106">
+        <f>SUM($F$2:F11)</f>
+        <v>1.1159999999999999</v>
+      </c>
+      <c r="I11" s="107">
+        <f t="shared" si="2"/>
+        <v>3.7199999999999997E-2</v>
+      </c>
+      <c r="J11" s="105">
+        <f t="shared" si="3"/>
+        <v>26.881720430107528</v>
+      </c>
+      <c r="K11" s="116">
+        <f t="shared" si="4"/>
+        <v>-3.7230769230769227E-2</v>
+      </c>
+      <c r="L11" s="118">
+        <f t="shared" si="5"/>
+        <v>26.859504132231407</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="103" t="s">
+        <v>170</v>
+      </c>
+      <c r="B12" s="97">
+        <f>B9*(1-B10)</f>
+        <v>4.1999999999999996E-2</v>
+      </c>
+      <c r="D12" s="104">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="E12" s="104">
+        <f t="shared" si="7"/>
+        <v>33</v>
+      </c>
+      <c r="F12" s="106">
+        <f t="shared" si="0"/>
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="G12" s="106">
+        <f t="shared" si="1"/>
+        <v>4.7999999999999994E-2</v>
+      </c>
+      <c r="H12" s="106">
+        <f>SUM($F$2:F12)</f>
+        <v>1.2599999999999998</v>
+      </c>
+      <c r="I12" s="107">
+        <f t="shared" si="2"/>
+        <v>3.8181818181818178E-2</v>
+      </c>
+      <c r="J12" s="105">
+        <f t="shared" si="3"/>
+        <v>26.190476190476193</v>
+      </c>
+      <c r="K12" s="116">
+        <f t="shared" si="4"/>
+        <v>-3.7230769230769227E-2</v>
+      </c>
+      <c r="L12" s="118">
+        <f t="shared" si="5"/>
+        <v>26.859504132231407</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="103" t="s">
+        <v>171</v>
+      </c>
+      <c r="B13" s="109">
+        <f>B12/B8</f>
+        <v>1.0769230769230769E-2</v>
+      </c>
+      <c r="D13" s="104">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+      <c r="E13" s="104">
+        <f t="shared" si="7"/>
+        <v>36</v>
+      </c>
+      <c r="F13" s="106">
+        <f t="shared" si="0"/>
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="G13" s="106">
+        <f t="shared" si="1"/>
+        <v>4.7999999999999994E-2</v>
+      </c>
+      <c r="H13" s="106">
+        <f>SUM($F$2:F13)</f>
+        <v>1.4039999999999997</v>
+      </c>
+      <c r="I13" s="107">
+        <f t="shared" si="2"/>
+        <v>3.8999999999999993E-2</v>
+      </c>
+      <c r="J13" s="105">
+        <f t="shared" si="3"/>
+        <v>25.641025641025646</v>
+      </c>
+      <c r="K13" s="116">
+        <f t="shared" si="4"/>
+        <v>-3.7230769230769227E-2</v>
+      </c>
+      <c r="L13" s="118">
+        <f t="shared" si="5"/>
+        <v>26.859504132231407</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D14" s="104">
+        <f t="shared" si="6"/>
+        <v>13</v>
+      </c>
+      <c r="E14" s="104">
+        <f t="shared" si="7"/>
+        <v>39</v>
+      </c>
+      <c r="F14" s="106">
+        <f t="shared" si="0"/>
+        <v>0.17099999999999999</v>
+      </c>
+      <c r="G14" s="106">
+        <f t="shared" si="1"/>
+        <v>5.6999999999999995E-2</v>
+      </c>
+      <c r="H14" s="106">
+        <f>SUM($F$2:F14)</f>
+        <v>1.5749999999999997</v>
+      </c>
+      <c r="I14" s="107">
+        <f t="shared" si="2"/>
+        <v>4.038461538461538E-2</v>
+      </c>
+      <c r="J14" s="105">
+        <f t="shared" si="3"/>
+        <v>24.761904761904766</v>
+      </c>
+      <c r="K14" s="116">
+        <f t="shared" si="4"/>
+        <v>-4.6230769230769228E-2</v>
+      </c>
+      <c r="L14" s="118">
+        <f t="shared" si="5"/>
+        <v>21.630615640599004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D15" s="104">
+        <f t="shared" si="6"/>
+        <v>14</v>
+      </c>
+      <c r="E15" s="104">
+        <f t="shared" si="7"/>
+        <v>42</v>
+      </c>
+      <c r="F15" s="106">
+        <f t="shared" si="0"/>
+        <v>0.17099999999999999</v>
+      </c>
+      <c r="G15" s="106">
+        <f t="shared" si="1"/>
+        <v>5.6999999999999995E-2</v>
+      </c>
+      <c r="H15" s="106">
+        <f>SUM($F$2:F15)</f>
+        <v>1.7459999999999998</v>
+      </c>
+      <c r="I15" s="107">
+        <f t="shared" si="2"/>
+        <v>4.1571428571428565E-2</v>
+      </c>
+      <c r="J15" s="105">
+        <f t="shared" si="3"/>
+        <v>24.054982817869419</v>
+      </c>
+      <c r="K15" s="116">
+        <f t="shared" si="4"/>
+        <v>-4.6230769230769228E-2</v>
+      </c>
+      <c r="L15" s="118">
+        <f t="shared" si="5"/>
+        <v>21.630615640599004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D16" s="104">
+        <f t="shared" ref="D16:D42" si="8">D15+1</f>
+        <v>15</v>
+      </c>
+      <c r="E16" s="104">
+        <f t="shared" si="7"/>
+        <v>45</v>
+      </c>
+      <c r="F16" s="106">
+        <f t="shared" si="0"/>
+        <v>0.17099999999999999</v>
+      </c>
+      <c r="G16" s="106">
+        <f t="shared" si="1"/>
+        <v>5.6999999999999995E-2</v>
+      </c>
+      <c r="H16" s="106">
+        <f>SUM($F$2:F16)</f>
+        <v>1.9169999999999998</v>
+      </c>
+      <c r="I16" s="107">
+        <f t="shared" si="2"/>
+        <v>4.2599999999999999E-2</v>
+      </c>
+      <c r="J16" s="105">
+        <f t="shared" si="3"/>
+        <v>23.474178403755868</v>
+      </c>
+      <c r="K16" s="116">
+        <f t="shared" si="4"/>
+        <v>-4.6230769230769228E-2</v>
+      </c>
+      <c r="L16" s="118">
+        <f t="shared" si="5"/>
+        <v>21.630615640599004</v>
+      </c>
+    </row>
+    <row r="17" spans="4:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D17" s="104">
+        <f t="shared" si="8"/>
+        <v>16</v>
+      </c>
+      <c r="E17" s="104">
+        <f t="shared" si="7"/>
+        <v>48</v>
+      </c>
+      <c r="F17" s="106">
+        <f t="shared" si="0"/>
+        <v>0.17099999999999999</v>
+      </c>
+      <c r="G17" s="106">
+        <f t="shared" si="1"/>
+        <v>5.6999999999999995E-2</v>
+      </c>
+      <c r="H17" s="106">
+        <f>SUM($F$2:F17)</f>
+        <v>2.0879999999999996</v>
+      </c>
+      <c r="I17" s="107">
+        <f t="shared" si="2"/>
+        <v>4.349999999999999E-2</v>
+      </c>
+      <c r="J17" s="105">
+        <f t="shared" si="3"/>
+        <v>22.988505747126442</v>
+      </c>
+      <c r="K17" s="116">
+        <f t="shared" si="4"/>
+        <v>-4.6230769230769228E-2</v>
+      </c>
+      <c r="L17" s="118">
+        <f t="shared" si="5"/>
+        <v>21.630615640599004</v>
+      </c>
+    </row>
+    <row r="18" spans="4:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D18" s="104">
+        <f t="shared" si="8"/>
+        <v>17</v>
+      </c>
+      <c r="E18" s="104">
+        <f t="shared" si="7"/>
+        <v>51</v>
+      </c>
+      <c r="F18" s="106">
+        <f t="shared" si="0"/>
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="G18" s="106">
+        <f t="shared" si="1"/>
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="H18" s="106">
+        <f>SUM($F$2:F18)</f>
+        <v>2.2859999999999996</v>
+      </c>
+      <c r="I18" s="107">
+        <f t="shared" si="2"/>
+        <v>4.48235294117647E-2</v>
+      </c>
+      <c r="J18" s="105">
+        <f t="shared" si="3"/>
+        <v>22.309711286089243</v>
+      </c>
+      <c r="K18" s="116">
+        <f t="shared" si="4"/>
+        <v>-5.5230769230769236E-2</v>
+      </c>
+      <c r="L18" s="118">
+        <f t="shared" si="5"/>
+        <v>18.105849582172699</v>
+      </c>
+    </row>
+    <row r="19" spans="4:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D19" s="104">
+        <f t="shared" si="8"/>
+        <v>18</v>
+      </c>
+      <c r="E19" s="104">
+        <f t="shared" si="7"/>
+        <v>54</v>
+      </c>
+      <c r="F19" s="106">
+        <f t="shared" si="0"/>
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="G19" s="106">
+        <f t="shared" si="1"/>
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="H19" s="106">
+        <f>SUM($F$2:F19)</f>
+        <v>2.4839999999999995</v>
+      </c>
+      <c r="I19" s="107">
+        <f t="shared" si="2"/>
+        <v>4.5999999999999992E-2</v>
+      </c>
+      <c r="J19" s="105">
+        <f t="shared" si="3"/>
+        <v>21.739130434782613</v>
+      </c>
+      <c r="K19" s="116">
+        <f t="shared" si="4"/>
+        <v>-5.5230769230769236E-2</v>
+      </c>
+      <c r="L19" s="118">
+        <f t="shared" si="5"/>
+        <v>18.105849582172699</v>
+      </c>
+    </row>
+    <row r="20" spans="4:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D20" s="104">
+        <f t="shared" si="8"/>
+        <v>19</v>
+      </c>
+      <c r="E20" s="104">
+        <f t="shared" si="7"/>
+        <v>57</v>
+      </c>
+      <c r="F20" s="106">
+        <f t="shared" si="0"/>
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="G20" s="106">
+        <f t="shared" si="1"/>
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="H20" s="106">
+        <f>SUM($F$2:F20)</f>
+        <v>2.6819999999999995</v>
+      </c>
+      <c r="I20" s="107">
+        <f t="shared" si="2"/>
+        <v>4.705263157894736E-2</v>
+      </c>
+      <c r="J20" s="105">
+        <f t="shared" si="3"/>
+        <v>21.25279642058166</v>
+      </c>
+      <c r="K20" s="116">
+        <f t="shared" si="4"/>
+        <v>-5.5230769230769236E-2</v>
+      </c>
+      <c r="L20" s="118">
+        <f t="shared" si="5"/>
+        <v>18.105849582172699</v>
+      </c>
+    </row>
+    <row r="21" spans="4:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D21" s="104">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="E21" s="104">
+        <f t="shared" ref="E21:E28" si="9">$B$1*D21</f>
+        <v>60</v>
+      </c>
+      <c r="F21" s="106">
+        <f t="shared" si="0"/>
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="G21" s="106">
+        <f t="shared" si="1"/>
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="H21" s="106">
+        <f>SUM($F$2:F21)</f>
+        <v>2.8799999999999994</v>
+      </c>
+      <c r="I21" s="107">
+        <f t="shared" si="2"/>
+        <v>4.7999999999999994E-2</v>
+      </c>
+      <c r="J21" s="105">
+        <f t="shared" si="3"/>
+        <v>20.833333333333336</v>
+      </c>
+      <c r="K21" s="116">
+        <f t="shared" si="4"/>
+        <v>-5.5230769230769236E-2</v>
+      </c>
+      <c r="L21" s="118">
+        <f t="shared" si="5"/>
+        <v>18.105849582172699</v>
+      </c>
+    </row>
+    <row r="22" spans="4:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D22" s="104">
+        <f t="shared" si="8"/>
+        <v>21</v>
+      </c>
+      <c r="E22" s="104">
+        <f t="shared" si="9"/>
+        <v>63</v>
+      </c>
+      <c r="F22" s="106">
+        <f t="shared" si="0"/>
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="G22" s="106">
+        <f t="shared" si="1"/>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="H22" s="106">
+        <f>SUM($F$2:F22)</f>
+        <v>3.1049999999999995</v>
+      </c>
+      <c r="I22" s="107">
+        <f t="shared" si="2"/>
+        <v>4.928571428571428E-2</v>
+      </c>
+      <c r="J22" s="105">
+        <f t="shared" si="3"/>
+        <v>20.289855072463769</v>
+      </c>
+      <c r="K22" s="116">
+        <f t="shared" si="4"/>
+        <v>-6.423076923076923E-2</v>
+      </c>
+      <c r="L22" s="118">
+        <f t="shared" si="5"/>
+        <v>15.568862275449101</v>
+      </c>
+    </row>
+    <row r="23" spans="4:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D23" s="104">
+        <f t="shared" si="8"/>
+        <v>22</v>
+      </c>
+      <c r="E23" s="104">
+        <f t="shared" si="9"/>
+        <v>66</v>
+      </c>
+      <c r="F23" s="106">
+        <f t="shared" si="0"/>
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="G23" s="106">
+        <f t="shared" si="1"/>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="H23" s="106">
+        <f>SUM($F$2:F23)</f>
+        <v>3.3299999999999996</v>
+      </c>
+      <c r="I23" s="107">
+        <f t="shared" si="2"/>
+        <v>5.0454545454545446E-2</v>
+      </c>
+      <c r="J23" s="105">
+        <f t="shared" si="3"/>
+        <v>19.819819819819823</v>
+      </c>
+      <c r="K23" s="116">
+        <f t="shared" si="4"/>
+        <v>-6.423076923076923E-2</v>
+      </c>
+      <c r="L23" s="118">
+        <f t="shared" si="5"/>
+        <v>15.568862275449101</v>
+      </c>
+    </row>
+    <row r="24" spans="4:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D24" s="104">
+        <f t="shared" si="8"/>
+        <v>23</v>
+      </c>
+      <c r="E24" s="104">
+        <f t="shared" si="9"/>
+        <v>69</v>
+      </c>
+      <c r="F24" s="106">
+        <f t="shared" si="0"/>
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="G24" s="106">
+        <f t="shared" si="1"/>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="H24" s="106">
+        <f>SUM($F$2:F24)</f>
+        <v>3.5549999999999997</v>
+      </c>
+      <c r="I24" s="107">
+        <f t="shared" si="2"/>
+        <v>5.1521739130434778E-2</v>
+      </c>
+      <c r="J24" s="105">
+        <f t="shared" si="3"/>
+        <v>19.409282700421944</v>
+      </c>
+      <c r="K24" s="116">
+        <f t="shared" si="4"/>
+        <v>-6.423076923076923E-2</v>
+      </c>
+      <c r="L24" s="118">
+        <f t="shared" si="5"/>
+        <v>15.568862275449101</v>
+      </c>
+    </row>
+    <row r="25" spans="4:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D25" s="104">
+        <f t="shared" si="8"/>
+        <v>24</v>
+      </c>
+      <c r="E25" s="104">
+        <f t="shared" si="9"/>
+        <v>72</v>
+      </c>
+      <c r="F25" s="106">
+        <f t="shared" si="0"/>
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="G25" s="106">
+        <f t="shared" si="1"/>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="H25" s="106">
+        <f>SUM($F$2:F25)</f>
+        <v>3.78</v>
+      </c>
+      <c r="I25" s="107">
+        <f t="shared" si="2"/>
+        <v>5.2499999999999998E-2</v>
+      </c>
+      <c r="J25" s="105">
+        <f t="shared" si="3"/>
+        <v>19.047619047619047</v>
+      </c>
+      <c r="K25" s="116">
+        <f t="shared" si="4"/>
+        <v>-6.423076923076923E-2</v>
+      </c>
+      <c r="L25" s="118">
+        <f t="shared" si="5"/>
+        <v>15.568862275449101</v>
+      </c>
+    </row>
+    <row r="26" spans="4:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D26" s="104">
+        <f t="shared" si="8"/>
+        <v>25</v>
+      </c>
+      <c r="E26" s="104">
+        <f t="shared" si="9"/>
+        <v>75</v>
+      </c>
+      <c r="F26" s="106">
+        <f t="shared" si="0"/>
+        <v>0.252</v>
+      </c>
+      <c r="G26" s="106">
+        <f t="shared" si="1"/>
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="H26" s="106">
+        <f>SUM($F$2:F26)</f>
+        <v>4.032</v>
+      </c>
+      <c r="I26" s="107">
+        <f t="shared" si="2"/>
+        <v>5.3760000000000002E-2</v>
+      </c>
+      <c r="J26" s="105">
+        <f t="shared" si="3"/>
+        <v>18.601190476190474</v>
+      </c>
+      <c r="K26" s="116">
+        <f t="shared" si="4"/>
+        <v>-7.3230769230769238E-2</v>
+      </c>
+      <c r="L26" s="118">
+        <f t="shared" si="5"/>
+        <v>13.655462184873949</v>
+      </c>
+    </row>
+    <row r="27" spans="4:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D27" s="104">
+        <f t="shared" si="8"/>
+        <v>26</v>
+      </c>
+      <c r="E27" s="104">
+        <f t="shared" si="9"/>
+        <v>78</v>
+      </c>
+      <c r="F27" s="106">
+        <f t="shared" si="0"/>
+        <v>0.252</v>
+      </c>
+      <c r="G27" s="106">
+        <f t="shared" si="1"/>
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="H27" s="106">
+        <f>SUM($F$2:F27)</f>
+        <v>4.2839999999999998</v>
+      </c>
+      <c r="I27" s="107">
+        <f t="shared" si="2"/>
+        <v>5.4923076923076922E-2</v>
+      </c>
+      <c r="J27" s="105">
+        <f t="shared" si="3"/>
+        <v>18.207282913165265</v>
+      </c>
+      <c r="K27" s="116">
+        <f t="shared" si="4"/>
+        <v>-7.3230769230769238E-2</v>
+      </c>
+      <c r="L27" s="118">
+        <f t="shared" si="5"/>
+        <v>13.655462184873949</v>
+      </c>
+    </row>
+    <row r="28" spans="4:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D28" s="104">
+        <f t="shared" si="8"/>
+        <v>27</v>
+      </c>
+      <c r="E28" s="104">
+        <f t="shared" si="9"/>
+        <v>81</v>
+      </c>
+      <c r="F28" s="106">
+        <f t="shared" si="0"/>
+        <v>0.252</v>
+      </c>
+      <c r="G28" s="106">
+        <f t="shared" si="1"/>
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="H28" s="106">
+        <f>SUM($F$2:F28)</f>
+        <v>4.5359999999999996</v>
+      </c>
+      <c r="I28" s="107">
+        <f t="shared" si="2"/>
+        <v>5.5999999999999994E-2</v>
+      </c>
+      <c r="J28" s="105">
+        <f t="shared" si="3"/>
+        <v>17.857142857142858</v>
+      </c>
+      <c r="K28" s="116">
+        <f t="shared" si="4"/>
+        <v>-7.3230769230769238E-2</v>
+      </c>
+      <c r="L28" s="118">
+        <f t="shared" si="5"/>
+        <v>13.655462184873949</v>
+      </c>
+    </row>
+    <row r="29" spans="4:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D29" s="104">
+        <f t="shared" si="8"/>
+        <v>28</v>
+      </c>
+      <c r="E29" s="104">
+        <f t="shared" ref="E29:E35" si="10">$B$1*D29</f>
+        <v>84</v>
+      </c>
+      <c r="F29" s="106">
+        <f t="shared" si="0"/>
+        <v>0.252</v>
+      </c>
+      <c r="G29" s="106">
+        <f t="shared" si="1"/>
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="H29" s="106">
+        <f>SUM($F$2:F29)</f>
+        <v>4.7879999999999994</v>
+      </c>
+      <c r="I29" s="107">
+        <f t="shared" si="2"/>
+        <v>5.6999999999999995E-2</v>
+      </c>
+      <c r="J29" s="105">
+        <f t="shared" si="3"/>
+        <v>17.543859649122808</v>
+      </c>
+      <c r="K29" s="116">
+        <f t="shared" si="4"/>
+        <v>-7.3230769230769238E-2</v>
+      </c>
+      <c r="L29" s="118">
+        <f t="shared" si="5"/>
+        <v>13.655462184873949</v>
+      </c>
+    </row>
+    <row r="30" spans="4:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D30" s="104">
+        <f t="shared" si="8"/>
+        <v>29</v>
+      </c>
+      <c r="E30" s="104">
+        <f t="shared" si="10"/>
+        <v>87</v>
+      </c>
+      <c r="F30" s="106">
+        <f t="shared" si="0"/>
+        <v>0.27900000000000003</v>
+      </c>
+      <c r="G30" s="106">
+        <f t="shared" si="1"/>
+        <v>9.3000000000000013E-2</v>
+      </c>
+      <c r="H30" s="106">
+        <f>SUM($F$2:F30)</f>
+        <v>5.0669999999999993</v>
+      </c>
+      <c r="I30" s="107">
+        <f t="shared" si="2"/>
+        <v>5.8241379310344822E-2</v>
+      </c>
+      <c r="J30" s="105">
+        <f t="shared" si="3"/>
+        <v>17.169923031379515</v>
+      </c>
+      <c r="K30" s="116">
+        <f t="shared" si="4"/>
+        <v>-8.2230769230769246E-2</v>
+      </c>
+      <c r="L30" s="118">
+        <f t="shared" si="5"/>
+        <v>12.160898035547238</v>
+      </c>
+    </row>
+    <row r="31" spans="4:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D31" s="104">
+        <f t="shared" si="8"/>
+        <v>30</v>
+      </c>
+      <c r="E31" s="104">
+        <f t="shared" si="10"/>
+        <v>90</v>
+      </c>
+      <c r="F31" s="106">
+        <f t="shared" si="0"/>
+        <v>0.27900000000000003</v>
+      </c>
+      <c r="G31" s="106">
+        <f t="shared" si="1"/>
+        <v>9.3000000000000013E-2</v>
+      </c>
+      <c r="H31" s="106">
+        <f>SUM($F$2:F31)</f>
+        <v>5.3459999999999992</v>
+      </c>
+      <c r="I31" s="107">
+        <f t="shared" si="2"/>
+        <v>5.9399999999999994E-2</v>
+      </c>
+      <c r="J31" s="105">
+        <f t="shared" si="3"/>
+        <v>16.835016835016837</v>
+      </c>
+      <c r="K31" s="116">
+        <f t="shared" si="4"/>
+        <v>-8.2230769230769246E-2</v>
+      </c>
+      <c r="L31" s="118">
+        <f t="shared" si="5"/>
+        <v>12.160898035547238</v>
+      </c>
+    </row>
+    <row r="32" spans="4:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D32" s="104">
+        <f t="shared" si="8"/>
+        <v>31</v>
+      </c>
+      <c r="E32" s="104">
+        <f t="shared" si="10"/>
+        <v>93</v>
+      </c>
+      <c r="F32" s="106">
+        <f t="shared" si="0"/>
+        <v>0.27900000000000003</v>
+      </c>
+      <c r="G32" s="106">
+        <f t="shared" si="1"/>
+        <v>9.3000000000000013E-2</v>
+      </c>
+      <c r="H32" s="106">
+        <f>SUM($F$2:F32)</f>
+        <v>5.6249999999999991</v>
+      </c>
+      <c r="I32" s="107">
+        <f t="shared" si="2"/>
+        <v>6.0483870967741923E-2</v>
+      </c>
+      <c r="J32" s="105">
+        <f t="shared" si="3"/>
+        <v>16.533333333333335</v>
+      </c>
+      <c r="K32" s="116">
+        <f t="shared" si="4"/>
+        <v>-8.2230769230769246E-2</v>
+      </c>
+      <c r="L32" s="118">
+        <f t="shared" si="5"/>
+        <v>12.160898035547238</v>
+      </c>
+    </row>
+    <row r="33" spans="4:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D33" s="104">
+        <f t="shared" si="8"/>
+        <v>32</v>
+      </c>
+      <c r="E33" s="104">
+        <f t="shared" si="10"/>
+        <v>96</v>
+      </c>
+      <c r="F33" s="106">
+        <f t="shared" si="0"/>
+        <v>0.27900000000000003</v>
+      </c>
+      <c r="G33" s="106">
+        <f t="shared" si="1"/>
+        <v>9.3000000000000013E-2</v>
+      </c>
+      <c r="H33" s="106">
+        <f>SUM($F$2:F33)</f>
+        <v>5.903999999999999</v>
+      </c>
+      <c r="I33" s="107">
+        <f t="shared" si="2"/>
+        <v>6.1499999999999992E-2</v>
+      </c>
+      <c r="J33" s="105">
+        <f t="shared" si="3"/>
+        <v>16.260162601626018</v>
+      </c>
+      <c r="K33" s="116">
+        <f t="shared" si="4"/>
+        <v>-8.2230769230769246E-2</v>
+      </c>
+      <c r="L33" s="118">
+        <f t="shared" si="5"/>
+        <v>12.160898035547238</v>
+      </c>
+    </row>
+    <row r="34" spans="4:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D34" s="104">
+        <f t="shared" si="8"/>
+        <v>33</v>
+      </c>
+      <c r="E34" s="104">
+        <f t="shared" si="10"/>
+        <v>99</v>
+      </c>
+      <c r="F34" s="106">
+        <f t="shared" si="0"/>
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="G34" s="106">
+        <f t="shared" si="1"/>
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="H34" s="106">
+        <f>SUM($F$2:F34)</f>
+        <v>6.2099999999999991</v>
+      </c>
+      <c r="I34" s="107">
+        <f t="shared" si="2"/>
+        <v>6.2727272727272715E-2</v>
+      </c>
+      <c r="J34" s="105">
+        <f t="shared" si="3"/>
+        <v>15.94202898550725</v>
+      </c>
+      <c r="K34" s="116">
+        <f t="shared" si="4"/>
+        <v>-9.1230769230769226E-2</v>
+      </c>
+      <c r="L34" s="118">
+        <f t="shared" si="5"/>
+        <v>10.961214165261383</v>
+      </c>
+    </row>
+    <row r="35" spans="4:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D35" s="104">
+        <f t="shared" si="8"/>
+        <v>34</v>
+      </c>
+      <c r="E35" s="104">
+        <f t="shared" si="10"/>
+        <v>102</v>
+      </c>
+      <c r="F35" s="106">
+        <f t="shared" si="0"/>
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="G35" s="106">
+        <f t="shared" si="1"/>
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="H35" s="106">
+        <f>SUM($F$2:F35)</f>
+        <v>6.5159999999999991</v>
+      </c>
+      <c r="I35" s="107">
+        <f t="shared" si="2"/>
+        <v>6.388235294117646E-2</v>
+      </c>
+      <c r="J35" s="105">
+        <f t="shared" si="3"/>
+        <v>15.653775322283613</v>
+      </c>
+      <c r="K35" s="116">
+        <f t="shared" si="4"/>
+        <v>-9.1230769230769226E-2</v>
+      </c>
+      <c r="L35" s="118">
+        <f t="shared" si="5"/>
+        <v>10.961214165261383</v>
+      </c>
+    </row>
+    <row r="36" spans="4:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D36" s="104">
+        <f t="shared" si="8"/>
+        <v>35</v>
+      </c>
+      <c r="E36" s="104">
+        <f t="shared" ref="E36:E42" si="11">$B$1*D36</f>
+        <v>105</v>
+      </c>
+      <c r="F36" s="106">
+        <f t="shared" si="0"/>
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="G36" s="106">
+        <f t="shared" si="1"/>
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="H36" s="106">
+        <f>SUM($F$2:F36)</f>
+        <v>6.8219999999999992</v>
+      </c>
+      <c r="I36" s="107">
+        <f t="shared" ref="I36:I42" si="12">H36/E36</f>
+        <v>6.4971428571428569E-2</v>
+      </c>
+      <c r="J36" s="105">
+        <f t="shared" si="3"/>
+        <v>15.391380826737027</v>
+      </c>
+      <c r="K36" s="116">
+        <f t="shared" ref="K36:K42" si="13">IF($B$13-G36&gt;0,"",$B$13-G36)</f>
+        <v>-9.1230769230769226E-2</v>
+      </c>
+      <c r="L36" s="118">
+        <f t="shared" si="5"/>
+        <v>10.961214165261383</v>
+      </c>
+    </row>
+    <row r="37" spans="4:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D37" s="104">
+        <f t="shared" si="8"/>
+        <v>36</v>
+      </c>
+      <c r="E37" s="104">
+        <f t="shared" si="11"/>
+        <v>108</v>
+      </c>
+      <c r="F37" s="106">
+        <f t="shared" si="0"/>
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="G37" s="106">
+        <f t="shared" si="1"/>
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="H37" s="106">
+        <f>SUM($F$2:F37)</f>
+        <v>7.1279999999999992</v>
+      </c>
+      <c r="I37" s="107">
+        <f t="shared" si="12"/>
+        <v>6.5999999999999989E-2</v>
+      </c>
+      <c r="J37" s="105">
+        <f t="shared" si="3"/>
+        <v>15.151515151515154</v>
+      </c>
+      <c r="K37" s="116">
+        <f t="shared" si="13"/>
+        <v>-9.1230769230769226E-2</v>
+      </c>
+      <c r="L37" s="118">
+        <f t="shared" si="5"/>
+        <v>10.961214165261383</v>
+      </c>
+    </row>
+    <row r="38" spans="4:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D38" s="104">
+        <f t="shared" si="8"/>
+        <v>37</v>
+      </c>
+      <c r="E38" s="104">
+        <f t="shared" si="11"/>
+        <v>111</v>
+      </c>
+      <c r="F38" s="106">
+        <f t="shared" si="0"/>
+        <v>0.33299999999999996</v>
+      </c>
+      <c r="G38" s="106">
+        <f t="shared" si="1"/>
+        <v>0.11099999999999999</v>
+      </c>
+      <c r="H38" s="106">
+        <f>SUM($F$2:F38)</f>
+        <v>7.4609999999999994</v>
+      </c>
+      <c r="I38" s="107">
+        <f t="shared" si="12"/>
+        <v>6.7216216216216207E-2</v>
+      </c>
+      <c r="J38" s="105">
+        <f t="shared" si="3"/>
+        <v>14.877362283876158</v>
+      </c>
+      <c r="K38" s="116">
+        <f t="shared" si="13"/>
+        <v>-0.10023076923076922</v>
+      </c>
+      <c r="L38" s="118">
+        <f t="shared" si="5"/>
+        <v>9.9769762087490417</v>
+      </c>
+    </row>
+    <row r="39" spans="4:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D39" s="104">
+        <f t="shared" si="8"/>
+        <v>38</v>
+      </c>
+      <c r="E39" s="104">
+        <f t="shared" si="11"/>
+        <v>114</v>
+      </c>
+      <c r="F39" s="106">
+        <f t="shared" si="0"/>
+        <v>0.33299999999999996</v>
+      </c>
+      <c r="G39" s="106">
+        <f t="shared" si="1"/>
+        <v>0.11099999999999999</v>
+      </c>
+      <c r="H39" s="106">
+        <f>SUM($F$2:F39)</f>
+        <v>7.7939999999999996</v>
+      </c>
+      <c r="I39" s="107">
+        <f t="shared" si="12"/>
+        <v>6.8368421052631578E-2</v>
+      </c>
+      <c r="J39" s="105">
+        <f t="shared" si="3"/>
+        <v>14.626635873749038</v>
+      </c>
+      <c r="K39" s="116">
+        <f t="shared" si="13"/>
+        <v>-0.10023076923076922</v>
+      </c>
+      <c r="L39" s="118">
+        <f t="shared" si="5"/>
+        <v>9.9769762087490417</v>
+      </c>
+    </row>
+    <row r="40" spans="4:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D40" s="104">
+        <f t="shared" si="8"/>
+        <v>39</v>
+      </c>
+      <c r="E40" s="104">
+        <f t="shared" si="11"/>
+        <v>117</v>
+      </c>
+      <c r="F40" s="106">
+        <f t="shared" si="0"/>
+        <v>0.33299999999999996</v>
+      </c>
+      <c r="G40" s="106">
+        <f t="shared" si="1"/>
+        <v>0.11099999999999999</v>
+      </c>
+      <c r="H40" s="106">
+        <f>SUM($F$2:F40)</f>
+        <v>8.1269999999999989</v>
+      </c>
+      <c r="I40" s="107">
+        <f t="shared" si="12"/>
+        <v>6.946153846153845E-2</v>
+      </c>
+      <c r="J40" s="105">
+        <f t="shared" si="3"/>
+        <v>14.396456256921375</v>
+      </c>
+      <c r="K40" s="116">
+        <f t="shared" si="13"/>
+        <v>-0.10023076923076922</v>
+      </c>
+      <c r="L40" s="118">
+        <f t="shared" si="5"/>
+        <v>9.9769762087490417</v>
+      </c>
+    </row>
+    <row r="41" spans="4:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D41" s="104">
+        <f t="shared" si="8"/>
+        <v>40</v>
+      </c>
+      <c r="E41" s="104">
+        <f t="shared" si="11"/>
+        <v>120</v>
+      </c>
+      <c r="F41" s="106">
+        <f t="shared" si="0"/>
+        <v>0.33299999999999996</v>
+      </c>
+      <c r="G41" s="106">
+        <f t="shared" si="1"/>
+        <v>0.11099999999999999</v>
+      </c>
+      <c r="H41" s="106">
+        <f>SUM($F$2:F41)</f>
+        <v>8.4599999999999991</v>
+      </c>
+      <c r="I41" s="107">
+        <f t="shared" si="12"/>
+        <v>7.0499999999999993E-2</v>
+      </c>
+      <c r="J41" s="105">
+        <f t="shared" si="3"/>
+        <v>14.184397163120568</v>
+      </c>
+      <c r="K41" s="116">
+        <f t="shared" si="13"/>
+        <v>-0.10023076923076922</v>
+      </c>
+      <c r="L41" s="118">
+        <f t="shared" si="5"/>
+        <v>9.9769762087490417</v>
+      </c>
+    </row>
+    <row r="42" spans="4:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D42" s="104">
+        <f t="shared" si="8"/>
+        <v>41</v>
+      </c>
+      <c r="E42" s="104">
+        <f t="shared" si="11"/>
+        <v>123</v>
+      </c>
+      <c r="F42" s="106">
+        <f t="shared" si="0"/>
+        <v>0.36</v>
+      </c>
+      <c r="G42" s="106">
+        <f t="shared" si="1"/>
+        <v>0.12</v>
+      </c>
+      <c r="H42" s="106">
+        <f>SUM($F$2:F42)</f>
+        <v>8.8199999999999985</v>
+      </c>
+      <c r="I42" s="107">
+        <f t="shared" si="12"/>
+        <v>7.1707317073170726E-2</v>
+      </c>
+      <c r="J42" s="105">
+        <f t="shared" si="3"/>
+        <v>13.945578231292519</v>
+      </c>
+      <c r="K42" s="116">
+        <f t="shared" si="13"/>
+        <v>-0.10923076923076923</v>
+      </c>
+      <c r="L42" s="118">
+        <f t="shared" si="5"/>
+        <v>9.1549295774647881</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -3681,34 +5557,34 @@
       <c r="A18" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B18" s="139" t="s">
+      <c r="B18" s="150" t="s">
         <v>132</v>
       </c>
-      <c r="C18" s="139"/>
-      <c r="D18" s="139"/>
-      <c r="E18" s="140"/>
+      <c r="C18" s="150"/>
+      <c r="D18" s="150"/>
+      <c r="E18" s="151"/>
     </row>
     <row r="19" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B19" s="138" t="s">
+      <c r="B19" s="149" t="s">
         <v>134</v>
       </c>
-      <c r="C19" s="139"/>
-      <c r="D19" s="139"/>
-      <c r="E19" s="140"/>
+      <c r="C19" s="150"/>
+      <c r="D19" s="150"/>
+      <c r="E19" s="151"/>
     </row>
     <row r="20" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B20" s="138" t="s">
+      <c r="B20" s="149" t="s">
         <v>133</v>
       </c>
-      <c r="C20" s="139"/>
-      <c r="D20" s="139"/>
-      <c r="E20" s="140"/>
+      <c r="C20" s="150"/>
+      <c r="D20" s="150"/>
+      <c r="E20" s="151"/>
     </row>
     <row r="21" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E21" s="80"/>
@@ -4030,7 +5906,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D33" sqref="D33"/>
+      <selection pane="bottomLeft" activeCell="H12" sqref="G12:H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4043,18 +5919,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="143"/>
-      <c r="B1" s="144"/>
-      <c r="C1" s="147" t="s">
+      <c r="A1" s="154"/>
+      <c r="B1" s="155"/>
+      <c r="C1" s="158" t="s">
         <v>182</v>
       </c>
-      <c r="D1" s="148"/>
+      <c r="D1" s="159"/>
     </row>
     <row r="2" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="145" t="s">
+      <c r="A2" s="156" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="146"/>
+      <c r="B2" s="157"/>
       <c r="C2" s="21">
         <f>5/3</f>
         <v>1.6666666666666667</v>
@@ -4065,10 +5941,10 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="145" t="s">
+      <c r="A3" s="156" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="146"/>
+      <c r="B3" s="157"/>
       <c r="C3" s="125">
         <v>0</v>
       </c>
@@ -4078,7 +5954,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="162" t="s">
+      <c r="A4" s="173" t="s">
         <v>59</v>
       </c>
       <c r="B4" s="45" t="s">
@@ -4087,56 +5963,56 @@
       <c r="C4" s="24">
         <v>8254</v>
       </c>
-      <c r="D4" s="149">
+      <c r="D4" s="160">
         <f>(C4/(1+C5)*(1+C5+C6)*(1+C7)*(1+C8))</f>
         <v>22946.120000000003</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="163"/>
+      <c r="A5" s="174"/>
       <c r="B5" s="45" t="s">
         <v>44</v>
       </c>
       <c r="C5" s="26">
         <v>0</v>
       </c>
-      <c r="D5" s="150"/>
+      <c r="D5" s="161"/>
     </row>
     <row r="6" spans="1:4" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="163"/>
+      <c r="A6" s="174"/>
       <c r="B6" s="45" t="s">
         <v>45</v>
       </c>
       <c r="C6" s="27">
         <v>0</v>
       </c>
-      <c r="D6" s="150"/>
+      <c r="D6" s="161"/>
     </row>
     <row r="7" spans="1:4" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="163"/>
+      <c r="A7" s="174"/>
       <c r="B7" s="45" t="s">
         <v>55</v>
       </c>
       <c r="C7" s="27">
         <v>1.78</v>
       </c>
-      <c r="D7" s="150"/>
+      <c r="D7" s="161"/>
     </row>
     <row r="8" spans="1:4" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="164"/>
+      <c r="A8" s="175"/>
       <c r="B8" s="45" t="s">
         <v>56</v>
       </c>
       <c r="C8" s="27">
         <v>0</v>
       </c>
-      <c r="D8" s="151"/>
+      <c r="D8" s="162"/>
     </row>
     <row r="9" spans="1:4" s="30" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="165" t="s">
+      <c r="A9" s="176" t="s">
         <v>46</v>
       </c>
-      <c r="B9" s="166"/>
+      <c r="B9" s="177"/>
       <c r="C9" s="28">
         <v>8.08</v>
       </c>
@@ -4146,7 +6022,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" s="32" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="167" t="s">
+      <c r="A10" s="178" t="s">
         <v>61</v>
       </c>
       <c r="B10" s="46" t="s">
@@ -4155,23 +6031,23 @@
       <c r="C10" s="31">
         <v>0</v>
       </c>
-      <c r="D10" s="141">
+      <c r="D10" s="152">
         <f>1+((0.7+C11)*C10)</f>
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:4" s="32" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="168"/>
+      <c r="A11" s="179"/>
       <c r="B11" s="46" t="s">
         <v>42</v>
       </c>
       <c r="C11" s="33">
         <v>4</v>
       </c>
-      <c r="D11" s="142"/>
+      <c r="D11" s="153"/>
     </row>
     <row r="12" spans="1:4" s="35" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="157" t="s">
+      <c r="A12" s="168" t="s">
         <v>63</v>
       </c>
       <c r="B12" s="47" t="s">
@@ -4180,43 +6056,43 @@
       <c r="C12" s="34">
         <v>0.4</v>
       </c>
-      <c r="D12" s="177">
+      <c r="D12" s="188">
         <f>(1+C12+C13)*(1+C14)*(1+C15)</f>
         <v>1.4</v>
       </c>
     </row>
     <row r="13" spans="1:4" s="35" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="158"/>
+      <c r="A13" s="169"/>
       <c r="B13" s="47" t="s">
         <v>48</v>
       </c>
       <c r="C13" s="34">
         <v>0</v>
       </c>
-      <c r="D13" s="178"/>
+      <c r="D13" s="189"/>
     </row>
     <row r="14" spans="1:4" s="35" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="158"/>
+      <c r="A14" s="169"/>
       <c r="B14" s="47" t="s">
         <v>68</v>
       </c>
       <c r="C14" s="34">
         <v>0</v>
       </c>
-      <c r="D14" s="178"/>
+      <c r="D14" s="189"/>
     </row>
     <row r="15" spans="1:4" s="35" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="159"/>
+      <c r="A15" s="170"/>
       <c r="B15" s="47" t="s">
         <v>69</v>
       </c>
       <c r="C15" s="34">
         <v>0</v>
       </c>
-      <c r="D15" s="179"/>
+      <c r="D15" s="190"/>
     </row>
     <row r="16" spans="1:4" s="37" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="160" t="s">
+      <c r="A16" s="171" t="s">
         <v>64</v>
       </c>
       <c r="B16" s="48" t="s">
@@ -4225,23 +6101,23 @@
       <c r="C16" s="36">
         <v>0</v>
       </c>
-      <c r="D16" s="180">
+      <c r="D16" s="191">
         <f>(1+C16)*(1+C17)</f>
         <v>1.25</v>
       </c>
     </row>
     <row r="17" spans="1:9" s="37" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="161"/>
+      <c r="A17" s="172"/>
       <c r="B17" s="48" t="s">
         <v>49</v>
       </c>
       <c r="C17" s="36">
         <v>0.25</v>
       </c>
-      <c r="D17" s="181"/>
+      <c r="D17" s="192"/>
     </row>
     <row r="18" spans="1:9" s="39" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="152" t="s">
+      <c r="A18" s="163" t="s">
         <v>65</v>
       </c>
       <c r="B18" s="49" t="s">
@@ -4250,23 +6126,23 @@
       <c r="C18" s="38">
         <v>1.5</v>
       </c>
-      <c r="D18" s="182">
+      <c r="D18" s="193">
         <f>C18+C19</f>
         <v>1.8</v>
       </c>
     </row>
     <row r="19" spans="1:9" s="39" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="153"/>
+      <c r="A19" s="164"/>
       <c r="B19" s="49" t="s">
         <v>58</v>
       </c>
       <c r="C19" s="40">
         <v>0.3</v>
       </c>
-      <c r="D19" s="183"/>
+      <c r="D19" s="194"/>
     </row>
     <row r="20" spans="1:9" s="42" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="154" t="s">
+      <c r="A20" s="165" t="s">
         <v>71</v>
       </c>
       <c r="B20" s="50" t="s">
@@ -4275,36 +6151,36 @@
       <c r="C20" s="41">
         <v>1</v>
       </c>
-      <c r="D20" s="184">
+      <c r="D20" s="195">
         <f>1+C20*(0.2+C21+C22)</f>
         <v>1.7</v>
       </c>
     </row>
     <row r="21" spans="1:9" s="42" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="155"/>
+      <c r="A21" s="166"/>
       <c r="B21" s="50" t="s">
         <v>50</v>
       </c>
       <c r="C21" s="41">
         <v>0.5</v>
       </c>
-      <c r="D21" s="185"/>
+      <c r="D21" s="196"/>
     </row>
     <row r="22" spans="1:9" s="42" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="156"/>
+      <c r="A22" s="167"/>
       <c r="B22" s="50" t="s">
         <v>51</v>
       </c>
       <c r="C22" s="41">
         <v>0</v>
       </c>
-      <c r="D22" s="186"/>
+      <c r="D22" s="197"/>
     </row>
     <row r="23" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="145" t="s">
+      <c r="A23" s="156" t="s">
         <v>72</v>
       </c>
-      <c r="B23" s="146"/>
+      <c r="B23" s="157"/>
       <c r="C23" s="21">
         <v>1</v>
       </c>
@@ -4314,10 +6190,10 @@
       </c>
     </row>
     <row r="24" spans="1:9" s="42" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="171" t="s">
+      <c r="A24" s="182" t="s">
         <v>52</v>
       </c>
-      <c r="B24" s="172"/>
+      <c r="B24" s="183"/>
       <c r="C24" s="41">
         <v>10</v>
       </c>
@@ -4327,7 +6203,7 @@
       </c>
     </row>
     <row r="25" spans="1:9" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="162" t="s">
+      <c r="A25" s="173" t="s">
         <v>53</v>
       </c>
       <c r="B25" s="45" t="s">
@@ -4336,36 +6212,36 @@
       <c r="C25" s="24">
         <v>1</v>
       </c>
-      <c r="D25" s="187">
+      <c r="D25" s="198">
         <f>(1-(1-C26)*C25)*(1-C27)</f>
         <v>0.6</v>
       </c>
     </row>
     <row r="26" spans="1:9" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="163"/>
+      <c r="A26" s="174"/>
       <c r="B26" s="45" t="s">
         <v>73</v>
       </c>
       <c r="C26" s="24">
         <v>0.6</v>
       </c>
-      <c r="D26" s="188"/>
+      <c r="D26" s="199"/>
     </row>
     <row r="27" spans="1:9" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="164"/>
+      <c r="A27" s="175"/>
       <c r="B27" s="45" t="s">
         <v>37</v>
       </c>
       <c r="C27" s="27">
         <v>0</v>
       </c>
-      <c r="D27" s="189"/>
+      <c r="D27" s="200"/>
     </row>
     <row r="28" spans="1:9" s="39" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="173" t="s">
+      <c r="A28" s="184" t="s">
         <v>75</v>
       </c>
-      <c r="B28" s="174"/>
+      <c r="B28" s="185"/>
       <c r="C28" s="38">
         <v>1</v>
       </c>
@@ -4375,15 +6251,15 @@
       </c>
     </row>
     <row r="29" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="169" t="s">
+      <c r="A29" s="180" t="s">
         <v>54</v>
       </c>
-      <c r="B29" s="170"/>
-      <c r="C29" s="175">
+      <c r="B29" s="181"/>
+      <c r="C29" s="186">
         <f>D2*D3*D4*D9*D10*D12*D16*D18*D20*D23/D24/D25*D28</f>
         <v>413684.12442000001</v>
       </c>
-      <c r="D29" s="176"/>
+      <c r="D29" s="187"/>
     </row>
     <row r="30" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C30" s="123" t="s">
@@ -4474,6 +6350,602 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E85EA2B4-C5A4-4AEF-AEDA-53C74517CB8F}">
+  <dimension ref="A1:I42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C31" sqref="A31:D42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="51"/>
+    <col min="2" max="2" width="19" style="52" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="20"/>
+    <col min="4" max="4" width="12" style="20" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="20" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="20"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="154"/>
+      <c r="B1" s="155"/>
+      <c r="C1" s="158" t="s">
+        <v>184</v>
+      </c>
+      <c r="D1" s="159"/>
+    </row>
+    <row r="2" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="156" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="157"/>
+      <c r="C2" s="21">
+        <f>5/3</f>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="D2" s="22">
+        <f>C2</f>
+        <v>1.6666666666666667</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="156" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="157"/>
+      <c r="C3" s="125">
+        <v>0</v>
+      </c>
+      <c r="D3" s="22">
+        <f>1-C3</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="173" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="45" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="24">
+        <v>8553</v>
+      </c>
+      <c r="D4" s="160">
+        <f>C4/(1+C5)*(1+C5+C6)*(1+C7)*(1+C8)</f>
+        <v>28224.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="174"/>
+      <c r="B5" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="26">
+        <v>0.7</v>
+      </c>
+      <c r="D5" s="161"/>
+    </row>
+    <row r="6" spans="1:4" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="174"/>
+      <c r="B6" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="27">
+        <f>B37</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="161"/>
+    </row>
+    <row r="7" spans="1:4" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="174"/>
+      <c r="B7" s="45" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="27">
+        <f>B36</f>
+        <v>2</v>
+      </c>
+      <c r="D7" s="161"/>
+    </row>
+    <row r="8" spans="1:4" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="175"/>
+      <c r="B8" s="45" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="27">
+        <v>0.1</v>
+      </c>
+      <c r="D8" s="162"/>
+    </row>
+    <row r="9" spans="1:4" s="30" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="176" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="177"/>
+      <c r="C9" s="28">
+        <f>1664%*0.7*(1+0.05*B32)</f>
+        <v>46.591999999999999</v>
+      </c>
+      <c r="D9" s="29">
+        <f>C9</f>
+        <v>46.591999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="32" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="178" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" s="46" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" s="31">
+        <v>1</v>
+      </c>
+      <c r="D10" s="152">
+        <f>1+((0.7+C11)*C10)</f>
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="32" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="179"/>
+      <c r="B11" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="33">
+        <f>B38</f>
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="D11" s="153"/>
+    </row>
+    <row r="12" spans="1:4" s="35" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="168" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" s="47" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="34">
+        <v>0.4</v>
+      </c>
+      <c r="D12" s="188">
+        <f>(1+C12+C13)*(1+C14)*(1+C15)</f>
+        <v>2.8404999999999996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" s="35" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="169"/>
+      <c r="B13" s="47" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="34">
+        <f>IF(B39, 50%, 0)</f>
+        <v>0.5</v>
+      </c>
+      <c r="D13" s="189"/>
+    </row>
+    <row r="14" spans="1:4" s="35" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="169"/>
+      <c r="B14" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="34">
+        <v>0.15</v>
+      </c>
+      <c r="D14" s="189"/>
+    </row>
+    <row r="15" spans="1:4" s="35" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="170"/>
+      <c r="B15" s="47" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" s="34">
+        <f>B40</f>
+        <v>0.3</v>
+      </c>
+      <c r="D15" s="190"/>
+    </row>
+    <row r="16" spans="1:4" s="37" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="171" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="36">
+        <f>B42</f>
+        <v>0</v>
+      </c>
+      <c r="D16" s="191">
+        <f>(1+C16)*(1+C17)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" s="37" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="172"/>
+      <c r="B17" s="48" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="36">
+        <f>B41</f>
+        <v>0</v>
+      </c>
+      <c r="D17" s="192"/>
+    </row>
+    <row r="18" spans="1:9" s="39" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="163" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" s="49" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" s="38">
+        <v>1.5</v>
+      </c>
+      <c r="D18" s="193">
+        <f>C18+C19</f>
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" s="39" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="164"/>
+      <c r="B19" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="40">
+        <v>0.3</v>
+      </c>
+      <c r="D19" s="194"/>
+    </row>
+    <row r="20" spans="1:9" s="42" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="165" t="s">
+        <v>71</v>
+      </c>
+      <c r="B20" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" s="41">
+        <v>0</v>
+      </c>
+      <c r="D20" s="195">
+        <f>1+C20*(0.2+C21+C22)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" s="42" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="166"/>
+      <c r="B21" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="41">
+        <v>0.5</v>
+      </c>
+      <c r="D21" s="196"/>
+    </row>
+    <row r="22" spans="1:9" s="42" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="167"/>
+      <c r="B22" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" s="41">
+        <v>0</v>
+      </c>
+      <c r="D22" s="197"/>
+    </row>
+    <row r="23" spans="1:9" s="132" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="201" t="s">
+        <v>194</v>
+      </c>
+      <c r="B23" s="134" t="s">
+        <v>195</v>
+      </c>
+      <c r="C23" s="135">
+        <f>B35</f>
+        <v>0.03</v>
+      </c>
+      <c r="D23" s="203">
+        <f>(1 - C23) ^ 2 * (C24 - 1) + 1</f>
+        <v>1.56454</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" s="132" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="202"/>
+      <c r="B24" s="134" t="s">
+        <v>151</v>
+      </c>
+      <c r="C24" s="133">
+        <v>1.6</v>
+      </c>
+      <c r="D24" s="204"/>
+    </row>
+    <row r="25" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="156" t="s">
+        <v>72</v>
+      </c>
+      <c r="B25" s="157"/>
+      <c r="C25" s="21">
+        <v>1</v>
+      </c>
+      <c r="D25" s="23">
+        <f>C25</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" s="42" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="182" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" s="183"/>
+      <c r="C26" s="41">
+        <v>10</v>
+      </c>
+      <c r="D26" s="43">
+        <f>C26</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="173" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="C27" s="24">
+        <v>0</v>
+      </c>
+      <c r="D27" s="198">
+        <f>(1-(1-C28)*C27)*(1-C29)</f>
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="174"/>
+      <c r="B28" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="C28" s="24">
+        <v>0.6</v>
+      </c>
+      <c r="D28" s="199"/>
+    </row>
+    <row r="29" spans="1:9" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="175"/>
+      <c r="B29" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" s="27">
+        <f>B33</f>
+        <v>0.15</v>
+      </c>
+      <c r="D29" s="200"/>
+    </row>
+    <row r="30" spans="1:9" s="39" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="184" t="s">
+        <v>75</v>
+      </c>
+      <c r="B30" s="185"/>
+      <c r="C30" s="38">
+        <v>0</v>
+      </c>
+      <c r="D30" s="44">
+        <f>C30*0.5+1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="180" t="s">
+        <v>54</v>
+      </c>
+      <c r="B31" s="181"/>
+      <c r="C31" s="186">
+        <f>D2*D3*D4*D9*D10*D12*D16*D18*D20*D23*D25/D26/D27*D30</f>
+        <v>7734973.4371366035</v>
+      </c>
+      <c r="D31" s="187"/>
+    </row>
+    <row r="32" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="51" t="s">
+        <v>175</v>
+      </c>
+      <c r="B32" s="52">
+        <v>60</v>
+      </c>
+      <c r="C32" s="126">
+        <v>-0.1</v>
+      </c>
+      <c r="D32" s="136">
+        <f>C$31*(1+C32)</f>
+        <v>6961476.0934229437</v>
+      </c>
+      <c r="I32" s="126"/>
+    </row>
+    <row r="33" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="51" t="s">
+        <v>189</v>
+      </c>
+      <c r="B33" s="127">
+        <v>0.15</v>
+      </c>
+      <c r="C33" s="126">
+        <v>-0.05</v>
+      </c>
+      <c r="D33" s="136">
+        <f t="shared" ref="D33:D36" si="0">C$31*(1+C33)</f>
+        <v>7348224.7652797727</v>
+      </c>
+      <c r="I33" s="126"/>
+    </row>
+    <row r="34" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C34" s="126">
+        <v>0</v>
+      </c>
+      <c r="D34" s="136">
+        <f t="shared" si="0"/>
+        <v>7734973.4371366035</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="51" t="s">
+        <v>193</v>
+      </c>
+      <c r="B35" s="137">
+        <v>0.03</v>
+      </c>
+      <c r="C35" s="126">
+        <v>0.05</v>
+      </c>
+      <c r="D35" s="136">
+        <f t="shared" si="0"/>
+        <v>8121722.1089934343</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="51" t="s">
+        <v>196</v>
+      </c>
+      <c r="B36" s="127">
+        <v>2</v>
+      </c>
+      <c r="C36" s="126">
+        <v>0.1</v>
+      </c>
+      <c r="D36" s="136">
+        <f t="shared" si="0"/>
+        <v>8508470.7808502652</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="51" t="s">
+        <v>197</v>
+      </c>
+      <c r="B37" s="127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="51" t="s">
+        <v>42</v>
+      </c>
+      <c r="B38" s="128">
+        <v>2.0499999999999998</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="51" t="s">
+        <v>185</v>
+      </c>
+      <c r="B39" s="52" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="51" t="s">
+        <v>186</v>
+      </c>
+      <c r="B40" s="127">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="51" t="s">
+        <v>187</v>
+      </c>
+      <c r="B41" s="127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="B42" s="127">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="26">
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="D4:D8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="D12:D15"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:D31"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B801AF8-810B-4DAC-B025-C63593F088B5}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.5703125" style="129" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="129"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="129" t="s">
+        <v>190</v>
+      </c>
+      <c r="B1" s="129">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="129" t="s">
+        <v>191</v>
+      </c>
+      <c r="B2" s="130">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="129" t="s">
+        <v>192</v>
+      </c>
+      <c r="B4" s="131">
+        <f>((1-B2)^2*(B1-1)+1) - 1</f>
+        <v>0.36504000000000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30DD32DD-C8F1-4E13-B59E-D06F7BB09858}">
   <dimension ref="A1:D21"/>
   <sheetViews>
@@ -4515,19 +6987,19 @@
       <c r="B3" s="82" t="s">
         <v>85</v>
       </c>
-      <c r="C3" s="190">
+      <c r="C3" s="205">
         <v>0.1</v>
       </c>
-      <c r="D3" s="190"/>
+      <c r="D3" s="205"/>
     </row>
     <row r="4" spans="1:4" s="119" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="119" t="s">
         <v>174</v>
       </c>
-      <c r="C4" s="198">
+      <c r="C4" s="213">
         <v>0</v>
       </c>
-      <c r="D4" s="199"/>
+      <c r="D4" s="214"/>
     </row>
     <row r="5" spans="1:4" s="102" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="102" t="s">
@@ -4558,19 +7030,19 @@
       <c r="B7" s="84" t="s">
         <v>85</v>
       </c>
-      <c r="C7" s="195">
+      <c r="C7" s="210">
         <v>0.4</v>
       </c>
-      <c r="D7" s="195"/>
+      <c r="D7" s="210"/>
     </row>
     <row r="8" spans="1:4" s="84" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="84" t="s">
         <v>174</v>
       </c>
-      <c r="C8" s="195">
+      <c r="C8" s="210">
         <v>0</v>
       </c>
-      <c r="D8" s="195"/>
+      <c r="D8" s="210"/>
     </row>
     <row r="9" spans="1:4" s="99" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="99" t="s">
@@ -4601,19 +7073,19 @@
       <c r="B11" s="86" t="s">
         <v>143</v>
       </c>
-      <c r="C11" s="196">
+      <c r="C11" s="211">
         <v>0</v>
       </c>
-      <c r="D11" s="197"/>
+      <c r="D11" s="212"/>
     </row>
     <row r="12" spans="1:4" s="86" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="86" t="s">
         <v>153</v>
       </c>
-      <c r="C12" s="194">
+      <c r="C12" s="209">
         <v>0.5</v>
       </c>
-      <c r="D12" s="194"/>
+      <c r="D12" s="209"/>
     </row>
     <row r="13" spans="1:4" s="88" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="88" t="s">
@@ -4622,28 +7094,28 @@
       <c r="B13" s="88" t="s">
         <v>155</v>
       </c>
-      <c r="C13" s="193">
+      <c r="C13" s="208">
         <v>0</v>
       </c>
-      <c r="D13" s="193"/>
+      <c r="D13" s="208"/>
     </row>
     <row r="14" spans="1:4" s="120" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="120" t="s">
         <v>176</v>
       </c>
-      <c r="C14" s="193">
+      <c r="C14" s="208">
         <v>0</v>
       </c>
-      <c r="D14" s="193"/>
+      <c r="D14" s="208"/>
     </row>
     <row r="15" spans="1:4" s="88" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="88" t="s">
         <v>154</v>
       </c>
-      <c r="C15" s="193">
+      <c r="C15" s="208">
         <v>0</v>
       </c>
-      <c r="D15" s="193"/>
+      <c r="D15" s="208"/>
     </row>
     <row r="16" spans="1:4" s="89" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="89" t="s">
@@ -4652,19 +7124,19 @@
       <c r="B16" s="89" t="s">
         <v>144</v>
       </c>
-      <c r="C16" s="191">
+      <c r="C16" s="206">
         <v>1</v>
       </c>
-      <c r="D16" s="191"/>
+      <c r="D16" s="206"/>
     </row>
     <row r="17" spans="1:4" s="89" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="89" t="s">
         <v>152</v>
       </c>
-      <c r="C17" s="192">
+      <c r="C17" s="207">
         <v>1</v>
       </c>
-      <c r="D17" s="192"/>
+      <c r="D17" s="207"/>
     </row>
     <row r="18" spans="1:4" s="90" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="90" t="s">
@@ -4742,12 +7214,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E75D12CF-EAA2-4AE2-9060-0FB10D1645D5}">
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="Q6" sqref="Q5:Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4760,21 +7232,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="201" t="s">
+      <c r="A1" s="216" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="201"/>
-      <c r="C1" s="200" t="s">
+      <c r="B1" s="216"/>
+      <c r="C1" s="215" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="200"/>
+      <c r="D1" s="215"/>
     </row>
     <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="72" t="s">
         <v>147</v>
       </c>
       <c r="B2" s="94">
-        <v>0.12</v>
+        <v>0.02</v>
       </c>
       <c r="C2" s="63" t="s">
         <v>147</v>
@@ -4788,13 +7260,13 @@
         <v>148</v>
       </c>
       <c r="B3" s="94">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="C3" s="63" t="s">
         <v>148</v>
       </c>
       <c r="D3" s="95">
-        <v>0.3</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4810,7 +7282,7 @@
       </c>
       <c r="D4" s="95">
         <f>D2+D3</f>
-        <v>2</v>
+        <v>1.8699999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4820,10 +7292,10 @@
       <c r="B5" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="204" t="s">
+      <c r="C5" s="219" t="s">
         <v>151</v>
       </c>
-      <c r="D5" s="205"/>
+      <c r="D5" s="220"/>
     </row>
     <row r="6" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65" t="s">
@@ -4832,11 +7304,11 @@
       <c r="B6" s="65" t="s">
         <v>147</v>
       </c>
-      <c r="C6" s="202">
+      <c r="C6" s="217">
         <f>1*(1-B2)+D2*(B2)</f>
-        <v>1.0840000000000001</v>
-      </c>
-      <c r="D6" s="203"/>
+        <v>1.014</v>
+      </c>
+      <c r="D6" s="218"/>
     </row>
     <row r="7" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65" t="s">
@@ -4845,14 +7317,14 @@
       <c r="B7" s="96" t="s">
         <v>150</v>
       </c>
-      <c r="C7" s="202">
+      <c r="C7" s="217">
         <f>1*(1-B2)+D4*(B2)</f>
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="D7" s="203"/>
+        <v>1.0174000000000001</v>
+      </c>
+      <c r="D7" s="218"/>
       <c r="E7" s="122">
         <f>C7/C6</f>
-        <v>1.033210332103321</v>
+        <v>1.0033530571992111</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4862,14 +7334,14 @@
       <c r="B8" s="65" t="s">
         <v>147</v>
       </c>
-      <c r="C8" s="202">
+      <c r="C8" s="217">
         <f>1*(1-B4)+D2*(B4)</f>
         <v>1.1539999999999999</v>
       </c>
-      <c r="D8" s="203"/>
+      <c r="D8" s="218"/>
       <c r="E8" s="122">
         <f>C8/C6</f>
-        <v>1.0645756457564575</v>
+        <v>1.138067061143984</v>
       </c>
       <c r="F8" s="97"/>
     </row>
@@ -4880,14 +7352,14 @@
       <c r="B9" s="96" t="s">
         <v>150</v>
       </c>
-      <c r="C9" s="202">
+      <c r="C9" s="217">
         <f>1*(1-B4)+D4*(B4)</f>
-        <v>1.22</v>
-      </c>
-      <c r="D9" s="203"/>
+        <v>1.1914</v>
+      </c>
+      <c r="D9" s="218"/>
       <c r="E9" s="122">
         <f>C9/C8</f>
-        <v>1.0571923743500866</v>
+        <v>1.0324090121317158</v>
       </c>
     </row>
   </sheetData>
@@ -4902,1684 +7374,4 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67061BFE-6F76-4E7B-9ED9-42BA29E49AED}">
-  <dimension ref="A1:L42"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11.42578125" style="103" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="93"/>
-    <col min="3" max="3" width="2.42578125" style="93" customWidth="1"/>
-    <col min="4" max="4" width="4.140625" style="104" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" style="104" customWidth="1"/>
-    <col min="6" max="6" width="8.5703125" style="104" customWidth="1"/>
-    <col min="7" max="7" width="8.140625" style="104" customWidth="1"/>
-    <col min="8" max="9" width="10.5703125" style="104" customWidth="1"/>
-    <col min="10" max="10" width="6.85546875" style="105" customWidth="1"/>
-    <col min="11" max="11" width="10.5703125" style="116" customWidth="1"/>
-    <col min="12" max="12" width="7.28515625" style="118" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="93"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" s="103" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="110" t="s">
-        <v>163</v>
-      </c>
-      <c r="B1" s="110">
-        <v>3</v>
-      </c>
-      <c r="D1" s="110" t="s">
-        <v>158</v>
-      </c>
-      <c r="E1" s="110" t="s">
-        <v>159</v>
-      </c>
-      <c r="F1" s="110" t="s">
-        <v>160</v>
-      </c>
-      <c r="G1" s="110" t="s">
-        <v>172</v>
-      </c>
-      <c r="H1" s="110" t="s">
-        <v>161</v>
-      </c>
-      <c r="I1" s="110" t="s">
-        <v>165</v>
-      </c>
-      <c r="J1" s="111" t="s">
-        <v>166</v>
-      </c>
-      <c r="K1" s="115" t="s">
-        <v>173</v>
-      </c>
-      <c r="L1" s="117" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="110" t="s">
-        <v>162</v>
-      </c>
-      <c r="B2" s="112">
-        <v>0.09</v>
-      </c>
-      <c r="D2" s="104">
-        <v>1</v>
-      </c>
-      <c r="E2" s="104">
-        <f>$B$1*D2</f>
-        <v>3</v>
-      </c>
-      <c r="F2" s="106">
-        <f t="shared" ref="F2:F42" si="0">$B$2+$B$6*_xlfn.FLOOR.MATH(E2/$B$3)</f>
-        <v>0.09</v>
-      </c>
-      <c r="G2" s="106">
-        <f>F2/$B$1</f>
-        <v>0.03</v>
-      </c>
-      <c r="H2" s="106">
-        <f>SUM($F$2:F2)</f>
-        <v>0.09</v>
-      </c>
-      <c r="I2" s="107">
-        <f>H2/E2</f>
-        <v>0.03</v>
-      </c>
-      <c r="J2" s="105">
-        <f>1/I2</f>
-        <v>33.333333333333336</v>
-      </c>
-      <c r="K2" s="116">
-        <f>IF($B$13-G2&gt;0,"",$B$13-G2)</f>
-        <v>-1.9230769230769232E-2</v>
-      </c>
-      <c r="L2" s="118">
-        <f>IF(ISNUMBER(K2),-1/K2,"")</f>
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="110" t="s">
-        <v>156</v>
-      </c>
-      <c r="B3" s="104">
-        <v>12.2</v>
-      </c>
-      <c r="D3" s="104">
-        <f>D2+1</f>
-        <v>2</v>
-      </c>
-      <c r="E3" s="104">
-        <f>$B$1*D3</f>
-        <v>6</v>
-      </c>
-      <c r="F3" s="106">
-        <f t="shared" si="0"/>
-        <v>0.09</v>
-      </c>
-      <c r="G3" s="106">
-        <f t="shared" ref="G3:G42" si="1">F3/$B$1</f>
-        <v>0.03</v>
-      </c>
-      <c r="H3" s="106">
-        <f>SUM($F$2:F3)</f>
-        <v>0.18</v>
-      </c>
-      <c r="I3" s="107">
-        <f t="shared" ref="I3:I35" si="2">H3/E3</f>
-        <v>0.03</v>
-      </c>
-      <c r="J3" s="105">
-        <f t="shared" ref="J3:J42" si="3">1/I3</f>
-        <v>33.333333333333336</v>
-      </c>
-      <c r="K3" s="116">
-        <f t="shared" ref="K3:K35" si="4">IF($B$13-G3&gt;0,"",$B$13-G3)</f>
-        <v>-1.9230769230769232E-2</v>
-      </c>
-      <c r="L3" s="118">
-        <f t="shared" ref="L3:L42" si="5">IF(ISNUMBER(K3),-1/K3,"")</f>
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="110" t="s">
-        <v>157</v>
-      </c>
-      <c r="B4" s="112">
-        <v>0.3</v>
-      </c>
-      <c r="D4" s="104">
-        <f t="shared" ref="D4:D15" si="6">D3+1</f>
-        <v>3</v>
-      </c>
-      <c r="E4" s="104">
-        <f t="shared" ref="E4:E20" si="7">$B$1*D4</f>
-        <v>9</v>
-      </c>
-      <c r="F4" s="106">
-        <f t="shared" si="0"/>
-        <v>0.09</v>
-      </c>
-      <c r="G4" s="106">
-        <f t="shared" si="1"/>
-        <v>0.03</v>
-      </c>
-      <c r="H4" s="106">
-        <f>SUM($F$2:F4)</f>
-        <v>0.27</v>
-      </c>
-      <c r="I4" s="107">
-        <f t="shared" si="2"/>
-        <v>3.0000000000000002E-2</v>
-      </c>
-      <c r="J4" s="105">
-        <f t="shared" si="3"/>
-        <v>33.333333333333329</v>
-      </c>
-      <c r="K4" s="116">
-        <f t="shared" si="4"/>
-        <v>-1.9230769230769232E-2</v>
-      </c>
-      <c r="L4" s="118">
-        <f t="shared" si="5"/>
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D5" s="104">
-        <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="E5" s="104">
-        <f t="shared" si="7"/>
-        <v>12</v>
-      </c>
-      <c r="F5" s="106">
-        <f t="shared" si="0"/>
-        <v>0.09</v>
-      </c>
-      <c r="G5" s="106">
-        <f t="shared" si="1"/>
-        <v>0.03</v>
-      </c>
-      <c r="H5" s="106">
-        <f>SUM($F$2:F5)</f>
-        <v>0.36</v>
-      </c>
-      <c r="I5" s="107">
-        <f t="shared" si="2"/>
-        <v>0.03</v>
-      </c>
-      <c r="J5" s="105">
-        <f t="shared" si="3"/>
-        <v>33.333333333333336</v>
-      </c>
-      <c r="K5" s="116">
-        <f t="shared" si="4"/>
-        <v>-1.9230769230769232E-2</v>
-      </c>
-      <c r="L5" s="118">
-        <f t="shared" si="5"/>
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="103" t="s">
-        <v>164</v>
-      </c>
-      <c r="B6" s="97">
-        <f>B2*B4</f>
-        <v>2.7E-2</v>
-      </c>
-      <c r="D6" s="104">
-        <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-      <c r="E6" s="104">
-        <f t="shared" si="7"/>
-        <v>15</v>
-      </c>
-      <c r="F6" s="106">
-        <f t="shared" si="0"/>
-        <v>0.11699999999999999</v>
-      </c>
-      <c r="G6" s="106">
-        <f t="shared" si="1"/>
-        <v>3.9E-2</v>
-      </c>
-      <c r="H6" s="106">
-        <f>SUM($F$2:F6)</f>
-        <v>0.47699999999999998</v>
-      </c>
-      <c r="I6" s="107">
-        <f t="shared" si="2"/>
-        <v>3.1800000000000002E-2</v>
-      </c>
-      <c r="J6" s="105">
-        <f t="shared" si="3"/>
-        <v>31.446540880503143</v>
-      </c>
-      <c r="K6" s="116">
-        <f t="shared" si="4"/>
-        <v>-2.8230769230769233E-2</v>
-      </c>
-      <c r="L6" s="118">
-        <f t="shared" si="5"/>
-        <v>35.422343324250676</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D7" s="104">
-        <f t="shared" si="6"/>
-        <v>6</v>
-      </c>
-      <c r="E7" s="104">
-        <f t="shared" si="7"/>
-        <v>18</v>
-      </c>
-      <c r="F7" s="106">
-        <f t="shared" si="0"/>
-        <v>0.11699999999999999</v>
-      </c>
-      <c r="G7" s="106">
-        <f t="shared" si="1"/>
-        <v>3.9E-2</v>
-      </c>
-      <c r="H7" s="106">
-        <f>SUM($F$2:F7)</f>
-        <v>0.59399999999999997</v>
-      </c>
-      <c r="I7" s="107">
-        <f t="shared" si="2"/>
-        <v>3.3000000000000002E-2</v>
-      </c>
-      <c r="J7" s="105">
-        <f t="shared" si="3"/>
-        <v>30.303030303030301</v>
-      </c>
-      <c r="K7" s="116">
-        <f t="shared" si="4"/>
-        <v>-2.8230769230769233E-2</v>
-      </c>
-      <c r="L7" s="118">
-        <f t="shared" si="5"/>
-        <v>35.422343324250676</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="65" t="s">
-        <v>167</v>
-      </c>
-      <c r="B8" s="113">
-        <v>3.9</v>
-      </c>
-      <c r="C8" s="97"/>
-      <c r="D8" s="104">
-        <f t="shared" si="6"/>
-        <v>7</v>
-      </c>
-      <c r="E8" s="104">
-        <f t="shared" si="7"/>
-        <v>21</v>
-      </c>
-      <c r="F8" s="106">
-        <f t="shared" si="0"/>
-        <v>0.11699999999999999</v>
-      </c>
-      <c r="G8" s="106">
-        <f t="shared" si="1"/>
-        <v>3.9E-2</v>
-      </c>
-      <c r="H8" s="106">
-        <f>SUM($F$2:F8)</f>
-        <v>0.71099999999999997</v>
-      </c>
-      <c r="I8" s="107">
-        <f t="shared" si="2"/>
-        <v>3.3857142857142856E-2</v>
-      </c>
-      <c r="J8" s="105">
-        <f t="shared" si="3"/>
-        <v>29.535864978902953</v>
-      </c>
-      <c r="K8" s="116">
-        <f t="shared" si="4"/>
-        <v>-2.8230769230769233E-2</v>
-      </c>
-      <c r="L8" s="118">
-        <f t="shared" si="5"/>
-        <v>35.422343324250676</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="65" t="s">
-        <v>168</v>
-      </c>
-      <c r="B9" s="114">
-        <v>0.06</v>
-      </c>
-      <c r="D9" s="104">
-        <f t="shared" si="6"/>
-        <v>8</v>
-      </c>
-      <c r="E9" s="104">
-        <f t="shared" si="7"/>
-        <v>24</v>
-      </c>
-      <c r="F9" s="106">
-        <f t="shared" si="0"/>
-        <v>0.11699999999999999</v>
-      </c>
-      <c r="G9" s="106">
-        <f t="shared" si="1"/>
-        <v>3.9E-2</v>
-      </c>
-      <c r="H9" s="106">
-        <f>SUM($F$2:F9)</f>
-        <v>0.82799999999999996</v>
-      </c>
-      <c r="I9" s="107">
-        <f t="shared" si="2"/>
-        <v>3.4499999999999996E-2</v>
-      </c>
-      <c r="J9" s="105">
-        <f t="shared" si="3"/>
-        <v>28.985507246376816</v>
-      </c>
-      <c r="K9" s="116">
-        <f t="shared" si="4"/>
-        <v>-2.8230769230769233E-2</v>
-      </c>
-      <c r="L9" s="118">
-        <f t="shared" si="5"/>
-        <v>35.422343324250676</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="65" t="s">
-        <v>169</v>
-      </c>
-      <c r="B10" s="114">
-        <v>0.3</v>
-      </c>
-      <c r="D10" s="104">
-        <f t="shared" si="6"/>
-        <v>9</v>
-      </c>
-      <c r="E10" s="104">
-        <f t="shared" si="7"/>
-        <v>27</v>
-      </c>
-      <c r="F10" s="106">
-        <f t="shared" si="0"/>
-        <v>0.14399999999999999</v>
-      </c>
-      <c r="G10" s="106">
-        <f t="shared" si="1"/>
-        <v>4.7999999999999994E-2</v>
-      </c>
-      <c r="H10" s="106">
-        <f>SUM($F$2:F10)</f>
-        <v>0.97199999999999998</v>
-      </c>
-      <c r="I10" s="107">
-        <f t="shared" si="2"/>
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="J10" s="105">
-        <f t="shared" si="3"/>
-        <v>27.777777777777779</v>
-      </c>
-      <c r="K10" s="116">
-        <f t="shared" si="4"/>
-        <v>-3.7230769230769227E-2</v>
-      </c>
-      <c r="L10" s="118">
-        <f t="shared" si="5"/>
-        <v>26.859504132231407</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="108"/>
-      <c r="D11" s="104">
-        <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-      <c r="E11" s="104">
-        <f t="shared" si="7"/>
-        <v>30</v>
-      </c>
-      <c r="F11" s="106">
-        <f t="shared" si="0"/>
-        <v>0.14399999999999999</v>
-      </c>
-      <c r="G11" s="106">
-        <f t="shared" si="1"/>
-        <v>4.7999999999999994E-2</v>
-      </c>
-      <c r="H11" s="106">
-        <f>SUM($F$2:F11)</f>
-        <v>1.1159999999999999</v>
-      </c>
-      <c r="I11" s="107">
-        <f t="shared" si="2"/>
-        <v>3.7199999999999997E-2</v>
-      </c>
-      <c r="J11" s="105">
-        <f t="shared" si="3"/>
-        <v>26.881720430107528</v>
-      </c>
-      <c r="K11" s="116">
-        <f t="shared" si="4"/>
-        <v>-3.7230769230769227E-2</v>
-      </c>
-      <c r="L11" s="118">
-        <f t="shared" si="5"/>
-        <v>26.859504132231407</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="103" t="s">
-        <v>170</v>
-      </c>
-      <c r="B12" s="97">
-        <f>B9*(1-B10)</f>
-        <v>4.1999999999999996E-2</v>
-      </c>
-      <c r="D12" s="104">
-        <f t="shared" si="6"/>
-        <v>11</v>
-      </c>
-      <c r="E12" s="104">
-        <f t="shared" si="7"/>
-        <v>33</v>
-      </c>
-      <c r="F12" s="106">
-        <f t="shared" si="0"/>
-        <v>0.14399999999999999</v>
-      </c>
-      <c r="G12" s="106">
-        <f t="shared" si="1"/>
-        <v>4.7999999999999994E-2</v>
-      </c>
-      <c r="H12" s="106">
-        <f>SUM($F$2:F12)</f>
-        <v>1.2599999999999998</v>
-      </c>
-      <c r="I12" s="107">
-        <f t="shared" si="2"/>
-        <v>3.8181818181818178E-2</v>
-      </c>
-      <c r="J12" s="105">
-        <f t="shared" si="3"/>
-        <v>26.190476190476193</v>
-      </c>
-      <c r="K12" s="116">
-        <f t="shared" si="4"/>
-        <v>-3.7230769230769227E-2</v>
-      </c>
-      <c r="L12" s="118">
-        <f t="shared" si="5"/>
-        <v>26.859504132231407</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="103" t="s">
-        <v>171</v>
-      </c>
-      <c r="B13" s="109">
-        <f>B12/B8</f>
-        <v>1.0769230769230769E-2</v>
-      </c>
-      <c r="D13" s="104">
-        <f t="shared" si="6"/>
-        <v>12</v>
-      </c>
-      <c r="E13" s="104">
-        <f t="shared" si="7"/>
-        <v>36</v>
-      </c>
-      <c r="F13" s="106">
-        <f t="shared" si="0"/>
-        <v>0.14399999999999999</v>
-      </c>
-      <c r="G13" s="106">
-        <f t="shared" si="1"/>
-        <v>4.7999999999999994E-2</v>
-      </c>
-      <c r="H13" s="106">
-        <f>SUM($F$2:F13)</f>
-        <v>1.4039999999999997</v>
-      </c>
-      <c r="I13" s="107">
-        <f t="shared" si="2"/>
-        <v>3.8999999999999993E-2</v>
-      </c>
-      <c r="J13" s="105">
-        <f t="shared" si="3"/>
-        <v>25.641025641025646</v>
-      </c>
-      <c r="K13" s="116">
-        <f t="shared" si="4"/>
-        <v>-3.7230769230769227E-2</v>
-      </c>
-      <c r="L13" s="118">
-        <f t="shared" si="5"/>
-        <v>26.859504132231407</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D14" s="104">
-        <f t="shared" si="6"/>
-        <v>13</v>
-      </c>
-      <c r="E14" s="104">
-        <f t="shared" si="7"/>
-        <v>39</v>
-      </c>
-      <c r="F14" s="106">
-        <f t="shared" si="0"/>
-        <v>0.17099999999999999</v>
-      </c>
-      <c r="G14" s="106">
-        <f t="shared" si="1"/>
-        <v>5.6999999999999995E-2</v>
-      </c>
-      <c r="H14" s="106">
-        <f>SUM($F$2:F14)</f>
-        <v>1.5749999999999997</v>
-      </c>
-      <c r="I14" s="107">
-        <f t="shared" si="2"/>
-        <v>4.038461538461538E-2</v>
-      </c>
-      <c r="J14" s="105">
-        <f t="shared" si="3"/>
-        <v>24.761904761904766</v>
-      </c>
-      <c r="K14" s="116">
-        <f t="shared" si="4"/>
-        <v>-4.6230769230769228E-2</v>
-      </c>
-      <c r="L14" s="118">
-        <f t="shared" si="5"/>
-        <v>21.630615640599004</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D15" s="104">
-        <f t="shared" si="6"/>
-        <v>14</v>
-      </c>
-      <c r="E15" s="104">
-        <f t="shared" si="7"/>
-        <v>42</v>
-      </c>
-      <c r="F15" s="106">
-        <f t="shared" si="0"/>
-        <v>0.17099999999999999</v>
-      </c>
-      <c r="G15" s="106">
-        <f t="shared" si="1"/>
-        <v>5.6999999999999995E-2</v>
-      </c>
-      <c r="H15" s="106">
-        <f>SUM($F$2:F15)</f>
-        <v>1.7459999999999998</v>
-      </c>
-      <c r="I15" s="107">
-        <f t="shared" si="2"/>
-        <v>4.1571428571428565E-2</v>
-      </c>
-      <c r="J15" s="105">
-        <f t="shared" si="3"/>
-        <v>24.054982817869419</v>
-      </c>
-      <c r="K15" s="116">
-        <f t="shared" si="4"/>
-        <v>-4.6230769230769228E-2</v>
-      </c>
-      <c r="L15" s="118">
-        <f t="shared" si="5"/>
-        <v>21.630615640599004</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D16" s="104">
-        <f t="shared" ref="D16:D42" si="8">D15+1</f>
-        <v>15</v>
-      </c>
-      <c r="E16" s="104">
-        <f t="shared" si="7"/>
-        <v>45</v>
-      </c>
-      <c r="F16" s="106">
-        <f t="shared" si="0"/>
-        <v>0.17099999999999999</v>
-      </c>
-      <c r="G16" s="106">
-        <f t="shared" si="1"/>
-        <v>5.6999999999999995E-2</v>
-      </c>
-      <c r="H16" s="106">
-        <f>SUM($F$2:F16)</f>
-        <v>1.9169999999999998</v>
-      </c>
-      <c r="I16" s="107">
-        <f t="shared" si="2"/>
-        <v>4.2599999999999999E-2</v>
-      </c>
-      <c r="J16" s="105">
-        <f t="shared" si="3"/>
-        <v>23.474178403755868</v>
-      </c>
-      <c r="K16" s="116">
-        <f t="shared" si="4"/>
-        <v>-4.6230769230769228E-2</v>
-      </c>
-      <c r="L16" s="118">
-        <f t="shared" si="5"/>
-        <v>21.630615640599004</v>
-      </c>
-    </row>
-    <row r="17" spans="4:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D17" s="104">
-        <f t="shared" si="8"/>
-        <v>16</v>
-      </c>
-      <c r="E17" s="104">
-        <f t="shared" si="7"/>
-        <v>48</v>
-      </c>
-      <c r="F17" s="106">
-        <f t="shared" si="0"/>
-        <v>0.17099999999999999</v>
-      </c>
-      <c r="G17" s="106">
-        <f t="shared" si="1"/>
-        <v>5.6999999999999995E-2</v>
-      </c>
-      <c r="H17" s="106">
-        <f>SUM($F$2:F17)</f>
-        <v>2.0879999999999996</v>
-      </c>
-      <c r="I17" s="107">
-        <f t="shared" si="2"/>
-        <v>4.349999999999999E-2</v>
-      </c>
-      <c r="J17" s="105">
-        <f t="shared" si="3"/>
-        <v>22.988505747126442</v>
-      </c>
-      <c r="K17" s="116">
-        <f t="shared" si="4"/>
-        <v>-4.6230769230769228E-2</v>
-      </c>
-      <c r="L17" s="118">
-        <f t="shared" si="5"/>
-        <v>21.630615640599004</v>
-      </c>
-    </row>
-    <row r="18" spans="4:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D18" s="104">
-        <f t="shared" si="8"/>
-        <v>17</v>
-      </c>
-      <c r="E18" s="104">
-        <f t="shared" si="7"/>
-        <v>51</v>
-      </c>
-      <c r="F18" s="106">
-        <f t="shared" si="0"/>
-        <v>0.19800000000000001</v>
-      </c>
-      <c r="G18" s="106">
-        <f t="shared" si="1"/>
-        <v>6.6000000000000003E-2</v>
-      </c>
-      <c r="H18" s="106">
-        <f>SUM($F$2:F18)</f>
-        <v>2.2859999999999996</v>
-      </c>
-      <c r="I18" s="107">
-        <f t="shared" si="2"/>
-        <v>4.48235294117647E-2</v>
-      </c>
-      <c r="J18" s="105">
-        <f t="shared" si="3"/>
-        <v>22.309711286089243</v>
-      </c>
-      <c r="K18" s="116">
-        <f t="shared" si="4"/>
-        <v>-5.5230769230769236E-2</v>
-      </c>
-      <c r="L18" s="118">
-        <f t="shared" si="5"/>
-        <v>18.105849582172699</v>
-      </c>
-    </row>
-    <row r="19" spans="4:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D19" s="104">
-        <f t="shared" si="8"/>
-        <v>18</v>
-      </c>
-      <c r="E19" s="104">
-        <f t="shared" si="7"/>
-        <v>54</v>
-      </c>
-      <c r="F19" s="106">
-        <f t="shared" si="0"/>
-        <v>0.19800000000000001</v>
-      </c>
-      <c r="G19" s="106">
-        <f t="shared" si="1"/>
-        <v>6.6000000000000003E-2</v>
-      </c>
-      <c r="H19" s="106">
-        <f>SUM($F$2:F19)</f>
-        <v>2.4839999999999995</v>
-      </c>
-      <c r="I19" s="107">
-        <f t="shared" si="2"/>
-        <v>4.5999999999999992E-2</v>
-      </c>
-      <c r="J19" s="105">
-        <f t="shared" si="3"/>
-        <v>21.739130434782613</v>
-      </c>
-      <c r="K19" s="116">
-        <f t="shared" si="4"/>
-        <v>-5.5230769230769236E-2</v>
-      </c>
-      <c r="L19" s="118">
-        <f t="shared" si="5"/>
-        <v>18.105849582172699</v>
-      </c>
-    </row>
-    <row r="20" spans="4:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D20" s="104">
-        <f t="shared" si="8"/>
-        <v>19</v>
-      </c>
-      <c r="E20" s="104">
-        <f t="shared" si="7"/>
-        <v>57</v>
-      </c>
-      <c r="F20" s="106">
-        <f t="shared" si="0"/>
-        <v>0.19800000000000001</v>
-      </c>
-      <c r="G20" s="106">
-        <f t="shared" si="1"/>
-        <v>6.6000000000000003E-2</v>
-      </c>
-      <c r="H20" s="106">
-        <f>SUM($F$2:F20)</f>
-        <v>2.6819999999999995</v>
-      </c>
-      <c r="I20" s="107">
-        <f t="shared" si="2"/>
-        <v>4.705263157894736E-2</v>
-      </c>
-      <c r="J20" s="105">
-        <f t="shared" si="3"/>
-        <v>21.25279642058166</v>
-      </c>
-      <c r="K20" s="116">
-        <f t="shared" si="4"/>
-        <v>-5.5230769230769236E-2</v>
-      </c>
-      <c r="L20" s="118">
-        <f t="shared" si="5"/>
-        <v>18.105849582172699</v>
-      </c>
-    </row>
-    <row r="21" spans="4:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D21" s="104">
-        <f t="shared" si="8"/>
-        <v>20</v>
-      </c>
-      <c r="E21" s="104">
-        <f t="shared" ref="E21:E28" si="9">$B$1*D21</f>
-        <v>60</v>
-      </c>
-      <c r="F21" s="106">
-        <f t="shared" si="0"/>
-        <v>0.19800000000000001</v>
-      </c>
-      <c r="G21" s="106">
-        <f t="shared" si="1"/>
-        <v>6.6000000000000003E-2</v>
-      </c>
-      <c r="H21" s="106">
-        <f>SUM($F$2:F21)</f>
-        <v>2.8799999999999994</v>
-      </c>
-      <c r="I21" s="107">
-        <f t="shared" si="2"/>
-        <v>4.7999999999999994E-2</v>
-      </c>
-      <c r="J21" s="105">
-        <f t="shared" si="3"/>
-        <v>20.833333333333336</v>
-      </c>
-      <c r="K21" s="116">
-        <f t="shared" si="4"/>
-        <v>-5.5230769230769236E-2</v>
-      </c>
-      <c r="L21" s="118">
-        <f t="shared" si="5"/>
-        <v>18.105849582172699</v>
-      </c>
-    </row>
-    <row r="22" spans="4:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D22" s="104">
-        <f t="shared" si="8"/>
-        <v>21</v>
-      </c>
-      <c r="E22" s="104">
-        <f t="shared" si="9"/>
-        <v>63</v>
-      </c>
-      <c r="F22" s="106">
-        <f t="shared" si="0"/>
-        <v>0.22500000000000001</v>
-      </c>
-      <c r="G22" s="106">
-        <f t="shared" si="1"/>
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="H22" s="106">
-        <f>SUM($F$2:F22)</f>
-        <v>3.1049999999999995</v>
-      </c>
-      <c r="I22" s="107">
-        <f t="shared" si="2"/>
-        <v>4.928571428571428E-2</v>
-      </c>
-      <c r="J22" s="105">
-        <f t="shared" si="3"/>
-        <v>20.289855072463769</v>
-      </c>
-      <c r="K22" s="116">
-        <f t="shared" si="4"/>
-        <v>-6.423076923076923E-2</v>
-      </c>
-      <c r="L22" s="118">
-        <f t="shared" si="5"/>
-        <v>15.568862275449101</v>
-      </c>
-    </row>
-    <row r="23" spans="4:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D23" s="104">
-        <f t="shared" si="8"/>
-        <v>22</v>
-      </c>
-      <c r="E23" s="104">
-        <f t="shared" si="9"/>
-        <v>66</v>
-      </c>
-      <c r="F23" s="106">
-        <f t="shared" si="0"/>
-        <v>0.22500000000000001</v>
-      </c>
-      <c r="G23" s="106">
-        <f t="shared" si="1"/>
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="H23" s="106">
-        <f>SUM($F$2:F23)</f>
-        <v>3.3299999999999996</v>
-      </c>
-      <c r="I23" s="107">
-        <f t="shared" si="2"/>
-        <v>5.0454545454545446E-2</v>
-      </c>
-      <c r="J23" s="105">
-        <f t="shared" si="3"/>
-        <v>19.819819819819823</v>
-      </c>
-      <c r="K23" s="116">
-        <f t="shared" si="4"/>
-        <v>-6.423076923076923E-2</v>
-      </c>
-      <c r="L23" s="118">
-        <f t="shared" si="5"/>
-        <v>15.568862275449101</v>
-      </c>
-    </row>
-    <row r="24" spans="4:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D24" s="104">
-        <f t="shared" si="8"/>
-        <v>23</v>
-      </c>
-      <c r="E24" s="104">
-        <f t="shared" si="9"/>
-        <v>69</v>
-      </c>
-      <c r="F24" s="106">
-        <f t="shared" si="0"/>
-        <v>0.22500000000000001</v>
-      </c>
-      <c r="G24" s="106">
-        <f t="shared" si="1"/>
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="H24" s="106">
-        <f>SUM($F$2:F24)</f>
-        <v>3.5549999999999997</v>
-      </c>
-      <c r="I24" s="107">
-        <f t="shared" si="2"/>
-        <v>5.1521739130434778E-2</v>
-      </c>
-      <c r="J24" s="105">
-        <f t="shared" si="3"/>
-        <v>19.409282700421944</v>
-      </c>
-      <c r="K24" s="116">
-        <f t="shared" si="4"/>
-        <v>-6.423076923076923E-2</v>
-      </c>
-      <c r="L24" s="118">
-        <f t="shared" si="5"/>
-        <v>15.568862275449101</v>
-      </c>
-    </row>
-    <row r="25" spans="4:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D25" s="104">
-        <f t="shared" si="8"/>
-        <v>24</v>
-      </c>
-      <c r="E25" s="104">
-        <f t="shared" si="9"/>
-        <v>72</v>
-      </c>
-      <c r="F25" s="106">
-        <f t="shared" si="0"/>
-        <v>0.22500000000000001</v>
-      </c>
-      <c r="G25" s="106">
-        <f t="shared" si="1"/>
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="H25" s="106">
-        <f>SUM($F$2:F25)</f>
-        <v>3.78</v>
-      </c>
-      <c r="I25" s="107">
-        <f t="shared" si="2"/>
-        <v>5.2499999999999998E-2</v>
-      </c>
-      <c r="J25" s="105">
-        <f t="shared" si="3"/>
-        <v>19.047619047619047</v>
-      </c>
-      <c r="K25" s="116">
-        <f t="shared" si="4"/>
-        <v>-6.423076923076923E-2</v>
-      </c>
-      <c r="L25" s="118">
-        <f t="shared" si="5"/>
-        <v>15.568862275449101</v>
-      </c>
-    </row>
-    <row r="26" spans="4:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D26" s="104">
-        <f t="shared" si="8"/>
-        <v>25</v>
-      </c>
-      <c r="E26" s="104">
-        <f t="shared" si="9"/>
-        <v>75</v>
-      </c>
-      <c r="F26" s="106">
-        <f t="shared" si="0"/>
-        <v>0.252</v>
-      </c>
-      <c r="G26" s="106">
-        <f t="shared" si="1"/>
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="H26" s="106">
-        <f>SUM($F$2:F26)</f>
-        <v>4.032</v>
-      </c>
-      <c r="I26" s="107">
-        <f t="shared" si="2"/>
-        <v>5.3760000000000002E-2</v>
-      </c>
-      <c r="J26" s="105">
-        <f t="shared" si="3"/>
-        <v>18.601190476190474</v>
-      </c>
-      <c r="K26" s="116">
-        <f t="shared" si="4"/>
-        <v>-7.3230769230769238E-2</v>
-      </c>
-      <c r="L26" s="118">
-        <f t="shared" si="5"/>
-        <v>13.655462184873949</v>
-      </c>
-    </row>
-    <row r="27" spans="4:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D27" s="104">
-        <f t="shared" si="8"/>
-        <v>26</v>
-      </c>
-      <c r="E27" s="104">
-        <f t="shared" si="9"/>
-        <v>78</v>
-      </c>
-      <c r="F27" s="106">
-        <f t="shared" si="0"/>
-        <v>0.252</v>
-      </c>
-      <c r="G27" s="106">
-        <f t="shared" si="1"/>
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="H27" s="106">
-        <f>SUM($F$2:F27)</f>
-        <v>4.2839999999999998</v>
-      </c>
-      <c r="I27" s="107">
-        <f t="shared" si="2"/>
-        <v>5.4923076923076922E-2</v>
-      </c>
-      <c r="J27" s="105">
-        <f t="shared" si="3"/>
-        <v>18.207282913165265</v>
-      </c>
-      <c r="K27" s="116">
-        <f t="shared" si="4"/>
-        <v>-7.3230769230769238E-2</v>
-      </c>
-      <c r="L27" s="118">
-        <f t="shared" si="5"/>
-        <v>13.655462184873949</v>
-      </c>
-    </row>
-    <row r="28" spans="4:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D28" s="104">
-        <f t="shared" si="8"/>
-        <v>27</v>
-      </c>
-      <c r="E28" s="104">
-        <f t="shared" si="9"/>
-        <v>81</v>
-      </c>
-      <c r="F28" s="106">
-        <f t="shared" si="0"/>
-        <v>0.252</v>
-      </c>
-      <c r="G28" s="106">
-        <f t="shared" si="1"/>
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="H28" s="106">
-        <f>SUM($F$2:F28)</f>
-        <v>4.5359999999999996</v>
-      </c>
-      <c r="I28" s="107">
-        <f t="shared" si="2"/>
-        <v>5.5999999999999994E-2</v>
-      </c>
-      <c r="J28" s="105">
-        <f t="shared" si="3"/>
-        <v>17.857142857142858</v>
-      </c>
-      <c r="K28" s="116">
-        <f t="shared" si="4"/>
-        <v>-7.3230769230769238E-2</v>
-      </c>
-      <c r="L28" s="118">
-        <f t="shared" si="5"/>
-        <v>13.655462184873949</v>
-      </c>
-    </row>
-    <row r="29" spans="4:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D29" s="104">
-        <f t="shared" si="8"/>
-        <v>28</v>
-      </c>
-      <c r="E29" s="104">
-        <f t="shared" ref="E29:E35" si="10">$B$1*D29</f>
-        <v>84</v>
-      </c>
-      <c r="F29" s="106">
-        <f t="shared" si="0"/>
-        <v>0.252</v>
-      </c>
-      <c r="G29" s="106">
-        <f t="shared" si="1"/>
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="H29" s="106">
-        <f>SUM($F$2:F29)</f>
-        <v>4.7879999999999994</v>
-      </c>
-      <c r="I29" s="107">
-        <f t="shared" si="2"/>
-        <v>5.6999999999999995E-2</v>
-      </c>
-      <c r="J29" s="105">
-        <f t="shared" si="3"/>
-        <v>17.543859649122808</v>
-      </c>
-      <c r="K29" s="116">
-        <f t="shared" si="4"/>
-        <v>-7.3230769230769238E-2</v>
-      </c>
-      <c r="L29" s="118">
-        <f t="shared" si="5"/>
-        <v>13.655462184873949</v>
-      </c>
-    </row>
-    <row r="30" spans="4:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D30" s="104">
-        <f t="shared" si="8"/>
-        <v>29</v>
-      </c>
-      <c r="E30" s="104">
-        <f t="shared" si="10"/>
-        <v>87</v>
-      </c>
-      <c r="F30" s="106">
-        <f t="shared" si="0"/>
-        <v>0.27900000000000003</v>
-      </c>
-      <c r="G30" s="106">
-        <f t="shared" si="1"/>
-        <v>9.3000000000000013E-2</v>
-      </c>
-      <c r="H30" s="106">
-        <f>SUM($F$2:F30)</f>
-        <v>5.0669999999999993</v>
-      </c>
-      <c r="I30" s="107">
-        <f t="shared" si="2"/>
-        <v>5.8241379310344822E-2</v>
-      </c>
-      <c r="J30" s="105">
-        <f t="shared" si="3"/>
-        <v>17.169923031379515</v>
-      </c>
-      <c r="K30" s="116">
-        <f t="shared" si="4"/>
-        <v>-8.2230769230769246E-2</v>
-      </c>
-      <c r="L30" s="118">
-        <f t="shared" si="5"/>
-        <v>12.160898035547238</v>
-      </c>
-    </row>
-    <row r="31" spans="4:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D31" s="104">
-        <f t="shared" si="8"/>
-        <v>30</v>
-      </c>
-      <c r="E31" s="104">
-        <f t="shared" si="10"/>
-        <v>90</v>
-      </c>
-      <c r="F31" s="106">
-        <f t="shared" si="0"/>
-        <v>0.27900000000000003</v>
-      </c>
-      <c r="G31" s="106">
-        <f t="shared" si="1"/>
-        <v>9.3000000000000013E-2</v>
-      </c>
-      <c r="H31" s="106">
-        <f>SUM($F$2:F31)</f>
-        <v>5.3459999999999992</v>
-      </c>
-      <c r="I31" s="107">
-        <f t="shared" si="2"/>
-        <v>5.9399999999999994E-2</v>
-      </c>
-      <c r="J31" s="105">
-        <f t="shared" si="3"/>
-        <v>16.835016835016837</v>
-      </c>
-      <c r="K31" s="116">
-        <f t="shared" si="4"/>
-        <v>-8.2230769230769246E-2</v>
-      </c>
-      <c r="L31" s="118">
-        <f t="shared" si="5"/>
-        <v>12.160898035547238</v>
-      </c>
-    </row>
-    <row r="32" spans="4:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D32" s="104">
-        <f t="shared" si="8"/>
-        <v>31</v>
-      </c>
-      <c r="E32" s="104">
-        <f t="shared" si="10"/>
-        <v>93</v>
-      </c>
-      <c r="F32" s="106">
-        <f t="shared" si="0"/>
-        <v>0.27900000000000003</v>
-      </c>
-      <c r="G32" s="106">
-        <f t="shared" si="1"/>
-        <v>9.3000000000000013E-2</v>
-      </c>
-      <c r="H32" s="106">
-        <f>SUM($F$2:F32)</f>
-        <v>5.6249999999999991</v>
-      </c>
-      <c r="I32" s="107">
-        <f t="shared" si="2"/>
-        <v>6.0483870967741923E-2</v>
-      </c>
-      <c r="J32" s="105">
-        <f t="shared" si="3"/>
-        <v>16.533333333333335</v>
-      </c>
-      <c r="K32" s="116">
-        <f t="shared" si="4"/>
-        <v>-8.2230769230769246E-2</v>
-      </c>
-      <c r="L32" s="118">
-        <f t="shared" si="5"/>
-        <v>12.160898035547238</v>
-      </c>
-    </row>
-    <row r="33" spans="4:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D33" s="104">
-        <f t="shared" si="8"/>
-        <v>32</v>
-      </c>
-      <c r="E33" s="104">
-        <f t="shared" si="10"/>
-        <v>96</v>
-      </c>
-      <c r="F33" s="106">
-        <f t="shared" si="0"/>
-        <v>0.27900000000000003</v>
-      </c>
-      <c r="G33" s="106">
-        <f t="shared" si="1"/>
-        <v>9.3000000000000013E-2</v>
-      </c>
-      <c r="H33" s="106">
-        <f>SUM($F$2:F33)</f>
-        <v>5.903999999999999</v>
-      </c>
-      <c r="I33" s="107">
-        <f t="shared" si="2"/>
-        <v>6.1499999999999992E-2</v>
-      </c>
-      <c r="J33" s="105">
-        <f t="shared" si="3"/>
-        <v>16.260162601626018</v>
-      </c>
-      <c r="K33" s="116">
-        <f t="shared" si="4"/>
-        <v>-8.2230769230769246E-2</v>
-      </c>
-      <c r="L33" s="118">
-        <f t="shared" si="5"/>
-        <v>12.160898035547238</v>
-      </c>
-    </row>
-    <row r="34" spans="4:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D34" s="104">
-        <f t="shared" si="8"/>
-        <v>33</v>
-      </c>
-      <c r="E34" s="104">
-        <f t="shared" si="10"/>
-        <v>99</v>
-      </c>
-      <c r="F34" s="106">
-        <f t="shared" si="0"/>
-        <v>0.30599999999999999</v>
-      </c>
-      <c r="G34" s="106">
-        <f t="shared" si="1"/>
-        <v>0.10199999999999999</v>
-      </c>
-      <c r="H34" s="106">
-        <f>SUM($F$2:F34)</f>
-        <v>6.2099999999999991</v>
-      </c>
-      <c r="I34" s="107">
-        <f t="shared" si="2"/>
-        <v>6.2727272727272715E-2</v>
-      </c>
-      <c r="J34" s="105">
-        <f t="shared" si="3"/>
-        <v>15.94202898550725</v>
-      </c>
-      <c r="K34" s="116">
-        <f t="shared" si="4"/>
-        <v>-9.1230769230769226E-2</v>
-      </c>
-      <c r="L34" s="118">
-        <f t="shared" si="5"/>
-        <v>10.961214165261383</v>
-      </c>
-    </row>
-    <row r="35" spans="4:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D35" s="104">
-        <f t="shared" si="8"/>
-        <v>34</v>
-      </c>
-      <c r="E35" s="104">
-        <f t="shared" si="10"/>
-        <v>102</v>
-      </c>
-      <c r="F35" s="106">
-        <f t="shared" si="0"/>
-        <v>0.30599999999999999</v>
-      </c>
-      <c r="G35" s="106">
-        <f t="shared" si="1"/>
-        <v>0.10199999999999999</v>
-      </c>
-      <c r="H35" s="106">
-        <f>SUM($F$2:F35)</f>
-        <v>6.5159999999999991</v>
-      </c>
-      <c r="I35" s="107">
-        <f t="shared" si="2"/>
-        <v>6.388235294117646E-2</v>
-      </c>
-      <c r="J35" s="105">
-        <f t="shared" si="3"/>
-        <v>15.653775322283613</v>
-      </c>
-      <c r="K35" s="116">
-        <f t="shared" si="4"/>
-        <v>-9.1230769230769226E-2</v>
-      </c>
-      <c r="L35" s="118">
-        <f t="shared" si="5"/>
-        <v>10.961214165261383</v>
-      </c>
-    </row>
-    <row r="36" spans="4:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D36" s="104">
-        <f t="shared" si="8"/>
-        <v>35</v>
-      </c>
-      <c r="E36" s="104">
-        <f t="shared" ref="E36:E42" si="11">$B$1*D36</f>
-        <v>105</v>
-      </c>
-      <c r="F36" s="106">
-        <f t="shared" si="0"/>
-        <v>0.30599999999999999</v>
-      </c>
-      <c r="G36" s="106">
-        <f t="shared" si="1"/>
-        <v>0.10199999999999999</v>
-      </c>
-      <c r="H36" s="106">
-        <f>SUM($F$2:F36)</f>
-        <v>6.8219999999999992</v>
-      </c>
-      <c r="I36" s="107">
-        <f t="shared" ref="I36:I42" si="12">H36/E36</f>
-        <v>6.4971428571428569E-2</v>
-      </c>
-      <c r="J36" s="105">
-        <f t="shared" si="3"/>
-        <v>15.391380826737027</v>
-      </c>
-      <c r="K36" s="116">
-        <f t="shared" ref="K36:K42" si="13">IF($B$13-G36&gt;0,"",$B$13-G36)</f>
-        <v>-9.1230769230769226E-2</v>
-      </c>
-      <c r="L36" s="118">
-        <f t="shared" si="5"/>
-        <v>10.961214165261383</v>
-      </c>
-    </row>
-    <row r="37" spans="4:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D37" s="104">
-        <f t="shared" si="8"/>
-        <v>36</v>
-      </c>
-      <c r="E37" s="104">
-        <f t="shared" si="11"/>
-        <v>108</v>
-      </c>
-      <c r="F37" s="106">
-        <f t="shared" si="0"/>
-        <v>0.30599999999999999</v>
-      </c>
-      <c r="G37" s="106">
-        <f t="shared" si="1"/>
-        <v>0.10199999999999999</v>
-      </c>
-      <c r="H37" s="106">
-        <f>SUM($F$2:F37)</f>
-        <v>7.1279999999999992</v>
-      </c>
-      <c r="I37" s="107">
-        <f t="shared" si="12"/>
-        <v>6.5999999999999989E-2</v>
-      </c>
-      <c r="J37" s="105">
-        <f t="shared" si="3"/>
-        <v>15.151515151515154</v>
-      </c>
-      <c r="K37" s="116">
-        <f t="shared" si="13"/>
-        <v>-9.1230769230769226E-2</v>
-      </c>
-      <c r="L37" s="118">
-        <f t="shared" si="5"/>
-        <v>10.961214165261383</v>
-      </c>
-    </row>
-    <row r="38" spans="4:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D38" s="104">
-        <f t="shared" si="8"/>
-        <v>37</v>
-      </c>
-      <c r="E38" s="104">
-        <f t="shared" si="11"/>
-        <v>111</v>
-      </c>
-      <c r="F38" s="106">
-        <f t="shared" si="0"/>
-        <v>0.33299999999999996</v>
-      </c>
-      <c r="G38" s="106">
-        <f t="shared" si="1"/>
-        <v>0.11099999999999999</v>
-      </c>
-      <c r="H38" s="106">
-        <f>SUM($F$2:F38)</f>
-        <v>7.4609999999999994</v>
-      </c>
-      <c r="I38" s="107">
-        <f t="shared" si="12"/>
-        <v>6.7216216216216207E-2</v>
-      </c>
-      <c r="J38" s="105">
-        <f t="shared" si="3"/>
-        <v>14.877362283876158</v>
-      </c>
-      <c r="K38" s="116">
-        <f t="shared" si="13"/>
-        <v>-0.10023076923076922</v>
-      </c>
-      <c r="L38" s="118">
-        <f t="shared" si="5"/>
-        <v>9.9769762087490417</v>
-      </c>
-    </row>
-    <row r="39" spans="4:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D39" s="104">
-        <f t="shared" si="8"/>
-        <v>38</v>
-      </c>
-      <c r="E39" s="104">
-        <f t="shared" si="11"/>
-        <v>114</v>
-      </c>
-      <c r="F39" s="106">
-        <f t="shared" si="0"/>
-        <v>0.33299999999999996</v>
-      </c>
-      <c r="G39" s="106">
-        <f t="shared" si="1"/>
-        <v>0.11099999999999999</v>
-      </c>
-      <c r="H39" s="106">
-        <f>SUM($F$2:F39)</f>
-        <v>7.7939999999999996</v>
-      </c>
-      <c r="I39" s="107">
-        <f t="shared" si="12"/>
-        <v>6.8368421052631578E-2</v>
-      </c>
-      <c r="J39" s="105">
-        <f t="shared" si="3"/>
-        <v>14.626635873749038</v>
-      </c>
-      <c r="K39" s="116">
-        <f t="shared" si="13"/>
-        <v>-0.10023076923076922</v>
-      </c>
-      <c r="L39" s="118">
-        <f t="shared" si="5"/>
-        <v>9.9769762087490417</v>
-      </c>
-    </row>
-    <row r="40" spans="4:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D40" s="104">
-        <f t="shared" si="8"/>
-        <v>39</v>
-      </c>
-      <c r="E40" s="104">
-        <f t="shared" si="11"/>
-        <v>117</v>
-      </c>
-      <c r="F40" s="106">
-        <f t="shared" si="0"/>
-        <v>0.33299999999999996</v>
-      </c>
-      <c r="G40" s="106">
-        <f t="shared" si="1"/>
-        <v>0.11099999999999999</v>
-      </c>
-      <c r="H40" s="106">
-        <f>SUM($F$2:F40)</f>
-        <v>8.1269999999999989</v>
-      </c>
-      <c r="I40" s="107">
-        <f t="shared" si="12"/>
-        <v>6.946153846153845E-2</v>
-      </c>
-      <c r="J40" s="105">
-        <f t="shared" si="3"/>
-        <v>14.396456256921375</v>
-      </c>
-      <c r="K40" s="116">
-        <f t="shared" si="13"/>
-        <v>-0.10023076923076922</v>
-      </c>
-      <c r="L40" s="118">
-        <f t="shared" si="5"/>
-        <v>9.9769762087490417</v>
-      </c>
-    </row>
-    <row r="41" spans="4:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D41" s="104">
-        <f t="shared" si="8"/>
-        <v>40</v>
-      </c>
-      <c r="E41" s="104">
-        <f t="shared" si="11"/>
-        <v>120</v>
-      </c>
-      <c r="F41" s="106">
-        <f t="shared" si="0"/>
-        <v>0.33299999999999996</v>
-      </c>
-      <c r="G41" s="106">
-        <f t="shared" si="1"/>
-        <v>0.11099999999999999</v>
-      </c>
-      <c r="H41" s="106">
-        <f>SUM($F$2:F41)</f>
-        <v>8.4599999999999991</v>
-      </c>
-      <c r="I41" s="107">
-        <f t="shared" si="12"/>
-        <v>7.0499999999999993E-2</v>
-      </c>
-      <c r="J41" s="105">
-        <f t="shared" si="3"/>
-        <v>14.184397163120568</v>
-      </c>
-      <c r="K41" s="116">
-        <f t="shared" si="13"/>
-        <v>-0.10023076923076922</v>
-      </c>
-      <c r="L41" s="118">
-        <f t="shared" si="5"/>
-        <v>9.9769762087490417</v>
-      </c>
-    </row>
-    <row r="42" spans="4:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D42" s="104">
-        <f t="shared" si="8"/>
-        <v>41</v>
-      </c>
-      <c r="E42" s="104">
-        <f t="shared" si="11"/>
-        <v>123</v>
-      </c>
-      <c r="F42" s="106">
-        <f t="shared" si="0"/>
-        <v>0.36</v>
-      </c>
-      <c r="G42" s="106">
-        <f t="shared" si="1"/>
-        <v>0.12</v>
-      </c>
-      <c r="H42" s="106">
-        <f>SUM($F$2:F42)</f>
-        <v>8.8199999999999985</v>
-      </c>
-      <c r="I42" s="107">
-        <f t="shared" si="12"/>
-        <v>7.1707317073170726E-2</v>
-      </c>
-      <c r="J42" s="105">
-        <f t="shared" si="3"/>
-        <v>13.945578231292519</v>
-      </c>
-      <c r="K42" s="116">
-        <f t="shared" si="13"/>
-        <v>-0.10923076923076923</v>
-      </c>
-      <c r="L42" s="118">
-        <f t="shared" si="5"/>
-        <v>9.1549295774647881</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Brainstorm.xlsx
+++ b/Brainstorm.xlsx
@@ -8,21 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Personal@SSD\Game\DL\dragalia-data-track\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFDA124E-9F73-404B-86C2-3A7D567A199C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96E206AF-EDCE-48C7-B90C-680FB0E7CB93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29430" yWindow="3270" windowWidth="21600" windowHeight="11385" activeTab="8" xr2:uid="{4CFB4A6A-60C6-4091-BCA5-480044B61D33}"/>
+    <workbookView xWindow="5940" yWindow="945" windowWidth="21600" windowHeight="11385" activeTab="4" xr2:uid="{4CFB4A6A-60C6-4091-BCA5-480044B61D33}"/>
   </bookViews>
   <sheets>
     <sheet name="Rotation" sheetId="8" r:id="rId1"/>
     <sheet name="Affliction" sheetId="1" state="hidden" r:id="rId2"/>
     <sheet name="Equips" sheetId="6" state="hidden" r:id="rId3"/>
     <sheet name="Steps" sheetId="4" state="hidden" r:id="rId4"/>
-    <sheet name="Damage" sheetId="7" r:id="rId5"/>
-    <sheet name="Damage (Rev Buff)" sheetId="12" r:id="rId6"/>
-    <sheet name="Sheet2" sheetId="13" r:id="rId7"/>
-    <sheet name="Dragon" sheetId="9" r:id="rId8"/>
-    <sheet name="CRT effect" sheetId="10" r:id="rId9"/>
-    <sheet name="Corrosion" sheetId="11" state="hidden" r:id="rId10"/>
+    <sheet name="Damage" sheetId="12" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="13" r:id="rId6"/>
+    <sheet name="Dragon" sheetId="9" r:id="rId7"/>
+    <sheet name="CRT effect" sheetId="10" r:id="rId8"/>
+    <sheet name="Corrosion" sheetId="11" state="hidden" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,37 +42,6 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>tc={CB8FB53A-6734-48F6-BA34-94AD79DA4E09}</author>
-    <author>tc={53B2D701-BABF-4409-A1F2-841A52005360}</author>
-  </authors>
-  <commentList>
-    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{CB8FB53A-6734-48F6-BA34-94AD79DA4E09}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    【護符被動、龍被動】
-裝備時，遊戲內顯示出的改變後的 ATK，例如: 滿血
-【主條件】
-滿血、0 Combo</t>
-      </text>
-    </comment>
-    <comment ref="B6" authorId="1" shapeId="0" xr:uid="{53B2D701-BABF-4409-A1F2-841A52005360}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    【護符被動、龍被動】
-HP 70%、疾風怒濤...等</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={ED694F4C-CBA5-4DCA-BDE8-23901C6128BC}</author>
@@ -127,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="196">
   <si>
     <t>睡抗</t>
   </si>
@@ -258,103 +226,16 @@
     <t>CDMG</t>
   </si>
   <si>
-    <t>常數</t>
-  </si>
-  <si>
-    <t>面板內被動攻擊</t>
-  </si>
-  <si>
-    <t>面板外被動攻擊</t>
-  </si>
-  <si>
-    <t>攻擊倍率</t>
-  </si>
-  <si>
-    <t>被動技傷</t>
-  </si>
-  <si>
-    <t>超活力</t>
-  </si>
-  <si>
-    <t>其他特攻和</t>
-  </si>
-  <si>
-    <t>龍化建築增傷</t>
-  </si>
-  <si>
-    <t>龍化被動增傷</t>
-  </si>
-  <si>
-    <t>基礎防禦</t>
-  </si>
-  <si>
-    <t>防禦變動</t>
-  </si>
-  <si>
-    <t>傷害計算</t>
-  </si>
-  <si>
-    <t>攻擊BUFF</t>
-  </si>
-  <si>
-    <t>刀EX</t>
-  </si>
-  <si>
-    <t>BK特攻</t>
-  </si>
-  <si>
-    <t>屬性增傷EX</t>
-  </si>
-  <si>
     <t>ATK</t>
   </si>
   <si>
-    <t>傷害減免</t>
-  </si>
-  <si>
     <t>CRT</t>
   </si>
   <si>
-    <t>面板</t>
-  </si>
-  <si>
     <t>SDMG</t>
   </si>
   <si>
-    <t>特攻</t>
-  </si>
-  <si>
-    <t>屬性</t>
-  </si>
-  <si>
-    <t>倍率 (1.5 / 1 / 0.5)</t>
-  </si>
-  <si>
     <t>CRT ? (0 / 1)</t>
-  </si>
-  <si>
-    <t>法 EX</t>
-  </si>
-  <si>
-    <t>技傷 BUFF</t>
-  </si>
-  <si>
-    <t>龍化？ (0 / 1)</t>
-  </si>
-  <si>
-    <t>龍化</t>
-  </si>
-  <si>
-    <t>亂數調整 (0.95~1.05)</t>
-  </si>
-  <si>
-    <t>BK 係數</t>
-  </si>
-  <si>
-    <t>BK 判定 (0 / 1)</t>
-  </si>
-  <si>
-    <t>濕身判定 (0 / 1)</t>
   </si>
   <si>
     <t>武器種類</t>
@@ -674,24 +555,9 @@
     <t>亞森</t>
   </si>
   <si>
-    <t>Actual</t>
-  </si>
-  <si>
-    <t>Mitsu@No BK</t>
-  </si>
-  <si>
-    <t>Expected</t>
-  </si>
-  <si>
-    <t>Eze - Xander</t>
-  </si>
-  <si>
     <t>ENER</t>
   </si>
   <si>
-    <t>SD</t>
-  </si>
-  <si>
     <t>PUN (O)</t>
   </si>
   <si>
@@ -713,16 +579,112 @@
     <t>HP%</t>
   </si>
   <si>
-    <t>壓血</t>
-  </si>
-  <si>
-    <t>當前 HP%</t>
-  </si>
-  <si>
-    <t>ATK%</t>
-  </si>
-  <si>
     <t>ATK (P)</t>
+  </si>
+  <si>
+    <t>SD (P)</t>
+  </si>
+  <si>
+    <t>SD (B)</t>
+  </si>
+  <si>
+    <t>ATK (B)</t>
+  </si>
+  <si>
+    <t>Constant</t>
+  </si>
+  <si>
+    <t>Damage Reduction</t>
+  </si>
+  <si>
+    <t>In-Game</t>
+  </si>
+  <si>
+    <t>Passive incl. in-game</t>
+  </si>
+  <si>
+    <t>Passive excl. in-game</t>
+  </si>
+  <si>
+    <t>Buff %</t>
+  </si>
+  <si>
+    <t>Blade Co-ab</t>
+  </si>
+  <si>
+    <t>Skill mods</t>
+  </si>
+  <si>
+    <t>Passive</t>
+  </si>
+  <si>
+    <t>Energize</t>
+  </si>
+  <si>
+    <t>Wand Co-ab</t>
+  </si>
+  <si>
+    <t>BK Punisher</t>
+  </si>
+  <si>
+    <t>Other Punishers</t>
+  </si>
+  <si>
+    <t>Punishers</t>
+  </si>
+  <si>
+    <t>Elemental</t>
+  </si>
+  <si>
+    <t>Rate (1.5 / 1 / 0.5)</t>
+  </si>
+  <si>
+    <t>Elemental Damage</t>
+  </si>
+  <si>
+    <t>Shapeshift? (0 / 1)</t>
+  </si>
+  <si>
+    <t>Facility</t>
+  </si>
+  <si>
+    <t>Dragon</t>
+  </si>
+  <si>
+    <t>Enmity</t>
+  </si>
+  <si>
+    <t>Variant (0.95~1.05)</t>
+  </si>
+  <si>
+    <t>Break? (0 / 1)</t>
+  </si>
+  <si>
+    <t>Change Rate</t>
+  </si>
+  <si>
+    <t>DEF Var</t>
+  </si>
+  <si>
+    <t>Bog? (0 / 1)</t>
+  </si>
+  <si>
+    <t>Other Bracket</t>
+  </si>
+  <si>
+    <t>Damage</t>
+  </si>
+  <si>
+    <t>E @ 30% Pun</t>
+  </si>
+  <si>
+    <t>E @ 45% Pun</t>
+  </si>
+  <si>
+    <t>No E @ 45% Pun - C 130</t>
+  </si>
+  <si>
+    <t>No E @ 45% Pun - 145</t>
   </si>
 </sst>
 </file>
@@ -735,7 +697,7 @@
     <numFmt numFmtId="166" formatCode="0.0000%"/>
     <numFmt numFmtId="167" formatCode="\+0.00%;\-0.00%"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -827,21 +789,6 @@
     <font>
       <b/>
       <sz val="20"/>
-      <color theme="7" tint="0.59999389629810485"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="7" tint="0.59999389629810485"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="7" tint="0.59999389629810485"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1441,7 +1388,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="221">
+  <cellXfs count="223">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1809,12 +1756,6 @@
     <xf numFmtId="10" fontId="2" fillId="44" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="16" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="5" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1854,6 +1795,12 @@
     <xf numFmtId="10" fontId="5" fillId="15" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="41" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1896,12 +1843,84 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="4" fontId="5" fillId="35" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="35" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="48" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="48" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="14" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="14" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="23" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="23" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="23" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="4" fontId="5" fillId="28" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="5" fillId="28" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="4" fontId="5" fillId="30" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="30" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="30" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="32" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="32" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1914,19 +1933,34 @@
     <xf numFmtId="0" fontId="5" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="23" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="23" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="23" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="21" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="21" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="17" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1944,40 +1978,22 @@
     <xf numFmtId="0" fontId="5" fillId="36" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="21" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="21" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="46" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="46" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1986,73 +2002,10 @@
     <xf numFmtId="0" fontId="6" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="14" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="14" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="30" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="30" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="30" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="32" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="32" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="35" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="35" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="46" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="46" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="48" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="48" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2112,6 +2065,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF1B0C26"/>
       <color rgb="FF242300"/>
       <color rgb="FF483000"/>
       <color rgb="FF003217"/>
@@ -2120,7 +2074,6 @@
       <color rgb="FF240000"/>
       <color rgb="FF030024"/>
       <color rgb="FF323100"/>
-      <color rgb="FF1B0C26"/>
       <color rgb="FF000C24"/>
     </mruColors>
   </colors>
@@ -2438,21 +2391,6 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="B5" dT="2020-10-09T14:25:11.51" personId="{ABEC8F12-B0D3-44BC-AF35-B8DCE860105B}" id="{CB8FB53A-6734-48F6-BA34-94AD79DA4E09}">
-    <text>【護符被動、龍被動】
-裝備時，遊戲內顯示出的改變後的 ATK，例如: 滿血
-【主條件】
-滿血、0 Combo</text>
-  </threadedComment>
-  <threadedComment ref="B6" dT="2020-10-10T04:01:10.20" personId="{ABEC8F12-B0D3-44BC-AF35-B8DCE860105B}" id="{53B2D701-BABF-4409-A1F2-841A52005360}">
-    <text>【護符被動、龍被動】
-HP 70%、疾風怒濤...等</text>
-  </threadedComment>
-</ThreadedComments>
-</file>
-
-<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
-<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <threadedComment ref="B5" dT="2020-10-09T14:25:11.51" personId="{ABEC8F12-B0D3-44BC-AF35-B8DCE860105B}" id="{ED694F4C-CBA5-4DCA-BDE8-23901C6128BC}">
     <text>【護符被動、龍被動】
 裝備時，遊戲內顯示出的改變後的 ATK，例如: 滿血
@@ -2471,7 +2409,7 @@
   <dimension ref="A1:Y13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R5" sqref="R5"/>
+      <selection activeCell="T6" sqref="T6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2490,7 +2428,7 @@
   <sheetData>
     <row r="1" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="144" t="s">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="B1" s="145"/>
       <c r="C1" s="145"/>
@@ -2499,7 +2437,7 @@
       <c r="F1" s="145"/>
       <c r="G1" s="146"/>
       <c r="H1" s="144" t="s">
-        <v>90</v>
+        <v>61</v>
       </c>
       <c r="I1" s="145"/>
       <c r="J1" s="145"/>
@@ -2508,19 +2446,19 @@
       <c r="M1" s="145"/>
       <c r="N1" s="146"/>
       <c r="O1" s="147" t="s">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="P1" s="148"/>
       <c r="Q1" s="138" t="s">
-        <v>92</v>
+        <v>63</v>
       </c>
       <c r="R1" s="139"/>
       <c r="S1" s="140" t="s">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="T1" s="141"/>
       <c r="U1" s="142" t="s">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="V1" s="143"/>
     </row>
@@ -2529,19 +2467,19 @@
         <v>16</v>
       </c>
       <c r="B2" s="62" t="s">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="C2" s="62" t="s">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="D2" s="62" t="s">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="E2" s="62" t="s">
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="F2" s="62" t="s">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="G2" s="63" t="s">
         <v>39</v>
@@ -2550,45 +2488,45 @@
         <v>16</v>
       </c>
       <c r="I2" s="62" t="s">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="J2" s="62" t="s">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="K2" s="62" t="s">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="L2" s="62" t="s">
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="M2" s="62" t="s">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="N2" s="63" t="s">
         <v>39</v>
       </c>
       <c r="O2" s="72" t="s">
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="P2" s="73">
         <v>0</v>
       </c>
       <c r="Q2" s="59" t="s">
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="R2" s="66">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="S2" s="60" t="s">
         <v>9</v>
       </c>
       <c r="T2" s="12"/>
       <c r="U2" s="68" t="s">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="V2" s="69">
         <f>VLOOKUP(T3,$H$3:$M$13,6,FALSE)</f>
-        <v>1517.9999999999998</v>
+        <v>1320</v>
       </c>
       <c r="X2" s="57" t="s">
         <v>40</v>
@@ -2599,7 +2537,7 @@
     </row>
     <row r="3" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="B3" s="61">
         <v>150</v>
@@ -2620,31 +2558,31 @@
         <v>345</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="I3" s="61">
         <f>B3 * (1+SUM($R:$R))</f>
-        <v>172.5</v>
+        <v>150</v>
       </c>
       <c r="J3" s="61">
         <f t="shared" ref="J3:J13" si="0">C3 * (1+SUM($R:$R))</f>
-        <v>345</v>
+        <v>300</v>
       </c>
       <c r="K3" s="61">
         <f t="shared" ref="K3:M10" si="1">D3 * (1+SUM($R:$R))</f>
-        <v>570.4</v>
+        <v>496</v>
       </c>
       <c r="L3" s="61">
         <f t="shared" si="1"/>
-        <v>875.15</v>
+        <v>761</v>
       </c>
       <c r="M3" s="61">
         <f t="shared" si="1"/>
-        <v>1324.8</v>
+        <v>1152</v>
       </c>
       <c r="N3" s="58">
         <f t="shared" ref="N3:N13" si="2">G3 * (1+SUM($R:$R))</f>
-        <v>396.74999999999994</v>
+        <v>345</v>
       </c>
       <c r="O3" s="72" t="s">
         <v>17</v>
@@ -2659,28 +2597,28 @@
         <v>0</v>
       </c>
       <c r="S3" s="60" t="s">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="T3" s="13" t="s">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="U3" s="68" t="s">
-        <v>99</v>
+        <v>70</v>
       </c>
       <c r="V3" s="69">
         <f>MOD(T6, V2)</f>
-        <v>1074.0000000000005</v>
+        <v>220</v>
       </c>
       <c r="W3" s="57" t="s">
         <v>39</v>
       </c>
       <c r="X3" s="57" t="b">
         <f>AND(V3 &gt; 0, V3 &lt;= VLOOKUP($T$3,$H$3:$N$13,7,FALSE))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y3" s="57" t="b">
         <f>AND(V4 &gt; 0, V4 &lt;= VLOOKUP($T$3,$H$3:$N$13,7,FALSE))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2710,55 +2648,55 @@
       </c>
       <c r="I4" s="61">
         <f t="shared" ref="I4:I13" si="3">B4 * (1+SUM($R:$R))</f>
-        <v>149.5</v>
+        <v>130</v>
       </c>
       <c r="J4" s="61">
         <f t="shared" si="0"/>
-        <v>299</v>
+        <v>260</v>
       </c>
       <c r="K4" s="61">
         <f t="shared" si="1"/>
-        <v>552</v>
+        <v>480</v>
       </c>
       <c r="L4" s="61">
         <f t="shared" si="1"/>
-        <v>965.99999999999989</v>
+        <v>840</v>
       </c>
       <c r="M4" s="61">
         <f t="shared" si="1"/>
-        <v>2000.9999999999998</v>
+        <v>1740</v>
       </c>
       <c r="N4" s="58">
         <f t="shared" si="2"/>
-        <v>229.99999999999997</v>
+        <v>200</v>
       </c>
       <c r="O4" s="72" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="P4" s="73">
         <v>0</v>
       </c>
       <c r="Q4" s="59" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="R4" s="66">
         <v>0</v>
       </c>
       <c r="S4" s="60" t="s">
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="T4" s="13">
-        <v>4110</v>
+        <v>2860</v>
       </c>
       <c r="U4" s="68" t="s">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="V4" s="69">
         <f>MOD(T7, V2)</f>
-        <v>1503.0000000000023</v>
+        <v>165</v>
       </c>
       <c r="W4" s="57" t="s">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="X4" s="57" t="b">
         <f>AND(V3 &gt; VLOOKUP($T$3,$H$3:$M$13,1,FALSE),V3 &lt;= VLOOKUP($T$3,$H$3:$M$13,2,FALSE))</f>
@@ -2771,7 +2709,7 @@
     </row>
     <row r="5" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="B5" s="61">
         <v>144</v>
@@ -2792,72 +2730,72 @@
         <v>288</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="I5" s="61">
         <f t="shared" si="3"/>
-        <v>165.6</v>
+        <v>144</v>
       </c>
       <c r="J5" s="61">
         <f t="shared" si="0"/>
-        <v>331.2</v>
+        <v>288</v>
       </c>
       <c r="K5" s="61">
         <f t="shared" si="1"/>
-        <v>634.79999999999995</v>
+        <v>552</v>
       </c>
       <c r="L5" s="61">
         <f t="shared" si="1"/>
-        <v>965.99999999999989</v>
+        <v>840</v>
       </c>
       <c r="M5" s="61">
         <f t="shared" si="1"/>
-        <v>1517.9999999999998</v>
+        <v>1320</v>
       </c>
       <c r="N5" s="58">
         <f t="shared" si="2"/>
-        <v>331.2</v>
+        <v>288</v>
       </c>
       <c r="O5" s="72" t="s">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="P5" s="73">
         <v>0</v>
       </c>
       <c r="Q5" s="59" t="s">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="R5" s="66">
         <v>0</v>
       </c>
       <c r="S5" s="60" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
       <c r="T5" s="13">
-        <v>16683</v>
+        <v>10725</v>
       </c>
       <c r="U5" s="70" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="V5" s="71" t="str" cm="1">
         <f t="array" ref="V5">(ROUNDDOWN(T6/V2, 0) + IF(X8,1,0)) &amp; _xlfn.IFS(X3, " + FS", X4, " + C1", X5, " + C2", X6, " + C3", X7, " + C4", TRUE, "")</f>
-        <v>3</v>
+        <v>2 + FS</v>
       </c>
       <c r="W5" s="57" t="s">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="X5" s="57" t="b">
         <f>AND(V3&gt;VLOOKUP($T$3,$H$3:$M$13,2,FALSE),V3&lt;=VLOOKUP($T$3,$H$3:$M$13,3,FALSE))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y5" s="57" t="b">
         <f>AND(V4&gt;=VLOOKUP($T$3,$H$3:$M$13,2,FALSE),V4&lt;VLOOKUP($T$3,$H$3:$M$13,3,FALSE))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="B6" s="61">
         <v>200</v>
@@ -2878,48 +2816,48 @@
         <v>300</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="I6" s="61">
         <f t="shared" si="3"/>
-        <v>229.99999999999997</v>
+        <v>200</v>
       </c>
       <c r="J6" s="61">
         <f t="shared" si="0"/>
-        <v>505.99999999999994</v>
+        <v>440</v>
       </c>
       <c r="K6" s="61">
         <f t="shared" si="1"/>
-        <v>919.99999999999989</v>
+        <v>800</v>
       </c>
       <c r="L6" s="61">
         <f t="shared" si="1"/>
-        <v>1357</v>
+        <v>1180</v>
       </c>
       <c r="M6" s="61">
         <f t="shared" si="1"/>
-        <v>1839.9999999999998</v>
+        <v>1600</v>
       </c>
       <c r="N6" s="58">
         <f t="shared" si="2"/>
-        <v>345</v>
+        <v>300</v>
       </c>
       <c r="S6" s="75" t="s">
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="T6" s="76">
         <f>T4 * (1 - SUM(P:P))</f>
-        <v>4110</v>
+        <v>2860</v>
       </c>
       <c r="U6" s="77" t="s">
-        <v>98</v>
+        <v>69</v>
       </c>
       <c r="V6" s="71" t="str" cm="1">
         <f t="array" ref="V6">(ROUNDDOWN(T7/V2, 0) + IF(Y8,1,0)) &amp; _xlfn.IFS(Y3, " + FS", Y4, " + C1", Y5, " + C2", Y6, " + C3", Y7, " + C4", TRUE, "")</f>
-        <v>11</v>
+        <v>8 + FS</v>
       </c>
       <c r="W6" s="57" t="s">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="X6" s="57" t="b">
         <f>AND(V3 &gt; VLOOKUP($T$3,$H$3:$M$13,3,FALSE),V3 &lt;= VLOOKUP($T$3,$H$3:$M$13,4,FALSE))</f>
@@ -2932,7 +2870,7 @@
     </row>
     <row r="7" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="B7" s="61">
         <v>120</v>
@@ -2953,41 +2891,41 @@
         <v>400</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="I7" s="61">
         <f t="shared" si="3"/>
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="J7" s="61">
         <f t="shared" si="0"/>
-        <v>413.99999999999994</v>
+        <v>360</v>
       </c>
       <c r="K7" s="61">
         <f t="shared" si="1"/>
-        <v>552</v>
+        <v>480</v>
       </c>
       <c r="L7" s="61">
         <f t="shared" si="1"/>
-        <v>1104</v>
+        <v>960</v>
       </c>
       <c r="M7" s="61">
         <f t="shared" si="1"/>
-        <v>1793.9999999999998</v>
+        <v>1560</v>
       </c>
       <c r="N7" s="58">
         <f t="shared" si="2"/>
-        <v>459.99999999999994</v>
+        <v>400</v>
       </c>
       <c r="S7" s="75" t="s">
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="T7" s="76">
         <f>T5 * (1 - SUM(P:P))</f>
-        <v>16683</v>
+        <v>10725</v>
       </c>
       <c r="W7" s="57" t="s">
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="X7" s="57" t="b">
         <f>AND(V3 &gt; VLOOKUP($T$3,$H$3:$M$13,4,FALSE),V3 &lt;= VLOOKUP($T$3,$H$3:$M$13,5,FALSE))</f>
@@ -3000,7 +2938,7 @@
     </row>
     <row r="8" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="B8" s="61">
         <v>184</v>
@@ -3021,42 +2959,42 @@
         <v>460</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="I8" s="61">
         <f t="shared" si="3"/>
-        <v>211.6</v>
+        <v>184</v>
       </c>
       <c r="J8" s="61">
         <f t="shared" si="0"/>
-        <v>317.39999999999998</v>
+        <v>276</v>
       </c>
       <c r="K8" s="61">
         <f t="shared" si="1"/>
-        <v>634.79999999999995</v>
+        <v>552</v>
       </c>
       <c r="L8" s="61">
         <f t="shared" si="1"/>
-        <v>1110.8999999999999</v>
+        <v>966</v>
       </c>
       <c r="M8" s="61">
         <f t="shared" si="1"/>
-        <v>1719.2499999999998</v>
+        <v>1495</v>
       </c>
       <c r="N8" s="58">
         <f t="shared" si="2"/>
-        <v>529</v>
+        <v>460</v>
       </c>
       <c r="W8" s="57" t="s">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="X8" s="57" t="b">
         <f>V3&gt;VLOOKUP($T$3,$H$3:$M$13,5,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y8" s="57" t="b">
         <f>V4&gt;VLOOKUP($T$3,$H$3:$M$13,5,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3086,27 +3024,27 @@
       </c>
       <c r="I9" s="61">
         <f t="shared" si="3"/>
-        <v>149.5</v>
+        <v>130</v>
       </c>
       <c r="J9" s="61">
         <f t="shared" si="0"/>
-        <v>379.49999999999994</v>
+        <v>330</v>
       </c>
       <c r="K9" s="61">
         <f t="shared" si="1"/>
-        <v>655.5</v>
+        <v>570</v>
       </c>
       <c r="L9" s="61">
         <f t="shared" si="1"/>
-        <v>1150</v>
+        <v>1000</v>
       </c>
       <c r="M9" s="61">
         <f t="shared" si="1"/>
-        <v>1839.9999999999998</v>
+        <v>1600</v>
       </c>
       <c r="N9" s="58">
         <f t="shared" si="2"/>
-        <v>459.99999999999994</v>
+        <v>400</v>
       </c>
       <c r="W9" s="57"/>
       <c r="X9" s="57"/>
@@ -3114,7 +3052,7 @@
     </row>
     <row r="10" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="B10" s="61">
         <v>232</v>
@@ -3135,36 +3073,36 @@
         <v>580</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="I10" s="61">
         <f t="shared" si="3"/>
-        <v>266.79999999999995</v>
+        <v>232</v>
       </c>
       <c r="J10" s="61">
         <f t="shared" si="0"/>
-        <v>533.59999999999991</v>
+        <v>464</v>
       </c>
       <c r="K10" s="61">
         <f t="shared" si="1"/>
-        <v>933.8</v>
+        <v>812</v>
       </c>
       <c r="L10" s="61">
         <f t="shared" si="1"/>
-        <v>1467.3999999999999</v>
+        <v>1276</v>
       </c>
       <c r="M10" s="61">
         <f t="shared" si="1"/>
-        <v>2267.7999999999997</v>
+        <v>1972</v>
       </c>
       <c r="N10" s="58">
         <f t="shared" si="2"/>
-        <v>667</v>
+        <v>580</v>
       </c>
     </row>
     <row r="11" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="B11" s="61">
         <v>545</v>
@@ -3179,27 +3117,27 @@
         <v>400</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="I11" s="61">
         <f t="shared" si="3"/>
-        <v>626.75</v>
+        <v>545</v>
       </c>
       <c r="J11" s="61">
         <f t="shared" si="0"/>
-        <v>1253.5</v>
+        <v>1090</v>
       </c>
       <c r="K11" s="61"/>
       <c r="L11" s="61"/>
       <c r="M11" s="61"/>
       <c r="N11" s="58">
         <f t="shared" si="2"/>
-        <v>459.99999999999994</v>
+        <v>400</v>
       </c>
     </row>
     <row r="12" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>178</v>
+        <v>149</v>
       </c>
       <c r="B12" s="61">
         <v>340</v>
@@ -3214,27 +3152,27 @@
         <v>400</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>178</v>
+        <v>149</v>
       </c>
       <c r="I12" s="61">
         <f t="shared" si="3"/>
-        <v>390.99999999999994</v>
+        <v>340</v>
       </c>
       <c r="J12" s="61">
         <f t="shared" si="0"/>
-        <v>781.99999999999989</v>
+        <v>680</v>
       </c>
       <c r="K12" s="61"/>
       <c r="L12" s="61"/>
       <c r="M12" s="61"/>
       <c r="N12" s="58">
         <f t="shared" si="2"/>
-        <v>459.99999999999994</v>
+        <v>400</v>
       </c>
     </row>
     <row r="13" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>177</v>
+        <v>148</v>
       </c>
       <c r="B13" s="61">
         <v>200</v>
@@ -3251,25 +3189,25 @@
         <v>90</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>177</v>
+        <v>148</v>
       </c>
       <c r="I13" s="61">
         <f t="shared" si="3"/>
-        <v>229.99999999999997</v>
+        <v>200</v>
       </c>
       <c r="J13" s="61">
         <f t="shared" si="0"/>
-        <v>459.99999999999994</v>
+        <v>400</v>
       </c>
       <c r="K13" s="61">
         <f>D13 * (1+SUM($R:$R))</f>
-        <v>690</v>
+        <v>600</v>
       </c>
       <c r="L13" s="61"/>
       <c r="M13" s="61"/>
       <c r="N13" s="58">
         <f t="shared" si="2"/>
-        <v>103.49999999999999</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -3283,1686 +3221,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67061BFE-6F76-4E7B-9ED9-42BA29E49AED}">
-  <dimension ref="A1:L42"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11.42578125" style="103" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="93"/>
-    <col min="3" max="3" width="2.42578125" style="93" customWidth="1"/>
-    <col min="4" max="4" width="4.140625" style="104" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" style="104" customWidth="1"/>
-    <col min="6" max="6" width="8.5703125" style="104" customWidth="1"/>
-    <col min="7" max="7" width="8.140625" style="104" customWidth="1"/>
-    <col min="8" max="9" width="10.5703125" style="104" customWidth="1"/>
-    <col min="10" max="10" width="6.85546875" style="105" customWidth="1"/>
-    <col min="11" max="11" width="10.5703125" style="116" customWidth="1"/>
-    <col min="12" max="12" width="7.28515625" style="118" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="93"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" s="103" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="110" t="s">
-        <v>163</v>
-      </c>
-      <c r="B1" s="110">
-        <v>3</v>
-      </c>
-      <c r="D1" s="110" t="s">
-        <v>158</v>
-      </c>
-      <c r="E1" s="110" t="s">
-        <v>159</v>
-      </c>
-      <c r="F1" s="110" t="s">
-        <v>160</v>
-      </c>
-      <c r="G1" s="110" t="s">
-        <v>172</v>
-      </c>
-      <c r="H1" s="110" t="s">
-        <v>161</v>
-      </c>
-      <c r="I1" s="110" t="s">
-        <v>165</v>
-      </c>
-      <c r="J1" s="111" t="s">
-        <v>166</v>
-      </c>
-      <c r="K1" s="115" t="s">
-        <v>173</v>
-      </c>
-      <c r="L1" s="117" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="110" t="s">
-        <v>162</v>
-      </c>
-      <c r="B2" s="112">
-        <v>0.09</v>
-      </c>
-      <c r="D2" s="104">
-        <v>1</v>
-      </c>
-      <c r="E2" s="104">
-        <f>$B$1*D2</f>
-        <v>3</v>
-      </c>
-      <c r="F2" s="106">
-        <f t="shared" ref="F2:F42" si="0">$B$2+$B$6*_xlfn.FLOOR.MATH(E2/$B$3)</f>
-        <v>0.09</v>
-      </c>
-      <c r="G2" s="106">
-        <f>F2/$B$1</f>
-        <v>0.03</v>
-      </c>
-      <c r="H2" s="106">
-        <f>SUM($F$2:F2)</f>
-        <v>0.09</v>
-      </c>
-      <c r="I2" s="107">
-        <f>H2/E2</f>
-        <v>0.03</v>
-      </c>
-      <c r="J2" s="105">
-        <f>1/I2</f>
-        <v>33.333333333333336</v>
-      </c>
-      <c r="K2" s="116">
-        <f>IF($B$13-G2&gt;0,"",$B$13-G2)</f>
-        <v>-1.9230769230769232E-2</v>
-      </c>
-      <c r="L2" s="118">
-        <f>IF(ISNUMBER(K2),-1/K2,"")</f>
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="110" t="s">
-        <v>156</v>
-      </c>
-      <c r="B3" s="104">
-        <v>12.2</v>
-      </c>
-      <c r="D3" s="104">
-        <f>D2+1</f>
-        <v>2</v>
-      </c>
-      <c r="E3" s="104">
-        <f>$B$1*D3</f>
-        <v>6</v>
-      </c>
-      <c r="F3" s="106">
-        <f t="shared" si="0"/>
-        <v>0.09</v>
-      </c>
-      <c r="G3" s="106">
-        <f t="shared" ref="G3:G42" si="1">F3/$B$1</f>
-        <v>0.03</v>
-      </c>
-      <c r="H3" s="106">
-        <f>SUM($F$2:F3)</f>
-        <v>0.18</v>
-      </c>
-      <c r="I3" s="107">
-        <f t="shared" ref="I3:I35" si="2">H3/E3</f>
-        <v>0.03</v>
-      </c>
-      <c r="J3" s="105">
-        <f t="shared" ref="J3:J42" si="3">1/I3</f>
-        <v>33.333333333333336</v>
-      </c>
-      <c r="K3" s="116">
-        <f t="shared" ref="K3:K35" si="4">IF($B$13-G3&gt;0,"",$B$13-G3)</f>
-        <v>-1.9230769230769232E-2</v>
-      </c>
-      <c r="L3" s="118">
-        <f t="shared" ref="L3:L42" si="5">IF(ISNUMBER(K3),-1/K3,"")</f>
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="110" t="s">
-        <v>157</v>
-      </c>
-      <c r="B4" s="112">
-        <v>0.3</v>
-      </c>
-      <c r="D4" s="104">
-        <f t="shared" ref="D4:D15" si="6">D3+1</f>
-        <v>3</v>
-      </c>
-      <c r="E4" s="104">
-        <f t="shared" ref="E4:E20" si="7">$B$1*D4</f>
-        <v>9</v>
-      </c>
-      <c r="F4" s="106">
-        <f t="shared" si="0"/>
-        <v>0.09</v>
-      </c>
-      <c r="G4" s="106">
-        <f t="shared" si="1"/>
-        <v>0.03</v>
-      </c>
-      <c r="H4" s="106">
-        <f>SUM($F$2:F4)</f>
-        <v>0.27</v>
-      </c>
-      <c r="I4" s="107">
-        <f t="shared" si="2"/>
-        <v>3.0000000000000002E-2</v>
-      </c>
-      <c r="J4" s="105">
-        <f t="shared" si="3"/>
-        <v>33.333333333333329</v>
-      </c>
-      <c r="K4" s="116">
-        <f t="shared" si="4"/>
-        <v>-1.9230769230769232E-2</v>
-      </c>
-      <c r="L4" s="118">
-        <f t="shared" si="5"/>
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D5" s="104">
-        <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="E5" s="104">
-        <f t="shared" si="7"/>
-        <v>12</v>
-      </c>
-      <c r="F5" s="106">
-        <f t="shared" si="0"/>
-        <v>0.09</v>
-      </c>
-      <c r="G5" s="106">
-        <f t="shared" si="1"/>
-        <v>0.03</v>
-      </c>
-      <c r="H5" s="106">
-        <f>SUM($F$2:F5)</f>
-        <v>0.36</v>
-      </c>
-      <c r="I5" s="107">
-        <f t="shared" si="2"/>
-        <v>0.03</v>
-      </c>
-      <c r="J5" s="105">
-        <f t="shared" si="3"/>
-        <v>33.333333333333336</v>
-      </c>
-      <c r="K5" s="116">
-        <f t="shared" si="4"/>
-        <v>-1.9230769230769232E-2</v>
-      </c>
-      <c r="L5" s="118">
-        <f t="shared" si="5"/>
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="103" t="s">
-        <v>164</v>
-      </c>
-      <c r="B6" s="97">
-        <f>B2*B4</f>
-        <v>2.7E-2</v>
-      </c>
-      <c r="D6" s="104">
-        <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-      <c r="E6" s="104">
-        <f t="shared" si="7"/>
-        <v>15</v>
-      </c>
-      <c r="F6" s="106">
-        <f t="shared" si="0"/>
-        <v>0.11699999999999999</v>
-      </c>
-      <c r="G6" s="106">
-        <f t="shared" si="1"/>
-        <v>3.9E-2</v>
-      </c>
-      <c r="H6" s="106">
-        <f>SUM($F$2:F6)</f>
-        <v>0.47699999999999998</v>
-      </c>
-      <c r="I6" s="107">
-        <f t="shared" si="2"/>
-        <v>3.1800000000000002E-2</v>
-      </c>
-      <c r="J6" s="105">
-        <f t="shared" si="3"/>
-        <v>31.446540880503143</v>
-      </c>
-      <c r="K6" s="116">
-        <f t="shared" si="4"/>
-        <v>-2.8230769230769233E-2</v>
-      </c>
-      <c r="L6" s="118">
-        <f t="shared" si="5"/>
-        <v>35.422343324250676</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D7" s="104">
-        <f t="shared" si="6"/>
-        <v>6</v>
-      </c>
-      <c r="E7" s="104">
-        <f t="shared" si="7"/>
-        <v>18</v>
-      </c>
-      <c r="F7" s="106">
-        <f t="shared" si="0"/>
-        <v>0.11699999999999999</v>
-      </c>
-      <c r="G7" s="106">
-        <f t="shared" si="1"/>
-        <v>3.9E-2</v>
-      </c>
-      <c r="H7" s="106">
-        <f>SUM($F$2:F7)</f>
-        <v>0.59399999999999997</v>
-      </c>
-      <c r="I7" s="107">
-        <f t="shared" si="2"/>
-        <v>3.3000000000000002E-2</v>
-      </c>
-      <c r="J7" s="105">
-        <f t="shared" si="3"/>
-        <v>30.303030303030301</v>
-      </c>
-      <c r="K7" s="116">
-        <f t="shared" si="4"/>
-        <v>-2.8230769230769233E-2</v>
-      </c>
-      <c r="L7" s="118">
-        <f t="shared" si="5"/>
-        <v>35.422343324250676</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="65" t="s">
-        <v>167</v>
-      </c>
-      <c r="B8" s="113">
-        <v>3.9</v>
-      </c>
-      <c r="C8" s="97"/>
-      <c r="D8" s="104">
-        <f t="shared" si="6"/>
-        <v>7</v>
-      </c>
-      <c r="E8" s="104">
-        <f t="shared" si="7"/>
-        <v>21</v>
-      </c>
-      <c r="F8" s="106">
-        <f t="shared" si="0"/>
-        <v>0.11699999999999999</v>
-      </c>
-      <c r="G8" s="106">
-        <f t="shared" si="1"/>
-        <v>3.9E-2</v>
-      </c>
-      <c r="H8" s="106">
-        <f>SUM($F$2:F8)</f>
-        <v>0.71099999999999997</v>
-      </c>
-      <c r="I8" s="107">
-        <f t="shared" si="2"/>
-        <v>3.3857142857142856E-2</v>
-      </c>
-      <c r="J8" s="105">
-        <f t="shared" si="3"/>
-        <v>29.535864978902953</v>
-      </c>
-      <c r="K8" s="116">
-        <f t="shared" si="4"/>
-        <v>-2.8230769230769233E-2</v>
-      </c>
-      <c r="L8" s="118">
-        <f t="shared" si="5"/>
-        <v>35.422343324250676</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="65" t="s">
-        <v>168</v>
-      </c>
-      <c r="B9" s="114">
-        <v>0.06</v>
-      </c>
-      <c r="D9" s="104">
-        <f t="shared" si="6"/>
-        <v>8</v>
-      </c>
-      <c r="E9" s="104">
-        <f t="shared" si="7"/>
-        <v>24</v>
-      </c>
-      <c r="F9" s="106">
-        <f t="shared" si="0"/>
-        <v>0.11699999999999999</v>
-      </c>
-      <c r="G9" s="106">
-        <f t="shared" si="1"/>
-        <v>3.9E-2</v>
-      </c>
-      <c r="H9" s="106">
-        <f>SUM($F$2:F9)</f>
-        <v>0.82799999999999996</v>
-      </c>
-      <c r="I9" s="107">
-        <f t="shared" si="2"/>
-        <v>3.4499999999999996E-2</v>
-      </c>
-      <c r="J9" s="105">
-        <f t="shared" si="3"/>
-        <v>28.985507246376816</v>
-      </c>
-      <c r="K9" s="116">
-        <f t="shared" si="4"/>
-        <v>-2.8230769230769233E-2</v>
-      </c>
-      <c r="L9" s="118">
-        <f t="shared" si="5"/>
-        <v>35.422343324250676</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="65" t="s">
-        <v>169</v>
-      </c>
-      <c r="B10" s="114">
-        <v>0.3</v>
-      </c>
-      <c r="D10" s="104">
-        <f t="shared" si="6"/>
-        <v>9</v>
-      </c>
-      <c r="E10" s="104">
-        <f t="shared" si="7"/>
-        <v>27</v>
-      </c>
-      <c r="F10" s="106">
-        <f t="shared" si="0"/>
-        <v>0.14399999999999999</v>
-      </c>
-      <c r="G10" s="106">
-        <f t="shared" si="1"/>
-        <v>4.7999999999999994E-2</v>
-      </c>
-      <c r="H10" s="106">
-        <f>SUM($F$2:F10)</f>
-        <v>0.97199999999999998</v>
-      </c>
-      <c r="I10" s="107">
-        <f t="shared" si="2"/>
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="J10" s="105">
-        <f t="shared" si="3"/>
-        <v>27.777777777777779</v>
-      </c>
-      <c r="K10" s="116">
-        <f t="shared" si="4"/>
-        <v>-3.7230769230769227E-2</v>
-      </c>
-      <c r="L10" s="118">
-        <f t="shared" si="5"/>
-        <v>26.859504132231407</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="108"/>
-      <c r="D11" s="104">
-        <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-      <c r="E11" s="104">
-        <f t="shared" si="7"/>
-        <v>30</v>
-      </c>
-      <c r="F11" s="106">
-        <f t="shared" si="0"/>
-        <v>0.14399999999999999</v>
-      </c>
-      <c r="G11" s="106">
-        <f t="shared" si="1"/>
-        <v>4.7999999999999994E-2</v>
-      </c>
-      <c r="H11" s="106">
-        <f>SUM($F$2:F11)</f>
-        <v>1.1159999999999999</v>
-      </c>
-      <c r="I11" s="107">
-        <f t="shared" si="2"/>
-        <v>3.7199999999999997E-2</v>
-      </c>
-      <c r="J11" s="105">
-        <f t="shared" si="3"/>
-        <v>26.881720430107528</v>
-      </c>
-      <c r="K11" s="116">
-        <f t="shared" si="4"/>
-        <v>-3.7230769230769227E-2</v>
-      </c>
-      <c r="L11" s="118">
-        <f t="shared" si="5"/>
-        <v>26.859504132231407</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="103" t="s">
-        <v>170</v>
-      </c>
-      <c r="B12" s="97">
-        <f>B9*(1-B10)</f>
-        <v>4.1999999999999996E-2</v>
-      </c>
-      <c r="D12" s="104">
-        <f t="shared" si="6"/>
-        <v>11</v>
-      </c>
-      <c r="E12" s="104">
-        <f t="shared" si="7"/>
-        <v>33</v>
-      </c>
-      <c r="F12" s="106">
-        <f t="shared" si="0"/>
-        <v>0.14399999999999999</v>
-      </c>
-      <c r="G12" s="106">
-        <f t="shared" si="1"/>
-        <v>4.7999999999999994E-2</v>
-      </c>
-      <c r="H12" s="106">
-        <f>SUM($F$2:F12)</f>
-        <v>1.2599999999999998</v>
-      </c>
-      <c r="I12" s="107">
-        <f t="shared" si="2"/>
-        <v>3.8181818181818178E-2</v>
-      </c>
-      <c r="J12" s="105">
-        <f t="shared" si="3"/>
-        <v>26.190476190476193</v>
-      </c>
-      <c r="K12" s="116">
-        <f t="shared" si="4"/>
-        <v>-3.7230769230769227E-2</v>
-      </c>
-      <c r="L12" s="118">
-        <f t="shared" si="5"/>
-        <v>26.859504132231407</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="103" t="s">
-        <v>171</v>
-      </c>
-      <c r="B13" s="109">
-        <f>B12/B8</f>
-        <v>1.0769230769230769E-2</v>
-      </c>
-      <c r="D13" s="104">
-        <f t="shared" si="6"/>
-        <v>12</v>
-      </c>
-      <c r="E13" s="104">
-        <f t="shared" si="7"/>
-        <v>36</v>
-      </c>
-      <c r="F13" s="106">
-        <f t="shared" si="0"/>
-        <v>0.14399999999999999</v>
-      </c>
-      <c r="G13" s="106">
-        <f t="shared" si="1"/>
-        <v>4.7999999999999994E-2</v>
-      </c>
-      <c r="H13" s="106">
-        <f>SUM($F$2:F13)</f>
-        <v>1.4039999999999997</v>
-      </c>
-      <c r="I13" s="107">
-        <f t="shared" si="2"/>
-        <v>3.8999999999999993E-2</v>
-      </c>
-      <c r="J13" s="105">
-        <f t="shared" si="3"/>
-        <v>25.641025641025646</v>
-      </c>
-      <c r="K13" s="116">
-        <f t="shared" si="4"/>
-        <v>-3.7230769230769227E-2</v>
-      </c>
-      <c r="L13" s="118">
-        <f t="shared" si="5"/>
-        <v>26.859504132231407</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D14" s="104">
-        <f t="shared" si="6"/>
-        <v>13</v>
-      </c>
-      <c r="E14" s="104">
-        <f t="shared" si="7"/>
-        <v>39</v>
-      </c>
-      <c r="F14" s="106">
-        <f t="shared" si="0"/>
-        <v>0.17099999999999999</v>
-      </c>
-      <c r="G14" s="106">
-        <f t="shared" si="1"/>
-        <v>5.6999999999999995E-2</v>
-      </c>
-      <c r="H14" s="106">
-        <f>SUM($F$2:F14)</f>
-        <v>1.5749999999999997</v>
-      </c>
-      <c r="I14" s="107">
-        <f t="shared" si="2"/>
-        <v>4.038461538461538E-2</v>
-      </c>
-      <c r="J14" s="105">
-        <f t="shared" si="3"/>
-        <v>24.761904761904766</v>
-      </c>
-      <c r="K14" s="116">
-        <f t="shared" si="4"/>
-        <v>-4.6230769230769228E-2</v>
-      </c>
-      <c r="L14" s="118">
-        <f t="shared" si="5"/>
-        <v>21.630615640599004</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D15" s="104">
-        <f t="shared" si="6"/>
-        <v>14</v>
-      </c>
-      <c r="E15" s="104">
-        <f t="shared" si="7"/>
-        <v>42</v>
-      </c>
-      <c r="F15" s="106">
-        <f t="shared" si="0"/>
-        <v>0.17099999999999999</v>
-      </c>
-      <c r="G15" s="106">
-        <f t="shared" si="1"/>
-        <v>5.6999999999999995E-2</v>
-      </c>
-      <c r="H15" s="106">
-        <f>SUM($F$2:F15)</f>
-        <v>1.7459999999999998</v>
-      </c>
-      <c r="I15" s="107">
-        <f t="shared" si="2"/>
-        <v>4.1571428571428565E-2</v>
-      </c>
-      <c r="J15" s="105">
-        <f t="shared" si="3"/>
-        <v>24.054982817869419</v>
-      </c>
-      <c r="K15" s="116">
-        <f t="shared" si="4"/>
-        <v>-4.6230769230769228E-2</v>
-      </c>
-      <c r="L15" s="118">
-        <f t="shared" si="5"/>
-        <v>21.630615640599004</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D16" s="104">
-        <f t="shared" ref="D16:D42" si="8">D15+1</f>
-        <v>15</v>
-      </c>
-      <c r="E16" s="104">
-        <f t="shared" si="7"/>
-        <v>45</v>
-      </c>
-      <c r="F16" s="106">
-        <f t="shared" si="0"/>
-        <v>0.17099999999999999</v>
-      </c>
-      <c r="G16" s="106">
-        <f t="shared" si="1"/>
-        <v>5.6999999999999995E-2</v>
-      </c>
-      <c r="H16" s="106">
-        <f>SUM($F$2:F16)</f>
-        <v>1.9169999999999998</v>
-      </c>
-      <c r="I16" s="107">
-        <f t="shared" si="2"/>
-        <v>4.2599999999999999E-2</v>
-      </c>
-      <c r="J16" s="105">
-        <f t="shared" si="3"/>
-        <v>23.474178403755868</v>
-      </c>
-      <c r="K16" s="116">
-        <f t="shared" si="4"/>
-        <v>-4.6230769230769228E-2</v>
-      </c>
-      <c r="L16" s="118">
-        <f t="shared" si="5"/>
-        <v>21.630615640599004</v>
-      </c>
-    </row>
-    <row r="17" spans="4:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D17" s="104">
-        <f t="shared" si="8"/>
-        <v>16</v>
-      </c>
-      <c r="E17" s="104">
-        <f t="shared" si="7"/>
-        <v>48</v>
-      </c>
-      <c r="F17" s="106">
-        <f t="shared" si="0"/>
-        <v>0.17099999999999999</v>
-      </c>
-      <c r="G17" s="106">
-        <f t="shared" si="1"/>
-        <v>5.6999999999999995E-2</v>
-      </c>
-      <c r="H17" s="106">
-        <f>SUM($F$2:F17)</f>
-        <v>2.0879999999999996</v>
-      </c>
-      <c r="I17" s="107">
-        <f t="shared" si="2"/>
-        <v>4.349999999999999E-2</v>
-      </c>
-      <c r="J17" s="105">
-        <f t="shared" si="3"/>
-        <v>22.988505747126442</v>
-      </c>
-      <c r="K17" s="116">
-        <f t="shared" si="4"/>
-        <v>-4.6230769230769228E-2</v>
-      </c>
-      <c r="L17" s="118">
-        <f t="shared" si="5"/>
-        <v>21.630615640599004</v>
-      </c>
-    </row>
-    <row r="18" spans="4:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D18" s="104">
-        <f t="shared" si="8"/>
-        <v>17</v>
-      </c>
-      <c r="E18" s="104">
-        <f t="shared" si="7"/>
-        <v>51</v>
-      </c>
-      <c r="F18" s="106">
-        <f t="shared" si="0"/>
-        <v>0.19800000000000001</v>
-      </c>
-      <c r="G18" s="106">
-        <f t="shared" si="1"/>
-        <v>6.6000000000000003E-2</v>
-      </c>
-      <c r="H18" s="106">
-        <f>SUM($F$2:F18)</f>
-        <v>2.2859999999999996</v>
-      </c>
-      <c r="I18" s="107">
-        <f t="shared" si="2"/>
-        <v>4.48235294117647E-2</v>
-      </c>
-      <c r="J18" s="105">
-        <f t="shared" si="3"/>
-        <v>22.309711286089243</v>
-      </c>
-      <c r="K18" s="116">
-        <f t="shared" si="4"/>
-        <v>-5.5230769230769236E-2</v>
-      </c>
-      <c r="L18" s="118">
-        <f t="shared" si="5"/>
-        <v>18.105849582172699</v>
-      </c>
-    </row>
-    <row r="19" spans="4:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D19" s="104">
-        <f t="shared" si="8"/>
-        <v>18</v>
-      </c>
-      <c r="E19" s="104">
-        <f t="shared" si="7"/>
-        <v>54</v>
-      </c>
-      <c r="F19" s="106">
-        <f t="shared" si="0"/>
-        <v>0.19800000000000001</v>
-      </c>
-      <c r="G19" s="106">
-        <f t="shared" si="1"/>
-        <v>6.6000000000000003E-2</v>
-      </c>
-      <c r="H19" s="106">
-        <f>SUM($F$2:F19)</f>
-        <v>2.4839999999999995</v>
-      </c>
-      <c r="I19" s="107">
-        <f t="shared" si="2"/>
-        <v>4.5999999999999992E-2</v>
-      </c>
-      <c r="J19" s="105">
-        <f t="shared" si="3"/>
-        <v>21.739130434782613</v>
-      </c>
-      <c r="K19" s="116">
-        <f t="shared" si="4"/>
-        <v>-5.5230769230769236E-2</v>
-      </c>
-      <c r="L19" s="118">
-        <f t="shared" si="5"/>
-        <v>18.105849582172699</v>
-      </c>
-    </row>
-    <row r="20" spans="4:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D20" s="104">
-        <f t="shared" si="8"/>
-        <v>19</v>
-      </c>
-      <c r="E20" s="104">
-        <f t="shared" si="7"/>
-        <v>57</v>
-      </c>
-      <c r="F20" s="106">
-        <f t="shared" si="0"/>
-        <v>0.19800000000000001</v>
-      </c>
-      <c r="G20" s="106">
-        <f t="shared" si="1"/>
-        <v>6.6000000000000003E-2</v>
-      </c>
-      <c r="H20" s="106">
-        <f>SUM($F$2:F20)</f>
-        <v>2.6819999999999995</v>
-      </c>
-      <c r="I20" s="107">
-        <f t="shared" si="2"/>
-        <v>4.705263157894736E-2</v>
-      </c>
-      <c r="J20" s="105">
-        <f t="shared" si="3"/>
-        <v>21.25279642058166</v>
-      </c>
-      <c r="K20" s="116">
-        <f t="shared" si="4"/>
-        <v>-5.5230769230769236E-2</v>
-      </c>
-      <c r="L20" s="118">
-        <f t="shared" si="5"/>
-        <v>18.105849582172699</v>
-      </c>
-    </row>
-    <row r="21" spans="4:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D21" s="104">
-        <f t="shared" si="8"/>
-        <v>20</v>
-      </c>
-      <c r="E21" s="104">
-        <f t="shared" ref="E21:E28" si="9">$B$1*D21</f>
-        <v>60</v>
-      </c>
-      <c r="F21" s="106">
-        <f t="shared" si="0"/>
-        <v>0.19800000000000001</v>
-      </c>
-      <c r="G21" s="106">
-        <f t="shared" si="1"/>
-        <v>6.6000000000000003E-2</v>
-      </c>
-      <c r="H21" s="106">
-        <f>SUM($F$2:F21)</f>
-        <v>2.8799999999999994</v>
-      </c>
-      <c r="I21" s="107">
-        <f t="shared" si="2"/>
-        <v>4.7999999999999994E-2</v>
-      </c>
-      <c r="J21" s="105">
-        <f t="shared" si="3"/>
-        <v>20.833333333333336</v>
-      </c>
-      <c r="K21" s="116">
-        <f t="shared" si="4"/>
-        <v>-5.5230769230769236E-2</v>
-      </c>
-      <c r="L21" s="118">
-        <f t="shared" si="5"/>
-        <v>18.105849582172699</v>
-      </c>
-    </row>
-    <row r="22" spans="4:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D22" s="104">
-        <f t="shared" si="8"/>
-        <v>21</v>
-      </c>
-      <c r="E22" s="104">
-        <f t="shared" si="9"/>
-        <v>63</v>
-      </c>
-      <c r="F22" s="106">
-        <f t="shared" si="0"/>
-        <v>0.22500000000000001</v>
-      </c>
-      <c r="G22" s="106">
-        <f t="shared" si="1"/>
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="H22" s="106">
-        <f>SUM($F$2:F22)</f>
-        <v>3.1049999999999995</v>
-      </c>
-      <c r="I22" s="107">
-        <f t="shared" si="2"/>
-        <v>4.928571428571428E-2</v>
-      </c>
-      <c r="J22" s="105">
-        <f t="shared" si="3"/>
-        <v>20.289855072463769</v>
-      </c>
-      <c r="K22" s="116">
-        <f t="shared" si="4"/>
-        <v>-6.423076923076923E-2</v>
-      </c>
-      <c r="L22" s="118">
-        <f t="shared" si="5"/>
-        <v>15.568862275449101</v>
-      </c>
-    </row>
-    <row r="23" spans="4:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D23" s="104">
-        <f t="shared" si="8"/>
-        <v>22</v>
-      </c>
-      <c r="E23" s="104">
-        <f t="shared" si="9"/>
-        <v>66</v>
-      </c>
-      <c r="F23" s="106">
-        <f t="shared" si="0"/>
-        <v>0.22500000000000001</v>
-      </c>
-      <c r="G23" s="106">
-        <f t="shared" si="1"/>
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="H23" s="106">
-        <f>SUM($F$2:F23)</f>
-        <v>3.3299999999999996</v>
-      </c>
-      <c r="I23" s="107">
-        <f t="shared" si="2"/>
-        <v>5.0454545454545446E-2</v>
-      </c>
-      <c r="J23" s="105">
-        <f t="shared" si="3"/>
-        <v>19.819819819819823</v>
-      </c>
-      <c r="K23" s="116">
-        <f t="shared" si="4"/>
-        <v>-6.423076923076923E-2</v>
-      </c>
-      <c r="L23" s="118">
-        <f t="shared" si="5"/>
-        <v>15.568862275449101</v>
-      </c>
-    </row>
-    <row r="24" spans="4:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D24" s="104">
-        <f t="shared" si="8"/>
-        <v>23</v>
-      </c>
-      <c r="E24" s="104">
-        <f t="shared" si="9"/>
-        <v>69</v>
-      </c>
-      <c r="F24" s="106">
-        <f t="shared" si="0"/>
-        <v>0.22500000000000001</v>
-      </c>
-      <c r="G24" s="106">
-        <f t="shared" si="1"/>
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="H24" s="106">
-        <f>SUM($F$2:F24)</f>
-        <v>3.5549999999999997</v>
-      </c>
-      <c r="I24" s="107">
-        <f t="shared" si="2"/>
-        <v>5.1521739130434778E-2</v>
-      </c>
-      <c r="J24" s="105">
-        <f t="shared" si="3"/>
-        <v>19.409282700421944</v>
-      </c>
-      <c r="K24" s="116">
-        <f t="shared" si="4"/>
-        <v>-6.423076923076923E-2</v>
-      </c>
-      <c r="L24" s="118">
-        <f t="shared" si="5"/>
-        <v>15.568862275449101</v>
-      </c>
-    </row>
-    <row r="25" spans="4:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D25" s="104">
-        <f t="shared" si="8"/>
-        <v>24</v>
-      </c>
-      <c r="E25" s="104">
-        <f t="shared" si="9"/>
-        <v>72</v>
-      </c>
-      <c r="F25" s="106">
-        <f t="shared" si="0"/>
-        <v>0.22500000000000001</v>
-      </c>
-      <c r="G25" s="106">
-        <f t="shared" si="1"/>
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="H25" s="106">
-        <f>SUM($F$2:F25)</f>
-        <v>3.78</v>
-      </c>
-      <c r="I25" s="107">
-        <f t="shared" si="2"/>
-        <v>5.2499999999999998E-2</v>
-      </c>
-      <c r="J25" s="105">
-        <f t="shared" si="3"/>
-        <v>19.047619047619047</v>
-      </c>
-      <c r="K25" s="116">
-        <f t="shared" si="4"/>
-        <v>-6.423076923076923E-2</v>
-      </c>
-      <c r="L25" s="118">
-        <f t="shared" si="5"/>
-        <v>15.568862275449101</v>
-      </c>
-    </row>
-    <row r="26" spans="4:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D26" s="104">
-        <f t="shared" si="8"/>
-        <v>25</v>
-      </c>
-      <c r="E26" s="104">
-        <f t="shared" si="9"/>
-        <v>75</v>
-      </c>
-      <c r="F26" s="106">
-        <f t="shared" si="0"/>
-        <v>0.252</v>
-      </c>
-      <c r="G26" s="106">
-        <f t="shared" si="1"/>
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="H26" s="106">
-        <f>SUM($F$2:F26)</f>
-        <v>4.032</v>
-      </c>
-      <c r="I26" s="107">
-        <f t="shared" si="2"/>
-        <v>5.3760000000000002E-2</v>
-      </c>
-      <c r="J26" s="105">
-        <f t="shared" si="3"/>
-        <v>18.601190476190474</v>
-      </c>
-      <c r="K26" s="116">
-        <f t="shared" si="4"/>
-        <v>-7.3230769230769238E-2</v>
-      </c>
-      <c r="L26" s="118">
-        <f t="shared" si="5"/>
-        <v>13.655462184873949</v>
-      </c>
-    </row>
-    <row r="27" spans="4:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D27" s="104">
-        <f t="shared" si="8"/>
-        <v>26</v>
-      </c>
-      <c r="E27" s="104">
-        <f t="shared" si="9"/>
-        <v>78</v>
-      </c>
-      <c r="F27" s="106">
-        <f t="shared" si="0"/>
-        <v>0.252</v>
-      </c>
-      <c r="G27" s="106">
-        <f t="shared" si="1"/>
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="H27" s="106">
-        <f>SUM($F$2:F27)</f>
-        <v>4.2839999999999998</v>
-      </c>
-      <c r="I27" s="107">
-        <f t="shared" si="2"/>
-        <v>5.4923076923076922E-2</v>
-      </c>
-      <c r="J27" s="105">
-        <f t="shared" si="3"/>
-        <v>18.207282913165265</v>
-      </c>
-      <c r="K27" s="116">
-        <f t="shared" si="4"/>
-        <v>-7.3230769230769238E-2</v>
-      </c>
-      <c r="L27" s="118">
-        <f t="shared" si="5"/>
-        <v>13.655462184873949</v>
-      </c>
-    </row>
-    <row r="28" spans="4:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D28" s="104">
-        <f t="shared" si="8"/>
-        <v>27</v>
-      </c>
-      <c r="E28" s="104">
-        <f t="shared" si="9"/>
-        <v>81</v>
-      </c>
-      <c r="F28" s="106">
-        <f t="shared" si="0"/>
-        <v>0.252</v>
-      </c>
-      <c r="G28" s="106">
-        <f t="shared" si="1"/>
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="H28" s="106">
-        <f>SUM($F$2:F28)</f>
-        <v>4.5359999999999996</v>
-      </c>
-      <c r="I28" s="107">
-        <f t="shared" si="2"/>
-        <v>5.5999999999999994E-2</v>
-      </c>
-      <c r="J28" s="105">
-        <f t="shared" si="3"/>
-        <v>17.857142857142858</v>
-      </c>
-      <c r="K28" s="116">
-        <f t="shared" si="4"/>
-        <v>-7.3230769230769238E-2</v>
-      </c>
-      <c r="L28" s="118">
-        <f t="shared" si="5"/>
-        <v>13.655462184873949</v>
-      </c>
-    </row>
-    <row r="29" spans="4:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D29" s="104">
-        <f t="shared" si="8"/>
-        <v>28</v>
-      </c>
-      <c r="E29" s="104">
-        <f t="shared" ref="E29:E35" si="10">$B$1*D29</f>
-        <v>84</v>
-      </c>
-      <c r="F29" s="106">
-        <f t="shared" si="0"/>
-        <v>0.252</v>
-      </c>
-      <c r="G29" s="106">
-        <f t="shared" si="1"/>
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="H29" s="106">
-        <f>SUM($F$2:F29)</f>
-        <v>4.7879999999999994</v>
-      </c>
-      <c r="I29" s="107">
-        <f t="shared" si="2"/>
-        <v>5.6999999999999995E-2</v>
-      </c>
-      <c r="J29" s="105">
-        <f t="shared" si="3"/>
-        <v>17.543859649122808</v>
-      </c>
-      <c r="K29" s="116">
-        <f t="shared" si="4"/>
-        <v>-7.3230769230769238E-2</v>
-      </c>
-      <c r="L29" s="118">
-        <f t="shared" si="5"/>
-        <v>13.655462184873949</v>
-      </c>
-    </row>
-    <row r="30" spans="4:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D30" s="104">
-        <f t="shared" si="8"/>
-        <v>29</v>
-      </c>
-      <c r="E30" s="104">
-        <f t="shared" si="10"/>
-        <v>87</v>
-      </c>
-      <c r="F30" s="106">
-        <f t="shared" si="0"/>
-        <v>0.27900000000000003</v>
-      </c>
-      <c r="G30" s="106">
-        <f t="shared" si="1"/>
-        <v>9.3000000000000013E-2</v>
-      </c>
-      <c r="H30" s="106">
-        <f>SUM($F$2:F30)</f>
-        <v>5.0669999999999993</v>
-      </c>
-      <c r="I30" s="107">
-        <f t="shared" si="2"/>
-        <v>5.8241379310344822E-2</v>
-      </c>
-      <c r="J30" s="105">
-        <f t="shared" si="3"/>
-        <v>17.169923031379515</v>
-      </c>
-      <c r="K30" s="116">
-        <f t="shared" si="4"/>
-        <v>-8.2230769230769246E-2</v>
-      </c>
-      <c r="L30" s="118">
-        <f t="shared" si="5"/>
-        <v>12.160898035547238</v>
-      </c>
-    </row>
-    <row r="31" spans="4:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D31" s="104">
-        <f t="shared" si="8"/>
-        <v>30</v>
-      </c>
-      <c r="E31" s="104">
-        <f t="shared" si="10"/>
-        <v>90</v>
-      </c>
-      <c r="F31" s="106">
-        <f t="shared" si="0"/>
-        <v>0.27900000000000003</v>
-      </c>
-      <c r="G31" s="106">
-        <f t="shared" si="1"/>
-        <v>9.3000000000000013E-2</v>
-      </c>
-      <c r="H31" s="106">
-        <f>SUM($F$2:F31)</f>
-        <v>5.3459999999999992</v>
-      </c>
-      <c r="I31" s="107">
-        <f t="shared" si="2"/>
-        <v>5.9399999999999994E-2</v>
-      </c>
-      <c r="J31" s="105">
-        <f t="shared" si="3"/>
-        <v>16.835016835016837</v>
-      </c>
-      <c r="K31" s="116">
-        <f t="shared" si="4"/>
-        <v>-8.2230769230769246E-2</v>
-      </c>
-      <c r="L31" s="118">
-        <f t="shared" si="5"/>
-        <v>12.160898035547238</v>
-      </c>
-    </row>
-    <row r="32" spans="4:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D32" s="104">
-        <f t="shared" si="8"/>
-        <v>31</v>
-      </c>
-      <c r="E32" s="104">
-        <f t="shared" si="10"/>
-        <v>93</v>
-      </c>
-      <c r="F32" s="106">
-        <f t="shared" si="0"/>
-        <v>0.27900000000000003</v>
-      </c>
-      <c r="G32" s="106">
-        <f t="shared" si="1"/>
-        <v>9.3000000000000013E-2</v>
-      </c>
-      <c r="H32" s="106">
-        <f>SUM($F$2:F32)</f>
-        <v>5.6249999999999991</v>
-      </c>
-      <c r="I32" s="107">
-        <f t="shared" si="2"/>
-        <v>6.0483870967741923E-2</v>
-      </c>
-      <c r="J32" s="105">
-        <f t="shared" si="3"/>
-        <v>16.533333333333335</v>
-      </c>
-      <c r="K32" s="116">
-        <f t="shared" si="4"/>
-        <v>-8.2230769230769246E-2</v>
-      </c>
-      <c r="L32" s="118">
-        <f t="shared" si="5"/>
-        <v>12.160898035547238</v>
-      </c>
-    </row>
-    <row r="33" spans="4:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D33" s="104">
-        <f t="shared" si="8"/>
-        <v>32</v>
-      </c>
-      <c r="E33" s="104">
-        <f t="shared" si="10"/>
-        <v>96</v>
-      </c>
-      <c r="F33" s="106">
-        <f t="shared" si="0"/>
-        <v>0.27900000000000003</v>
-      </c>
-      <c r="G33" s="106">
-        <f t="shared" si="1"/>
-        <v>9.3000000000000013E-2</v>
-      </c>
-      <c r="H33" s="106">
-        <f>SUM($F$2:F33)</f>
-        <v>5.903999999999999</v>
-      </c>
-      <c r="I33" s="107">
-        <f t="shared" si="2"/>
-        <v>6.1499999999999992E-2</v>
-      </c>
-      <c r="J33" s="105">
-        <f t="shared" si="3"/>
-        <v>16.260162601626018</v>
-      </c>
-      <c r="K33" s="116">
-        <f t="shared" si="4"/>
-        <v>-8.2230769230769246E-2</v>
-      </c>
-      <c r="L33" s="118">
-        <f t="shared" si="5"/>
-        <v>12.160898035547238</v>
-      </c>
-    </row>
-    <row r="34" spans="4:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D34" s="104">
-        <f t="shared" si="8"/>
-        <v>33</v>
-      </c>
-      <c r="E34" s="104">
-        <f t="shared" si="10"/>
-        <v>99</v>
-      </c>
-      <c r="F34" s="106">
-        <f t="shared" si="0"/>
-        <v>0.30599999999999999</v>
-      </c>
-      <c r="G34" s="106">
-        <f t="shared" si="1"/>
-        <v>0.10199999999999999</v>
-      </c>
-      <c r="H34" s="106">
-        <f>SUM($F$2:F34)</f>
-        <v>6.2099999999999991</v>
-      </c>
-      <c r="I34" s="107">
-        <f t="shared" si="2"/>
-        <v>6.2727272727272715E-2</v>
-      </c>
-      <c r="J34" s="105">
-        <f t="shared" si="3"/>
-        <v>15.94202898550725</v>
-      </c>
-      <c r="K34" s="116">
-        <f t="shared" si="4"/>
-        <v>-9.1230769230769226E-2</v>
-      </c>
-      <c r="L34" s="118">
-        <f t="shared" si="5"/>
-        <v>10.961214165261383</v>
-      </c>
-    </row>
-    <row r="35" spans="4:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D35" s="104">
-        <f t="shared" si="8"/>
-        <v>34</v>
-      </c>
-      <c r="E35" s="104">
-        <f t="shared" si="10"/>
-        <v>102</v>
-      </c>
-      <c r="F35" s="106">
-        <f t="shared" si="0"/>
-        <v>0.30599999999999999</v>
-      </c>
-      <c r="G35" s="106">
-        <f t="shared" si="1"/>
-        <v>0.10199999999999999</v>
-      </c>
-      <c r="H35" s="106">
-        <f>SUM($F$2:F35)</f>
-        <v>6.5159999999999991</v>
-      </c>
-      <c r="I35" s="107">
-        <f t="shared" si="2"/>
-        <v>6.388235294117646E-2</v>
-      </c>
-      <c r="J35" s="105">
-        <f t="shared" si="3"/>
-        <v>15.653775322283613</v>
-      </c>
-      <c r="K35" s="116">
-        <f t="shared" si="4"/>
-        <v>-9.1230769230769226E-2</v>
-      </c>
-      <c r="L35" s="118">
-        <f t="shared" si="5"/>
-        <v>10.961214165261383</v>
-      </c>
-    </row>
-    <row r="36" spans="4:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D36" s="104">
-        <f t="shared" si="8"/>
-        <v>35</v>
-      </c>
-      <c r="E36" s="104">
-        <f t="shared" ref="E36:E42" si="11">$B$1*D36</f>
-        <v>105</v>
-      </c>
-      <c r="F36" s="106">
-        <f t="shared" si="0"/>
-        <v>0.30599999999999999</v>
-      </c>
-      <c r="G36" s="106">
-        <f t="shared" si="1"/>
-        <v>0.10199999999999999</v>
-      </c>
-      <c r="H36" s="106">
-        <f>SUM($F$2:F36)</f>
-        <v>6.8219999999999992</v>
-      </c>
-      <c r="I36" s="107">
-        <f t="shared" ref="I36:I42" si="12">H36/E36</f>
-        <v>6.4971428571428569E-2</v>
-      </c>
-      <c r="J36" s="105">
-        <f t="shared" si="3"/>
-        <v>15.391380826737027</v>
-      </c>
-      <c r="K36" s="116">
-        <f t="shared" ref="K36:K42" si="13">IF($B$13-G36&gt;0,"",$B$13-G36)</f>
-        <v>-9.1230769230769226E-2</v>
-      </c>
-      <c r="L36" s="118">
-        <f t="shared" si="5"/>
-        <v>10.961214165261383</v>
-      </c>
-    </row>
-    <row r="37" spans="4:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D37" s="104">
-        <f t="shared" si="8"/>
-        <v>36</v>
-      </c>
-      <c r="E37" s="104">
-        <f t="shared" si="11"/>
-        <v>108</v>
-      </c>
-      <c r="F37" s="106">
-        <f t="shared" si="0"/>
-        <v>0.30599999999999999</v>
-      </c>
-      <c r="G37" s="106">
-        <f t="shared" si="1"/>
-        <v>0.10199999999999999</v>
-      </c>
-      <c r="H37" s="106">
-        <f>SUM($F$2:F37)</f>
-        <v>7.1279999999999992</v>
-      </c>
-      <c r="I37" s="107">
-        <f t="shared" si="12"/>
-        <v>6.5999999999999989E-2</v>
-      </c>
-      <c r="J37" s="105">
-        <f t="shared" si="3"/>
-        <v>15.151515151515154</v>
-      </c>
-      <c r="K37" s="116">
-        <f t="shared" si="13"/>
-        <v>-9.1230769230769226E-2</v>
-      </c>
-      <c r="L37" s="118">
-        <f t="shared" si="5"/>
-        <v>10.961214165261383</v>
-      </c>
-    </row>
-    <row r="38" spans="4:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D38" s="104">
-        <f t="shared" si="8"/>
-        <v>37</v>
-      </c>
-      <c r="E38" s="104">
-        <f t="shared" si="11"/>
-        <v>111</v>
-      </c>
-      <c r="F38" s="106">
-        <f t="shared" si="0"/>
-        <v>0.33299999999999996</v>
-      </c>
-      <c r="G38" s="106">
-        <f t="shared" si="1"/>
-        <v>0.11099999999999999</v>
-      </c>
-      <c r="H38" s="106">
-        <f>SUM($F$2:F38)</f>
-        <v>7.4609999999999994</v>
-      </c>
-      <c r="I38" s="107">
-        <f t="shared" si="12"/>
-        <v>6.7216216216216207E-2</v>
-      </c>
-      <c r="J38" s="105">
-        <f t="shared" si="3"/>
-        <v>14.877362283876158</v>
-      </c>
-      <c r="K38" s="116">
-        <f t="shared" si="13"/>
-        <v>-0.10023076923076922</v>
-      </c>
-      <c r="L38" s="118">
-        <f t="shared" si="5"/>
-        <v>9.9769762087490417</v>
-      </c>
-    </row>
-    <row r="39" spans="4:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D39" s="104">
-        <f t="shared" si="8"/>
-        <v>38</v>
-      </c>
-      <c r="E39" s="104">
-        <f t="shared" si="11"/>
-        <v>114</v>
-      </c>
-      <c r="F39" s="106">
-        <f t="shared" si="0"/>
-        <v>0.33299999999999996</v>
-      </c>
-      <c r="G39" s="106">
-        <f t="shared" si="1"/>
-        <v>0.11099999999999999</v>
-      </c>
-      <c r="H39" s="106">
-        <f>SUM($F$2:F39)</f>
-        <v>7.7939999999999996</v>
-      </c>
-      <c r="I39" s="107">
-        <f t="shared" si="12"/>
-        <v>6.8368421052631578E-2</v>
-      </c>
-      <c r="J39" s="105">
-        <f t="shared" si="3"/>
-        <v>14.626635873749038</v>
-      </c>
-      <c r="K39" s="116">
-        <f t="shared" si="13"/>
-        <v>-0.10023076923076922</v>
-      </c>
-      <c r="L39" s="118">
-        <f t="shared" si="5"/>
-        <v>9.9769762087490417</v>
-      </c>
-    </row>
-    <row r="40" spans="4:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D40" s="104">
-        <f t="shared" si="8"/>
-        <v>39</v>
-      </c>
-      <c r="E40" s="104">
-        <f t="shared" si="11"/>
-        <v>117</v>
-      </c>
-      <c r="F40" s="106">
-        <f t="shared" si="0"/>
-        <v>0.33299999999999996</v>
-      </c>
-      <c r="G40" s="106">
-        <f t="shared" si="1"/>
-        <v>0.11099999999999999</v>
-      </c>
-      <c r="H40" s="106">
-        <f>SUM($F$2:F40)</f>
-        <v>8.1269999999999989</v>
-      </c>
-      <c r="I40" s="107">
-        <f t="shared" si="12"/>
-        <v>6.946153846153845E-2</v>
-      </c>
-      <c r="J40" s="105">
-        <f t="shared" si="3"/>
-        <v>14.396456256921375</v>
-      </c>
-      <c r="K40" s="116">
-        <f t="shared" si="13"/>
-        <v>-0.10023076923076922</v>
-      </c>
-      <c r="L40" s="118">
-        <f t="shared" si="5"/>
-        <v>9.9769762087490417</v>
-      </c>
-    </row>
-    <row r="41" spans="4:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D41" s="104">
-        <f t="shared" si="8"/>
-        <v>40</v>
-      </c>
-      <c r="E41" s="104">
-        <f t="shared" si="11"/>
-        <v>120</v>
-      </c>
-      <c r="F41" s="106">
-        <f t="shared" si="0"/>
-        <v>0.33299999999999996</v>
-      </c>
-      <c r="G41" s="106">
-        <f t="shared" si="1"/>
-        <v>0.11099999999999999</v>
-      </c>
-      <c r="H41" s="106">
-        <f>SUM($F$2:F41)</f>
-        <v>8.4599999999999991</v>
-      </c>
-      <c r="I41" s="107">
-        <f t="shared" si="12"/>
-        <v>7.0499999999999993E-2</v>
-      </c>
-      <c r="J41" s="105">
-        <f t="shared" si="3"/>
-        <v>14.184397163120568</v>
-      </c>
-      <c r="K41" s="116">
-        <f t="shared" si="13"/>
-        <v>-0.10023076923076922</v>
-      </c>
-      <c r="L41" s="118">
-        <f t="shared" si="5"/>
-        <v>9.9769762087490417</v>
-      </c>
-    </row>
-    <row r="42" spans="4:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D42" s="104">
-        <f t="shared" si="8"/>
-        <v>41</v>
-      </c>
-      <c r="E42" s="104">
-        <f t="shared" si="11"/>
-        <v>123</v>
-      </c>
-      <c r="F42" s="106">
-        <f t="shared" si="0"/>
-        <v>0.36</v>
-      </c>
-      <c r="G42" s="106">
-        <f t="shared" si="1"/>
-        <v>0.12</v>
-      </c>
-      <c r="H42" s="106">
-        <f>SUM($F$2:F42)</f>
-        <v>8.8199999999999985</v>
-      </c>
-      <c r="I42" s="107">
-        <f t="shared" si="12"/>
-        <v>7.1707317073170726E-2</v>
-      </c>
-      <c r="J42" s="105">
-        <f t="shared" si="3"/>
-        <v>13.945578231292519</v>
-      </c>
-      <c r="K42" s="116">
-        <f t="shared" si="13"/>
-        <v>-0.10923076923076923</v>
-      </c>
-      <c r="L42" s="118">
-        <f t="shared" si="5"/>
-        <v>9.1549295774647881</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -5175,19 +3433,19 @@
   <sheetData>
     <row r="1" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
-        <v>113</v>
+        <v>84</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>113</v>
+        <v>84</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>113</v>
+        <v>84</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>33</v>
@@ -5224,25 +3482,25 @@
         <v>17</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>116</v>
+        <v>87</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>116</v>
+        <v>87</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>17</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>116</v>
+        <v>87</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>109</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5250,25 +3508,25 @@
         <v>18</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>130</v>
+        <v>101</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>130</v>
+        <v>101</v>
       </c>
       <c r="G4" s="10" t="s">
         <v>18</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>121</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5276,25 +3534,25 @@
         <v>19</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="G5" s="10" t="s">
         <v>19</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5302,25 +3560,25 @@
         <v>20</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>108</v>
+        <v>79</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>108</v>
+        <v>79</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>123</v>
+        <v>94</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>123</v>
+        <v>94</v>
       </c>
       <c r="G6" s="10" t="s">
         <v>20</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>108</v>
+        <v>79</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>123</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5328,25 +3586,25 @@
         <v>21</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>112</v>
+        <v>83</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>112</v>
+        <v>83</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>117</v>
+        <v>88</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>117</v>
+        <v>88</v>
       </c>
       <c r="G7" s="12" t="s">
         <v>21</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>117</v>
+        <v>88</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>117</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5354,25 +3612,25 @@
         <v>22</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>131</v>
+        <v>102</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>131</v>
+        <v>102</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="G8" s="12" t="s">
         <v>22</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>112</v>
+        <v>83</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5432,25 +3690,25 @@
         <v>25</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>129</v>
+        <v>100</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>129</v>
+        <v>100</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>124</v>
+        <v>95</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>124</v>
+        <v>95</v>
       </c>
       <c r="G11" s="16" t="s">
         <v>25</v>
       </c>
       <c r="H11" s="17" t="s">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="I11" s="17" t="s">
-        <v>124</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5500,25 +3758,25 @@
         <v>31</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>119</v>
+        <v>90</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>119</v>
+        <v>90</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>119</v>
+        <v>90</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>31</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>119</v>
+        <v>90</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>119</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5526,25 +3784,25 @@
         <v>32</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>120</v>
+        <v>91</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>120</v>
+        <v>91</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>119</v>
+        <v>90</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>32</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>120</v>
+        <v>91</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>119</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5555,10 +3813,10 @@
     </row>
     <row r="18" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>113</v>
+        <v>84</v>
       </c>
       <c r="B18" s="150" t="s">
-        <v>132</v>
+        <v>103</v>
       </c>
       <c r="C18" s="150"/>
       <c r="D18" s="150"/>
@@ -5566,10 +3824,10 @@
     </row>
     <row r="19" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>114</v>
+        <v>85</v>
       </c>
       <c r="B19" s="149" t="s">
-        <v>134</v>
+        <v>105</v>
       </c>
       <c r="C19" s="150"/>
       <c r="D19" s="150"/>
@@ -5577,10 +3835,10 @@
     </row>
     <row r="20" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="B20" s="149" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="C20" s="150"/>
       <c r="D20" s="150"/>
@@ -5621,19 +3879,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="79" t="s">
-        <v>126</v>
+        <v>97</v>
       </c>
       <c r="D1" s="79" t="s">
-        <v>127</v>
+        <v>98</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>139</v>
+        <v>110</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>138</v>
+        <v>109</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>140</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:24" s="6" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5680,7 +3938,7 @@
     </row>
     <row r="4" spans="1:24" s="6" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>128</v>
+        <v>99</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -5747,7 +4005,7 @@
     </row>
     <row r="7" spans="1:24" s="8" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>128</v>
+        <v>99</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -5777,10 +4035,10 @@
         <v>38</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>137</v>
+        <v>108</v>
       </c>
       <c r="N8" s="9" t="s">
         <v>35</v>
@@ -5815,7 +4073,7 @@
     </row>
     <row r="10" spans="1:24" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>128</v>
+        <v>99</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -5846,10 +4104,10 @@
         <v>38</v>
       </c>
       <c r="I11" s="15" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="J11" s="15" t="s">
-        <v>137</v>
+        <v>108</v>
       </c>
       <c r="N11" s="15" t="s">
         <v>35</v>
@@ -5883,7 +4141,7 @@
     </row>
     <row r="13" spans="1:24" s="15" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
-        <v>128</v>
+        <v>99</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -5891,7 +4149,7 @@
     </row>
     <row r="14" spans="1:24" s="4" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>111</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -5901,36 +4159,54 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEFF6CA3-18A6-4987-88AD-5768B35D8A0C}">
-  <dimension ref="A1:I32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E85EA2B4-C5A4-4AEF-AEDA-53C74517CB8F}">
+  <dimension ref="A1:J44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H12" sqref="G12:H13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N29" sqref="N29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="51"/>
-    <col min="2" max="2" width="19" style="52" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" style="51" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" style="52" customWidth="1"/>
     <col min="3" max="3" width="9.140625" style="20"/>
     <col min="4" max="4" width="12" style="20" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="20"/>
+    <col min="5" max="5" width="9.140625" style="20"/>
+    <col min="6" max="6" width="12" style="20" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="20"/>
+    <col min="8" max="8" width="12" style="20" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="20"/>
+    <col min="10" max="10" width="12" style="20" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="154"/>
-      <c r="B1" s="155"/>
-      <c r="C1" s="158" t="s">
-        <v>182</v>
-      </c>
-      <c r="D1" s="159"/>
-    </row>
-    <row r="2" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="156" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" s="157"/>
+    <row r="1" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="178"/>
+      <c r="B1" s="179"/>
+      <c r="C1" s="164" t="s">
+        <v>194</v>
+      </c>
+      <c r="D1" s="165"/>
+      <c r="E1" s="164" t="s">
+        <v>195</v>
+      </c>
+      <c r="F1" s="165"/>
+      <c r="G1" s="164" t="s">
+        <v>193</v>
+      </c>
+      <c r="H1" s="165"/>
+      <c r="I1" s="164" t="s">
+        <v>192</v>
+      </c>
+      <c r="J1" s="165"/>
+    </row>
+    <row r="2" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="180" t="s">
+        <v>164</v>
+      </c>
+      <c r="B2" s="181"/>
       <c r="C2" s="21">
         <f>5/3</f>
         <v>1.6666666666666667</v>
@@ -5939,732 +4215,666 @@
         <f>C2</f>
         <v>1.6666666666666667</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="156" t="s">
-        <v>60</v>
-      </c>
-      <c r="B3" s="157"/>
-      <c r="C3" s="125">
+      <c r="E2" s="21">
+        <f>5/3</f>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="F2" s="22">
+        <f>E2</f>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="G2" s="21">
+        <f>5/3</f>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="H2" s="22">
+        <f>G2</f>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="I2" s="21">
+        <f>5/3</f>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="J2" s="22">
+        <f>I2</f>
+        <v>1.6666666666666667</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="180" t="s">
+        <v>165</v>
+      </c>
+      <c r="B3" s="181"/>
+      <c r="C3" s="123">
         <v>0</v>
       </c>
       <c r="D3" s="22">
         <f>1-C3</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="173" t="s">
-        <v>59</v>
+      <c r="E3" s="123">
+        <v>0</v>
+      </c>
+      <c r="F3" s="22">
+        <f>1-E3</f>
+        <v>1</v>
+      </c>
+      <c r="G3" s="123">
+        <v>0</v>
+      </c>
+      <c r="H3" s="22">
+        <f>1-G3</f>
+        <v>1</v>
+      </c>
+      <c r="I3" s="123">
+        <v>0</v>
+      </c>
+      <c r="J3" s="22">
+        <f>1-I3</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="182" t="s">
+        <v>43</v>
       </c>
       <c r="B4" s="45" t="s">
-        <v>62</v>
+        <v>166</v>
       </c>
       <c r="C4" s="24">
-        <v>8254</v>
-      </c>
-      <c r="D4" s="160">
-        <f>(C4/(1+C5)*(1+C5+C6)*(1+C7)*(1+C8))</f>
-        <v>22946.120000000003</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="174"/>
+        <v>5078</v>
+      </c>
+      <c r="D4" s="166">
+        <f>C4/(1+C5)*(1+C5+C6)*(1+C7)*(1+C8)</f>
+        <v>16757.400000000001</v>
+      </c>
+      <c r="E4" s="24">
+        <v>5078</v>
+      </c>
+      <c r="F4" s="166">
+        <f>E4/(1+E5)*(1+E5+E6)*(1+E7)*(1+E8)</f>
+        <v>16757.400000000001</v>
+      </c>
+      <c r="G4" s="24">
+        <v>5078</v>
+      </c>
+      <c r="H4" s="166">
+        <f>G4/(1+G5)*(1+G5+G6)*(1+G7)*(1+G8)</f>
+        <v>16757.400000000001</v>
+      </c>
+      <c r="I4" s="24">
+        <v>5078</v>
+      </c>
+      <c r="J4" s="166">
+        <f>I4/(1+I5)*(1+I5+I6)*(1+I7)*(1+I8)</f>
+        <v>16757.400000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="183"/>
       <c r="B5" s="45" t="s">
-        <v>44</v>
+        <v>167</v>
       </c>
       <c r="C5" s="26">
         <v>0</v>
       </c>
-      <c r="D5" s="161"/>
-    </row>
-    <row r="6" spans="1:4" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="174"/>
+      <c r="D5" s="167"/>
+      <c r="E5" s="26">
+        <v>0</v>
+      </c>
+      <c r="F5" s="167"/>
+      <c r="G5" s="26">
+        <v>0</v>
+      </c>
+      <c r="H5" s="167"/>
+      <c r="I5" s="26">
+        <v>0</v>
+      </c>
+      <c r="J5" s="167"/>
+    </row>
+    <row r="6" spans="1:10" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="183"/>
       <c r="B6" s="45" t="s">
-        <v>45</v>
+        <v>168</v>
       </c>
       <c r="C6" s="27">
+        <f>$B38</f>
         <v>0</v>
       </c>
-      <c r="D6" s="161"/>
-    </row>
-    <row r="7" spans="1:4" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="174"/>
+      <c r="D6" s="167"/>
+      <c r="E6" s="27">
+        <f>$B38</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="167"/>
+      <c r="G6" s="27">
+        <f>$B38</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="167"/>
+      <c r="I6" s="27">
+        <f>$B38</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="167"/>
+    </row>
+    <row r="7" spans="1:10" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="183"/>
       <c r="B7" s="45" t="s">
-        <v>55</v>
+        <v>169</v>
       </c>
       <c r="C7" s="27">
-        <v>1.78</v>
-      </c>
-      <c r="D7" s="161"/>
-    </row>
-    <row r="8" spans="1:4" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="175"/>
+        <f>$B37</f>
+        <v>2</v>
+      </c>
+      <c r="D7" s="167"/>
+      <c r="E7" s="27">
+        <f>$B37</f>
+        <v>2</v>
+      </c>
+      <c r="F7" s="167"/>
+      <c r="G7" s="27">
+        <f>$B37</f>
+        <v>2</v>
+      </c>
+      <c r="H7" s="167"/>
+      <c r="I7" s="27">
+        <f>$B37</f>
+        <v>2</v>
+      </c>
+      <c r="J7" s="167"/>
+    </row>
+    <row r="8" spans="1:10" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="184"/>
       <c r="B8" s="45" t="s">
-        <v>56</v>
+        <v>170</v>
       </c>
       <c r="C8" s="27">
-        <v>0</v>
-      </c>
-      <c r="D8" s="162"/>
-    </row>
-    <row r="9" spans="1:4" s="30" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="176" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" s="177"/>
+        <v>0.1</v>
+      </c>
+      <c r="D8" s="168"/>
+      <c r="E8" s="27">
+        <v>0.1</v>
+      </c>
+      <c r="F8" s="168"/>
+      <c r="G8" s="27">
+        <v>0.1</v>
+      </c>
+      <c r="H8" s="168"/>
+      <c r="I8" s="27">
+        <v>0.1</v>
+      </c>
+      <c r="J8" s="168"/>
+    </row>
+    <row r="9" spans="1:10" s="30" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="185" t="s">
+        <v>171</v>
+      </c>
+      <c r="B9" s="186"/>
       <c r="C9" s="28">
-        <v>8.08</v>
+        <v>25</v>
       </c>
       <c r="D9" s="29">
         <f>C9</f>
-        <v>8.08</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" s="32" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="178" t="s">
-        <v>61</v>
+        <v>25</v>
+      </c>
+      <c r="E9" s="28">
+        <v>25</v>
+      </c>
+      <c r="F9" s="29">
+        <f>E9</f>
+        <v>25</v>
+      </c>
+      <c r="G9" s="28">
+        <v>25</v>
+      </c>
+      <c r="H9" s="29">
+        <f>G9</f>
+        <v>25</v>
+      </c>
+      <c r="I9" s="28">
+        <v>25</v>
+      </c>
+      <c r="J9" s="29">
+        <f>I9</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" s="32" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="187" t="s">
+        <v>44</v>
       </c>
       <c r="B10" s="46" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="C10" s="31">
-        <v>0</v>
-      </c>
-      <c r="D10" s="152">
+        <v>1</v>
+      </c>
+      <c r="D10" s="169">
         <f>1+((0.7+C11)*C10)</f>
+        <v>3</v>
+      </c>
+      <c r="E10" s="31">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" s="32" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="179"/>
+      <c r="F10" s="169">
+        <f>1+((0.7+E11)*E10)</f>
+        <v>3.15</v>
+      </c>
+      <c r="G10" s="31">
+        <v>1</v>
+      </c>
+      <c r="H10" s="169">
+        <f>1+((0.7+G11)*G10)</f>
+        <v>3</v>
+      </c>
+      <c r="I10" s="31">
+        <v>1</v>
+      </c>
+      <c r="J10" s="169">
+        <f>1+((0.7+I11)*I10)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="32" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="188"/>
       <c r="B11" s="46" t="s">
         <v>42</v>
       </c>
       <c r="C11" s="33">
-        <v>4</v>
-      </c>
-      <c r="D11" s="153"/>
-    </row>
-    <row r="12" spans="1:4" s="35" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="168" t="s">
-        <v>63</v>
+        <f>$B39</f>
+        <v>1.3</v>
+      </c>
+      <c r="D11" s="170"/>
+      <c r="E11" s="33">
+        <v>1.45</v>
+      </c>
+      <c r="F11" s="170"/>
+      <c r="G11" s="33">
+        <f>$B39</f>
+        <v>1.3</v>
+      </c>
+      <c r="H11" s="170"/>
+      <c r="I11" s="33">
+        <f>$B39</f>
+        <v>1.3</v>
+      </c>
+      <c r="J11" s="170"/>
+    </row>
+    <row r="12" spans="1:10" s="35" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="189" t="s">
+        <v>45</v>
       </c>
       <c r="B12" s="47" t="s">
-        <v>47</v>
+        <v>172</v>
       </c>
       <c r="C12" s="34">
+        <f>40%+$B42</f>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D12" s="171">
+        <f>(1+C12+C13)*(1+C14)*(1+C15)</f>
+        <v>5.1519999999999992</v>
+      </c>
+      <c r="E12" s="34">
+        <f>40%+$B42</f>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F12" s="171">
+        <f>(1+E12+E13)*(1+E14)*(1+E15)</f>
+        <v>5.1519999999999992</v>
+      </c>
+      <c r="G12" s="34">
+        <f>40%+$B42</f>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H12" s="171">
+        <f>(1+G12+G13)*(1+G14)*(1+G15)</f>
+        <v>5.9569999999999999</v>
+      </c>
+      <c r="I12" s="34">
+        <f>40%+$B42</f>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="J12" s="171">
+        <f>(1+I12+I13)*(1+I14)*(1+I15)</f>
+        <v>5.9569999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="35" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="190"/>
+      <c r="B13" s="47" t="s">
+        <v>173</v>
+      </c>
+      <c r="C13" s="34">
+        <f>IF($B40, 50%, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="D13" s="172"/>
+      <c r="E13" s="34">
+        <v>0</v>
+      </c>
+      <c r="F13" s="172"/>
+      <c r="G13" s="34">
+        <v>0.5</v>
+      </c>
+      <c r="H13" s="172"/>
+      <c r="I13" s="34">
+        <v>0.5</v>
+      </c>
+      <c r="J13" s="172"/>
+    </row>
+    <row r="14" spans="1:10" s="35" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="190"/>
+      <c r="B14" s="47" t="s">
+        <v>174</v>
+      </c>
+      <c r="C14" s="34">
+        <v>0.15</v>
+      </c>
+      <c r="D14" s="172"/>
+      <c r="E14" s="34">
+        <v>0.15</v>
+      </c>
+      <c r="F14" s="172"/>
+      <c r="G14" s="34">
+        <v>0.15</v>
+      </c>
+      <c r="H14" s="172"/>
+      <c r="I14" s="34">
+        <v>0.15</v>
+      </c>
+      <c r="J14" s="172"/>
+    </row>
+    <row r="15" spans="1:10" s="35" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="191"/>
+      <c r="B15" s="47" t="s">
+        <v>169</v>
+      </c>
+      <c r="C15" s="34">
+        <f>$B41</f>
         <v>0.4</v>
       </c>
-      <c r="D12" s="188">
-        <f>(1+C12+C13)*(1+C14)*(1+C15)</f>
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" s="35" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="169"/>
-      <c r="B13" s="47" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" s="34">
+      <c r="D15" s="173"/>
+      <c r="E15" s="34">
+        <f>$B41</f>
+        <v>0.4</v>
+      </c>
+      <c r="F15" s="173"/>
+      <c r="G15" s="34">
+        <f>$B41</f>
+        <v>0.4</v>
+      </c>
+      <c r="H15" s="173"/>
+      <c r="I15" s="34">
+        <f>$B41</f>
+        <v>0.4</v>
+      </c>
+      <c r="J15" s="173"/>
+    </row>
+    <row r="16" spans="1:10" s="37" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="176" t="s">
+        <v>177</v>
+      </c>
+      <c r="B16" s="48" t="s">
+        <v>175</v>
+      </c>
+      <c r="C16" s="36">
+        <f>$B44</f>
         <v>0</v>
       </c>
-      <c r="D13" s="189"/>
-    </row>
-    <row r="14" spans="1:4" s="35" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="169"/>
-      <c r="B14" s="47" t="s">
-        <v>68</v>
-      </c>
-      <c r="C14" s="34">
+      <c r="D16" s="174">
+        <f>(1+C16)*(1+C17)</f>
+        <v>1.45</v>
+      </c>
+      <c r="E16" s="36">
+        <f>$B44</f>
         <v>0</v>
       </c>
-      <c r="D14" s="189"/>
-    </row>
-    <row r="15" spans="1:4" s="35" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="170"/>
-      <c r="B15" s="47" t="s">
-        <v>69</v>
-      </c>
-      <c r="C15" s="34">
+      <c r="F16" s="174">
+        <f>(1+E16)*(1+E17)</f>
+        <v>1.45</v>
+      </c>
+      <c r="G16" s="36">
+        <f>$B44</f>
         <v>0</v>
       </c>
-      <c r="D15" s="190"/>
-    </row>
-    <row r="16" spans="1:4" s="37" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="171" t="s">
-        <v>64</v>
-      </c>
-      <c r="B16" s="48" t="s">
-        <v>57</v>
-      </c>
-      <c r="C16" s="36">
+      <c r="H16" s="174">
+        <f>(1+G16)*(1+G17)</f>
+        <v>1.45</v>
+      </c>
+      <c r="I16" s="36">
+        <f>$B44</f>
         <v>0</v>
       </c>
-      <c r="D16" s="191">
-        <f>(1+C16)*(1+C17)</f>
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" s="37" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="172"/>
+      <c r="J16" s="174">
+        <f>(1+I16)*(1+I17)</f>
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" s="37" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="177"/>
       <c r="B17" s="48" t="s">
-        <v>49</v>
+        <v>176</v>
       </c>
       <c r="C17" s="36">
-        <v>0.25</v>
-      </c>
-      <c r="D17" s="192"/>
-    </row>
-    <row r="18" spans="1:9" s="39" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="163" t="s">
-        <v>65</v>
+        <v>0.45</v>
+      </c>
+      <c r="D17" s="175"/>
+      <c r="E17" s="36">
+        <v>0.45</v>
+      </c>
+      <c r="F17" s="175"/>
+      <c r="G17" s="36">
+        <v>0.45</v>
+      </c>
+      <c r="H17" s="175"/>
+      <c r="I17" s="36">
+        <v>0.3</v>
+      </c>
+      <c r="J17" s="175"/>
+    </row>
+    <row r="18" spans="1:10" s="39" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="192" t="s">
+        <v>178</v>
       </c>
       <c r="B18" s="49" t="s">
-        <v>66</v>
+        <v>179</v>
       </c>
       <c r="C18" s="38">
         <v>1.5</v>
       </c>
-      <c r="D18" s="193">
+      <c r="D18" s="152">
         <f>C18+C19</f>
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" s="39" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="164"/>
+        <v>1.5</v>
+      </c>
+      <c r="E18" s="38">
+        <v>1.5</v>
+      </c>
+      <c r="F18" s="152">
+        <f>E18+E19</f>
+        <v>1.5</v>
+      </c>
+      <c r="G18" s="38">
+        <v>1.5</v>
+      </c>
+      <c r="H18" s="152">
+        <f>G18+G19</f>
+        <v>1.5</v>
+      </c>
+      <c r="I18" s="38">
+        <v>1.5</v>
+      </c>
+      <c r="J18" s="152">
+        <f>I18+I19</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" s="39" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="193"/>
       <c r="B19" s="49" t="s">
-        <v>58</v>
+        <v>180</v>
       </c>
       <c r="C19" s="40">
-        <v>0.3</v>
-      </c>
-      <c r="D19" s="194"/>
-    </row>
-    <row r="20" spans="1:9" s="42" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="165" t="s">
-        <v>71</v>
+        <v>0</v>
+      </c>
+      <c r="D19" s="153"/>
+      <c r="E19" s="40">
+        <v>0</v>
+      </c>
+      <c r="F19" s="153"/>
+      <c r="G19" s="40">
+        <v>0</v>
+      </c>
+      <c r="H19" s="153"/>
+      <c r="I19" s="40">
+        <v>0</v>
+      </c>
+      <c r="J19" s="153"/>
+    </row>
+    <row r="20" spans="1:10" s="42" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="194" t="s">
+        <v>183</v>
       </c>
       <c r="B20" s="50" t="s">
-        <v>70</v>
+        <v>181</v>
       </c>
       <c r="C20" s="41">
         <v>1</v>
       </c>
-      <c r="D20" s="195">
+      <c r="D20" s="154">
         <f>1+C20*(0.2+C21+C22)</f>
         <v>1.7</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" s="42" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="166"/>
+      <c r="E20" s="41">
+        <v>1</v>
+      </c>
+      <c r="F20" s="154">
+        <f>1+E20*(0.2+E21+E22)</f>
+        <v>1.7</v>
+      </c>
+      <c r="G20" s="41">
+        <v>1</v>
+      </c>
+      <c r="H20" s="154">
+        <f>1+G20*(0.2+G21+G22)</f>
+        <v>1.7</v>
+      </c>
+      <c r="I20" s="41">
+        <v>1</v>
+      </c>
+      <c r="J20" s="154">
+        <f>1+I20*(0.2+I21+I22)</f>
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" s="42" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="195"/>
       <c r="B21" s="50" t="s">
-        <v>50</v>
+        <v>182</v>
       </c>
       <c r="C21" s="41">
         <v>0.5</v>
       </c>
-      <c r="D21" s="196"/>
-    </row>
-    <row r="22" spans="1:9" s="42" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="167"/>
+      <c r="D21" s="155"/>
+      <c r="E21" s="41">
+        <v>0.5</v>
+      </c>
+      <c r="F21" s="155"/>
+      <c r="G21" s="41">
+        <v>0.5</v>
+      </c>
+      <c r="H21" s="155"/>
+      <c r="I21" s="41">
+        <v>0.5</v>
+      </c>
+      <c r="J21" s="155"/>
+    </row>
+    <row r="22" spans="1:10" s="42" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="196"/>
       <c r="B22" s="50" t="s">
-        <v>51</v>
+        <v>172</v>
       </c>
       <c r="C22" s="41">
         <v>0</v>
       </c>
-      <c r="D22" s="197"/>
-    </row>
-    <row r="23" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="156" t="s">
-        <v>72</v>
-      </c>
-      <c r="B23" s="157"/>
-      <c r="C23" s="21">
-        <v>1</v>
-      </c>
-      <c r="D23" s="23">
-        <f>C23</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" s="42" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="182" t="s">
-        <v>52</v>
-      </c>
-      <c r="B24" s="183"/>
-      <c r="C24" s="41">
-        <v>10</v>
-      </c>
-      <c r="D24" s="43">
-        <f>C24</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="173" t="s">
-        <v>53</v>
-      </c>
-      <c r="B25" s="45" t="s">
-        <v>74</v>
-      </c>
-      <c r="C25" s="24">
-        <v>1</v>
-      </c>
-      <c r="D25" s="198">
-        <f>(1-(1-C26)*C25)*(1-C27)</f>
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="174"/>
-      <c r="B26" s="45" t="s">
-        <v>73</v>
-      </c>
-      <c r="C26" s="24">
-        <v>0.6</v>
-      </c>
-      <c r="D26" s="199"/>
-    </row>
-    <row r="27" spans="1:9" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="175"/>
-      <c r="B27" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="C27" s="27">
+      <c r="D22" s="156"/>
+      <c r="E22" s="41">
         <v>0</v>
       </c>
-      <c r="D27" s="200"/>
-    </row>
-    <row r="28" spans="1:9" s="39" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="184" t="s">
-        <v>75</v>
-      </c>
-      <c r="B28" s="185"/>
-      <c r="C28" s="38">
-        <v>1</v>
-      </c>
-      <c r="D28" s="44">
-        <f>C28*0.5+1</f>
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="180" t="s">
-        <v>54</v>
-      </c>
-      <c r="B29" s="181"/>
-      <c r="C29" s="186">
-        <f>D2*D3*D4*D9*D10*D12*D16*D18*D20*D23/D24/D25*D28</f>
-        <v>413684.12442000001</v>
-      </c>
-      <c r="D29" s="187"/>
-    </row>
-    <row r="30" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C30" s="123" t="s">
-        <v>181</v>
-      </c>
-      <c r="D30" s="124">
-        <v>702176</v>
-      </c>
-      <c r="F30" s="20">
-        <v>300279</v>
-      </c>
-      <c r="G30" s="20">
-        <v>1078</v>
-      </c>
-      <c r="H30" s="20">
-        <v>808</v>
-      </c>
-      <c r="I30" s="126"/>
-    </row>
-    <row r="31" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C31" s="123" t="s">
-        <v>183</v>
-      </c>
-      <c r="D31" s="123">
-        <f>C29*0.85</f>
-        <v>351631.50575700001</v>
-      </c>
-      <c r="F31" s="20">
-        <v>401897</v>
-      </c>
-      <c r="G31" s="20">
-        <v>1470</v>
-      </c>
-      <c r="H31" s="20">
-        <v>1102</v>
-      </c>
-      <c r="I31" s="126"/>
-    </row>
-    <row r="32" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D32" s="20">
-        <f>C29*0.75*0.85</f>
-        <v>263723.62931774999</v>
-      </c>
-      <c r="F32" s="20">
-        <f>F30/F31</f>
-        <v>0.74715412157841432</v>
-      </c>
-      <c r="G32" s="20">
-        <f>G30/G31</f>
-        <v>0.73333333333333328</v>
-      </c>
-      <c r="H32" s="20">
-        <f>H30/H31</f>
-        <v>0.73321234119782219</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="D12:D15"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="D25:D27"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="D4:D8"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E85EA2B4-C5A4-4AEF-AEDA-53C74517CB8F}">
-  <dimension ref="A1:I42"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C31" sqref="A31:D42"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="51"/>
-    <col min="2" max="2" width="19" style="52" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="20"/>
-    <col min="4" max="4" width="12" style="20" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="20" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="20"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="154"/>
-      <c r="B1" s="155"/>
-      <c r="C1" s="158" t="s">
+      <c r="F22" s="156"/>
+      <c r="G22" s="41">
+        <v>0</v>
+      </c>
+      <c r="H22" s="156"/>
+      <c r="I22" s="41">
+        <v>0</v>
+      </c>
+      <c r="J22" s="156"/>
+    </row>
+    <row r="23" spans="1:10" s="130" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="197" t="s">
         <v>184</v>
       </c>
-      <c r="D1" s="159"/>
-    </row>
-    <row r="2" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="156" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" s="157"/>
-      <c r="C2" s="21">
-        <f>5/3</f>
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="D2" s="22">
-        <f>C2</f>
-        <v>1.6666666666666667</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="156" t="s">
-        <v>60</v>
-      </c>
-      <c r="B3" s="157"/>
-      <c r="C3" s="125">
-        <v>0</v>
-      </c>
-      <c r="D3" s="22">
-        <f>1-C3</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="173" t="s">
-        <v>59</v>
-      </c>
-      <c r="B4" s="45" t="s">
-        <v>62</v>
-      </c>
-      <c r="C4" s="24">
-        <v>8553</v>
-      </c>
-      <c r="D4" s="160">
-        <f>C4/(1+C5)*(1+C5+C6)*(1+C7)*(1+C8)</f>
-        <v>28224.9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="174"/>
-      <c r="B5" s="45" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" s="26">
-        <v>0.7</v>
-      </c>
-      <c r="D5" s="161"/>
-    </row>
-    <row r="6" spans="1:4" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="174"/>
-      <c r="B6" s="45" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6" s="27">
-        <f>B37</f>
-        <v>0</v>
-      </c>
-      <c r="D6" s="161"/>
-    </row>
-    <row r="7" spans="1:4" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="174"/>
-      <c r="B7" s="45" t="s">
-        <v>55</v>
-      </c>
-      <c r="C7" s="27">
-        <f>B36</f>
-        <v>2</v>
-      </c>
-      <c r="D7" s="161"/>
-    </row>
-    <row r="8" spans="1:4" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="175"/>
-      <c r="B8" s="45" t="s">
-        <v>56</v>
-      </c>
-      <c r="C8" s="27">
-        <v>0.1</v>
-      </c>
-      <c r="D8" s="162"/>
-    </row>
-    <row r="9" spans="1:4" s="30" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="176" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" s="177"/>
-      <c r="C9" s="28">
-        <f>1664%*0.7*(1+0.05*B32)</f>
-        <v>46.591999999999999</v>
-      </c>
-      <c r="D9" s="29">
-        <f>C9</f>
-        <v>46.591999999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" s="32" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="178" t="s">
-        <v>61</v>
-      </c>
-      <c r="B10" s="46" t="s">
-        <v>67</v>
-      </c>
-      <c r="C10" s="31">
-        <v>1</v>
-      </c>
-      <c r="D10" s="152">
-        <f>1+((0.7+C11)*C10)</f>
-        <v>3.75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" s="32" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="179"/>
-      <c r="B11" s="46" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="33">
-        <f>B38</f>
-        <v>2.0499999999999998</v>
-      </c>
-      <c r="D11" s="153"/>
-    </row>
-    <row r="12" spans="1:4" s="35" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="168" t="s">
-        <v>63</v>
-      </c>
-      <c r="B12" s="47" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" s="34">
-        <v>0.4</v>
-      </c>
-      <c r="D12" s="188">
-        <f>(1+C12+C13)*(1+C14)*(1+C15)</f>
-        <v>2.8404999999999996</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" s="35" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="169"/>
-      <c r="B13" s="47" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" s="34">
-        <f>IF(B39, 50%, 0)</f>
-        <v>0.5</v>
-      </c>
-      <c r="D13" s="189"/>
-    </row>
-    <row r="14" spans="1:4" s="35" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="169"/>
-      <c r="B14" s="47" t="s">
-        <v>68</v>
-      </c>
-      <c r="C14" s="34">
-        <v>0.15</v>
-      </c>
-      <c r="D14" s="189"/>
-    </row>
-    <row r="15" spans="1:4" s="35" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="170"/>
-      <c r="B15" s="47" t="s">
-        <v>69</v>
-      </c>
-      <c r="C15" s="34">
-        <f>B40</f>
-        <v>0.3</v>
-      </c>
-      <c r="D15" s="190"/>
-    </row>
-    <row r="16" spans="1:4" s="37" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="171" t="s">
-        <v>64</v>
-      </c>
-      <c r="B16" s="48" t="s">
-        <v>57</v>
-      </c>
-      <c r="C16" s="36">
-        <f>B42</f>
-        <v>0</v>
-      </c>
-      <c r="D16" s="191">
-        <f>(1+C16)*(1+C17)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" s="37" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="172"/>
-      <c r="B17" s="48" t="s">
-        <v>49</v>
-      </c>
-      <c r="C17" s="36">
-        <f>B41</f>
-        <v>0</v>
-      </c>
-      <c r="D17" s="192"/>
-    </row>
-    <row r="18" spans="1:9" s="39" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="163" t="s">
-        <v>65</v>
-      </c>
-      <c r="B18" s="49" t="s">
-        <v>66</v>
-      </c>
-      <c r="C18" s="38">
-        <v>1.5</v>
-      </c>
-      <c r="D18" s="193">
-        <f>C18+C19</f>
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" s="39" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="164"/>
-      <c r="B19" s="49" t="s">
-        <v>58</v>
-      </c>
-      <c r="C19" s="40">
-        <v>0.3</v>
-      </c>
-      <c r="D19" s="194"/>
-    </row>
-    <row r="20" spans="1:9" s="42" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="165" t="s">
-        <v>71</v>
-      </c>
-      <c r="B20" s="50" t="s">
-        <v>70</v>
-      </c>
-      <c r="C20" s="41">
-        <v>0</v>
-      </c>
-      <c r="D20" s="195">
-        <f>1+C20*(0.2+C21+C22)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" s="42" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="166"/>
-      <c r="B21" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="C21" s="41">
-        <v>0.5</v>
-      </c>
-      <c r="D21" s="196"/>
-    </row>
-    <row r="22" spans="1:9" s="42" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="167"/>
-      <c r="B22" s="50" t="s">
-        <v>51</v>
-      </c>
-      <c r="C22" s="41">
-        <v>0</v>
-      </c>
-      <c r="D22" s="197"/>
-    </row>
-    <row r="23" spans="1:9" s="132" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="201" t="s">
-        <v>194</v>
-      </c>
-      <c r="B23" s="134" t="s">
-        <v>195</v>
-      </c>
-      <c r="C23" s="135">
-        <f>B35</f>
-        <v>0.03</v>
-      </c>
-      <c r="D23" s="203">
+      <c r="B23" s="132" t="s">
+        <v>157</v>
+      </c>
+      <c r="C23" s="133">
+        <v>0.05</v>
+      </c>
+      <c r="D23" s="157">
         <f>(1 - C23) ^ 2 * (C24 - 1) + 1</f>
-        <v>1.56454</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" s="132" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="202"/>
-      <c r="B24" s="134" t="s">
-        <v>151</v>
-      </c>
-      <c r="C24" s="133">
+        <v>1.5415000000000001</v>
+      </c>
+      <c r="E23" s="133">
+        <v>0.05</v>
+      </c>
+      <c r="F23" s="157">
+        <f>(1 - E23) ^ 2 * (E24 - 1) + 1</f>
+        <v>1.5415000000000001</v>
+      </c>
+      <c r="G23" s="133">
+        <v>0.05</v>
+      </c>
+      <c r="H23" s="157">
+        <f>(1 - G23) ^ 2 * (G24 - 1) + 1</f>
+        <v>1.5415000000000001</v>
+      </c>
+      <c r="I23" s="133">
+        <v>0.05</v>
+      </c>
+      <c r="J23" s="157">
+        <f>(1 - I23) ^ 2 * (I24 - 1) + 1</f>
+        <v>1.5415000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" s="130" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="198"/>
+      <c r="B24" s="132" t="s">
+        <v>156</v>
+      </c>
+      <c r="C24" s="131">
         <v>1.6</v>
       </c>
-      <c r="D24" s="204"/>
-    </row>
-    <row r="25" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="156" t="s">
-        <v>72</v>
-      </c>
-      <c r="B25" s="157"/>
+      <c r="D24" s="158"/>
+      <c r="E24" s="131">
+        <v>1.6</v>
+      </c>
+      <c r="F24" s="158"/>
+      <c r="G24" s="131">
+        <v>1.6</v>
+      </c>
+      <c r="H24" s="158"/>
+      <c r="I24" s="131">
+        <v>1.6</v>
+      </c>
+      <c r="J24" s="158"/>
+    </row>
+    <row r="25" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="180" t="s">
+        <v>185</v>
+      </c>
+      <c r="B25" s="181"/>
       <c r="C25" s="21">
         <v>1</v>
       </c>
@@ -6672,12 +4882,33 @@
         <f>C25</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" s="42" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="182" t="s">
-        <v>52</v>
-      </c>
-      <c r="B26" s="183"/>
+      <c r="E25" s="21">
+        <v>1</v>
+      </c>
+      <c r="F25" s="23">
+        <f>E25</f>
+        <v>1</v>
+      </c>
+      <c r="G25" s="21">
+        <v>1</v>
+      </c>
+      <c r="H25" s="23">
+        <f>G25</f>
+        <v>1</v>
+      </c>
+      <c r="I25" s="21">
+        <v>1</v>
+      </c>
+      <c r="J25" s="23">
+        <f>I25</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" s="42" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="199" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" s="200"/>
       <c r="C26" s="41">
         <v>10</v>
       </c>
@@ -6685,48 +4916,113 @@
         <f>C26</f>
         <v>10</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="173" t="s">
-        <v>53</v>
+      <c r="E26" s="41">
+        <v>10</v>
+      </c>
+      <c r="F26" s="43">
+        <f>E26</f>
+        <v>10</v>
+      </c>
+      <c r="G26" s="41">
+        <v>10</v>
+      </c>
+      <c r="H26" s="43">
+        <f>G26</f>
+        <v>10</v>
+      </c>
+      <c r="I26" s="41">
+        <v>10</v>
+      </c>
+      <c r="J26" s="43">
+        <f>I26</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="182" t="s">
+        <v>188</v>
       </c>
       <c r="B27" s="45" t="s">
-        <v>74</v>
+        <v>186</v>
       </c>
       <c r="C27" s="24">
         <v>0</v>
       </c>
-      <c r="D27" s="198">
+      <c r="D27" s="159">
         <f>(1-(1-C28)*C27)*(1-C29)</f>
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="174"/>
+        <v>0.5</v>
+      </c>
+      <c r="E27" s="24">
+        <v>0</v>
+      </c>
+      <c r="F27" s="159">
+        <f>(1-(1-E28)*E27)*(1-E29)</f>
+        <v>0.5</v>
+      </c>
+      <c r="G27" s="24">
+        <v>0</v>
+      </c>
+      <c r="H27" s="159">
+        <f>(1-(1-G28)*G27)*(1-G29)</f>
+        <v>0.5</v>
+      </c>
+      <c r="I27" s="24">
+        <v>0</v>
+      </c>
+      <c r="J27" s="159">
+        <f>(1-(1-I28)*I27)*(1-I29)</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="183"/>
       <c r="B28" s="45" t="s">
-        <v>73</v>
+        <v>187</v>
       </c>
       <c r="C28" s="24">
         <v>0.6</v>
       </c>
-      <c r="D28" s="199"/>
-    </row>
-    <row r="29" spans="1:9" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="175"/>
+      <c r="D28" s="160"/>
+      <c r="E28" s="24">
+        <v>0.6</v>
+      </c>
+      <c r="F28" s="160"/>
+      <c r="G28" s="24">
+        <v>0.6</v>
+      </c>
+      <c r="H28" s="160"/>
+      <c r="I28" s="24">
+        <v>0.6</v>
+      </c>
+      <c r="J28" s="160"/>
+    </row>
+    <row r="29" spans="1:10" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="184"/>
       <c r="B29" s="45" t="s">
-        <v>37</v>
+        <v>155</v>
       </c>
       <c r="C29" s="27">
-        <f>B33</f>
-        <v>0.15</v>
-      </c>
-      <c r="D29" s="200"/>
-    </row>
-    <row r="30" spans="1:9" s="39" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="184" t="s">
-        <v>75</v>
-      </c>
-      <c r="B30" s="185"/>
+        <v>0.5</v>
+      </c>
+      <c r="D29" s="161"/>
+      <c r="E29" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="F29" s="161"/>
+      <c r="G29" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="H29" s="161"/>
+      <c r="I29" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="J29" s="161"/>
+    </row>
+    <row r="30" spans="1:10" s="39" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="201" t="s">
+        <v>189</v>
+      </c>
+      <c r="B30" s="202"/>
       <c r="C30" s="38">
         <v>0</v>
       </c>
@@ -6734,139 +5030,334 @@
         <f>C30*0.5+1</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="180" t="s">
-        <v>54</v>
-      </c>
-      <c r="B31" s="181"/>
-      <c r="C31" s="186">
-        <f>D2*D3*D4*D9*D10*D12*D16*D18*D20*D23*D25/D26/D27*D30</f>
-        <v>7734973.4371366035</v>
-      </c>
-      <c r="D31" s="187"/>
-    </row>
-    <row r="32" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="51" t="s">
-        <v>175</v>
-      </c>
-      <c r="B32" s="52">
-        <v>60</v>
-      </c>
-      <c r="C32" s="126">
+      <c r="E30" s="38">
+        <v>0</v>
+      </c>
+      <c r="F30" s="44">
+        <f>E30*0.5+1</f>
+        <v>1</v>
+      </c>
+      <c r="G30" s="38">
+        <v>0</v>
+      </c>
+      <c r="H30" s="44">
+        <f>G30*0.5+1</f>
+        <v>1</v>
+      </c>
+      <c r="I30" s="38">
+        <v>0</v>
+      </c>
+      <c r="J30" s="44">
+        <f>I30*0.5+1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" s="37" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="205" t="s">
+        <v>190</v>
+      </c>
+      <c r="B31" s="206"/>
+      <c r="C31" s="136">
+        <v>1.6</v>
+      </c>
+      <c r="D31" s="137">
+        <f>C31</f>
+        <v>1.6</v>
+      </c>
+      <c r="E31" s="136">
+        <v>1.6</v>
+      </c>
+      <c r="F31" s="137">
+        <f>E31</f>
+        <v>1.6</v>
+      </c>
+      <c r="G31" s="136">
+        <v>1.6</v>
+      </c>
+      <c r="H31" s="137">
+        <f>G31</f>
+        <v>1.6</v>
+      </c>
+      <c r="I31" s="136">
+        <v>1.6</v>
+      </c>
+      <c r="J31" s="137">
+        <f>I31</f>
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="203" t="s">
+        <v>191</v>
+      </c>
+      <c r="B32" s="204"/>
+      <c r="C32" s="162">
+        <f>D2*D3*D4*D9*D10*D12*D16*D18*D20*D23*D25/D26/D27*D30*D31</f>
+        <v>19683131.494783681</v>
+      </c>
+      <c r="D32" s="163"/>
+      <c r="E32" s="162">
+        <f>F2*F3*F4*F9*F10*F12*F16*F18*F20*F23*F25/F26/F27*F30*F31</f>
+        <v>20667288.069522865</v>
+      </c>
+      <c r="F32" s="163"/>
+      <c r="G32" s="162">
+        <f>H2*H3*H4*H9*H10*H12*H16*H18*H20*H23*H25/H26/H27*H30*H31</f>
+        <v>22758620.79084364</v>
+      </c>
+      <c r="H32" s="163"/>
+      <c r="I32" s="162">
+        <f>J2*J3*J4*J9*J10*J12*J16*J18*J20*J23*J25/J26/J27*J30*J31</f>
+        <v>20404280.709032226</v>
+      </c>
+      <c r="J32" s="163"/>
+    </row>
+    <row r="33" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="51" t="s">
+        <v>146</v>
+      </c>
+      <c r="B33" s="52">
+        <v>42</v>
+      </c>
+      <c r="C33" s="124">
         <v>-0.1</v>
       </c>
-      <c r="D32" s="136">
-        <f>C$31*(1+C32)</f>
-        <v>6961476.0934229437</v>
-      </c>
-      <c r="I32" s="126"/>
-    </row>
-    <row r="33" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="51" t="s">
-        <v>189</v>
-      </c>
-      <c r="B33" s="127">
-        <v>0.15</v>
-      </c>
-      <c r="C33" s="126">
+      <c r="D33" s="134">
+        <f>C$32*(1+C33)</f>
+        <v>17714818.345305312</v>
+      </c>
+      <c r="E33" s="124">
+        <v>-0.1</v>
+      </c>
+      <c r="F33" s="134">
+        <f>E$32*(1+E33)</f>
+        <v>18600559.262570579</v>
+      </c>
+      <c r="G33" s="124">
+        <v>-0.1</v>
+      </c>
+      <c r="H33" s="134">
+        <f>G$32*(1+G33)</f>
+        <v>20482758.711759277</v>
+      </c>
+      <c r="I33" s="124">
+        <v>-0.1</v>
+      </c>
+      <c r="J33" s="134">
+        <f>I$32*(1+I33)</f>
+        <v>18363852.638129003</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="51" t="s">
+        <v>155</v>
+      </c>
+      <c r="B34" s="125">
+        <v>0.5</v>
+      </c>
+      <c r="C34" s="124">
         <v>-0.05</v>
       </c>
-      <c r="D33" s="136">
-        <f t="shared" ref="D33:D36" si="0">C$31*(1+C33)</f>
-        <v>7348224.7652797727</v>
-      </c>
-      <c r="I33" s="126"/>
-    </row>
-    <row r="34" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C34" s="126">
+      <c r="D34" s="134">
+        <f t="shared" ref="D34:D37" si="0">C$32*(1+C34)</f>
+        <v>18698974.920044497</v>
+      </c>
+      <c r="E34" s="124">
+        <v>-0.05</v>
+      </c>
+      <c r="F34" s="134">
+        <f>E$32*(1+E34)</f>
+        <v>19633923.66604672</v>
+      </c>
+      <c r="G34" s="124">
+        <v>-0.05</v>
+      </c>
+      <c r="H34" s="134">
+        <f t="shared" ref="H34:H37" si="1">G$32*(1+G34)</f>
+        <v>21620689.751301456</v>
+      </c>
+      <c r="I34" s="124">
+        <v>-0.05</v>
+      </c>
+      <c r="J34" s="134">
+        <f t="shared" ref="J34:J37" si="2">I$32*(1+I34)</f>
+        <v>19384066.673580613</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C35" s="124">
         <v>0</v>
       </c>
-      <c r="D34" s="136">
+      <c r="D35" s="134">
         <f t="shared" si="0"/>
-        <v>7734973.4371366035</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="51" t="s">
-        <v>193</v>
-      </c>
-      <c r="B35" s="137">
-        <v>0.03</v>
-      </c>
-      <c r="C35" s="126">
+        <v>19683131.494783681</v>
+      </c>
+      <c r="E35" s="124">
+        <v>0</v>
+      </c>
+      <c r="F35" s="134">
+        <f>E$32*(1+E35)</f>
+        <v>20667288.069522865</v>
+      </c>
+      <c r="G35" s="124">
+        <v>0</v>
+      </c>
+      <c r="H35" s="134">
+        <f t="shared" si="1"/>
+        <v>22758620.79084364</v>
+      </c>
+      <c r="I35" s="124">
+        <v>0</v>
+      </c>
+      <c r="J35" s="134">
+        <f t="shared" si="2"/>
+        <v>20404280.709032226</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="51" t="s">
+        <v>159</v>
+      </c>
+      <c r="B36" s="135">
+        <v>0.1</v>
+      </c>
+      <c r="C36" s="124">
         <v>0.05</v>
       </c>
-      <c r="D35" s="136">
+      <c r="D36" s="134">
         <f t="shared" si="0"/>
-        <v>8121722.1089934343</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="51" t="s">
-        <v>196</v>
-      </c>
-      <c r="B36" s="127">
+        <v>20667288.069522865</v>
+      </c>
+      <c r="E36" s="124">
+        <v>0.05</v>
+      </c>
+      <c r="F36" s="134">
+        <f>E$32*(1+E36)</f>
+        <v>21700652.47299901</v>
+      </c>
+      <c r="G36" s="124">
+        <v>0.05</v>
+      </c>
+      <c r="H36" s="134">
+        <f t="shared" si="1"/>
+        <v>23896551.830385823</v>
+      </c>
+      <c r="I36" s="124">
+        <v>0.05</v>
+      </c>
+      <c r="J36" s="134">
+        <f t="shared" si="2"/>
+        <v>21424494.74448384</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="51" t="s">
+        <v>163</v>
+      </c>
+      <c r="B37" s="125">
         <v>2</v>
       </c>
-      <c r="C36" s="126">
+      <c r="C37" s="124">
         <v>0.1</v>
       </c>
-      <c r="D36" s="136">
+      <c r="D37" s="134">
         <f t="shared" si="0"/>
-        <v>8508470.7808502652</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="51" t="s">
-        <v>197</v>
-      </c>
-      <c r="B37" s="127">
+        <v>21651444.644262049</v>
+      </c>
+      <c r="E37" s="124">
+        <v>0.1</v>
+      </c>
+      <c r="F37" s="134">
+        <f>E$32*(1+E37)</f>
+        <v>22734016.876475152</v>
+      </c>
+      <c r="G37" s="124">
+        <v>0.1</v>
+      </c>
+      <c r="H37" s="134">
+        <f t="shared" si="1"/>
+        <v>25034482.869928006</v>
+      </c>
+      <c r="I37" s="124">
+        <v>0.1</v>
+      </c>
+      <c r="J37" s="134">
+        <f t="shared" si="2"/>
+        <v>22444708.779935449</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="51" t="s">
+        <v>160</v>
+      </c>
+      <c r="B38" s="125">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="51" t="s">
+    <row r="39" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="B38" s="128">
-        <v>2.0499999999999998</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="51" t="s">
-        <v>185</v>
-      </c>
-      <c r="B39" s="52" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="126">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="51" t="s">
-        <v>186</v>
-      </c>
-      <c r="B40" s="127">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+      <c r="B40" s="52" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="51" t="s">
-        <v>187</v>
-      </c>
-      <c r="B41" s="127">
+        <v>162</v>
+      </c>
+      <c r="B41" s="125">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="51" t="s">
+        <v>161</v>
+      </c>
+      <c r="B42" s="125">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="51" t="s">
+        <v>153</v>
+      </c>
+      <c r="B43" s="125">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="51" t="s">
-        <v>188</v>
-      </c>
-      <c r="B42" s="127">
+    <row r="44" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="51" t="s">
+        <v>154</v>
+      </c>
+      <c r="B44" s="125">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="26">
+  <mergeCells count="57">
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="D23:D24"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="D16:D17"/>
     <mergeCell ref="A1:B1"/>
@@ -6880,19 +5371,36 @@
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="D12:D15"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="D27:D29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="J4:J8"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="J12:J15"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="J20:J22"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="J27:J29"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F4:F8"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="F12:F15"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="F20:F22"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="F27:F29"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="H4:H8"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="H12:H15"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="H20:H22"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="H27:H29"/>
+    <mergeCell ref="G32:H32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6900,7 +5408,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B801AF8-810B-4DAC-B025-C63593F088B5}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -6910,31 +5418,31 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" style="129" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="129"/>
+    <col min="1" max="1" width="15.5703125" style="127" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="127"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="129" t="s">
-        <v>190</v>
-      </c>
-      <c r="B1" s="129">
+      <c r="A1" s="127" t="s">
+        <v>156</v>
+      </c>
+      <c r="B1" s="127">
         <v>1.6</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="129" t="s">
-        <v>191</v>
-      </c>
-      <c r="B2" s="130">
+      <c r="A2" s="127" t="s">
+        <v>157</v>
+      </c>
+      <c r="B2" s="128">
         <v>0.22</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="129" t="s">
-        <v>192</v>
-      </c>
-      <c r="B4" s="131">
+      <c r="A4" s="127" t="s">
+        <v>158</v>
+      </c>
+      <c r="B4" s="129">
         <f>((1-B2)^2*(B1-1)+1) - 1</f>
         <v>0.36504000000000003</v>
       </c>
@@ -6945,7 +5453,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30DD32DD-C8F1-4E13-B59E-D06F7BB09858}">
   <dimension ref="A1:D21"/>
   <sheetViews>
@@ -6963,18 +5471,18 @@
   <sheetData>
     <row r="1" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C1" s="81" t="s">
-        <v>179</v>
+        <v>150</v>
       </c>
       <c r="D1" s="81" t="s">
-        <v>180</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="82" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="82" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="B2" s="82" t="s">
-        <v>141</v>
+        <v>112</v>
       </c>
       <c r="C2" s="83">
         <v>0.8</v>
@@ -6985,25 +5493,25 @@
     </row>
     <row r="3" spans="1:4" s="82" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="82" t="s">
-        <v>85</v>
-      </c>
-      <c r="C3" s="205">
+        <v>56</v>
+      </c>
+      <c r="C3" s="207">
         <v>0.1</v>
       </c>
-      <c r="D3" s="205"/>
+      <c r="D3" s="207"/>
     </row>
     <row r="4" spans="1:4" s="119" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="119" t="s">
-        <v>174</v>
-      </c>
-      <c r="C4" s="213">
+        <v>145</v>
+      </c>
+      <c r="C4" s="215">
         <v>0</v>
       </c>
-      <c r="D4" s="214"/>
+      <c r="D4" s="216"/>
     </row>
     <row r="5" spans="1:4" s="102" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="102" t="s">
-        <v>175</v>
+        <v>146</v>
       </c>
       <c r="C5" s="101">
         <v>0</v>
@@ -7014,10 +5522,10 @@
     </row>
     <row r="6" spans="1:4" s="84" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="84" t="s">
-        <v>152</v>
+        <v>123</v>
       </c>
       <c r="B6" s="84" t="s">
-        <v>141</v>
+        <v>112</v>
       </c>
       <c r="C6" s="85">
         <v>0</v>
@@ -7028,25 +5536,25 @@
     </row>
     <row r="7" spans="1:4" s="84" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="84" t="s">
-        <v>85</v>
-      </c>
-      <c r="C7" s="210">
+        <v>56</v>
+      </c>
+      <c r="C7" s="212">
         <v>0.4</v>
       </c>
-      <c r="D7" s="210"/>
+      <c r="D7" s="212"/>
     </row>
     <row r="8" spans="1:4" s="84" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="84" t="s">
-        <v>174</v>
-      </c>
-      <c r="C8" s="210">
+        <v>145</v>
+      </c>
+      <c r="C8" s="212">
         <v>0</v>
       </c>
-      <c r="D8" s="210"/>
+      <c r="D8" s="212"/>
     </row>
     <row r="9" spans="1:4" s="99" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="99" t="s">
-        <v>175</v>
+        <v>146</v>
       </c>
       <c r="C9" s="98">
         <v>0</v>
@@ -7057,10 +5565,10 @@
     </row>
     <row r="10" spans="1:4" s="86" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="86" t="s">
-        <v>142</v>
+        <v>113</v>
       </c>
       <c r="B10" s="86" t="s">
-        <v>141</v>
+        <v>112</v>
       </c>
       <c r="C10" s="87">
         <v>0.3</v>
@@ -7071,79 +5579,79 @@
     </row>
     <row r="11" spans="1:4" s="86" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="86" t="s">
-        <v>143</v>
-      </c>
-      <c r="C11" s="211">
+        <v>114</v>
+      </c>
+      <c r="C11" s="213">
         <v>0</v>
       </c>
-      <c r="D11" s="212"/>
+      <c r="D11" s="214"/>
     </row>
     <row r="12" spans="1:4" s="86" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="86" t="s">
-        <v>153</v>
-      </c>
-      <c r="C12" s="209">
+        <v>124</v>
+      </c>
+      <c r="C12" s="211">
         <v>0.5</v>
       </c>
-      <c r="D12" s="209"/>
+      <c r="D12" s="211"/>
     </row>
     <row r="13" spans="1:4" s="88" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="88" t="s">
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="B13" s="88" t="s">
-        <v>155</v>
-      </c>
-      <c r="C13" s="208">
+        <v>126</v>
+      </c>
+      <c r="C13" s="210">
         <v>0</v>
       </c>
-      <c r="D13" s="208"/>
+      <c r="D13" s="210"/>
     </row>
     <row r="14" spans="1:4" s="120" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="120" t="s">
-        <v>176</v>
-      </c>
-      <c r="C14" s="208">
+        <v>147</v>
+      </c>
+      <c r="C14" s="210">
         <v>0</v>
       </c>
-      <c r="D14" s="208"/>
+      <c r="D14" s="210"/>
     </row>
     <row r="15" spans="1:4" s="88" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="88" t="s">
-        <v>154</v>
-      </c>
-      <c r="C15" s="208">
+        <v>125</v>
+      </c>
+      <c r="C15" s="210">
         <v>0</v>
       </c>
-      <c r="D15" s="208"/>
+      <c r="D15" s="210"/>
     </row>
     <row r="16" spans="1:4" s="89" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="89" t="s">
-        <v>145</v>
+        <v>116</v>
       </c>
       <c r="B16" s="89" t="s">
-        <v>144</v>
-      </c>
-      <c r="C16" s="206">
+        <v>115</v>
+      </c>
+      <c r="C16" s="208">
         <v>1</v>
       </c>
-      <c r="D16" s="206"/>
+      <c r="D16" s="208"/>
     </row>
     <row r="17" spans="1:4" s="89" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="89" t="s">
-        <v>152</v>
-      </c>
-      <c r="C17" s="207">
+        <v>123</v>
+      </c>
+      <c r="C17" s="209">
         <v>1</v>
       </c>
-      <c r="D17" s="207"/>
+      <c r="D17" s="209"/>
     </row>
     <row r="18" spans="1:4" s="90" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="90" t="s">
-        <v>146</v>
+        <v>117</v>
       </c>
       <c r="B18" s="90" t="s">
-        <v>144</v>
+        <v>115</v>
       </c>
       <c r="C18" s="92">
         <f>(1+C2+$C3)*(1+$C4+C5)*(1+C10+$C11+$C12)*(1+$C13)*$C16</f>
@@ -7170,7 +5678,7 @@
     </row>
     <row r="20" spans="1:4" s="90" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="90" t="s">
-        <v>152</v>
+        <v>123</v>
       </c>
       <c r="C20" s="92">
         <f>(1+C2+$C3)*(1+$C4+C5)*(1+C6+$C7+$C14)*(1+$C8+C9)*(1+C10+$C11+$C12)*(1+$C15)*$C17</f>
@@ -7214,12 +5722,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E75D12CF-EAA2-4AE2-9060-0FB10D1645D5}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q5:Q6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7232,24 +5740,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="216" t="s">
-        <v>61</v>
-      </c>
-      <c r="B1" s="216"/>
-      <c r="C1" s="215" t="s">
+      <c r="A1" s="218" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="218"/>
+      <c r="C1" s="217" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="215"/>
+      <c r="D1" s="217"/>
     </row>
     <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="72" t="s">
-        <v>147</v>
+        <v>118</v>
       </c>
       <c r="B2" s="94">
-        <v>0.02</v>
+        <v>0.12</v>
       </c>
       <c r="C2" s="63" t="s">
-        <v>147</v>
+        <v>118</v>
       </c>
       <c r="D2" s="95">
         <v>1.7</v>
@@ -7257,109 +5765,109 @@
     </row>
     <row r="3" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="72" t="s">
-        <v>148</v>
+        <v>119</v>
       </c>
       <c r="B3" s="94">
-        <v>0.2</v>
+        <v>0.12</v>
       </c>
       <c r="C3" s="63" t="s">
-        <v>148</v>
+        <v>119</v>
       </c>
       <c r="D3" s="95">
-        <v>0.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="72" t="s">
-        <v>149</v>
+        <v>120</v>
       </c>
       <c r="B4" s="94">
         <f>B2+B3</f>
-        <v>0.22</v>
+        <v>0.24</v>
       </c>
       <c r="C4" s="63" t="s">
-        <v>149</v>
+        <v>120</v>
       </c>
       <c r="D4" s="95">
         <f>D2+D3</f>
-        <v>1.8699999999999999</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B5" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="219" t="s">
-        <v>151</v>
-      </c>
-      <c r="D5" s="220"/>
+      <c r="C5" s="221" t="s">
+        <v>122</v>
+      </c>
+      <c r="D5" s="222"/>
     </row>
     <row r="6" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65" t="s">
-        <v>147</v>
+        <v>118</v>
       </c>
       <c r="B6" s="65" t="s">
-        <v>147</v>
-      </c>
-      <c r="C6" s="217">
+        <v>118</v>
+      </c>
+      <c r="C6" s="219">
         <f>1*(1-B2)+D2*(B2)</f>
-        <v>1.014</v>
-      </c>
-      <c r="D6" s="218"/>
+        <v>1.0840000000000001</v>
+      </c>
+      <c r="D6" s="220"/>
     </row>
     <row r="7" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65" t="s">
-        <v>147</v>
+        <v>118</v>
       </c>
       <c r="B7" s="96" t="s">
-        <v>150</v>
-      </c>
-      <c r="C7" s="217">
+        <v>121</v>
+      </c>
+      <c r="C7" s="219">
         <f>1*(1-B2)+D4*(B2)</f>
-        <v>1.0174000000000001</v>
-      </c>
-      <c r="D7" s="218"/>
+        <v>1.0840000000000001</v>
+      </c>
+      <c r="D7" s="220"/>
       <c r="E7" s="122">
         <f>C7/C6</f>
-        <v>1.0033530571992111</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="96" t="s">
-        <v>150</v>
+        <v>121</v>
       </c>
       <c r="B8" s="65" t="s">
-        <v>147</v>
-      </c>
-      <c r="C8" s="217">
+        <v>118</v>
+      </c>
+      <c r="C8" s="219">
         <f>1*(1-B4)+D2*(B4)</f>
-        <v>1.1539999999999999</v>
-      </c>
-      <c r="D8" s="218"/>
+        <v>1.1679999999999999</v>
+      </c>
+      <c r="D8" s="220"/>
       <c r="E8" s="122">
         <f>C8/C6</f>
-        <v>1.138067061143984</v>
+        <v>1.0774907749077489</v>
       </c>
       <c r="F8" s="97"/>
     </row>
     <row r="9" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="96" t="s">
-        <v>150</v>
+        <v>121</v>
       </c>
       <c r="B9" s="96" t="s">
-        <v>150</v>
-      </c>
-      <c r="C9" s="217">
+        <v>121</v>
+      </c>
+      <c r="C9" s="219">
         <f>1*(1-B4)+D4*(B4)</f>
-        <v>1.1914</v>
-      </c>
-      <c r="D9" s="218"/>
+        <v>1.1679999999999999</v>
+      </c>
+      <c r="D9" s="220"/>
       <c r="E9" s="122">
-        <f>C9/C8</f>
-        <v>1.0324090121317158</v>
+        <f>C9/C6</f>
+        <v>1.0774907749077489</v>
       </c>
     </row>
   </sheetData>
@@ -7374,4 +5882,1684 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67061BFE-6F76-4E7B-9ED9-42BA29E49AED}">
+  <dimension ref="A1:L42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" style="103" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="93"/>
+    <col min="3" max="3" width="2.42578125" style="93" customWidth="1"/>
+    <col min="4" max="4" width="4.140625" style="104" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" style="104" customWidth="1"/>
+    <col min="6" max="6" width="8.5703125" style="104" customWidth="1"/>
+    <col min="7" max="7" width="8.140625" style="104" customWidth="1"/>
+    <col min="8" max="9" width="10.5703125" style="104" customWidth="1"/>
+    <col min="10" max="10" width="6.85546875" style="105" customWidth="1"/>
+    <col min="11" max="11" width="10.5703125" style="116" customWidth="1"/>
+    <col min="12" max="12" width="7.28515625" style="118" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="93"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="103" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="110" t="s">
+        <v>134</v>
+      </c>
+      <c r="B1" s="110">
+        <v>3</v>
+      </c>
+      <c r="D1" s="110" t="s">
+        <v>129</v>
+      </c>
+      <c r="E1" s="110" t="s">
+        <v>130</v>
+      </c>
+      <c r="F1" s="110" t="s">
+        <v>131</v>
+      </c>
+      <c r="G1" s="110" t="s">
+        <v>143</v>
+      </c>
+      <c r="H1" s="110" t="s">
+        <v>132</v>
+      </c>
+      <c r="I1" s="110" t="s">
+        <v>136</v>
+      </c>
+      <c r="J1" s="111" t="s">
+        <v>137</v>
+      </c>
+      <c r="K1" s="115" t="s">
+        <v>144</v>
+      </c>
+      <c r="L1" s="117" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="110" t="s">
+        <v>133</v>
+      </c>
+      <c r="B2" s="112">
+        <v>0.09</v>
+      </c>
+      <c r="D2" s="104">
+        <v>1</v>
+      </c>
+      <c r="E2" s="104">
+        <f>$B$1*D2</f>
+        <v>3</v>
+      </c>
+      <c r="F2" s="106">
+        <f t="shared" ref="F2:F42" si="0">$B$2+$B$6*_xlfn.FLOOR.MATH(E2/$B$3)</f>
+        <v>0.09</v>
+      </c>
+      <c r="G2" s="106">
+        <f>F2/$B$1</f>
+        <v>0.03</v>
+      </c>
+      <c r="H2" s="106">
+        <f>SUM($F$2:F2)</f>
+        <v>0.09</v>
+      </c>
+      <c r="I2" s="107">
+        <f>H2/E2</f>
+        <v>0.03</v>
+      </c>
+      <c r="J2" s="105">
+        <f>1/I2</f>
+        <v>33.333333333333336</v>
+      </c>
+      <c r="K2" s="116">
+        <f>IF($B$13-G2&gt;0,"",$B$13-G2)</f>
+        <v>-1.9230769230769232E-2</v>
+      </c>
+      <c r="L2" s="118">
+        <f>IF(ISNUMBER(K2),-1/K2,"")</f>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="110" t="s">
+        <v>127</v>
+      </c>
+      <c r="B3" s="104">
+        <v>12.2</v>
+      </c>
+      <c r="D3" s="104">
+        <f>D2+1</f>
+        <v>2</v>
+      </c>
+      <c r="E3" s="104">
+        <f>$B$1*D3</f>
+        <v>6</v>
+      </c>
+      <c r="F3" s="106">
+        <f t="shared" si="0"/>
+        <v>0.09</v>
+      </c>
+      <c r="G3" s="106">
+        <f t="shared" ref="G3:G42" si="1">F3/$B$1</f>
+        <v>0.03</v>
+      </c>
+      <c r="H3" s="106">
+        <f>SUM($F$2:F3)</f>
+        <v>0.18</v>
+      </c>
+      <c r="I3" s="107">
+        <f t="shared" ref="I3:I35" si="2">H3/E3</f>
+        <v>0.03</v>
+      </c>
+      <c r="J3" s="105">
+        <f t="shared" ref="J3:J42" si="3">1/I3</f>
+        <v>33.333333333333336</v>
+      </c>
+      <c r="K3" s="116">
+        <f t="shared" ref="K3:K35" si="4">IF($B$13-G3&gt;0,"",$B$13-G3)</f>
+        <v>-1.9230769230769232E-2</v>
+      </c>
+      <c r="L3" s="118">
+        <f t="shared" ref="L3:L42" si="5">IF(ISNUMBER(K3),-1/K3,"")</f>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="110" t="s">
+        <v>128</v>
+      </c>
+      <c r="B4" s="112">
+        <v>0.3</v>
+      </c>
+      <c r="D4" s="104">
+        <f t="shared" ref="D4:D15" si="6">D3+1</f>
+        <v>3</v>
+      </c>
+      <c r="E4" s="104">
+        <f t="shared" ref="E4:E20" si="7">$B$1*D4</f>
+        <v>9</v>
+      </c>
+      <c r="F4" s="106">
+        <f t="shared" si="0"/>
+        <v>0.09</v>
+      </c>
+      <c r="G4" s="106">
+        <f t="shared" si="1"/>
+        <v>0.03</v>
+      </c>
+      <c r="H4" s="106">
+        <f>SUM($F$2:F4)</f>
+        <v>0.27</v>
+      </c>
+      <c r="I4" s="107">
+        <f t="shared" si="2"/>
+        <v>3.0000000000000002E-2</v>
+      </c>
+      <c r="J4" s="105">
+        <f t="shared" si="3"/>
+        <v>33.333333333333329</v>
+      </c>
+      <c r="K4" s="116">
+        <f t="shared" si="4"/>
+        <v>-1.9230769230769232E-2</v>
+      </c>
+      <c r="L4" s="118">
+        <f t="shared" si="5"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D5" s="104">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="E5" s="104">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="F5" s="106">
+        <f t="shared" si="0"/>
+        <v>0.09</v>
+      </c>
+      <c r="G5" s="106">
+        <f t="shared" si="1"/>
+        <v>0.03</v>
+      </c>
+      <c r="H5" s="106">
+        <f>SUM($F$2:F5)</f>
+        <v>0.36</v>
+      </c>
+      <c r="I5" s="107">
+        <f t="shared" si="2"/>
+        <v>0.03</v>
+      </c>
+      <c r="J5" s="105">
+        <f t="shared" si="3"/>
+        <v>33.333333333333336</v>
+      </c>
+      <c r="K5" s="116">
+        <f t="shared" si="4"/>
+        <v>-1.9230769230769232E-2</v>
+      </c>
+      <c r="L5" s="118">
+        <f t="shared" si="5"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="103" t="s">
+        <v>135</v>
+      </c>
+      <c r="B6" s="97">
+        <f>B2*B4</f>
+        <v>2.7E-2</v>
+      </c>
+      <c r="D6" s="104">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="E6" s="104">
+        <f t="shared" si="7"/>
+        <v>15</v>
+      </c>
+      <c r="F6" s="106">
+        <f t="shared" si="0"/>
+        <v>0.11699999999999999</v>
+      </c>
+      <c r="G6" s="106">
+        <f t="shared" si="1"/>
+        <v>3.9E-2</v>
+      </c>
+      <c r="H6" s="106">
+        <f>SUM($F$2:F6)</f>
+        <v>0.47699999999999998</v>
+      </c>
+      <c r="I6" s="107">
+        <f t="shared" si="2"/>
+        <v>3.1800000000000002E-2</v>
+      </c>
+      <c r="J6" s="105">
+        <f t="shared" si="3"/>
+        <v>31.446540880503143</v>
+      </c>
+      <c r="K6" s="116">
+        <f t="shared" si="4"/>
+        <v>-2.8230769230769233E-2</v>
+      </c>
+      <c r="L6" s="118">
+        <f t="shared" si="5"/>
+        <v>35.422343324250676</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D7" s="104">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="E7" s="104">
+        <f t="shared" si="7"/>
+        <v>18</v>
+      </c>
+      <c r="F7" s="106">
+        <f t="shared" si="0"/>
+        <v>0.11699999999999999</v>
+      </c>
+      <c r="G7" s="106">
+        <f t="shared" si="1"/>
+        <v>3.9E-2</v>
+      </c>
+      <c r="H7" s="106">
+        <f>SUM($F$2:F7)</f>
+        <v>0.59399999999999997</v>
+      </c>
+      <c r="I7" s="107">
+        <f t="shared" si="2"/>
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="J7" s="105">
+        <f t="shared" si="3"/>
+        <v>30.303030303030301</v>
+      </c>
+      <c r="K7" s="116">
+        <f t="shared" si="4"/>
+        <v>-2.8230769230769233E-2</v>
+      </c>
+      <c r="L7" s="118">
+        <f t="shared" si="5"/>
+        <v>35.422343324250676</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="65" t="s">
+        <v>138</v>
+      </c>
+      <c r="B8" s="113">
+        <v>3.9</v>
+      </c>
+      <c r="C8" s="97"/>
+      <c r="D8" s="104">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="E8" s="104">
+        <f t="shared" si="7"/>
+        <v>21</v>
+      </c>
+      <c r="F8" s="106">
+        <f t="shared" si="0"/>
+        <v>0.11699999999999999</v>
+      </c>
+      <c r="G8" s="106">
+        <f t="shared" si="1"/>
+        <v>3.9E-2</v>
+      </c>
+      <c r="H8" s="106">
+        <f>SUM($F$2:F8)</f>
+        <v>0.71099999999999997</v>
+      </c>
+      <c r="I8" s="107">
+        <f t="shared" si="2"/>
+        <v>3.3857142857142856E-2</v>
+      </c>
+      <c r="J8" s="105">
+        <f t="shared" si="3"/>
+        <v>29.535864978902953</v>
+      </c>
+      <c r="K8" s="116">
+        <f t="shared" si="4"/>
+        <v>-2.8230769230769233E-2</v>
+      </c>
+      <c r="L8" s="118">
+        <f t="shared" si="5"/>
+        <v>35.422343324250676</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="65" t="s">
+        <v>139</v>
+      </c>
+      <c r="B9" s="114">
+        <v>0.06</v>
+      </c>
+      <c r="D9" s="104">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="E9" s="104">
+        <f t="shared" si="7"/>
+        <v>24</v>
+      </c>
+      <c r="F9" s="106">
+        <f t="shared" si="0"/>
+        <v>0.11699999999999999</v>
+      </c>
+      <c r="G9" s="106">
+        <f t="shared" si="1"/>
+        <v>3.9E-2</v>
+      </c>
+      <c r="H9" s="106">
+        <f>SUM($F$2:F9)</f>
+        <v>0.82799999999999996</v>
+      </c>
+      <c r="I9" s="107">
+        <f t="shared" si="2"/>
+        <v>3.4499999999999996E-2</v>
+      </c>
+      <c r="J9" s="105">
+        <f t="shared" si="3"/>
+        <v>28.985507246376816</v>
+      </c>
+      <c r="K9" s="116">
+        <f t="shared" si="4"/>
+        <v>-2.8230769230769233E-2</v>
+      </c>
+      <c r="L9" s="118">
+        <f t="shared" si="5"/>
+        <v>35.422343324250676</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="65" t="s">
+        <v>140</v>
+      </c>
+      <c r="B10" s="114">
+        <v>0.3</v>
+      </c>
+      <c r="D10" s="104">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="E10" s="104">
+        <f t="shared" si="7"/>
+        <v>27</v>
+      </c>
+      <c r="F10" s="106">
+        <f t="shared" si="0"/>
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="G10" s="106">
+        <f t="shared" si="1"/>
+        <v>4.7999999999999994E-2</v>
+      </c>
+      <c r="H10" s="106">
+        <f>SUM($F$2:F10)</f>
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="I10" s="107">
+        <f t="shared" si="2"/>
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="J10" s="105">
+        <f t="shared" si="3"/>
+        <v>27.777777777777779</v>
+      </c>
+      <c r="K10" s="116">
+        <f t="shared" si="4"/>
+        <v>-3.7230769230769227E-2</v>
+      </c>
+      <c r="L10" s="118">
+        <f t="shared" si="5"/>
+        <v>26.859504132231407</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="108"/>
+      <c r="D11" s="104">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="E11" s="104">
+        <f t="shared" si="7"/>
+        <v>30</v>
+      </c>
+      <c r="F11" s="106">
+        <f t="shared" si="0"/>
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="G11" s="106">
+        <f t="shared" si="1"/>
+        <v>4.7999999999999994E-2</v>
+      </c>
+      <c r="H11" s="106">
+        <f>SUM($F$2:F11)</f>
+        <v>1.1159999999999999</v>
+      </c>
+      <c r="I11" s="107">
+        <f t="shared" si="2"/>
+        <v>3.7199999999999997E-2</v>
+      </c>
+      <c r="J11" s="105">
+        <f t="shared" si="3"/>
+        <v>26.881720430107528</v>
+      </c>
+      <c r="K11" s="116">
+        <f t="shared" si="4"/>
+        <v>-3.7230769230769227E-2</v>
+      </c>
+      <c r="L11" s="118">
+        <f t="shared" si="5"/>
+        <v>26.859504132231407</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="103" t="s">
+        <v>141</v>
+      </c>
+      <c r="B12" s="97">
+        <f>B9*(1-B10)</f>
+        <v>4.1999999999999996E-2</v>
+      </c>
+      <c r="D12" s="104">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="E12" s="104">
+        <f t="shared" si="7"/>
+        <v>33</v>
+      </c>
+      <c r="F12" s="106">
+        <f t="shared" si="0"/>
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="G12" s="106">
+        <f t="shared" si="1"/>
+        <v>4.7999999999999994E-2</v>
+      </c>
+      <c r="H12" s="106">
+        <f>SUM($F$2:F12)</f>
+        <v>1.2599999999999998</v>
+      </c>
+      <c r="I12" s="107">
+        <f t="shared" si="2"/>
+        <v>3.8181818181818178E-2</v>
+      </c>
+      <c r="J12" s="105">
+        <f t="shared" si="3"/>
+        <v>26.190476190476193</v>
+      </c>
+      <c r="K12" s="116">
+        <f t="shared" si="4"/>
+        <v>-3.7230769230769227E-2</v>
+      </c>
+      <c r="L12" s="118">
+        <f t="shared" si="5"/>
+        <v>26.859504132231407</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="103" t="s">
+        <v>142</v>
+      </c>
+      <c r="B13" s="109">
+        <f>B12/B8</f>
+        <v>1.0769230769230769E-2</v>
+      </c>
+      <c r="D13" s="104">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+      <c r="E13" s="104">
+        <f t="shared" si="7"/>
+        <v>36</v>
+      </c>
+      <c r="F13" s="106">
+        <f t="shared" si="0"/>
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="G13" s="106">
+        <f t="shared" si="1"/>
+        <v>4.7999999999999994E-2</v>
+      </c>
+      <c r="H13" s="106">
+        <f>SUM($F$2:F13)</f>
+        <v>1.4039999999999997</v>
+      </c>
+      <c r="I13" s="107">
+        <f t="shared" si="2"/>
+        <v>3.8999999999999993E-2</v>
+      </c>
+      <c r="J13" s="105">
+        <f t="shared" si="3"/>
+        <v>25.641025641025646</v>
+      </c>
+      <c r="K13" s="116">
+        <f t="shared" si="4"/>
+        <v>-3.7230769230769227E-2</v>
+      </c>
+      <c r="L13" s="118">
+        <f t="shared" si="5"/>
+        <v>26.859504132231407</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D14" s="104">
+        <f t="shared" si="6"/>
+        <v>13</v>
+      </c>
+      <c r="E14" s="104">
+        <f t="shared" si="7"/>
+        <v>39</v>
+      </c>
+      <c r="F14" s="106">
+        <f t="shared" si="0"/>
+        <v>0.17099999999999999</v>
+      </c>
+      <c r="G14" s="106">
+        <f t="shared" si="1"/>
+        <v>5.6999999999999995E-2</v>
+      </c>
+      <c r="H14" s="106">
+        <f>SUM($F$2:F14)</f>
+        <v>1.5749999999999997</v>
+      </c>
+      <c r="I14" s="107">
+        <f t="shared" si="2"/>
+        <v>4.038461538461538E-2</v>
+      </c>
+      <c r="J14" s="105">
+        <f t="shared" si="3"/>
+        <v>24.761904761904766</v>
+      </c>
+      <c r="K14" s="116">
+        <f t="shared" si="4"/>
+        <v>-4.6230769230769228E-2</v>
+      </c>
+      <c r="L14" s="118">
+        <f t="shared" si="5"/>
+        <v>21.630615640599004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D15" s="104">
+        <f t="shared" si="6"/>
+        <v>14</v>
+      </c>
+      <c r="E15" s="104">
+        <f t="shared" si="7"/>
+        <v>42</v>
+      </c>
+      <c r="F15" s="106">
+        <f t="shared" si="0"/>
+        <v>0.17099999999999999</v>
+      </c>
+      <c r="G15" s="106">
+        <f t="shared" si="1"/>
+        <v>5.6999999999999995E-2</v>
+      </c>
+      <c r="H15" s="106">
+        <f>SUM($F$2:F15)</f>
+        <v>1.7459999999999998</v>
+      </c>
+      <c r="I15" s="107">
+        <f t="shared" si="2"/>
+        <v>4.1571428571428565E-2</v>
+      </c>
+      <c r="J15" s="105">
+        <f t="shared" si="3"/>
+        <v>24.054982817869419</v>
+      </c>
+      <c r="K15" s="116">
+        <f t="shared" si="4"/>
+        <v>-4.6230769230769228E-2</v>
+      </c>
+      <c r="L15" s="118">
+        <f t="shared" si="5"/>
+        <v>21.630615640599004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D16" s="104">
+        <f t="shared" ref="D16:D42" si="8">D15+1</f>
+        <v>15</v>
+      </c>
+      <c r="E16" s="104">
+        <f t="shared" si="7"/>
+        <v>45</v>
+      </c>
+      <c r="F16" s="106">
+        <f t="shared" si="0"/>
+        <v>0.17099999999999999</v>
+      </c>
+      <c r="G16" s="106">
+        <f t="shared" si="1"/>
+        <v>5.6999999999999995E-2</v>
+      </c>
+      <c r="H16" s="106">
+        <f>SUM($F$2:F16)</f>
+        <v>1.9169999999999998</v>
+      </c>
+      <c r="I16" s="107">
+        <f t="shared" si="2"/>
+        <v>4.2599999999999999E-2</v>
+      </c>
+      <c r="J16" s="105">
+        <f t="shared" si="3"/>
+        <v>23.474178403755868</v>
+      </c>
+      <c r="K16" s="116">
+        <f t="shared" si="4"/>
+        <v>-4.6230769230769228E-2</v>
+      </c>
+      <c r="L16" s="118">
+        <f t="shared" si="5"/>
+        <v>21.630615640599004</v>
+      </c>
+    </row>
+    <row r="17" spans="4:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D17" s="104">
+        <f t="shared" si="8"/>
+        <v>16</v>
+      </c>
+      <c r="E17" s="104">
+        <f t="shared" si="7"/>
+        <v>48</v>
+      </c>
+      <c r="F17" s="106">
+        <f t="shared" si="0"/>
+        <v>0.17099999999999999</v>
+      </c>
+      <c r="G17" s="106">
+        <f t="shared" si="1"/>
+        <v>5.6999999999999995E-2</v>
+      </c>
+      <c r="H17" s="106">
+        <f>SUM($F$2:F17)</f>
+        <v>2.0879999999999996</v>
+      </c>
+      <c r="I17" s="107">
+        <f t="shared" si="2"/>
+        <v>4.349999999999999E-2</v>
+      </c>
+      <c r="J17" s="105">
+        <f t="shared" si="3"/>
+        <v>22.988505747126442</v>
+      </c>
+      <c r="K17" s="116">
+        <f t="shared" si="4"/>
+        <v>-4.6230769230769228E-2</v>
+      </c>
+      <c r="L17" s="118">
+        <f t="shared" si="5"/>
+        <v>21.630615640599004</v>
+      </c>
+    </row>
+    <row r="18" spans="4:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D18" s="104">
+        <f t="shared" si="8"/>
+        <v>17</v>
+      </c>
+      <c r="E18" s="104">
+        <f t="shared" si="7"/>
+        <v>51</v>
+      </c>
+      <c r="F18" s="106">
+        <f t="shared" si="0"/>
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="G18" s="106">
+        <f t="shared" si="1"/>
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="H18" s="106">
+        <f>SUM($F$2:F18)</f>
+        <v>2.2859999999999996</v>
+      </c>
+      <c r="I18" s="107">
+        <f t="shared" si="2"/>
+        <v>4.48235294117647E-2</v>
+      </c>
+      <c r="J18" s="105">
+        <f t="shared" si="3"/>
+        <v>22.309711286089243</v>
+      </c>
+      <c r="K18" s="116">
+        <f t="shared" si="4"/>
+        <v>-5.5230769230769236E-2</v>
+      </c>
+      <c r="L18" s="118">
+        <f t="shared" si="5"/>
+        <v>18.105849582172699</v>
+      </c>
+    </row>
+    <row r="19" spans="4:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D19" s="104">
+        <f t="shared" si="8"/>
+        <v>18</v>
+      </c>
+      <c r="E19" s="104">
+        <f t="shared" si="7"/>
+        <v>54</v>
+      </c>
+      <c r="F19" s="106">
+        <f t="shared" si="0"/>
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="G19" s="106">
+        <f t="shared" si="1"/>
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="H19" s="106">
+        <f>SUM($F$2:F19)</f>
+        <v>2.4839999999999995</v>
+      </c>
+      <c r="I19" s="107">
+        <f t="shared" si="2"/>
+        <v>4.5999999999999992E-2</v>
+      </c>
+      <c r="J19" s="105">
+        <f t="shared" si="3"/>
+        <v>21.739130434782613</v>
+      </c>
+      <c r="K19" s="116">
+        <f t="shared" si="4"/>
+        <v>-5.5230769230769236E-2</v>
+      </c>
+      <c r="L19" s="118">
+        <f t="shared" si="5"/>
+        <v>18.105849582172699</v>
+      </c>
+    </row>
+    <row r="20" spans="4:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D20" s="104">
+        <f t="shared" si="8"/>
+        <v>19</v>
+      </c>
+      <c r="E20" s="104">
+        <f t="shared" si="7"/>
+        <v>57</v>
+      </c>
+      <c r="F20" s="106">
+        <f t="shared" si="0"/>
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="G20" s="106">
+        <f t="shared" si="1"/>
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="H20" s="106">
+        <f>SUM($F$2:F20)</f>
+        <v>2.6819999999999995</v>
+      </c>
+      <c r="I20" s="107">
+        <f t="shared" si="2"/>
+        <v>4.705263157894736E-2</v>
+      </c>
+      <c r="J20" s="105">
+        <f t="shared" si="3"/>
+        <v>21.25279642058166</v>
+      </c>
+      <c r="K20" s="116">
+        <f t="shared" si="4"/>
+        <v>-5.5230769230769236E-2</v>
+      </c>
+      <c r="L20" s="118">
+        <f t="shared" si="5"/>
+        <v>18.105849582172699</v>
+      </c>
+    </row>
+    <row r="21" spans="4:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D21" s="104">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="E21" s="104">
+        <f t="shared" ref="E21:E28" si="9">$B$1*D21</f>
+        <v>60</v>
+      </c>
+      <c r="F21" s="106">
+        <f t="shared" si="0"/>
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="G21" s="106">
+        <f t="shared" si="1"/>
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="H21" s="106">
+        <f>SUM($F$2:F21)</f>
+        <v>2.8799999999999994</v>
+      </c>
+      <c r="I21" s="107">
+        <f t="shared" si="2"/>
+        <v>4.7999999999999994E-2</v>
+      </c>
+      <c r="J21" s="105">
+        <f t="shared" si="3"/>
+        <v>20.833333333333336</v>
+      </c>
+      <c r="K21" s="116">
+        <f t="shared" si="4"/>
+        <v>-5.5230769230769236E-2</v>
+      </c>
+      <c r="L21" s="118">
+        <f t="shared" si="5"/>
+        <v>18.105849582172699</v>
+      </c>
+    </row>
+    <row r="22" spans="4:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D22" s="104">
+        <f t="shared" si="8"/>
+        <v>21</v>
+      </c>
+      <c r="E22" s="104">
+        <f t="shared" si="9"/>
+        <v>63</v>
+      </c>
+      <c r="F22" s="106">
+        <f t="shared" si="0"/>
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="G22" s="106">
+        <f t="shared" si="1"/>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="H22" s="106">
+        <f>SUM($F$2:F22)</f>
+        <v>3.1049999999999995</v>
+      </c>
+      <c r="I22" s="107">
+        <f t="shared" si="2"/>
+        <v>4.928571428571428E-2</v>
+      </c>
+      <c r="J22" s="105">
+        <f t="shared" si="3"/>
+        <v>20.289855072463769</v>
+      </c>
+      <c r="K22" s="116">
+        <f t="shared" si="4"/>
+        <v>-6.423076923076923E-2</v>
+      </c>
+      <c r="L22" s="118">
+        <f t="shared" si="5"/>
+        <v>15.568862275449101</v>
+      </c>
+    </row>
+    <row r="23" spans="4:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D23" s="104">
+        <f t="shared" si="8"/>
+        <v>22</v>
+      </c>
+      <c r="E23" s="104">
+        <f t="shared" si="9"/>
+        <v>66</v>
+      </c>
+      <c r="F23" s="106">
+        <f t="shared" si="0"/>
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="G23" s="106">
+        <f t="shared" si="1"/>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="H23" s="106">
+        <f>SUM($F$2:F23)</f>
+        <v>3.3299999999999996</v>
+      </c>
+      <c r="I23" s="107">
+        <f t="shared" si="2"/>
+        <v>5.0454545454545446E-2</v>
+      </c>
+      <c r="J23" s="105">
+        <f t="shared" si="3"/>
+        <v>19.819819819819823</v>
+      </c>
+      <c r="K23" s="116">
+        <f t="shared" si="4"/>
+        <v>-6.423076923076923E-2</v>
+      </c>
+      <c r="L23" s="118">
+        <f t="shared" si="5"/>
+        <v>15.568862275449101</v>
+      </c>
+    </row>
+    <row r="24" spans="4:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D24" s="104">
+        <f t="shared" si="8"/>
+        <v>23</v>
+      </c>
+      <c r="E24" s="104">
+        <f t="shared" si="9"/>
+        <v>69</v>
+      </c>
+      <c r="F24" s="106">
+        <f t="shared" si="0"/>
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="G24" s="106">
+        <f t="shared" si="1"/>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="H24" s="106">
+        <f>SUM($F$2:F24)</f>
+        <v>3.5549999999999997</v>
+      </c>
+      <c r="I24" s="107">
+        <f t="shared" si="2"/>
+        <v>5.1521739130434778E-2</v>
+      </c>
+      <c r="J24" s="105">
+        <f t="shared" si="3"/>
+        <v>19.409282700421944</v>
+      </c>
+      <c r="K24" s="116">
+        <f t="shared" si="4"/>
+        <v>-6.423076923076923E-2</v>
+      </c>
+      <c r="L24" s="118">
+        <f t="shared" si="5"/>
+        <v>15.568862275449101</v>
+      </c>
+    </row>
+    <row r="25" spans="4:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D25" s="104">
+        <f t="shared" si="8"/>
+        <v>24</v>
+      </c>
+      <c r="E25" s="104">
+        <f t="shared" si="9"/>
+        <v>72</v>
+      </c>
+      <c r="F25" s="106">
+        <f t="shared" si="0"/>
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="G25" s="106">
+        <f t="shared" si="1"/>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="H25" s="106">
+        <f>SUM($F$2:F25)</f>
+        <v>3.78</v>
+      </c>
+      <c r="I25" s="107">
+        <f t="shared" si="2"/>
+        <v>5.2499999999999998E-2</v>
+      </c>
+      <c r="J25" s="105">
+        <f t="shared" si="3"/>
+        <v>19.047619047619047</v>
+      </c>
+      <c r="K25" s="116">
+        <f t="shared" si="4"/>
+        <v>-6.423076923076923E-2</v>
+      </c>
+      <c r="L25" s="118">
+        <f t="shared" si="5"/>
+        <v>15.568862275449101</v>
+      </c>
+    </row>
+    <row r="26" spans="4:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D26" s="104">
+        <f t="shared" si="8"/>
+        <v>25</v>
+      </c>
+      <c r="E26" s="104">
+        <f t="shared" si="9"/>
+        <v>75</v>
+      </c>
+      <c r="F26" s="106">
+        <f t="shared" si="0"/>
+        <v>0.252</v>
+      </c>
+      <c r="G26" s="106">
+        <f t="shared" si="1"/>
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="H26" s="106">
+        <f>SUM($F$2:F26)</f>
+        <v>4.032</v>
+      </c>
+      <c r="I26" s="107">
+        <f t="shared" si="2"/>
+        <v>5.3760000000000002E-2</v>
+      </c>
+      <c r="J26" s="105">
+        <f t="shared" si="3"/>
+        <v>18.601190476190474</v>
+      </c>
+      <c r="K26" s="116">
+        <f t="shared" si="4"/>
+        <v>-7.3230769230769238E-2</v>
+      </c>
+      <c r="L26" s="118">
+        <f t="shared" si="5"/>
+        <v>13.655462184873949</v>
+      </c>
+    </row>
+    <row r="27" spans="4:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D27" s="104">
+        <f t="shared" si="8"/>
+        <v>26</v>
+      </c>
+      <c r="E27" s="104">
+        <f t="shared" si="9"/>
+        <v>78</v>
+      </c>
+      <c r="F27" s="106">
+        <f t="shared" si="0"/>
+        <v>0.252</v>
+      </c>
+      <c r="G27" s="106">
+        <f t="shared" si="1"/>
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="H27" s="106">
+        <f>SUM($F$2:F27)</f>
+        <v>4.2839999999999998</v>
+      </c>
+      <c r="I27" s="107">
+        <f t="shared" si="2"/>
+        <v>5.4923076923076922E-2</v>
+      </c>
+      <c r="J27" s="105">
+        <f t="shared" si="3"/>
+        <v>18.207282913165265</v>
+      </c>
+      <c r="K27" s="116">
+        <f t="shared" si="4"/>
+        <v>-7.3230769230769238E-2</v>
+      </c>
+      <c r="L27" s="118">
+        <f t="shared" si="5"/>
+        <v>13.655462184873949</v>
+      </c>
+    </row>
+    <row r="28" spans="4:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D28" s="104">
+        <f t="shared" si="8"/>
+        <v>27</v>
+      </c>
+      <c r="E28" s="104">
+        <f t="shared" si="9"/>
+        <v>81</v>
+      </c>
+      <c r="F28" s="106">
+        <f t="shared" si="0"/>
+        <v>0.252</v>
+      </c>
+      <c r="G28" s="106">
+        <f t="shared" si="1"/>
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="H28" s="106">
+        <f>SUM($F$2:F28)</f>
+        <v>4.5359999999999996</v>
+      </c>
+      <c r="I28" s="107">
+        <f t="shared" si="2"/>
+        <v>5.5999999999999994E-2</v>
+      </c>
+      <c r="J28" s="105">
+        <f t="shared" si="3"/>
+        <v>17.857142857142858</v>
+      </c>
+      <c r="K28" s="116">
+        <f t="shared" si="4"/>
+        <v>-7.3230769230769238E-2</v>
+      </c>
+      <c r="L28" s="118">
+        <f t="shared" si="5"/>
+        <v>13.655462184873949</v>
+      </c>
+    </row>
+    <row r="29" spans="4:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D29" s="104">
+        <f t="shared" si="8"/>
+        <v>28</v>
+      </c>
+      <c r="E29" s="104">
+        <f t="shared" ref="E29:E35" si="10">$B$1*D29</f>
+        <v>84</v>
+      </c>
+      <c r="F29" s="106">
+        <f t="shared" si="0"/>
+        <v>0.252</v>
+      </c>
+      <c r="G29" s="106">
+        <f t="shared" si="1"/>
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="H29" s="106">
+        <f>SUM($F$2:F29)</f>
+        <v>4.7879999999999994</v>
+      </c>
+      <c r="I29" s="107">
+        <f t="shared" si="2"/>
+        <v>5.6999999999999995E-2</v>
+      </c>
+      <c r="J29" s="105">
+        <f t="shared" si="3"/>
+        <v>17.543859649122808</v>
+      </c>
+      <c r="K29" s="116">
+        <f t="shared" si="4"/>
+        <v>-7.3230769230769238E-2</v>
+      </c>
+      <c r="L29" s="118">
+        <f t="shared" si="5"/>
+        <v>13.655462184873949</v>
+      </c>
+    </row>
+    <row r="30" spans="4:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D30" s="104">
+        <f t="shared" si="8"/>
+        <v>29</v>
+      </c>
+      <c r="E30" s="104">
+        <f t="shared" si="10"/>
+        <v>87</v>
+      </c>
+      <c r="F30" s="106">
+        <f t="shared" si="0"/>
+        <v>0.27900000000000003</v>
+      </c>
+      <c r="G30" s="106">
+        <f t="shared" si="1"/>
+        <v>9.3000000000000013E-2</v>
+      </c>
+      <c r="H30" s="106">
+        <f>SUM($F$2:F30)</f>
+        <v>5.0669999999999993</v>
+      </c>
+      <c r="I30" s="107">
+        <f t="shared" si="2"/>
+        <v>5.8241379310344822E-2</v>
+      </c>
+      <c r="J30" s="105">
+        <f t="shared" si="3"/>
+        <v>17.169923031379515</v>
+      </c>
+      <c r="K30" s="116">
+        <f t="shared" si="4"/>
+        <v>-8.2230769230769246E-2</v>
+      </c>
+      <c r="L30" s="118">
+        <f t="shared" si="5"/>
+        <v>12.160898035547238</v>
+      </c>
+    </row>
+    <row r="31" spans="4:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D31" s="104">
+        <f t="shared" si="8"/>
+        <v>30</v>
+      </c>
+      <c r="E31" s="104">
+        <f t="shared" si="10"/>
+        <v>90</v>
+      </c>
+      <c r="F31" s="106">
+        <f t="shared" si="0"/>
+        <v>0.27900000000000003</v>
+      </c>
+      <c r="G31" s="106">
+        <f t="shared" si="1"/>
+        <v>9.3000000000000013E-2</v>
+      </c>
+      <c r="H31" s="106">
+        <f>SUM($F$2:F31)</f>
+        <v>5.3459999999999992</v>
+      </c>
+      <c r="I31" s="107">
+        <f t="shared" si="2"/>
+        <v>5.9399999999999994E-2</v>
+      </c>
+      <c r="J31" s="105">
+        <f t="shared" si="3"/>
+        <v>16.835016835016837</v>
+      </c>
+      <c r="K31" s="116">
+        <f t="shared" si="4"/>
+        <v>-8.2230769230769246E-2</v>
+      </c>
+      <c r="L31" s="118">
+        <f t="shared" si="5"/>
+        <v>12.160898035547238</v>
+      </c>
+    </row>
+    <row r="32" spans="4:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D32" s="104">
+        <f t="shared" si="8"/>
+        <v>31</v>
+      </c>
+      <c r="E32" s="104">
+        <f t="shared" si="10"/>
+        <v>93</v>
+      </c>
+      <c r="F32" s="106">
+        <f t="shared" si="0"/>
+        <v>0.27900000000000003</v>
+      </c>
+      <c r="G32" s="106">
+        <f t="shared" si="1"/>
+        <v>9.3000000000000013E-2</v>
+      </c>
+      <c r="H32" s="106">
+        <f>SUM($F$2:F32)</f>
+        <v>5.6249999999999991</v>
+      </c>
+      <c r="I32" s="107">
+        <f t="shared" si="2"/>
+        <v>6.0483870967741923E-2</v>
+      </c>
+      <c r="J32" s="105">
+        <f t="shared" si="3"/>
+        <v>16.533333333333335</v>
+      </c>
+      <c r="K32" s="116">
+        <f t="shared" si="4"/>
+        <v>-8.2230769230769246E-2</v>
+      </c>
+      <c r="L32" s="118">
+        <f t="shared" si="5"/>
+        <v>12.160898035547238</v>
+      </c>
+    </row>
+    <row r="33" spans="4:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D33" s="104">
+        <f t="shared" si="8"/>
+        <v>32</v>
+      </c>
+      <c r="E33" s="104">
+        <f t="shared" si="10"/>
+        <v>96</v>
+      </c>
+      <c r="F33" s="106">
+        <f t="shared" si="0"/>
+        <v>0.27900000000000003</v>
+      </c>
+      <c r="G33" s="106">
+        <f t="shared" si="1"/>
+        <v>9.3000000000000013E-2</v>
+      </c>
+      <c r="H33" s="106">
+        <f>SUM($F$2:F33)</f>
+        <v>5.903999999999999</v>
+      </c>
+      <c r="I33" s="107">
+        <f t="shared" si="2"/>
+        <v>6.1499999999999992E-2</v>
+      </c>
+      <c r="J33" s="105">
+        <f t="shared" si="3"/>
+        <v>16.260162601626018</v>
+      </c>
+      <c r="K33" s="116">
+        <f t="shared" si="4"/>
+        <v>-8.2230769230769246E-2</v>
+      </c>
+      <c r="L33" s="118">
+        <f t="shared" si="5"/>
+        <v>12.160898035547238</v>
+      </c>
+    </row>
+    <row r="34" spans="4:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D34" s="104">
+        <f t="shared" si="8"/>
+        <v>33</v>
+      </c>
+      <c r="E34" s="104">
+        <f t="shared" si="10"/>
+        <v>99</v>
+      </c>
+      <c r="F34" s="106">
+        <f t="shared" si="0"/>
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="G34" s="106">
+        <f t="shared" si="1"/>
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="H34" s="106">
+        <f>SUM($F$2:F34)</f>
+        <v>6.2099999999999991</v>
+      </c>
+      <c r="I34" s="107">
+        <f t="shared" si="2"/>
+        <v>6.2727272727272715E-2</v>
+      </c>
+      <c r="J34" s="105">
+        <f t="shared" si="3"/>
+        <v>15.94202898550725</v>
+      </c>
+      <c r="K34" s="116">
+        <f t="shared" si="4"/>
+        <v>-9.1230769230769226E-2</v>
+      </c>
+      <c r="L34" s="118">
+        <f t="shared" si="5"/>
+        <v>10.961214165261383</v>
+      </c>
+    </row>
+    <row r="35" spans="4:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D35" s="104">
+        <f t="shared" si="8"/>
+        <v>34</v>
+      </c>
+      <c r="E35" s="104">
+        <f t="shared" si="10"/>
+        <v>102</v>
+      </c>
+      <c r="F35" s="106">
+        <f t="shared" si="0"/>
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="G35" s="106">
+        <f t="shared" si="1"/>
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="H35" s="106">
+        <f>SUM($F$2:F35)</f>
+        <v>6.5159999999999991</v>
+      </c>
+      <c r="I35" s="107">
+        <f t="shared" si="2"/>
+        <v>6.388235294117646E-2</v>
+      </c>
+      <c r="J35" s="105">
+        <f t="shared" si="3"/>
+        <v>15.653775322283613</v>
+      </c>
+      <c r="K35" s="116">
+        <f t="shared" si="4"/>
+        <v>-9.1230769230769226E-2</v>
+      </c>
+      <c r="L35" s="118">
+        <f t="shared" si="5"/>
+        <v>10.961214165261383</v>
+      </c>
+    </row>
+    <row r="36" spans="4:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D36" s="104">
+        <f t="shared" si="8"/>
+        <v>35</v>
+      </c>
+      <c r="E36" s="104">
+        <f t="shared" ref="E36:E42" si="11">$B$1*D36</f>
+        <v>105</v>
+      </c>
+      <c r="F36" s="106">
+        <f t="shared" si="0"/>
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="G36" s="106">
+        <f t="shared" si="1"/>
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="H36" s="106">
+        <f>SUM($F$2:F36)</f>
+        <v>6.8219999999999992</v>
+      </c>
+      <c r="I36" s="107">
+        <f t="shared" ref="I36:I42" si="12">H36/E36</f>
+        <v>6.4971428571428569E-2</v>
+      </c>
+      <c r="J36" s="105">
+        <f t="shared" si="3"/>
+        <v>15.391380826737027</v>
+      </c>
+      <c r="K36" s="116">
+        <f t="shared" ref="K36:K42" si="13">IF($B$13-G36&gt;0,"",$B$13-G36)</f>
+        <v>-9.1230769230769226E-2</v>
+      </c>
+      <c r="L36" s="118">
+        <f t="shared" si="5"/>
+        <v>10.961214165261383</v>
+      </c>
+    </row>
+    <row r="37" spans="4:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D37" s="104">
+        <f t="shared" si="8"/>
+        <v>36</v>
+      </c>
+      <c r="E37" s="104">
+        <f t="shared" si="11"/>
+        <v>108</v>
+      </c>
+      <c r="F37" s="106">
+        <f t="shared" si="0"/>
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="G37" s="106">
+        <f t="shared" si="1"/>
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="H37" s="106">
+        <f>SUM($F$2:F37)</f>
+        <v>7.1279999999999992</v>
+      </c>
+      <c r="I37" s="107">
+        <f t="shared" si="12"/>
+        <v>6.5999999999999989E-2</v>
+      </c>
+      <c r="J37" s="105">
+        <f t="shared" si="3"/>
+        <v>15.151515151515154</v>
+      </c>
+      <c r="K37" s="116">
+        <f t="shared" si="13"/>
+        <v>-9.1230769230769226E-2</v>
+      </c>
+      <c r="L37" s="118">
+        <f t="shared" si="5"/>
+        <v>10.961214165261383</v>
+      </c>
+    </row>
+    <row r="38" spans="4:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D38" s="104">
+        <f t="shared" si="8"/>
+        <v>37</v>
+      </c>
+      <c r="E38" s="104">
+        <f t="shared" si="11"/>
+        <v>111</v>
+      </c>
+      <c r="F38" s="106">
+        <f t="shared" si="0"/>
+        <v>0.33299999999999996</v>
+      </c>
+      <c r="G38" s="106">
+        <f t="shared" si="1"/>
+        <v>0.11099999999999999</v>
+      </c>
+      <c r="H38" s="106">
+        <f>SUM($F$2:F38)</f>
+        <v>7.4609999999999994</v>
+      </c>
+      <c r="I38" s="107">
+        <f t="shared" si="12"/>
+        <v>6.7216216216216207E-2</v>
+      </c>
+      <c r="J38" s="105">
+        <f t="shared" si="3"/>
+        <v>14.877362283876158</v>
+      </c>
+      <c r="K38" s="116">
+        <f t="shared" si="13"/>
+        <v>-0.10023076923076922</v>
+      </c>
+      <c r="L38" s="118">
+        <f t="shared" si="5"/>
+        <v>9.9769762087490417</v>
+      </c>
+    </row>
+    <row r="39" spans="4:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D39" s="104">
+        <f t="shared" si="8"/>
+        <v>38</v>
+      </c>
+      <c r="E39" s="104">
+        <f t="shared" si="11"/>
+        <v>114</v>
+      </c>
+      <c r="F39" s="106">
+        <f t="shared" si="0"/>
+        <v>0.33299999999999996</v>
+      </c>
+      <c r="G39" s="106">
+        <f t="shared" si="1"/>
+        <v>0.11099999999999999</v>
+      </c>
+      <c r="H39" s="106">
+        <f>SUM($F$2:F39)</f>
+        <v>7.7939999999999996</v>
+      </c>
+      <c r="I39" s="107">
+        <f t="shared" si="12"/>
+        <v>6.8368421052631578E-2</v>
+      </c>
+      <c r="J39" s="105">
+        <f t="shared" si="3"/>
+        <v>14.626635873749038</v>
+      </c>
+      <c r="K39" s="116">
+        <f t="shared" si="13"/>
+        <v>-0.10023076923076922</v>
+      </c>
+      <c r="L39" s="118">
+        <f t="shared" si="5"/>
+        <v>9.9769762087490417</v>
+      </c>
+    </row>
+    <row r="40" spans="4:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D40" s="104">
+        <f t="shared" si="8"/>
+        <v>39</v>
+      </c>
+      <c r="E40" s="104">
+        <f t="shared" si="11"/>
+        <v>117</v>
+      </c>
+      <c r="F40" s="106">
+        <f t="shared" si="0"/>
+        <v>0.33299999999999996</v>
+      </c>
+      <c r="G40" s="106">
+        <f t="shared" si="1"/>
+        <v>0.11099999999999999</v>
+      </c>
+      <c r="H40" s="106">
+        <f>SUM($F$2:F40)</f>
+        <v>8.1269999999999989</v>
+      </c>
+      <c r="I40" s="107">
+        <f t="shared" si="12"/>
+        <v>6.946153846153845E-2</v>
+      </c>
+      <c r="J40" s="105">
+        <f t="shared" si="3"/>
+        <v>14.396456256921375</v>
+      </c>
+      <c r="K40" s="116">
+        <f t="shared" si="13"/>
+        <v>-0.10023076923076922</v>
+      </c>
+      <c r="L40" s="118">
+        <f t="shared" si="5"/>
+        <v>9.9769762087490417</v>
+      </c>
+    </row>
+    <row r="41" spans="4:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D41" s="104">
+        <f t="shared" si="8"/>
+        <v>40</v>
+      </c>
+      <c r="E41" s="104">
+        <f t="shared" si="11"/>
+        <v>120</v>
+      </c>
+      <c r="F41" s="106">
+        <f t="shared" si="0"/>
+        <v>0.33299999999999996</v>
+      </c>
+      <c r="G41" s="106">
+        <f t="shared" si="1"/>
+        <v>0.11099999999999999</v>
+      </c>
+      <c r="H41" s="106">
+        <f>SUM($F$2:F41)</f>
+        <v>8.4599999999999991</v>
+      </c>
+      <c r="I41" s="107">
+        <f t="shared" si="12"/>
+        <v>7.0499999999999993E-2</v>
+      </c>
+      <c r="J41" s="105">
+        <f t="shared" si="3"/>
+        <v>14.184397163120568</v>
+      </c>
+      <c r="K41" s="116">
+        <f t="shared" si="13"/>
+        <v>-0.10023076923076922</v>
+      </c>
+      <c r="L41" s="118">
+        <f t="shared" si="5"/>
+        <v>9.9769762087490417</v>
+      </c>
+    </row>
+    <row r="42" spans="4:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D42" s="104">
+        <f t="shared" si="8"/>
+        <v>41</v>
+      </c>
+      <c r="E42" s="104">
+        <f t="shared" si="11"/>
+        <v>123</v>
+      </c>
+      <c r="F42" s="106">
+        <f t="shared" si="0"/>
+        <v>0.36</v>
+      </c>
+      <c r="G42" s="106">
+        <f t="shared" si="1"/>
+        <v>0.12</v>
+      </c>
+      <c r="H42" s="106">
+        <f>SUM($F$2:F42)</f>
+        <v>8.8199999999999985</v>
+      </c>
+      <c r="I42" s="107">
+        <f t="shared" si="12"/>
+        <v>7.1707317073170726E-2</v>
+      </c>
+      <c r="J42" s="105">
+        <f t="shared" si="3"/>
+        <v>13.945578231292519</v>
+      </c>
+      <c r="K42" s="116">
+        <f t="shared" si="13"/>
+        <v>-0.10923076923076923</v>
+      </c>
+      <c r="L42" s="118">
+        <f t="shared" si="5"/>
+        <v>9.1549295774647881</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Brainstorm.xlsx
+++ b/Brainstorm.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Personal@SSD\Game\DL\dragalia-data-track\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96E206AF-EDCE-48C7-B90C-680FB0E7CB93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E144306D-BEE4-4A01-97FE-90C84144C361}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5940" yWindow="945" windowWidth="21600" windowHeight="11385" activeTab="4" xr2:uid="{4CFB4A6A-60C6-4091-BCA5-480044B61D33}"/>
+    <workbookView xWindow="7935" yWindow="345" windowWidth="18735" windowHeight="11400" activeTab="4" xr2:uid="{4CFB4A6A-60C6-4091-BCA5-480044B61D33}"/>
   </bookViews>
   <sheets>
     <sheet name="Rotation" sheetId="8" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Equips" sheetId="6" state="hidden" r:id="rId3"/>
     <sheet name="Steps" sheetId="4" state="hidden" r:id="rId4"/>
     <sheet name="Damage" sheetId="12" r:id="rId5"/>
-    <sheet name="Sheet2" sheetId="13" r:id="rId6"/>
+    <sheet name="Enmity" sheetId="13" r:id="rId6"/>
     <sheet name="Dragon" sheetId="9" r:id="rId7"/>
     <sheet name="CRT effect" sheetId="10" r:id="rId8"/>
     <sheet name="Corrosion" sheetId="11" state="hidden" r:id="rId9"/>
@@ -48,7 +48,7 @@
     <author>tc={DFE1C7C2-B602-406E-BFFD-8570BFC5E5EA}</author>
   </authors>
   <commentList>
-    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{ED694F4C-CBA5-4DCA-BDE8-23901C6128BC}">
+    <comment ref="B12" authorId="0" shapeId="0" xr:uid="{ED694F4C-CBA5-4DCA-BDE8-23901C6128BC}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -59,7 +59,7 @@
 滿血、0 Combo</t>
       </text>
     </comment>
-    <comment ref="B6" authorId="1" shapeId="0" xr:uid="{DFE1C7C2-B602-406E-BFFD-8570BFC5E5EA}">
+    <comment ref="B13" authorId="1" shapeId="0" xr:uid="{DFE1C7C2-B602-406E-BFFD-8570BFC5E5EA}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -95,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="189">
   <si>
     <t>睡抗</t>
   </si>
@@ -555,15 +555,6 @@
     <t>亞森</t>
   </si>
   <si>
-    <t>ENER</t>
-  </si>
-  <si>
-    <t>PUN (O)</t>
-  </si>
-  <si>
-    <t>PUN (B)</t>
-  </si>
-  <si>
     <t>DEF -</t>
   </si>
   <si>
@@ -576,21 +567,6 @@
     <t>Effectiveness</t>
   </si>
   <si>
-    <t>HP%</t>
-  </si>
-  <si>
-    <t>ATK (P)</t>
-  </si>
-  <si>
-    <t>SD (P)</t>
-  </si>
-  <si>
-    <t>SD (B)</t>
-  </si>
-  <si>
-    <t>ATK (B)</t>
-  </si>
-  <si>
     <t>Constant</t>
   </si>
   <si>
@@ -675,16 +651,19 @@
     <t>Damage</t>
   </si>
   <si>
-    <t>E @ 30% Pun</t>
-  </si>
-  <si>
-    <t>E @ 45% Pun</t>
-  </si>
-  <si>
-    <t>No E @ 45% Pun - C 130</t>
-  </si>
-  <si>
-    <t>No E @ 45% Pun - 145</t>
+    <t>-</t>
+  </si>
+  <si>
+    <t>GRanzal Gzeph Ener</t>
+  </si>
+  <si>
+    <t>GNotte Volk S1</t>
+  </si>
+  <si>
+    <t>GNotte Volk S2</t>
+  </si>
+  <si>
+    <t>GNotte Volk Xander</t>
   </si>
 </sst>
 </file>
@@ -795,7 +774,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="50">
+  <fills count="63">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1090,8 +1069,86 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6E6B00"/>
+        <bgColor rgb="FFEAD1DC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6E6B00"/>
+        <bgColor rgb="FFD9D9D9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6E6B00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF006E32"/>
+        <bgColor rgb="FFEAD1DC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF006E32"/>
+        <bgColor rgb="FFD9D9D9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF006E32"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF3B1A54"/>
+        <bgColor rgb="FFEAD1DC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF3B1A54"/>
+        <bgColor rgb="FFD9D9D9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF3B1A54"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6E0000"/>
+        <bgColor rgb="FFEAD1DC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6E0000"/>
+        <bgColor rgb="FFD9D9D9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6E0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="23">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -1383,12 +1440,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
+      </left>
+      <right style="medium">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
+      </left>
+      <right style="medium">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="223">
+  <cellXfs count="239">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1465,9 +1548,6 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="5" fillId="22" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="5" fillId="22" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1484,9 +1564,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="27" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="29" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1801,6 +1878,54 @@
     <xf numFmtId="0" fontId="5" fillId="32" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="5" fillId="37" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="50" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="50" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="50" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="51" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="52" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="53" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="54" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="55" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="56" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="57" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="58" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="59" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="60" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="61" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="62" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="41" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1843,12 +1968,75 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="11" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="4" fontId="5" fillId="35" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="5" fillId="35" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="48" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="48" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="14" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="14" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="50" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="50" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="23" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="23" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="23" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="28" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="28" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="30" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="30" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="30" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="32" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="32" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="38" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1858,61 +2046,64 @@
     <xf numFmtId="0" fontId="5" fillId="38" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="48" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="48" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="14" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="14" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="23" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="23" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="23" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="28" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="28" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="30" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="30" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="30" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="32" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="32" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="46" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="46" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="20" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1927,21 +2118,6 @@
     <xf numFmtId="0" fontId="5" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="10" fontId="5" fillId="21" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1961,51 +2137,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="46" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="46" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2065,16 +2196,16 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF6E0000"/>
+      <color rgb="FF3B1A54"/>
+      <color rgb="FF006E32"/>
+      <color rgb="FF6E6B00"/>
+      <color rgb="FF787500"/>
+      <color rgb="FF500000"/>
+      <color rgb="FF2B133D"/>
+      <color rgb="FF005024"/>
+      <color rgb="FF504E00"/>
       <color rgb="FF1B0C26"/>
-      <color rgb="FF242300"/>
-      <color rgb="FF483000"/>
-      <color rgb="FF003217"/>
-      <color rgb="FF320000"/>
-      <color rgb="FF323232"/>
-      <color rgb="FF240000"/>
-      <color rgb="FF030024"/>
-      <color rgb="FF323100"/>
-      <color rgb="FF000C24"/>
     </mruColors>
   </colors>
   <extLst>
@@ -2391,13 +2522,13 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="B5" dT="2020-10-09T14:25:11.51" personId="{ABEC8F12-B0D3-44BC-AF35-B8DCE860105B}" id="{ED694F4C-CBA5-4DCA-BDE8-23901C6128BC}">
+  <threadedComment ref="B12" dT="2020-10-09T14:25:11.51" personId="{ABEC8F12-B0D3-44BC-AF35-B8DCE860105B}" id="{ED694F4C-CBA5-4DCA-BDE8-23901C6128BC}">
     <text>【護符被動、龍被動】
 裝備時，遊戲內顯示出的改變後的 ATK，例如: 滿血
 【主條件】
 滿血、0 Combo</text>
   </threadedComment>
-  <threadedComment ref="B6" dT="2020-10-10T04:01:10.20" personId="{ABEC8F12-B0D3-44BC-AF35-B8DCE860105B}" id="{DFE1C7C2-B602-406E-BFFD-8570BFC5E5EA}">
+  <threadedComment ref="B13" dT="2020-10-10T04:01:10.20" personId="{ABEC8F12-B0D3-44BC-AF35-B8DCE860105B}" id="{DFE1C7C2-B602-406E-BFFD-8570BFC5E5EA}">
     <text>【護符被動、龍被動】
 HP 70%、疾風怒濤...等</text>
   </threadedComment>
@@ -2409,129 +2540,129 @@
   <dimension ref="A1:Y13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T6" sqref="T6"/>
+      <selection activeCell="T14" sqref="T14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="14" width="5.85546875" style="53" customWidth="1"/>
-    <col min="15" max="15" width="5.85546875" style="72" customWidth="1"/>
-    <col min="16" max="16" width="5.85546875" style="74" customWidth="1"/>
-    <col min="17" max="17" width="5.85546875" style="59" customWidth="1"/>
-    <col min="18" max="18" width="5.85546875" style="67" customWidth="1"/>
-    <col min="19" max="19" width="11" style="60" customWidth="1"/>
+    <col min="1" max="14" width="5.85546875" style="51" customWidth="1"/>
+    <col min="15" max="15" width="5.85546875" style="70" customWidth="1"/>
+    <col min="16" max="16" width="5.85546875" style="72" customWidth="1"/>
+    <col min="17" max="17" width="5.85546875" style="57" customWidth="1"/>
+    <col min="18" max="18" width="5.85546875" style="65" customWidth="1"/>
+    <col min="19" max="19" width="11" style="58" customWidth="1"/>
     <col min="20" max="20" width="9.140625" style="13" customWidth="1"/>
-    <col min="21" max="21" width="11" style="65" customWidth="1"/>
+    <col min="21" max="21" width="11" style="63" customWidth="1"/>
     <col min="22" max="22" width="10.5703125" style="15" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="53"/>
+    <col min="23" max="16384" width="9.140625" style="51"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="144" t="s">
+      <c r="A1" s="158" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="145"/>
-      <c r="C1" s="145"/>
-      <c r="D1" s="145"/>
-      <c r="E1" s="145"/>
-      <c r="F1" s="145"/>
-      <c r="G1" s="146"/>
-      <c r="H1" s="144" t="s">
+      <c r="B1" s="159"/>
+      <c r="C1" s="159"/>
+      <c r="D1" s="159"/>
+      <c r="E1" s="159"/>
+      <c r="F1" s="159"/>
+      <c r="G1" s="160"/>
+      <c r="H1" s="158" t="s">
         <v>61</v>
       </c>
-      <c r="I1" s="145"/>
-      <c r="J1" s="145"/>
-      <c r="K1" s="145"/>
-      <c r="L1" s="145"/>
-      <c r="M1" s="145"/>
-      <c r="N1" s="146"/>
-      <c r="O1" s="147" t="s">
+      <c r="I1" s="159"/>
+      <c r="J1" s="159"/>
+      <c r="K1" s="159"/>
+      <c r="L1" s="159"/>
+      <c r="M1" s="159"/>
+      <c r="N1" s="160"/>
+      <c r="O1" s="161" t="s">
         <v>64</v>
       </c>
-      <c r="P1" s="148"/>
-      <c r="Q1" s="138" t="s">
+      <c r="P1" s="162"/>
+      <c r="Q1" s="152" t="s">
         <v>63</v>
       </c>
-      <c r="R1" s="139"/>
-      <c r="S1" s="140" t="s">
+      <c r="R1" s="153"/>
+      <c r="S1" s="154" t="s">
         <v>58</v>
       </c>
-      <c r="T1" s="141"/>
-      <c r="U1" s="142" t="s">
+      <c r="T1" s="155"/>
+      <c r="U1" s="156" t="s">
         <v>59</v>
       </c>
-      <c r="V1" s="143"/>
-    </row>
-    <row r="2" spans="1:25" s="57" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="64" t="s">
+      <c r="V1" s="157"/>
+    </row>
+    <row r="2" spans="1:25" s="55" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="62" t="s">
+      <c r="C2" s="60" t="s">
         <v>74</v>
       </c>
-      <c r="D2" s="62" t="s">
+      <c r="D2" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="E2" s="62" t="s">
+      <c r="E2" s="60" t="s">
         <v>76</v>
       </c>
-      <c r="F2" s="62" t="s">
+      <c r="F2" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="G2" s="63" t="s">
+      <c r="G2" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="H2" s="64" t="s">
+      <c r="H2" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="62" t="s">
+      <c r="I2" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="J2" s="62" t="s">
+      <c r="J2" s="60" t="s">
         <v>74</v>
       </c>
-      <c r="K2" s="62" t="s">
+      <c r="K2" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="L2" s="62" t="s">
+      <c r="L2" s="60" t="s">
         <v>76</v>
       </c>
-      <c r="M2" s="62" t="s">
+      <c r="M2" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="N2" s="63" t="s">
+      <c r="N2" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="O2" s="72" t="s">
+      <c r="O2" s="70" t="s">
         <v>55</v>
       </c>
-      <c r="P2" s="73">
+      <c r="P2" s="71">
         <v>0</v>
       </c>
-      <c r="Q2" s="59" t="s">
+      <c r="Q2" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="R2" s="66">
+      <c r="R2" s="64">
         <v>0</v>
       </c>
-      <c r="S2" s="60" t="s">
+      <c r="S2" s="58" t="s">
         <v>9</v>
       </c>
       <c r="T2" s="12"/>
-      <c r="U2" s="68" t="s">
+      <c r="U2" s="66" t="s">
         <v>60</v>
       </c>
-      <c r="V2" s="69">
+      <c r="V2" s="67">
         <f>VLOOKUP(T3,$H$3:$M$13,6,FALSE)</f>
-        <v>1320</v>
-      </c>
-      <c r="X2" s="57" t="s">
+        <v>1879.2</v>
+      </c>
+      <c r="X2" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="Y2" s="57" t="s">
+      <c r="Y2" s="55" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2539,170 +2670,170 @@
       <c r="A3" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="61">
+      <c r="B3" s="59">
         <v>150</v>
       </c>
-      <c r="C3" s="61">
+      <c r="C3" s="59">
         <v>300</v>
       </c>
-      <c r="D3" s="61">
+      <c r="D3" s="59">
         <v>496</v>
       </c>
-      <c r="E3" s="61">
+      <c r="E3" s="59">
         <v>761</v>
       </c>
-      <c r="F3" s="61">
+      <c r="F3" s="59">
         <v>1152</v>
       </c>
-      <c r="G3" s="58">
+      <c r="G3" s="56">
         <v>345</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="I3" s="61">
+      <c r="I3" s="59">
         <f>B3 * (1+SUM($R:$R))</f>
-        <v>150</v>
-      </c>
-      <c r="J3" s="61">
+        <v>162</v>
+      </c>
+      <c r="J3" s="59">
         <f t="shared" ref="J3:J13" si="0">C3 * (1+SUM($R:$R))</f>
-        <v>300</v>
-      </c>
-      <c r="K3" s="61">
+        <v>324</v>
+      </c>
+      <c r="K3" s="59">
         <f t="shared" ref="K3:M10" si="1">D3 * (1+SUM($R:$R))</f>
-        <v>496</v>
-      </c>
-      <c r="L3" s="61">
+        <v>535.68000000000006</v>
+      </c>
+      <c r="L3" s="59">
         <f t="shared" si="1"/>
-        <v>761</v>
-      </c>
-      <c r="M3" s="61">
+        <v>821.88000000000011</v>
+      </c>
+      <c r="M3" s="59">
         <f t="shared" si="1"/>
-        <v>1152</v>
-      </c>
-      <c r="N3" s="58">
+        <v>1244.1600000000001</v>
+      </c>
+      <c r="N3" s="56">
         <f t="shared" ref="N3:N13" si="2">G3 * (1+SUM($R:$R))</f>
-        <v>345</v>
-      </c>
-      <c r="O3" s="72" t="s">
+        <v>372.6</v>
+      </c>
+      <c r="O3" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="P3" s="73">
+      <c r="P3" s="71">
         <v>0</v>
       </c>
-      <c r="Q3" s="59" t="s">
+      <c r="Q3" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="R3" s="66">
+      <c r="R3" s="64">
         <v>0</v>
       </c>
-      <c r="S3" s="60" t="s">
+      <c r="S3" s="58" t="s">
         <v>47</v>
       </c>
       <c r="T3" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="U3" s="68" t="s">
+        <v>30</v>
+      </c>
+      <c r="U3" s="66" t="s">
         <v>70</v>
       </c>
-      <c r="V3" s="69">
+      <c r="V3" s="67">
         <f>MOD(T6, V2)</f>
-        <v>220</v>
-      </c>
-      <c r="W3" s="57" t="s">
+        <v>760.8</v>
+      </c>
+      <c r="W3" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="X3" s="57" t="b">
+      <c r="X3" s="55" t="b">
         <f>AND(V3 &gt; 0, V3 &lt;= VLOOKUP($T$3,$H$3:$N$13,7,FALSE))</f>
-        <v>1</v>
-      </c>
-      <c r="Y3" s="57" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="55" t="b">
         <f>AND(V4 &gt; 0, V4 &lt;= VLOOKUP($T$3,$H$3:$N$13,7,FALSE))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="61">
+      <c r="B4" s="59">
         <v>130</v>
       </c>
-      <c r="C4" s="61">
+      <c r="C4" s="59">
         <v>260</v>
       </c>
-      <c r="D4" s="61">
+      <c r="D4" s="59">
         <v>480</v>
       </c>
-      <c r="E4" s="61">
+      <c r="E4" s="59">
         <v>840</v>
       </c>
-      <c r="F4" s="61">
+      <c r="F4" s="59">
         <v>1740</v>
       </c>
-      <c r="G4" s="58">
+      <c r="G4" s="56">
         <v>200</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="I4" s="61">
+      <c r="I4" s="59">
         <f t="shared" ref="I4:I13" si="3">B4 * (1+SUM($R:$R))</f>
-        <v>130</v>
-      </c>
-      <c r="J4" s="61">
+        <v>140.4</v>
+      </c>
+      <c r="J4" s="59">
         <f t="shared" si="0"/>
-        <v>260</v>
-      </c>
-      <c r="K4" s="61">
+        <v>280.8</v>
+      </c>
+      <c r="K4" s="59">
         <f t="shared" si="1"/>
-        <v>480</v>
-      </c>
-      <c r="L4" s="61">
+        <v>518.40000000000009</v>
+      </c>
+      <c r="L4" s="59">
         <f t="shared" si="1"/>
-        <v>840</v>
-      </c>
-      <c r="M4" s="61">
+        <v>907.2</v>
+      </c>
+      <c r="M4" s="59">
         <f t="shared" si="1"/>
-        <v>1740</v>
-      </c>
-      <c r="N4" s="58">
+        <v>1879.2</v>
+      </c>
+      <c r="N4" s="56">
         <f t="shared" si="2"/>
-        <v>200</v>
-      </c>
-      <c r="O4" s="72" t="s">
+        <v>216</v>
+      </c>
+      <c r="O4" s="70" t="s">
         <v>56</v>
       </c>
-      <c r="P4" s="73">
+      <c r="P4" s="71">
         <v>0</v>
       </c>
-      <c r="Q4" s="59" t="s">
+      <c r="Q4" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="R4" s="66">
-        <v>0</v>
-      </c>
-      <c r="S4" s="60" t="s">
+      <c r="R4" s="64">
+        <v>0.08</v>
+      </c>
+      <c r="S4" s="58" t="s">
         <v>65</v>
       </c>
       <c r="T4" s="13">
-        <v>2860</v>
-      </c>
-      <c r="U4" s="68" t="s">
+        <v>2640</v>
+      </c>
+      <c r="U4" s="66" t="s">
         <v>71</v>
       </c>
-      <c r="V4" s="69">
+      <c r="V4" s="67">
         <f>MOD(T7, V2)</f>
-        <v>165</v>
-      </c>
-      <c r="W4" s="57" t="s">
+        <v>1521.6</v>
+      </c>
+      <c r="W4" s="55" t="s">
         <v>73</v>
       </c>
-      <c r="X4" s="57" t="b">
+      <c r="X4" s="55" t="b">
         <f>AND(V3 &gt; VLOOKUP($T$3,$H$3:$M$13,1,FALSE),V3 &lt;= VLOOKUP($T$3,$H$3:$M$13,2,FALSE))</f>
         <v>0</v>
       </c>
-      <c r="Y4" s="57" t="b">
+      <c r="Y4" s="55" t="b">
         <f>AND(V4 &gt; VLOOKUP($T$3,$H$3:$M$13,1,FALSE),V4 &lt;= VLOOKUP($T$3,$H$3:$M$13,2,FALSE))</f>
         <v>0</v>
       </c>
@@ -2711,159 +2842,159 @@
       <c r="A5" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="61">
+      <c r="B5" s="59">
         <v>144</v>
       </c>
-      <c r="C5" s="61">
+      <c r="C5" s="59">
         <v>288</v>
       </c>
-      <c r="D5" s="61">
+      <c r="D5" s="59">
         <v>552</v>
       </c>
-      <c r="E5" s="61">
+      <c r="E5" s="59">
         <v>840</v>
       </c>
-      <c r="F5" s="61">
+      <c r="F5" s="59">
         <v>1320</v>
       </c>
-      <c r="G5" s="58">
+      <c r="G5" s="56">
         <v>288</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="I5" s="61">
+      <c r="I5" s="59">
         <f t="shared" si="3"/>
-        <v>144</v>
-      </c>
-      <c r="J5" s="61">
+        <v>155.52000000000001</v>
+      </c>
+      <c r="J5" s="59">
         <f t="shared" si="0"/>
-        <v>288</v>
-      </c>
-      <c r="K5" s="61">
+        <v>311.04000000000002</v>
+      </c>
+      <c r="K5" s="59">
         <f t="shared" si="1"/>
-        <v>552</v>
-      </c>
-      <c r="L5" s="61">
+        <v>596.16000000000008</v>
+      </c>
+      <c r="L5" s="59">
         <f t="shared" si="1"/>
-        <v>840</v>
-      </c>
-      <c r="M5" s="61">
+        <v>907.2</v>
+      </c>
+      <c r="M5" s="59">
         <f t="shared" si="1"/>
-        <v>1320</v>
-      </c>
-      <c r="N5" s="58">
+        <v>1425.6000000000001</v>
+      </c>
+      <c r="N5" s="56">
         <f t="shared" si="2"/>
-        <v>288</v>
-      </c>
-      <c r="O5" s="72" t="s">
+        <v>311.04000000000002</v>
+      </c>
+      <c r="O5" s="70" t="s">
         <v>57</v>
       </c>
-      <c r="P5" s="73">
+      <c r="P5" s="71">
         <v>0</v>
       </c>
-      <c r="Q5" s="59" t="s">
+      <c r="Q5" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="R5" s="66">
+      <c r="R5" s="64">
         <v>0</v>
       </c>
-      <c r="S5" s="60" t="s">
+      <c r="S5" s="58" t="s">
         <v>67</v>
       </c>
       <c r="T5" s="13">
-        <v>10725</v>
-      </c>
-      <c r="U5" s="70" t="s">
+        <v>5280</v>
+      </c>
+      <c r="U5" s="68" t="s">
         <v>68</v>
       </c>
-      <c r="V5" s="71" t="str" cm="1">
+      <c r="V5" s="69" t="str" cm="1">
         <f t="array" ref="V5">(ROUNDDOWN(T6/V2, 0) + IF(X8,1,0)) &amp; _xlfn.IFS(X3, " + FS", X4, " + C1", X5, " + C2", X6, " + C3", X7, " + C4", TRUE, "")</f>
-        <v>2 + FS</v>
-      </c>
-      <c r="W5" s="57" t="s">
+        <v>1 + C4</v>
+      </c>
+      <c r="W5" s="55" t="s">
         <v>74</v>
       </c>
-      <c r="X5" s="57" t="b">
+      <c r="X5" s="55" t="b">
         <f>AND(V3&gt;VLOOKUP($T$3,$H$3:$M$13,2,FALSE),V3&lt;=VLOOKUP($T$3,$H$3:$M$13,3,FALSE))</f>
-        <v>1</v>
-      </c>
-      <c r="Y5" s="57" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="55" t="b">
         <f>AND(V4&gt;=VLOOKUP($T$3,$H$3:$M$13,2,FALSE),V4&lt;VLOOKUP($T$3,$H$3:$M$13,3,FALSE))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B6" s="61">
+      <c r="B6" s="59">
         <v>200</v>
       </c>
-      <c r="C6" s="61">
+      <c r="C6" s="59">
         <v>440</v>
       </c>
-      <c r="D6" s="61">
+      <c r="D6" s="59">
         <v>800</v>
       </c>
-      <c r="E6" s="61">
+      <c r="E6" s="59">
         <v>1180</v>
       </c>
-      <c r="F6" s="61">
+      <c r="F6" s="59">
         <v>1600</v>
       </c>
-      <c r="G6" s="58">
+      <c r="G6" s="56">
         <v>300</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="I6" s="61">
+      <c r="I6" s="59">
         <f t="shared" si="3"/>
-        <v>200</v>
-      </c>
-      <c r="J6" s="61">
+        <v>216</v>
+      </c>
+      <c r="J6" s="59">
         <f t="shared" si="0"/>
-        <v>440</v>
-      </c>
-      <c r="K6" s="61">
+        <v>475.20000000000005</v>
+      </c>
+      <c r="K6" s="59">
         <f t="shared" si="1"/>
-        <v>800</v>
-      </c>
-      <c r="L6" s="61">
+        <v>864</v>
+      </c>
+      <c r="L6" s="59">
         <f t="shared" si="1"/>
-        <v>1180</v>
-      </c>
-      <c r="M6" s="61">
+        <v>1274.4000000000001</v>
+      </c>
+      <c r="M6" s="59">
         <f t="shared" si="1"/>
-        <v>1600</v>
-      </c>
-      <c r="N6" s="58">
+        <v>1728</v>
+      </c>
+      <c r="N6" s="56">
         <f t="shared" si="2"/>
-        <v>300</v>
-      </c>
-      <c r="S6" s="75" t="s">
+        <v>324</v>
+      </c>
+      <c r="S6" s="73" t="s">
         <v>66</v>
       </c>
-      <c r="T6" s="76">
+      <c r="T6" s="74">
         <f>T4 * (1 - SUM(P:P))</f>
-        <v>2860</v>
-      </c>
-      <c r="U6" s="77" t="s">
+        <v>2640</v>
+      </c>
+      <c r="U6" s="75" t="s">
         <v>69</v>
       </c>
-      <c r="V6" s="71" t="str" cm="1">
+      <c r="V6" s="69" t="str" cm="1">
         <f t="array" ref="V6">(ROUNDDOWN(T7/V2, 0) + IF(Y8,1,0)) &amp; _xlfn.IFS(Y3, " + FS", Y4, " + C1", Y5, " + C2", Y6, " + C3", Y7, " + C4", TRUE, "")</f>
-        <v>8 + FS</v>
-      </c>
-      <c r="W6" s="57" t="s">
+        <v>3</v>
+      </c>
+      <c r="W6" s="55" t="s">
         <v>75</v>
       </c>
-      <c r="X6" s="57" t="b">
+      <c r="X6" s="55" t="b">
         <f>AND(V3 &gt; VLOOKUP($T$3,$H$3:$M$13,3,FALSE),V3 &lt;= VLOOKUP($T$3,$H$3:$M$13,4,FALSE))</f>
         <v>0</v>
       </c>
-      <c r="Y6" s="57" t="b">
+      <c r="Y6" s="55" t="b">
         <f>AND(V4 &gt; VLOOKUP($T$3,$H$3:$M$13,3,FALSE),V4 &lt;= VLOOKUP($T$3,$H$3:$M$13,4,FALSE))</f>
         <v>0</v>
       </c>
@@ -2872,66 +3003,66 @@
       <c r="A7" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B7" s="61">
+      <c r="B7" s="59">
         <v>120</v>
       </c>
-      <c r="C7" s="61">
+      <c r="C7" s="59">
         <v>360</v>
       </c>
-      <c r="D7" s="61">
+      <c r="D7" s="59">
         <v>480</v>
       </c>
-      <c r="E7" s="61">
+      <c r="E7" s="59">
         <v>960</v>
       </c>
-      <c r="F7" s="61">
+      <c r="F7" s="59">
         <v>1560</v>
       </c>
-      <c r="G7" s="58">
+      <c r="G7" s="56">
         <v>400</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="I7" s="61">
+      <c r="I7" s="59">
         <f t="shared" si="3"/>
-        <v>120</v>
-      </c>
-      <c r="J7" s="61">
+        <v>129.60000000000002</v>
+      </c>
+      <c r="J7" s="59">
         <f t="shared" si="0"/>
-        <v>360</v>
-      </c>
-      <c r="K7" s="61">
+        <v>388.8</v>
+      </c>
+      <c r="K7" s="59">
         <f t="shared" si="1"/>
-        <v>480</v>
-      </c>
-      <c r="L7" s="61">
+        <v>518.40000000000009</v>
+      </c>
+      <c r="L7" s="59">
         <f t="shared" si="1"/>
-        <v>960</v>
-      </c>
-      <c r="M7" s="61">
+        <v>1036.8000000000002</v>
+      </c>
+      <c r="M7" s="59">
         <f t="shared" si="1"/>
-        <v>1560</v>
-      </c>
-      <c r="N7" s="58">
+        <v>1684.8000000000002</v>
+      </c>
+      <c r="N7" s="56">
         <f t="shared" si="2"/>
-        <v>400</v>
-      </c>
-      <c r="S7" s="75" t="s">
+        <v>432</v>
+      </c>
+      <c r="S7" s="73" t="s">
         <v>72</v>
       </c>
-      <c r="T7" s="76">
+      <c r="T7" s="74">
         <f>T5 * (1 - SUM(P:P))</f>
-        <v>10725</v>
-      </c>
-      <c r="W7" s="57" t="s">
+        <v>5280</v>
+      </c>
+      <c r="W7" s="55" t="s">
         <v>76</v>
       </c>
-      <c r="X7" s="57" t="b">
+      <c r="X7" s="55" t="b">
         <f>AND(V3 &gt; VLOOKUP($T$3,$H$3:$M$13,4,FALSE),V3 &lt;= VLOOKUP($T$3,$H$3:$M$13,5,FALSE))</f>
-        <v>0</v>
-      </c>
-      <c r="Y7" s="57" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="55" t="b">
         <f>AND(V4 &gt; VLOOKUP($T$3,$H$3:$M$13,4,FALSE),V4 &lt;= VLOOKUP($T$3,$H$3:$M$13,5,FALSE))</f>
         <v>0</v>
       </c>
@@ -2940,274 +3071,274 @@
       <c r="A8" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B8" s="61">
+      <c r="B8" s="59">
         <v>184</v>
       </c>
-      <c r="C8" s="61">
+      <c r="C8" s="59">
         <v>276</v>
       </c>
-      <c r="D8" s="61">
+      <c r="D8" s="59">
         <v>552</v>
       </c>
-      <c r="E8" s="61">
+      <c r="E8" s="59">
         <v>966</v>
       </c>
-      <c r="F8" s="61">
+      <c r="F8" s="59">
         <v>1495</v>
       </c>
-      <c r="G8" s="58">
+      <c r="G8" s="56">
         <v>460</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="I8" s="61">
+      <c r="I8" s="59">
         <f t="shared" si="3"/>
-        <v>184</v>
-      </c>
-      <c r="J8" s="61">
+        <v>198.72000000000003</v>
+      </c>
+      <c r="J8" s="59">
         <f t="shared" si="0"/>
-        <v>276</v>
-      </c>
-      <c r="K8" s="61">
+        <v>298.08000000000004</v>
+      </c>
+      <c r="K8" s="59">
         <f t="shared" si="1"/>
-        <v>552</v>
-      </c>
-      <c r="L8" s="61">
+        <v>596.16000000000008</v>
+      </c>
+      <c r="L8" s="59">
         <f t="shared" si="1"/>
-        <v>966</v>
-      </c>
-      <c r="M8" s="61">
+        <v>1043.28</v>
+      </c>
+      <c r="M8" s="59">
         <f t="shared" si="1"/>
-        <v>1495</v>
-      </c>
-      <c r="N8" s="58">
+        <v>1614.6000000000001</v>
+      </c>
+      <c r="N8" s="56">
         <f t="shared" si="2"/>
-        <v>460</v>
-      </c>
-      <c r="W8" s="57" t="s">
+        <v>496.8</v>
+      </c>
+      <c r="W8" s="55" t="s">
         <v>77</v>
       </c>
-      <c r="X8" s="57" t="b">
+      <c r="X8" s="55" t="b">
         <f>V3&gt;VLOOKUP($T$3,$H$3:$M$13,5,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="Y8" s="57" t="b">
+      <c r="Y8" s="55" t="b">
         <f>V4&gt;VLOOKUP($T$3,$H$3:$M$13,5,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="61">
+      <c r="B9" s="59">
         <v>130</v>
       </c>
-      <c r="C9" s="61">
+      <c r="C9" s="59">
         <v>330</v>
       </c>
-      <c r="D9" s="61">
+      <c r="D9" s="59">
         <v>570</v>
       </c>
-      <c r="E9" s="61">
+      <c r="E9" s="59">
         <v>1000</v>
       </c>
-      <c r="F9" s="61">
+      <c r="F9" s="59">
         <v>1600</v>
       </c>
-      <c r="G9" s="58">
+      <c r="G9" s="56">
         <v>400</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="I9" s="61">
+      <c r="I9" s="59">
         <f t="shared" si="3"/>
-        <v>130</v>
-      </c>
-      <c r="J9" s="61">
+        <v>140.4</v>
+      </c>
+      <c r="J9" s="59">
         <f t="shared" si="0"/>
-        <v>330</v>
-      </c>
-      <c r="K9" s="61">
+        <v>356.40000000000003</v>
+      </c>
+      <c r="K9" s="59">
         <f t="shared" si="1"/>
-        <v>570</v>
-      </c>
-      <c r="L9" s="61">
+        <v>615.6</v>
+      </c>
+      <c r="L9" s="59">
         <f t="shared" si="1"/>
-        <v>1000</v>
-      </c>
-      <c r="M9" s="61">
+        <v>1080</v>
+      </c>
+      <c r="M9" s="59">
         <f t="shared" si="1"/>
-        <v>1600</v>
-      </c>
-      <c r="N9" s="58">
+        <v>1728</v>
+      </c>
+      <c r="N9" s="56">
         <f t="shared" si="2"/>
-        <v>400</v>
-      </c>
-      <c r="W9" s="57"/>
-      <c r="X9" s="57"/>
-      <c r="Y9" s="57"/>
+        <v>432</v>
+      </c>
+      <c r="W9" s="55"/>
+      <c r="X9" s="55"/>
+      <c r="Y9" s="55"/>
     </row>
     <row r="10" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B10" s="61">
+      <c r="B10" s="59">
         <v>232</v>
       </c>
-      <c r="C10" s="61">
+      <c r="C10" s="59">
         <v>464</v>
       </c>
-      <c r="D10" s="61">
+      <c r="D10" s="59">
         <v>812</v>
       </c>
-      <c r="E10" s="61">
+      <c r="E10" s="59">
         <v>1276</v>
       </c>
-      <c r="F10" s="61">
+      <c r="F10" s="59">
         <v>1972</v>
       </c>
-      <c r="G10" s="58">
+      <c r="G10" s="56">
         <v>580</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="I10" s="61">
+      <c r="I10" s="59">
         <f t="shared" si="3"/>
-        <v>232</v>
-      </c>
-      <c r="J10" s="61">
+        <v>250.56</v>
+      </c>
+      <c r="J10" s="59">
         <f t="shared" si="0"/>
-        <v>464</v>
-      </c>
-      <c r="K10" s="61">
+        <v>501.12</v>
+      </c>
+      <c r="K10" s="59">
         <f t="shared" si="1"/>
-        <v>812</v>
-      </c>
-      <c r="L10" s="61">
+        <v>876.96</v>
+      </c>
+      <c r="L10" s="59">
         <f t="shared" si="1"/>
-        <v>1276</v>
-      </c>
-      <c r="M10" s="61">
+        <v>1378.0800000000002</v>
+      </c>
+      <c r="M10" s="59">
         <f t="shared" si="1"/>
-        <v>1972</v>
-      </c>
-      <c r="N10" s="58">
+        <v>2129.7600000000002</v>
+      </c>
+      <c r="N10" s="56">
         <f t="shared" si="2"/>
-        <v>580</v>
+        <v>626.40000000000009</v>
       </c>
     </row>
     <row r="11" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B11" s="61">
+      <c r="B11" s="59">
         <v>545</v>
       </c>
-      <c r="C11" s="61">
+      <c r="C11" s="59">
         <v>1090</v>
       </c>
-      <c r="D11" s="61"/>
-      <c r="E11" s="61"/>
-      <c r="F11" s="61"/>
-      <c r="G11" s="58">
+      <c r="D11" s="59"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="56">
         <v>400</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="I11" s="61">
+      <c r="I11" s="59">
         <f t="shared" si="3"/>
-        <v>545</v>
-      </c>
-      <c r="J11" s="61">
+        <v>588.6</v>
+      </c>
+      <c r="J11" s="59">
         <f t="shared" si="0"/>
-        <v>1090</v>
-      </c>
-      <c r="K11" s="61"/>
-      <c r="L11" s="61"/>
-      <c r="M11" s="61"/>
-      <c r="N11" s="58">
+        <v>1177.2</v>
+      </c>
+      <c r="K11" s="59"/>
+      <c r="L11" s="59"/>
+      <c r="M11" s="59"/>
+      <c r="N11" s="56">
         <f t="shared" si="2"/>
-        <v>400</v>
+        <v>432</v>
       </c>
     </row>
     <row r="12" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B12" s="61">
+      <c r="B12" s="59">
         <v>340</v>
       </c>
-      <c r="C12" s="61">
+      <c r="C12" s="59">
         <v>680</v>
       </c>
-      <c r="D12" s="61"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="61"/>
-      <c r="G12" s="58">
+      <c r="D12" s="59"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="56">
         <v>400</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="I12" s="61">
+      <c r="I12" s="59">
         <f t="shared" si="3"/>
-        <v>340</v>
-      </c>
-      <c r="J12" s="61">
+        <v>367.20000000000005</v>
+      </c>
+      <c r="J12" s="59">
         <f t="shared" si="0"/>
-        <v>680</v>
-      </c>
-      <c r="K12" s="61"/>
-      <c r="L12" s="61"/>
-      <c r="M12" s="61"/>
-      <c r="N12" s="58">
+        <v>734.40000000000009</v>
+      </c>
+      <c r="K12" s="59"/>
+      <c r="L12" s="59"/>
+      <c r="M12" s="59"/>
+      <c r="N12" s="56">
         <f t="shared" si="2"/>
-        <v>400</v>
+        <v>432</v>
       </c>
     </row>
     <row r="13" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="B13" s="61">
+      <c r="B13" s="59">
         <v>200</v>
       </c>
-      <c r="C13" s="61">
+      <c r="C13" s="59">
         <v>400</v>
       </c>
-      <c r="D13" s="61">
+      <c r="D13" s="59">
         <v>600</v>
       </c>
-      <c r="E13" s="61"/>
-      <c r="F13" s="61"/>
-      <c r="G13" s="58">
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="56">
         <v>90</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="I13" s="61">
+      <c r="I13" s="59">
         <f t="shared" si="3"/>
-        <v>200</v>
-      </c>
-      <c r="J13" s="61">
+        <v>216</v>
+      </c>
+      <c r="J13" s="59">
         <f t="shared" si="0"/>
-        <v>400</v>
-      </c>
-      <c r="K13" s="61">
+        <v>432</v>
+      </c>
+      <c r="K13" s="59">
         <f>D13 * (1+SUM($R:$R))</f>
-        <v>600</v>
-      </c>
-      <c r="L13" s="61"/>
-      <c r="M13" s="61"/>
-      <c r="N13" s="58">
+        <v>648</v>
+      </c>
+      <c r="L13" s="59"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="56">
         <f t="shared" si="2"/>
-        <v>90</v>
+        <v>97.2</v>
       </c>
     </row>
   </sheetData>
@@ -3234,176 +3365,176 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="10.85546875" style="53"/>
-    <col min="4" max="4" width="13.28515625" style="53" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" style="55"/>
-    <col min="6" max="6" width="18.42578125" style="53" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" style="53"/>
-    <col min="8" max="9" width="13.28515625" style="53" customWidth="1"/>
-    <col min="10" max="16384" width="10.85546875" style="53"/>
+    <col min="1" max="3" width="10.85546875" style="51"/>
+    <col min="4" max="4" width="13.28515625" style="51" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" style="53"/>
+    <col min="6" max="6" width="18.42578125" style="51" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" style="51"/>
+    <col min="8" max="9" width="13.28515625" style="51" customWidth="1"/>
+    <col min="10" max="16384" width="10.85546875" style="51"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="54">
+      <c r="B1" s="52">
         <v>0.99</v>
       </c>
-      <c r="D1" s="53" t="s">
+      <c r="D1" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="55" t="s">
+      <c r="E1" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="53" t="s">
+      <c r="F1" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="53" t="s">
+      <c r="J1" s="51" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="54">
+      <c r="B2" s="52">
         <v>0.99</v>
       </c>
-      <c r="D2" s="53" t="s">
+      <c r="D2" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="55">
+      <c r="E2" s="53">
         <f>B4-B2</f>
         <v>0.81</v>
       </c>
-      <c r="H2" s="53" t="s">
+      <c r="H2" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="53" t="s">
+      <c r="I2" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="56">
+      <c r="J2" s="54">
         <f>VLOOKUP(H2,$D:$E,2,FALSE)*VLOOKUP(I2,$D:$E,2,FALSE)</f>
         <v>8.9100000000000082E-2</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="54">
+      <c r="B3" s="52">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D3" s="53" t="s">
+      <c r="D3" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="55">
+      <c r="E3" s="53">
         <f>1-E2</f>
         <v>0.18999999999999995</v>
       </c>
-      <c r="H3" s="53" t="s">
+      <c r="H3" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="53" t="s">
+      <c r="I3" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="56">
+      <c r="J3" s="54">
         <f>VLOOKUP(H3,$D:$E,2,FALSE)*VLOOKUP(I3,$D:$E,2,FALSE)</f>
         <v>0.16839900000000016</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="53" t="s">
+      <c r="A4" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="54">
+      <c r="B4" s="52">
         <v>1.8</v>
       </c>
-      <c r="D4" s="53" t="s">
+      <c r="D4" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="55">
+      <c r="E4" s="53">
         <f>1-E5</f>
         <v>0.96389999999999998</v>
       </c>
-      <c r="F4" s="53" t="s">
+      <c r="F4" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="53" t="s">
+      <c r="H4" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="53" t="s">
+      <c r="I4" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="56">
+      <c r="J4" s="54">
         <f>VLOOKUP(H4,$D:$E,2,FALSE)*VLOOKUP(I4,$D:$E,2,FALSE)</f>
         <v>0.20039481000000017</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D5" s="53" t="s">
+      <c r="D5" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="55">
+      <c r="E5" s="53">
         <f>E3*E3</f>
         <v>3.6099999999999979E-2</v>
       </c>
-      <c r="H5" s="53" t="s">
+      <c r="H5" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="I5" s="53" t="s">
+      <c r="I5" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="56">
+      <c r="J5" s="54">
         <f>VLOOKUP(H5,$D:$E,2,FALSE)*VLOOKUP(I5,$D:$E,2,FALSE)</f>
         <v>9.801000000000018E-3</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D6" s="53" t="s">
+      <c r="D6" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="55">
+      <c r="E6" s="53">
         <f>B3-B1</f>
         <v>0.1100000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D7" s="53" t="s">
+      <c r="D7" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="55">
+      <c r="E7" s="53">
         <f>1-E6</f>
         <v>0.8899999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D8" s="53" t="s">
+      <c r="D8" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="55">
+      <c r="E8" s="53">
         <f>1-E9</f>
         <v>0.2079000000000002</v>
       </c>
-      <c r="F8" s="53" t="s">
+      <c r="F8" s="51" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D9" s="53" t="s">
+      <c r="D9" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="55">
+      <c r="E9" s="53">
         <f>E7*E7</f>
         <v>0.7920999999999998</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D10" s="53" t="s">
+      <c r="D10" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="55">
+      <c r="E10" s="53">
         <f>E6*E6</f>
         <v>1.2100000000000022E-2</v>
       </c>
@@ -3815,37 +3946,37 @@
       <c r="A18" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B18" s="150" t="s">
+      <c r="B18" s="164" t="s">
         <v>103</v>
       </c>
-      <c r="C18" s="150"/>
-      <c r="D18" s="150"/>
-      <c r="E18" s="151"/>
+      <c r="C18" s="164"/>
+      <c r="D18" s="164"/>
+      <c r="E18" s="165"/>
     </row>
     <row r="19" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B19" s="149" t="s">
+      <c r="B19" s="163" t="s">
         <v>105</v>
       </c>
-      <c r="C19" s="150"/>
-      <c r="D19" s="150"/>
-      <c r="E19" s="151"/>
+      <c r="C19" s="164"/>
+      <c r="D19" s="164"/>
+      <c r="E19" s="165"/>
     </row>
     <row r="20" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B20" s="149" t="s">
+      <c r="B20" s="163" t="s">
         <v>104</v>
       </c>
-      <c r="C20" s="150"/>
-      <c r="D20" s="150"/>
-      <c r="E20" s="151"/>
+      <c r="C20" s="164"/>
+      <c r="D20" s="164"/>
+      <c r="E20" s="165"/>
     </row>
     <row r="21" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E21" s="80"/>
+      <c r="E21" s="78"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3878,10 +4009,10 @@
       <c r="B1" s="18">
         <v>1</v>
       </c>
-      <c r="C1" s="79" t="s">
+      <c r="C1" s="77" t="s">
         <v>97</v>
       </c>
-      <c r="D1" s="79" t="s">
+      <c r="D1" s="77" t="s">
         <v>98</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -3911,7 +4042,7 @@
       <c r="H2" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="O2" s="78"/>
+      <c r="O2" s="76"/>
       <c r="Q2" s="6" t="s">
         <v>40</v>
       </c>
@@ -4160,17 +4291,17 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E85EA2B4-C5A4-4AEF-AEDA-53C74517CB8F}">
-  <dimension ref="A1:J44"/>
+  <dimension ref="A1:J45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N29" sqref="N29"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I9" sqref="A1:J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" style="51" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" style="52" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" style="49" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" style="50" customWidth="1"/>
     <col min="3" max="3" width="9.140625" style="20"/>
     <col min="4" max="4" width="12" style="20" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="20"/>
@@ -4183,1224 +4314,1175 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="178"/>
-      <c r="B1" s="179"/>
-      <c r="C1" s="164" t="s">
-        <v>194</v>
-      </c>
-      <c r="D1" s="165"/>
-      <c r="E1" s="164" t="s">
-        <v>195</v>
-      </c>
-      <c r="F1" s="165"/>
-      <c r="G1" s="164" t="s">
-        <v>193</v>
-      </c>
-      <c r="H1" s="165"/>
-      <c r="I1" s="164" t="s">
-        <v>192</v>
-      </c>
-      <c r="J1" s="165"/>
-    </row>
-    <row r="2" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="180" t="s">
+      <c r="A1" s="214"/>
+      <c r="B1" s="215"/>
+      <c r="C1" s="169" t="s">
+        <v>185</v>
+      </c>
+      <c r="D1" s="170"/>
+      <c r="E1" s="169" t="s">
+        <v>186</v>
+      </c>
+      <c r="F1" s="170"/>
+      <c r="G1" s="169" t="s">
+        <v>187</v>
+      </c>
+      <c r="H1" s="170"/>
+      <c r="I1" s="169" t="s">
+        <v>188</v>
+      </c>
+      <c r="J1" s="170"/>
+    </row>
+    <row r="2" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="194" t="s">
+        <v>183</v>
+      </c>
+      <c r="B2" s="195"/>
+      <c r="C2" s="175">
+        <f>D9*D10*D11*D16*D17*D19*D23*D25*D27*D30*D32/D33/D34*D37*D38</f>
+        <v>8342367.877401608</v>
+      </c>
+      <c r="D2" s="176"/>
+      <c r="E2" s="175">
+        <f>F9*F10*F11*F16*F17*F19*F23*F25*F27*F30*F32/F33/F34*F37*F38</f>
+        <v>4425244.6193381893</v>
+      </c>
+      <c r="F2" s="176"/>
+      <c r="G2" s="175">
+        <f>H9*H10*H11*H16*H17*H19*H23*H25*H27*H30*H32/H33/H34*H37*H38</f>
+        <v>4145755.4854852501</v>
+      </c>
+      <c r="H2" s="176"/>
+      <c r="I2" s="175">
+        <f>J9*J10*J11*J16*J17*J19*J23*J25*J27*J30*J32/J33/J34*J37*J38</f>
+        <v>7751165.3121881532</v>
+      </c>
+      <c r="J2" s="176"/>
+    </row>
+    <row r="3" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="122">
+        <v>-0.1</v>
+      </c>
+      <c r="D3" s="132">
+        <f>C$2*(1+C3)</f>
+        <v>7508131.0896614473</v>
+      </c>
+      <c r="E3" s="122">
+        <v>-0.1</v>
+      </c>
+      <c r="F3" s="132">
+        <f>E$2*(1+E3)</f>
+        <v>3982720.1574043706</v>
+      </c>
+      <c r="G3" s="122">
+        <v>-0.1</v>
+      </c>
+      <c r="H3" s="132">
+        <f>G$2*(1+G3)</f>
+        <v>3731179.9369367254</v>
+      </c>
+      <c r="I3" s="122">
+        <v>-0.1</v>
+      </c>
+      <c r="J3" s="132">
+        <f>I$2*(1+I3)</f>
+        <v>6976048.7809693376</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="123"/>
+      <c r="C4" s="122">
+        <v>-0.05</v>
+      </c>
+      <c r="D4" s="132">
+        <f>C$2*(1+C4)</f>
+        <v>7925249.4835315272</v>
+      </c>
+      <c r="E4" s="122">
+        <v>-0.05</v>
+      </c>
+      <c r="F4" s="132">
+        <f>E$2*(1+E4)</f>
+        <v>4203982.3883712795</v>
+      </c>
+      <c r="G4" s="122">
+        <v>-0.05</v>
+      </c>
+      <c r="H4" s="132">
+        <f>G$2*(1+G4)</f>
+        <v>3938467.7112109875</v>
+      </c>
+      <c r="I4" s="122">
+        <v>-0.05</v>
+      </c>
+      <c r="J4" s="132">
+        <f>I$2*(1+I4)</f>
+        <v>7363607.0465787454</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="122">
+        <v>0</v>
+      </c>
+      <c r="D5" s="132">
+        <f>C$2*(1+C5)</f>
+        <v>8342367.877401608</v>
+      </c>
+      <c r="E5" s="122">
+        <v>0</v>
+      </c>
+      <c r="F5" s="132">
+        <f>E$2*(1+E5)</f>
+        <v>4425244.6193381893</v>
+      </c>
+      <c r="G5" s="122">
+        <v>0</v>
+      </c>
+      <c r="H5" s="132">
+        <f>G$2*(1+G5)</f>
+        <v>4145755.4854852501</v>
+      </c>
+      <c r="I5" s="122">
+        <v>0</v>
+      </c>
+      <c r="J5" s="132">
+        <f>I$2*(1+I5)</f>
+        <v>7751165.3121881532</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="133"/>
+      <c r="C6" s="122">
+        <v>0.05</v>
+      </c>
+      <c r="D6" s="132">
+        <f>C$2*(1+C6)</f>
+        <v>8759486.2712716889</v>
+      </c>
+      <c r="E6" s="122">
+        <v>0.05</v>
+      </c>
+      <c r="F6" s="132">
+        <f>E$2*(1+E6)</f>
+        <v>4646506.850305099</v>
+      </c>
+      <c r="G6" s="122">
+        <v>0.05</v>
+      </c>
+      <c r="H6" s="132">
+        <f>G$2*(1+G6)</f>
+        <v>4353043.2597595127</v>
+      </c>
+      <c r="I6" s="122">
+        <v>0.05</v>
+      </c>
+      <c r="J6" s="132">
+        <f>I$2*(1+I6)</f>
+        <v>8138723.577797561</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="123"/>
+      <c r="C7" s="122">
+        <v>0.1</v>
+      </c>
+      <c r="D7" s="132">
+        <f>C$2*(1+C7)</f>
+        <v>9176604.6651417688</v>
+      </c>
+      <c r="E7" s="122">
+        <v>0.1</v>
+      </c>
+      <c r="F7" s="132">
+        <f>E$2*(1+E7)</f>
+        <v>4867769.0812720088</v>
+      </c>
+      <c r="G7" s="122">
+        <v>0.1</v>
+      </c>
+      <c r="H7" s="132">
+        <f>G$2*(1+G7)</f>
+        <v>4560331.0340337753</v>
+      </c>
+      <c r="I7" s="122">
+        <v>0.1</v>
+      </c>
+      <c r="J7" s="132">
+        <f>I$2*(1+I7)</f>
+        <v>8526281.8434069697</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="139" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="137"/>
+      <c r="B8" s="138"/>
+      <c r="C8" s="177" t="s">
+        <v>184</v>
+      </c>
+      <c r="D8" s="178"/>
+      <c r="E8" s="177" t="s">
+        <v>184</v>
+      </c>
+      <c r="F8" s="178"/>
+      <c r="G8" s="177" t="s">
+        <v>184</v>
+      </c>
+      <c r="H8" s="178"/>
+      <c r="I8" s="177" t="s">
+        <v>184</v>
+      </c>
+      <c r="J8" s="178"/>
+    </row>
+    <row r="9" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="203" t="s">
+        <v>156</v>
+      </c>
+      <c r="B9" s="204"/>
+      <c r="C9" s="21">
+        <f t="shared" ref="C9:I9" si="0">5/3</f>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="D9" s="22">
+        <f t="shared" ref="D9" si="1">C9</f>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="E9" s="21">
+        <f t="shared" si="0"/>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="F9" s="22">
+        <f t="shared" ref="F9" si="2">E9</f>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="G9" s="21">
+        <f t="shared" si="0"/>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="H9" s="22">
+        <f t="shared" ref="H9" si="3">G9</f>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="I9" s="21">
+        <f t="shared" si="0"/>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="J9" s="22">
+        <f t="shared" ref="J9" si="4">I9</f>
+        <v>1.6666666666666667</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="203" t="s">
+        <v>157</v>
+      </c>
+      <c r="B10" s="204"/>
+      <c r="C10" s="121">
+        <v>0</v>
+      </c>
+      <c r="D10" s="22">
+        <f t="shared" ref="D10" si="5">1-C10</f>
+        <v>1</v>
+      </c>
+      <c r="E10" s="121">
+        <v>0</v>
+      </c>
+      <c r="F10" s="22">
+        <f t="shared" ref="F10" si="6">1-E10</f>
+        <v>1</v>
+      </c>
+      <c r="G10" s="121">
+        <v>0</v>
+      </c>
+      <c r="H10" s="22">
+        <f t="shared" ref="H10" si="7">1-G10</f>
+        <v>1</v>
+      </c>
+      <c r="I10" s="121">
+        <v>0</v>
+      </c>
+      <c r="J10" s="22">
+        <f t="shared" ref="J10" si="8">1-I10</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="209" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="43" t="s">
+        <v>158</v>
+      </c>
+      <c r="C11" s="24">
+        <v>8681</v>
+      </c>
+      <c r="D11" s="179">
+        <f t="shared" ref="D11" si="9">C11/(1+C12)*(1+C12+C13)*(1+C14)*(1+C15)</f>
+        <v>28647.300000000003</v>
+      </c>
+      <c r="E11" s="24">
+        <v>9716</v>
+      </c>
+      <c r="F11" s="179">
+        <f t="shared" ref="F11" si="10">E11/(1+E12)*(1+E12+E13)*(1+E14)*(1+E15)</f>
+        <v>32062.800000000003</v>
+      </c>
+      <c r="G11" s="24">
+        <v>9716</v>
+      </c>
+      <c r="H11" s="179">
+        <f t="shared" ref="H11" si="11">G11/(1+G12)*(1+G12+G13)*(1+G14)*(1+G15)</f>
+        <v>32062.800000000003</v>
+      </c>
+      <c r="I11" s="24">
+        <v>9716</v>
+      </c>
+      <c r="J11" s="179">
+        <f t="shared" ref="J11" si="12">I11/(1+I12)*(1+I12+I13)*(1+I14)*(1+I15)</f>
+        <v>32062.800000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="210"/>
+      <c r="B12" s="43" t="s">
+        <v>159</v>
+      </c>
+      <c r="C12" s="26">
+        <v>0.7</v>
+      </c>
+      <c r="D12" s="180"/>
+      <c r="E12" s="26">
+        <v>1</v>
+      </c>
+      <c r="F12" s="180"/>
+      <c r="G12" s="26">
+        <v>1</v>
+      </c>
+      <c r="H12" s="180"/>
+      <c r="I12" s="26">
+        <v>1</v>
+      </c>
+      <c r="J12" s="180"/>
+    </row>
+    <row r="13" spans="1:10" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="210"/>
+      <c r="B13" s="43" t="s">
+        <v>160</v>
+      </c>
+      <c r="C13" s="26">
+        <v>0</v>
+      </c>
+      <c r="D13" s="180"/>
+      <c r="E13" s="26">
+        <v>0</v>
+      </c>
+      <c r="F13" s="180"/>
+      <c r="G13" s="26">
+        <v>0</v>
+      </c>
+      <c r="H13" s="180"/>
+      <c r="I13" s="26">
+        <v>0</v>
+      </c>
+      <c r="J13" s="180"/>
+    </row>
+    <row r="14" spans="1:10" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="210"/>
+      <c r="B14" s="43" t="s">
+        <v>161</v>
+      </c>
+      <c r="C14" s="26">
+        <v>2</v>
+      </c>
+      <c r="D14" s="180"/>
+      <c r="E14" s="26">
+        <v>2</v>
+      </c>
+      <c r="F14" s="180"/>
+      <c r="G14" s="26">
+        <v>2</v>
+      </c>
+      <c r="H14" s="180"/>
+      <c r="I14" s="26">
+        <v>2</v>
+      </c>
+      <c r="J14" s="180"/>
+    </row>
+    <row r="15" spans="1:10" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="211"/>
+      <c r="B15" s="43" t="s">
+        <v>162</v>
+      </c>
+      <c r="C15" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="D15" s="181"/>
+      <c r="E15" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="F15" s="181"/>
+      <c r="G15" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="H15" s="181"/>
+      <c r="I15" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="J15" s="181"/>
+    </row>
+    <row r="16" spans="1:10" s="29" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="216" t="s">
+        <v>163</v>
+      </c>
+      <c r="B16" s="217"/>
+      <c r="C16" s="27">
+        <v>19.23</v>
+      </c>
+      <c r="D16" s="28">
+        <f t="shared" ref="D16" si="13">C16</f>
+        <v>19.23</v>
+      </c>
+      <c r="E16" s="27">
+        <v>26.6</v>
+      </c>
+      <c r="F16" s="28">
+        <f t="shared" ref="F16" si="14">E16</f>
+        <v>26.6</v>
+      </c>
+      <c r="G16" s="27">
+        <v>24.92</v>
+      </c>
+      <c r="H16" s="28">
+        <f t="shared" ref="H16" si="15">G16</f>
+        <v>24.92</v>
+      </c>
+      <c r="I16" s="27">
+        <f>1664% * (1 + 0.05 * 60) * 0.7</f>
+        <v>46.591999999999999</v>
+      </c>
+      <c r="J16" s="28">
+        <f t="shared" ref="J16" si="16">I16</f>
+        <v>46.591999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" s="31" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="218" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="30">
+        <v>1</v>
+      </c>
+      <c r="D17" s="182">
+        <f t="shared" ref="D17" si="17">1+((0.7+C18)*C17)</f>
+        <v>3.3499999999999996</v>
+      </c>
+      <c r="E17" s="30">
+        <v>1</v>
+      </c>
+      <c r="F17" s="182">
+        <f t="shared" ref="F17" si="18">1+((0.7+E18)*E17)</f>
+        <v>3.2</v>
+      </c>
+      <c r="G17" s="30">
+        <v>1</v>
+      </c>
+      <c r="H17" s="182">
+        <f t="shared" ref="H17" si="19">1+((0.7+G18)*G17)</f>
+        <v>3.2</v>
+      </c>
+      <c r="I17" s="30">
+        <v>1</v>
+      </c>
+      <c r="J17" s="182">
+        <f t="shared" ref="J17" si="20">1+((0.7+I18)*I17)</f>
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" s="142" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="219"/>
+      <c r="B18" s="140" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="141">
+        <f>165%</f>
+        <v>1.65</v>
+      </c>
+      <c r="D18" s="183"/>
+      <c r="E18" s="141">
+        <f>150%</f>
+        <v>1.5</v>
+      </c>
+      <c r="F18" s="183"/>
+      <c r="G18" s="141">
+        <f>150%</f>
+        <v>1.5</v>
+      </c>
+      <c r="H18" s="183"/>
+      <c r="I18" s="141">
+        <f>150%</f>
+        <v>1.5</v>
+      </c>
+      <c r="J18" s="183"/>
+    </row>
+    <row r="19" spans="1:10" s="33" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="220" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="45" t="s">
         <v>164</v>
       </c>
-      <c r="B2" s="181"/>
-      <c r="C2" s="21">
-        <f>5/3</f>
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="D2" s="22">
-        <f>C2</f>
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="E2" s="21">
-        <f>5/3</f>
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="F2" s="22">
-        <f>E2</f>
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="G2" s="21">
-        <f>5/3</f>
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="H2" s="22">
-        <f>G2</f>
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="I2" s="21">
-        <f>5/3</f>
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="J2" s="22">
-        <f>I2</f>
-        <v>1.6666666666666667</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="180" t="s">
+      <c r="C19" s="32">
+        <f>40%+35%</f>
+        <v>0.75</v>
+      </c>
+      <c r="D19" s="184">
+        <f t="shared" ref="D19" si="21">(1+C19+C20)*(1+C21)*(1+C22)</f>
+        <v>3.6224999999999996</v>
+      </c>
+      <c r="E19" s="32">
+        <v>0.4</v>
+      </c>
+      <c r="F19" s="184">
+        <f t="shared" ref="F19" si="22">(1+E19+E20)*(1+E21)*(1+E22)</f>
+        <v>2.2539999999999996</v>
+      </c>
+      <c r="G19" s="32">
+        <v>0.4</v>
+      </c>
+      <c r="H19" s="184">
+        <f t="shared" ref="H19" si="23">(1+G19+G20)*(1+G21)*(1+G22)</f>
+        <v>2.2539999999999996</v>
+      </c>
+      <c r="I19" s="32">
+        <v>0.4</v>
+      </c>
+      <c r="J19" s="184">
+        <f t="shared" ref="J19" si="24">(1+I19+I20)*(1+I21)*(1+I22)</f>
+        <v>2.2539999999999996</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" s="33" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="221"/>
+      <c r="B20" s="45" t="s">
         <v>165</v>
       </c>
-      <c r="B3" s="181"/>
-      <c r="C3" s="123">
+      <c r="C20" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="D20" s="185"/>
+      <c r="E20" s="32">
         <v>0</v>
       </c>
-      <c r="D3" s="22">
-        <f>1-C3</f>
+      <c r="F20" s="185"/>
+      <c r="G20" s="32">
+        <v>0</v>
+      </c>
+      <c r="H20" s="185"/>
+      <c r="I20" s="32">
+        <v>0</v>
+      </c>
+      <c r="J20" s="185"/>
+    </row>
+    <row r="21" spans="1:10" s="33" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="221"/>
+      <c r="B21" s="45" t="s">
+        <v>166</v>
+      </c>
+      <c r="C21" s="32">
+        <v>0.15</v>
+      </c>
+      <c r="D21" s="185"/>
+      <c r="E21" s="32">
+        <v>0.15</v>
+      </c>
+      <c r="F21" s="185"/>
+      <c r="G21" s="32">
+        <v>0.15</v>
+      </c>
+      <c r="H21" s="185"/>
+      <c r="I21" s="32">
+        <v>0.15</v>
+      </c>
+      <c r="J21" s="185"/>
+    </row>
+    <row r="22" spans="1:10" s="145" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="222"/>
+      <c r="B22" s="143" t="s">
+        <v>161</v>
+      </c>
+      <c r="C22" s="144">
+        <v>0.4</v>
+      </c>
+      <c r="D22" s="186"/>
+      <c r="E22" s="144">
+        <v>0.4</v>
+      </c>
+      <c r="F22" s="186"/>
+      <c r="G22" s="144">
+        <v>0.4</v>
+      </c>
+      <c r="H22" s="186"/>
+      <c r="I22" s="144">
+        <v>0.4</v>
+      </c>
+      <c r="J22" s="186"/>
+    </row>
+    <row r="23" spans="1:10" s="35" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="212" t="s">
+        <v>169</v>
+      </c>
+      <c r="B23" s="46" t="s">
+        <v>167</v>
+      </c>
+      <c r="C23" s="34">
+        <v>0</v>
+      </c>
+      <c r="D23" s="187">
+        <f t="shared" ref="D23" si="25">(1+C23)*(1+C24)</f>
         <v>1</v>
       </c>
-      <c r="E3" s="123">
+      <c r="E23" s="34">
         <v>0</v>
       </c>
-      <c r="F3" s="22">
-        <f>1-E3</f>
+      <c r="F23" s="187">
+        <f t="shared" ref="F23" si="26">(1+E23)*(1+E24)</f>
+        <v>1.4</v>
+      </c>
+      <c r="G23" s="34">
+        <v>0</v>
+      </c>
+      <c r="H23" s="187">
+        <f t="shared" ref="H23" si="27">(1+G23)*(1+G24)</f>
+        <v>1.4</v>
+      </c>
+      <c r="I23" s="34">
+        <v>0</v>
+      </c>
+      <c r="J23" s="187">
+        <f t="shared" ref="J23" si="28">(1+I23)*(1+I24)</f>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" s="148" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="213"/>
+      <c r="B24" s="146" t="s">
+        <v>168</v>
+      </c>
+      <c r="C24" s="147">
+        <v>0</v>
+      </c>
+      <c r="D24" s="188"/>
+      <c r="E24" s="147">
+        <f>15%+25%</f>
+        <v>0.4</v>
+      </c>
+      <c r="F24" s="188"/>
+      <c r="G24" s="147">
+        <f>15%+25%</f>
+        <v>0.4</v>
+      </c>
+      <c r="H24" s="188"/>
+      <c r="I24" s="147">
+        <f>15%+25%</f>
+        <v>0.4</v>
+      </c>
+      <c r="J24" s="188"/>
+    </row>
+    <row r="25" spans="1:10" s="37" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="198" t="s">
+        <v>170</v>
+      </c>
+      <c r="B25" s="47" t="s">
+        <v>171</v>
+      </c>
+      <c r="C25" s="36">
+        <v>1.5</v>
+      </c>
+      <c r="D25" s="171">
+        <f t="shared" ref="D25" si="29">C25+C26</f>
+        <v>2</v>
+      </c>
+      <c r="E25" s="36">
+        <v>1.5</v>
+      </c>
+      <c r="F25" s="171">
+        <f t="shared" ref="F25" si="30">E25+E26</f>
+        <v>1.7</v>
+      </c>
+      <c r="G25" s="36">
+        <v>1.5</v>
+      </c>
+      <c r="H25" s="171">
+        <f t="shared" ref="H25" si="31">G25+G26</f>
+        <v>1.7</v>
+      </c>
+      <c r="I25" s="36">
+        <v>1.5</v>
+      </c>
+      <c r="J25" s="171">
+        <f t="shared" ref="J25" si="32">I25+I26</f>
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" s="37" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="199"/>
+      <c r="B26" s="47" t="s">
+        <v>172</v>
+      </c>
+      <c r="C26" s="38">
+        <f>30%+20%</f>
+        <v>0.5</v>
+      </c>
+      <c r="D26" s="172"/>
+      <c r="E26" s="38">
+        <v>0.2</v>
+      </c>
+      <c r="F26" s="172"/>
+      <c r="G26" s="38">
+        <v>0.2</v>
+      </c>
+      <c r="H26" s="172"/>
+      <c r="I26" s="38">
+        <v>0.2</v>
+      </c>
+      <c r="J26" s="172"/>
+    </row>
+    <row r="27" spans="1:10" s="40" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="200" t="s">
+        <v>175</v>
+      </c>
+      <c r="B27" s="48" t="s">
+        <v>173</v>
+      </c>
+      <c r="C27" s="39">
         <v>1</v>
       </c>
-      <c r="G3" s="123">
+      <c r="D27" s="189">
+        <f t="shared" ref="D27" si="33">1+C27*(0.2+C28+C29)</f>
+        <v>1.7</v>
+      </c>
+      <c r="E27" s="39">
         <v>0</v>
       </c>
-      <c r="H3" s="22">
-        <f>1-G3</f>
+      <c r="F27" s="189">
+        <f t="shared" ref="F27" si="34">1+E27*(0.2+E28+E29)</f>
         <v>1</v>
       </c>
-      <c r="I3" s="123">
+      <c r="G27" s="39">
         <v>0</v>
       </c>
-      <c r="J3" s="22">
-        <f>1-I3</f>
+      <c r="H27" s="189">
+        <f t="shared" ref="H27" si="35">1+G27*(0.2+G28+G29)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="182" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="45" t="s">
-        <v>166</v>
-      </c>
-      <c r="C4" s="24">
-        <v>5078</v>
-      </c>
-      <c r="D4" s="166">
-        <f>C4/(1+C5)*(1+C5+C6)*(1+C7)*(1+C8)</f>
-        <v>16757.400000000001</v>
-      </c>
-      <c r="E4" s="24">
-        <v>5078</v>
-      </c>
-      <c r="F4" s="166">
-        <f>E4/(1+E5)*(1+E5+E6)*(1+E7)*(1+E8)</f>
-        <v>16757.400000000001</v>
-      </c>
-      <c r="G4" s="24">
-        <v>5078</v>
-      </c>
-      <c r="H4" s="166">
-        <f>G4/(1+G5)*(1+G5+G6)*(1+G7)*(1+G8)</f>
-        <v>16757.400000000001</v>
-      </c>
-      <c r="I4" s="24">
-        <v>5078</v>
-      </c>
-      <c r="J4" s="166">
-        <f>I4/(1+I5)*(1+I5+I6)*(1+I7)*(1+I8)</f>
-        <v>16757.400000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="183"/>
-      <c r="B5" s="45" t="s">
-        <v>167</v>
-      </c>
-      <c r="C5" s="26">
+      <c r="I27" s="39">
         <v>0</v>
       </c>
-      <c r="D5" s="167"/>
-      <c r="E5" s="26">
+      <c r="J27" s="189">
+        <f t="shared" ref="J27" si="36">1+I27*(0.2+I28+I29)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" s="40" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="201"/>
+      <c r="B28" s="48" t="s">
+        <v>174</v>
+      </c>
+      <c r="C28" s="39">
+        <v>0.5</v>
+      </c>
+      <c r="D28" s="190"/>
+      <c r="E28" s="39">
+        <v>0.5</v>
+      </c>
+      <c r="F28" s="190"/>
+      <c r="G28" s="39">
+        <v>0.5</v>
+      </c>
+      <c r="H28" s="190"/>
+      <c r="I28" s="39">
+        <v>0.5</v>
+      </c>
+      <c r="J28" s="190"/>
+    </row>
+    <row r="29" spans="1:10" s="40" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="202"/>
+      <c r="B29" s="48" t="s">
+        <v>164</v>
+      </c>
+      <c r="C29" s="136">
         <v>0</v>
       </c>
-      <c r="F5" s="167"/>
-      <c r="G5" s="26">
+      <c r="D29" s="191"/>
+      <c r="E29" s="136">
         <v>0</v>
       </c>
-      <c r="H5" s="167"/>
-      <c r="I5" s="26">
+      <c r="F29" s="191"/>
+      <c r="G29" s="136">
         <v>0</v>
       </c>
-      <c r="J5" s="167"/>
-    </row>
-    <row r="6" spans="1:10" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="183"/>
-      <c r="B6" s="45" t="s">
-        <v>168</v>
-      </c>
-      <c r="C6" s="27">
-        <f>$B38</f>
+      <c r="H29" s="191"/>
+      <c r="I29" s="136">
         <v>0</v>
       </c>
-      <c r="D6" s="167"/>
-      <c r="E6" s="27">
-        <f>$B38</f>
+      <c r="J29" s="191"/>
+    </row>
+    <row r="30" spans="1:10" s="128" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="205" t="s">
+        <v>176</v>
+      </c>
+      <c r="B30" s="130" t="s">
+        <v>154</v>
+      </c>
+      <c r="C30" s="131">
+        <v>0.05</v>
+      </c>
+      <c r="D30" s="173">
+        <f t="shared" ref="D30" si="37">(1 - C30) ^ 2 * (C31 - 1) + 1</f>
+        <v>1.5415000000000001</v>
+      </c>
+      <c r="E30" s="131">
+        <v>0.05</v>
+      </c>
+      <c r="F30" s="173">
+        <f t="shared" ref="F30" si="38">(1 - E30) ^ 2 * (E31 - 1) + 1</f>
+        <v>1.5415000000000001</v>
+      </c>
+      <c r="G30" s="131">
+        <v>0.05</v>
+      </c>
+      <c r="H30" s="173">
+        <f t="shared" ref="H30" si="39">(1 - G30) ^ 2 * (G31 - 1) + 1</f>
+        <v>1.5415000000000001</v>
+      </c>
+      <c r="I30" s="131">
+        <v>0.05</v>
+      </c>
+      <c r="J30" s="173">
+        <f t="shared" ref="J30" si="40">(1 - I30) ^ 2 * (I31 - 1) + 1</f>
+        <v>1.5415000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" s="128" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="206"/>
+      <c r="B31" s="130" t="s">
+        <v>153</v>
+      </c>
+      <c r="C31" s="129">
+        <v>1.6</v>
+      </c>
+      <c r="D31" s="174"/>
+      <c r="E31" s="129">
+        <v>1.6</v>
+      </c>
+      <c r="F31" s="174"/>
+      <c r="G31" s="129">
+        <v>1.6</v>
+      </c>
+      <c r="H31" s="174"/>
+      <c r="I31" s="129">
+        <v>1.6</v>
+      </c>
+      <c r="J31" s="174"/>
+    </row>
+    <row r="32" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="203" t="s">
+        <v>177</v>
+      </c>
+      <c r="B32" s="204"/>
+      <c r="C32" s="21">
+        <v>1</v>
+      </c>
+      <c r="D32" s="23">
+        <f t="shared" ref="D32:D33" si="41">C32</f>
+        <v>1</v>
+      </c>
+      <c r="E32" s="21">
+        <v>1</v>
+      </c>
+      <c r="F32" s="23">
+        <f t="shared" ref="F32:F33" si="42">E32</f>
+        <v>1</v>
+      </c>
+      <c r="G32" s="21">
+        <v>1</v>
+      </c>
+      <c r="H32" s="23">
+        <f t="shared" ref="H32:H33" si="43">G32</f>
+        <v>1</v>
+      </c>
+      <c r="I32" s="21">
+        <v>1</v>
+      </c>
+      <c r="J32" s="23">
+        <f t="shared" ref="J32:J33" si="44">I32</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" s="40" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="207" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" s="208"/>
+      <c r="C33" s="39">
+        <v>10</v>
+      </c>
+      <c r="D33" s="41">
+        <f t="shared" si="41"/>
+        <v>10</v>
+      </c>
+      <c r="E33" s="39">
+        <v>10</v>
+      </c>
+      <c r="F33" s="41">
+        <f t="shared" si="42"/>
+        <v>10</v>
+      </c>
+      <c r="G33" s="39">
+        <v>10</v>
+      </c>
+      <c r="H33" s="41">
+        <f t="shared" si="43"/>
+        <v>10</v>
+      </c>
+      <c r="I33" s="39">
+        <v>10</v>
+      </c>
+      <c r="J33" s="41">
+        <f t="shared" si="44"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="209" t="s">
+        <v>180</v>
+      </c>
+      <c r="B34" s="43" t="s">
+        <v>178</v>
+      </c>
+      <c r="C34" s="24">
         <v>0</v>
       </c>
-      <c r="F6" s="167"/>
-      <c r="G6" s="27">
-        <f>$B38</f>
+      <c r="D34" s="166">
+        <f t="shared" ref="D34" si="45">(1-(1-C35)*C34)*(1-C36)</f>
+        <v>0.7</v>
+      </c>
+      <c r="E34" s="24">
         <v>0</v>
       </c>
-      <c r="H6" s="167"/>
-      <c r="I6" s="27">
-        <f>$B38</f>
+      <c r="F34" s="166">
+        <f t="shared" ref="F34" si="46">(1-(1-E35)*E34)*(1-E36)</f>
+        <v>0.85</v>
+      </c>
+      <c r="G34" s="24">
         <v>0</v>
       </c>
-      <c r="J6" s="167"/>
-    </row>
-    <row r="7" spans="1:10" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="183"/>
-      <c r="B7" s="45" t="s">
-        <v>169</v>
-      </c>
-      <c r="C7" s="27">
-        <f>$B37</f>
-        <v>2</v>
-      </c>
-      <c r="D7" s="167"/>
-      <c r="E7" s="27">
-        <f>$B37</f>
-        <v>2</v>
-      </c>
-      <c r="F7" s="167"/>
-      <c r="G7" s="27">
-        <f>$B37</f>
-        <v>2</v>
-      </c>
-      <c r="H7" s="167"/>
-      <c r="I7" s="27">
-        <f>$B37</f>
-        <v>2</v>
-      </c>
-      <c r="J7" s="167"/>
-    </row>
-    <row r="8" spans="1:10" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="184"/>
-      <c r="B8" s="45" t="s">
-        <v>170</v>
-      </c>
-      <c r="C8" s="27">
-        <v>0.1</v>
-      </c>
-      <c r="D8" s="168"/>
-      <c r="E8" s="27">
-        <v>0.1</v>
-      </c>
-      <c r="F8" s="168"/>
-      <c r="G8" s="27">
-        <v>0.1</v>
-      </c>
-      <c r="H8" s="168"/>
-      <c r="I8" s="27">
-        <v>0.1</v>
-      </c>
-      <c r="J8" s="168"/>
-    </row>
-    <row r="9" spans="1:10" s="30" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="185" t="s">
-        <v>171</v>
-      </c>
-      <c r="B9" s="186"/>
-      <c r="C9" s="28">
-        <v>25</v>
-      </c>
-      <c r="D9" s="29">
-        <f>C9</f>
-        <v>25</v>
-      </c>
-      <c r="E9" s="28">
-        <v>25</v>
-      </c>
-      <c r="F9" s="29">
-        <f>E9</f>
-        <v>25</v>
-      </c>
-      <c r="G9" s="28">
-        <v>25</v>
-      </c>
-      <c r="H9" s="29">
-        <f>G9</f>
-        <v>25</v>
-      </c>
-      <c r="I9" s="28">
-        <v>25</v>
-      </c>
-      <c r="J9" s="29">
-        <f>I9</f>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" s="32" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="187" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10" s="46" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" s="31">
+      <c r="H34" s="166">
+        <f t="shared" ref="H34" si="47">(1-(1-G35)*G34)*(1-G36)</f>
+        <v>0.85</v>
+      </c>
+      <c r="I34" s="24">
+        <v>0</v>
+      </c>
+      <c r="J34" s="166">
+        <f t="shared" ref="J34" si="48">(1-(1-I35)*I34)*(1-I36)</f>
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="210"/>
+      <c r="B35" s="43" t="s">
+        <v>179</v>
+      </c>
+      <c r="C35" s="24">
+        <v>0.8</v>
+      </c>
+      <c r="D35" s="167"/>
+      <c r="E35" s="24">
+        <v>0.8</v>
+      </c>
+      <c r="F35" s="167"/>
+      <c r="G35" s="24">
+        <v>0.8</v>
+      </c>
+      <c r="H35" s="167"/>
+      <c r="I35" s="24">
+        <v>0.8</v>
+      </c>
+      <c r="J35" s="167"/>
+    </row>
+    <row r="36" spans="1:10" s="151" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="211"/>
+      <c r="B36" s="149" t="s">
+        <v>152</v>
+      </c>
+      <c r="C36" s="150">
+        <v>0.3</v>
+      </c>
+      <c r="D36" s="168"/>
+      <c r="E36" s="150">
+        <v>0.15</v>
+      </c>
+      <c r="F36" s="168"/>
+      <c r="G36" s="150">
+        <v>0.15</v>
+      </c>
+      <c r="H36" s="168"/>
+      <c r="I36" s="150">
+        <v>0.15</v>
+      </c>
+      <c r="J36" s="168"/>
+    </row>
+    <row r="37" spans="1:10" s="37" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="192" t="s">
+        <v>181</v>
+      </c>
+      <c r="B37" s="193"/>
+      <c r="C37" s="36">
+        <v>0</v>
+      </c>
+      <c r="D37" s="42">
+        <f t="shared" ref="D37" si="49">C37*0.5+1</f>
         <v>1</v>
       </c>
-      <c r="D10" s="169">
-        <f>1+((0.7+C11)*C10)</f>
-        <v>3</v>
-      </c>
-      <c r="E10" s="31">
+      <c r="E37" s="36">
+        <v>0</v>
+      </c>
+      <c r="F37" s="42">
+        <f t="shared" ref="F37" si="50">E37*0.5+1</f>
         <v>1</v>
       </c>
-      <c r="F10" s="169">
-        <f>1+((0.7+E11)*E10)</f>
-        <v>3.15</v>
-      </c>
-      <c r="G10" s="31">
+      <c r="G37" s="36">
+        <v>0</v>
+      </c>
+      <c r="H37" s="42">
+        <f t="shared" ref="H37" si="51">G37*0.5+1</f>
         <v>1</v>
       </c>
-      <c r="H10" s="169">
-        <f>1+((0.7+G11)*G10)</f>
-        <v>3</v>
-      </c>
-      <c r="I10" s="31">
+      <c r="I37" s="36">
+        <v>0</v>
+      </c>
+      <c r="J37" s="42">
+        <f t="shared" ref="J37" si="52">I37*0.5+1</f>
         <v>1</v>
       </c>
-      <c r="J10" s="169">
-        <f>1+((0.7+I11)*I10)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" s="32" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="188"/>
-      <c r="B11" s="46" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="33">
-        <f>$B39</f>
-        <v>1.3</v>
-      </c>
-      <c r="D11" s="170"/>
-      <c r="E11" s="33">
-        <v>1.45</v>
-      </c>
-      <c r="F11" s="170"/>
-      <c r="G11" s="33">
-        <f>$B39</f>
-        <v>1.3</v>
-      </c>
-      <c r="H11" s="170"/>
-      <c r="I11" s="33">
-        <f>$B39</f>
-        <v>1.3</v>
-      </c>
-      <c r="J11" s="170"/>
-    </row>
-    <row r="12" spans="1:10" s="35" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="189" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12" s="47" t="s">
-        <v>172</v>
-      </c>
-      <c r="C12" s="34">
-        <f>40%+$B42</f>
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="D12" s="171">
-        <f>(1+C12+C13)*(1+C14)*(1+C15)</f>
-        <v>5.1519999999999992</v>
-      </c>
-      <c r="E12" s="34">
-        <f>40%+$B42</f>
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="F12" s="171">
-        <f>(1+E12+E13)*(1+E14)*(1+E15)</f>
-        <v>5.1519999999999992</v>
-      </c>
-      <c r="G12" s="34">
-        <f>40%+$B42</f>
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="H12" s="171">
-        <f>(1+G12+G13)*(1+G14)*(1+G15)</f>
-        <v>5.9569999999999999</v>
-      </c>
-      <c r="I12" s="34">
-        <f>40%+$B42</f>
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="J12" s="171">
-        <f>(1+I12+I13)*(1+I14)*(1+I15)</f>
-        <v>5.9569999999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" s="35" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="190"/>
-      <c r="B13" s="47" t="s">
-        <v>173</v>
-      </c>
-      <c r="C13" s="34">
-        <f>IF($B40, 50%, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="D13" s="172"/>
-      <c r="E13" s="34">
-        <v>0</v>
-      </c>
-      <c r="F13" s="172"/>
-      <c r="G13" s="34">
-        <v>0.5</v>
-      </c>
-      <c r="H13" s="172"/>
-      <c r="I13" s="34">
-        <v>0.5</v>
-      </c>
-      <c r="J13" s="172"/>
-    </row>
-    <row r="14" spans="1:10" s="35" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="190"/>
-      <c r="B14" s="47" t="s">
-        <v>174</v>
-      </c>
-      <c r="C14" s="34">
-        <v>0.15</v>
-      </c>
-      <c r="D14" s="172"/>
-      <c r="E14" s="34">
-        <v>0.15</v>
-      </c>
-      <c r="F14" s="172"/>
-      <c r="G14" s="34">
-        <v>0.15</v>
-      </c>
-      <c r="H14" s="172"/>
-      <c r="I14" s="34">
-        <v>0.15</v>
-      </c>
-      <c r="J14" s="172"/>
-    </row>
-    <row r="15" spans="1:10" s="35" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="191"/>
-      <c r="B15" s="47" t="s">
-        <v>169</v>
-      </c>
-      <c r="C15" s="34">
-        <f>$B41</f>
-        <v>0.4</v>
-      </c>
-      <c r="D15" s="173"/>
-      <c r="E15" s="34">
-        <f>$B41</f>
-        <v>0.4</v>
-      </c>
-      <c r="F15" s="173"/>
-      <c r="G15" s="34">
-        <f>$B41</f>
-        <v>0.4</v>
-      </c>
-      <c r="H15" s="173"/>
-      <c r="I15" s="34">
-        <f>$B41</f>
-        <v>0.4</v>
-      </c>
-      <c r="J15" s="173"/>
-    </row>
-    <row r="16" spans="1:10" s="37" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="176" t="s">
-        <v>177</v>
-      </c>
-      <c r="B16" s="48" t="s">
-        <v>175</v>
-      </c>
-      <c r="C16" s="36">
-        <f>$B44</f>
-        <v>0</v>
-      </c>
-      <c r="D16" s="174">
-        <f>(1+C16)*(1+C17)</f>
-        <v>1.45</v>
-      </c>
-      <c r="E16" s="36">
-        <f>$B44</f>
-        <v>0</v>
-      </c>
-      <c r="F16" s="174">
-        <f>(1+E16)*(1+E17)</f>
-        <v>1.45</v>
-      </c>
-      <c r="G16" s="36">
-        <f>$B44</f>
-        <v>0</v>
-      </c>
-      <c r="H16" s="174">
-        <f>(1+G16)*(1+G17)</f>
-        <v>1.45</v>
-      </c>
-      <c r="I16" s="36">
-        <f>$B44</f>
-        <v>0</v>
-      </c>
-      <c r="J16" s="174">
-        <f>(1+I16)*(1+I17)</f>
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" s="37" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="177"/>
-      <c r="B17" s="48" t="s">
-        <v>176</v>
-      </c>
-      <c r="C17" s="36">
-        <v>0.45</v>
-      </c>
-      <c r="D17" s="175"/>
-      <c r="E17" s="36">
-        <v>0.45</v>
-      </c>
-      <c r="F17" s="175"/>
-      <c r="G17" s="36">
-        <v>0.45</v>
-      </c>
-      <c r="H17" s="175"/>
-      <c r="I17" s="36">
-        <v>0.3</v>
-      </c>
-      <c r="J17" s="175"/>
-    </row>
-    <row r="18" spans="1:10" s="39" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="192" t="s">
-        <v>178</v>
-      </c>
-      <c r="B18" s="49" t="s">
-        <v>179</v>
-      </c>
-      <c r="C18" s="38">
-        <v>1.5</v>
-      </c>
-      <c r="D18" s="152">
-        <f>C18+C19</f>
-        <v>1.5</v>
-      </c>
-      <c r="E18" s="38">
-        <v>1.5</v>
-      </c>
-      <c r="F18" s="152">
-        <f>E18+E19</f>
-        <v>1.5</v>
-      </c>
-      <c r="G18" s="38">
-        <v>1.5</v>
-      </c>
-      <c r="H18" s="152">
-        <f>G18+G19</f>
-        <v>1.5</v>
-      </c>
-      <c r="I18" s="38">
-        <v>1.5</v>
-      </c>
-      <c r="J18" s="152">
-        <f>I18+I19</f>
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" s="39" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="193"/>
-      <c r="B19" s="49" t="s">
-        <v>180</v>
-      </c>
-      <c r="C19" s="40">
-        <v>0</v>
-      </c>
-      <c r="D19" s="153"/>
-      <c r="E19" s="40">
-        <v>0</v>
-      </c>
-      <c r="F19" s="153"/>
-      <c r="G19" s="40">
-        <v>0</v>
-      </c>
-      <c r="H19" s="153"/>
-      <c r="I19" s="40">
-        <v>0</v>
-      </c>
-      <c r="J19" s="153"/>
-    </row>
-    <row r="20" spans="1:10" s="42" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="194" t="s">
-        <v>183</v>
-      </c>
-      <c r="B20" s="50" t="s">
-        <v>181</v>
-      </c>
-      <c r="C20" s="41">
+    </row>
+    <row r="38" spans="1:10" s="35" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="196" t="s">
+        <v>182</v>
+      </c>
+      <c r="B38" s="197"/>
+      <c r="C38" s="134">
         <v>1</v>
       </c>
-      <c r="D20" s="154">
-        <f>1+C20*(0.2+C21+C22)</f>
-        <v>1.7</v>
-      </c>
-      <c r="E20" s="41">
+      <c r="D38" s="135">
+        <f t="shared" ref="D38" si="53">C38</f>
         <v>1</v>
       </c>
-      <c r="F20" s="154">
-        <f>1+E20*(0.2+E21+E22)</f>
-        <v>1.7</v>
-      </c>
-      <c r="G20" s="41">
+      <c r="E38" s="134">
         <v>1</v>
       </c>
-      <c r="H20" s="154">
-        <f>1+G20*(0.2+G21+G22)</f>
-        <v>1.7</v>
-      </c>
-      <c r="I20" s="41">
+      <c r="F38" s="135">
+        <f t="shared" ref="F38" si="54">E38</f>
         <v>1</v>
       </c>
-      <c r="J20" s="154">
-        <f>1+I20*(0.2+I21+I22)</f>
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" s="42" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="195"/>
-      <c r="B21" s="50" t="s">
-        <v>182</v>
-      </c>
-      <c r="C21" s="41">
-        <v>0.5</v>
-      </c>
-      <c r="D21" s="155"/>
-      <c r="E21" s="41">
-        <v>0.5</v>
-      </c>
-      <c r="F21" s="155"/>
-      <c r="G21" s="41">
-        <v>0.5</v>
-      </c>
-      <c r="H21" s="155"/>
-      <c r="I21" s="41">
-        <v>0.5</v>
-      </c>
-      <c r="J21" s="155"/>
-    </row>
-    <row r="22" spans="1:10" s="42" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="196"/>
-      <c r="B22" s="50" t="s">
-        <v>172</v>
-      </c>
-      <c r="C22" s="41">
-        <v>0</v>
-      </c>
-      <c r="D22" s="156"/>
-      <c r="E22" s="41">
-        <v>0</v>
-      </c>
-      <c r="F22" s="156"/>
-      <c r="G22" s="41">
-        <v>0</v>
-      </c>
-      <c r="H22" s="156"/>
-      <c r="I22" s="41">
-        <v>0</v>
-      </c>
-      <c r="J22" s="156"/>
-    </row>
-    <row r="23" spans="1:10" s="130" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="197" t="s">
-        <v>184</v>
-      </c>
-      <c r="B23" s="132" t="s">
-        <v>157</v>
-      </c>
-      <c r="C23" s="133">
-        <v>0.05</v>
-      </c>
-      <c r="D23" s="157">
-        <f>(1 - C23) ^ 2 * (C24 - 1) + 1</f>
-        <v>1.5415000000000001</v>
-      </c>
-      <c r="E23" s="133">
-        <v>0.05</v>
-      </c>
-      <c r="F23" s="157">
-        <f>(1 - E23) ^ 2 * (E24 - 1) + 1</f>
-        <v>1.5415000000000001</v>
-      </c>
-      <c r="G23" s="133">
-        <v>0.05</v>
-      </c>
-      <c r="H23" s="157">
-        <f>(1 - G23) ^ 2 * (G24 - 1) + 1</f>
-        <v>1.5415000000000001</v>
-      </c>
-      <c r="I23" s="133">
-        <v>0.05</v>
-      </c>
-      <c r="J23" s="157">
-        <f>(1 - I23) ^ 2 * (I24 - 1) + 1</f>
-        <v>1.5415000000000001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" s="130" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="198"/>
-      <c r="B24" s="132" t="s">
-        <v>156</v>
-      </c>
-      <c r="C24" s="131">
-        <v>1.6</v>
-      </c>
-      <c r="D24" s="158"/>
-      <c r="E24" s="131">
-        <v>1.6</v>
-      </c>
-      <c r="F24" s="158"/>
-      <c r="G24" s="131">
-        <v>1.6</v>
-      </c>
-      <c r="H24" s="158"/>
-      <c r="I24" s="131">
-        <v>1.6</v>
-      </c>
-      <c r="J24" s="158"/>
-    </row>
-    <row r="25" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="180" t="s">
-        <v>185</v>
-      </c>
-      <c r="B25" s="181"/>
-      <c r="C25" s="21">
+      <c r="G38" s="134">
         <v>1</v>
       </c>
-      <c r="D25" s="23">
-        <f>C25</f>
+      <c r="H38" s="135">
+        <f t="shared" ref="H38" si="55">G38</f>
         <v>1</v>
       </c>
-      <c r="E25" s="21">
+      <c r="I38" s="134">
         <v>1</v>
       </c>
-      <c r="F25" s="23">
-        <f>E25</f>
+      <c r="J38" s="135">
+        <f t="shared" ref="J38" si="56">I38</f>
         <v>1</v>
       </c>
-      <c r="G25" s="21">
-        <v>1</v>
-      </c>
-      <c r="H25" s="23">
-        <f>G25</f>
-        <v>1</v>
-      </c>
-      <c r="I25" s="21">
-        <v>1</v>
-      </c>
-      <c r="J25" s="23">
-        <f>I25</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" s="42" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="199" t="s">
-        <v>34</v>
-      </c>
-      <c r="B26" s="200"/>
-      <c r="C26" s="41">
-        <v>10</v>
-      </c>
-      <c r="D26" s="43">
-        <f>C26</f>
-        <v>10</v>
-      </c>
-      <c r="E26" s="41">
-        <v>10</v>
-      </c>
-      <c r="F26" s="43">
-        <f>E26</f>
-        <v>10</v>
-      </c>
-      <c r="G26" s="41">
-        <v>10</v>
-      </c>
-      <c r="H26" s="43">
-        <f>G26</f>
-        <v>10</v>
-      </c>
-      <c r="I26" s="41">
-        <v>10</v>
-      </c>
-      <c r="J26" s="43">
-        <f>I26</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="182" t="s">
-        <v>188</v>
-      </c>
-      <c r="B27" s="45" t="s">
-        <v>186</v>
-      </c>
-      <c r="C27" s="24">
-        <v>0</v>
-      </c>
-      <c r="D27" s="159">
-        <f>(1-(1-C28)*C27)*(1-C29)</f>
-        <v>0.5</v>
-      </c>
-      <c r="E27" s="24">
-        <v>0</v>
-      </c>
-      <c r="F27" s="159">
-        <f>(1-(1-E28)*E27)*(1-E29)</f>
-        <v>0.5</v>
-      </c>
-      <c r="G27" s="24">
-        <v>0</v>
-      </c>
-      <c r="H27" s="159">
-        <f>(1-(1-G28)*G27)*(1-G29)</f>
-        <v>0.5</v>
-      </c>
-      <c r="I27" s="24">
-        <v>0</v>
-      </c>
-      <c r="J27" s="159">
-        <f>(1-(1-I28)*I27)*(1-I29)</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="183"/>
-      <c r="B28" s="45" t="s">
-        <v>187</v>
-      </c>
-      <c r="C28" s="24">
-        <v>0.6</v>
-      </c>
-      <c r="D28" s="160"/>
-      <c r="E28" s="24">
-        <v>0.6</v>
-      </c>
-      <c r="F28" s="160"/>
-      <c r="G28" s="24">
-        <v>0.6</v>
-      </c>
-      <c r="H28" s="160"/>
-      <c r="I28" s="24">
-        <v>0.6</v>
-      </c>
-      <c r="J28" s="160"/>
-    </row>
-    <row r="29" spans="1:10" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="184"/>
-      <c r="B29" s="45" t="s">
-        <v>155</v>
-      </c>
-      <c r="C29" s="27">
-        <v>0.5</v>
-      </c>
-      <c r="D29" s="161"/>
-      <c r="E29" s="27">
-        <v>0.5</v>
-      </c>
-      <c r="F29" s="161"/>
-      <c r="G29" s="27">
-        <v>0.5</v>
-      </c>
-      <c r="H29" s="161"/>
-      <c r="I29" s="27">
-        <v>0.5</v>
-      </c>
-      <c r="J29" s="161"/>
-    </row>
-    <row r="30" spans="1:10" s="39" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="201" t="s">
-        <v>189</v>
-      </c>
-      <c r="B30" s="202"/>
-      <c r="C30" s="38">
-        <v>0</v>
-      </c>
-      <c r="D30" s="44">
-        <f>C30*0.5+1</f>
-        <v>1</v>
-      </c>
-      <c r="E30" s="38">
-        <v>0</v>
-      </c>
-      <c r="F30" s="44">
-        <f>E30*0.5+1</f>
-        <v>1</v>
-      </c>
-      <c r="G30" s="38">
-        <v>0</v>
-      </c>
-      <c r="H30" s="44">
-        <f>G30*0.5+1</f>
-        <v>1</v>
-      </c>
-      <c r="I30" s="38">
-        <v>0</v>
-      </c>
-      <c r="J30" s="44">
-        <f>I30*0.5+1</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" s="37" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="205" t="s">
-        <v>190</v>
-      </c>
-      <c r="B31" s="206"/>
-      <c r="C31" s="136">
-        <v>1.6</v>
-      </c>
-      <c r="D31" s="137">
-        <f>C31</f>
-        <v>1.6</v>
-      </c>
-      <c r="E31" s="136">
-        <v>1.6</v>
-      </c>
-      <c r="F31" s="137">
-        <f>E31</f>
-        <v>1.6</v>
-      </c>
-      <c r="G31" s="136">
-        <v>1.6</v>
-      </c>
-      <c r="H31" s="137">
-        <f>G31</f>
-        <v>1.6</v>
-      </c>
-      <c r="I31" s="136">
-        <v>1.6</v>
-      </c>
-      <c r="J31" s="137">
-        <f>I31</f>
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="203" t="s">
-        <v>191</v>
-      </c>
-      <c r="B32" s="204"/>
-      <c r="C32" s="162">
-        <f>D2*D3*D4*D9*D10*D12*D16*D18*D20*D23*D25/D26/D27*D30*D31</f>
-        <v>19683131.494783681</v>
-      </c>
-      <c r="D32" s="163"/>
-      <c r="E32" s="162">
-        <f>F2*F3*F4*F9*F10*F12*F16*F18*F20*F23*F25/F26/F27*F30*F31</f>
-        <v>20667288.069522865</v>
-      </c>
-      <c r="F32" s="163"/>
-      <c r="G32" s="162">
-        <f>H2*H3*H4*H9*H10*H12*H16*H18*H20*H23*H25/H26/H27*H30*H31</f>
-        <v>22758620.79084364</v>
-      </c>
-      <c r="H32" s="163"/>
-      <c r="I32" s="162">
-        <f>J2*J3*J4*J9*J10*J12*J16*J18*J20*J23*J25/J26/J27*J30*J31</f>
-        <v>20404280.709032226</v>
-      </c>
-      <c r="J32" s="163"/>
-    </row>
-    <row r="33" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="51" t="s">
-        <v>146</v>
-      </c>
-      <c r="B33" s="52">
-        <v>42</v>
-      </c>
-      <c r="C33" s="124">
-        <v>-0.1</v>
-      </c>
-      <c r="D33" s="134">
-        <f>C$32*(1+C33)</f>
-        <v>17714818.345305312</v>
-      </c>
-      <c r="E33" s="124">
-        <v>-0.1</v>
-      </c>
-      <c r="F33" s="134">
-        <f>E$32*(1+E33)</f>
-        <v>18600559.262570579</v>
-      </c>
-      <c r="G33" s="124">
-        <v>-0.1</v>
-      </c>
-      <c r="H33" s="134">
-        <f>G$32*(1+G33)</f>
-        <v>20482758.711759277</v>
-      </c>
-      <c r="I33" s="124">
-        <v>-0.1</v>
-      </c>
-      <c r="J33" s="134">
-        <f>I$32*(1+I33)</f>
-        <v>18363852.638129003</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="51" t="s">
-        <v>155</v>
-      </c>
-      <c r="B34" s="125">
-        <v>0.5</v>
-      </c>
-      <c r="C34" s="124">
-        <v>-0.05</v>
-      </c>
-      <c r="D34" s="134">
-        <f t="shared" ref="D34:D37" si="0">C$32*(1+C34)</f>
-        <v>18698974.920044497</v>
-      </c>
-      <c r="E34" s="124">
-        <v>-0.05</v>
-      </c>
-      <c r="F34" s="134">
-        <f>E$32*(1+E34)</f>
-        <v>19633923.66604672</v>
-      </c>
-      <c r="G34" s="124">
-        <v>-0.05</v>
-      </c>
-      <c r="H34" s="134">
-        <f t="shared" ref="H34:H37" si="1">G$32*(1+G34)</f>
-        <v>21620689.751301456</v>
-      </c>
-      <c r="I34" s="124">
-        <v>-0.05</v>
-      </c>
-      <c r="J34" s="134">
-        <f t="shared" ref="J34:J37" si="2">I$32*(1+I34)</f>
-        <v>19384066.673580613</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C35" s="124">
-        <v>0</v>
-      </c>
-      <c r="D35" s="134">
-        <f t="shared" si="0"/>
-        <v>19683131.494783681</v>
-      </c>
-      <c r="E35" s="124">
-        <v>0</v>
-      </c>
-      <c r="F35" s="134">
-        <f>E$32*(1+E35)</f>
-        <v>20667288.069522865</v>
-      </c>
-      <c r="G35" s="124">
-        <v>0</v>
-      </c>
-      <c r="H35" s="134">
-        <f t="shared" si="1"/>
-        <v>22758620.79084364</v>
-      </c>
-      <c r="I35" s="124">
-        <v>0</v>
-      </c>
-      <c r="J35" s="134">
-        <f t="shared" si="2"/>
-        <v>20404280.709032226</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="51" t="s">
-        <v>159</v>
-      </c>
-      <c r="B36" s="135">
-        <v>0.1</v>
-      </c>
-      <c r="C36" s="124">
-        <v>0.05</v>
-      </c>
-      <c r="D36" s="134">
-        <f t="shared" si="0"/>
-        <v>20667288.069522865</v>
-      </c>
-      <c r="E36" s="124">
-        <v>0.05</v>
-      </c>
-      <c r="F36" s="134">
-        <f>E$32*(1+E36)</f>
-        <v>21700652.47299901</v>
-      </c>
-      <c r="G36" s="124">
-        <v>0.05</v>
-      </c>
-      <c r="H36" s="134">
-        <f t="shared" si="1"/>
-        <v>23896551.830385823</v>
-      </c>
-      <c r="I36" s="124">
-        <v>0.05</v>
-      </c>
-      <c r="J36" s="134">
-        <f t="shared" si="2"/>
-        <v>21424494.74448384</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="51" t="s">
-        <v>163</v>
-      </c>
-      <c r="B37" s="125">
-        <v>2</v>
-      </c>
-      <c r="C37" s="124">
-        <v>0.1</v>
-      </c>
-      <c r="D37" s="134">
-        <f t="shared" si="0"/>
-        <v>21651444.644262049</v>
-      </c>
-      <c r="E37" s="124">
-        <v>0.1</v>
-      </c>
-      <c r="F37" s="134">
-        <f>E$32*(1+E37)</f>
-        <v>22734016.876475152</v>
-      </c>
-      <c r="G37" s="124">
-        <v>0.1</v>
-      </c>
-      <c r="H37" s="134">
-        <f t="shared" si="1"/>
-        <v>25034482.869928006</v>
-      </c>
-      <c r="I37" s="124">
-        <v>0.1</v>
-      </c>
-      <c r="J37" s="134">
-        <f t="shared" si="2"/>
-        <v>22444708.779935449</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="51" t="s">
-        <v>160</v>
-      </c>
-      <c r="B38" s="125">
-        <v>0</v>
-      </c>
     </row>
     <row r="39" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="51" t="s">
-        <v>42</v>
-      </c>
-      <c r="B39" s="126">
-        <v>1.3</v>
-      </c>
+      <c r="B39" s="123"/>
     </row>
     <row r="40" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="51" t="s">
-        <v>152</v>
-      </c>
-      <c r="B40" s="52" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="51" t="s">
-        <v>162</v>
-      </c>
-      <c r="B41" s="125">
-        <v>0.4</v>
-      </c>
+      <c r="B40" s="124"/>
     </row>
     <row r="42" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="51" t="s">
-        <v>161</v>
-      </c>
-      <c r="B42" s="125">
-        <v>1.8</v>
-      </c>
+      <c r="B42" s="123"/>
     </row>
     <row r="43" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="51" t="s">
-        <v>153</v>
-      </c>
-      <c r="B43" s="125">
-        <v>0</v>
-      </c>
+      <c r="B43" s="123"/>
     </row>
     <row r="44" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="51" t="s">
-        <v>154</v>
-      </c>
-      <c r="B44" s="125">
-        <v>0</v>
-      </c>
+      <c r="B44" s="123"/>
+    </row>
+    <row r="45" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="123"/>
     </row>
   </sheetData>
-  <mergeCells count="57">
-    <mergeCell ref="A26:B26"/>
+  <mergeCells count="61">
+    <mergeCell ref="H34:H36"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="J27:J29"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="J34:J36"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="F27:F29"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="H27:H29"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:A15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A25:A26"/>
     <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="J11:J15"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="J19:J22"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="H19:H22"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="H11:H15"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="F19:F22"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="F34:F36"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="D34:D36"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="D11:D15"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="D19:D22"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="D25:D26"/>
     <mergeCell ref="D27:D29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="D4:D8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="D12:D15"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="J4:J8"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="J12:J15"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="J20:J22"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="J27:J29"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="F4:F8"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="F12:F15"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="F20:F22"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="F27:F29"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="H4:H8"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="H12:H15"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="H20:H22"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="H27:H29"/>
-    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="F11:F15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5418,31 +5500,31 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" style="127" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="127"/>
+    <col min="1" max="1" width="15.5703125" style="125" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="127" t="s">
-        <v>156</v>
-      </c>
-      <c r="B1" s="127">
+      <c r="A1" s="125" t="s">
+        <v>153</v>
+      </c>
+      <c r="B1" s="125">
         <v>1.6</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="127" t="s">
-        <v>157</v>
-      </c>
-      <c r="B2" s="128">
+      <c r="A2" s="125" t="s">
+        <v>154</v>
+      </c>
+      <c r="B2" s="126">
         <v>0.22</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="127" t="s">
-        <v>158</v>
-      </c>
-      <c r="B4" s="129">
+      <c r="A4" s="125" t="s">
+        <v>155</v>
+      </c>
+      <c r="B4" s="127">
         <f>((1-B2)^2*(B1-1)+1) - 1</f>
         <v>0.36504000000000003</v>
       </c>
@@ -5463,242 +5545,242 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" style="81" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" style="81" customWidth="1"/>
-    <col min="3" max="4" width="10.42578125" style="81" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="81"/>
+    <col min="1" max="1" width="9.7109375" style="79" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" style="79" customWidth="1"/>
+    <col min="3" max="4" width="10.42578125" style="79" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="79"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C1" s="81" t="s">
+      <c r="C1" s="79" t="s">
         <v>150</v>
       </c>
-      <c r="D1" s="81" t="s">
+      <c r="D1" s="79" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="82" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="82" t="s">
+    <row r="2" spans="1:4" s="80" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="82" t="s">
+      <c r="B2" s="80" t="s">
         <v>112</v>
       </c>
-      <c r="C2" s="83">
+      <c r="C2" s="81">
         <v>0.8</v>
       </c>
-      <c r="D2" s="83">
+      <c r="D2" s="81">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="82" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="82" t="s">
+    <row r="3" spans="1:4" s="80" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="80" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="207">
+      <c r="C3" s="223">
         <v>0.1</v>
       </c>
-      <c r="D3" s="207"/>
-    </row>
-    <row r="4" spans="1:4" s="119" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="119" t="s">
+      <c r="D3" s="223"/>
+    </row>
+    <row r="4" spans="1:4" s="117" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="117" t="s">
         <v>145</v>
       </c>
-      <c r="C4" s="215">
+      <c r="C4" s="231">
         <v>0</v>
       </c>
-      <c r="D4" s="216"/>
-    </row>
-    <row r="5" spans="1:4" s="102" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="102" t="s">
+      <c r="D4" s="232"/>
+    </row>
+    <row r="5" spans="1:4" s="100" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="100" t="s">
         <v>146</v>
       </c>
-      <c r="C5" s="101">
+      <c r="C5" s="99">
         <v>0</v>
       </c>
-      <c r="D5" s="101">
+      <c r="D5" s="99">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="84" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="84" t="s">
+    <row r="6" spans="1:4" s="82" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="82" t="s">
         <v>123</v>
       </c>
-      <c r="B6" s="84" t="s">
+      <c r="B6" s="82" t="s">
         <v>112</v>
       </c>
-      <c r="C6" s="85">
+      <c r="C6" s="83">
         <v>0</v>
       </c>
-      <c r="D6" s="85">
+      <c r="D6" s="83">
         <v>1.8</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="84" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="84" t="s">
+    <row r="7" spans="1:4" s="82" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="82" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="212">
+      <c r="C7" s="228">
         <v>0.4</v>
       </c>
-      <c r="D7" s="212"/>
-    </row>
-    <row r="8" spans="1:4" s="84" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="84" t="s">
+      <c r="D7" s="228"/>
+    </row>
+    <row r="8" spans="1:4" s="82" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="82" t="s">
         <v>145</v>
       </c>
-      <c r="C8" s="212">
+      <c r="C8" s="228">
         <v>0</v>
       </c>
-      <c r="D8" s="212"/>
-    </row>
-    <row r="9" spans="1:4" s="99" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="99" t="s">
+      <c r="D8" s="228"/>
+    </row>
+    <row r="9" spans="1:4" s="97" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="97" t="s">
         <v>146</v>
       </c>
-      <c r="C9" s="98">
+      <c r="C9" s="96">
         <v>0</v>
       </c>
-      <c r="D9" s="98">
+      <c r="D9" s="96">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="86" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="86" t="s">
+    <row r="10" spans="1:4" s="84" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="84" t="s">
         <v>113</v>
       </c>
-      <c r="B10" s="86" t="s">
+      <c r="B10" s="84" t="s">
         <v>112</v>
       </c>
-      <c r="C10" s="87">
+      <c r="C10" s="85">
         <v>0.3</v>
       </c>
-      <c r="D10" s="87">
+      <c r="D10" s="85">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" s="86" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="86" t="s">
+    <row r="11" spans="1:4" s="84" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="84" t="s">
         <v>114</v>
       </c>
-      <c r="C11" s="213">
+      <c r="C11" s="229">
         <v>0</v>
       </c>
-      <c r="D11" s="214"/>
-    </row>
-    <row r="12" spans="1:4" s="86" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="86" t="s">
+      <c r="D11" s="230"/>
+    </row>
+    <row r="12" spans="1:4" s="84" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="84" t="s">
         <v>124</v>
       </c>
-      <c r="C12" s="211">
+      <c r="C12" s="227">
         <v>0.5</v>
       </c>
-      <c r="D12" s="211"/>
-    </row>
-    <row r="13" spans="1:4" s="88" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="88" t="s">
+      <c r="D12" s="227"/>
+    </row>
+    <row r="13" spans="1:4" s="86" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="86" t="s">
         <v>55</v>
       </c>
-      <c r="B13" s="88" t="s">
+      <c r="B13" s="86" t="s">
         <v>126</v>
       </c>
-      <c r="C13" s="210">
+      <c r="C13" s="226">
         <v>0</v>
       </c>
-      <c r="D13" s="210"/>
-    </row>
-    <row r="14" spans="1:4" s="120" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="120" t="s">
+      <c r="D13" s="226"/>
+    </row>
+    <row r="14" spans="1:4" s="118" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="118" t="s">
         <v>147</v>
       </c>
-      <c r="C14" s="210">
+      <c r="C14" s="226">
         <v>0</v>
       </c>
-      <c r="D14" s="210"/>
-    </row>
-    <row r="15" spans="1:4" s="88" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="88" t="s">
+      <c r="D14" s="226"/>
+    </row>
+    <row r="15" spans="1:4" s="86" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="86" t="s">
         <v>125</v>
       </c>
-      <c r="C15" s="210">
+      <c r="C15" s="226">
         <v>0</v>
       </c>
-      <c r="D15" s="210"/>
-    </row>
-    <row r="16" spans="1:4" s="89" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="89" t="s">
+      <c r="D15" s="226"/>
+    </row>
+    <row r="16" spans="1:4" s="87" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="87" t="s">
         <v>116</v>
       </c>
-      <c r="B16" s="89" t="s">
+      <c r="B16" s="87" t="s">
         <v>115</v>
       </c>
-      <c r="C16" s="208">
+      <c r="C16" s="224">
         <v>1</v>
       </c>
-      <c r="D16" s="208"/>
-    </row>
-    <row r="17" spans="1:4" s="89" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="89" t="s">
+      <c r="D16" s="224"/>
+    </row>
+    <row r="17" spans="1:4" s="87" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="87" t="s">
         <v>123</v>
       </c>
-      <c r="C17" s="209">
+      <c r="C17" s="225">
         <v>1</v>
       </c>
-      <c r="D17" s="209"/>
-    </row>
-    <row r="18" spans="1:4" s="90" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="90" t="s">
+      <c r="D17" s="225"/>
+    </row>
+    <row r="18" spans="1:4" s="88" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="88" t="s">
         <v>117</v>
       </c>
-      <c r="B18" s="90" t="s">
+      <c r="B18" s="88" t="s">
         <v>115</v>
       </c>
-      <c r="C18" s="92">
+      <c r="C18" s="90">
         <f>(1+C2+$C3)*(1+$C4+C5)*(1+C10+$C11+$C12)*(1+$C13)*$C16</f>
         <v>3.4200000000000004</v>
       </c>
-      <c r="D18" s="92">
+      <c r="D18" s="90">
         <f>(1+D2+$C3)*(1+$C4+D5)*(1+D10+$C11+$C12)*(1+$C13)*$C16</f>
         <v>1.6500000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:4" s="90" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="100">
+    <row r="19" spans="1:4" s="88" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="98">
         <f>-(1-MAX(C18:D18)/MAX(C20:D20))</f>
         <v>-0.35227272727272718</v>
       </c>
-      <c r="C19" s="91">
+      <c r="C19" s="89">
         <f>-(1-(C18/MAX($C18:$D18)))</f>
         <v>0</v>
       </c>
-      <c r="D19" s="91">
+      <c r="D19" s="89">
         <f>-(1-(D18/MAX($C18:$D18)))</f>
         <v>-0.51754385964912286</v>
       </c>
     </row>
-    <row r="20" spans="1:4" s="90" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="90" t="s">
+    <row r="20" spans="1:4" s="88" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="88" t="s">
         <v>123</v>
       </c>
-      <c r="C20" s="92">
+      <c r="C20" s="90">
         <f>(1+C2+$C3)*(1+$C4+C5)*(1+C6+$C7+$C14)*(1+$C8+C9)*(1+C10+$C11+$C12)*(1+$C15)*$C17</f>
         <v>4.7880000000000003</v>
       </c>
-      <c r="D20" s="92">
+      <c r="D20" s="90">
         <f>(1+D2+$C3)*(1+$C4+D5)*(1+D6+$C7+$C14)*(1+$C8+D9)*(1+D10+$C11+$C12)*(1+$C15)*$C17</f>
         <v>5.28</v>
       </c>
     </row>
-    <row r="21" spans="1:4" s="90" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="100">
+    <row r="21" spans="1:4" s="88" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="98">
         <f>-(1-MAX(C20:D20)/MAX(C18:D18))</f>
         <v>0.54385964912280693</v>
       </c>
-      <c r="C21" s="91">
+      <c r="C21" s="89">
         <f>-(1-(C20/MAX($C20:$D20)))</f>
         <v>-9.3181818181818143E-2</v>
       </c>
-      <c r="D21" s="91">
+      <c r="D21" s="89">
         <f>-(1-(D20/MAX($C20:$D20)))</f>
         <v>0</v>
       </c>
@@ -5727,68 +5809,68 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="93"/>
-    <col min="3" max="3" width="9.140625" style="93" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="93"/>
-    <col min="5" max="5" width="9.140625" style="121"/>
-    <col min="6" max="16384" width="9.140625" style="93"/>
+    <col min="1" max="2" width="9.140625" style="91"/>
+    <col min="3" max="3" width="9.140625" style="91" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="91"/>
+    <col min="5" max="5" width="9.140625" style="119"/>
+    <col min="6" max="16384" width="9.140625" style="91"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="218" t="s">
+      <c r="A1" s="234" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="218"/>
-      <c r="C1" s="217" t="s">
+      <c r="B1" s="234"/>
+      <c r="C1" s="233" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="217"/>
+      <c r="D1" s="233"/>
     </row>
     <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="70" t="s">
         <v>118</v>
       </c>
-      <c r="B2" s="94">
+      <c r="B2" s="92">
         <v>0.12</v>
       </c>
-      <c r="C2" s="63" t="s">
+      <c r="C2" s="61" t="s">
         <v>118</v>
       </c>
-      <c r="D2" s="95">
+      <c r="D2" s="93">
         <v>1.7</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="72" t="s">
+      <c r="A3" s="70" t="s">
         <v>119</v>
       </c>
-      <c r="B3" s="94">
-        <v>0.12</v>
-      </c>
-      <c r="C3" s="63" t="s">
+      <c r="B3" s="92">
+        <v>0.5</v>
+      </c>
+      <c r="C3" s="61" t="s">
         <v>119</v>
       </c>
-      <c r="D3" s="95">
+      <c r="D3" s="93">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="72" t="s">
+      <c r="A4" s="70" t="s">
         <v>120</v>
       </c>
-      <c r="B4" s="94">
+      <c r="B4" s="92">
         <f>B2+B3</f>
-        <v>0.24</v>
-      </c>
-      <c r="C4" s="63" t="s">
+        <v>0.62</v>
+      </c>
+      <c r="C4" s="61" t="s">
         <v>120</v>
       </c>
-      <c r="D4" s="95">
+      <c r="D4" s="93">
         <f>D2+D3</f>
         <v>1.7</v>
       </c>
@@ -5800,74 +5882,74 @@
       <c r="B5" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="221" t="s">
+      <c r="C5" s="237" t="s">
         <v>122</v>
       </c>
-      <c r="D5" s="222"/>
+      <c r="D5" s="238"/>
     </row>
     <row r="6" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="65" t="s">
+      <c r="A6" s="63" t="s">
         <v>118</v>
       </c>
-      <c r="B6" s="65" t="s">
+      <c r="B6" s="63" t="s">
         <v>118</v>
       </c>
-      <c r="C6" s="219">
+      <c r="C6" s="235">
         <f>1*(1-B2)+D2*(B2)</f>
         <v>1.0840000000000001</v>
       </c>
-      <c r="D6" s="220"/>
+      <c r="D6" s="236"/>
     </row>
     <row r="7" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="65" t="s">
+      <c r="A7" s="63" t="s">
         <v>118</v>
       </c>
-      <c r="B7" s="96" t="s">
+      <c r="B7" s="94" t="s">
         <v>121</v>
       </c>
-      <c r="C7" s="219">
+      <c r="C7" s="235">
         <f>1*(1-B2)+D4*(B2)</f>
         <v>1.0840000000000001</v>
       </c>
-      <c r="D7" s="220"/>
-      <c r="E7" s="122">
+      <c r="D7" s="236"/>
+      <c r="E7" s="120">
         <f>C7/C6</f>
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="96" t="s">
+      <c r="A8" s="94" t="s">
         <v>121</v>
       </c>
-      <c r="B8" s="65" t="s">
+      <c r="B8" s="63" t="s">
         <v>118</v>
       </c>
-      <c r="C8" s="219">
+      <c r="C8" s="235">
         <f>1*(1-B4)+D2*(B4)</f>
-        <v>1.1679999999999999</v>
-      </c>
-      <c r="D8" s="220"/>
-      <c r="E8" s="122">
+        <v>1.4340000000000002</v>
+      </c>
+      <c r="D8" s="236"/>
+      <c r="E8" s="120">
         <f>C8/C6</f>
-        <v>1.0774907749077489</v>
-      </c>
-      <c r="F8" s="97"/>
+        <v>1.3228782287822878</v>
+      </c>
+      <c r="F8" s="95"/>
     </row>
     <row r="9" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="96" t="s">
+      <c r="A9" s="94" t="s">
         <v>121</v>
       </c>
-      <c r="B9" s="96" t="s">
+      <c r="B9" s="94" t="s">
         <v>121</v>
       </c>
-      <c r="C9" s="219">
+      <c r="C9" s="235">
         <f>1*(1-B4)+D4*(B4)</f>
-        <v>1.1679999999999999</v>
-      </c>
-      <c r="D9" s="220"/>
-      <c r="E9" s="122">
+        <v>1.4340000000000002</v>
+      </c>
+      <c r="D9" s="236"/>
+      <c r="E9" s="120">
         <f>C9/C6</f>
-        <v>1.0774907749077489</v>
+        <v>1.3228782287822878</v>
       </c>
     </row>
   </sheetData>
@@ -5894,1667 +5976,1667 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="103" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="93"/>
-    <col min="3" max="3" width="2.42578125" style="93" customWidth="1"/>
-    <col min="4" max="4" width="4.140625" style="104" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" style="104" customWidth="1"/>
-    <col min="6" max="6" width="8.5703125" style="104" customWidth="1"/>
-    <col min="7" max="7" width="8.140625" style="104" customWidth="1"/>
-    <col min="8" max="9" width="10.5703125" style="104" customWidth="1"/>
-    <col min="10" max="10" width="6.85546875" style="105" customWidth="1"/>
-    <col min="11" max="11" width="10.5703125" style="116" customWidth="1"/>
-    <col min="12" max="12" width="7.28515625" style="118" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="93"/>
+    <col min="1" max="1" width="11.42578125" style="101" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="91"/>
+    <col min="3" max="3" width="2.42578125" style="91" customWidth="1"/>
+    <col min="4" max="4" width="4.140625" style="102" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" style="102" customWidth="1"/>
+    <col min="6" max="6" width="8.5703125" style="102" customWidth="1"/>
+    <col min="7" max="7" width="8.140625" style="102" customWidth="1"/>
+    <col min="8" max="9" width="10.5703125" style="102" customWidth="1"/>
+    <col min="10" max="10" width="6.85546875" style="103" customWidth="1"/>
+    <col min="11" max="11" width="10.5703125" style="114" customWidth="1"/>
+    <col min="12" max="12" width="7.28515625" style="116" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="91"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="103" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="110" t="s">
+    <row r="1" spans="1:12" s="101" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="108" t="s">
         <v>134</v>
       </c>
-      <c r="B1" s="110">
+      <c r="B1" s="108">
         <v>3</v>
       </c>
-      <c r="D1" s="110" t="s">
+      <c r="D1" s="108" t="s">
         <v>129</v>
       </c>
-      <c r="E1" s="110" t="s">
+      <c r="E1" s="108" t="s">
         <v>130</v>
       </c>
-      <c r="F1" s="110" t="s">
+      <c r="F1" s="108" t="s">
         <v>131</v>
       </c>
-      <c r="G1" s="110" t="s">
+      <c r="G1" s="108" t="s">
         <v>143</v>
       </c>
-      <c r="H1" s="110" t="s">
+      <c r="H1" s="108" t="s">
         <v>132</v>
       </c>
-      <c r="I1" s="110" t="s">
+      <c r="I1" s="108" t="s">
         <v>136</v>
       </c>
-      <c r="J1" s="111" t="s">
+      <c r="J1" s="109" t="s">
         <v>137</v>
       </c>
-      <c r="K1" s="115" t="s">
+      <c r="K1" s="113" t="s">
         <v>144</v>
       </c>
-      <c r="L1" s="117" t="s">
+      <c r="L1" s="115" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="110" t="s">
+      <c r="A2" s="108" t="s">
         <v>133</v>
       </c>
-      <c r="B2" s="112">
+      <c r="B2" s="110">
         <v>0.09</v>
       </c>
-      <c r="D2" s="104">
+      <c r="D2" s="102">
         <v>1</v>
       </c>
-      <c r="E2" s="104">
+      <c r="E2" s="102">
         <f>$B$1*D2</f>
         <v>3</v>
       </c>
-      <c r="F2" s="106">
+      <c r="F2" s="104">
         <f t="shared" ref="F2:F42" si="0">$B$2+$B$6*_xlfn.FLOOR.MATH(E2/$B$3)</f>
         <v>0.09</v>
       </c>
-      <c r="G2" s="106">
+      <c r="G2" s="104">
         <f>F2/$B$1</f>
         <v>0.03</v>
       </c>
-      <c r="H2" s="106">
+      <c r="H2" s="104">
         <f>SUM($F$2:F2)</f>
         <v>0.09</v>
       </c>
-      <c r="I2" s="107">
+      <c r="I2" s="105">
         <f>H2/E2</f>
         <v>0.03</v>
       </c>
-      <c r="J2" s="105">
+      <c r="J2" s="103">
         <f>1/I2</f>
         <v>33.333333333333336</v>
       </c>
-      <c r="K2" s="116">
+      <c r="K2" s="114">
         <f>IF($B$13-G2&gt;0,"",$B$13-G2)</f>
         <v>-1.9230769230769232E-2</v>
       </c>
-      <c r="L2" s="118">
+      <c r="L2" s="116">
         <f>IF(ISNUMBER(K2),-1/K2,"")</f>
         <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="110" t="s">
+      <c r="A3" s="108" t="s">
         <v>127</v>
       </c>
-      <c r="B3" s="104">
+      <c r="B3" s="102">
         <v>12.2</v>
       </c>
-      <c r="D3" s="104">
+      <c r="D3" s="102">
         <f>D2+1</f>
         <v>2</v>
       </c>
-      <c r="E3" s="104">
+      <c r="E3" s="102">
         <f>$B$1*D3</f>
         <v>6</v>
       </c>
-      <c r="F3" s="106">
+      <c r="F3" s="104">
         <f t="shared" si="0"/>
         <v>0.09</v>
       </c>
-      <c r="G3" s="106">
+      <c r="G3" s="104">
         <f t="shared" ref="G3:G42" si="1">F3/$B$1</f>
         <v>0.03</v>
       </c>
-      <c r="H3" s="106">
+      <c r="H3" s="104">
         <f>SUM($F$2:F3)</f>
         <v>0.18</v>
       </c>
-      <c r="I3" s="107">
+      <c r="I3" s="105">
         <f t="shared" ref="I3:I35" si="2">H3/E3</f>
         <v>0.03</v>
       </c>
-      <c r="J3" s="105">
+      <c r="J3" s="103">
         <f t="shared" ref="J3:J42" si="3">1/I3</f>
         <v>33.333333333333336</v>
       </c>
-      <c r="K3" s="116">
+      <c r="K3" s="114">
         <f t="shared" ref="K3:K35" si="4">IF($B$13-G3&gt;0,"",$B$13-G3)</f>
         <v>-1.9230769230769232E-2</v>
       </c>
-      <c r="L3" s="118">
+      <c r="L3" s="116">
         <f t="shared" ref="L3:L42" si="5">IF(ISNUMBER(K3),-1/K3,"")</f>
         <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="110" t="s">
+      <c r="A4" s="108" t="s">
         <v>128</v>
       </c>
-      <c r="B4" s="112">
+      <c r="B4" s="110">
         <v>0.3</v>
       </c>
-      <c r="D4" s="104">
+      <c r="D4" s="102">
         <f t="shared" ref="D4:D15" si="6">D3+1</f>
         <v>3</v>
       </c>
-      <c r="E4" s="104">
+      <c r="E4" s="102">
         <f t="shared" ref="E4:E20" si="7">$B$1*D4</f>
         <v>9</v>
       </c>
-      <c r="F4" s="106">
+      <c r="F4" s="104">
         <f t="shared" si="0"/>
         <v>0.09</v>
       </c>
-      <c r="G4" s="106">
+      <c r="G4" s="104">
         <f t="shared" si="1"/>
         <v>0.03</v>
       </c>
-      <c r="H4" s="106">
+      <c r="H4" s="104">
         <f>SUM($F$2:F4)</f>
         <v>0.27</v>
       </c>
-      <c r="I4" s="107">
+      <c r="I4" s="105">
         <f t="shared" si="2"/>
         <v>3.0000000000000002E-2</v>
       </c>
-      <c r="J4" s="105">
+      <c r="J4" s="103">
         <f t="shared" si="3"/>
         <v>33.333333333333329</v>
       </c>
-      <c r="K4" s="116">
+      <c r="K4" s="114">
         <f t="shared" si="4"/>
         <v>-1.9230769230769232E-2</v>
       </c>
-      <c r="L4" s="118">
+      <c r="L4" s="116">
         <f t="shared" si="5"/>
         <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D5" s="104">
+      <c r="D5" s="102">
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="E5" s="104">
+      <c r="E5" s="102">
         <f t="shared" si="7"/>
         <v>12</v>
       </c>
-      <c r="F5" s="106">
+      <c r="F5" s="104">
         <f t="shared" si="0"/>
         <v>0.09</v>
       </c>
-      <c r="G5" s="106">
+      <c r="G5" s="104">
         <f t="shared" si="1"/>
         <v>0.03</v>
       </c>
-      <c r="H5" s="106">
+      <c r="H5" s="104">
         <f>SUM($F$2:F5)</f>
         <v>0.36</v>
       </c>
-      <c r="I5" s="107">
+      <c r="I5" s="105">
         <f t="shared" si="2"/>
         <v>0.03</v>
       </c>
-      <c r="J5" s="105">
+      <c r="J5" s="103">
         <f t="shared" si="3"/>
         <v>33.333333333333336</v>
       </c>
-      <c r="K5" s="116">
+      <c r="K5" s="114">
         <f t="shared" si="4"/>
         <v>-1.9230769230769232E-2</v>
       </c>
-      <c r="L5" s="118">
+      <c r="L5" s="116">
         <f t="shared" si="5"/>
         <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="103" t="s">
+      <c r="A6" s="101" t="s">
         <v>135</v>
       </c>
-      <c r="B6" s="97">
+      <c r="B6" s="95">
         <f>B2*B4</f>
         <v>2.7E-2</v>
       </c>
-      <c r="D6" s="104">
+      <c r="D6" s="102">
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="E6" s="104">
+      <c r="E6" s="102">
         <f t="shared" si="7"/>
         <v>15</v>
       </c>
-      <c r="F6" s="106">
+      <c r="F6" s="104">
         <f t="shared" si="0"/>
         <v>0.11699999999999999</v>
       </c>
-      <c r="G6" s="106">
+      <c r="G6" s="104">
         <f t="shared" si="1"/>
         <v>3.9E-2</v>
       </c>
-      <c r="H6" s="106">
+      <c r="H6" s="104">
         <f>SUM($F$2:F6)</f>
         <v>0.47699999999999998</v>
       </c>
-      <c r="I6" s="107">
+      <c r="I6" s="105">
         <f t="shared" si="2"/>
         <v>3.1800000000000002E-2</v>
       </c>
-      <c r="J6" s="105">
+      <c r="J6" s="103">
         <f t="shared" si="3"/>
         <v>31.446540880503143</v>
       </c>
-      <c r="K6" s="116">
+      <c r="K6" s="114">
         <f t="shared" si="4"/>
         <v>-2.8230769230769233E-2</v>
       </c>
-      <c r="L6" s="118">
+      <c r="L6" s="116">
         <f t="shared" si="5"/>
         <v>35.422343324250676</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D7" s="104">
+      <c r="D7" s="102">
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
-      <c r="E7" s="104">
+      <c r="E7" s="102">
         <f t="shared" si="7"/>
         <v>18</v>
       </c>
-      <c r="F7" s="106">
+      <c r="F7" s="104">
         <f t="shared" si="0"/>
         <v>0.11699999999999999</v>
       </c>
-      <c r="G7" s="106">
+      <c r="G7" s="104">
         <f t="shared" si="1"/>
         <v>3.9E-2</v>
       </c>
-      <c r="H7" s="106">
+      <c r="H7" s="104">
         <f>SUM($F$2:F7)</f>
         <v>0.59399999999999997</v>
       </c>
-      <c r="I7" s="107">
+      <c r="I7" s="105">
         <f t="shared" si="2"/>
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="J7" s="105">
+      <c r="J7" s="103">
         <f t="shared" si="3"/>
         <v>30.303030303030301</v>
       </c>
-      <c r="K7" s="116">
+      <c r="K7" s="114">
         <f t="shared" si="4"/>
         <v>-2.8230769230769233E-2</v>
       </c>
-      <c r="L7" s="118">
+      <c r="L7" s="116">
         <f t="shared" si="5"/>
         <v>35.422343324250676</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="65" t="s">
+      <c r="A8" s="63" t="s">
         <v>138</v>
       </c>
-      <c r="B8" s="113">
+      <c r="B8" s="111">
         <v>3.9</v>
       </c>
-      <c r="C8" s="97"/>
-      <c r="D8" s="104">
+      <c r="C8" s="95"/>
+      <c r="D8" s="102">
         <f t="shared" si="6"/>
         <v>7</v>
       </c>
-      <c r="E8" s="104">
+      <c r="E8" s="102">
         <f t="shared" si="7"/>
         <v>21</v>
       </c>
-      <c r="F8" s="106">
+      <c r="F8" s="104">
         <f t="shared" si="0"/>
         <v>0.11699999999999999</v>
       </c>
-      <c r="G8" s="106">
+      <c r="G8" s="104">
         <f t="shared" si="1"/>
         <v>3.9E-2</v>
       </c>
-      <c r="H8" s="106">
+      <c r="H8" s="104">
         <f>SUM($F$2:F8)</f>
         <v>0.71099999999999997</v>
       </c>
-      <c r="I8" s="107">
+      <c r="I8" s="105">
         <f t="shared" si="2"/>
         <v>3.3857142857142856E-2</v>
       </c>
-      <c r="J8" s="105">
+      <c r="J8" s="103">
         <f t="shared" si="3"/>
         <v>29.535864978902953</v>
       </c>
-      <c r="K8" s="116">
+      <c r="K8" s="114">
         <f t="shared" si="4"/>
         <v>-2.8230769230769233E-2</v>
       </c>
-      <c r="L8" s="118">
+      <c r="L8" s="116">
         <f t="shared" si="5"/>
         <v>35.422343324250676</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="65" t="s">
+      <c r="A9" s="63" t="s">
         <v>139</v>
       </c>
-      <c r="B9" s="114">
+      <c r="B9" s="112">
         <v>0.06</v>
       </c>
-      <c r="D9" s="104">
+      <c r="D9" s="102">
         <f t="shared" si="6"/>
         <v>8</v>
       </c>
-      <c r="E9" s="104">
+      <c r="E9" s="102">
         <f t="shared" si="7"/>
         <v>24</v>
       </c>
-      <c r="F9" s="106">
+      <c r="F9" s="104">
         <f t="shared" si="0"/>
         <v>0.11699999999999999</v>
       </c>
-      <c r="G9" s="106">
+      <c r="G9" s="104">
         <f t="shared" si="1"/>
         <v>3.9E-2</v>
       </c>
-      <c r="H9" s="106">
+      <c r="H9" s="104">
         <f>SUM($F$2:F9)</f>
         <v>0.82799999999999996</v>
       </c>
-      <c r="I9" s="107">
+      <c r="I9" s="105">
         <f t="shared" si="2"/>
         <v>3.4499999999999996E-2</v>
       </c>
-      <c r="J9" s="105">
+      <c r="J9" s="103">
         <f t="shared" si="3"/>
         <v>28.985507246376816</v>
       </c>
-      <c r="K9" s="116">
+      <c r="K9" s="114">
         <f t="shared" si="4"/>
         <v>-2.8230769230769233E-2</v>
       </c>
-      <c r="L9" s="118">
+      <c r="L9" s="116">
         <f t="shared" si="5"/>
         <v>35.422343324250676</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="65" t="s">
+      <c r="A10" s="63" t="s">
         <v>140</v>
       </c>
-      <c r="B10" s="114">
+      <c r="B10" s="112">
         <v>0.3</v>
       </c>
-      <c r="D10" s="104">
+      <c r="D10" s="102">
         <f t="shared" si="6"/>
         <v>9</v>
       </c>
-      <c r="E10" s="104">
+      <c r="E10" s="102">
         <f t="shared" si="7"/>
         <v>27</v>
       </c>
-      <c r="F10" s="106">
+      <c r="F10" s="104">
         <f t="shared" si="0"/>
         <v>0.14399999999999999</v>
       </c>
-      <c r="G10" s="106">
+      <c r="G10" s="104">
         <f t="shared" si="1"/>
         <v>4.7999999999999994E-2</v>
       </c>
-      <c r="H10" s="106">
+      <c r="H10" s="104">
         <f>SUM($F$2:F10)</f>
         <v>0.97199999999999998</v>
       </c>
-      <c r="I10" s="107">
+      <c r="I10" s="105">
         <f t="shared" si="2"/>
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="J10" s="105">
+      <c r="J10" s="103">
         <f t="shared" si="3"/>
         <v>27.777777777777779</v>
       </c>
-      <c r="K10" s="116">
+      <c r="K10" s="114">
         <f t="shared" si="4"/>
         <v>-3.7230769230769227E-2</v>
       </c>
-      <c r="L10" s="118">
+      <c r="L10" s="116">
         <f t="shared" si="5"/>
         <v>26.859504132231407</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="108"/>
-      <c r="D11" s="104">
+      <c r="B11" s="106"/>
+      <c r="D11" s="102">
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
-      <c r="E11" s="104">
+      <c r="E11" s="102">
         <f t="shared" si="7"/>
         <v>30</v>
       </c>
-      <c r="F11" s="106">
+      <c r="F11" s="104">
         <f t="shared" si="0"/>
         <v>0.14399999999999999</v>
       </c>
-      <c r="G11" s="106">
+      <c r="G11" s="104">
         <f t="shared" si="1"/>
         <v>4.7999999999999994E-2</v>
       </c>
-      <c r="H11" s="106">
+      <c r="H11" s="104">
         <f>SUM($F$2:F11)</f>
         <v>1.1159999999999999</v>
       </c>
-      <c r="I11" s="107">
+      <c r="I11" s="105">
         <f t="shared" si="2"/>
         <v>3.7199999999999997E-2</v>
       </c>
-      <c r="J11" s="105">
+      <c r="J11" s="103">
         <f t="shared" si="3"/>
         <v>26.881720430107528</v>
       </c>
-      <c r="K11" s="116">
+      <c r="K11" s="114">
         <f t="shared" si="4"/>
         <v>-3.7230769230769227E-2</v>
       </c>
-      <c r="L11" s="118">
+      <c r="L11" s="116">
         <f t="shared" si="5"/>
         <v>26.859504132231407</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="103" t="s">
+      <c r="A12" s="101" t="s">
         <v>141</v>
       </c>
-      <c r="B12" s="97">
+      <c r="B12" s="95">
         <f>B9*(1-B10)</f>
         <v>4.1999999999999996E-2</v>
       </c>
-      <c r="D12" s="104">
+      <c r="D12" s="102">
         <f t="shared" si="6"/>
         <v>11</v>
       </c>
-      <c r="E12" s="104">
+      <c r="E12" s="102">
         <f t="shared" si="7"/>
         <v>33</v>
       </c>
-      <c r="F12" s="106">
+      <c r="F12" s="104">
         <f t="shared" si="0"/>
         <v>0.14399999999999999</v>
       </c>
-      <c r="G12" s="106">
+      <c r="G12" s="104">
         <f t="shared" si="1"/>
         <v>4.7999999999999994E-2</v>
       </c>
-      <c r="H12" s="106">
+      <c r="H12" s="104">
         <f>SUM($F$2:F12)</f>
         <v>1.2599999999999998</v>
       </c>
-      <c r="I12" s="107">
+      <c r="I12" s="105">
         <f t="shared" si="2"/>
         <v>3.8181818181818178E-2</v>
       </c>
-      <c r="J12" s="105">
+      <c r="J12" s="103">
         <f t="shared" si="3"/>
         <v>26.190476190476193</v>
       </c>
-      <c r="K12" s="116">
+      <c r="K12" s="114">
         <f t="shared" si="4"/>
         <v>-3.7230769230769227E-2</v>
       </c>
-      <c r="L12" s="118">
+      <c r="L12" s="116">
         <f t="shared" si="5"/>
         <v>26.859504132231407</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="103" t="s">
+      <c r="A13" s="101" t="s">
         <v>142</v>
       </c>
-      <c r="B13" s="109">
+      <c r="B13" s="107">
         <f>B12/B8</f>
         <v>1.0769230769230769E-2</v>
       </c>
-      <c r="D13" s="104">
+      <c r="D13" s="102">
         <f t="shared" si="6"/>
         <v>12</v>
       </c>
-      <c r="E13" s="104">
+      <c r="E13" s="102">
         <f t="shared" si="7"/>
         <v>36</v>
       </c>
-      <c r="F13" s="106">
+      <c r="F13" s="104">
         <f t="shared" si="0"/>
         <v>0.14399999999999999</v>
       </c>
-      <c r="G13" s="106">
+      <c r="G13" s="104">
         <f t="shared" si="1"/>
         <v>4.7999999999999994E-2</v>
       </c>
-      <c r="H13" s="106">
+      <c r="H13" s="104">
         <f>SUM($F$2:F13)</f>
         <v>1.4039999999999997</v>
       </c>
-      <c r="I13" s="107">
+      <c r="I13" s="105">
         <f t="shared" si="2"/>
         <v>3.8999999999999993E-2</v>
       </c>
-      <c r="J13" s="105">
+      <c r="J13" s="103">
         <f t="shared" si="3"/>
         <v>25.641025641025646</v>
       </c>
-      <c r="K13" s="116">
+      <c r="K13" s="114">
         <f t="shared" si="4"/>
         <v>-3.7230769230769227E-2</v>
       </c>
-      <c r="L13" s="118">
+      <c r="L13" s="116">
         <f t="shared" si="5"/>
         <v>26.859504132231407</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D14" s="104">
+      <c r="D14" s="102">
         <f t="shared" si="6"/>
         <v>13</v>
       </c>
-      <c r="E14" s="104">
+      <c r="E14" s="102">
         <f t="shared" si="7"/>
         <v>39</v>
       </c>
-      <c r="F14" s="106">
+      <c r="F14" s="104">
         <f t="shared" si="0"/>
         <v>0.17099999999999999</v>
       </c>
-      <c r="G14" s="106">
+      <c r="G14" s="104">
         <f t="shared" si="1"/>
         <v>5.6999999999999995E-2</v>
       </c>
-      <c r="H14" s="106">
+      <c r="H14" s="104">
         <f>SUM($F$2:F14)</f>
         <v>1.5749999999999997</v>
       </c>
-      <c r="I14" s="107">
+      <c r="I14" s="105">
         <f t="shared" si="2"/>
         <v>4.038461538461538E-2</v>
       </c>
-      <c r="J14" s="105">
+      <c r="J14" s="103">
         <f t="shared" si="3"/>
         <v>24.761904761904766</v>
       </c>
-      <c r="K14" s="116">
+      <c r="K14" s="114">
         <f t="shared" si="4"/>
         <v>-4.6230769230769228E-2</v>
       </c>
-      <c r="L14" s="118">
+      <c r="L14" s="116">
         <f t="shared" si="5"/>
         <v>21.630615640599004</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D15" s="104">
+      <c r="D15" s="102">
         <f t="shared" si="6"/>
         <v>14</v>
       </c>
-      <c r="E15" s="104">
+      <c r="E15" s="102">
         <f t="shared" si="7"/>
         <v>42</v>
       </c>
-      <c r="F15" s="106">
+      <c r="F15" s="104">
         <f t="shared" si="0"/>
         <v>0.17099999999999999</v>
       </c>
-      <c r="G15" s="106">
+      <c r="G15" s="104">
         <f t="shared" si="1"/>
         <v>5.6999999999999995E-2</v>
       </c>
-      <c r="H15" s="106">
+      <c r="H15" s="104">
         <f>SUM($F$2:F15)</f>
         <v>1.7459999999999998</v>
       </c>
-      <c r="I15" s="107">
+      <c r="I15" s="105">
         <f t="shared" si="2"/>
         <v>4.1571428571428565E-2</v>
       </c>
-      <c r="J15" s="105">
+      <c r="J15" s="103">
         <f t="shared" si="3"/>
         <v>24.054982817869419</v>
       </c>
-      <c r="K15" s="116">
+      <c r="K15" s="114">
         <f t="shared" si="4"/>
         <v>-4.6230769230769228E-2</v>
       </c>
-      <c r="L15" s="118">
+      <c r="L15" s="116">
         <f t="shared" si="5"/>
         <v>21.630615640599004</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D16" s="104">
+      <c r="D16" s="102">
         <f t="shared" ref="D16:D42" si="8">D15+1</f>
         <v>15</v>
       </c>
-      <c r="E16" s="104">
+      <c r="E16" s="102">
         <f t="shared" si="7"/>
         <v>45</v>
       </c>
-      <c r="F16" s="106">
+      <c r="F16" s="104">
         <f t="shared" si="0"/>
         <v>0.17099999999999999</v>
       </c>
-      <c r="G16" s="106">
+      <c r="G16" s="104">
         <f t="shared" si="1"/>
         <v>5.6999999999999995E-2</v>
       </c>
-      <c r="H16" s="106">
+      <c r="H16" s="104">
         <f>SUM($F$2:F16)</f>
         <v>1.9169999999999998</v>
       </c>
-      <c r="I16" s="107">
+      <c r="I16" s="105">
         <f t="shared" si="2"/>
         <v>4.2599999999999999E-2</v>
       </c>
-      <c r="J16" s="105">
+      <c r="J16" s="103">
         <f t="shared" si="3"/>
         <v>23.474178403755868</v>
       </c>
-      <c r="K16" s="116">
+      <c r="K16" s="114">
         <f t="shared" si="4"/>
         <v>-4.6230769230769228E-2</v>
       </c>
-      <c r="L16" s="118">
+      <c r="L16" s="116">
         <f t="shared" si="5"/>
         <v>21.630615640599004</v>
       </c>
     </row>
     <row r="17" spans="4:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D17" s="104">
+      <c r="D17" s="102">
         <f t="shared" si="8"/>
         <v>16</v>
       </c>
-      <c r="E17" s="104">
+      <c r="E17" s="102">
         <f t="shared" si="7"/>
         <v>48</v>
       </c>
-      <c r="F17" s="106">
+      <c r="F17" s="104">
         <f t="shared" si="0"/>
         <v>0.17099999999999999</v>
       </c>
-      <c r="G17" s="106">
+      <c r="G17" s="104">
         <f t="shared" si="1"/>
         <v>5.6999999999999995E-2</v>
       </c>
-      <c r="H17" s="106">
+      <c r="H17" s="104">
         <f>SUM($F$2:F17)</f>
         <v>2.0879999999999996</v>
       </c>
-      <c r="I17" s="107">
+      <c r="I17" s="105">
         <f t="shared" si="2"/>
         <v>4.349999999999999E-2</v>
       </c>
-      <c r="J17" s="105">
+      <c r="J17" s="103">
         <f t="shared" si="3"/>
         <v>22.988505747126442</v>
       </c>
-      <c r="K17" s="116">
+      <c r="K17" s="114">
         <f t="shared" si="4"/>
         <v>-4.6230769230769228E-2</v>
       </c>
-      <c r="L17" s="118">
+      <c r="L17" s="116">
         <f t="shared" si="5"/>
         <v>21.630615640599004</v>
       </c>
     </row>
     <row r="18" spans="4:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D18" s="104">
+      <c r="D18" s="102">
         <f t="shared" si="8"/>
         <v>17</v>
       </c>
-      <c r="E18" s="104">
+      <c r="E18" s="102">
         <f t="shared" si="7"/>
         <v>51</v>
       </c>
-      <c r="F18" s="106">
+      <c r="F18" s="104">
         <f t="shared" si="0"/>
         <v>0.19800000000000001</v>
       </c>
-      <c r="G18" s="106">
+      <c r="G18" s="104">
         <f t="shared" si="1"/>
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="H18" s="106">
+      <c r="H18" s="104">
         <f>SUM($F$2:F18)</f>
         <v>2.2859999999999996</v>
       </c>
-      <c r="I18" s="107">
+      <c r="I18" s="105">
         <f t="shared" si="2"/>
         <v>4.48235294117647E-2</v>
       </c>
-      <c r="J18" s="105">
+      <c r="J18" s="103">
         <f t="shared" si="3"/>
         <v>22.309711286089243</v>
       </c>
-      <c r="K18" s="116">
+      <c r="K18" s="114">
         <f t="shared" si="4"/>
         <v>-5.5230769230769236E-2</v>
       </c>
-      <c r="L18" s="118">
+      <c r="L18" s="116">
         <f t="shared" si="5"/>
         <v>18.105849582172699</v>
       </c>
     </row>
     <row r="19" spans="4:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D19" s="104">
+      <c r="D19" s="102">
         <f t="shared" si="8"/>
         <v>18</v>
       </c>
-      <c r="E19" s="104">
+      <c r="E19" s="102">
         <f t="shared" si="7"/>
         <v>54</v>
       </c>
-      <c r="F19" s="106">
+      <c r="F19" s="104">
         <f t="shared" si="0"/>
         <v>0.19800000000000001</v>
       </c>
-      <c r="G19" s="106">
+      <c r="G19" s="104">
         <f t="shared" si="1"/>
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="H19" s="106">
+      <c r="H19" s="104">
         <f>SUM($F$2:F19)</f>
         <v>2.4839999999999995</v>
       </c>
-      <c r="I19" s="107">
+      <c r="I19" s="105">
         <f t="shared" si="2"/>
         <v>4.5999999999999992E-2</v>
       </c>
-      <c r="J19" s="105">
+      <c r="J19" s="103">
         <f t="shared" si="3"/>
         <v>21.739130434782613</v>
       </c>
-      <c r="K19" s="116">
+      <c r="K19" s="114">
         <f t="shared" si="4"/>
         <v>-5.5230769230769236E-2</v>
       </c>
-      <c r="L19" s="118">
+      <c r="L19" s="116">
         <f t="shared" si="5"/>
         <v>18.105849582172699</v>
       </c>
     </row>
     <row r="20" spans="4:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D20" s="104">
+      <c r="D20" s="102">
         <f t="shared" si="8"/>
         <v>19</v>
       </c>
-      <c r="E20" s="104">
+      <c r="E20" s="102">
         <f t="shared" si="7"/>
         <v>57</v>
       </c>
-      <c r="F20" s="106">
+      <c r="F20" s="104">
         <f t="shared" si="0"/>
         <v>0.19800000000000001</v>
       </c>
-      <c r="G20" s="106">
+      <c r="G20" s="104">
         <f t="shared" si="1"/>
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="H20" s="106">
+      <c r="H20" s="104">
         <f>SUM($F$2:F20)</f>
         <v>2.6819999999999995</v>
       </c>
-      <c r="I20" s="107">
+      <c r="I20" s="105">
         <f t="shared" si="2"/>
         <v>4.705263157894736E-2</v>
       </c>
-      <c r="J20" s="105">
+      <c r="J20" s="103">
         <f t="shared" si="3"/>
         <v>21.25279642058166</v>
       </c>
-      <c r="K20" s="116">
+      <c r="K20" s="114">
         <f t="shared" si="4"/>
         <v>-5.5230769230769236E-2</v>
       </c>
-      <c r="L20" s="118">
+      <c r="L20" s="116">
         <f t="shared" si="5"/>
         <v>18.105849582172699</v>
       </c>
     </row>
     <row r="21" spans="4:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D21" s="104">
+      <c r="D21" s="102">
         <f t="shared" si="8"/>
         <v>20</v>
       </c>
-      <c r="E21" s="104">
+      <c r="E21" s="102">
         <f t="shared" ref="E21:E28" si="9">$B$1*D21</f>
         <v>60</v>
       </c>
-      <c r="F21" s="106">
+      <c r="F21" s="104">
         <f t="shared" si="0"/>
         <v>0.19800000000000001</v>
       </c>
-      <c r="G21" s="106">
+      <c r="G21" s="104">
         <f t="shared" si="1"/>
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="H21" s="106">
+      <c r="H21" s="104">
         <f>SUM($F$2:F21)</f>
         <v>2.8799999999999994</v>
       </c>
-      <c r="I21" s="107">
+      <c r="I21" s="105">
         <f t="shared" si="2"/>
         <v>4.7999999999999994E-2</v>
       </c>
-      <c r="J21" s="105">
+      <c r="J21" s="103">
         <f t="shared" si="3"/>
         <v>20.833333333333336</v>
       </c>
-      <c r="K21" s="116">
+      <c r="K21" s="114">
         <f t="shared" si="4"/>
         <v>-5.5230769230769236E-2</v>
       </c>
-      <c r="L21" s="118">
+      <c r="L21" s="116">
         <f t="shared" si="5"/>
         <v>18.105849582172699</v>
       </c>
     </row>
     <row r="22" spans="4:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D22" s="104">
+      <c r="D22" s="102">
         <f t="shared" si="8"/>
         <v>21</v>
       </c>
-      <c r="E22" s="104">
+      <c r="E22" s="102">
         <f t="shared" si="9"/>
         <v>63</v>
       </c>
-      <c r="F22" s="106">
+      <c r="F22" s="104">
         <f t="shared" si="0"/>
         <v>0.22500000000000001</v>
       </c>
-      <c r="G22" s="106">
+      <c r="G22" s="104">
         <f t="shared" si="1"/>
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="H22" s="106">
+      <c r="H22" s="104">
         <f>SUM($F$2:F22)</f>
         <v>3.1049999999999995</v>
       </c>
-      <c r="I22" s="107">
+      <c r="I22" s="105">
         <f t="shared" si="2"/>
         <v>4.928571428571428E-2</v>
       </c>
-      <c r="J22" s="105">
+      <c r="J22" s="103">
         <f t="shared" si="3"/>
         <v>20.289855072463769</v>
       </c>
-      <c r="K22" s="116">
+      <c r="K22" s="114">
         <f t="shared" si="4"/>
         <v>-6.423076923076923E-2</v>
       </c>
-      <c r="L22" s="118">
+      <c r="L22" s="116">
         <f t="shared" si="5"/>
         <v>15.568862275449101</v>
       </c>
     </row>
     <row r="23" spans="4:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D23" s="104">
+      <c r="D23" s="102">
         <f t="shared" si="8"/>
         <v>22</v>
       </c>
-      <c r="E23" s="104">
+      <c r="E23" s="102">
         <f t="shared" si="9"/>
         <v>66</v>
       </c>
-      <c r="F23" s="106">
+      <c r="F23" s="104">
         <f t="shared" si="0"/>
         <v>0.22500000000000001</v>
       </c>
-      <c r="G23" s="106">
+      <c r="G23" s="104">
         <f t="shared" si="1"/>
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="H23" s="106">
+      <c r="H23" s="104">
         <f>SUM($F$2:F23)</f>
         <v>3.3299999999999996</v>
       </c>
-      <c r="I23" s="107">
+      <c r="I23" s="105">
         <f t="shared" si="2"/>
         <v>5.0454545454545446E-2</v>
       </c>
-      <c r="J23" s="105">
+      <c r="J23" s="103">
         <f t="shared" si="3"/>
         <v>19.819819819819823</v>
       </c>
-      <c r="K23" s="116">
+      <c r="K23" s="114">
         <f t="shared" si="4"/>
         <v>-6.423076923076923E-2</v>
       </c>
-      <c r="L23" s="118">
+      <c r="L23" s="116">
         <f t="shared" si="5"/>
         <v>15.568862275449101</v>
       </c>
     </row>
     <row r="24" spans="4:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D24" s="104">
+      <c r="D24" s="102">
         <f t="shared" si="8"/>
         <v>23</v>
       </c>
-      <c r="E24" s="104">
+      <c r="E24" s="102">
         <f t="shared" si="9"/>
         <v>69</v>
       </c>
-      <c r="F24" s="106">
+      <c r="F24" s="104">
         <f t="shared" si="0"/>
         <v>0.22500000000000001</v>
       </c>
-      <c r="G24" s="106">
+      <c r="G24" s="104">
         <f t="shared" si="1"/>
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="H24" s="106">
+      <c r="H24" s="104">
         <f>SUM($F$2:F24)</f>
         <v>3.5549999999999997</v>
       </c>
-      <c r="I24" s="107">
+      <c r="I24" s="105">
         <f t="shared" si="2"/>
         <v>5.1521739130434778E-2</v>
       </c>
-      <c r="J24" s="105">
+      <c r="J24" s="103">
         <f t="shared" si="3"/>
         <v>19.409282700421944</v>
       </c>
-      <c r="K24" s="116">
+      <c r="K24" s="114">
         <f t="shared" si="4"/>
         <v>-6.423076923076923E-2</v>
       </c>
-      <c r="L24" s="118">
+      <c r="L24" s="116">
         <f t="shared" si="5"/>
         <v>15.568862275449101</v>
       </c>
     </row>
     <row r="25" spans="4:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D25" s="104">
+      <c r="D25" s="102">
         <f t="shared" si="8"/>
         <v>24</v>
       </c>
-      <c r="E25" s="104">
+      <c r="E25" s="102">
         <f t="shared" si="9"/>
         <v>72</v>
       </c>
-      <c r="F25" s="106">
+      <c r="F25" s="104">
         <f t="shared" si="0"/>
         <v>0.22500000000000001</v>
       </c>
-      <c r="G25" s="106">
+      <c r="G25" s="104">
         <f t="shared" si="1"/>
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="H25" s="106">
+      <c r="H25" s="104">
         <f>SUM($F$2:F25)</f>
         <v>3.78</v>
       </c>
-      <c r="I25" s="107">
+      <c r="I25" s="105">
         <f t="shared" si="2"/>
         <v>5.2499999999999998E-2</v>
       </c>
-      <c r="J25" s="105">
+      <c r="J25" s="103">
         <f t="shared" si="3"/>
         <v>19.047619047619047</v>
       </c>
-      <c r="K25" s="116">
+      <c r="K25" s="114">
         <f t="shared" si="4"/>
         <v>-6.423076923076923E-2</v>
       </c>
-      <c r="L25" s="118">
+      <c r="L25" s="116">
         <f t="shared" si="5"/>
         <v>15.568862275449101</v>
       </c>
     </row>
     <row r="26" spans="4:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D26" s="104">
+      <c r="D26" s="102">
         <f t="shared" si="8"/>
         <v>25</v>
       </c>
-      <c r="E26" s="104">
+      <c r="E26" s="102">
         <f t="shared" si="9"/>
         <v>75</v>
       </c>
-      <c r="F26" s="106">
+      <c r="F26" s="104">
         <f t="shared" si="0"/>
         <v>0.252</v>
       </c>
-      <c r="G26" s="106">
+      <c r="G26" s="104">
         <f t="shared" si="1"/>
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="H26" s="106">
+      <c r="H26" s="104">
         <f>SUM($F$2:F26)</f>
         <v>4.032</v>
       </c>
-      <c r="I26" s="107">
+      <c r="I26" s="105">
         <f t="shared" si="2"/>
         <v>5.3760000000000002E-2</v>
       </c>
-      <c r="J26" s="105">
+      <c r="J26" s="103">
         <f t="shared" si="3"/>
         <v>18.601190476190474</v>
       </c>
-      <c r="K26" s="116">
+      <c r="K26" s="114">
         <f t="shared" si="4"/>
         <v>-7.3230769230769238E-2</v>
       </c>
-      <c r="L26" s="118">
+      <c r="L26" s="116">
         <f t="shared" si="5"/>
         <v>13.655462184873949</v>
       </c>
     </row>
     <row r="27" spans="4:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D27" s="104">
+      <c r="D27" s="102">
         <f t="shared" si="8"/>
         <v>26</v>
       </c>
-      <c r="E27" s="104">
+      <c r="E27" s="102">
         <f t="shared" si="9"/>
         <v>78</v>
       </c>
-      <c r="F27" s="106">
+      <c r="F27" s="104">
         <f t="shared" si="0"/>
         <v>0.252</v>
       </c>
-      <c r="G27" s="106">
+      <c r="G27" s="104">
         <f t="shared" si="1"/>
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="H27" s="106">
+      <c r="H27" s="104">
         <f>SUM($F$2:F27)</f>
         <v>4.2839999999999998</v>
       </c>
-      <c r="I27" s="107">
+      <c r="I27" s="105">
         <f t="shared" si="2"/>
         <v>5.4923076923076922E-2</v>
       </c>
-      <c r="J27" s="105">
+      <c r="J27" s="103">
         <f t="shared" si="3"/>
         <v>18.207282913165265</v>
       </c>
-      <c r="K27" s="116">
+      <c r="K27" s="114">
         <f t="shared" si="4"/>
         <v>-7.3230769230769238E-2</v>
       </c>
-      <c r="L27" s="118">
+      <c r="L27" s="116">
         <f t="shared" si="5"/>
         <v>13.655462184873949</v>
       </c>
     </row>
     <row r="28" spans="4:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D28" s="104">
+      <c r="D28" s="102">
         <f t="shared" si="8"/>
         <v>27</v>
       </c>
-      <c r="E28" s="104">
+      <c r="E28" s="102">
         <f t="shared" si="9"/>
         <v>81</v>
       </c>
-      <c r="F28" s="106">
+      <c r="F28" s="104">
         <f t="shared" si="0"/>
         <v>0.252</v>
       </c>
-      <c r="G28" s="106">
+      <c r="G28" s="104">
         <f t="shared" si="1"/>
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="H28" s="106">
+      <c r="H28" s="104">
         <f>SUM($F$2:F28)</f>
         <v>4.5359999999999996</v>
       </c>
-      <c r="I28" s="107">
+      <c r="I28" s="105">
         <f t="shared" si="2"/>
         <v>5.5999999999999994E-2</v>
       </c>
-      <c r="J28" s="105">
+      <c r="J28" s="103">
         <f t="shared" si="3"/>
         <v>17.857142857142858</v>
       </c>
-      <c r="K28" s="116">
+      <c r="K28" s="114">
         <f t="shared" si="4"/>
         <v>-7.3230769230769238E-2</v>
       </c>
-      <c r="L28" s="118">
+      <c r="L28" s="116">
         <f t="shared" si="5"/>
         <v>13.655462184873949</v>
       </c>
     </row>
     <row r="29" spans="4:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D29" s="104">
+      <c r="D29" s="102">
         <f t="shared" si="8"/>
         <v>28</v>
       </c>
-      <c r="E29" s="104">
+      <c r="E29" s="102">
         <f t="shared" ref="E29:E35" si="10">$B$1*D29</f>
         <v>84</v>
       </c>
-      <c r="F29" s="106">
+      <c r="F29" s="104">
         <f t="shared" si="0"/>
         <v>0.252</v>
       </c>
-      <c r="G29" s="106">
+      <c r="G29" s="104">
         <f t="shared" si="1"/>
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="H29" s="106">
+      <c r="H29" s="104">
         <f>SUM($F$2:F29)</f>
         <v>4.7879999999999994</v>
       </c>
-      <c r="I29" s="107">
+      <c r="I29" s="105">
         <f t="shared" si="2"/>
         <v>5.6999999999999995E-2</v>
       </c>
-      <c r="J29" s="105">
+      <c r="J29" s="103">
         <f t="shared" si="3"/>
         <v>17.543859649122808</v>
       </c>
-      <c r="K29" s="116">
+      <c r="K29" s="114">
         <f t="shared" si="4"/>
         <v>-7.3230769230769238E-2</v>
       </c>
-      <c r="L29" s="118">
+      <c r="L29" s="116">
         <f t="shared" si="5"/>
         <v>13.655462184873949</v>
       </c>
     </row>
     <row r="30" spans="4:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D30" s="104">
+      <c r="D30" s="102">
         <f t="shared" si="8"/>
         <v>29</v>
       </c>
-      <c r="E30" s="104">
+      <c r="E30" s="102">
         <f t="shared" si="10"/>
         <v>87</v>
       </c>
-      <c r="F30" s="106">
+      <c r="F30" s="104">
         <f t="shared" si="0"/>
         <v>0.27900000000000003</v>
       </c>
-      <c r="G30" s="106">
+      <c r="G30" s="104">
         <f t="shared" si="1"/>
         <v>9.3000000000000013E-2</v>
       </c>
-      <c r="H30" s="106">
+      <c r="H30" s="104">
         <f>SUM($F$2:F30)</f>
         <v>5.0669999999999993</v>
       </c>
-      <c r="I30" s="107">
+      <c r="I30" s="105">
         <f t="shared" si="2"/>
         <v>5.8241379310344822E-2</v>
       </c>
-      <c r="J30" s="105">
+      <c r="J30" s="103">
         <f t="shared" si="3"/>
         <v>17.169923031379515</v>
       </c>
-      <c r="K30" s="116">
+      <c r="K30" s="114">
         <f t="shared" si="4"/>
         <v>-8.2230769230769246E-2</v>
       </c>
-      <c r="L30" s="118">
+      <c r="L30" s="116">
         <f t="shared" si="5"/>
         <v>12.160898035547238</v>
       </c>
     </row>
     <row r="31" spans="4:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D31" s="104">
+      <c r="D31" s="102">
         <f t="shared" si="8"/>
         <v>30</v>
       </c>
-      <c r="E31" s="104">
+      <c r="E31" s="102">
         <f t="shared" si="10"/>
         <v>90</v>
       </c>
-      <c r="F31" s="106">
+      <c r="F31" s="104">
         <f t="shared" si="0"/>
         <v>0.27900000000000003</v>
       </c>
-      <c r="G31" s="106">
+      <c r="G31" s="104">
         <f t="shared" si="1"/>
         <v>9.3000000000000013E-2</v>
       </c>
-      <c r="H31" s="106">
+      <c r="H31" s="104">
         <f>SUM($F$2:F31)</f>
         <v>5.3459999999999992</v>
       </c>
-      <c r="I31" s="107">
+      <c r="I31" s="105">
         <f t="shared" si="2"/>
         <v>5.9399999999999994E-2</v>
       </c>
-      <c r="J31" s="105">
+      <c r="J31" s="103">
         <f t="shared" si="3"/>
         <v>16.835016835016837</v>
       </c>
-      <c r="K31" s="116">
+      <c r="K31" s="114">
         <f t="shared" si="4"/>
         <v>-8.2230769230769246E-2</v>
       </c>
-      <c r="L31" s="118">
+      <c r="L31" s="116">
         <f t="shared" si="5"/>
         <v>12.160898035547238</v>
       </c>
     </row>
     <row r="32" spans="4:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D32" s="104">
+      <c r="D32" s="102">
         <f t="shared" si="8"/>
         <v>31</v>
       </c>
-      <c r="E32" s="104">
+      <c r="E32" s="102">
         <f t="shared" si="10"/>
         <v>93</v>
       </c>
-      <c r="F32" s="106">
+      <c r="F32" s="104">
         <f t="shared" si="0"/>
         <v>0.27900000000000003</v>
       </c>
-      <c r="G32" s="106">
+      <c r="G32" s="104">
         <f t="shared" si="1"/>
         <v>9.3000000000000013E-2</v>
       </c>
-      <c r="H32" s="106">
+      <c r="H32" s="104">
         <f>SUM($F$2:F32)</f>
         <v>5.6249999999999991</v>
       </c>
-      <c r="I32" s="107">
+      <c r="I32" s="105">
         <f t="shared" si="2"/>
         <v>6.0483870967741923E-2</v>
       </c>
-      <c r="J32" s="105">
+      <c r="J32" s="103">
         <f t="shared" si="3"/>
         <v>16.533333333333335</v>
       </c>
-      <c r="K32" s="116">
+      <c r="K32" s="114">
         <f t="shared" si="4"/>
         <v>-8.2230769230769246E-2</v>
       </c>
-      <c r="L32" s="118">
+      <c r="L32" s="116">
         <f t="shared" si="5"/>
         <v>12.160898035547238</v>
       </c>
     </row>
     <row r="33" spans="4:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D33" s="104">
+      <c r="D33" s="102">
         <f t="shared" si="8"/>
         <v>32</v>
       </c>
-      <c r="E33" s="104">
+      <c r="E33" s="102">
         <f t="shared" si="10"/>
         <v>96</v>
       </c>
-      <c r="F33" s="106">
+      <c r="F33" s="104">
         <f t="shared" si="0"/>
         <v>0.27900000000000003</v>
       </c>
-      <c r="G33" s="106">
+      <c r="G33" s="104">
         <f t="shared" si="1"/>
         <v>9.3000000000000013E-2</v>
       </c>
-      <c r="H33" s="106">
+      <c r="H33" s="104">
         <f>SUM($F$2:F33)</f>
         <v>5.903999999999999</v>
       </c>
-      <c r="I33" s="107">
+      <c r="I33" s="105">
         <f t="shared" si="2"/>
         <v>6.1499999999999992E-2</v>
       </c>
-      <c r="J33" s="105">
+      <c r="J33" s="103">
         <f t="shared" si="3"/>
         <v>16.260162601626018</v>
       </c>
-      <c r="K33" s="116">
+      <c r="K33" s="114">
         <f t="shared" si="4"/>
         <v>-8.2230769230769246E-2</v>
       </c>
-      <c r="L33" s="118">
+      <c r="L33" s="116">
         <f t="shared" si="5"/>
         <v>12.160898035547238</v>
       </c>
     </row>
     <row r="34" spans="4:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D34" s="104">
+      <c r="D34" s="102">
         <f t="shared" si="8"/>
         <v>33</v>
       </c>
-      <c r="E34" s="104">
+      <c r="E34" s="102">
         <f t="shared" si="10"/>
         <v>99</v>
       </c>
-      <c r="F34" s="106">
+      <c r="F34" s="104">
         <f t="shared" si="0"/>
         <v>0.30599999999999999</v>
       </c>
-      <c r="G34" s="106">
+      <c r="G34" s="104">
         <f t="shared" si="1"/>
         <v>0.10199999999999999</v>
       </c>
-      <c r="H34" s="106">
+      <c r="H34" s="104">
         <f>SUM($F$2:F34)</f>
         <v>6.2099999999999991</v>
       </c>
-      <c r="I34" s="107">
+      <c r="I34" s="105">
         <f t="shared" si="2"/>
         <v>6.2727272727272715E-2</v>
       </c>
-      <c r="J34" s="105">
+      <c r="J34" s="103">
         <f t="shared" si="3"/>
         <v>15.94202898550725</v>
       </c>
-      <c r="K34" s="116">
+      <c r="K34" s="114">
         <f t="shared" si="4"/>
         <v>-9.1230769230769226E-2</v>
       </c>
-      <c r="L34" s="118">
+      <c r="L34" s="116">
         <f t="shared" si="5"/>
         <v>10.961214165261383</v>
       </c>
     </row>
     <row r="35" spans="4:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D35" s="104">
+      <c r="D35" s="102">
         <f t="shared" si="8"/>
         <v>34</v>
       </c>
-      <c r="E35" s="104">
+      <c r="E35" s="102">
         <f t="shared" si="10"/>
         <v>102</v>
       </c>
-      <c r="F35" s="106">
+      <c r="F35" s="104">
         <f t="shared" si="0"/>
         <v>0.30599999999999999</v>
       </c>
-      <c r="G35" s="106">
+      <c r="G35" s="104">
         <f t="shared" si="1"/>
         <v>0.10199999999999999</v>
       </c>
-      <c r="H35" s="106">
+      <c r="H35" s="104">
         <f>SUM($F$2:F35)</f>
         <v>6.5159999999999991</v>
       </c>
-      <c r="I35" s="107">
+      <c r="I35" s="105">
         <f t="shared" si="2"/>
         <v>6.388235294117646E-2</v>
       </c>
-      <c r="J35" s="105">
+      <c r="J35" s="103">
         <f t="shared" si="3"/>
         <v>15.653775322283613</v>
       </c>
-      <c r="K35" s="116">
+      <c r="K35" s="114">
         <f t="shared" si="4"/>
         <v>-9.1230769230769226E-2</v>
       </c>
-      <c r="L35" s="118">
+      <c r="L35" s="116">
         <f t="shared" si="5"/>
         <v>10.961214165261383</v>
       </c>
     </row>
     <row r="36" spans="4:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D36" s="104">
+      <c r="D36" s="102">
         <f t="shared" si="8"/>
         <v>35</v>
       </c>
-      <c r="E36" s="104">
+      <c r="E36" s="102">
         <f t="shared" ref="E36:E42" si="11">$B$1*D36</f>
         <v>105</v>
       </c>
-      <c r="F36" s="106">
+      <c r="F36" s="104">
         <f t="shared" si="0"/>
         <v>0.30599999999999999</v>
       </c>
-      <c r="G36" s="106">
+      <c r="G36" s="104">
         <f t="shared" si="1"/>
         <v>0.10199999999999999</v>
       </c>
-      <c r="H36" s="106">
+      <c r="H36" s="104">
         <f>SUM($F$2:F36)</f>
         <v>6.8219999999999992</v>
       </c>
-      <c r="I36" s="107">
+      <c r="I36" s="105">
         <f t="shared" ref="I36:I42" si="12">H36/E36</f>
         <v>6.4971428571428569E-2</v>
       </c>
-      <c r="J36" s="105">
+      <c r="J36" s="103">
         <f t="shared" si="3"/>
         <v>15.391380826737027</v>
       </c>
-      <c r="K36" s="116">
+      <c r="K36" s="114">
         <f t="shared" ref="K36:K42" si="13">IF($B$13-G36&gt;0,"",$B$13-G36)</f>
         <v>-9.1230769230769226E-2</v>
       </c>
-      <c r="L36" s="118">
+      <c r="L36" s="116">
         <f t="shared" si="5"/>
         <v>10.961214165261383</v>
       </c>
     </row>
     <row r="37" spans="4:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D37" s="104">
+      <c r="D37" s="102">
         <f t="shared" si="8"/>
         <v>36</v>
       </c>
-      <c r="E37" s="104">
+      <c r="E37" s="102">
         <f t="shared" si="11"/>
         <v>108</v>
       </c>
-      <c r="F37" s="106">
+      <c r="F37" s="104">
         <f t="shared" si="0"/>
         <v>0.30599999999999999</v>
       </c>
-      <c r="G37" s="106">
+      <c r="G37" s="104">
         <f t="shared" si="1"/>
         <v>0.10199999999999999</v>
       </c>
-      <c r="H37" s="106">
+      <c r="H37" s="104">
         <f>SUM($F$2:F37)</f>
         <v>7.1279999999999992</v>
       </c>
-      <c r="I37" s="107">
+      <c r="I37" s="105">
         <f t="shared" si="12"/>
         <v>6.5999999999999989E-2</v>
       </c>
-      <c r="J37" s="105">
+      <c r="J37" s="103">
         <f t="shared" si="3"/>
         <v>15.151515151515154</v>
       </c>
-      <c r="K37" s="116">
+      <c r="K37" s="114">
         <f t="shared" si="13"/>
         <v>-9.1230769230769226E-2</v>
       </c>
-      <c r="L37" s="118">
+      <c r="L37" s="116">
         <f t="shared" si="5"/>
         <v>10.961214165261383</v>
       </c>
     </row>
     <row r="38" spans="4:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D38" s="104">
+      <c r="D38" s="102">
         <f t="shared" si="8"/>
         <v>37</v>
       </c>
-      <c r="E38" s="104">
+      <c r="E38" s="102">
         <f t="shared" si="11"/>
         <v>111</v>
       </c>
-      <c r="F38" s="106">
+      <c r="F38" s="104">
         <f t="shared" si="0"/>
         <v>0.33299999999999996</v>
       </c>
-      <c r="G38" s="106">
+      <c r="G38" s="104">
         <f t="shared" si="1"/>
         <v>0.11099999999999999</v>
       </c>
-      <c r="H38" s="106">
+      <c r="H38" s="104">
         <f>SUM($F$2:F38)</f>
         <v>7.4609999999999994</v>
       </c>
-      <c r="I38" s="107">
+      <c r="I38" s="105">
         <f t="shared" si="12"/>
         <v>6.7216216216216207E-2</v>
       </c>
-      <c r="J38" s="105">
+      <c r="J38" s="103">
         <f t="shared" si="3"/>
         <v>14.877362283876158</v>
       </c>
-      <c r="K38" s="116">
+      <c r="K38" s="114">
         <f t="shared" si="13"/>
         <v>-0.10023076923076922</v>
       </c>
-      <c r="L38" s="118">
+      <c r="L38" s="116">
         <f t="shared" si="5"/>
         <v>9.9769762087490417</v>
       </c>
     </row>
     <row r="39" spans="4:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D39" s="104">
+      <c r="D39" s="102">
         <f t="shared" si="8"/>
         <v>38</v>
       </c>
-      <c r="E39" s="104">
+      <c r="E39" s="102">
         <f t="shared" si="11"/>
         <v>114</v>
       </c>
-      <c r="F39" s="106">
+      <c r="F39" s="104">
         <f t="shared" si="0"/>
         <v>0.33299999999999996</v>
       </c>
-      <c r="G39" s="106">
+      <c r="G39" s="104">
         <f t="shared" si="1"/>
         <v>0.11099999999999999</v>
       </c>
-      <c r="H39" s="106">
+      <c r="H39" s="104">
         <f>SUM($F$2:F39)</f>
         <v>7.7939999999999996</v>
       </c>
-      <c r="I39" s="107">
+      <c r="I39" s="105">
         <f t="shared" si="12"/>
         <v>6.8368421052631578E-2</v>
       </c>
-      <c r="J39" s="105">
+      <c r="J39" s="103">
         <f t="shared" si="3"/>
         <v>14.626635873749038</v>
       </c>
-      <c r="K39" s="116">
+      <c r="K39" s="114">
         <f t="shared" si="13"/>
         <v>-0.10023076923076922</v>
       </c>
-      <c r="L39" s="118">
+      <c r="L39" s="116">
         <f t="shared" si="5"/>
         <v>9.9769762087490417</v>
       </c>
     </row>
     <row r="40" spans="4:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D40" s="104">
+      <c r="D40" s="102">
         <f t="shared" si="8"/>
         <v>39</v>
       </c>
-      <c r="E40" s="104">
+      <c r="E40" s="102">
         <f t="shared" si="11"/>
         <v>117</v>
       </c>
-      <c r="F40" s="106">
+      <c r="F40" s="104">
         <f t="shared" si="0"/>
         <v>0.33299999999999996</v>
       </c>
-      <c r="G40" s="106">
+      <c r="G40" s="104">
         <f t="shared" si="1"/>
         <v>0.11099999999999999</v>
       </c>
-      <c r="H40" s="106">
+      <c r="H40" s="104">
         <f>SUM($F$2:F40)</f>
         <v>8.1269999999999989</v>
       </c>
-      <c r="I40" s="107">
+      <c r="I40" s="105">
         <f t="shared" si="12"/>
         <v>6.946153846153845E-2</v>
       </c>
-      <c r="J40" s="105">
+      <c r="J40" s="103">
         <f t="shared" si="3"/>
         <v>14.396456256921375</v>
       </c>
-      <c r="K40" s="116">
+      <c r="K40" s="114">
         <f t="shared" si="13"/>
         <v>-0.10023076923076922</v>
       </c>
-      <c r="L40" s="118">
+      <c r="L40" s="116">
         <f t="shared" si="5"/>
         <v>9.9769762087490417</v>
       </c>
     </row>
     <row r="41" spans="4:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D41" s="104">
+      <c r="D41" s="102">
         <f t="shared" si="8"/>
         <v>40</v>
       </c>
-      <c r="E41" s="104">
+      <c r="E41" s="102">
         <f t="shared" si="11"/>
         <v>120</v>
       </c>
-      <c r="F41" s="106">
+      <c r="F41" s="104">
         <f t="shared" si="0"/>
         <v>0.33299999999999996</v>
       </c>
-      <c r="G41" s="106">
+      <c r="G41" s="104">
         <f t="shared" si="1"/>
         <v>0.11099999999999999</v>
       </c>
-      <c r="H41" s="106">
+      <c r="H41" s="104">
         <f>SUM($F$2:F41)</f>
         <v>8.4599999999999991</v>
       </c>
-      <c r="I41" s="107">
+      <c r="I41" s="105">
         <f t="shared" si="12"/>
         <v>7.0499999999999993E-2</v>
       </c>
-      <c r="J41" s="105">
+      <c r="J41" s="103">
         <f t="shared" si="3"/>
         <v>14.184397163120568</v>
       </c>
-      <c r="K41" s="116">
+      <c r="K41" s="114">
         <f t="shared" si="13"/>
         <v>-0.10023076923076922</v>
       </c>
-      <c r="L41" s="118">
+      <c r="L41" s="116">
         <f t="shared" si="5"/>
         <v>9.9769762087490417</v>
       </c>
     </row>
     <row r="42" spans="4:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D42" s="104">
+      <c r="D42" s="102">
         <f t="shared" si="8"/>
         <v>41</v>
       </c>
-      <c r="E42" s="104">
+      <c r="E42" s="102">
         <f t="shared" si="11"/>
         <v>123</v>
       </c>
-      <c r="F42" s="106">
+      <c r="F42" s="104">
         <f t="shared" si="0"/>
         <v>0.36</v>
       </c>
-      <c r="G42" s="106">
+      <c r="G42" s="104">
         <f t="shared" si="1"/>
         <v>0.12</v>
       </c>
-      <c r="H42" s="106">
+      <c r="H42" s="104">
         <f>SUM($F$2:F42)</f>
         <v>8.8199999999999985</v>
       </c>
-      <c r="I42" s="107">
+      <c r="I42" s="105">
         <f t="shared" si="12"/>
         <v>7.1707317073170726E-2</v>
       </c>
-      <c r="J42" s="105">
+      <c r="J42" s="103">
         <f t="shared" si="3"/>
         <v>13.945578231292519</v>
       </c>
-      <c r="K42" s="116">
+      <c r="K42" s="114">
         <f t="shared" si="13"/>
         <v>-0.10923076923076923</v>
       </c>
-      <c r="L42" s="118">
+      <c r="L42" s="116">
         <f t="shared" si="5"/>
         <v>9.1549295774647881</v>
       </c>

--- a/Brainstorm.xlsx
+++ b/Brainstorm.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Personal@SSD\Game\DL\dragalia-data-track\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{220607E8-C7E1-40DB-866C-8DE04F072AED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{769215DD-AA3C-410F-A72E-FC87EAD5FD3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9660" yWindow="4050" windowWidth="21600" windowHeight="11385" xr2:uid="{4CFB4A6A-60C6-4091-BCA5-480044B61D33}"/>
+    <workbookView xWindow="26055" yWindow="495" windowWidth="25110" windowHeight="14280" activeTab="4" xr2:uid="{4CFB4A6A-60C6-4091-BCA5-480044B61D33}"/>
   </bookViews>
   <sheets>
     <sheet name="Rotation" sheetId="8" r:id="rId1"/>
@@ -97,7 +97,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="193">
   <si>
     <t>睡抗</t>
   </si>
@@ -286,9 +286,6 @@
   </si>
   <si>
     <t>原始 SP 表 (Combo 為累加)</t>
-  </si>
-  <si>
-    <t>SP +%</t>
   </si>
   <si>
     <t>SP 回流%</t>
@@ -668,16 +665,19 @@
     <t>+ / +</t>
   </si>
   <si>
-    <t>巴哈姆特 / Bahamut</t>
-  </si>
-  <si>
-    <t>ATK %</t>
-  </si>
-  <si>
-    <t>奈亞拉托提普 / Nyarlathotep (HP &lt; 30%)</t>
-  </si>
-  <si>
-    <t>奈亞拉托提普 / Nyarlathotep (HP &gt; 30%)</t>
+    <t>風牙 / Volk</t>
+  </si>
+  <si>
+    <t>不動明王 / Fudo Myo-o</t>
+  </si>
+  <si>
+    <t>雷鷹．勇 / GR Zephyr</t>
+  </si>
+  <si>
+    <t>夢零 / Mid0</t>
+  </si>
+  <si>
+    <t>SD %</t>
   </si>
 </sst>
 </file>
@@ -1992,6 +1992,12 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="48" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="48" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="23" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2001,6 +2007,54 @@
     <xf numFmtId="0" fontId="5" fillId="23" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="14" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="14" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="50" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="50" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="23" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="23" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="23" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="28" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="28" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="30" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="30" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="30" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="32" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="32" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="4" fontId="5" fillId="35" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2016,10 +2070,85 @@
     <xf numFmtId="0" fontId="5" fillId="38" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="48" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="48" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="46" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="46" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2028,139 +2157,10 @@
     <xf numFmtId="0" fontId="5" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="10" fontId="5" fillId="21" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="5" fillId="21" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="46" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="46" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="14" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="14" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="50" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="50" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="32" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="32" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="30" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="30" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="30" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="28" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="28" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="23" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="23" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="23" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2269,7 +2269,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>巴哈姆特 / Bahamut</c:v>
+                  <c:v>風牙 / Volk</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2294,10 +2294,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Dragon Aura'!$A$2:$A$54</c:f>
+              <c:f>'Dragon Aura'!$A$2:$A$22</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0" formatCode="0%">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2360,141 +2360,45 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>1.0000000000000002</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1.0500000000000003</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1.1000000000000003</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1.1500000000000004</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1.2000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1.2500000000000004</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1.3000000000000005</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1.3500000000000005</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1.4000000000000006</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1.4500000000000006</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1.5000000000000007</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1.5500000000000007</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1.6000000000000008</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>1.6500000000000008</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>1.7000000000000008</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>1.7500000000000009</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>1.8000000000000009</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>1.850000000000001</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>1.900000000000001</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>1.9500000000000011</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>2.0000000000000009</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>2.0500000000000007</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>2.1000000000000005</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>2.1500000000000004</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>2.2000000000000002</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>2.25</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>2.2999999999999998</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>2.3499999999999996</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>2.3999999999999995</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>2.4499999999999993</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>2.4999999999999991</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>2.5499999999999989</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>2.5999999999999988</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Dragon Aura'!$B$2:$B$54</c:f>
+              <c:f>'Dragon Aura'!$B$2:$B$22</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>-0.13725490196078416</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.11999999999999977</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.10370370370370363</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-8.8288288288288497E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-7.3684210526315685E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-5.9829059829059728E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-4.6666666666666523E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-3.4146341463414331E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-2.2222222222222365E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-1.0852713178294504E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
@@ -2527,102 +2431,6 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="52">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2644,7 +2452,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>奈亞拉托提普 / Nyarlathotep (HP &lt; 30%)</c:v>
+                  <c:v>不動明王 / Fudo Myo-o</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2669,10 +2477,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Dragon Aura'!$A$2:$A$54</c:f>
+              <c:f>'Dragon Aura'!$A$2:$A$22</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0" formatCode="0%">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2735,270 +2543,78 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>1.0000000000000002</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1.0500000000000003</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1.1000000000000003</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1.1500000000000004</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1.2000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1.2500000000000004</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1.3000000000000005</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1.3500000000000005</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1.4000000000000006</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1.4500000000000006</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1.5000000000000007</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1.5500000000000007</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1.6000000000000008</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>1.6500000000000008</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>1.7000000000000008</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>1.7500000000000009</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>1.8000000000000009</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>1.850000000000001</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>1.900000000000001</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>1.9500000000000011</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>2.0000000000000009</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>2.0500000000000007</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>2.1000000000000005</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>2.1500000000000004</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>2.2000000000000002</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>2.25</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>2.2999999999999998</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>2.3499999999999996</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>2.3999999999999995</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>2.4499999999999993</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>2.4999999999999991</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>2.5499999999999989</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>2.5999999999999988</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Dragon Aura'!$C$2:$C$54</c:f>
+              <c:f>'Dragon Aura'!$C$2:$C$22</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>-1.2126574973550075E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>-1.2126574973550297E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>-1.2126574973550297E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>-1.2126574973549964E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>-1.2126574973550075E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>-1.2126574973550075E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>-1.2126574973550186E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>-1.2126574973550297E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>-1.2126574973549964E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>-1.2126574973550075E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>-1.2126574973550186E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-1.0263929618768208E-2</c:v>
+                  <c:v>-1.2126574973550186E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-1.9886363636363869E-2</c:v>
+                  <c:v>-1.2126574973550075E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-2.8925619834710647E-2</c:v>
+                  <c:v>-1.2126574973549964E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-3.7433155080214164E-2</c:v>
+                  <c:v>-1.2126574973550075E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-4.5454545454545525E-2</c:v>
+                  <c:v>-1.2126574973550186E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-5.3030303030303205E-2</c:v>
+                  <c:v>-1.2126574973550186E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-6.0196560196560167E-2</c:v>
+                  <c:v>-1.2126574973550075E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-6.6985645933014593E-2</c:v>
+                  <c:v>-1.2126574973550075E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-7.3426573426573549E-2</c:v>
+                  <c:v>-1.2126574973550075E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-7.9545454545454475E-2</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-8.5365853658536772E-2</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-9.0909090909091272E-2</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-9.6194503171247558E-2</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>-0.10123966942148765</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>-0.10606060606060608</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>-0.11067193675889353</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>-0.11508704061895558</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>-0.11931818181818199</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>-0.12337662337662347</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>-0.12727272727272754</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>-0.13101604278074863</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>-0.13461538461538469</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>-0.13807890222984587</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>-0.14141414141414166</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>-0.14462809917355379</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>-0.14772727272727271</c:v>
-                </c:pt>
-                <c:pt idx="37">
-          